--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>452.3253871653903</v>
+        <v>101.9134541931352</v>
       </c>
       <c r="B2">
-        <v>0.9192518297230758</v>
+        <v>0.106970280159525</v>
       </c>
       <c r="C2">
-        <v>0.001883790029406372</v>
+        <v>0.000926225341393263</v>
       </c>
       <c r="D2">
-        <v>0.2388160201551326</v>
+        <v>0.6894056795738879</v>
       </c>
       <c r="E2">
-        <v>1.208473664894238</v>
+        <v>1.031882260731193</v>
       </c>
       <c r="F2">
-        <v>13232.18505184507</v>
+        <v>81538.50378104943</v>
       </c>
       <c r="G2">
-        <v>0.2439098805189133</v>
+        <v>0.6895250678062439</v>
       </c>
       <c r="H2">
-        <v>1.210902571678162</v>
+        <v>1.031888246536255</v>
       </c>
       <c r="I2">
-        <v>13253.3818359375</v>
+        <v>81537.765625</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>838.6204616357969</v>
+        <v>108.4352681589187</v>
       </c>
       <c r="B3">
-        <v>0.4122148330489283</v>
+        <v>0.09098447821450543</v>
       </c>
       <c r="C3">
-        <v>0.001730749672162795</v>
+        <v>0.001076965233335448</v>
       </c>
       <c r="D3">
-        <v>0.2176001238175549</v>
+        <v>0.7284417809339752</v>
       </c>
       <c r="E3">
-        <v>1.407115804446388</v>
+        <v>1.033028378276281</v>
       </c>
       <c r="F3">
-        <v>13233.10920265835</v>
+        <v>74465.41067907</v>
       </c>
       <c r="G3">
-        <v>0.2204809486865997</v>
+        <v>0.7284013628959656</v>
       </c>
       <c r="H3">
-        <v>1.402935028076172</v>
+        <v>1.033023834228516</v>
       </c>
       <c r="I3">
-        <v>13260.1171875</v>
+        <v>74504.6953125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>229.6057902048961</v>
+        <v>104.0282503206033</v>
       </c>
       <c r="B4">
-        <v>0.3059617428873918</v>
+        <v>0.109219436254788</v>
       </c>
       <c r="C4">
-        <v>0.00182413715541279</v>
+        <v>0.0009520796015673995</v>
       </c>
       <c r="D4">
-        <v>0.4821209919874028</v>
+        <v>0.6864619032469254</v>
       </c>
       <c r="E4">
-        <v>1.050745467659008</v>
+        <v>1.031506971853486</v>
       </c>
       <c r="F4">
-        <v>27776.05990423789</v>
+        <v>78830.50808908061</v>
       </c>
       <c r="G4">
-        <v>0.4701140522956848</v>
+        <v>0.6867114901542664</v>
       </c>
       <c r="H4">
-        <v>1.018212199211121</v>
+        <v>1.031518816947937</v>
       </c>
       <c r="I4">
-        <v>28478.84375</v>
+        <v>78864.78125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>499.0058031055793</v>
+        <v>101.7593884437088</v>
       </c>
       <c r="B5">
-        <v>0.9431191983421764</v>
+        <v>0.1181174580499429</v>
       </c>
       <c r="C5">
-        <v>0.000868546174781542</v>
+        <v>0.0008744069494475604</v>
       </c>
       <c r="D5">
-        <v>0.1322352254346982</v>
+        <v>0.6642529128823289</v>
       </c>
       <c r="E5">
-        <v>1.415151521687061</v>
+        <v>1.031062335648002</v>
       </c>
       <c r="F5">
-        <v>16041.37519833795</v>
+        <v>82841.31125921379</v>
       </c>
       <c r="G5">
-        <v>0.1326796263456345</v>
+        <v>0.6677705645561218</v>
       </c>
       <c r="H5">
-        <v>1.405528426170349</v>
+        <v>1.031142234802246</v>
       </c>
       <c r="I5">
-        <v>16273.6162109375</v>
+        <v>82696.9609375</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>930.3225520522869</v>
+        <v>97.00732312623538</v>
       </c>
       <c r="B6">
-        <v>0.990661040913793</v>
+        <v>0.09015130420140427</v>
       </c>
       <c r="C6">
-        <v>0.001192928732945718</v>
+        <v>0.0008136774853122456</v>
       </c>
       <c r="D6">
-        <v>0.1011260670957585</v>
+        <v>0.7101028212261322</v>
       </c>
       <c r="E6">
-        <v>1.74156199107226</v>
+        <v>1.034769324225474</v>
       </c>
       <c r="F6">
-        <v>10446.90940800928</v>
+        <v>96695.83683405023</v>
       </c>
       <c r="G6">
-        <v>0.06316100805997849</v>
+        <v>0.7113516330718994</v>
       </c>
       <c r="H6">
-        <v>1.773335218429565</v>
+        <v>1.034701347351074</v>
       </c>
       <c r="I6">
-        <v>7897.71533203125</v>
+        <v>95012.296875</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>670.5425597188082</v>
+        <v>105.7189441433412</v>
       </c>
       <c r="B7">
-        <v>0.1996933255496807</v>
+        <v>0.1029853126523506</v>
       </c>
       <c r="C7">
-        <v>0.001433056711423009</v>
+        <v>0.0008303649726743065</v>
       </c>
       <c r="D7">
-        <v>0.3038571760186457</v>
+        <v>0.6768559756948075</v>
       </c>
       <c r="E7">
-        <v>1.229596352040272</v>
+        <v>1.032255186762739</v>
       </c>
       <c r="F7">
-        <v>22151.97817027991</v>
+        <v>89221.94783598969</v>
       </c>
       <c r="G7">
-        <v>0.3060647547245026</v>
+        <v>0.6794846653938293</v>
       </c>
       <c r="H7">
-        <v>1.230799078941345</v>
+        <v>1.032262086868286</v>
       </c>
       <c r="I7">
-        <v>22383.80078125</v>
+        <v>88738.421875</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>800.0982295584375</v>
+        <v>97.55346363800341</v>
       </c>
       <c r="B8">
-        <v>0.6571815086050313</v>
+        <v>0.1036079774072063</v>
       </c>
       <c r="C8">
-        <v>0.001316665378116842</v>
+        <v>0.001070320675028789</v>
       </c>
       <c r="D8">
-        <v>0.1493239383229311</v>
+        <v>0.7153566801011026</v>
       </c>
       <c r="E8">
-        <v>1.542835718349115</v>
+        <v>1.032354481830206</v>
       </c>
       <c r="F8">
-        <v>12289.0220136147</v>
+        <v>73551.88058884651</v>
       </c>
       <c r="G8">
-        <v>0.1465810835361481</v>
+        <v>0.715279221534729</v>
       </c>
       <c r="H8">
-        <v>1.541437983512878</v>
+        <v>1.032357096672058</v>
       </c>
       <c r="I8">
-        <v>12146.021484375</v>
+        <v>73560.3046875</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>555.4840304836314</v>
+        <v>115.3572194329611</v>
       </c>
       <c r="B9">
-        <v>0.1073888184572893</v>
+        <v>0.1028322226632898</v>
       </c>
       <c r="C9">
-        <v>0.001100568294986235</v>
+        <v>0.0009818494965918576</v>
       </c>
       <c r="D9">
-        <v>0.3716353063487824</v>
+        <v>0.6881219546363398</v>
       </c>
       <c r="E9">
-        <v>1.150409400798877</v>
+        <v>1.031530999477865</v>
       </c>
       <c r="F9">
-        <v>35365.52701416102</v>
+        <v>76427.09527010556</v>
       </c>
       <c r="G9">
-        <v>0.3428767621517181</v>
+        <v>0.6883814334869385</v>
       </c>
       <c r="H9">
-        <v>1.167278289794922</v>
+        <v>1.031572103500366</v>
       </c>
       <c r="I9">
-        <v>31089.38671875</v>
+        <v>76505.609375</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>980.6617942522237</v>
+        <v>118.1752462310887</v>
       </c>
       <c r="B10">
-        <v>0.6512630898536482</v>
+        <v>0.08914499946635959</v>
       </c>
       <c r="C10">
-        <v>0.001190212694613227</v>
+        <v>0.001014338787271196</v>
       </c>
       <c r="D10">
-        <v>0.1176374512810375</v>
+        <v>0.7149164559504366</v>
       </c>
       <c r="E10">
-        <v>1.708178556828683</v>
+        <v>1.032809430113941</v>
       </c>
       <c r="F10">
-        <v>11766.4432220896</v>
+        <v>77261.85062254904</v>
       </c>
       <c r="G10">
-        <v>0.1034209355711937</v>
+        <v>0.7147232294082642</v>
       </c>
       <c r="H10">
-        <v>1.71707558631897</v>
+        <v>1.03279173374176</v>
       </c>
       <c r="I10">
-        <v>10339.9150390625</v>
+        <v>77370.765625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>592.7755331346594</v>
+        <v>95.43099149611669</v>
       </c>
       <c r="B11">
-        <v>0.8274859145480739</v>
+        <v>0.117747435132188</v>
       </c>
       <c r="C11">
-        <v>0.001936154235358179</v>
+        <v>0.001155492289612001</v>
       </c>
       <c r="D11">
-        <v>0.2170993827807085</v>
+        <v>0.700898654350199</v>
       </c>
       <c r="E11">
-        <v>1.29922407858226</v>
+        <v>1.031000690276929</v>
       </c>
       <c r="F11">
-        <v>11714.41669338227</v>
+        <v>66432.29719207993</v>
       </c>
       <c r="G11">
-        <v>0.22195965051651</v>
+        <v>0.7007717490196228</v>
       </c>
       <c r="H11">
-        <v>1.302657246589661</v>
+        <v>1.031077146530151</v>
       </c>
       <c r="I11">
-        <v>11265.0244140625</v>
+        <v>66636.71875</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>55.05560682296562</v>
+        <v>111.4354113606119</v>
       </c>
       <c r="B12">
-        <v>0.6848140479775435</v>
+        <v>0.09792735292788715</v>
       </c>
       <c r="C12">
-        <v>0.001174191629449481</v>
+        <v>0.001192209335422964</v>
       </c>
       <c r="D12">
-        <v>0.4190410376271149</v>
+        <v>0.7228637911922389</v>
       </c>
       <c r="E12">
-        <v>1.027647801034132</v>
+        <v>1.031833111580448</v>
       </c>
       <c r="F12">
-        <v>38018.20933350654</v>
+        <v>66425.55258270158</v>
       </c>
       <c r="G12">
-        <v>0.3910132050514221</v>
+        <v>0.7223302721977234</v>
       </c>
       <c r="H12">
-        <v>0.9816129207611084</v>
+        <v>1.031853675842285</v>
       </c>
       <c r="I12">
-        <v>33303.20703125</v>
+        <v>66568.234375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>206.0029719403969</v>
+        <v>101.1326600410373</v>
       </c>
       <c r="B13">
-        <v>0.4179158089205331</v>
+        <v>0.1135789704395148</v>
       </c>
       <c r="C13">
-        <v>0.001244067808910349</v>
+        <v>0.0008890256571012658</v>
       </c>
       <c r="D13">
-        <v>0.3928616476208127</v>
+        <v>0.6743774679801835</v>
       </c>
       <c r="E13">
-        <v>1.05709080741709</v>
+        <v>1.031373309824868</v>
       </c>
       <c r="F13">
-        <v>33144.73782254908</v>
+        <v>82897.20479325813</v>
       </c>
       <c r="G13">
-        <v>0.3862700462341309</v>
+        <v>0.6761585474014282</v>
       </c>
       <c r="H13">
-        <v>1.044483184814453</v>
+        <v>1.031453132629395</v>
       </c>
       <c r="I13">
-        <v>31659.529296875</v>
+        <v>82777.8984375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>410.7258926675765</v>
+        <v>102.6672977817588</v>
       </c>
       <c r="B14">
-        <v>0.3836832932042057</v>
+        <v>0.1078194439056891</v>
       </c>
       <c r="C14">
-        <v>0.0008343404352875219</v>
+        <v>0.001063925480947941</v>
       </c>
       <c r="D14">
-        <v>0.2223572614945134</v>
+        <v>0.7026196391448699</v>
       </c>
       <c r="E14">
-        <v>1.201526652455955</v>
+        <v>1.031510342624039</v>
       </c>
       <c r="F14">
-        <v>27841.47515936447</v>
+        <v>72324.81594804979</v>
       </c>
       <c r="G14">
-        <v>0.2402189821004868</v>
+        <v>0.7024824023246765</v>
       </c>
       <c r="H14">
-        <v>1.192220091819763</v>
+        <v>1.03151524066925</v>
       </c>
       <c r="I14">
-        <v>27317.720703125</v>
+        <v>72326.796875</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>605.2644008480386</v>
+        <v>116.6830816598987</v>
       </c>
       <c r="B15">
-        <v>0.3937292928081936</v>
+        <v>0.09205967438154888</v>
       </c>
       <c r="C15">
-        <v>0.001818740823915113</v>
+        <v>0.0009072240764916553</v>
       </c>
       <c r="D15">
-        <v>0.2839951049409805</v>
+        <v>0.6956464564419574</v>
       </c>
       <c r="E15">
-        <v>1.226092249861008</v>
+        <v>1.032771325200475</v>
       </c>
       <c r="F15">
-        <v>16303.12235308328</v>
+        <v>83935.62639688494</v>
       </c>
       <c r="G15">
-        <v>0.2861732840538025</v>
+        <v>0.6965533494949341</v>
       </c>
       <c r="H15">
-        <v>1.222235441207886</v>
+        <v>1.032730937004089</v>
       </c>
       <c r="I15">
-        <v>16425.20703125</v>
+        <v>83995.3359375</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>774.2115587348703</v>
+        <v>83.18492246803046</v>
       </c>
       <c r="B16">
-        <v>0.5901221061749302</v>
+        <v>0.1123006485008809</v>
       </c>
       <c r="C16">
-        <v>0.001011163622979845</v>
+        <v>0.0008120986445855115</v>
       </c>
       <c r="D16">
-        <v>0.1308111832777631</v>
+        <v>0.689193231070699</v>
       </c>
       <c r="E16">
-        <v>1.583852737346976</v>
+        <v>1.033510702563165</v>
       </c>
       <c r="F16">
-        <v>14231.1921651732</v>
+        <v>93837.49906414766</v>
       </c>
       <c r="G16">
-        <v>0.1267093271017075</v>
+        <v>0.6906330585479736</v>
       </c>
       <c r="H16">
-        <v>1.561009883880615</v>
+        <v>1.033448338508606</v>
       </c>
       <c r="I16">
-        <v>13864.837890625</v>
+        <v>92288.40625</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>418.9552646448474</v>
+        <v>83.81576594286379</v>
       </c>
       <c r="B17">
-        <v>0.8816857028024231</v>
+        <v>0.09594309958906869</v>
       </c>
       <c r="C17">
-        <v>0.00106884880235106</v>
+        <v>0.001101282571178555</v>
       </c>
       <c r="D17">
-        <v>0.180040139774752</v>
+        <v>0.7434163471211955</v>
       </c>
       <c r="E17">
-        <v>1.259823846926246</v>
+        <v>1.035594266942751</v>
       </c>
       <c r="F17">
-        <v>17588.69105101524</v>
+        <v>75377.83846040601</v>
       </c>
       <c r="G17">
-        <v>0.1822983026504517</v>
+        <v>0.7433887720108032</v>
       </c>
       <c r="H17">
-        <v>1.269267678260803</v>
+        <v>1.035325407981873</v>
       </c>
       <c r="I17">
-        <v>17657.732421875</v>
+        <v>75599.40625</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>712.9577219655317</v>
+        <v>81.19290677076258</v>
       </c>
       <c r="B18">
-        <v>0.9291370911114991</v>
+        <v>0.1149389708146189</v>
       </c>
       <c r="C18">
-        <v>0.00112865948499767</v>
+        <v>0.0009294480195554264</v>
       </c>
       <c r="D18">
-        <v>0.1235380423063174</v>
+        <v>0.7007942966215395</v>
       </c>
       <c r="E18">
-        <v>1.576019806726498</v>
+        <v>1.033308949851959</v>
       </c>
       <c r="F18">
-        <v>12008.96969607501</v>
+        <v>83429.7766818427</v>
       </c>
       <c r="G18">
-        <v>0.1058318242430687</v>
+        <v>0.7006247043609619</v>
       </c>
       <c r="H18">
-        <v>1.572552800178528</v>
+        <v>1.033215761184692</v>
       </c>
       <c r="I18">
-        <v>11252.91015625</v>
+        <v>83222.34375</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>791.9708080780337</v>
+        <v>113.0384583563446</v>
       </c>
       <c r="B19">
-        <v>0.05447609058711079</v>
+        <v>0.1031858380657279</v>
       </c>
       <c r="C19">
-        <v>0.001865007806508466</v>
+        <v>0.0009543186859356742</v>
       </c>
       <c r="D19">
-        <v>0.5263104434295792</v>
+        <v>0.6864408933641143</v>
       </c>
       <c r="E19">
-        <v>1.138379813289575</v>
+        <v>1.031682784533075</v>
       </c>
       <c r="F19">
-        <v>29623.13729654969</v>
+        <v>78495.33357414858</v>
       </c>
       <c r="G19">
-        <v>0.3942191302776337</v>
+        <v>0.6866658329963684</v>
       </c>
       <c r="H19">
-        <v>1.206024169921875</v>
+        <v>1.031671524047852</v>
       </c>
       <c r="I19">
-        <v>23332.291015625</v>
+        <v>78538.1015625</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>324.0875952774829</v>
+        <v>110.9035442783677</v>
       </c>
       <c r="B20">
-        <v>0.1824407722510426</v>
+        <v>0.1149637512172175</v>
       </c>
       <c r="C20">
-        <v>0.001071548151158188</v>
+        <v>0.00103461967235672</v>
       </c>
       <c r="D20">
-        <v>0.4083390900274523</v>
+        <v>0.6793646972258551</v>
       </c>
       <c r="E20">
-        <v>1.081173806064743</v>
+        <v>1.030698708548937</v>
       </c>
       <c r="F20">
-        <v>40000.48031540957</v>
+        <v>71426.37757296051</v>
       </c>
       <c r="G20">
-        <v>0.3973014056682587</v>
+        <v>0.6804216504096985</v>
       </c>
       <c r="H20">
-        <v>1.066334247589111</v>
+        <v>1.030719041824341</v>
       </c>
       <c r="I20">
-        <v>35669.87109375</v>
+        <v>71652.7421875</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>979.4775376354603</v>
+        <v>114.5042096881212</v>
       </c>
       <c r="B21">
-        <v>0.1131120915124602</v>
+        <v>0.107547099648773</v>
       </c>
       <c r="C21">
-        <v>0.001763105842215489</v>
+        <v>0.00112976860988011</v>
       </c>
       <c r="D21">
-        <v>0.3420285081827447</v>
+        <v>0.6977804745323232</v>
       </c>
       <c r="E21">
-        <v>1.288949016089574</v>
+        <v>1.030956009724942</v>
       </c>
       <c r="F21">
-        <v>20282.97868292452</v>
+        <v>67280.96655030428</v>
       </c>
       <c r="G21">
-        <v>0.3080017864704132</v>
+        <v>0.6976336240768433</v>
       </c>
       <c r="H21">
-        <v>1.36742103099823</v>
+        <v>1.030939340591431</v>
       </c>
       <c r="I21">
-        <v>18676.380859375</v>
+        <v>67343.0390625</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>653.1599302834774</v>
+        <v>118.7614942623296</v>
       </c>
       <c r="B22">
-        <v>0.1941413061261471</v>
+        <v>0.1088298055162</v>
       </c>
       <c r="C22">
-        <v>0.001775417728177798</v>
+        <v>0.001050559953619646</v>
       </c>
       <c r="D22">
-        <v>0.3570987987082224</v>
+        <v>0.6827718098353635</v>
       </c>
       <c r="E22">
-        <v>1.185977749173111</v>
+        <v>1.030945237443732</v>
       </c>
       <c r="F22">
-        <v>21020.32392501471</v>
+        <v>70626.40064168505</v>
       </c>
       <c r="G22">
-        <v>0.3523494303226471</v>
+        <v>0.6834704875946045</v>
       </c>
       <c r="H22">
-        <v>1.191019773483276</v>
+        <v>1.030915141105652</v>
       </c>
       <c r="I22">
-        <v>21090.693359375</v>
+        <v>70867.5546875</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>882.1880801782698</v>
+        <v>111.7268002306298</v>
       </c>
       <c r="B23">
-        <v>0.3472612027985626</v>
+        <v>0.1000519148175622</v>
       </c>
       <c r="C23">
-        <v>0.001914614065480083</v>
+        <v>0.001146076372698427</v>
       </c>
       <c r="D23">
-        <v>0.2428109970184646</v>
+        <v>0.7148665515118584</v>
       </c>
       <c r="E23">
-        <v>1.382010196038195</v>
+        <v>1.031684109501938</v>
       </c>
       <c r="F23">
-        <v>13313.39493108579</v>
+        <v>68248.14291811716</v>
       </c>
       <c r="G23">
-        <v>0.2479896396398544</v>
+        <v>0.7146124839782715</v>
       </c>
       <c r="H23">
-        <v>1.387018799781799</v>
+        <v>1.031673312187195</v>
       </c>
       <c r="I23">
-        <v>13314.0947265625</v>
+        <v>68295.125</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>560.3783119205207</v>
+        <v>98.49001874708463</v>
       </c>
       <c r="B24">
-        <v>0.5070251509400012</v>
+        <v>0.1178781499599128</v>
       </c>
       <c r="C24">
-        <v>0.0009652067369123673</v>
+        <v>0.0009112301088452841</v>
       </c>
       <c r="D24">
-        <v>0.174100319708401</v>
+        <v>0.6739449663271293</v>
       </c>
       <c r="E24">
-        <v>1.352895701894917</v>
+        <v>1.031149933761538</v>
       </c>
       <c r="F24">
-        <v>18894.53801574399</v>
+        <v>80811.52741395582</v>
       </c>
       <c r="G24">
-        <v>0.1764465272426605</v>
+        <v>0.6754887104034424</v>
       </c>
       <c r="H24">
-        <v>1.345452427864075</v>
+        <v>1.031241297721863</v>
       </c>
       <c r="I24">
-        <v>19041.12890625</v>
+        <v>80702.1015625</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>744.1870760808005</v>
+        <v>110.9965416426828</v>
       </c>
       <c r="B25">
-        <v>0.6298317657821431</v>
+        <v>0.1056443120923367</v>
       </c>
       <c r="C25">
-        <v>0.001084216397635263</v>
+        <v>0.001116832212034963</v>
       </c>
       <c r="D25">
-        <v>0.1385141855145457</v>
+        <v>0.7031361259808071</v>
       </c>
       <c r="E25">
-        <v>1.545715130807508</v>
+        <v>1.031224849014623</v>
       </c>
       <c r="F25">
-        <v>13853.76386233007</v>
+        <v>68738.83122165086</v>
       </c>
       <c r="G25">
-        <v>0.1347159594297409</v>
+        <v>0.7029218673706055</v>
       </c>
       <c r="H25">
-        <v>1.534136772155762</v>
+        <v>1.031219840049744</v>
       </c>
       <c r="I25">
-        <v>13630.1689453125</v>
+        <v>68763.2890625</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>772.8386210002017</v>
+        <v>85.0366324545047</v>
       </c>
       <c r="B26">
-        <v>0.7324100769205617</v>
+        <v>0.0970151727513896</v>
       </c>
       <c r="C26">
-        <v>0.001699191001734444</v>
+        <v>0.0008767715545611445</v>
       </c>
       <c r="D26">
-        <v>0.1761710734983127</v>
+        <v>0.7212496703066936</v>
       </c>
       <c r="E26">
-        <v>1.462837479296151</v>
+        <v>1.035411357250042</v>
       </c>
       <c r="F26">
-        <v>11007.79919522197</v>
+        <v>91637.49349395366</v>
       </c>
       <c r="G26">
-        <v>0.1747121512889862</v>
+        <v>0.7210232615470886</v>
       </c>
       <c r="H26">
-        <v>1.458423376083374</v>
+        <v>1.035190343856812</v>
       </c>
       <c r="I26">
-        <v>10708.6904296875</v>
+        <v>90744.6796875</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>909.1658954422332</v>
+        <v>105.4848032496401</v>
       </c>
       <c r="B27">
-        <v>0.8902214298444212</v>
+        <v>0.1041705373578038</v>
       </c>
       <c r="C27">
-        <v>0.001059320882508465</v>
+        <v>0.001177491068033045</v>
       </c>
       <c r="D27">
-        <v>0.09825513745786071</v>
+        <v>0.7158558035829405</v>
       </c>
       <c r="E27">
-        <v>1.744022884695728</v>
+        <v>1.031537750932059</v>
       </c>
       <c r="F27">
-        <v>11451.68343166658</v>
+        <v>66606.44255704015</v>
       </c>
       <c r="G27">
-        <v>0.06751035898923874</v>
+        <v>0.7153734564781189</v>
       </c>
       <c r="H27">
-        <v>1.757277727127075</v>
+        <v>1.03155505657196</v>
       </c>
       <c r="I27">
-        <v>9207.2763671875</v>
+        <v>66662.34375</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>158.8462593026566</v>
+        <v>86.01970576234247</v>
       </c>
       <c r="B28">
-        <v>0.989099348792561</v>
+        <v>0.08115271970328804</v>
       </c>
       <c r="C28">
-        <v>0.001165005569841935</v>
+        <v>0.001073494053848722</v>
       </c>
       <c r="D28">
-        <v>0.2994785929218728</v>
+        <v>0.7686366576212547</v>
       </c>
       <c r="E28">
-        <v>1.061329144517333</v>
+        <v>1.038519993711841</v>
       </c>
       <c r="F28">
-        <v>26938.42987934672</v>
+        <v>80737.07906334888</v>
       </c>
       <c r="G28">
-        <v>0.2734615802764893</v>
+        <v>0.7645170092582703</v>
       </c>
       <c r="H28">
-        <v>1.06489622592926</v>
+        <v>1.037353277206421</v>
       </c>
       <c r="I28">
-        <v>23946.419921875</v>
+        <v>80620.2890625</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>562.7005899275559</v>
+        <v>117.4307012492322</v>
       </c>
       <c r="B29">
-        <v>0.6631936220785627</v>
+        <v>0.09222187574112717</v>
       </c>
       <c r="C29">
-        <v>0.001025087648730294</v>
+        <v>0.0008884810586528869</v>
       </c>
       <c r="D29">
-        <v>0.160774041845732</v>
+        <v>0.6913258647764083</v>
       </c>
       <c r="E29">
-        <v>1.383570632240598</v>
+        <v>1.032781171214299</v>
       </c>
       <c r="F29">
-        <v>16467.8786272262</v>
+        <v>85125.14020514555</v>
       </c>
       <c r="G29">
-        <v>0.1590189188718796</v>
+        <v>0.6928711533546448</v>
       </c>
       <c r="H29">
-        <v>1.381715893745422</v>
+        <v>1.032721519470215</v>
       </c>
       <c r="I29">
-        <v>16488.552734375</v>
+        <v>85159.734375</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>434.0947279747977</v>
+        <v>100.8564384750557</v>
       </c>
       <c r="B30">
-        <v>0.8455191541490952</v>
+        <v>0.1062786872952407</v>
       </c>
       <c r="C30">
-        <v>0.001032055122801408</v>
+        <v>0.001175366049020141</v>
       </c>
       <c r="D30">
-        <v>0.1747497929082042</v>
+        <v>0.7160858323279562</v>
       </c>
       <c r="E30">
-        <v>1.277247317229337</v>
+        <v>1.031646387282388</v>
       </c>
       <c r="F30">
-        <v>17684.91384135044</v>
+        <v>66848.48321000017</v>
       </c>
       <c r="G30">
-        <v>0.1779377907514572</v>
+        <v>0.7156188488006592</v>
       </c>
       <c r="H30">
-        <v>1.285780429840088</v>
+        <v>1.031666159629822</v>
       </c>
       <c r="I30">
-        <v>17882.705078125</v>
+        <v>66908.1484375</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>923.9274309620029</v>
+        <v>96.65480951741816</v>
       </c>
       <c r="B31">
-        <v>0.7782608080777742</v>
+        <v>0.09177119341167998</v>
       </c>
       <c r="C31">
-        <v>0.001393417424915001</v>
+        <v>0.001090493813378289</v>
       </c>
       <c r="D31">
-        <v>0.1290019372041002</v>
+        <v>0.7393378848551437</v>
       </c>
       <c r="E31">
-        <v>1.654295649062256</v>
+        <v>1.034127503779021</v>
       </c>
       <c r="F31">
-        <v>10583.52194298303</v>
+        <v>75157.52364805204</v>
       </c>
       <c r="G31">
-        <v>0.1151621416211128</v>
+        <v>0.7390630841255188</v>
       </c>
       <c r="H31">
-        <v>1.66538143157959</v>
+        <v>1.034109711647034</v>
       </c>
       <c r="I31">
-        <v>9475.7529296875</v>
+        <v>75200.7890625</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>114.0437473065092</v>
+        <v>90.77074958725981</v>
       </c>
       <c r="B32">
-        <v>0.3082245071794932</v>
+        <v>0.1046261198091555</v>
       </c>
       <c r="C32">
-        <v>0.0009583291826721615</v>
+        <v>0.0009035468962782332</v>
       </c>
       <c r="D32">
-        <v>0.4888118108701501</v>
+        <v>0.7039793198119177</v>
       </c>
       <c r="E32">
-        <v>1.031171368944285</v>
+        <v>1.033249898130463</v>
       </c>
       <c r="F32">
-        <v>54098.9112932522</v>
+        <v>86032.53825126126</v>
       </c>
       <c r="G32">
-        <v>0.4408745467662811</v>
+        <v>0.7040819525718689</v>
       </c>
       <c r="H32">
-        <v>0.9769241213798523</v>
+        <v>1.033243656158447</v>
       </c>
       <c r="I32">
-        <v>40832.046875</v>
+        <v>85951.625</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>982.7481497941036</v>
+        <v>110.7497630927721</v>
       </c>
       <c r="B33">
-        <v>0.8758165779646881</v>
+        <v>0.09720778438563397</v>
       </c>
       <c r="C33">
-        <v>0.001206386213602438</v>
+        <v>0.0008876203601682522</v>
       </c>
       <c r="D33">
-        <v>0.1033600211674304</v>
+        <v>0.6901788992722636</v>
       </c>
       <c r="E33">
-        <v>1.751226410569781</v>
+        <v>1.03248806070577</v>
       </c>
       <c r="F33">
-        <v>10671.98520347344</v>
+        <v>85143.38850386722</v>
       </c>
       <c r="G33">
-        <v>0.07101164013147354</v>
+        <v>0.6909925937652588</v>
       </c>
       <c r="H33">
-        <v>1.786082625389099</v>
+        <v>1.032472848892212</v>
       </c>
       <c r="I33">
-        <v>8203.283203125</v>
+        <v>85106.7421875</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>876.6968108523632</v>
+        <v>98.28112460820776</v>
       </c>
       <c r="B34">
-        <v>0.04372037480985105</v>
+        <v>0.08571084588890483</v>
       </c>
       <c r="C34">
-        <v>0.001329114874230688</v>
+        <v>0.001007134548759403</v>
       </c>
       <c r="D34">
-        <v>0.4416715482799395</v>
+        <v>0.7422798747839461</v>
       </c>
       <c r="E34">
-        <v>1.18977122752177</v>
+        <v>1.035108364864163</v>
       </c>
       <c r="F34">
-        <v>34841.32019341807</v>
+        <v>81924.5274006101</v>
       </c>
       <c r="G34">
-        <v>0.3116165697574615</v>
+        <v>0.7415155172348022</v>
       </c>
       <c r="H34">
-        <v>1.309521675109863</v>
+        <v>1.035019755363464</v>
       </c>
       <c r="I34">
-        <v>24817.0703125</v>
+        <v>81812.09375</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>83.08801874860605</v>
+        <v>102.6825615020481</v>
       </c>
       <c r="B35">
-        <v>0.001366976407706404</v>
+        <v>0.0920928124765726</v>
       </c>
       <c r="C35">
-        <v>0.0008587212963330538</v>
+        <v>0.0008140632021724524</v>
       </c>
       <c r="D35">
-        <v>0.5625262984660626</v>
+        <v>0.6984930615046818</v>
       </c>
       <c r="E35">
-        <v>17.95781056378321</v>
+        <v>1.033801289109046</v>
       </c>
       <c r="F35">
-        <v>135125.4716131473</v>
+        <v>94595.76326410174</v>
       </c>
       <c r="G35">
-        <v>0.5750049352645874</v>
+        <v>0.7005072832107544</v>
       </c>
       <c r="H35">
-        <v>0.9110286831855774</v>
+        <v>1.033807635307312</v>
       </c>
       <c r="I35">
-        <v>52269.640625</v>
+        <v>93437.859375</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>496.0567216850697</v>
+        <v>81.1369067972385</v>
       </c>
       <c r="B36">
-        <v>0.2744588967590758</v>
+        <v>0.1027425741031208</v>
       </c>
       <c r="C36">
-        <v>0.00128434980477511</v>
+        <v>0.0008853303766928711</v>
       </c>
       <c r="D36">
-        <v>0.3013298402722304</v>
+        <v>0.716609925443075</v>
       </c>
       <c r="E36">
-        <v>1.172926051518061</v>
+        <v>1.035242401281537</v>
       </c>
       <c r="F36">
-        <v>24518.96980674543</v>
+        <v>90149.4161812352</v>
       </c>
       <c r="G36">
-        <v>0.3014125525951385</v>
+        <v>0.7165442109107971</v>
       </c>
       <c r="H36">
-        <v>1.173765897750854</v>
+        <v>1.034945726394653</v>
       </c>
       <c r="I36">
-        <v>24669.998046875</v>
+        <v>89415.5703125</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>720.3839052104006</v>
+        <v>104.6112267514437</v>
       </c>
       <c r="B37">
-        <v>0.4626354320978224</v>
+        <v>0.1035621467844425</v>
       </c>
       <c r="C37">
-        <v>0.0009401232502200548</v>
+        <v>0.0009704772462480871</v>
       </c>
       <c r="D37">
-        <v>0.1462776738321371</v>
+        <v>0.6977088312201652</v>
       </c>
       <c r="E37">
-        <v>1.510591723947416</v>
+        <v>1.031977861782497</v>
       </c>
       <c r="F37">
-        <v>16691.7226370173</v>
+        <v>78777.28742279726</v>
       </c>
       <c r="G37">
-        <v>0.1462671160697937</v>
+        <v>0.6975511908531189</v>
       </c>
       <c r="H37">
-        <v>1.489526987075806</v>
+        <v>1.031975626945496</v>
       </c>
       <c r="I37">
-        <v>16605.1171875</v>
+        <v>78759.4765625</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>740.7700302341459</v>
+        <v>104.3940715871387</v>
       </c>
       <c r="B38">
-        <v>0.6387245321056767</v>
+        <v>0.102913496217743</v>
       </c>
       <c r="C38">
-        <v>0.001407486881441027</v>
+        <v>0.000950675538656223</v>
       </c>
       <c r="D38">
-        <v>0.1686143359277505</v>
+        <v>0.6966317743966153</v>
       </c>
       <c r="E38">
-        <v>1.46420713497286</v>
+        <v>1.032095914577156</v>
       </c>
       <c r="F38">
-        <v>12720.20329470908</v>
+        <v>80320.57700922184</v>
       </c>
       <c r="G38">
-        <v>0.1693796664476395</v>
+        <v>0.6964130401611328</v>
       </c>
       <c r="H38">
-        <v>1.463649272918701</v>
+        <v>1.032090663909912</v>
       </c>
       <c r="I38">
-        <v>12839.7177734375</v>
+        <v>80314.359375</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>907.4291839855417</v>
+        <v>104.5837284488568</v>
       </c>
       <c r="B39">
-        <v>0.1026684962780002</v>
+        <v>0.1060053617864398</v>
       </c>
       <c r="C39">
-        <v>0.001796113680611803</v>
+        <v>0.0009857218287205745</v>
       </c>
       <c r="D39">
-        <v>0.3779098606787507</v>
+        <v>0.695322102979588</v>
       </c>
       <c r="E39">
-        <v>1.238640623350636</v>
+        <v>1.031722457411365</v>
       </c>
       <c r="F39">
-        <v>21996.36015862629</v>
+        <v>77213.73242142811</v>
       </c>
       <c r="G39">
-        <v>0.3317282795906067</v>
+        <v>0.6953240633010864</v>
       </c>
       <c r="H39">
-        <v>1.311042666435242</v>
+        <v>1.031713366508484</v>
       </c>
       <c r="I39">
-        <v>19906.96484375</v>
+        <v>77208.2578125</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>801.8667812264878</v>
+        <v>117.3946050419503</v>
       </c>
       <c r="B40">
-        <v>0.6733371237010052</v>
+        <v>0.1059623386226816</v>
       </c>
       <c r="C40">
-        <v>0.001787553929752691</v>
+        <v>0.0009128320546284192</v>
       </c>
       <c r="D40">
-        <v>0.1847507563467463</v>
+        <v>0.6700945400656636</v>
       </c>
       <c r="E40">
-        <v>1.457225532714113</v>
+        <v>1.031543576689112</v>
       </c>
       <c r="F40">
-        <v>10961.6268392535</v>
+        <v>79846.95430622832</v>
       </c>
       <c r="G40">
-        <v>0.1840033978223801</v>
+        <v>0.6724802255630493</v>
       </c>
       <c r="H40">
-        <v>1.454502701759338</v>
+        <v>1.031446576118469</v>
       </c>
       <c r="I40">
-        <v>10483.16015625</v>
+        <v>80084.4140625</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>317.8210765406486</v>
+        <v>107.1272247580225</v>
       </c>
       <c r="B41">
-        <v>0.8020140511926348</v>
+        <v>0.09731165206894359</v>
       </c>
       <c r="C41">
-        <v>0.0009241247631787586</v>
+        <v>0.001034018838695971</v>
       </c>
       <c r="D41">
-        <v>0.2049752292682189</v>
+        <v>0.7134133319763776</v>
       </c>
       <c r="E41">
-        <v>1.172507790071102</v>
+        <v>1.032383244715831</v>
       </c>
       <c r="F41">
-        <v>23168.86938112668</v>
+        <v>75743.91139820353</v>
       </c>
       <c r="G41">
-        <v>0.2105421721935272</v>
+        <v>0.7134528160095215</v>
       </c>
       <c r="H41">
-        <v>1.185568690299988</v>
+        <v>1.032387495040894</v>
       </c>
       <c r="I41">
-        <v>22738.3671875</v>
+        <v>75729.203125</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>503.4504380038279</v>
+        <v>94.49281090024398</v>
       </c>
       <c r="B42">
-        <v>0.1861276066597874</v>
+        <v>0.1155443409212008</v>
       </c>
       <c r="C42">
-        <v>0.001533436476479189</v>
+        <v>0.001142628776636506</v>
       </c>
       <c r="D42">
-        <v>0.387513544812507</v>
+        <v>0.7042122497507725</v>
       </c>
       <c r="E42">
-        <v>1.13105501231289</v>
+        <v>1.031292712160554</v>
       </c>
       <c r="F42">
-        <v>26445.39340589086</v>
+        <v>67592.10765335572</v>
       </c>
       <c r="G42">
-        <v>0.3852705955505371</v>
+        <v>0.7040764093399048</v>
       </c>
       <c r="H42">
-        <v>1.128749132156372</v>
+        <v>1.031346917152405</v>
       </c>
       <c r="I42">
-        <v>26505.6015625</v>
+        <v>67734.9921875</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>704.7679053064955</v>
+        <v>97.5316979453971</v>
       </c>
       <c r="B43">
-        <v>0.4157101295769621</v>
+        <v>0.09480852070228082</v>
       </c>
       <c r="C43">
-        <v>0.001806466066906347</v>
+        <v>0.0008500752424903414</v>
       </c>
       <c r="D43">
-        <v>0.2511360115697918</v>
+        <v>0.7060457030033466</v>
       </c>
       <c r="E43">
-        <v>1.299936860347937</v>
+        <v>1.033895142300206</v>
       </c>
       <c r="F43">
-        <v>14526.48644325943</v>
+        <v>91755.36511022542</v>
       </c>
       <c r="G43">
-        <v>0.2529409527778625</v>
+        <v>0.7067130208015442</v>
       </c>
       <c r="H43">
-        <v>1.300876021385193</v>
+        <v>1.033879041671753</v>
       </c>
       <c r="I43">
-        <v>14493.9599609375</v>
+        <v>91149.1953125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>147.0524729507079</v>
+        <v>107.7470005247803</v>
       </c>
       <c r="B44">
-        <v>0.5204650049633565</v>
+        <v>0.09748595126749686</v>
       </c>
       <c r="C44">
-        <v>0.001108427875233523</v>
+        <v>0.001006812484821105</v>
       </c>
       <c r="D44">
-        <v>0.3906016077772453</v>
+        <v>0.7093933098449074</v>
       </c>
       <c r="E44">
-        <v>1.043817252553487</v>
+        <v>1.032365395088041</v>
       </c>
       <c r="F44">
-        <v>37056.74089163269</v>
+        <v>77311.84171533454</v>
       </c>
       <c r="G44">
-        <v>0.3723510503768921</v>
+        <v>0.7093775868415833</v>
       </c>
       <c r="H44">
-        <v>1.020172357559204</v>
+        <v>1.032374262809753</v>
       </c>
       <c r="I44">
-        <v>32904.82421875</v>
+        <v>77288.3828125</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>202.0508896241953</v>
+        <v>82.76115526150562</v>
       </c>
       <c r="B45">
-        <v>0.4523552110663961</v>
+        <v>0.1153631132106164</v>
       </c>
       <c r="C45">
-        <v>0.001721454018396031</v>
+        <v>0.0008557733479345759</v>
       </c>
       <c r="D45">
-        <v>0.4265650799260495</v>
+        <v>0.6904745472247648</v>
       </c>
       <c r="E45">
-        <v>1.052203601327187</v>
+        <v>1.033118990978208</v>
       </c>
       <c r="F45">
-        <v>26008.928313442</v>
+        <v>89129.26059555032</v>
       </c>
       <c r="G45">
-        <v>0.4235408008098602</v>
+        <v>0.6909629702568054</v>
       </c>
       <c r="H45">
-        <v>1.033952832221985</v>
+        <v>1.033080339431763</v>
       </c>
       <c r="I45">
-        <v>26420.15625</v>
+        <v>88369.2578125</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>486.2320236287739</v>
+        <v>106.5371351218709</v>
       </c>
       <c r="B46">
-        <v>0.8000301009575822</v>
+        <v>0.1120025838162596</v>
       </c>
       <c r="C46">
-        <v>0.001872194285346609</v>
+        <v>0.001085007432967264</v>
       </c>
       <c r="D46">
-        <v>0.2427940707409142</v>
+        <v>0.6938899483970491</v>
       </c>
       <c r="E46">
-        <v>1.219185861253261</v>
+        <v>1.030903532724419</v>
       </c>
       <c r="F46">
-        <v>13535.9297782929</v>
+        <v>69787.83105223658</v>
       </c>
       <c r="G46">
-        <v>0.2496827393770218</v>
+        <v>0.6939576268196106</v>
       </c>
       <c r="H46">
-        <v>1.214296579360962</v>
+        <v>1.030947089195251</v>
       </c>
       <c r="I46">
-        <v>13575.001953125</v>
+        <v>69871.53125</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>305.2633407184576</v>
+        <v>106.6888815770047</v>
       </c>
       <c r="B47">
-        <v>0.9605618757212114</v>
+        <v>0.10799228561196</v>
       </c>
       <c r="C47">
-        <v>0.00177316525718532</v>
+        <v>0.0009592561521919812</v>
       </c>
       <c r="D47">
-        <v>0.2760358920607868</v>
+        <v>0.6863222732138867</v>
       </c>
       <c r="E47">
-        <v>1.122109584909031</v>
+        <v>1.031485508244946</v>
       </c>
       <c r="F47">
-        <v>16265.0379074054</v>
+        <v>78161.3104917923</v>
       </c>
       <c r="G47">
-        <v>0.2765935957431793</v>
+        <v>0.6865009069442749</v>
       </c>
       <c r="H47">
-        <v>1.122362375259399</v>
+        <v>1.031488299369812</v>
       </c>
       <c r="I47">
-        <v>16538.544921875</v>
+        <v>78213.5625</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>863.9336572862539</v>
+        <v>88.64720500819999</v>
       </c>
       <c r="B48">
-        <v>0.7991542108441719</v>
+        <v>0.08432918194289275</v>
       </c>
       <c r="C48">
-        <v>0.0009555422068731403</v>
+        <v>0.001025644683012808</v>
       </c>
       <c r="D48">
-        <v>0.09899591345080212</v>
+        <v>0.7562641128533033</v>
       </c>
       <c r="E48">
-        <v>1.726010519777344</v>
+        <v>1.037121702298637</v>
       </c>
       <c r="F48">
-        <v>12540.54883378739</v>
+        <v>82694.22254685163</v>
       </c>
       <c r="G48">
-        <v>0.07717102020978928</v>
+        <v>0.7538259029388428</v>
       </c>
       <c r="H48">
-        <v>1.713107228279114</v>
+        <v>1.036533713340759</v>
       </c>
       <c r="I48">
-        <v>10881.3271484375</v>
+        <v>82460.6171875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>590.4145483054118</v>
+        <v>85.45417815587153</v>
       </c>
       <c r="B49">
-        <v>0.07891482505794875</v>
+        <v>0.1164434163016057</v>
       </c>
       <c r="C49">
-        <v>0.0008406001994411904</v>
+        <v>0.0008758479771603934</v>
       </c>
       <c r="D49">
-        <v>0.3373161510894941</v>
+        <v>0.6878212272522747</v>
       </c>
       <c r="E49">
-        <v>1.178377573411631</v>
+        <v>1.032556152861056</v>
       </c>
       <c r="F49">
-        <v>42028.66105202006</v>
+        <v>86541.90034558781</v>
       </c>
       <c r="G49">
-        <v>0.3067154288291931</v>
+        <v>0.6881836652755737</v>
       </c>
       <c r="H49">
-        <v>1.211774826049805</v>
+        <v>1.032581806182861</v>
       </c>
       <c r="I49">
-        <v>32406.751953125</v>
+        <v>86047.0390625</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>355.178545741184</v>
+        <v>92.76492430488469</v>
       </c>
       <c r="B50">
-        <v>0.805130636586968</v>
+        <v>0.1083981046223463</v>
       </c>
       <c r="C50">
-        <v>0.001054317208608559</v>
+        <v>0.0008607828798568635</v>
       </c>
       <c r="D50">
-        <v>0.2072685112254672</v>
+        <v>0.6896293822247288</v>
       </c>
       <c r="E50">
-        <v>1.190198632660439</v>
+        <v>1.032629445520842</v>
       </c>
       <c r="F50">
-        <v>20529.37820406918</v>
+        <v>88164.86777930609</v>
       </c>
       <c r="G50">
-        <v>0.210024893283844</v>
+        <v>0.6903793811798096</v>
       </c>
       <c r="H50">
-        <v>1.201905369758606</v>
+        <v>1.032633543014526</v>
       </c>
       <c r="I50">
-        <v>20375.357421875</v>
+        <v>87768.0078125</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>850.344695348366</v>
+        <v>94.65756039133619</v>
       </c>
       <c r="B51">
-        <v>0.06752973590331562</v>
+        <v>0.1195544433333726</v>
       </c>
       <c r="C51">
-        <v>0.001146458488907549</v>
+        <v>0.0009953181480460993</v>
       </c>
       <c r="D51">
-        <v>0.345746974256733</v>
+        <v>0.6854854483048188</v>
       </c>
       <c r="E51">
-        <v>1.247665308144393</v>
+        <v>1.031098771365783</v>
       </c>
       <c r="F51">
-        <v>31553.78410608567</v>
+        <v>75383.59993599266</v>
       </c>
       <c r="G51">
-        <v>0.2796195149421692</v>
+        <v>0.6854066848754883</v>
       </c>
       <c r="H51">
-        <v>1.335082530975342</v>
+        <v>1.031194925308228</v>
       </c>
       <c r="I51">
-        <v>25043.8359375</v>
+        <v>75475.21875</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>806.8296640686965</v>
+        <v>102.7516628370014</v>
       </c>
       <c r="B52">
-        <v>0.2367344148563284</v>
+        <v>0.0862586260482042</v>
       </c>
       <c r="C52">
-        <v>0.001550934099020673</v>
+        <v>0.000943401233271914</v>
       </c>
       <c r="D52">
-        <v>0.263310168757506</v>
+        <v>0.7291462628091541</v>
       </c>
       <c r="E52">
-        <v>1.322349332148826</v>
+        <v>1.034362762442925</v>
       </c>
       <c r="F52">
-        <v>17757.91190829445</v>
+        <v>85600.81365638027</v>
       </c>
       <c r="G52">
-        <v>0.267595648765564</v>
+        <v>0.7290211915969849</v>
       </c>
       <c r="H52">
-        <v>1.326891303062439</v>
+        <v>1.034503579139709</v>
       </c>
       <c r="I52">
-        <v>18088.689453125</v>
+        <v>85512.40625</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>998.3713283282768</v>
+        <v>97.59322355361761</v>
       </c>
       <c r="B53">
-        <v>0.1539437999388871</v>
+        <v>0.1144302762842485</v>
       </c>
       <c r="C53">
-        <v>0.001279599615033513</v>
+        <v>0.001172646150067286</v>
       </c>
       <c r="D53">
-        <v>0.2359763659058899</v>
+        <v>0.7054002430936264</v>
       </c>
       <c r="E53">
-        <v>1.435117662873675</v>
+        <v>1.031104261354251</v>
       </c>
       <c r="F53">
-        <v>19482.39275184246</v>
+        <v>65890.78658717666</v>
       </c>
       <c r="G53">
-        <v>0.2170781642198563</v>
+        <v>0.7050864100456238</v>
       </c>
       <c r="H53">
-        <v>1.483025670051575</v>
+        <v>1.031169176101685</v>
       </c>
       <c r="I53">
-        <v>18722.865234375</v>
+        <v>66026.5625</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>848.8346114503973</v>
+        <v>119.1439026717536</v>
       </c>
       <c r="B54">
-        <v>0.1983215877392393</v>
+        <v>0.08676996614875775</v>
       </c>
       <c r="C54">
-        <v>0.001652986225873924</v>
+        <v>0.00110400558833012</v>
       </c>
       <c r="D54">
-        <v>0.2863086085522903</v>
+        <v>0.7290545606182485</v>
       </c>
       <c r="E54">
-        <v>1.308572415042868</v>
+        <v>1.032907513995086</v>
       </c>
       <c r="F54">
-        <v>18109.99659016695</v>
+        <v>72479.6296109854</v>
       </c>
       <c r="G54">
-        <v>0.2878422141075134</v>
+        <v>0.7282907962799072</v>
       </c>
       <c r="H54">
-        <v>1.326808094978333</v>
+        <v>1.032879710197449</v>
       </c>
       <c r="I54">
-        <v>18280.27734375</v>
+        <v>72590.2421875</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>420.3119694576229</v>
+        <v>84.40044323210628</v>
       </c>
       <c r="B55">
-        <v>0.5287868119302933</v>
+        <v>0.1045298516813095</v>
       </c>
       <c r="C55">
-        <v>0.001243097703810282</v>
+        <v>0.001097474347834486</v>
       </c>
       <c r="D55">
-        <v>0.2482632130445025</v>
+        <v>0.7276451006335699</v>
       </c>
       <c r="E55">
-        <v>1.183737575100764</v>
+        <v>1.034011041081854</v>
       </c>
       <c r="F55">
-        <v>20857.84668528276</v>
+        <v>73602.51374138611</v>
       </c>
       <c r="G55">
-        <v>0.2481191903352737</v>
+        <v>0.7279511094093323</v>
       </c>
       <c r="H55">
-        <v>1.181866645812988</v>
+        <v>1.033893585205078</v>
       </c>
       <c r="I55">
-        <v>20973.5390625</v>
+        <v>73597.6875</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>136.2238929522886</v>
+        <v>88.58817853766813</v>
       </c>
       <c r="B56">
-        <v>0.6720181677532426</v>
+        <v>0.08525401429362491</v>
       </c>
       <c r="C56">
-        <v>0.001010677746845882</v>
+        <v>0.001158255229949982</v>
       </c>
       <c r="D56">
-        <v>0.3517998070075596</v>
+        <v>0.7633794966867676</v>
       </c>
       <c r="E56">
-        <v>1.045702440773337</v>
+        <v>1.036772741078652</v>
       </c>
       <c r="F56">
-        <v>36575.51866383293</v>
+        <v>73883.31084644256</v>
       </c>
       <c r="G56">
-        <v>0.3249655365943909</v>
+        <v>0.7611542344093323</v>
       </c>
       <c r="H56">
-        <v>1.034350991249084</v>
+        <v>1.036199688911438</v>
       </c>
       <c r="I56">
-        <v>31153.91015625</v>
+        <v>74363.25</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>842.2344991184731</v>
+        <v>86.72357706296171</v>
       </c>
       <c r="B57">
-        <v>0.470850961053705</v>
+        <v>0.1136416719159027</v>
       </c>
       <c r="C57">
-        <v>0.001195847116878661</v>
+        <v>0.0008367045953397895</v>
       </c>
       <c r="D57">
-        <v>0.1550705309535559</v>
+        <v>0.6856654575039429</v>
       </c>
       <c r="E57">
-        <v>1.546506071659011</v>
+        <v>1.032790789802179</v>
       </c>
       <c r="F57">
-        <v>14063.8054607251</v>
+        <v>90324.24573556196</v>
       </c>
       <c r="G57">
-        <v>0.1537176817655563</v>
+        <v>0.686964213848114</v>
       </c>
       <c r="H57">
-        <v>1.540785670280457</v>
+        <v>1.032801389694214</v>
       </c>
       <c r="I57">
-        <v>13881.3466796875</v>
+        <v>89435.8359375</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>69.16033878079004</v>
+        <v>106.0017360729083</v>
       </c>
       <c r="B58">
-        <v>0.9597359433902144</v>
+        <v>0.1120466818173474</v>
       </c>
       <c r="C58">
-        <v>0.001864659344875288</v>
+        <v>0.001020459072262421</v>
       </c>
       <c r="D58">
-        <v>0.3706415446040221</v>
+        <v>0.6877098068144484</v>
       </c>
       <c r="E58">
-        <v>1.031864064276661</v>
+        <v>1.031046652848445</v>
       </c>
       <c r="F58">
-        <v>21015.46498586339</v>
+        <v>73545.58559935106</v>
       </c>
       <c r="G58">
-        <v>0.3821664750576019</v>
+        <v>0.688066303730011</v>
       </c>
       <c r="H58">
-        <v>0.9961156845092773</v>
+        <v>1.031083464622498</v>
       </c>
       <c r="I58">
-        <v>22094.482421875</v>
+        <v>73624.4296875</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>356.7684952714056</v>
+        <v>90.32920852588759</v>
       </c>
       <c r="B59">
-        <v>0.2410520277101365</v>
+        <v>0.1027086991797944</v>
       </c>
       <c r="C59">
-        <v>0.001951482842766726</v>
+        <v>0.001033114010541766</v>
       </c>
       <c r="D59">
-        <v>0.4637246433851729</v>
+        <v>0.7207335476221508</v>
       </c>
       <c r="E59">
-        <v>1.077453474645799</v>
+        <v>1.033374621300533</v>
       </c>
       <c r="F59">
-        <v>24912.31025277233</v>
+        <v>77169.51657621456</v>
       </c>
       <c r="G59">
-        <v>0.4528540074825287</v>
+        <v>0.7206875681877136</v>
       </c>
       <c r="H59">
-        <v>1.062110781669617</v>
+        <v>1.033377766609192</v>
       </c>
       <c r="I59">
-        <v>25477.693359375</v>
+        <v>77121.1015625</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>920.540600963561</v>
+        <v>98.67940656262739</v>
       </c>
       <c r="B60">
-        <v>0.763377090024538</v>
+        <v>0.09636165210798399</v>
       </c>
       <c r="C60">
-        <v>0.001072789898858821</v>
+        <v>0.001181075733020285</v>
       </c>
       <c r="D60">
-        <v>0.1056322939566332</v>
+        <v>0.7356371608001551</v>
       </c>
       <c r="E60">
-        <v>1.724407360842379</v>
+        <v>1.033059248528237</v>
       </c>
       <c r="F60">
-        <v>11903.4244717403</v>
+        <v>68775.78930627124</v>
       </c>
       <c r="G60">
-        <v>0.08576465398073196</v>
+        <v>0.7350211143493652</v>
       </c>
       <c r="H60">
-        <v>1.726447701454163</v>
+        <v>1.033065319061279</v>
       </c>
       <c r="I60">
-        <v>10207.7958984375</v>
+        <v>68965.5625</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>961.1588087106497</v>
+        <v>89.98166729905992</v>
       </c>
       <c r="B61">
-        <v>0.8703119963286414</v>
+        <v>0.08311165655481778</v>
       </c>
       <c r="C61">
-        <v>0.001752508012818596</v>
+        <v>0.0009185233276831638</v>
       </c>
       <c r="D61">
-        <v>0.1418618517096915</v>
+        <v>0.7473799297868441</v>
       </c>
       <c r="E61">
-        <v>1.632087620736991</v>
+        <v>1.03735258100045</v>
       </c>
       <c r="F61">
-        <v>9136.219529006228</v>
+        <v>91194.44193383394</v>
       </c>
       <c r="G61">
-        <v>0.1236873790621758</v>
+        <v>0.7451061606407166</v>
       </c>
       <c r="H61">
-        <v>1.657941579818726</v>
+        <v>1.036655068397522</v>
       </c>
       <c r="I61">
-        <v>7092.31201171875</v>
+        <v>90037.703125</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>644.1589475860062</v>
+        <v>86.63185332625039</v>
       </c>
       <c r="B62">
-        <v>0.5625040446439644</v>
+        <v>0.1077390656975054</v>
       </c>
       <c r="C62">
-        <v>0.001149818021751649</v>
+        <v>0.0008984067485609944</v>
       </c>
       <c r="D62">
-        <v>0.1705590161854683</v>
+        <v>0.7030418139564719</v>
       </c>
       <c r="E62">
-        <v>1.408267749051391</v>
+        <v>1.03341619281231</v>
       </c>
       <c r="F62">
-        <v>15614.70146070838</v>
+        <v>86528.84316365354</v>
       </c>
       <c r="G62">
-        <v>0.1712633818387985</v>
+        <v>0.7031577229499817</v>
       </c>
       <c r="H62">
-        <v>1.408572673797607</v>
+        <v>1.033405184745789</v>
       </c>
       <c r="I62">
-        <v>15662.6474609375</v>
+        <v>86343.265625</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>691.7618338138763</v>
+        <v>84.72698618401071</v>
       </c>
       <c r="B63">
-        <v>0.4567662794595915</v>
+        <v>0.0981789066246133</v>
       </c>
       <c r="C63">
-        <v>0.001867943905814747</v>
+        <v>0.0008433181044875778</v>
       </c>
       <c r="D63">
-        <v>0.2494183476049152</v>
+        <v>0.715468013062435</v>
       </c>
       <c r="E63">
-        <v>1.29718433775755</v>
+        <v>1.035312840789655</v>
       </c>
       <c r="F63">
-        <v>13950.69157275872</v>
+        <v>94447.96306783588</v>
       </c>
       <c r="G63">
-        <v>0.2520554065704346</v>
+        <v>0.7152944803237915</v>
       </c>
       <c r="H63">
-        <v>1.299132943153381</v>
+        <v>1.035075306892395</v>
       </c>
       <c r="I63">
-        <v>13895.9892578125</v>
+        <v>92991.890625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>52.02994383826726</v>
+        <v>106.1280073013973</v>
       </c>
       <c r="B64">
-        <v>0.5965882623324644</v>
+        <v>0.1087044195505466</v>
       </c>
       <c r="C64">
-        <v>0.001023688366971619</v>
+        <v>0.0008104438980017193</v>
       </c>
       <c r="D64">
-        <v>0.4393197942623259</v>
+        <v>0.6628609984960541</v>
       </c>
       <c r="E64">
-        <v>1.027353015300329</v>
+        <v>1.031806298614512</v>
       </c>
       <c r="F64">
-        <v>45872.33200247853</v>
+        <v>89276.023230689</v>
       </c>
       <c r="G64">
-        <v>0.3942263126373291</v>
+        <v>0.667989194393158</v>
       </c>
       <c r="H64">
-        <v>0.973307728767395</v>
+        <v>1.031788945198059</v>
       </c>
       <c r="I64">
-        <v>35809.59375</v>
+        <v>88637.9609375</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>519.3355376786524</v>
+        <v>85.81703231301414</v>
       </c>
       <c r="B65">
-        <v>0.4293809603901826</v>
+        <v>0.1143619232678425</v>
       </c>
       <c r="C65">
-        <v>0.001609173104872047</v>
+        <v>0.001168372398243357</v>
       </c>
       <c r="D65">
-        <v>0.2789907243638981</v>
+        <v>0.71464410400929</v>
       </c>
       <c r="E65">
-        <v>1.198551124649482</v>
+        <v>1.032405833666826</v>
       </c>
       <c r="F65">
-        <v>18104.37000290685</v>
+        <v>67492.02658628208</v>
       </c>
       <c r="G65">
-        <v>0.2783189415931702</v>
+        <v>0.7149878740310669</v>
       </c>
       <c r="H65">
-        <v>1.197961688041687</v>
+        <v>1.032370924949646</v>
       </c>
       <c r="I65">
-        <v>18135.978515625</v>
+        <v>67499.734375</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>551.3994970182778</v>
+        <v>88.10624713237409</v>
       </c>
       <c r="B66">
-        <v>0.555638688441046</v>
+        <v>0.1186401004735988</v>
       </c>
       <c r="C66">
-        <v>0.0009285271797144236</v>
+        <v>0.001066606062339121</v>
       </c>
       <c r="D66">
-        <v>0.1642218162430061</v>
+        <v>0.6996385592836201</v>
       </c>
       <c r="E66">
-        <v>1.368500584758553</v>
+        <v>1.031710405888304</v>
       </c>
       <c r="F66">
-        <v>18547.1109632058</v>
+        <v>72120.84373442782</v>
       </c>
       <c r="G66">
-        <v>0.1666043400764465</v>
+        <v>0.6996127963066101</v>
       </c>
       <c r="H66">
-        <v>1.357006192207336</v>
+        <v>1.031735897064209</v>
       </c>
       <c r="I66">
-        <v>18723.09765625</v>
+        <v>72185.40625</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>346.69973866287</v>
+        <v>94.85412124837693</v>
       </c>
       <c r="B67">
-        <v>0.4175170181766727</v>
+        <v>0.1139472347333698</v>
       </c>
       <c r="C67">
-        <v>0.001969455189049427</v>
+        <v>0.001111777887530413</v>
       </c>
       <c r="D67">
-        <v>0.3833140542247512</v>
+        <v>0.7041640099730463</v>
       </c>
       <c r="E67">
-        <v>1.094643923725886</v>
+        <v>1.031444534730954</v>
       </c>
       <c r="F67">
-        <v>20362.96302569624</v>
+        <v>69491.07525294257</v>
       </c>
       <c r="G67">
-        <v>0.3859349191188812</v>
+        <v>0.7040020823478699</v>
       </c>
       <c r="H67">
-        <v>1.094263076782227</v>
+        <v>1.031481146812439</v>
       </c>
       <c r="I67">
-        <v>20590.8046875</v>
+        <v>69598.2421875</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>77.91086640634549</v>
+        <v>112.5827033956628</v>
       </c>
       <c r="B68">
-        <v>0.40106924058384</v>
+        <v>0.08085954381688894</v>
       </c>
       <c r="C68">
-        <v>0.001649741013229435</v>
+        <v>0.0009144397736736748</v>
       </c>
       <c r="D68">
-        <v>0.5058921750019169</v>
+        <v>0.725044182287746</v>
       </c>
       <c r="E68">
-        <v>1.027632943486951</v>
+        <v>1.034555272269227</v>
       </c>
       <c r="F68">
-        <v>32668.88012542435</v>
+        <v>87566.73374752047</v>
       </c>
       <c r="G68">
-        <v>0.5041844844818115</v>
+        <v>0.7240529656410217</v>
       </c>
       <c r="H68">
-        <v>0.971912145614624</v>
+        <v>1.034438490867615</v>
       </c>
       <c r="I68">
-        <v>33265.8359375</v>
+        <v>87230.1796875</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>236.6185237271501</v>
+        <v>84.20666022274528</v>
       </c>
       <c r="B69">
-        <v>0.6956511216713903</v>
+        <v>0.09451124098664006</v>
       </c>
       <c r="C69">
-        <v>0.00181492441510395</v>
+        <v>0.001033872162724664</v>
       </c>
       <c r="D69">
-        <v>0.3501548718508695</v>
+        <v>0.7412395227128463</v>
       </c>
       <c r="E69">
-        <v>1.074334642925486</v>
+        <v>1.035849679193247</v>
       </c>
       <c r="F69">
-        <v>20194.64821141474</v>
+        <v>80099.88371637101</v>
       </c>
       <c r="G69">
-        <v>0.3561777472496033</v>
+        <v>0.7408505082130432</v>
       </c>
       <c r="H69">
-        <v>1.062821745872498</v>
+        <v>1.035601854324341</v>
       </c>
       <c r="I69">
-        <v>20550.236328125</v>
+        <v>80090.25</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>364.4040974925844</v>
+        <v>113.2471969491275</v>
       </c>
       <c r="B70">
-        <v>0.09375836185489998</v>
+        <v>0.1090154643827053</v>
       </c>
       <c r="C70">
-        <v>0.001493003127054751</v>
+        <v>0.0008290736051897543</v>
       </c>
       <c r="D70">
-        <v>0.5696506950001943</v>
+        <v>0.6558546771011399</v>
       </c>
       <c r="E70">
-        <v>1.061914322529689</v>
+        <v>1.031619204526727</v>
       </c>
       <c r="F70">
-        <v>40270.80512732574</v>
+        <v>86055.46884267239</v>
       </c>
       <c r="G70">
-        <v>0.4871999621391296</v>
+        <v>0.6620885729789734</v>
       </c>
       <c r="H70">
-        <v>1.046999931335449</v>
+        <v>1.031504511833191</v>
       </c>
       <c r="I70">
-        <v>34191.7734375</v>
+        <v>86008.21875</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>440.7905666511663</v>
+        <v>84.16734852347561</v>
       </c>
       <c r="B71">
-        <v>0.167375530656092</v>
+        <v>0.08712811987681258</v>
       </c>
       <c r="C71">
-        <v>0.001387857595796767</v>
+        <v>0.0009943661211321206</v>
       </c>
       <c r="D71">
-        <v>0.4109642072388643</v>
+        <v>0.7524249927611296</v>
       </c>
       <c r="E71">
-        <v>1.107494395940446</v>
+        <v>1.037533708867497</v>
       </c>
       <c r="F71">
-        <v>31027.63214114502</v>
+        <v>85011.69015755533</v>
       </c>
       <c r="G71">
-        <v>0.3975469470024109</v>
+        <v>0.75043123960495</v>
       </c>
       <c r="H71">
-        <v>1.106223940849304</v>
+        <v>1.03681480884552</v>
       </c>
       <c r="I71">
-        <v>29777.04296875</v>
+        <v>84627.8046875</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>595.0174582782334</v>
+        <v>118.6768678303895</v>
       </c>
       <c r="B72">
-        <v>0.851347273243289</v>
+        <v>0.1008246198103409</v>
       </c>
       <c r="C72">
-        <v>0.001557602397931407</v>
+        <v>0.001187174655338407</v>
       </c>
       <c r="D72">
-        <v>0.1859088293948121</v>
+        <v>0.7108282794264837</v>
       </c>
       <c r="E72">
-        <v>1.351290214523205</v>
+        <v>1.031314668545222</v>
       </c>
       <c r="F72">
-        <v>12500.14593704102</v>
+        <v>65295.51843847329</v>
       </c>
       <c r="G72">
-        <v>0.1847713440656662</v>
+        <v>0.710395336151123</v>
       </c>
       <c r="H72">
-        <v>1.353506565093994</v>
+        <v>1.031302690505981</v>
       </c>
       <c r="I72">
-        <v>12246.484375</v>
+        <v>65357.890625</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>725.167603511254</v>
+        <v>98.77114968541773</v>
       </c>
       <c r="B73">
-        <v>0.7713062694683729</v>
+        <v>0.08253037015734535</v>
       </c>
       <c r="C73">
-        <v>0.001448627568688354</v>
+        <v>0.001147587344162187</v>
       </c>
       <c r="D73">
-        <v>0.1605971126566392</v>
+        <v>0.7601469652061295</v>
       </c>
       <c r="E73">
-        <v>1.476306655672964</v>
+        <v>1.035503721727833</v>
       </c>
       <c r="F73">
-        <v>11801.32373327025</v>
+        <v>73809.16535697946</v>
       </c>
       <c r="G73">
-        <v>0.1576290130615234</v>
+        <v>0.7576285004615784</v>
       </c>
       <c r="H73">
-        <v>1.476730346679688</v>
+        <v>1.035253882408142</v>
       </c>
       <c r="I73">
-        <v>11663.83984375</v>
+        <v>74117.1015625</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>324.4555545412067</v>
+        <v>118.6886912416637</v>
       </c>
       <c r="B74">
-        <v>0.2821722735670994</v>
+        <v>0.08824007987120169</v>
       </c>
       <c r="C74">
-        <v>0.001379179695519829</v>
+        <v>0.000936559474876001</v>
       </c>
       <c r="D74">
-        <v>0.3922850904206711</v>
+        <v>0.7053870997939153</v>
       </c>
       <c r="E74">
-        <v>1.085498318945275</v>
+        <v>1.033072730515658</v>
       </c>
       <c r="F74">
-        <v>29803.2420233736</v>
+        <v>82545.26761393597</v>
       </c>
       <c r="G74">
-        <v>0.389300674200058</v>
+        <v>0.7056410312652588</v>
       </c>
       <c r="H74">
-        <v>1.081109642982483</v>
+        <v>1.033029794692993</v>
       </c>
       <c r="I74">
-        <v>29451.302734375</v>
+        <v>82681.3046875</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>335.6642223197933</v>
+        <v>104.1098688528135</v>
       </c>
       <c r="B75">
-        <v>0.3778916637330945</v>
+        <v>0.0811264011560366</v>
       </c>
       <c r="C75">
-        <v>0.001718556794205442</v>
+        <v>0.001180932175847984</v>
       </c>
       <c r="D75">
-        <v>0.3814414541983979</v>
+        <v>0.7610371712292983</v>
       </c>
       <c r="E75">
-        <v>1.091787232230539</v>
+        <v>1.035011841792028</v>
       </c>
       <c r="F75">
-        <v>23230.96686140909</v>
+        <v>71623.59727313645</v>
       </c>
       <c r="G75">
-        <v>0.3789462745189667</v>
+        <v>0.7580825090408325</v>
       </c>
       <c r="H75">
-        <v>1.086724519729614</v>
+        <v>1.034785032272339</v>
       </c>
       <c r="I75">
-        <v>23285.220703125</v>
+        <v>72108.7421875</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>29.49472629646668</v>
+        <v>109.3789599686562</v>
       </c>
       <c r="B76">
-        <v>0.9261004801218521</v>
+        <v>0.1115127384184534</v>
       </c>
       <c r="C76">
-        <v>0.001038495117278944</v>
+        <v>0.0008948289701545773</v>
       </c>
       <c r="D76">
-        <v>0.382436111524516</v>
+        <v>0.6680746081001433</v>
       </c>
       <c r="E76">
-        <v>1.032081028804207</v>
+        <v>1.031277780665849</v>
       </c>
       <c r="F76">
-        <v>39765.03706925581</v>
+        <v>81320.40426984521</v>
       </c>
       <c r="G76">
-        <v>0.3283317983150482</v>
+        <v>0.6705456972122192</v>
       </c>
       <c r="H76">
-        <v>0.9871580004692078</v>
+        <v>1.031268000602722</v>
       </c>
       <c r="I76">
-        <v>30962.9375</v>
+        <v>81460.125</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>50.46611149307812</v>
+        <v>81.93649338364159</v>
       </c>
       <c r="B77">
-        <v>0.8182591479486874</v>
+        <v>0.08917804663155368</v>
       </c>
       <c r="C77">
-        <v>0.001030271296341535</v>
+        <v>0.001176129741902136</v>
       </c>
       <c r="D77">
-        <v>0.391501407684995</v>
+        <v>0.7614038556133618</v>
       </c>
       <c r="E77">
-        <v>1.027926487978459</v>
+        <v>1.037430665727448</v>
       </c>
       <c r="F77">
-        <v>40467.59925956433</v>
+        <v>72790.46354393325</v>
       </c>
       <c r="G77">
-        <v>0.3381951451301575</v>
+        <v>0.7603940963745117</v>
       </c>
       <c r="H77">
-        <v>0.9942479729652405</v>
+        <v>1.03657603263855</v>
       </c>
       <c r="I77">
-        <v>32008.693359375</v>
+        <v>73545.9453125</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>265.243477365451</v>
+        <v>91.48618937913805</v>
       </c>
       <c r="B78">
-        <v>0.6147319536796513</v>
+        <v>0.09393789727792556</v>
       </c>
       <c r="C78">
-        <v>0.001335255901260156</v>
+        <v>0.001173016880960738</v>
       </c>
       <c r="D78">
-        <v>0.3117978467491401</v>
+        <v>0.7452944764604019</v>
       </c>
       <c r="E78">
-        <v>1.092385402680303</v>
+        <v>1.034436893279325</v>
       </c>
       <c r="F78">
-        <v>24431.10286902336</v>
+        <v>70608.55581957518</v>
       </c>
       <c r="G78">
-        <v>0.3126734495162964</v>
+        <v>0.7448294758796692</v>
       </c>
       <c r="H78">
-        <v>1.091897010803223</v>
+        <v>1.034352779388428</v>
       </c>
       <c r="I78">
-        <v>24442.328125</v>
+        <v>70918.2578125</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>742.8425476982071</v>
+        <v>85.11197877546697</v>
       </c>
       <c r="B79">
-        <v>0.2222686886241548</v>
+        <v>0.1167804783529576</v>
       </c>
       <c r="C79">
-        <v>0.001205275061772587</v>
+        <v>0.001117285259058377</v>
       </c>
       <c r="D79">
-        <v>0.2398507287738993</v>
+        <v>0.7085130180079342</v>
       </c>
       <c r="E79">
-        <v>1.328929120386795</v>
+        <v>1.032271248902489</v>
       </c>
       <c r="F79">
-        <v>20822.3564055679</v>
+        <v>69925.81047232136</v>
       </c>
       <c r="G79">
-        <v>0.2409828156232834</v>
+        <v>0.7087756991386414</v>
       </c>
       <c r="H79">
-        <v>1.330786108970642</v>
+        <v>1.032222747802734</v>
       </c>
       <c r="I79">
-        <v>20975.201171875</v>
+        <v>69914.3984375</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>632.0306920701731</v>
+        <v>92.0088425849591</v>
       </c>
       <c r="B80">
-        <v>0.04520771934395432</v>
+        <v>0.1080128973138284</v>
       </c>
       <c r="C80">
-        <v>0.0009167256859582382</v>
+        <v>0.001051134651623293</v>
       </c>
       <c r="D80">
-        <v>0.4241797069003517</v>
+        <v>0.7116208864002004</v>
       </c>
       <c r="E80">
-        <v>1.145107638289813</v>
+        <v>1.032448167786267</v>
       </c>
       <c r="F80">
-        <v>48612.47685478359</v>
+        <v>74599.91229194535</v>
       </c>
       <c r="G80">
-        <v>0.3228202164173126</v>
+        <v>0.711596667766571</v>
       </c>
       <c r="H80">
-        <v>1.208872556686401</v>
+        <v>1.032447934150696</v>
       </c>
       <c r="I80">
-        <v>32374.884765625</v>
+        <v>74604.6640625</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>772.0911304710564</v>
+        <v>85.05440121693771</v>
       </c>
       <c r="B81">
-        <v>0.4318265889950563</v>
+        <v>0.08164842325835291</v>
       </c>
       <c r="C81">
-        <v>0.001818030476129919</v>
+        <v>0.001146718186886325</v>
       </c>
       <c r="D81">
-        <v>0.2335182945744367</v>
+        <v>0.7727114629193994</v>
       </c>
       <c r="E81">
-        <v>1.35272088409418</v>
+        <v>1.038565792072625</v>
       </c>
       <c r="F81">
-        <v>13453.38014055017</v>
+        <v>76030.25181731302</v>
       </c>
       <c r="G81">
-        <v>0.2365424335002899</v>
+        <v>0.7688736915588379</v>
       </c>
       <c r="H81">
-        <v>1.354790568351746</v>
+        <v>1.037323474884033</v>
       </c>
       <c r="I81">
-        <v>13444.2431640625</v>
+        <v>76459.0234375</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>771.2302418526735</v>
+        <v>92.86507174063409</v>
       </c>
       <c r="B82">
-        <v>0.6729545121182045</v>
+        <v>0.08685625245860171</v>
       </c>
       <c r="C82">
-        <v>0.001732775283832389</v>
+        <v>0.0009188654424209869</v>
       </c>
       <c r="D82">
-        <v>0.1858327410412197</v>
+        <v>0.7364226910432496</v>
       </c>
       <c r="E82">
-        <v>1.440526282771187</v>
+        <v>1.035866189499203</v>
       </c>
       <c r="F82">
-        <v>11341.5091553774</v>
+        <v>89345.48785304721</v>
       </c>
       <c r="G82">
-        <v>0.185778021812439</v>
+        <v>0.7357191443443298</v>
       </c>
       <c r="H82">
-        <v>1.436326146125793</v>
+        <v>1.03565526008606</v>
       </c>
       <c r="I82">
-        <v>11073.5673828125</v>
+        <v>88787.8984375</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>858.0017929926082</v>
+        <v>96.63917114212879</v>
       </c>
       <c r="B83">
-        <v>0.8286520100273337</v>
+        <v>0.1047618658367806</v>
       </c>
       <c r="C83">
-        <v>0.001466388154769492</v>
+        <v>0.001136783360210136</v>
       </c>
       <c r="D83">
-        <v>0.1381595273420793</v>
+        <v>0.7194845325471008</v>
       </c>
       <c r="E83">
-        <v>1.600829001472725</v>
+        <v>1.032230302873027</v>
       </c>
       <c r="F83">
-        <v>10454.16281190859</v>
+        <v>69659.94878883265</v>
       </c>
       <c r="G83">
-        <v>0.1275063306093216</v>
+        <v>0.719272792339325</v>
       </c>
       <c r="H83">
-        <v>1.601470112800598</v>
+        <v>1.032247185707092</v>
       </c>
       <c r="I83">
-        <v>9621.0537109375</v>
+        <v>69691.546875</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>723.1160733270148</v>
+        <v>82.91489580544012</v>
       </c>
       <c r="B84">
-        <v>0.852836316736527</v>
+        <v>0.1030273050448205</v>
       </c>
       <c r="C84">
-        <v>0.001975809708599311</v>
+        <v>0.001046206814155014</v>
       </c>
       <c r="D84">
-        <v>0.1910727303069851</v>
+        <v>0.728110580226787</v>
       </c>
       <c r="E84">
-        <v>1.407523928966256</v>
+        <v>1.034577587221023</v>
       </c>
       <c r="F84">
-        <v>10180.87719244218</v>
+        <v>77414.34810601255</v>
       </c>
       <c r="G84">
-        <v>0.1941554546356201</v>
+        <v>0.7282801270484924</v>
       </c>
       <c r="H84">
-        <v>1.404837489128113</v>
+        <v>1.034441709518433</v>
       </c>
       <c r="I84">
-        <v>9238.4521484375</v>
+        <v>77399.578125</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>979.2208098108146</v>
+        <v>107.5447684398666</v>
       </c>
       <c r="B85">
-        <v>0.03374312539207002</v>
+        <v>0.0897255873960926</v>
       </c>
       <c r="C85">
-        <v>0.0009149420778606982</v>
+        <v>0.0008091923544411792</v>
       </c>
       <c r="D85">
-        <v>0.3517323328100913</v>
+        <v>0.6955436764158279</v>
       </c>
       <c r="E85">
-        <v>1.277582771119392</v>
+        <v>1.033772694206561</v>
       </c>
       <c r="F85">
-        <v>40281.65089801839</v>
+        <v>94602.86908759469</v>
       </c>
       <c r="G85">
-        <v>0.2267104089260101</v>
+        <v>0.6983616352081299</v>
       </c>
       <c r="H85">
-        <v>1.465114235877991</v>
+        <v>1.033726572990417</v>
       </c>
       <c r="I85">
-        <v>24341.697265625</v>
+        <v>93436.03125</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>899.8369671087991</v>
+        <v>102.6107290312576</v>
       </c>
       <c r="B86">
-        <v>0.2449128768030425</v>
+        <v>0.1170208759503149</v>
       </c>
       <c r="C86">
-        <v>0.001727003082202614</v>
+        <v>0.0009401166394204532</v>
       </c>
       <c r="D86">
-        <v>0.2592092092072673</v>
+        <v>0.6740647291208485</v>
       </c>
       <c r="E86">
-        <v>1.362857219987387</v>
+        <v>1.030959004986297</v>
       </c>
       <c r="F86">
-        <v>15733.44182503497</v>
+        <v>78210.63072795217</v>
       </c>
       <c r="G86">
-        <v>0.2616942524909973</v>
+        <v>0.6755329966545105</v>
       </c>
       <c r="H86">
-        <v>1.375832915306091</v>
+        <v>1.031030058860779</v>
       </c>
       <c r="I86">
-        <v>15910.2568359375</v>
+        <v>78294.7890625</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>590.8499945610018</v>
+        <v>90.8034370369341</v>
       </c>
       <c r="B87">
-        <v>0.3397554938889256</v>
+        <v>0.1044673833831366</v>
       </c>
       <c r="C87">
-        <v>0.001141653358182643</v>
+        <v>0.0008620737519654265</v>
       </c>
       <c r="D87">
-        <v>0.2261902516998521</v>
+        <v>0.6989627579060896</v>
       </c>
       <c r="E87">
-        <v>1.282201250524021</v>
+        <v>1.033323179607884</v>
       </c>
       <c r="F87">
-        <v>20699.21017138452</v>
+        <v>89517.44737723017</v>
       </c>
       <c r="G87">
-        <v>0.2267827689647675</v>
+        <v>0.6993902325630188</v>
       </c>
       <c r="H87">
-        <v>1.28210723400116</v>
+        <v>1.033323526382446</v>
       </c>
       <c r="I87">
-        <v>20772.720703125</v>
+        <v>89083.7890625</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>592.27609378626</v>
+        <v>100.9113069501078</v>
       </c>
       <c r="B88">
-        <v>0.1895434787484265</v>
+        <v>0.1013967802119425</v>
       </c>
       <c r="C88">
-        <v>0.001261260736333983</v>
+        <v>0.001188873650147337</v>
       </c>
       <c r="D88">
-        <v>0.3097776464893603</v>
+        <v>0.7253526274749621</v>
       </c>
       <c r="E88">
-        <v>1.198661951825178</v>
+        <v>1.03216895335104</v>
       </c>
       <c r="F88">
-        <v>25669.54705283897</v>
+        <v>67099.66344767701</v>
       </c>
       <c r="G88">
-        <v>0.3106263875961304</v>
+        <v>0.7248297929763794</v>
       </c>
       <c r="H88">
-        <v>1.199864268302917</v>
+        <v>1.032199263572693</v>
       </c>
       <c r="I88">
-        <v>25755.453125</v>
+        <v>67215.4921875</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>43.9243699487072</v>
+        <v>84.08276051011633</v>
       </c>
       <c r="B89">
-        <v>0.803172402985474</v>
+        <v>0.1035244063101161</v>
       </c>
       <c r="C89">
-        <v>0.001086556880687589</v>
+        <v>0.0009915213161603433</v>
       </c>
       <c r="D89">
-        <v>0.3979085928464026</v>
+        <v>0.7220028221974876</v>
       </c>
       <c r="E89">
-        <v>1.02831880123244</v>
+        <v>1.034325903694894</v>
       </c>
       <c r="F89">
-        <v>39143.31192078457</v>
+        <v>80887.51816786182</v>
       </c>
       <c r="G89">
-        <v>0.3540918529033661</v>
+        <v>0.7220001220703125</v>
       </c>
       <c r="H89">
-        <v>0.9858322739601135</v>
+        <v>1.034262299537659</v>
       </c>
       <c r="I89">
-        <v>32149.998046875</v>
+        <v>80871.34375</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>998.5413119312708</v>
+        <v>102.9770479208428</v>
       </c>
       <c r="B90">
-        <v>0.7676982973218576</v>
+        <v>0.1090206177980426</v>
       </c>
       <c r="C90">
-        <v>0.001753174333010383</v>
+        <v>0.0009989774340657099</v>
       </c>
       <c r="D90">
-        <v>0.1460286767876754</v>
+        <v>0.6935740070103765</v>
       </c>
       <c r="E90">
-        <v>1.634656097019741</v>
+        <v>1.031488716325431</v>
       </c>
       <c r="F90">
-        <v>9412.512127584279</v>
+        <v>75969.34526755988</v>
       </c>
       <c r="G90">
-        <v>0.133176863193512</v>
+        <v>0.6936598420143127</v>
       </c>
       <c r="H90">
-        <v>1.652166724205017</v>
+        <v>1.031503915786743</v>
       </c>
       <c r="I90">
-        <v>7677.15380859375</v>
+        <v>75975.59375</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>140.2602373924804</v>
+        <v>116.8281017189874</v>
       </c>
       <c r="B91">
-        <v>0.5173162073405898</v>
+        <v>0.09262837928055004</v>
       </c>
       <c r="C91">
-        <v>0.0009987609193652322</v>
+        <v>0.001054672221794934</v>
       </c>
       <c r="D91">
-        <v>0.3843828345039411</v>
+        <v>0.7143696787510426</v>
       </c>
       <c r="E91">
-        <v>1.042873001813442</v>
+        <v>1.032377357615672</v>
       </c>
       <c r="F91">
-        <v>40489.15323910779</v>
+        <v>74177.05785785212</v>
       </c>
       <c r="G91">
-        <v>0.3638722598552704</v>
+        <v>0.7143449187278748</v>
       </c>
       <c r="H91">
-        <v>1.018837332725525</v>
+        <v>1.032370328903198</v>
       </c>
       <c r="I91">
-        <v>34188.36328125</v>
+        <v>74252.875</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>742.943724665276</v>
+        <v>92.8880336225444</v>
       </c>
       <c r="B92">
-        <v>0.9829435515178597</v>
+        <v>0.09601033895117593</v>
       </c>
       <c r="C92">
-        <v>0.001812819536350275</v>
+        <v>0.0009484861121999809</v>
       </c>
       <c r="D92">
-        <v>0.165961184647137</v>
+        <v>0.7219977090184246</v>
       </c>
       <c r="E92">
-        <v>1.472974139823551</v>
+        <v>1.034146392318629</v>
       </c>
       <c r="F92">
-        <v>9741.889657758205</v>
+        <v>84349.1162867714</v>
       </c>
       <c r="G92">
-        <v>0.1600362807512283</v>
+        <v>0.7220648527145386</v>
       </c>
       <c r="H92">
-        <v>1.474985122680664</v>
+        <v>1.034156084060669</v>
       </c>
       <c r="I92">
-        <v>8536.3037109375</v>
+        <v>84377.7734375</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>822.8050431730658</v>
+        <v>106.5623663073396</v>
       </c>
       <c r="B93">
-        <v>0.1449144825497514</v>
+        <v>0.08862608396204151</v>
       </c>
       <c r="C93">
-        <v>0.001604045848428906</v>
+        <v>0.0008576675219414992</v>
       </c>
       <c r="D93">
-        <v>0.326194397234475</v>
+        <v>0.7074786721016743</v>
       </c>
       <c r="E93">
-        <v>1.258048616540434</v>
+        <v>1.033917052034888</v>
       </c>
       <c r="F93">
-        <v>21251.10681791614</v>
+        <v>90936.71391413134</v>
       </c>
       <c r="G93">
-        <v>0.3122760057449341</v>
+        <v>0.7084622979164124</v>
       </c>
       <c r="H93">
-        <v>1.288192749023438</v>
+        <v>1.033885598182678</v>
       </c>
       <c r="I93">
-        <v>20591.05859375</v>
+        <v>90434.3203125</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>379.3239840121512</v>
+        <v>85.56674142563895</v>
       </c>
       <c r="B94">
-        <v>0.8997520516243414</v>
+        <v>0.08769899186857372</v>
       </c>
       <c r="C94">
-        <v>0.0008990571969648642</v>
+        <v>0.00112626783116848</v>
       </c>
       <c r="D94">
-        <v>0.1696397417150465</v>
+        <v>0.7590575424224655</v>
       </c>
       <c r="E94">
-        <v>1.250904555792104</v>
+        <v>1.036911122608015</v>
       </c>
       <c r="F94">
-        <v>19703.02589034035</v>
+        <v>75602.5895983599</v>
       </c>
       <c r="G94">
-        <v>0.1749632656574249</v>
+        <v>0.7574493885040283</v>
       </c>
       <c r="H94">
-        <v>1.271727442741394</v>
+        <v>1.036322593688965</v>
       </c>
       <c r="I94">
-        <v>19690.931640625</v>
+        <v>75960.4375</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>204.8835341186606</v>
+        <v>108.4798705789726</v>
       </c>
       <c r="B95">
-        <v>0.1173467909077543</v>
+        <v>0.1174190776018499</v>
       </c>
       <c r="C95">
-        <v>0.001778848625972179</v>
+        <v>0.0008784226155199023</v>
       </c>
       <c r="D95">
-        <v>0.6662064813114221</v>
+        <v>0.6572139204209659</v>
       </c>
       <c r="E95">
-        <v>1.035307513749339</v>
+        <v>1.0309514647316</v>
       </c>
       <c r="F95">
-        <v>39902.9944885494</v>
+        <v>81350.10967911783</v>
       </c>
       <c r="G95">
-        <v>0.5732155442237854</v>
+        <v>0.6619002223014832</v>
       </c>
       <c r="H95">
-        <v>0.9720892906188965</v>
+        <v>1.030957341194153</v>
       </c>
       <c r="I95">
-        <v>36271.859375</v>
+        <v>81528.109375</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>107.7722879226495</v>
+        <v>91.74487053625876</v>
       </c>
       <c r="B96">
-        <v>0.1640185238086066</v>
+        <v>0.1093902186152908</v>
       </c>
       <c r="C96">
-        <v>0.001564474187910686</v>
+        <v>0.001004436959626538</v>
       </c>
       <c r="D96">
-        <v>0.6526757763634006</v>
+        <v>0.7055151497104646</v>
       </c>
       <c r="E96">
-        <v>1.028398064200338</v>
+        <v>1.032401018416415</v>
       </c>
       <c r="F96">
-        <v>44915.03941632345</v>
+        <v>77350.32360771715</v>
       </c>
       <c r="G96">
-        <v>0.5772396326065063</v>
+        <v>0.7055090069770813</v>
       </c>
       <c r="H96">
-        <v>0.95435631275177</v>
+        <v>1.032380938529968</v>
       </c>
       <c r="I96">
-        <v>40034.80078125</v>
+        <v>77338.6171875</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>751.119945771282</v>
+        <v>87.58132959085522</v>
       </c>
       <c r="B97">
-        <v>0.6965229810503681</v>
+        <v>0.09962599217041652</v>
       </c>
       <c r="C97">
-        <v>0.00188882931390666</v>
+        <v>0.000891934261127898</v>
       </c>
       <c r="D97">
-        <v>0.1978003646792161</v>
+        <v>0.7152202368609176</v>
       </c>
       <c r="E97">
-        <v>1.406877842027603</v>
+        <v>1.034477481634569</v>
       </c>
       <c r="F97">
-        <v>11023.00633858721</v>
+        <v>88999.55306112269</v>
       </c>
       <c r="G97">
-        <v>0.2006161361932755</v>
+        <v>0.7152878046035767</v>
       </c>
       <c r="H97">
-        <v>1.403765797615051</v>
+        <v>1.034407615661621</v>
       </c>
       <c r="I97">
-        <v>10421.556640625</v>
+        <v>88633.7265625</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>458.1269939136387</v>
+        <v>103.3912447284925</v>
       </c>
       <c r="B98">
-        <v>0.1104601223496476</v>
+        <v>0.08931484976230522</v>
       </c>
       <c r="C98">
-        <v>0.001706005098498107</v>
+        <v>0.0008423579346848335</v>
       </c>
       <c r="D98">
-        <v>0.5182460139892497</v>
+        <v>0.7078004867067044</v>
       </c>
       <c r="E98">
-        <v>1.08459490510535</v>
+        <v>1.034116923179141</v>
       </c>
       <c r="F98">
-        <v>31919.4316975873</v>
+        <v>92767.28100028589</v>
       </c>
       <c r="G98">
-        <v>0.4597373306751251</v>
+        <v>0.7089437246322632</v>
       </c>
       <c r="H98">
-        <v>1.079513192176819</v>
+        <v>1.034107804298401</v>
       </c>
       <c r="I98">
-        <v>29398.90625</v>
+        <v>91985.09375</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>716.5805814111243</v>
+        <v>81.18856148149872</v>
       </c>
       <c r="B99">
-        <v>0.5662792503232922</v>
+        <v>0.09037095102468523</v>
       </c>
       <c r="C99">
-        <v>0.001486511485092837</v>
+        <v>0.001141976465930482</v>
       </c>
       <c r="D99">
-        <v>0.1897518892061884</v>
+        <v>0.7580146015509406</v>
       </c>
       <c r="E99">
-        <v>1.405304854616105</v>
+        <v>1.037365220654209</v>
       </c>
       <c r="F99">
-        <v>13432.89732437241</v>
+        <v>74613.77525697168</v>
       </c>
       <c r="G99">
-        <v>0.1908024996519089</v>
+        <v>0.7571243643760681</v>
       </c>
       <c r="H99">
-        <v>1.40440821647644</v>
+        <v>1.036565542221069</v>
       </c>
       <c r="I99">
-        <v>13455.9208984375</v>
+        <v>75176.25</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>916.2535723632826</v>
+        <v>112.8942122067917</v>
       </c>
       <c r="B100">
-        <v>0.420813302936181</v>
+        <v>0.0826750614403574</v>
       </c>
       <c r="C100">
-        <v>0.001808760201324461</v>
+        <v>0.001185381033214484</v>
       </c>
       <c r="D100">
-        <v>0.2089126118579098</v>
+        <v>0.7507550393034793</v>
       </c>
       <c r="E100">
-        <v>1.455683276428588</v>
+        <v>1.03378980233536</v>
       </c>
       <c r="F100">
-        <v>12243.92298725497</v>
+        <v>69935.752314963</v>
       </c>
       <c r="G100">
-        <v>0.2128435671329498</v>
+        <v>0.7485681176185608</v>
       </c>
       <c r="H100">
-        <v>1.452936291694641</v>
+        <v>1.033669352531433</v>
       </c>
       <c r="I100">
-        <v>12124.568359375</v>
+        <v>70412.1015625</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>155.1178987895461</v>
+        <v>80.58441943915261</v>
       </c>
       <c r="B101">
-        <v>0.7287454915754739</v>
+        <v>0.09742917896218622</v>
       </c>
       <c r="C101">
-        <v>0.00115531877881243</v>
+        <v>0.001180643866526262</v>
       </c>
       <c r="D101">
-        <v>0.3409082336487676</v>
+        <v>0.7472733444641038</v>
       </c>
       <c r="E101">
-        <v>1.052494491446874</v>
+        <v>1.035974922613619</v>
       </c>
       <c r="F101">
-        <v>30961.41785569056</v>
+        <v>70817.75348355506</v>
       </c>
       <c r="G101">
-        <v>0.3208543658256531</v>
+        <v>0.7481361031532288</v>
       </c>
       <c r="H101">
-        <v>1.042154669761658</v>
+        <v>1.035487771034241</v>
       </c>
       <c r="I101">
-        <v>28401.7734375</v>
+        <v>71437.8984375</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -34,13 +34,13 @@
     <t>Mn</t>
   </si>
   <si>
-    <t>MLP_X</t>
+    <t>MLP_POX/C</t>
   </si>
   <si>
-    <t>MLP_PDI</t>
+    <t>MLP_C/A</t>
   </si>
   <si>
-    <t>MLP_Mn</t>
+    <t>MLP_POX/M</t>
   </si>
 </sst>
 </file>
@@ -453,13 +453,13 @@
         <v>81538.50378104943</v>
       </c>
       <c r="G2">
-        <v>0.6895250678062439</v>
+        <v>103.0814208984375</v>
       </c>
       <c r="H2">
-        <v>1.031888246536255</v>
+        <v>0.1061172932386398</v>
       </c>
       <c r="I2">
-        <v>81537.765625</v>
+        <v>0.0009269907604902983</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,13 +482,13 @@
         <v>74465.41067907</v>
       </c>
       <c r="G3">
-        <v>0.7284013628959656</v>
+        <v>107.4024810791016</v>
       </c>
       <c r="H3">
-        <v>1.033023834228516</v>
+        <v>0.09146071970462799</v>
       </c>
       <c r="I3">
-        <v>74504.6953125</v>
+        <v>0.001076534041203558</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,13 +511,13 @@
         <v>78830.50808908061</v>
       </c>
       <c r="G4">
-        <v>0.6867114901542664</v>
+        <v>104.7058715820312</v>
       </c>
       <c r="H4">
-        <v>1.031518816947937</v>
+        <v>0.1087210476398468</v>
       </c>
       <c r="I4">
-        <v>78864.78125</v>
+        <v>0.0009532235562801361</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,13 +540,13 @@
         <v>82841.31125921379</v>
       </c>
       <c r="G5">
-        <v>0.6677705645561218</v>
+        <v>112.2057723999023</v>
       </c>
       <c r="H5">
-        <v>1.031142234802246</v>
+        <v>0.1103779003024101</v>
       </c>
       <c r="I5">
-        <v>82696.9609375</v>
+        <v>0.000877119367942214</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,13 +569,13 @@
         <v>96695.83683405023</v>
       </c>
       <c r="G6">
-        <v>0.7113516330718994</v>
+        <v>98.08292388916016</v>
       </c>
       <c r="H6">
-        <v>1.034701347351074</v>
+        <v>0.08956778794527054</v>
       </c>
       <c r="I6">
-        <v>95012.296875</v>
+        <v>0.0008009832235984504</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,13 +598,13 @@
         <v>89221.94783598969</v>
       </c>
       <c r="G7">
-        <v>0.6794846653938293</v>
+        <v>110.3029937744141</v>
       </c>
       <c r="H7">
-        <v>1.032262086868286</v>
+        <v>0.1010441407561302</v>
       </c>
       <c r="I7">
-        <v>88738.421875</v>
+        <v>0.0008288382086902857</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,13 +627,13 @@
         <v>73551.88058884651</v>
       </c>
       <c r="G8">
-        <v>0.715279221534729</v>
+        <v>97.52388763427734</v>
       </c>
       <c r="H8">
-        <v>1.032357096672058</v>
+        <v>0.1034720614552498</v>
       </c>
       <c r="I8">
-        <v>73560.3046875</v>
+        <v>0.001071680919267237</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -656,13 +656,13 @@
         <v>76427.09527010556</v>
       </c>
       <c r="G9">
-        <v>0.6883814334869385</v>
+        <v>116.1031188964844</v>
       </c>
       <c r="H9">
-        <v>1.031572103500366</v>
+        <v>0.1017512157559395</v>
       </c>
       <c r="I9">
-        <v>76505.609375</v>
+        <v>0.0009811542695388198</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -685,13 +685,13 @@
         <v>77261.85062254904</v>
       </c>
       <c r="G10">
-        <v>0.7147232294082642</v>
+        <v>94.48360443115234</v>
       </c>
       <c r="H10">
-        <v>1.03279173374176</v>
+        <v>0.1032285764813423</v>
       </c>
       <c r="I10">
-        <v>77370.765625</v>
+        <v>0.001019283314235508</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -714,13 +714,13 @@
         <v>66432.29719207993</v>
       </c>
       <c r="G11">
-        <v>0.7007717490196228</v>
+        <v>107.8821487426758</v>
       </c>
       <c r="H11">
-        <v>1.031077146530151</v>
+        <v>0.1095517128705978</v>
       </c>
       <c r="I11">
-        <v>66636.71875</v>
+        <v>0.001142190187238157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,13 +743,13 @@
         <v>66425.55258270158</v>
       </c>
       <c r="G12">
-        <v>0.7223302721977234</v>
+        <v>107.6441802978516</v>
       </c>
       <c r="H12">
-        <v>1.031853675842285</v>
+        <v>0.09948558360338211</v>
       </c>
       <c r="I12">
-        <v>66568.234375</v>
+        <v>0.001181523548439145</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -772,13 +772,13 @@
         <v>82897.20479325813</v>
       </c>
       <c r="G13">
-        <v>0.6761585474014282</v>
+        <v>104.6858444213867</v>
       </c>
       <c r="H13">
-        <v>1.031453132629395</v>
+        <v>0.1108664721250534</v>
       </c>
       <c r="I13">
-        <v>82777.8984375</v>
+        <v>0.0008913784986361861</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -801,13 +801,13 @@
         <v>72324.81594804979</v>
       </c>
       <c r="G14">
-        <v>0.7024824023246765</v>
+        <v>105.0157089233398</v>
       </c>
       <c r="H14">
-        <v>1.03151524066925</v>
+        <v>0.1063582599163055</v>
       </c>
       <c r="I14">
-        <v>72326.796875</v>
+        <v>0.001063936273567379</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -830,13 +830,13 @@
         <v>83935.62639688494</v>
       </c>
       <c r="G15">
-        <v>0.6965533494949341</v>
+        <v>107.9702453613281</v>
       </c>
       <c r="H15">
-        <v>1.032730937004089</v>
+        <v>0.09786266833543777</v>
       </c>
       <c r="I15">
-        <v>83995.3359375</v>
+        <v>0.0009142440976575017</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -859,13 +859,13 @@
         <v>93837.49906414766</v>
       </c>
       <c r="G16">
-        <v>0.6906330585479736</v>
+        <v>106.8684234619141</v>
       </c>
       <c r="H16">
-        <v>1.033448338508606</v>
+        <v>0.09507674723863602</v>
       </c>
       <c r="I16">
-        <v>92288.40625</v>
+        <v>0.0008000473026186228</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -888,13 +888,13 @@
         <v>75377.83846040601</v>
       </c>
       <c r="G17">
-        <v>0.7433887720108032</v>
+        <v>77.248291015625</v>
       </c>
       <c r="H17">
-        <v>1.035325407981873</v>
+        <v>0.09991727024316788</v>
       </c>
       <c r="I17">
-        <v>75599.40625</v>
+        <v>0.001102535519748926</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -917,13 +917,13 @@
         <v>83429.7766818427</v>
       </c>
       <c r="G18">
-        <v>0.7006247043609619</v>
+        <v>90.19596099853516</v>
       </c>
       <c r="H18">
-        <v>1.033215761184692</v>
+        <v>0.1077146530151367</v>
       </c>
       <c r="I18">
-        <v>83222.34375</v>
+        <v>0.0009344257996417582</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -946,13 +946,13 @@
         <v>78495.33357414858</v>
       </c>
       <c r="G19">
-        <v>0.6866658329963684</v>
+        <v>115.9886322021484</v>
       </c>
       <c r="H19">
-        <v>1.031671524047852</v>
+        <v>0.1007870212197304</v>
       </c>
       <c r="I19">
-        <v>78538.1015625</v>
+        <v>0.0009542822372168303</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -975,13 +975,13 @@
         <v>71426.37757296051</v>
       </c>
       <c r="G20">
-        <v>0.6804216504096985</v>
+        <v>119.8404922485352</v>
       </c>
       <c r="H20">
-        <v>1.030719041824341</v>
+        <v>0.1078280135989189</v>
       </c>
       <c r="I20">
-        <v>71652.7421875</v>
+        <v>0.00102788454387337</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1004,13 +1004,13 @@
         <v>67280.96655030428</v>
       </c>
       <c r="G21">
-        <v>0.6976336240768433</v>
+        <v>110.2782592773438</v>
       </c>
       <c r="H21">
-        <v>1.030939340591431</v>
+        <v>0.1088702753186226</v>
       </c>
       <c r="I21">
-        <v>67343.0390625</v>
+        <v>0.001124369795434177</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1033,13 +1033,13 @@
         <v>70626.40064168505</v>
       </c>
       <c r="G22">
-        <v>0.6834704875946045</v>
+        <v>123.5957412719727</v>
       </c>
       <c r="H22">
-        <v>1.030915141105652</v>
+        <v>0.1036246493458748</v>
       </c>
       <c r="I22">
-        <v>70867.5546875</v>
+        <v>0.00104227545671165</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1062,13 +1062,13 @@
         <v>68248.14291811716</v>
       </c>
       <c r="G23">
-        <v>0.7146124839782715</v>
+        <v>103.6113510131836</v>
       </c>
       <c r="H23">
-        <v>1.031673312187195</v>
+        <v>0.1043815985321999</v>
       </c>
       <c r="I23">
-        <v>68295.125</v>
+        <v>0.001144745154306293</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1091,13 +1091,13 @@
         <v>80811.52741395582</v>
       </c>
       <c r="G24">
-        <v>0.6754887104034424</v>
+        <v>104.5465774536133</v>
       </c>
       <c r="H24">
-        <v>1.031241297721863</v>
+        <v>0.1128630265593529</v>
       </c>
       <c r="I24">
-        <v>80702.1015625</v>
+        <v>0.0009147664532065392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1120,13 +1120,13 @@
         <v>68738.83122165086</v>
       </c>
       <c r="G25">
-        <v>0.7029218673706055</v>
+        <v>105.777473449707</v>
       </c>
       <c r="H25">
-        <v>1.031219840049744</v>
+        <v>0.1084329858422279</v>
       </c>
       <c r="I25">
-        <v>68763.2890625</v>
+        <v>0.00111474480945617</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1149,13 +1149,13 @@
         <v>91637.49349395366</v>
       </c>
       <c r="G26">
-        <v>0.7210232615470886</v>
+        <v>83.69991302490234</v>
       </c>
       <c r="H26">
-        <v>1.035190343856812</v>
+        <v>0.09746511280536652</v>
       </c>
       <c r="I26">
-        <v>90744.6796875</v>
+        <v>0.0008741109049879014</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1178,13 +1178,13 @@
         <v>66606.44255704015</v>
       </c>
       <c r="G27">
-        <v>0.7153734564781189</v>
+        <v>105.2832107543945</v>
       </c>
       <c r="H27">
-        <v>1.03155505657196</v>
+        <v>0.1040679067373276</v>
       </c>
       <c r="I27">
-        <v>66662.34375</v>
+        <v>0.001169332186691463</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1207,13 +1207,13 @@
         <v>80737.07906334888</v>
       </c>
       <c r="G28">
-        <v>0.7645170092582703</v>
+        <v>69.32630920410156</v>
       </c>
       <c r="H28">
-        <v>1.037353277206421</v>
+        <v>0.09002368152141571</v>
       </c>
       <c r="I28">
-        <v>80620.2890625</v>
+        <v>0.001087538781575859</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1236,13 +1236,13 @@
         <v>85125.14020514555</v>
       </c>
       <c r="G29">
-        <v>0.6928711533546448</v>
+        <v>112.7721862792969</v>
       </c>
       <c r="H29">
-        <v>1.032721519470215</v>
+        <v>0.09546726942062378</v>
       </c>
       <c r="I29">
-        <v>85159.734375</v>
+        <v>0.0008973635849542916</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1265,13 +1265,13 @@
         <v>66848.48321000017</v>
       </c>
       <c r="G30">
-        <v>0.7156188488006592</v>
+        <v>101.2170104980469</v>
       </c>
       <c r="H30">
-        <v>1.031666159629822</v>
+        <v>0.1061341241002083</v>
       </c>
       <c r="I30">
-        <v>66908.1484375</v>
+        <v>0.001167446607723832</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1294,13 +1294,13 @@
         <v>75157.52364805204</v>
       </c>
       <c r="G31">
-        <v>0.7390630841255188</v>
+        <v>96.56613159179688</v>
       </c>
       <c r="H31">
-        <v>1.034109711647034</v>
+        <v>0.09197403490543365</v>
       </c>
       <c r="I31">
-        <v>75200.7890625</v>
+        <v>0.001091325888410211</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1323,13 +1323,13 @@
         <v>86032.53825126126</v>
       </c>
       <c r="G32">
-        <v>0.7040819525718689</v>
+        <v>97.45156097412109</v>
       </c>
       <c r="H32">
-        <v>1.033243656158447</v>
+        <v>0.09990600496530533</v>
       </c>
       <c r="I32">
-        <v>85951.625</v>
+        <v>0.0009015981340780854</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1352,13 +1352,13 @@
         <v>85143.38850386722</v>
       </c>
       <c r="G33">
-        <v>0.6909925937652588</v>
+        <v>111.1525039672852</v>
       </c>
       <c r="H33">
-        <v>1.032472848892212</v>
+        <v>0.09747848659753799</v>
       </c>
       <c r="I33">
-        <v>85106.7421875</v>
+        <v>0.0008931300835683942</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1381,13 +1381,13 @@
         <v>81924.5274006101</v>
       </c>
       <c r="G34">
-        <v>0.7415155172348022</v>
+        <v>97.54296875</v>
       </c>
       <c r="H34">
-        <v>1.035019755363464</v>
+        <v>0.08591195195913315</v>
       </c>
       <c r="I34">
-        <v>81812.09375</v>
+        <v>0.001010555773973465</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1410,13 +1410,13 @@
         <v>94595.76326410174</v>
       </c>
       <c r="G35">
-        <v>0.7005072832107544</v>
+        <v>98.82180786132812</v>
       </c>
       <c r="H35">
-        <v>1.033807635307312</v>
+        <v>0.09542214870452881</v>
       </c>
       <c r="I35">
-        <v>93437.859375</v>
+        <v>0.0008078051614575088</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1439,13 +1439,13 @@
         <v>90149.4161812352</v>
       </c>
       <c r="G36">
-        <v>0.7165442109107971</v>
+        <v>79.54354095458984</v>
       </c>
       <c r="H36">
-        <v>1.034945726394653</v>
+        <v>0.1028676852583885</v>
       </c>
       <c r="I36">
-        <v>89415.5703125</v>
+        <v>0.0008844593539834023</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1468,13 +1468,13 @@
         <v>78777.28742279726</v>
       </c>
       <c r="G37">
-        <v>0.6975511908531189</v>
+        <v>103.3272247314453</v>
       </c>
       <c r="H37">
-        <v>1.031975626945496</v>
+        <v>0.104409471154213</v>
       </c>
       <c r="I37">
-        <v>78759.4765625</v>
+        <v>0.0009699240908958018</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1497,13 +1497,13 @@
         <v>80320.57700922184</v>
       </c>
       <c r="G38">
-        <v>0.6964130401611328</v>
+        <v>103.4603881835938</v>
       </c>
       <c r="H38">
-        <v>1.032090663909912</v>
+        <v>0.103514738380909</v>
       </c>
       <c r="I38">
-        <v>80314.359375</v>
+        <v>0.0009503204491920769</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1526,13 +1526,13 @@
         <v>77213.73242142811</v>
       </c>
       <c r="G39">
-        <v>0.6953240633010864</v>
+        <v>104.730110168457</v>
       </c>
       <c r="H39">
-        <v>1.031713366508484</v>
+        <v>0.1060795411467552</v>
       </c>
       <c r="I39">
-        <v>77208.2578125</v>
+        <v>0.0009856425458565354</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1555,13 +1555,13 @@
         <v>79846.95430622832</v>
       </c>
       <c r="G40">
-        <v>0.6724802255630493</v>
+        <v>131.4945526123047</v>
       </c>
       <c r="H40">
-        <v>1.031446576118469</v>
+        <v>0.09428154677152634</v>
       </c>
       <c r="I40">
-        <v>80084.4140625</v>
+        <v>0.0009167870157398283</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1584,13 +1584,13 @@
         <v>75743.91139820353</v>
       </c>
       <c r="G41">
-        <v>0.7134528160095215</v>
+        <v>105.2180557250977</v>
       </c>
       <c r="H41">
-        <v>1.032387495040894</v>
+        <v>0.09834965318441391</v>
       </c>
       <c r="I41">
-        <v>75729.203125</v>
+        <v>0.001033710315823555</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1613,13 +1613,13 @@
         <v>67592.10765335572</v>
       </c>
       <c r="G42">
-        <v>0.7040764093399048</v>
+        <v>105.0943222045898</v>
       </c>
       <c r="H42">
-        <v>1.031346917152405</v>
+        <v>0.1088519617915154</v>
       </c>
       <c r="I42">
-        <v>67734.9921875</v>
+        <v>0.001134396996349096</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1642,13 +1642,13 @@
         <v>91755.36511022542</v>
       </c>
       <c r="G43">
-        <v>0.7067130208015442</v>
+        <v>98.07933044433594</v>
       </c>
       <c r="H43">
-        <v>1.033879041671753</v>
+        <v>0.09460529685020447</v>
       </c>
       <c r="I43">
-        <v>91149.1953125</v>
+        <v>0.0008455225033685565</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1671,13 +1671,13 @@
         <v>77311.84171533454</v>
       </c>
       <c r="G44">
-        <v>0.7093775868415833</v>
+        <v>104.1014556884766</v>
       </c>
       <c r="H44">
-        <v>1.032374262809753</v>
+        <v>0.09968871623277664</v>
       </c>
       <c r="I44">
-        <v>77288.3828125</v>
+        <v>0.001007793936878443</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1700,13 +1700,13 @@
         <v>89129.26059555032</v>
       </c>
       <c r="G45">
-        <v>0.6909629702568054</v>
+        <v>110.1718826293945</v>
       </c>
       <c r="H45">
-        <v>1.033080339431763</v>
+        <v>0.09491527080535889</v>
       </c>
       <c r="I45">
-        <v>88369.2578125</v>
+        <v>0.0008518586400896311</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1729,13 +1729,13 @@
         <v>69787.83105223658</v>
       </c>
       <c r="G46">
-        <v>0.6939576268196106</v>
+        <v>107.2910308837891</v>
       </c>
       <c r="H46">
-        <v>1.030947089195251</v>
+        <v>0.1113308370113373</v>
       </c>
       <c r="I46">
-        <v>69871.53125</v>
+        <v>0.001081686117686331</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1758,13 +1758,13 @@
         <v>78161.3104917923</v>
       </c>
       <c r="G47">
-        <v>0.6865009069442749</v>
+        <v>107.7700958251953</v>
       </c>
       <c r="H47">
-        <v>1.031488299369812</v>
+        <v>0.107299767434597</v>
       </c>
       <c r="I47">
-        <v>78213.5625</v>
+        <v>0.0009591238340362906</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1787,13 +1787,13 @@
         <v>82694.22254685163</v>
       </c>
       <c r="G48">
-        <v>0.7538259029388428</v>
+        <v>81.1357421875</v>
       </c>
       <c r="H48">
-        <v>1.036533713340759</v>
+        <v>0.08826431632041931</v>
       </c>
       <c r="I48">
-        <v>82460.6171875</v>
+        <v>0.001037289504893124</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1816,13 +1816,13 @@
         <v>86541.90034558781</v>
       </c>
       <c r="G49">
-        <v>0.6881836652755737</v>
+        <v>112.0285949707031</v>
       </c>
       <c r="H49">
-        <v>1.032581806182861</v>
+        <v>0.09677829593420029</v>
       </c>
       <c r="I49">
-        <v>86047.0390625</v>
+        <v>0.0008743823855184019</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1845,13 +1845,13 @@
         <v>88164.86777930609</v>
       </c>
       <c r="G50">
-        <v>0.6903793811798096</v>
+        <v>103.6875610351562</v>
       </c>
       <c r="H50">
-        <v>1.032633543014526</v>
+        <v>0.100450336933136</v>
       </c>
       <c r="I50">
-        <v>87768.0078125</v>
+        <v>0.0008556102402508259</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1874,13 +1874,13 @@
         <v>75383.59993599266</v>
       </c>
       <c r="G51">
-        <v>0.6854066848754883</v>
+        <v>105.5441131591797</v>
       </c>
       <c r="H51">
-        <v>1.031194925308228</v>
+        <v>0.1119841933250427</v>
       </c>
       <c r="I51">
-        <v>75475.21875</v>
+        <v>0.0009930119849741459</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1903,13 +1903,13 @@
         <v>85600.81365638027</v>
       </c>
       <c r="G52">
-        <v>0.7290211915969849</v>
+        <v>112.0933151245117</v>
       </c>
       <c r="H52">
-        <v>1.034503579139709</v>
+        <v>0.08106516301631927</v>
       </c>
       <c r="I52">
-        <v>85512.40625</v>
+        <v>0.0009430547943338752</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1932,13 +1932,13 @@
         <v>65890.78658717666</v>
       </c>
       <c r="G53">
-        <v>0.7050864100456238</v>
+        <v>105.3969802856445</v>
       </c>
       <c r="H53">
-        <v>1.031169176101685</v>
+        <v>0.1095593497157097</v>
       </c>
       <c r="I53">
-        <v>66026.5625</v>
+        <v>0.00115859997458756</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1961,13 +1961,13 @@
         <v>72479.6296109854</v>
       </c>
       <c r="G54">
-        <v>0.7282907962799072</v>
+        <v>102.931510925293</v>
       </c>
       <c r="H54">
-        <v>1.032879710197449</v>
+        <v>0.0949527695775032</v>
       </c>
       <c r="I54">
-        <v>72590.2421875</v>
+        <v>0.001105818897485733</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1990,13 +1990,13 @@
         <v>73602.51374138611</v>
       </c>
       <c r="G55">
-        <v>0.7279511094093323</v>
+        <v>81.80760955810547</v>
       </c>
       <c r="H55">
-        <v>1.033893585205078</v>
+        <v>0.1061497703194618</v>
       </c>
       <c r="I55">
-        <v>73597.6875</v>
+        <v>0.00109031330794096</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2019,13 +2019,13 @@
         <v>73883.31084644256</v>
       </c>
       <c r="G56">
-        <v>0.7611542344093323</v>
+        <v>78.31877136230469</v>
       </c>
       <c r="H56">
-        <v>1.036199688911438</v>
+        <v>0.09139369428157806</v>
       </c>
       <c r="I56">
-        <v>74363.25</v>
+        <v>0.00115877203643322</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2048,13 +2048,13 @@
         <v>90324.24573556196</v>
       </c>
       <c r="G57">
-        <v>0.686964213848114</v>
+        <v>108.5542297363281</v>
       </c>
       <c r="H57">
-        <v>1.032801389694214</v>
+        <v>0.09710882604122162</v>
       </c>
       <c r="I57">
-        <v>89435.8359375</v>
+        <v>0.0008292864076793194</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2077,13 +2077,13 @@
         <v>73545.58559935106</v>
       </c>
       <c r="G58">
-        <v>0.688066303730011</v>
+        <v>108.451789855957</v>
       </c>
       <c r="H58">
-        <v>1.031083464622498</v>
+        <v>0.1106163859367371</v>
       </c>
       <c r="I58">
-        <v>73624.4296875</v>
+        <v>0.001018034876324236</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2106,13 +2106,13 @@
         <v>77169.51657621456</v>
       </c>
       <c r="G59">
-        <v>0.7206875681877136</v>
+        <v>90.52240753173828</v>
       </c>
       <c r="H59">
-        <v>1.033377766609192</v>
+        <v>0.1024210229516029</v>
       </c>
       <c r="I59">
-        <v>77121.1015625</v>
+        <v>0.001032955595292151</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2135,13 +2135,13 @@
         <v>68775.78930627124</v>
       </c>
       <c r="G60">
-        <v>0.7350211143493652</v>
+        <v>98.63609313964844</v>
       </c>
       <c r="H60">
-        <v>1.033065319061279</v>
+        <v>0.09650558233261108</v>
       </c>
       <c r="I60">
-        <v>68965.5625</v>
+        <v>0.001168338232673705</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2164,13 +2164,13 @@
         <v>91194.44193383394</v>
       </c>
       <c r="G61">
-        <v>0.7451061606407166</v>
+        <v>81.74549102783203</v>
       </c>
       <c r="H61">
-        <v>1.036655068397522</v>
+        <v>0.08736676722764969</v>
       </c>
       <c r="I61">
-        <v>90037.703125</v>
+        <v>0.0009168879478238523</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2193,13 +2193,13 @@
         <v>86528.84316365354</v>
       </c>
       <c r="G62">
-        <v>0.7031577229499817</v>
+        <v>93.93820953369141</v>
       </c>
       <c r="H62">
-        <v>1.033405184745789</v>
+        <v>0.1024111583828926</v>
       </c>
       <c r="I62">
-        <v>86343.265625</v>
+        <v>0.0008966950117610395</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2222,13 +2222,13 @@
         <v>94447.96306783588</v>
       </c>
       <c r="G63">
-        <v>0.7152944803237915</v>
+        <v>84.73322296142578</v>
       </c>
       <c r="H63">
-        <v>1.035075306892395</v>
+        <v>0.09701880812644958</v>
       </c>
       <c r="I63">
-        <v>92991.890625</v>
+        <v>0.0008423365070484579</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2251,13 +2251,13 @@
         <v>89276.023230689</v>
       </c>
       <c r="G64">
-        <v>0.667989194393158</v>
+        <v>119.7322387695312</v>
       </c>
       <c r="H64">
-        <v>1.031788945198059</v>
+        <v>0.1004076153039932</v>
       </c>
       <c r="I64">
-        <v>88637.9609375</v>
+        <v>0.0008070744224824011</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2280,13 +2280,13 @@
         <v>67492.02658628208</v>
       </c>
       <c r="G65">
-        <v>0.7149878740310669</v>
+        <v>84.86528778076172</v>
       </c>
       <c r="H65">
-        <v>1.032370924949646</v>
+        <v>0.1141278669238091</v>
       </c>
       <c r="I65">
-        <v>67499.734375</v>
+        <v>0.001156971091404557</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2309,13 +2309,13 @@
         <v>72120.84373442782</v>
       </c>
       <c r="G66">
-        <v>0.6996127963066101</v>
+        <v>106.0257415771484</v>
       </c>
       <c r="H66">
-        <v>1.031735897064209</v>
+        <v>0.1071436703205109</v>
       </c>
       <c r="I66">
-        <v>72185.40625</v>
+        <v>0.001061986200511456</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2338,13 +2338,13 @@
         <v>69491.07525294257</v>
       </c>
       <c r="G67">
-        <v>0.7040020823478699</v>
+        <v>105.4516754150391</v>
       </c>
       <c r="H67">
-        <v>1.031481146812439</v>
+        <v>0.1073522865772247</v>
       </c>
       <c r="I67">
-        <v>69598.2421875</v>
+        <v>0.001107891439460218</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2367,13 +2367,13 @@
         <v>87566.73374752047</v>
       </c>
       <c r="G68">
-        <v>0.7240529656410217</v>
+        <v>99.50115966796875</v>
       </c>
       <c r="H68">
-        <v>1.034438490867615</v>
+        <v>0.08859168738126755</v>
       </c>
       <c r="I68">
-        <v>87230.1796875</v>
+        <v>0.0009181066416203976</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2396,13 +2396,13 @@
         <v>80099.88371637101</v>
       </c>
       <c r="G69">
-        <v>0.7408505082130432</v>
+        <v>79.49641418457031</v>
       </c>
       <c r="H69">
-        <v>1.035601854324341</v>
+        <v>0.09738478809595108</v>
       </c>
       <c r="I69">
-        <v>80090.25</v>
+        <v>0.001040427829138935</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2425,13 +2425,13 @@
         <v>86055.46884267239</v>
       </c>
       <c r="G70">
-        <v>0.6620885729789734</v>
+        <v>137.3601684570312</v>
       </c>
       <c r="H70">
-        <v>1.031504511833191</v>
+        <v>0.09140300005674362</v>
       </c>
       <c r="I70">
-        <v>86008.21875</v>
+        <v>0.0008292579441331327</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2454,13 +2454,13 @@
         <v>85011.69015755533</v>
       </c>
       <c r="G71">
-        <v>0.75043123960495</v>
+        <v>73.88394927978516</v>
       </c>
       <c r="H71">
-        <v>1.03681480884552</v>
+        <v>0.09292391687631607</v>
       </c>
       <c r="I71">
-        <v>84627.8046875</v>
+        <v>0.001006413018330932</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2483,13 +2483,13 @@
         <v>65295.51843847329</v>
       </c>
       <c r="G72">
-        <v>0.710395336151123</v>
+        <v>100.3096389770508</v>
       </c>
       <c r="H72">
-        <v>1.031302690505981</v>
+        <v>0.1103391945362091</v>
       </c>
       <c r="I72">
-        <v>65357.890625</v>
+        <v>0.001180648221634328</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2512,13 +2512,13 @@
         <v>73809.16535697946</v>
       </c>
       <c r="G73">
-        <v>0.7576285004615784</v>
+        <v>95.18865966796875</v>
       </c>
       <c r="H73">
-        <v>1.035253882408142</v>
+        <v>0.08438589423894882</v>
       </c>
       <c r="I73">
-        <v>74117.1015625</v>
+        <v>0.001144233625382185</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2541,13 +2541,13 @@
         <v>82545.26761393597</v>
       </c>
       <c r="G74">
-        <v>0.7056410312652588</v>
+        <v>91.97579193115234</v>
       </c>
       <c r="H74">
-        <v>1.033029794692993</v>
+        <v>0.1055807843804359</v>
       </c>
       <c r="I74">
-        <v>82681.3046875</v>
+        <v>0.0009469838696531951</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2570,13 +2570,13 @@
         <v>71623.59727313645</v>
       </c>
       <c r="G75">
-        <v>0.7580825090408325</v>
+        <v>100.6641464233398</v>
       </c>
       <c r="H75">
-        <v>1.034785032272339</v>
+        <v>0.08234095573425293</v>
       </c>
       <c r="I75">
-        <v>72108.7421875</v>
+        <v>0.001171366078779101</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2599,13 +2599,13 @@
         <v>81320.40426984521</v>
       </c>
       <c r="G76">
-        <v>0.6705456972122192</v>
+        <v>122.6593475341797</v>
       </c>
       <c r="H76">
-        <v>1.031268000602722</v>
+        <v>0.1019734442234039</v>
       </c>
       <c r="I76">
-        <v>81460.125</v>
+        <v>0.0008979855920188129</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2628,13 +2628,13 @@
         <v>72790.46354393325</v>
       </c>
       <c r="G77">
-        <v>0.7603940963745117</v>
+        <v>64.06911468505859</v>
       </c>
       <c r="H77">
-        <v>1.03657603263855</v>
+        <v>0.09990126639604568</v>
       </c>
       <c r="I77">
-        <v>73545.9453125</v>
+        <v>0.001172894961200655</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2657,13 +2657,13 @@
         <v>70608.55581957518</v>
       </c>
       <c r="G78">
-        <v>0.7448294758796692</v>
+        <v>89.03109741210938</v>
       </c>
       <c r="H78">
-        <v>1.034352779388428</v>
+        <v>0.09614625573158264</v>
       </c>
       <c r="I78">
-        <v>70918.2578125</v>
+        <v>0.001165261841379106</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2686,13 +2686,13 @@
         <v>69925.81047232136</v>
       </c>
       <c r="G79">
-        <v>0.7087756991386414</v>
+        <v>87.67147064208984</v>
       </c>
       <c r="H79">
-        <v>1.032222747802734</v>
+        <v>0.1141339614987373</v>
       </c>
       <c r="I79">
-        <v>69914.3984375</v>
+        <v>0.001110714045353234</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2715,13 +2715,13 @@
         <v>74599.91229194535</v>
       </c>
       <c r="G80">
-        <v>0.711596667766571</v>
+        <v>92.44651794433594</v>
       </c>
       <c r="H80">
-        <v>1.032447934150696</v>
+        <v>0.1073962822556496</v>
       </c>
       <c r="I80">
-        <v>74604.6640625</v>
+        <v>0.001050759572535753</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2744,13 +2744,13 @@
         <v>76030.25181731302</v>
       </c>
       <c r="G81">
-        <v>0.7688736915588379</v>
+        <v>64.65254974365234</v>
       </c>
       <c r="H81">
-        <v>1.037323474884033</v>
+        <v>0.09311513602733612</v>
       </c>
       <c r="I81">
-        <v>76459.0234375</v>
+        <v>0.001149710267782211</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2773,13 +2773,13 @@
         <v>89345.48785304721</v>
       </c>
       <c r="G82">
-        <v>0.7357191443443298</v>
+        <v>91.00156402587891</v>
       </c>
       <c r="H82">
-        <v>1.03565526008606</v>
+        <v>0.08767616003751755</v>
       </c>
       <c r="I82">
-        <v>88787.8984375</v>
+        <v>0.0009154428262263536</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2802,13 +2802,13 @@
         <v>69659.94878883265</v>
       </c>
       <c r="G83">
-        <v>0.719272792339325</v>
+        <v>96.16300964355469</v>
       </c>
       <c r="H83">
-        <v>1.032247185707092</v>
+        <v>0.1046929955482483</v>
       </c>
       <c r="I83">
-        <v>69691.546875</v>
+        <v>0.001133369514718652</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2831,13 +2831,13 @@
         <v>77414.34810601255</v>
       </c>
       <c r="G84">
-        <v>0.7282801270484924</v>
+        <v>80.141845703125</v>
       </c>
       <c r="H84">
-        <v>1.034441709518433</v>
+        <v>0.1043293550610542</v>
       </c>
       <c r="I84">
-        <v>77399.578125</v>
+        <v>0.001042614807374775</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2860,13 +2860,13 @@
         <v>94602.86908759469</v>
       </c>
       <c r="G85">
-        <v>0.6983616352081299</v>
+        <v>98.56911468505859</v>
       </c>
       <c r="H85">
-        <v>1.033726572990417</v>
+        <v>0.09683864563703537</v>
       </c>
       <c r="I85">
-        <v>93436.03125</v>
+        <v>0.0008028442389331758</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2889,13 +2889,13 @@
         <v>78210.63072795217</v>
       </c>
       <c r="G86">
-        <v>0.6755329966545105</v>
+        <v>108.6180725097656</v>
       </c>
       <c r="H86">
-        <v>1.031030058860779</v>
+        <v>0.1123553365468979</v>
       </c>
       <c r="I86">
-        <v>78294.7890625</v>
+        <v>0.0009420947171747684</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2918,13 +2918,13 @@
         <v>89517.44737723017</v>
       </c>
       <c r="G87">
-        <v>0.6993902325630188</v>
+        <v>99.50419616699219</v>
       </c>
       <c r="H87">
-        <v>1.033323526382446</v>
+        <v>0.09823919087648392</v>
       </c>
       <c r="I87">
-        <v>89083.7890625</v>
+        <v>0.0008593962993472815</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2947,13 +2947,13 @@
         <v>67099.66344767701</v>
       </c>
       <c r="G88">
-        <v>0.7248297929763794</v>
+        <v>101.0179901123047</v>
       </c>
       <c r="H88">
-        <v>1.032199263572693</v>
+        <v>0.1012815311551094</v>
       </c>
       <c r="I88">
-        <v>67215.4921875</v>
+        <v>0.001177631318569183</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2976,13 +2976,13 @@
         <v>80887.51816786182</v>
       </c>
       <c r="G89">
-        <v>0.7220001220703125</v>
+        <v>83.19351959228516</v>
       </c>
       <c r="H89">
-        <v>1.034262299537659</v>
+        <v>0.1038530021905899</v>
       </c>
       <c r="I89">
-        <v>80871.34375</v>
+        <v>0.0009889275534078479</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3005,13 +3005,13 @@
         <v>75969.34526755988</v>
       </c>
       <c r="G90">
-        <v>0.6936598420143127</v>
+        <v>103.7515869140625</v>
       </c>
       <c r="H90">
-        <v>1.031503915786743</v>
+        <v>0.1087311059236526</v>
       </c>
       <c r="I90">
-        <v>75975.59375</v>
+        <v>0.0009995077271014452</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3034,13 +3034,13 @@
         <v>74177.05785785212</v>
       </c>
       <c r="G91">
-        <v>0.7143449187278748</v>
+        <v>97.08790588378906</v>
       </c>
       <c r="H91">
-        <v>1.032370328903198</v>
+        <v>0.1037214025855064</v>
       </c>
       <c r="I91">
-        <v>74252.875</v>
+        <v>0.00106118293479085</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3063,13 +3063,13 @@
         <v>84349.1162867714</v>
       </c>
       <c r="G92">
-        <v>0.7220648527145386</v>
+        <v>93.01198577880859</v>
       </c>
       <c r="H92">
-        <v>1.034156084060669</v>
+        <v>0.09593512862920761</v>
       </c>
       <c r="I92">
-        <v>84377.7734375</v>
+        <v>0.0009494195692241192</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3092,13 +3092,13 @@
         <v>90936.71391413134</v>
       </c>
       <c r="G93">
-        <v>0.7084622979164124</v>
+        <v>97.29978179931641</v>
       </c>
       <c r="H93">
-        <v>1.033885598182678</v>
+        <v>0.0950256735086441</v>
       </c>
       <c r="I93">
-        <v>90434.3203125</v>
+        <v>0.0008556626853533089</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3121,13 +3121,13 @@
         <v>75602.5895983599</v>
       </c>
       <c r="G94">
-        <v>0.7574493885040283</v>
+        <v>74.5960693359375</v>
       </c>
       <c r="H94">
-        <v>1.036322593688965</v>
+        <v>0.09427420794963837</v>
       </c>
       <c r="I94">
-        <v>75960.4375</v>
+        <v>0.001129039446823299</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3150,13 +3150,13 @@
         <v>81350.10967911783</v>
       </c>
       <c r="G95">
-        <v>0.6619002223014832</v>
+        <v>129.4559936523438</v>
       </c>
       <c r="H95">
-        <v>1.030957341194153</v>
+        <v>0.1016243770718575</v>
       </c>
       <c r="I95">
-        <v>81528.109375</v>
+        <v>0.0008820169023238122</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3179,13 +3179,13 @@
         <v>77350.32360771715</v>
       </c>
       <c r="G96">
-        <v>0.7055090069770813</v>
+        <v>97.19788360595703</v>
       </c>
       <c r="H96">
-        <v>1.032380938529968</v>
+        <v>0.1059783771634102</v>
       </c>
       <c r="I96">
-        <v>77338.6171875</v>
+        <v>0.001003028824925423</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3208,13 +3208,13 @@
         <v>88999.55306112269</v>
       </c>
       <c r="G97">
-        <v>0.7152878046035767</v>
+        <v>87.52497863769531</v>
       </c>
       <c r="H97">
-        <v>1.034407615661621</v>
+        <v>0.09931990504264832</v>
       </c>
       <c r="I97">
-        <v>88633.7265625</v>
+        <v>0.0008953398792073131</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3237,13 +3237,13 @@
         <v>92767.28100028589</v>
       </c>
       <c r="G98">
-        <v>0.7089437246322632</v>
+        <v>98.22142028808594</v>
       </c>
       <c r="H98">
-        <v>1.034107804298401</v>
+        <v>0.09311936795711517</v>
       </c>
       <c r="I98">
-        <v>91985.09375</v>
+        <v>0.0008378461934626102</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3266,13 +3266,13 @@
         <v>74613.77525697168</v>
       </c>
       <c r="G99">
-        <v>0.7571243643760681</v>
+        <v>64.81377410888672</v>
       </c>
       <c r="H99">
-        <v>1.036565542221069</v>
+        <v>0.1001377329230309</v>
       </c>
       <c r="I99">
-        <v>75176.25</v>
+        <v>0.001141287735663354</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3295,13 +3295,13 @@
         <v>69935.752314963</v>
       </c>
       <c r="G100">
-        <v>0.7485681176185608</v>
+        <v>110.8403244018555</v>
       </c>
       <c r="H100">
-        <v>1.033669352531433</v>
+        <v>0.08295104652643204</v>
       </c>
       <c r="I100">
-        <v>70412.1015625</v>
+        <v>0.001170862815342844</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3324,13 +3324,13 @@
         <v>70817.75348355506</v>
       </c>
       <c r="G101">
-        <v>0.7481361031532288</v>
+        <v>68.18665313720703</v>
       </c>
       <c r="H101">
-        <v>1.035487771034241</v>
+        <v>0.1057525128126144</v>
       </c>
       <c r="I101">
-        <v>71437.8984375</v>
+        <v>0.001170065603218973</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>101.9134541931352</v>
+        <v>87.24684305404202</v>
       </c>
       <c r="B2">
-        <v>0.106970280159525</v>
+        <v>0.09503015678890928</v>
       </c>
       <c r="C2">
-        <v>0.000926225341393263</v>
+        <v>0.0008196804918192448</v>
       </c>
       <c r="D2">
-        <v>0.6894056795738879</v>
+        <v>0.7148456240649922</v>
       </c>
       <c r="E2">
-        <v>1.031882260731193</v>
+        <v>1.035448897428706</v>
       </c>
       <c r="F2">
-        <v>81538.50378104943</v>
+        <v>97063.42835360227</v>
       </c>
       <c r="G2">
-        <v>103.0814208984375</v>
+        <v>87.54514312744141</v>
       </c>
       <c r="H2">
-        <v>0.1061172932386398</v>
+        <v>0.09368538111448288</v>
       </c>
       <c r="I2">
-        <v>0.0009269907604902983</v>
+        <v>0.0008130731293931603</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>108.4352681589187</v>
+        <v>93.25725353742199</v>
       </c>
       <c r="B3">
-        <v>0.09098447821450543</v>
+        <v>0.08913646128992846</v>
       </c>
       <c r="C3">
-        <v>0.001076965233335448</v>
+        <v>0.001054763395272719</v>
       </c>
       <c r="D3">
-        <v>0.7284417809339752</v>
+        <v>0.7446837070635096</v>
       </c>
       <c r="E3">
-        <v>1.033028378276281</v>
+        <v>1.035152024588563</v>
       </c>
       <c r="F3">
-        <v>74465.41067907</v>
+        <v>78591.98581522674</v>
       </c>
       <c r="G3">
-        <v>107.4024810791016</v>
+        <v>92.87812042236328</v>
       </c>
       <c r="H3">
-        <v>0.09146071970462799</v>
+        <v>0.08897542208433151</v>
       </c>
       <c r="I3">
-        <v>0.001076534041203558</v>
+        <v>0.001056399429216981</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>104.0282503206033</v>
+        <v>107.0695378009849</v>
       </c>
       <c r="B4">
-        <v>0.109219436254788</v>
+        <v>0.08355715668275283</v>
       </c>
       <c r="C4">
-        <v>0.0009520796015673995</v>
+        <v>0.0009640554005717663</v>
       </c>
       <c r="D4">
-        <v>0.6864619032469254</v>
+        <v>0.732428008535534</v>
       </c>
       <c r="E4">
-        <v>1.031506971853486</v>
+        <v>1.034498025163774</v>
       </c>
       <c r="F4">
-        <v>78830.50808908061</v>
+        <v>84060.73823639864</v>
       </c>
       <c r="G4">
-        <v>104.7058715820312</v>
+        <v>105.083381652832</v>
       </c>
       <c r="H4">
-        <v>0.1087210476398468</v>
+        <v>0.08475181460380554</v>
       </c>
       <c r="I4">
-        <v>0.0009532235562801361</v>
+        <v>0.0009663471137173474</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>101.7593884437088</v>
+        <v>82.87805326444487</v>
       </c>
       <c r="B5">
-        <v>0.1181174580499429</v>
+        <v>0.08374448689060994</v>
       </c>
       <c r="C5">
-        <v>0.0008744069494475604</v>
+        <v>0.0009519442595065787</v>
       </c>
       <c r="D5">
-        <v>0.6642529128823289</v>
+        <v>0.7569665888094008</v>
       </c>
       <c r="E5">
-        <v>1.031062335648002</v>
+        <v>1.038799160384356</v>
       </c>
       <c r="F5">
-        <v>82841.31125921379</v>
+        <v>89703.79045029118</v>
       </c>
       <c r="G5">
-        <v>112.2057723999023</v>
+        <v>67.00277709960938</v>
       </c>
       <c r="H5">
-        <v>0.1103779003024101</v>
+        <v>0.09138521552085876</v>
       </c>
       <c r="I5">
-        <v>0.000877119367942214</v>
+        <v>0.000954038929194212</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>97.00732312623538</v>
+        <v>104.2040982085417</v>
       </c>
       <c r="B6">
-        <v>0.09015130420140427</v>
+        <v>0.08907894137537925</v>
       </c>
       <c r="C6">
-        <v>0.0008136774853122456</v>
+        <v>0.001121268840439418</v>
       </c>
       <c r="D6">
-        <v>0.7101028212261322</v>
+        <v>0.7401874264618626</v>
       </c>
       <c r="E6">
-        <v>1.034769324225474</v>
+        <v>1.033632438645933</v>
       </c>
       <c r="F6">
-        <v>96695.83683405023</v>
+        <v>72949.96496684253</v>
       </c>
       <c r="G6">
-        <v>98.08292388916016</v>
+        <v>104.0464248657227</v>
       </c>
       <c r="H6">
-        <v>0.08956778794527054</v>
+        <v>0.08905736356973648</v>
       </c>
       <c r="I6">
-        <v>0.0008009832235984504</v>
+        <v>0.001118340063840151</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>105.7189441433412</v>
+        <v>99.1237590141851</v>
       </c>
       <c r="B7">
-        <v>0.1029853126523506</v>
+        <v>0.08432083930167632</v>
       </c>
       <c r="C7">
-        <v>0.0008303649726743065</v>
+        <v>0.001081940394690201</v>
       </c>
       <c r="D7">
-        <v>0.6768559756948075</v>
+        <v>0.751109158450342</v>
       </c>
       <c r="E7">
-        <v>1.032255186762739</v>
+        <v>1.035164651841893</v>
       </c>
       <c r="F7">
-        <v>89221.94783598969</v>
+        <v>77218.0590965172</v>
       </c>
       <c r="G7">
-        <v>110.3029937744141</v>
+        <v>97.84542083740234</v>
       </c>
       <c r="H7">
-        <v>0.1010441407561302</v>
+        <v>0.08464979380369186</v>
       </c>
       <c r="I7">
-        <v>0.0008288382086902857</v>
+        <v>0.001083379378542304</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>97.55346363800341</v>
+        <v>91.53295467587806</v>
       </c>
       <c r="B8">
-        <v>0.1036079774072063</v>
+        <v>0.09078972541995434</v>
       </c>
       <c r="C8">
-        <v>0.001070320675028789</v>
+        <v>0.001178095583025669</v>
       </c>
       <c r="D8">
-        <v>0.7153566801011026</v>
+        <v>0.7514683261800849</v>
       </c>
       <c r="E8">
-        <v>1.032354481830206</v>
+        <v>1.034996795073989</v>
       </c>
       <c r="F8">
-        <v>73551.88058884651</v>
+        <v>71035.12503973859</v>
       </c>
       <c r="G8">
-        <v>97.52388763427734</v>
+        <v>88.76673889160156</v>
       </c>
       <c r="H8">
-        <v>0.1034720614552498</v>
+        <v>0.09302555769681931</v>
       </c>
       <c r="I8">
-        <v>0.001071680919267237</v>
+        <v>0.001172484713606536</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>115.3572194329611</v>
+        <v>89.74598903554313</v>
       </c>
       <c r="B9">
-        <v>0.1028322226632898</v>
+        <v>0.08299337142151801</v>
       </c>
       <c r="C9">
-        <v>0.0009818494965918576</v>
+        <v>0.0009419600727911907</v>
       </c>
       <c r="D9">
-        <v>0.6881219546363398</v>
+        <v>0.7503470351066801</v>
       </c>
       <c r="E9">
-        <v>1.031530999477865</v>
+        <v>1.037324785279951</v>
       </c>
       <c r="F9">
-        <v>76427.09527010556</v>
+        <v>89322.30574705215</v>
       </c>
       <c r="G9">
-        <v>116.1031188964844</v>
+        <v>83.14618682861328</v>
       </c>
       <c r="H9">
-        <v>0.1017512157559395</v>
+        <v>0.08561209589242935</v>
       </c>
       <c r="I9">
-        <v>0.0009811542695388198</v>
+        <v>0.00094818469369784</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>118.1752462310887</v>
+        <v>100.5688890836487</v>
       </c>
       <c r="B10">
-        <v>0.08914499946635959</v>
+        <v>0.0829720236934392</v>
       </c>
       <c r="C10">
-        <v>0.001014338787271196</v>
+        <v>0.001155833900205463</v>
       </c>
       <c r="D10">
-        <v>0.7149164559504366</v>
+        <v>0.7583220653511172</v>
       </c>
       <c r="E10">
-        <v>1.032809430113941</v>
+        <v>1.03513886711494</v>
       </c>
       <c r="F10">
-        <v>77261.85062254904</v>
+        <v>72988.72244966761</v>
       </c>
       <c r="G10">
-        <v>94.48360443115234</v>
+        <v>98.30451965332031</v>
       </c>
       <c r="H10">
-        <v>0.1032285764813423</v>
+        <v>0.08368927240371704</v>
       </c>
       <c r="I10">
-        <v>0.001019283314235508</v>
+        <v>0.001151366741396487</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>95.43099149611669</v>
+        <v>94.82285629003067</v>
       </c>
       <c r="B11">
-        <v>0.117747435132188</v>
+        <v>0.1139657696122035</v>
       </c>
       <c r="C11">
-        <v>0.001155492289612001</v>
+        <v>0.001105825192411558</v>
       </c>
       <c r="D11">
-        <v>0.700898654350199</v>
+        <v>0.7037132608678947</v>
       </c>
       <c r="E11">
-        <v>1.031000690276929</v>
+        <v>1.031452835771838</v>
       </c>
       <c r="F11">
-        <v>66432.29719207993</v>
+        <v>69820.42962153727</v>
       </c>
       <c r="G11">
-        <v>107.8821487426758</v>
+        <v>104.9837036132812</v>
       </c>
       <c r="H11">
-        <v>0.1095517128705978</v>
+        <v>0.1075723916292191</v>
       </c>
       <c r="I11">
-        <v>0.001142190187238157</v>
+        <v>0.001100832363590598</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>111.4354113606119</v>
+        <v>98.29561105661837</v>
       </c>
       <c r="B12">
-        <v>0.09792735292788715</v>
+        <v>0.0867553575976706</v>
       </c>
       <c r="C12">
-        <v>0.001192209335422964</v>
+        <v>0.0009441114904084773</v>
       </c>
       <c r="D12">
-        <v>0.7228637911922389</v>
+        <v>0.7333509378543116</v>
       </c>
       <c r="E12">
-        <v>1.031833111580448</v>
+        <v>1.035000906902681</v>
       </c>
       <c r="F12">
-        <v>66425.55258270158</v>
+        <v>86253.3713517502</v>
       </c>
       <c r="G12">
-        <v>107.6441802978516</v>
+        <v>98.33365631103516</v>
       </c>
       <c r="H12">
-        <v>0.09948558360338211</v>
+        <v>0.08656837046146393</v>
       </c>
       <c r="I12">
-        <v>0.001181523548439145</v>
+        <v>0.0009456824627704918</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>101.1326600410373</v>
+        <v>93.62923043169513</v>
       </c>
       <c r="B13">
-        <v>0.1135789704395148</v>
+        <v>0.1023395073184932</v>
       </c>
       <c r="C13">
-        <v>0.0008890256571012658</v>
+        <v>0.001047691974722346</v>
       </c>
       <c r="D13">
-        <v>0.6743774679801835</v>
+        <v>0.7194051939104067</v>
       </c>
       <c r="E13">
-        <v>1.031373309824868</v>
+        <v>1.032976132539577</v>
       </c>
       <c r="F13">
-        <v>82897.20479325813</v>
+        <v>75799.86689697165</v>
       </c>
       <c r="G13">
-        <v>104.6858444213867</v>
+        <v>93.66086578369141</v>
       </c>
       <c r="H13">
-        <v>0.1108664721250534</v>
+        <v>0.1022840142250061</v>
       </c>
       <c r="I13">
-        <v>0.0008913784986361861</v>
+        <v>0.001048504374921322</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>102.6672977817588</v>
+        <v>118.4430138880268</v>
       </c>
       <c r="B14">
-        <v>0.1078194439056891</v>
+        <v>0.1107192603698578</v>
       </c>
       <c r="C14">
-        <v>0.001063925480947941</v>
+        <v>0.000917120946349509</v>
       </c>
       <c r="D14">
-        <v>0.7026196391448699</v>
+        <v>0.6614503213130907</v>
       </c>
       <c r="E14">
-        <v>1.031510342624039</v>
+        <v>1.031246321126048</v>
       </c>
       <c r="F14">
-        <v>72324.81594804979</v>
+        <v>78282.99535352195</v>
       </c>
       <c r="G14">
-        <v>105.0157089233398</v>
+        <v>138.1073608398438</v>
       </c>
       <c r="H14">
-        <v>0.1063582599163055</v>
+        <v>0.09435322135686874</v>
       </c>
       <c r="I14">
-        <v>0.001063936273567379</v>
+        <v>0.0009183171205222607</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>116.6830816598987</v>
+        <v>85.63108976137696</v>
       </c>
       <c r="B15">
-        <v>0.09205967438154888</v>
+        <v>0.09829128635988246</v>
       </c>
       <c r="C15">
-        <v>0.0009072240764916553</v>
+        <v>0.001146762070656294</v>
       </c>
       <c r="D15">
-        <v>0.6956464564419574</v>
+        <v>0.7403880426453798</v>
       </c>
       <c r="E15">
-        <v>1.032771325200475</v>
+        <v>1.034746972229099</v>
       </c>
       <c r="F15">
-        <v>83935.62639688494</v>
+        <v>71875.73654871825</v>
       </c>
       <c r="G15">
-        <v>107.9702453613281</v>
+        <v>81.776611328125</v>
       </c>
       <c r="H15">
-        <v>0.09786266833543777</v>
+        <v>0.1012948825955391</v>
       </c>
       <c r="I15">
-        <v>0.0009142440976575017</v>
+        <v>0.001141523825936019</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>83.18492246803046</v>
+        <v>84.19500539041377</v>
       </c>
       <c r="B16">
-        <v>0.1123006485008809</v>
+        <v>0.08641230969367225</v>
       </c>
       <c r="C16">
-        <v>0.0008120986445855115</v>
+        <v>0.0008480743000689126</v>
       </c>
       <c r="D16">
-        <v>0.689193231070699</v>
+        <v>0.7393190218304467</v>
       </c>
       <c r="E16">
-        <v>1.033510702563165</v>
+        <v>1.037906467224055</v>
       </c>
       <c r="F16">
-        <v>93837.49906414766</v>
+        <v>97937.38877344402</v>
       </c>
       <c r="G16">
-        <v>106.8684234619141</v>
+        <v>74.23311614990234</v>
       </c>
       <c r="H16">
-        <v>0.09507674723863602</v>
+        <v>0.09063374251127243</v>
       </c>
       <c r="I16">
-        <v>0.0008000473026186228</v>
+        <v>0.0008364312816411257</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>83.81576594286379</v>
+        <v>93.86106857498228</v>
       </c>
       <c r="B17">
-        <v>0.09594309958906869</v>
+        <v>0.0882243851547707</v>
       </c>
       <c r="C17">
-        <v>0.001101282571178555</v>
+        <v>0.0008872763409890126</v>
       </c>
       <c r="D17">
-        <v>0.7434163471211955</v>
+        <v>0.7286654402227625</v>
       </c>
       <c r="E17">
-        <v>1.035594266942751</v>
+        <v>1.035473370469647</v>
       </c>
       <c r="F17">
-        <v>75377.83846040601</v>
+        <v>91373.45096814222</v>
       </c>
       <c r="G17">
-        <v>77.248291015625</v>
+        <v>93.52394104003906</v>
       </c>
       <c r="H17">
-        <v>0.09991727024316788</v>
+        <v>0.08805130422115326</v>
       </c>
       <c r="I17">
-        <v>0.001102535519748926</v>
+        <v>0.0008843843825161457</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>81.19290677076258</v>
+        <v>103.5681889466092</v>
       </c>
       <c r="B18">
-        <v>0.1149389708146189</v>
+        <v>0.09737302915831496</v>
       </c>
       <c r="C18">
-        <v>0.0009294480195554264</v>
+        <v>0.0008757513336356839</v>
       </c>
       <c r="D18">
-        <v>0.7007942966215395</v>
+        <v>0.6972439242523064</v>
       </c>
       <c r="E18">
-        <v>1.033308949851959</v>
+        <v>1.032932331098246</v>
       </c>
       <c r="F18">
-        <v>83429.7766818427</v>
+        <v>87510.69575126596</v>
       </c>
       <c r="G18">
-        <v>90.19596099853516</v>
+        <v>100.2322692871094</v>
       </c>
       <c r="H18">
-        <v>0.1077146530151367</v>
+        <v>0.09986521303653717</v>
       </c>
       <c r="I18">
-        <v>0.0009344257996417582</v>
+        <v>0.0008765645907260478</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>113.0384583563446</v>
+        <v>106.2396030402442</v>
       </c>
       <c r="B19">
-        <v>0.1031858380657279</v>
+        <v>0.1011067559585244</v>
       </c>
       <c r="C19">
-        <v>0.0009543186859356742</v>
+        <v>0.0009619868914551064</v>
       </c>
       <c r="D19">
-        <v>0.6864408933641143</v>
+        <v>0.6991171835476434</v>
       </c>
       <c r="E19">
-        <v>1.031682784533075</v>
+        <v>1.032152210082423</v>
       </c>
       <c r="F19">
-        <v>78495.33357414858</v>
+        <v>79651.35109116604</v>
       </c>
       <c r="G19">
-        <v>115.9886322021484</v>
+        <v>103.2892608642578</v>
       </c>
       <c r="H19">
-        <v>0.1007870212197304</v>
+        <v>0.1030538901686668</v>
       </c>
       <c r="I19">
-        <v>0.0009542822372168303</v>
+        <v>0.000962569669354707</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>110.9035442783677</v>
+        <v>95.9725384958974</v>
       </c>
       <c r="B20">
-        <v>0.1149637512172175</v>
+        <v>0.09409816789784517</v>
       </c>
       <c r="C20">
-        <v>0.00103461967235672</v>
+        <v>0.001096129553897025</v>
       </c>
       <c r="D20">
-        <v>0.6793646972258551</v>
+        <v>0.7360041668664519</v>
       </c>
       <c r="E20">
-        <v>1.030698708548937</v>
+        <v>1.033817467194434</v>
       </c>
       <c r="F20">
-        <v>71426.37757296051</v>
+        <v>74361.51501304122</v>
       </c>
       <c r="G20">
-        <v>119.8404922485352</v>
+        <v>96.36653900146484</v>
       </c>
       <c r="H20">
-        <v>0.1078280135989189</v>
+        <v>0.09386754781007767</v>
       </c>
       <c r="I20">
-        <v>0.00102788454387337</v>
+        <v>0.001096564577892423</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>114.5042096881212</v>
+        <v>119.5713377272172</v>
       </c>
       <c r="B21">
-        <v>0.107547099648773</v>
+        <v>0.1110337975768533</v>
       </c>
       <c r="C21">
-        <v>0.00112976860988011</v>
+        <v>0.001010547526211624</v>
       </c>
       <c r="D21">
-        <v>0.6977804745323232</v>
+        <v>0.6731918040380712</v>
       </c>
       <c r="E21">
-        <v>1.030956009724942</v>
+        <v>1.030954138395525</v>
       </c>
       <c r="F21">
-        <v>67280.96655030428</v>
+        <v>72300.28847688934</v>
       </c>
       <c r="G21">
-        <v>110.2782592773438</v>
+        <v>130.8204956054688</v>
       </c>
       <c r="H21">
-        <v>0.1088702753186226</v>
+        <v>0.1011701226234436</v>
       </c>
       <c r="I21">
-        <v>0.001124369795434177</v>
+        <v>0.00100487086456269</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>118.7614942623296</v>
+        <v>94.19431213360454</v>
       </c>
       <c r="B22">
-        <v>0.1088298055162</v>
+        <v>0.109839867821968</v>
       </c>
       <c r="C22">
-        <v>0.001050559953619646</v>
+        <v>0.0009951692075955525</v>
       </c>
       <c r="D22">
-        <v>0.6827718098353635</v>
+        <v>0.7013218946441373</v>
       </c>
       <c r="E22">
-        <v>1.030945237443732</v>
+        <v>1.032082422450322</v>
       </c>
       <c r="F22">
-        <v>70626.40064168505</v>
+        <v>77469.89135751544</v>
       </c>
       <c r="G22">
-        <v>123.5957412719727</v>
+        <v>105.9136352539062</v>
       </c>
       <c r="H22">
-        <v>0.1036246493458748</v>
+        <v>0.1022627130150795</v>
       </c>
       <c r="I22">
-        <v>0.00104227545671165</v>
+        <v>0.0009918935829773545</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>111.7268002306298</v>
+        <v>108.6789819027705</v>
       </c>
       <c r="B23">
-        <v>0.1000519148175622</v>
+        <v>0.1167463951244314</v>
       </c>
       <c r="C23">
-        <v>0.001146076372698427</v>
+        <v>0.0008042176158529816</v>
       </c>
       <c r="D23">
-        <v>0.7148665515118584</v>
+        <v>0.6449976721917365</v>
       </c>
       <c r="E23">
-        <v>1.031684109501938</v>
+        <v>1.031238413251881</v>
       </c>
       <c r="F23">
-        <v>68248.14291811716</v>
+        <v>87175.11273219282</v>
       </c>
       <c r="G23">
-        <v>103.6113510131836</v>
+        <v>135.8542327880859</v>
       </c>
       <c r="H23">
-        <v>0.1043815985321999</v>
+        <v>0.09680797159671783</v>
       </c>
       <c r="I23">
-        <v>0.001144745154306293</v>
+        <v>0.0007934248424135149</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>98.49001874708463</v>
+        <v>105.3931425235266</v>
       </c>
       <c r="B24">
-        <v>0.1178781499599128</v>
+        <v>0.08153527922166892</v>
       </c>
       <c r="C24">
-        <v>0.0009112301088452841</v>
+        <v>0.0009707580136774158</v>
       </c>
       <c r="D24">
-        <v>0.6739449663271293</v>
+        <v>0.7394340977528826</v>
       </c>
       <c r="E24">
-        <v>1.031149933761538</v>
+        <v>1.035053468842014</v>
       </c>
       <c r="F24">
-        <v>80811.52741395582</v>
+        <v>84494.75934622377</v>
       </c>
       <c r="G24">
-        <v>104.5465774536133</v>
+        <v>103.3848648071289</v>
       </c>
       <c r="H24">
-        <v>0.1128630265593529</v>
+        <v>0.08244813978672028</v>
       </c>
       <c r="I24">
-        <v>0.0009147664532065392</v>
+        <v>0.0009733766783028841</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>110.9965416426828</v>
+        <v>112.271485943723</v>
       </c>
       <c r="B25">
-        <v>0.1056443120923367</v>
+        <v>0.1155108135953629</v>
       </c>
       <c r="C25">
-        <v>0.001116832212034963</v>
+        <v>0.0008289162234980824</v>
       </c>
       <c r="D25">
-        <v>0.7031361259808071</v>
+        <v>0.6465663370512579</v>
       </c>
       <c r="E25">
-        <v>1.031224849014623</v>
+        <v>1.03122666653677</v>
       </c>
       <c r="F25">
-        <v>68738.83122165086</v>
+        <v>84698.12828038105</v>
       </c>
       <c r="G25">
-        <v>105.777473449707</v>
+        <v>141.9169921875</v>
       </c>
       <c r="H25">
-        <v>0.1084329858422279</v>
+        <v>0.09301988035440445</v>
       </c>
       <c r="I25">
-        <v>0.00111474480945617</v>
+        <v>0.0008234416600316763</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>85.0366324545047</v>
+        <v>118.6677029776636</v>
       </c>
       <c r="B26">
-        <v>0.0970151727513896</v>
+        <v>0.09578877389140622</v>
       </c>
       <c r="C26">
-        <v>0.0008767715545611445</v>
+        <v>0.0008856373763102841</v>
       </c>
       <c r="D26">
-        <v>0.7212496703066936</v>
+        <v>0.6823751596407812</v>
       </c>
       <c r="E26">
-        <v>1.035411357250042</v>
+        <v>1.0324140789349</v>
       </c>
       <c r="F26">
-        <v>91637.49349395366</v>
+        <v>84098.72460955067</v>
       </c>
       <c r="G26">
-        <v>83.69991302490234</v>
+        <v>121.5503158569336</v>
       </c>
       <c r="H26">
-        <v>0.09746511280536652</v>
+        <v>0.09321368485689163</v>
       </c>
       <c r="I26">
-        <v>0.0008741109049879014</v>
+        <v>0.0008936867234297097</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>105.4848032496401</v>
+        <v>115.2796305607087</v>
       </c>
       <c r="B27">
-        <v>0.1041705373578038</v>
+        <v>0.1148319292737067</v>
       </c>
       <c r="C27">
-        <v>0.001177491068033045</v>
+        <v>0.001169495309499196</v>
       </c>
       <c r="D27">
-        <v>0.7158558035829405</v>
+        <v>0.6888917234231884</v>
       </c>
       <c r="E27">
-        <v>1.031537750932059</v>
+        <v>1.030404591259193</v>
       </c>
       <c r="F27">
-        <v>66606.44255704015</v>
+        <v>63985.52237580124</v>
       </c>
       <c r="G27">
-        <v>105.2832107543945</v>
+        <v>112.2233581542969</v>
       </c>
       <c r="H27">
-        <v>0.1040679067373276</v>
+        <v>0.1147429496049881</v>
       </c>
       <c r="I27">
-        <v>0.001169332186691463</v>
+        <v>0.001150851487182081</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>86.01970576234247</v>
+        <v>110.3706388283983</v>
       </c>
       <c r="B28">
-        <v>0.08115271970328804</v>
+        <v>0.1074786258013067</v>
       </c>
       <c r="C28">
-        <v>0.001073494053848722</v>
+        <v>0.0008884381461154638</v>
       </c>
       <c r="D28">
-        <v>0.7686366576212547</v>
+        <v>0.6725288491260085</v>
       </c>
       <c r="E28">
-        <v>1.038519993711841</v>
+        <v>1.031581678851069</v>
       </c>
       <c r="F28">
-        <v>80737.07906334888</v>
+        <v>82535.66293265024</v>
       </c>
       <c r="G28">
-        <v>69.32630920410156</v>
+        <v>118.3149032592773</v>
       </c>
       <c r="H28">
-        <v>0.09002368152141571</v>
+        <v>0.1018832623958588</v>
       </c>
       <c r="I28">
-        <v>0.001087538781575859</v>
+        <v>0.0008887223084457219</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>117.4307012492322</v>
+        <v>107.7711975302747</v>
       </c>
       <c r="B29">
-        <v>0.09222187574112717</v>
+        <v>0.1191037202355067</v>
       </c>
       <c r="C29">
-        <v>0.0008884810586528869</v>
+        <v>0.001140465773205656</v>
       </c>
       <c r="D29">
-        <v>0.6913258647764083</v>
+        <v>0.6866650875835119</v>
       </c>
       <c r="E29">
-        <v>1.032781171214299</v>
+        <v>1.030301566855103</v>
       </c>
       <c r="F29">
-        <v>85125.14020514555</v>
+        <v>65508.00103160247</v>
       </c>
       <c r="G29">
-        <v>112.7721862792969</v>
+        <v>112.4756011962891</v>
       </c>
       <c r="H29">
-        <v>0.09546726942062378</v>
+        <v>0.1149754300713539</v>
       </c>
       <c r="I29">
-        <v>0.0008973635849542916</v>
+        <v>0.001128574833273888</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>100.8564384750557</v>
+        <v>93.55164674347689</v>
       </c>
       <c r="B30">
-        <v>0.1062786872952407</v>
+        <v>0.1101636853437583</v>
       </c>
       <c r="C30">
-        <v>0.001175366049020141</v>
+        <v>0.001118732019883225</v>
       </c>
       <c r="D30">
-        <v>0.7160858323279562</v>
+        <v>0.7118915586209253</v>
       </c>
       <c r="E30">
-        <v>1.031646387282388</v>
+        <v>1.031952152387034</v>
       </c>
       <c r="F30">
-        <v>66848.48321000017</v>
+        <v>69988.35031201631</v>
       </c>
       <c r="G30">
-        <v>101.2170104980469</v>
+        <v>93.77783203125</v>
       </c>
       <c r="H30">
-        <v>0.1061341241002083</v>
+        <v>0.1095628142356873</v>
       </c>
       <c r="I30">
-        <v>0.001167446607723832</v>
+        <v>0.001114261918701231</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>96.65480951741816</v>
+        <v>86.18952844102186</v>
       </c>
       <c r="B31">
-        <v>0.09177119341167998</v>
+        <v>0.09469024690882596</v>
       </c>
       <c r="C31">
-        <v>0.001090493813378289</v>
+        <v>0.0008663877800823694</v>
       </c>
       <c r="D31">
-        <v>0.7393378848551437</v>
+        <v>0.722940477140147</v>
       </c>
       <c r="E31">
-        <v>1.034127503779021</v>
+        <v>1.035717231969644</v>
       </c>
       <c r="F31">
-        <v>75157.52364805204</v>
+        <v>92992.4583121184</v>
       </c>
       <c r="G31">
-        <v>96.56613159179688</v>
+        <v>82.7540283203125</v>
       </c>
       <c r="H31">
-        <v>0.09197403490543365</v>
+        <v>0.09608466178178787</v>
       </c>
       <c r="I31">
-        <v>0.001091325888410211</v>
+        <v>0.0008656364516355097</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>90.77074958725981</v>
+        <v>82.85564635725483</v>
       </c>
       <c r="B32">
-        <v>0.1046261198091555</v>
+        <v>0.1000416756093091</v>
       </c>
       <c r="C32">
-        <v>0.0009035468962782332</v>
+        <v>0.001041438325796997</v>
       </c>
       <c r="D32">
-        <v>0.7039793198119177</v>
+        <v>0.7330200121531264</v>
       </c>
       <c r="E32">
-        <v>1.033249898130463</v>
+        <v>1.035101207277421</v>
       </c>
       <c r="F32">
-        <v>86032.53825126126</v>
+        <v>78440.44818529973</v>
       </c>
       <c r="G32">
-        <v>97.45156097412109</v>
+        <v>79.870849609375</v>
       </c>
       <c r="H32">
-        <v>0.09990600496530533</v>
+        <v>0.1018459051847458</v>
       </c>
       <c r="I32">
-        <v>0.0009015981340780854</v>
+        <v>0.001043568714521825</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>110.7497630927721</v>
+        <v>89.8827327152749</v>
       </c>
       <c r="B33">
-        <v>0.09720778438563397</v>
+        <v>0.09515454392164714</v>
       </c>
       <c r="C33">
-        <v>0.0008876203601682522</v>
+        <v>0.000849342222209657</v>
       </c>
       <c r="D33">
-        <v>0.6901788992722636</v>
+        <v>0.7152421017016708</v>
       </c>
       <c r="E33">
-        <v>1.03248806070577</v>
+        <v>1.034914864437824</v>
       </c>
       <c r="F33">
-        <v>85143.38850386722</v>
+        <v>93533.08339234548</v>
       </c>
       <c r="G33">
-        <v>111.1525039672852</v>
+        <v>90.06999969482422</v>
       </c>
       <c r="H33">
-        <v>0.09747848659753799</v>
+        <v>0.09443672746419907</v>
       </c>
       <c r="I33">
-        <v>0.0008931300835683942</v>
+        <v>0.0008471254841424525</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>98.28112460820776</v>
+        <v>97.34548284057892</v>
       </c>
       <c r="B34">
-        <v>0.08571084588890483</v>
+        <v>0.09470464127727971</v>
       </c>
       <c r="C34">
-        <v>0.001007134548759403</v>
+        <v>0.00108933051658148</v>
       </c>
       <c r="D34">
-        <v>0.7422798747839461</v>
+        <v>0.7330969330357789</v>
       </c>
       <c r="E34">
-        <v>1.035108364864163</v>
+        <v>1.033567255278163</v>
       </c>
       <c r="F34">
-        <v>81924.5274006101</v>
+        <v>74432.53457114066</v>
       </c>
       <c r="G34">
-        <v>97.54296875</v>
+        <v>97.42850494384766</v>
       </c>
       <c r="H34">
-        <v>0.08591195195913315</v>
+        <v>0.09458853304386139</v>
       </c>
       <c r="I34">
-        <v>0.001010555773973465</v>
+        <v>0.001090292469598353</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>102.6825615020481</v>
+        <v>100.8622380821771</v>
       </c>
       <c r="B35">
-        <v>0.0920928124765726</v>
+        <v>0.09062762859842605</v>
       </c>
       <c r="C35">
-        <v>0.0008140632021724524</v>
+        <v>0.001053884222576476</v>
       </c>
       <c r="D35">
-        <v>0.6984930615046818</v>
+        <v>0.7343990021787085</v>
       </c>
       <c r="E35">
-        <v>1.033801289109046</v>
+        <v>1.033835270713441</v>
       </c>
       <c r="F35">
-        <v>94595.76326410174</v>
+        <v>77079.89311581993</v>
       </c>
       <c r="G35">
-        <v>98.82180786132812</v>
+        <v>101.2978363037109</v>
       </c>
       <c r="H35">
-        <v>0.09542214870452881</v>
+        <v>0.09043341875076294</v>
       </c>
       <c r="I35">
-        <v>0.0008078051614575088</v>
+        <v>0.00105469929985702</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>81.1369067972385</v>
+        <v>110.7046786143549</v>
       </c>
       <c r="B36">
-        <v>0.1027425741031208</v>
+        <v>0.09984203848127329</v>
       </c>
       <c r="C36">
-        <v>0.0008853303766928711</v>
+        <v>0.001122277669260724</v>
       </c>
       <c r="D36">
-        <v>0.716609925443075</v>
+        <v>0.7140591480071109</v>
       </c>
       <c r="E36">
-        <v>1.035242401281537</v>
+        <v>1.031768580403927</v>
       </c>
       <c r="F36">
-        <v>90149.4161812352</v>
+        <v>69655.20730074689</v>
       </c>
       <c r="G36">
-        <v>79.54354095458984</v>
+        <v>105.1700057983398</v>
       </c>
       <c r="H36">
-        <v>0.1028676852583885</v>
+        <v>0.1026882827281952</v>
       </c>
       <c r="I36">
-        <v>0.0008844593539834023</v>
+        <v>0.001122939866036177</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>104.6112267514437</v>
+        <v>117.9823137485116</v>
       </c>
       <c r="B37">
-        <v>0.1035621467844425</v>
+        <v>0.1071240749377647</v>
       </c>
       <c r="C37">
-        <v>0.0009704772462480871</v>
+        <v>0.0009919188918555487</v>
       </c>
       <c r="D37">
-        <v>0.6977088312201652</v>
+        <v>0.6790406789339752</v>
       </c>
       <c r="E37">
-        <v>1.031977861782497</v>
+        <v>1.03121792195605</v>
       </c>
       <c r="F37">
-        <v>78777.28742279726</v>
+        <v>74443.48408253588</v>
       </c>
       <c r="G37">
-        <v>103.3272247314453</v>
+        <v>125.7409896850586</v>
       </c>
       <c r="H37">
-        <v>0.104409471154213</v>
+        <v>0.1003993228077888</v>
       </c>
       <c r="I37">
-        <v>0.0009699240908958018</v>
+        <v>0.0009900468867272139</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>104.3940715871387</v>
+        <v>84.99923847866282</v>
       </c>
       <c r="B38">
-        <v>0.102913496217743</v>
+        <v>0.09127189901901635</v>
       </c>
       <c r="C38">
-        <v>0.000950675538656223</v>
+        <v>0.001162623342133701</v>
       </c>
       <c r="D38">
-        <v>0.6966317743966153</v>
+        <v>0.7545886458486525</v>
       </c>
       <c r="E38">
-        <v>1.032095914577156</v>
+        <v>1.036217854923258</v>
       </c>
       <c r="F38">
-        <v>80320.57700922184</v>
+        <v>72646.94727156521</v>
       </c>
       <c r="G38">
-        <v>103.4603881835938</v>
+        <v>75.80591583251953</v>
       </c>
       <c r="H38">
-        <v>0.103514738380909</v>
+        <v>0.09756994247436523</v>
       </c>
       <c r="I38">
-        <v>0.0009503204491920769</v>
+        <v>0.001157427206635475</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>104.5837284488568</v>
+        <v>84.59484537412959</v>
       </c>
       <c r="B39">
-        <v>0.1060053617864398</v>
+        <v>0.1009556710332248</v>
       </c>
       <c r="C39">
-        <v>0.0009857218287205745</v>
+        <v>0.0008233480332220598</v>
       </c>
       <c r="D39">
-        <v>0.695322102979588</v>
+        <v>0.7080531594322872</v>
       </c>
       <c r="E39">
-        <v>1.031722457411365</v>
+        <v>1.034907305388146</v>
       </c>
       <c r="F39">
-        <v>77213.73242142811</v>
+        <v>95573.00500787819</v>
       </c>
       <c r="G39">
-        <v>104.730110168457</v>
+        <v>87.44361114501953</v>
       </c>
       <c r="H39">
-        <v>0.1060795411467552</v>
+        <v>0.09768088161945343</v>
       </c>
       <c r="I39">
-        <v>0.0009856425458565354</v>
+        <v>0.000818209839053452</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>117.3946050419503</v>
+        <v>103.5159685341971</v>
       </c>
       <c r="B40">
-        <v>0.1059623386226816</v>
+        <v>0.08500158313597964</v>
       </c>
       <c r="C40">
-        <v>0.0009128320546284192</v>
+        <v>0.0009188138093333077</v>
       </c>
       <c r="D40">
-        <v>0.6700945400656636</v>
+        <v>0.7277293710130082</v>
       </c>
       <c r="E40">
-        <v>1.031543576689112</v>
+        <v>1.034695202580137</v>
       </c>
       <c r="F40">
-        <v>79846.95430622832</v>
+        <v>87726.62416155901</v>
       </c>
       <c r="G40">
-        <v>131.4945526123047</v>
+        <v>103.3846893310547</v>
       </c>
       <c r="H40">
-        <v>0.09428154677152634</v>
+        <v>0.08511219918727875</v>
       </c>
       <c r="I40">
-        <v>0.0009167870157398283</v>
+        <v>0.0009176044259220362</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>107.1272247580225</v>
+        <v>109.6194277362438</v>
       </c>
       <c r="B41">
-        <v>0.09731165206894359</v>
+        <v>0.08666618026125322</v>
       </c>
       <c r="C41">
-        <v>0.001034018838695971</v>
+        <v>0.001084299069162703</v>
       </c>
       <c r="D41">
-        <v>0.7134133319763776</v>
+        <v>0.7365776614170506</v>
       </c>
       <c r="E41">
-        <v>1.032383244715831</v>
+        <v>1.033560921989704</v>
       </c>
       <c r="F41">
-        <v>75743.91139820353</v>
+        <v>74933.57895884526</v>
       </c>
       <c r="G41">
-        <v>105.2180557250977</v>
+        <v>109.0103607177734</v>
       </c>
       <c r="H41">
-        <v>0.09834965318441391</v>
+        <v>0.08703906089067459</v>
       </c>
       <c r="I41">
-        <v>0.001033710315823555</v>
+        <v>0.00108435598667711</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>94.49281090024398</v>
+        <v>113.6472441336802</v>
       </c>
       <c r="B42">
-        <v>0.1155443409212008</v>
+        <v>0.08223513554426939</v>
       </c>
       <c r="C42">
-        <v>0.001142628776636506</v>
+        <v>0.0009678994008720971</v>
       </c>
       <c r="D42">
-        <v>0.7042122497507725</v>
+        <v>0.7282938065894834</v>
       </c>
       <c r="E42">
-        <v>1.031292712160554</v>
+        <v>1.034143899052393</v>
       </c>
       <c r="F42">
-        <v>67592.10765335572</v>
+        <v>83001.31164409536</v>
       </c>
       <c r="G42">
-        <v>105.0943222045898</v>
+        <v>102.640983581543</v>
       </c>
       <c r="H42">
-        <v>0.1088519617915154</v>
+        <v>0.08836736530065536</v>
       </c>
       <c r="I42">
-        <v>0.001134396996349096</v>
+        <v>0.0009713241597637534</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>97.5316979453971</v>
+        <v>117.0843036106415</v>
       </c>
       <c r="B43">
-        <v>0.09480852070228082</v>
+        <v>0.1184523334844203</v>
       </c>
       <c r="C43">
-        <v>0.0008500752424903414</v>
+        <v>0.0008717992866357734</v>
       </c>
       <c r="D43">
-        <v>0.7060457030033466</v>
+        <v>0.6432112300814457</v>
       </c>
       <c r="E43">
-        <v>1.033895142300206</v>
+        <v>1.031003275085741</v>
       </c>
       <c r="F43">
-        <v>91755.36511022542</v>
+        <v>79905.71302318215</v>
       </c>
       <c r="G43">
-        <v>98.07933044433594</v>
+        <v>151.1826934814453</v>
       </c>
       <c r="H43">
-        <v>0.09460529685020447</v>
+        <v>0.09076592326164246</v>
       </c>
       <c r="I43">
-        <v>0.0008455225033685565</v>
+        <v>0.0008717731689102948</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>107.7470005247803</v>
+        <v>118.9499604802478</v>
       </c>
       <c r="B44">
-        <v>0.09748595126749686</v>
+        <v>0.08055168315315499</v>
       </c>
       <c r="C44">
-        <v>0.001006812484821105</v>
+        <v>0.000846029441505123</v>
       </c>
       <c r="D44">
-        <v>0.7093933098449074</v>
+        <v>0.7062832526067457</v>
       </c>
       <c r="E44">
-        <v>1.032365395088041</v>
+        <v>1.034314658081085</v>
       </c>
       <c r="F44">
-        <v>77311.84171533454</v>
+        <v>91830.43882445815</v>
       </c>
       <c r="G44">
-        <v>104.1014556884766</v>
+        <v>88.39450836181641</v>
       </c>
       <c r="H44">
-        <v>0.09968871623277664</v>
+        <v>0.1009325906634331</v>
       </c>
       <c r="I44">
-        <v>0.001007793936878443</v>
+        <v>0.0008539080736227334</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>82.76115526150562</v>
+        <v>96.07229850896421</v>
       </c>
       <c r="B45">
-        <v>0.1153631132106164</v>
+        <v>0.08740056626966584</v>
       </c>
       <c r="C45">
-        <v>0.0008557733479345759</v>
+        <v>0.001124394645870144</v>
       </c>
       <c r="D45">
-        <v>0.6904745472247648</v>
+        <v>0.7509016139505744</v>
       </c>
       <c r="E45">
-        <v>1.033118990978208</v>
+        <v>1.034954036294228</v>
       </c>
       <c r="F45">
-        <v>89129.26059555032</v>
+        <v>74288.10970845472</v>
       </c>
       <c r="G45">
-        <v>110.1718826293945</v>
+        <v>94.95803070068359</v>
       </c>
       <c r="H45">
-        <v>0.09491527080535889</v>
+        <v>0.08784390240907669</v>
       </c>
       <c r="I45">
-        <v>0.0008518586400896311</v>
+        <v>0.001124388654716313</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>106.5371351218709</v>
+        <v>95.30922538994895</v>
       </c>
       <c r="B46">
-        <v>0.1120025838162596</v>
+        <v>0.1044242954232256</v>
       </c>
       <c r="C46">
-        <v>0.001085007432967264</v>
+        <v>0.000989472241012129</v>
       </c>
       <c r="D46">
-        <v>0.6938899483970491</v>
+        <v>0.7086496419739027</v>
       </c>
       <c r="E46">
-        <v>1.030903532724419</v>
+        <v>1.032602918106318</v>
       </c>
       <c r="F46">
-        <v>69787.83105223658</v>
+        <v>78876.3314480704</v>
       </c>
       <c r="G46">
-        <v>107.2910308837891</v>
+        <v>95.78474426269531</v>
       </c>
       <c r="H46">
-        <v>0.1113308370113373</v>
+        <v>0.10408004373312</v>
       </c>
       <c r="I46">
-        <v>0.001081686117686331</v>
+        <v>0.0009901815792545676</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>106.6888815770047</v>
+        <v>86.19435381318303</v>
       </c>
       <c r="B47">
-        <v>0.10799228561196</v>
+        <v>0.08358998981837847</v>
       </c>
       <c r="C47">
-        <v>0.0009592561521919812</v>
+        <v>0.001149852445767835</v>
       </c>
       <c r="D47">
-        <v>0.6863222732138867</v>
+        <v>0.7680610970732911</v>
       </c>
       <c r="E47">
-        <v>1.031485508244946</v>
+        <v>1.037739206075698</v>
       </c>
       <c r="F47">
-        <v>78161.3104917923</v>
+        <v>75150.0477460617</v>
       </c>
       <c r="G47">
-        <v>107.7700958251953</v>
+        <v>71.70156097412109</v>
       </c>
       <c r="H47">
-        <v>0.107299767434597</v>
+        <v>0.09129264205694199</v>
       </c>
       <c r="I47">
-        <v>0.0009591238340362906</v>
+        <v>0.001145939226262271</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>88.64720500819999</v>
+        <v>107.2492967864181</v>
       </c>
       <c r="B48">
-        <v>0.08432918194289275</v>
+        <v>0.1149700678378315</v>
       </c>
       <c r="C48">
-        <v>0.001025644683012808</v>
+        <v>0.001091447660249062</v>
       </c>
       <c r="D48">
-        <v>0.7562641128533033</v>
+        <v>0.6890914446606669</v>
       </c>
       <c r="E48">
-        <v>1.037121702298637</v>
+        <v>1.030668449464769</v>
       </c>
       <c r="F48">
-        <v>82694.22254685163</v>
+        <v>68798.95753649237</v>
       </c>
       <c r="G48">
-        <v>81.1357421875</v>
+        <v>108.842414855957</v>
       </c>
       <c r="H48">
-        <v>0.08826431632041931</v>
+        <v>0.1136021912097931</v>
       </c>
       <c r="I48">
-        <v>0.001037289504893124</v>
+        <v>0.001087652985006571</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>85.45417815587153</v>
+        <v>106.1449558538001</v>
       </c>
       <c r="B49">
-        <v>0.1164434163016057</v>
+        <v>0.1086089519929977</v>
       </c>
       <c r="C49">
-        <v>0.0008758479771603934</v>
+        <v>0.0009646133228576964</v>
       </c>
       <c r="D49">
-        <v>0.6878212272522747</v>
+        <v>0.6865865140438194</v>
       </c>
       <c r="E49">
-        <v>1.032556152861056</v>
+        <v>1.031436042477189</v>
       </c>
       <c r="F49">
-        <v>86541.90034558781</v>
+        <v>77760.32072786635</v>
       </c>
       <c r="G49">
-        <v>112.0285949707031</v>
+        <v>105.8578643798828</v>
       </c>
       <c r="H49">
-        <v>0.09677829593420029</v>
+        <v>0.1088031232357025</v>
       </c>
       <c r="I49">
-        <v>0.0008743823855184019</v>
+        <v>0.0009650962892919779</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>92.76492430488469</v>
+        <v>114.1925929603489</v>
       </c>
       <c r="B50">
-        <v>0.1083981046223463</v>
+        <v>0.1182821509353787</v>
       </c>
       <c r="C50">
-        <v>0.0008607828798568635</v>
+        <v>0.0009504172286608287</v>
       </c>
       <c r="D50">
-        <v>0.6896293822247288</v>
+        <v>0.6596111036803401</v>
       </c>
       <c r="E50">
-        <v>1.032629445520842</v>
+        <v>1.03069784216862</v>
       </c>
       <c r="F50">
-        <v>88164.86777930609</v>
+        <v>75284.58361164908</v>
       </c>
       <c r="G50">
-        <v>103.6875610351562</v>
+        <v>135.6570281982422</v>
       </c>
       <c r="H50">
-        <v>0.100450336933136</v>
+        <v>0.1004170700907707</v>
       </c>
       <c r="I50">
-        <v>0.0008556102402508259</v>
+        <v>0.0009469970827922225</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>94.65756039133619</v>
+        <v>84.21280349444666</v>
       </c>
       <c r="B51">
-        <v>0.1195544433333726</v>
+        <v>0.100299307951883</v>
       </c>
       <c r="C51">
-        <v>0.0009953181480460993</v>
+        <v>0.001006130119242841</v>
       </c>
       <c r="D51">
-        <v>0.6854854483048188</v>
+        <v>0.7286800420230491</v>
       </c>
       <c r="E51">
-        <v>1.031098771365783</v>
+        <v>1.034820284498246</v>
       </c>
       <c r="F51">
-        <v>75383.59993599266</v>
+        <v>80600.21591393145</v>
       </c>
       <c r="G51">
-        <v>105.5441131591797</v>
+        <v>83.00258636474609</v>
       </c>
       <c r="H51">
-        <v>0.1119841933250427</v>
+        <v>0.1010469645261765</v>
       </c>
       <c r="I51">
-        <v>0.0009930119849741459</v>
+        <v>0.001008278923109174</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>102.7516628370014</v>
+        <v>99.91285638806713</v>
       </c>
       <c r="B52">
-        <v>0.0862586260482042</v>
+        <v>0.09217596815087578</v>
       </c>
       <c r="C52">
-        <v>0.000943401233271914</v>
+        <v>0.001152508699215741</v>
       </c>
       <c r="D52">
-        <v>0.7291462628091541</v>
+        <v>0.7404075967257623</v>
       </c>
       <c r="E52">
-        <v>1.034362762442925</v>
+        <v>1.033576656161599</v>
       </c>
       <c r="F52">
-        <v>85600.81365638027</v>
+        <v>71053.5897756389</v>
       </c>
       <c r="G52">
-        <v>112.0933151245117</v>
+        <v>99.71010589599609</v>
       </c>
       <c r="H52">
-        <v>0.08106516301631927</v>
+        <v>0.09224321693181992</v>
       </c>
       <c r="I52">
-        <v>0.0009430547943338752</v>
+        <v>0.001148025505244732</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>97.59322355361761</v>
+        <v>103.178353239085</v>
       </c>
       <c r="B53">
-        <v>0.1144302762842485</v>
+        <v>0.1019403867978567</v>
       </c>
       <c r="C53">
-        <v>0.001172646150067286</v>
+        <v>0.001093011494108517</v>
       </c>
       <c r="D53">
-        <v>0.7054002430936264</v>
+        <v>0.7148553361117016</v>
       </c>
       <c r="E53">
-        <v>1.031104261354251</v>
+        <v>1.032037741105604</v>
       </c>
       <c r="F53">
-        <v>65890.78658717666</v>
+        <v>71803.29035701341</v>
       </c>
       <c r="G53">
-        <v>105.3969802856445</v>
+        <v>104.7065277099609</v>
       </c>
       <c r="H53">
-        <v>0.1095593497157097</v>
+        <v>0.1009234115481377</v>
       </c>
       <c r="I53">
-        <v>0.00115859997458756</v>
+        <v>0.001093755476176739</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>119.1439026717536</v>
+        <v>89.86922212840625</v>
       </c>
       <c r="B54">
-        <v>0.08676996614875775</v>
+        <v>0.1168877833953954</v>
       </c>
       <c r="C54">
-        <v>0.00110400558833012</v>
+        <v>0.0008060235264221761</v>
       </c>
       <c r="D54">
-        <v>0.7290545606182485</v>
+        <v>0.6718137772565331</v>
       </c>
       <c r="E54">
-        <v>1.032907513995086</v>
+        <v>1.032130806916685</v>
       </c>
       <c r="F54">
-        <v>72479.6296109854</v>
+        <v>91526.34544743832</v>
       </c>
       <c r="G54">
-        <v>102.931510925293</v>
+        <v>100.9572601318359</v>
       </c>
       <c r="H54">
-        <v>0.0949527695775032</v>
+        <v>0.1075192913413048</v>
       </c>
       <c r="I54">
-        <v>0.001105818897485733</v>
+        <v>0.0007938930066302419</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>84.40044323210628</v>
+        <v>87.0260343243077</v>
       </c>
       <c r="B55">
-        <v>0.1045298516813095</v>
+        <v>0.1008138333852267</v>
       </c>
       <c r="C55">
-        <v>0.001097474347834486</v>
+        <v>0.001076108479199833</v>
       </c>
       <c r="D55">
-        <v>0.7276451006335699</v>
+        <v>0.730376451107702</v>
       </c>
       <c r="E55">
-        <v>1.034011041081854</v>
+        <v>1.034136130811284</v>
       </c>
       <c r="F55">
-        <v>73602.51374138611</v>
+        <v>75349.67607187008</v>
       </c>
       <c r="G55">
-        <v>81.80760955810547</v>
+        <v>86.42799377441406</v>
       </c>
       <c r="H55">
-        <v>0.1061497703194618</v>
+        <v>0.1014620587229729</v>
       </c>
       <c r="I55">
-        <v>0.00109031330794096</v>
+        <v>0.001076978980563581</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>88.58817853766813</v>
+        <v>114.0953097782649</v>
       </c>
       <c r="B56">
-        <v>0.08525401429362491</v>
+        <v>0.09087468333191927</v>
       </c>
       <c r="C56">
-        <v>0.001158255229949982</v>
+        <v>0.001164443881756639</v>
       </c>
       <c r="D56">
-        <v>0.7633794966867676</v>
+        <v>0.7314273069296758</v>
       </c>
       <c r="E56">
-        <v>1.036772741078652</v>
+        <v>1.032544732237593</v>
       </c>
       <c r="F56">
-        <v>73883.31084644256</v>
+        <v>68968.9767657419</v>
       </c>
       <c r="G56">
-        <v>78.31877136230469</v>
+        <v>110.5324249267578</v>
       </c>
       <c r="H56">
-        <v>0.09139369428157806</v>
+        <v>0.09234288334846497</v>
       </c>
       <c r="I56">
-        <v>0.00115877203643322</v>
+        <v>0.001157156890258193</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>86.72357706296171</v>
+        <v>82.69488694299042</v>
       </c>
       <c r="B57">
-        <v>0.1136416719159027</v>
+        <v>0.1147937606918059</v>
       </c>
       <c r="C57">
-        <v>0.0008367045953397895</v>
+        <v>0.001082497141793565</v>
       </c>
       <c r="D57">
-        <v>0.6856654575039429</v>
+        <v>0.7114535321544778</v>
       </c>
       <c r="E57">
-        <v>1.032790789802179</v>
+        <v>1.032915486381735</v>
       </c>
       <c r="F57">
-        <v>90324.24573556196</v>
+        <v>72664.8197206356</v>
       </c>
       <c r="G57">
-        <v>108.5542297363281</v>
+        <v>81.88812255859375</v>
       </c>
       <c r="H57">
-        <v>0.09710882604122162</v>
+        <v>0.1145649254322052</v>
       </c>
       <c r="I57">
-        <v>0.0008292864076793194</v>
+        <v>0.00107184995431453</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>106.0017360729083</v>
+        <v>98.84836059562161</v>
       </c>
       <c r="B58">
-        <v>0.1120466818173474</v>
+        <v>0.09497930719979213</v>
       </c>
       <c r="C58">
-        <v>0.001020459072262421</v>
+        <v>0.0008733885929315258</v>
       </c>
       <c r="D58">
-        <v>0.6877098068144484</v>
+        <v>0.707424798571813</v>
       </c>
       <c r="E58">
-        <v>1.031046652848445</v>
+        <v>1.033682375974856</v>
       </c>
       <c r="F58">
-        <v>73545.58559935106</v>
+        <v>89405.92067125688</v>
       </c>
       <c r="G58">
-        <v>108.451789855957</v>
+        <v>98.1163330078125</v>
       </c>
       <c r="H58">
-        <v>0.1106163859367371</v>
+        <v>0.09566657245159149</v>
       </c>
       <c r="I58">
-        <v>0.001018034876324236</v>
+        <v>0.0008725796942599118</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>90.32920852588759</v>
+        <v>84.94096956929748</v>
       </c>
       <c r="B59">
-        <v>0.1027086991797944</v>
+        <v>0.0804545864781205</v>
       </c>
       <c r="C59">
-        <v>0.001033114010541766</v>
+        <v>0.0009935392246720079</v>
       </c>
       <c r="D59">
-        <v>0.7207335476221508</v>
+        <v>0.7652546024581972</v>
       </c>
       <c r="E59">
-        <v>1.033374621300533</v>
+        <v>1.03910535293656</v>
       </c>
       <c r="F59">
-        <v>77169.51657621456</v>
+        <v>86984.66508684293</v>
       </c>
       <c r="G59">
-        <v>90.52240753173828</v>
+        <v>67.07215118408203</v>
       </c>
       <c r="H59">
-        <v>0.1024210229516029</v>
+        <v>0.08876136690378189</v>
       </c>
       <c r="I59">
-        <v>0.001032955595292151</v>
+        <v>0.001003292854875326</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>98.67940656262739</v>
+        <v>98.31673437515882</v>
       </c>
       <c r="B60">
-        <v>0.09636165210798399</v>
+        <v>0.09010943462649809</v>
       </c>
       <c r="C60">
-        <v>0.001181075733020285</v>
+        <v>0.0008590064698627904</v>
       </c>
       <c r="D60">
-        <v>0.7356371608001551</v>
+        <v>0.7154406466671918</v>
       </c>
       <c r="E60">
-        <v>1.033059248528237</v>
+        <v>1.034537291922868</v>
       </c>
       <c r="F60">
-        <v>68775.78930627124</v>
+        <v>92228.82783423671</v>
       </c>
       <c r="G60">
-        <v>98.63609313964844</v>
+        <v>98.82757568359375</v>
       </c>
       <c r="H60">
-        <v>0.09650558233261108</v>
+        <v>0.08928334712982178</v>
       </c>
       <c r="I60">
-        <v>0.001168338232673705</v>
+        <v>0.0008543868316337466</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>89.98166729905992</v>
+        <v>118.8141774713397</v>
       </c>
       <c r="B61">
-        <v>0.08311165655481778</v>
+        <v>0.09287488448781622</v>
       </c>
       <c r="C61">
-        <v>0.0009185233276831638</v>
+        <v>0.0009447271647791168</v>
       </c>
       <c r="D61">
-        <v>0.7473799297868441</v>
+        <v>0.6972414203158651</v>
       </c>
       <c r="E61">
-        <v>1.03735258100045</v>
+        <v>1.03253566203342</v>
       </c>
       <c r="F61">
-        <v>91194.44193383394</v>
+        <v>80693.43969295148</v>
       </c>
       <c r="G61">
-        <v>81.74549102783203</v>
+        <v>105.5880432128906</v>
       </c>
       <c r="H61">
-        <v>0.08736676722764969</v>
+        <v>0.1013677343726158</v>
       </c>
       <c r="I61">
-        <v>0.0009168879478238523</v>
+        <v>0.0009530033566989005</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>86.63185332625039</v>
+        <v>97.00934401046995</v>
       </c>
       <c r="B62">
-        <v>0.1077390656975054</v>
+        <v>0.1140638183239798</v>
       </c>
       <c r="C62">
-        <v>0.0008984067485609944</v>
+        <v>0.001171346731846419</v>
       </c>
       <c r="D62">
-        <v>0.7030418139564719</v>
+        <v>0.7063779890107253</v>
       </c>
       <c r="E62">
-        <v>1.03341619281231</v>
+        <v>1.031184760312207</v>
       </c>
       <c r="F62">
-        <v>86528.84316365354</v>
+        <v>66086.30363402581</v>
       </c>
       <c r="G62">
-        <v>93.93820953369141</v>
+        <v>102.8373870849609</v>
       </c>
       <c r="H62">
-        <v>0.1024111583828926</v>
+        <v>0.1104526445269585</v>
       </c>
       <c r="I62">
-        <v>0.0008966950117610395</v>
+        <v>0.00115782453212887</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>84.72698618401071</v>
+        <v>113.9990395258158</v>
       </c>
       <c r="B63">
-        <v>0.0981789066246133</v>
+        <v>0.09837335403955512</v>
       </c>
       <c r="C63">
-        <v>0.0008433181044875778</v>
+        <v>0.001165932631455943</v>
       </c>
       <c r="D63">
-        <v>0.715468013062435</v>
+        <v>0.7175790204100774</v>
       </c>
       <c r="E63">
-        <v>1.035312840789655</v>
+        <v>1.031707272765843</v>
       </c>
       <c r="F63">
-        <v>94447.96306783588</v>
+        <v>67325.35612847716</v>
       </c>
       <c r="G63">
-        <v>84.73322296142578</v>
+        <v>104.9827728271484</v>
       </c>
       <c r="H63">
-        <v>0.09701880812644958</v>
+        <v>0.1026857867836952</v>
       </c>
       <c r="I63">
-        <v>0.0008423365070484579</v>
+        <v>0.001163958688266575</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>106.1280073013973</v>
+        <v>84.99904576710061</v>
       </c>
       <c r="B64">
-        <v>0.1087044195505466</v>
+        <v>0.09782786159648928</v>
       </c>
       <c r="C64">
-        <v>0.0008104438980017193</v>
+        <v>0.000914873610299155</v>
       </c>
       <c r="D64">
-        <v>0.6628609984960541</v>
+        <v>0.7239863616175799</v>
       </c>
       <c r="E64">
-        <v>1.031806298614512</v>
+        <v>1.035220776167815</v>
       </c>
       <c r="F64">
-        <v>89276.023230689</v>
+        <v>88124.51862477153</v>
       </c>
       <c r="G64">
-        <v>119.7322387695312</v>
+        <v>83.26834869384766</v>
       </c>
       <c r="H64">
-        <v>0.1004076153039932</v>
+        <v>0.09850992262363434</v>
       </c>
       <c r="I64">
-        <v>0.0008070744224824011</v>
+        <v>0.0009167831158265471</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>85.81703231301414</v>
+        <v>91.03324617829841</v>
       </c>
       <c r="B65">
-        <v>0.1143619232678425</v>
+        <v>0.09357532689992076</v>
       </c>
       <c r="C65">
-        <v>0.001168372398243357</v>
+        <v>0.000937136524465491</v>
       </c>
       <c r="D65">
-        <v>0.71464410400929</v>
+        <v>0.7273936598878259</v>
       </c>
       <c r="E65">
-        <v>1.032405833666826</v>
+        <v>1.034846283145473</v>
       </c>
       <c r="F65">
-        <v>67492.02658628208</v>
+        <v>86256.91092626422</v>
       </c>
       <c r="G65">
-        <v>84.86528778076172</v>
+        <v>91.43689727783203</v>
       </c>
       <c r="H65">
-        <v>0.1141278669238091</v>
+        <v>0.09319759905338287</v>
       </c>
       <c r="I65">
-        <v>0.001156971091404557</v>
+        <v>0.0009369563194923103</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>88.10624713237409</v>
+        <v>96.22874473313338</v>
       </c>
       <c r="B66">
-        <v>0.1186401004735988</v>
+        <v>0.1149223082174916</v>
       </c>
       <c r="C66">
-        <v>0.001066606062339121</v>
+        <v>0.001039282722464959</v>
       </c>
       <c r="D66">
-        <v>0.6996385592836201</v>
+        <v>0.6952686498248134</v>
       </c>
       <c r="E66">
-        <v>1.031710405888304</v>
+        <v>1.031329315784209</v>
       </c>
       <c r="F66">
-        <v>72120.84373442782</v>
+        <v>73301.26390271114</v>
       </c>
       <c r="G66">
-        <v>106.0257415771484</v>
+        <v>105.7331466674805</v>
       </c>
       <c r="H66">
-        <v>0.1071436703205109</v>
+        <v>0.108797699213028</v>
       </c>
       <c r="I66">
-        <v>0.001061986200511456</v>
+        <v>0.00103826355189085</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>94.85412124837693</v>
+        <v>96.07270805460293</v>
       </c>
       <c r="B67">
-        <v>0.1139472347333698</v>
+        <v>0.1174447290991821</v>
       </c>
       <c r="C67">
-        <v>0.001111777887530413</v>
+        <v>0.001181570003289342</v>
       </c>
       <c r="D67">
-        <v>0.7041640099730463</v>
+        <v>0.7025772057424656</v>
       </c>
       <c r="E67">
-        <v>1.031444534730954</v>
+        <v>1.030946513957388</v>
       </c>
       <c r="F67">
-        <v>69491.07525294257</v>
+        <v>65108.52459357276</v>
       </c>
       <c r="G67">
-        <v>105.4516754150391</v>
+        <v>104.7194671630859</v>
       </c>
       <c r="H67">
-        <v>0.1073522865772247</v>
+        <v>0.1118271127343178</v>
       </c>
       <c r="I67">
-        <v>0.001107891439460218</v>
+        <v>0.001162879285402596</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>112.5827033956628</v>
+        <v>106.7181089147738</v>
       </c>
       <c r="B68">
-        <v>0.08085954381688894</v>
+        <v>0.1192817465897325</v>
       </c>
       <c r="C68">
-        <v>0.0009144397736736748</v>
+        <v>0.0008619406598730223</v>
       </c>
       <c r="D68">
-        <v>0.725044182287746</v>
+        <v>0.6539879484337644</v>
       </c>
       <c r="E68">
-        <v>1.034555272269227</v>
+        <v>1.030907778374236</v>
       </c>
       <c r="F68">
-        <v>87566.73374752047</v>
+        <v>82506.17722997459</v>
       </c>
       <c r="G68">
-        <v>99.50115966796875</v>
+        <v>124.6686172485352</v>
       </c>
       <c r="H68">
-        <v>0.08859168738126755</v>
+        <v>0.1057022660970688</v>
       </c>
       <c r="I68">
-        <v>0.0009181066416203976</v>
+        <v>0.0008608127245679498</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>84.20666022274528</v>
+        <v>93.91306244408116</v>
       </c>
       <c r="B69">
-        <v>0.09451124098664006</v>
+        <v>0.09516834644926991</v>
       </c>
       <c r="C69">
-        <v>0.001033872162724664</v>
+        <v>0.0009047130752769508</v>
       </c>
       <c r="D69">
-        <v>0.7412395227128463</v>
+        <v>0.7173173577322881</v>
       </c>
       <c r="E69">
-        <v>1.035849679193247</v>
+        <v>1.034188205235354</v>
       </c>
       <c r="F69">
-        <v>80099.88371637101</v>
+        <v>87819.82562395297</v>
       </c>
       <c r="G69">
-        <v>79.49641418457031</v>
+        <v>94.59822845458984</v>
       </c>
       <c r="H69">
-        <v>0.09738478809595108</v>
+        <v>0.09467557072639465</v>
       </c>
       <c r="I69">
-        <v>0.001040427829138935</v>
+        <v>0.0009049707441590726</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>113.2471969491275</v>
+        <v>108.3795072634309</v>
       </c>
       <c r="B70">
-        <v>0.1090154643827053</v>
+        <v>0.1182726440982919</v>
       </c>
       <c r="C70">
-        <v>0.0008290736051897543</v>
+        <v>0.001146431585533792</v>
       </c>
       <c r="D70">
-        <v>0.6558546771011399</v>
+        <v>0.6878844757232337</v>
       </c>
       <c r="E70">
-        <v>1.031619204526727</v>
+        <v>1.030332081547475</v>
       </c>
       <c r="F70">
-        <v>86055.46884267239</v>
+        <v>65284.48111255702</v>
       </c>
       <c r="G70">
-        <v>137.3601684570312</v>
+        <v>112.3126754760742</v>
       </c>
       <c r="H70">
-        <v>0.09140300005674362</v>
+        <v>0.114651694893837</v>
       </c>
       <c r="I70">
-        <v>0.0008292579441331327</v>
+        <v>0.001132568228058517</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>84.16734852347561</v>
+        <v>105.4560261920315</v>
       </c>
       <c r="B71">
-        <v>0.08712811987681258</v>
+        <v>0.1114414688859923</v>
       </c>
       <c r="C71">
-        <v>0.0009943661211321206</v>
+        <v>0.0009968218132306718</v>
       </c>
       <c r="D71">
-        <v>0.7524249927611296</v>
+        <v>0.6866056167181092</v>
       </c>
       <c r="E71">
-        <v>1.037533708867497</v>
+        <v>1.031161974341581</v>
       </c>
       <c r="F71">
-        <v>85011.69015755533</v>
+        <v>75200.0863413029</v>
       </c>
       <c r="G71">
-        <v>73.88394927978516</v>
+        <v>105.8482360839844</v>
       </c>
       <c r="H71">
-        <v>0.09292391687631607</v>
+        <v>0.111373171210289</v>
       </c>
       <c r="I71">
-        <v>0.001006413018330932</v>
+        <v>0.000996679300442338</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>118.6768678303895</v>
+        <v>96.04718952914178</v>
       </c>
       <c r="B72">
-        <v>0.1008246198103409</v>
+        <v>0.106886888037146</v>
       </c>
       <c r="C72">
-        <v>0.001187174655338407</v>
+        <v>0.001156389874399549</v>
       </c>
       <c r="D72">
-        <v>0.7108282794264837</v>
+        <v>0.7177942956917942</v>
       </c>
       <c r="E72">
-        <v>1.031314668545222</v>
+        <v>1.032026089775439</v>
       </c>
       <c r="F72">
-        <v>65295.51843847329</v>
+        <v>68274.87039988649</v>
       </c>
       <c r="G72">
-        <v>100.3096389770508</v>
+        <v>95.49703979492188</v>
       </c>
       <c r="H72">
-        <v>0.1103391945362091</v>
+        <v>0.106824092566967</v>
       </c>
       <c r="I72">
-        <v>0.001180648221634328</v>
+        <v>0.001149305375292897</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>98.77114968541773</v>
+        <v>97.32504615785709</v>
       </c>
       <c r="B73">
-        <v>0.08253037015734535</v>
+        <v>0.0899998513517226</v>
       </c>
       <c r="C73">
-        <v>0.001147587344162187</v>
+        <v>0.0008767252810725982</v>
       </c>
       <c r="D73">
-        <v>0.7601469652061295</v>
+        <v>0.7194493620758404</v>
       </c>
       <c r="E73">
-        <v>1.035503721727833</v>
+        <v>1.034656987825434</v>
       </c>
       <c r="F73">
-        <v>73809.16535697946</v>
+        <v>90952.14777310414</v>
       </c>
       <c r="G73">
-        <v>95.18865966796875</v>
+        <v>97.22327423095703</v>
       </c>
       <c r="H73">
-        <v>0.08438589423894882</v>
+        <v>0.089786097407341</v>
       </c>
       <c r="I73">
-        <v>0.001144233625382185</v>
+        <v>0.0008743624784983695</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>118.6886912416637</v>
+        <v>104.4894033372088</v>
       </c>
       <c r="B74">
-        <v>0.08824007987120169</v>
+        <v>0.08888532886745625</v>
       </c>
       <c r="C74">
-        <v>0.000936559474876001</v>
+        <v>0.001012805850973932</v>
       </c>
       <c r="D74">
-        <v>0.7053870997939153</v>
+        <v>0.729998587359443</v>
       </c>
       <c r="E74">
-        <v>1.033072730515658</v>
+        <v>1.033797061657793</v>
       </c>
       <c r="F74">
-        <v>82545.26761393597</v>
+        <v>79616.82819472415</v>
       </c>
       <c r="G74">
-        <v>91.97579193115234</v>
+        <v>104.6935653686523</v>
       </c>
       <c r="H74">
-        <v>0.1055807843804359</v>
+        <v>0.08879747241735458</v>
       </c>
       <c r="I74">
-        <v>0.0009469838696531951</v>
+        <v>0.001013812492601573</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>104.1098688528135</v>
+        <v>83.14596355623566</v>
       </c>
       <c r="B75">
-        <v>0.0811264011560366</v>
+        <v>0.08690931527005682</v>
       </c>
       <c r="C75">
-        <v>0.001180932175847984</v>
+        <v>0.0009318989473943713</v>
       </c>
       <c r="D75">
-        <v>0.7610371712292983</v>
+        <v>0.7484713175843096</v>
       </c>
       <c r="E75">
-        <v>1.035011841792028</v>
+        <v>1.03792710323316</v>
       </c>
       <c r="F75">
-        <v>71623.59727313645</v>
+        <v>90322.33036064438</v>
       </c>
       <c r="G75">
-        <v>100.6641464233398</v>
+        <v>71.55860137939453</v>
       </c>
       <c r="H75">
-        <v>0.08234095573425293</v>
+        <v>0.09276571124792099</v>
       </c>
       <c r="I75">
-        <v>0.001171366078779101</v>
+        <v>0.0009329932508990169</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>109.3789599686562</v>
+        <v>112.6381119110036</v>
       </c>
       <c r="B76">
-        <v>0.1115127384184534</v>
+        <v>0.116571754605359</v>
       </c>
       <c r="C76">
-        <v>0.0008948289701545773</v>
+        <v>0.0009280860049386678</v>
       </c>
       <c r="D76">
-        <v>0.6680746081001433</v>
+        <v>0.660916882683929</v>
       </c>
       <c r="E76">
-        <v>1.031277780665849</v>
+        <v>1.03084111831832</v>
       </c>
       <c r="F76">
-        <v>81320.40426984521</v>
+        <v>77332.63631494337</v>
       </c>
       <c r="G76">
-        <v>122.6593475341797</v>
+        <v>131.9586791992188</v>
       </c>
       <c r="H76">
-        <v>0.1019734442234039</v>
+        <v>0.1009263247251511</v>
       </c>
       <c r="I76">
-        <v>0.0008979855920188129</v>
+        <v>0.0009274937328882515</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>81.93649338364159</v>
+        <v>106.0139990049809</v>
       </c>
       <c r="B77">
-        <v>0.08917804663155368</v>
+        <v>0.09192795349389446</v>
       </c>
       <c r="C77">
-        <v>0.001176129741902136</v>
+        <v>0.0009791761525170255</v>
       </c>
       <c r="D77">
-        <v>0.7614038556133618</v>
+        <v>0.7185480816370593</v>
       </c>
       <c r="E77">
-        <v>1.037430665727448</v>
+        <v>1.033254343389073</v>
       </c>
       <c r="F77">
-        <v>72790.46354393325</v>
+        <v>80826.87996130693</v>
       </c>
       <c r="G77">
-        <v>64.06911468505859</v>
+        <v>104.9416427612305</v>
       </c>
       <c r="H77">
-        <v>0.09990126639604568</v>
+        <v>0.09255153685808182</v>
       </c>
       <c r="I77">
-        <v>0.001172894961200655</v>
+        <v>0.0009796782396733761</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>91.48618937913805</v>
+        <v>108.8724615686199</v>
       </c>
       <c r="B78">
-        <v>0.09393789727792556</v>
+        <v>0.09816132820824248</v>
       </c>
       <c r="C78">
-        <v>0.001173016880960738</v>
+        <v>0.0009737668420969875</v>
       </c>
       <c r="D78">
-        <v>0.7452944764604019</v>
+        <v>0.7029098984379627</v>
       </c>
       <c r="E78">
-        <v>1.034436893279325</v>
+        <v>1.032293971810413</v>
       </c>
       <c r="F78">
-        <v>70608.55581957518</v>
+        <v>79120.57952611352</v>
       </c>
       <c r="G78">
-        <v>89.03109741210938</v>
+        <v>102.5155487060547</v>
       </c>
       <c r="H78">
-        <v>0.09614625573158264</v>
+        <v>0.1022186800837517</v>
       </c>
       <c r="I78">
-        <v>0.001165261841379106</v>
+        <v>0.0009746525902301073</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>85.11197877546697</v>
+        <v>101.4473550464524</v>
       </c>
       <c r="B79">
-        <v>0.1167804783529576</v>
+        <v>0.0997631514445269</v>
       </c>
       <c r="C79">
-        <v>0.001117285259058377</v>
+        <v>0.0009440810043773063</v>
       </c>
       <c r="D79">
-        <v>0.7085130180079342</v>
+        <v>0.7048468069264713</v>
       </c>
       <c r="E79">
-        <v>1.032271248902489</v>
+        <v>1.032675102313445</v>
       </c>
       <c r="F79">
-        <v>69925.81047232136</v>
+        <v>82094.28203290059</v>
       </c>
       <c r="G79">
-        <v>87.67147064208984</v>
+        <v>101.9151916503906</v>
       </c>
       <c r="H79">
-        <v>0.1141339614987373</v>
+        <v>0.09951972216367722</v>
       </c>
       <c r="I79">
-        <v>0.001110714045353234</v>
+        <v>0.0009441933361813426</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>92.0088425849591</v>
+        <v>84.73098332779654</v>
       </c>
       <c r="B80">
-        <v>0.1080128973138284</v>
+        <v>0.1109041261720908</v>
       </c>
       <c r="C80">
-        <v>0.001051134651623293</v>
+        <v>0.001162665552891091</v>
       </c>
       <c r="D80">
-        <v>0.7116208864002004</v>
+        <v>0.7206276814441637</v>
       </c>
       <c r="E80">
-        <v>1.032448167786267</v>
+        <v>1.032996611635539</v>
       </c>
       <c r="F80">
-        <v>74599.91229194535</v>
+        <v>68559.28321741846</v>
       </c>
       <c r="G80">
-        <v>92.44651794433594</v>
+        <v>80.90505218505859</v>
       </c>
       <c r="H80">
-        <v>0.1073962822556496</v>
+        <v>0.1134972050786018</v>
       </c>
       <c r="I80">
-        <v>0.001050759572535753</v>
+        <v>0.001145497313700616</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>85.05440121693771</v>
+        <v>96.27746444496174</v>
       </c>
       <c r="B81">
-        <v>0.08164842325835291</v>
+        <v>0.1134937625372691</v>
       </c>
       <c r="C81">
-        <v>0.001146718186886325</v>
+        <v>0.001090842051415008</v>
       </c>
       <c r="D81">
-        <v>0.7727114629193994</v>
+        <v>0.7019438354394417</v>
       </c>
       <c r="E81">
-        <v>1.038565792072625</v>
+        <v>1.031390279009938</v>
       </c>
       <c r="F81">
-        <v>76030.25181731302</v>
+        <v>70554.3795401002</v>
       </c>
       <c r="G81">
-        <v>64.65254974365234</v>
+        <v>105.8284149169922</v>
       </c>
       <c r="H81">
-        <v>0.09311513602733612</v>
+        <v>0.1075412034988403</v>
       </c>
       <c r="I81">
-        <v>0.001149710267782211</v>
+        <v>0.001086160773411393</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>92.86507174063409</v>
+        <v>96.29071260794213</v>
       </c>
       <c r="B82">
-        <v>0.08685625245860171</v>
+        <v>0.08585190986427912</v>
       </c>
       <c r="C82">
-        <v>0.0009188654424209869</v>
+        <v>0.001089196781560049</v>
       </c>
       <c r="D82">
-        <v>0.7364226910432496</v>
+        <v>0.7511635449452094</v>
       </c>
       <c r="E82">
-        <v>1.035866189499203</v>
+        <v>1.035269794975554</v>
       </c>
       <c r="F82">
-        <v>89345.48785304721</v>
+        <v>76782.59346763766</v>
       </c>
       <c r="G82">
-        <v>91.00156402587891</v>
+        <v>95.12694549560547</v>
       </c>
       <c r="H82">
-        <v>0.08767616003751755</v>
+        <v>0.08613588660955429</v>
       </c>
       <c r="I82">
-        <v>0.0009154428262263536</v>
+        <v>0.001091687823645771</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>96.63917114212879</v>
+        <v>92.98501411407457</v>
       </c>
       <c r="B83">
-        <v>0.1047618658367806</v>
+        <v>0.09713470357173581</v>
       </c>
       <c r="C83">
-        <v>0.001136783360210136</v>
+        <v>0.0009176475855127948</v>
       </c>
       <c r="D83">
-        <v>0.7194845325471008</v>
+        <v>0.7163405843396431</v>
       </c>
       <c r="E83">
-        <v>1.032230302873027</v>
+        <v>1.034003573526568</v>
       </c>
       <c r="F83">
-        <v>69659.94878883265</v>
+        <v>86425.52915136746</v>
       </c>
       <c r="G83">
-        <v>96.16300964355469</v>
+        <v>93.10748291015625</v>
       </c>
       <c r="H83">
-        <v>0.1046929955482483</v>
+        <v>0.09703821688890457</v>
       </c>
       <c r="I83">
-        <v>0.001133369514718652</v>
+        <v>0.000918315548915416</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>82.91489580544012</v>
+        <v>81.57439131737111</v>
       </c>
       <c r="B84">
-        <v>0.1030273050448205</v>
+        <v>0.1134396646416203</v>
       </c>
       <c r="C84">
-        <v>0.001046206814155014</v>
+        <v>0.001030461534584069</v>
       </c>
       <c r="D84">
-        <v>0.728110580226787</v>
+        <v>0.7110819842492559</v>
       </c>
       <c r="E84">
-        <v>1.034577587221023</v>
+        <v>1.033332379659182</v>
       </c>
       <c r="F84">
-        <v>77414.34810601255</v>
+        <v>76405.68136514761</v>
       </c>
       <c r="G84">
-        <v>80.141845703125</v>
+        <v>81.10110473632812</v>
       </c>
       <c r="H84">
-        <v>0.1043293550610542</v>
+        <v>0.1125128269195557</v>
       </c>
       <c r="I84">
-        <v>0.001042614807374775</v>
+        <v>0.001020956784486771</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>107.5447684398666</v>
+        <v>109.3001954133685</v>
       </c>
       <c r="B85">
-        <v>0.0897255873960926</v>
+        <v>0.1124666765033131</v>
       </c>
       <c r="C85">
-        <v>0.0008091923544411792</v>
+        <v>0.001109436326899179</v>
       </c>
       <c r="D85">
-        <v>0.6955436764158279</v>
+        <v>0.6927861286095364</v>
       </c>
       <c r="E85">
-        <v>1.033772694206561</v>
+        <v>1.03075947455289</v>
       </c>
       <c r="F85">
-        <v>94602.86908759469</v>
+        <v>68048.34024035787</v>
       </c>
       <c r="G85">
-        <v>98.56911468505859</v>
+        <v>109.2839508056641</v>
       </c>
       <c r="H85">
-        <v>0.09683864563703537</v>
+        <v>0.1120344772934914</v>
       </c>
       <c r="I85">
-        <v>0.0008028442389331758</v>
+        <v>0.001104434370063245</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>102.6107290312576</v>
+        <v>84.70383183189445</v>
       </c>
       <c r="B86">
-        <v>0.1170208759503149</v>
+        <v>0.08441490571636187</v>
       </c>
       <c r="C86">
-        <v>0.0009401166394204532</v>
+        <v>0.001115869295304324</v>
       </c>
       <c r="D86">
-        <v>0.6740647291208485</v>
+        <v>0.7656273636762139</v>
       </c>
       <c r="E86">
-        <v>1.030959004986297</v>
+        <v>1.037941217987962</v>
       </c>
       <c r="F86">
-        <v>78210.63072795217</v>
+        <v>77243.48325534165</v>
       </c>
       <c r="G86">
-        <v>108.6180725097656</v>
+        <v>69.50928497314453</v>
       </c>
       <c r="H86">
-        <v>0.1123553365468979</v>
+        <v>0.09242987632751465</v>
       </c>
       <c r="I86">
-        <v>0.0009420947171747684</v>
+        <v>0.001117968466132879</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>90.8034370369341</v>
+        <v>104.1672022406412</v>
       </c>
       <c r="B87">
-        <v>0.1044673833831366</v>
+        <v>0.08653047478585886</v>
       </c>
       <c r="C87">
-        <v>0.0008620737519654265</v>
+        <v>0.000939057060477083</v>
       </c>
       <c r="D87">
-        <v>0.6989627579060896</v>
+        <v>0.7264359085167267</v>
       </c>
       <c r="E87">
-        <v>1.033323179607884</v>
+        <v>1.034326910267628</v>
       </c>
       <c r="F87">
-        <v>89517.44737723017</v>
+        <v>85567.06238613185</v>
       </c>
       <c r="G87">
-        <v>99.50419616699219</v>
+        <v>104.8616943359375</v>
       </c>
       <c r="H87">
-        <v>0.09823919087648392</v>
+        <v>0.08629070222377777</v>
       </c>
       <c r="I87">
-        <v>0.0008593962993472815</v>
+        <v>0.0009388693724758923</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>100.9113069501078</v>
+        <v>107.9659794820827</v>
       </c>
       <c r="B88">
-        <v>0.1013967802119425</v>
+        <v>0.09232472974818037</v>
       </c>
       <c r="C88">
-        <v>0.001188873650147337</v>
+        <v>0.001106180169453527</v>
       </c>
       <c r="D88">
-        <v>0.7253526274749621</v>
+        <v>0.7290930923389631</v>
       </c>
       <c r="E88">
-        <v>1.03216895335104</v>
+        <v>1.032865076542422</v>
       </c>
       <c r="F88">
-        <v>67099.66344767701</v>
+        <v>72532.24945943343</v>
       </c>
       <c r="G88">
-        <v>101.0179901123047</v>
+        <v>106.7098846435547</v>
       </c>
       <c r="H88">
-        <v>0.1012815311551094</v>
+        <v>0.09306976944208145</v>
       </c>
       <c r="I88">
-        <v>0.001177631318569183</v>
+        <v>0.001105969888158143</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>84.08276051011633</v>
+        <v>105.2835267711725</v>
       </c>
       <c r="B89">
-        <v>0.1035244063101161</v>
+        <v>0.08335438138083572</v>
       </c>
       <c r="C89">
-        <v>0.0009915213161603433</v>
+        <v>0.001092468708383193</v>
       </c>
       <c r="D89">
-        <v>0.7220028221974876</v>
+        <v>0.748280337168583</v>
       </c>
       <c r="E89">
-        <v>1.034325903694894</v>
+        <v>1.034538732201465</v>
       </c>
       <c r="F89">
-        <v>80887.51816786182</v>
+        <v>75923.9059842657</v>
       </c>
       <c r="G89">
-        <v>83.19351959228516</v>
+        <v>104.0115127563477</v>
       </c>
       <c r="H89">
-        <v>0.1038530021905899</v>
+        <v>0.08373447507619858</v>
       </c>
       <c r="I89">
-        <v>0.0009889275534078479</v>
+        <v>0.001092170365154743</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>102.9770479208428</v>
+        <v>117.9980455531489</v>
       </c>
       <c r="B90">
-        <v>0.1090206177980426</v>
+        <v>0.0970468439772833</v>
       </c>
       <c r="C90">
-        <v>0.0009989774340657099</v>
+        <v>0.0008594731246255466</v>
       </c>
       <c r="D90">
-        <v>0.6935740070103765</v>
+        <v>0.6762742405767642</v>
       </c>
       <c r="E90">
-        <v>1.031488716325431</v>
+        <v>1.032388961934161</v>
       </c>
       <c r="F90">
-        <v>75969.34526755988</v>
+        <v>85845.3233045512</v>
       </c>
       <c r="G90">
-        <v>103.7515869140625</v>
+        <v>125.6854782104492</v>
       </c>
       <c r="H90">
-        <v>0.1087311059236526</v>
+        <v>0.09164112061262131</v>
       </c>
       <c r="I90">
-        <v>0.0009995077271014452</v>
+        <v>0.0008669538656249642</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>116.8281017189874</v>
+        <v>84.44957342732556</v>
       </c>
       <c r="B91">
-        <v>0.09262837928055004</v>
+        <v>0.08461889667844008</v>
       </c>
       <c r="C91">
-        <v>0.001054672221794934</v>
+        <v>0.001143447987739186</v>
       </c>
       <c r="D91">
-        <v>0.7143696787510426</v>
+        <v>0.766933276578167</v>
       </c>
       <c r="E91">
-        <v>1.032377357615672</v>
+        <v>1.037927458093946</v>
       </c>
       <c r="F91">
-        <v>74177.05785785212</v>
+        <v>75517.38756077058</v>
       </c>
       <c r="G91">
-        <v>97.08790588378906</v>
+        <v>67.92872619628906</v>
       </c>
       <c r="H91">
-        <v>0.1037214025855064</v>
+        <v>0.09373834729194641</v>
       </c>
       <c r="I91">
-        <v>0.00106118293479085</v>
+        <v>0.00114006653893739</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>92.8880336225444</v>
+        <v>114.3926881630415</v>
       </c>
       <c r="B92">
-        <v>0.09601033895117593</v>
+        <v>0.1026740805340977</v>
       </c>
       <c r="C92">
-        <v>0.0009484861121999809</v>
+        <v>0.0009769984389775689</v>
       </c>
       <c r="D92">
-        <v>0.7219977090184246</v>
+        <v>0.6888673429956511</v>
       </c>
       <c r="E92">
-        <v>1.034146392318629</v>
+        <v>1.031618054537494</v>
       </c>
       <c r="F92">
-        <v>84349.1162867714</v>
+        <v>76923.10441037854</v>
       </c>
       <c r="G92">
-        <v>93.01198577880859</v>
+        <v>114.5819931030273</v>
       </c>
       <c r="H92">
-        <v>0.09593512862920761</v>
+        <v>0.1021546348929405</v>
       </c>
       <c r="I92">
-        <v>0.0009494195692241192</v>
+        <v>0.0009764889837242663</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>106.5623663073396</v>
+        <v>81.54459633468218</v>
       </c>
       <c r="B93">
-        <v>0.08862608396204151</v>
+        <v>0.09006521459796496</v>
       </c>
       <c r="C93">
-        <v>0.0008576675219414992</v>
+        <v>0.0009946729938511436</v>
       </c>
       <c r="D93">
-        <v>0.7074786721016743</v>
+        <v>0.7491910443322317</v>
       </c>
       <c r="E93">
-        <v>1.033917052034888</v>
+        <v>1.037496779330206</v>
       </c>
       <c r="F93">
-        <v>90936.71391413134</v>
+        <v>84635.11232976995</v>
       </c>
       <c r="G93">
-        <v>97.29978179931641</v>
+        <v>70.81954193115234</v>
       </c>
       <c r="H93">
-        <v>0.0950256735086441</v>
+        <v>0.09568310528993607</v>
       </c>
       <c r="I93">
-        <v>0.0008556626853533089</v>
+        <v>0.001000732998363674</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>85.56674142563895</v>
+        <v>101.3687155622099</v>
       </c>
       <c r="B94">
-        <v>0.08769899186857372</v>
+        <v>0.1037801067000811</v>
       </c>
       <c r="C94">
-        <v>0.00112626783116848</v>
+        <v>0.0009797610900295687</v>
       </c>
       <c r="D94">
-        <v>0.7590575424224655</v>
+        <v>0.7020835671951815</v>
       </c>
       <c r="E94">
-        <v>1.036911122608015</v>
+        <v>1.032152778567538</v>
       </c>
       <c r="F94">
-        <v>75602.5895983599</v>
+        <v>78655.4809861657</v>
       </c>
       <c r="G94">
-        <v>74.5960693359375</v>
+        <v>101.4636383056641</v>
       </c>
       <c r="H94">
-        <v>0.09427420794963837</v>
+        <v>0.1036557555198669</v>
       </c>
       <c r="I94">
-        <v>0.001129039446823299</v>
+        <v>0.0009795543737709522</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>108.4798705789726</v>
+        <v>96.24641879742177</v>
       </c>
       <c r="B95">
-        <v>0.1174190776018499</v>
+        <v>0.08500728070162036</v>
       </c>
       <c r="C95">
-        <v>0.0008784226155199023</v>
+        <v>0.001026595143878193</v>
       </c>
       <c r="D95">
-        <v>0.6572139204209659</v>
+        <v>0.7476367735733105</v>
       </c>
       <c r="E95">
-        <v>1.0309514647316</v>
+        <v>1.03553648970176</v>
       </c>
       <c r="F95">
-        <v>81350.10967911783</v>
+        <v>81120.72333655918</v>
       </c>
       <c r="G95">
-        <v>129.4559936523438</v>
+        <v>95.12285614013672</v>
       </c>
       <c r="H95">
-        <v>0.1016243770718575</v>
+        <v>0.08511560410261154</v>
       </c>
       <c r="I95">
-        <v>0.0008820169023238122</v>
+        <v>0.001029293984174728</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>91.74487053625876</v>
+        <v>100.9479899075782</v>
       </c>
       <c r="B96">
-        <v>0.1093902186152908</v>
+        <v>0.1186543048584784</v>
       </c>
       <c r="C96">
-        <v>0.001004436959626538</v>
+        <v>0.00104749747217465</v>
       </c>
       <c r="D96">
-        <v>0.7055151497104646</v>
+        <v>0.6854314109554979</v>
       </c>
       <c r="E96">
-        <v>1.032401018416415</v>
+        <v>1.030692191665289</v>
       </c>
       <c r="F96">
-        <v>77350.32360771715</v>
+        <v>71416.90396947057</v>
       </c>
       <c r="G96">
-        <v>97.19788360595703</v>
+        <v>104.7830123901367</v>
       </c>
       <c r="H96">
-        <v>0.1059783771634102</v>
+        <v>0.1159503385424614</v>
       </c>
       <c r="I96">
-        <v>0.001003028824925423</v>
+        <v>0.001047004479914904</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>87.58132959085522</v>
+        <v>94.71201235055186</v>
       </c>
       <c r="B97">
-        <v>0.09962599217041652</v>
+        <v>0.1169560876133935</v>
       </c>
       <c r="C97">
-        <v>0.000891934261127898</v>
+        <v>0.0009992864028918289</v>
       </c>
       <c r="D97">
-        <v>0.7152202368609176</v>
+        <v>0.6898251315775463</v>
       </c>
       <c r="E97">
-        <v>1.034477481634569</v>
+        <v>1.031323768471317</v>
       </c>
       <c r="F97">
-        <v>88999.55306112269</v>
+        <v>75633.97819806292</v>
       </c>
       <c r="G97">
-        <v>87.52497863769531</v>
+        <v>104.6104965209961</v>
       </c>
       <c r="H97">
-        <v>0.09931990504264832</v>
+        <v>0.1103134080767632</v>
       </c>
       <c r="I97">
-        <v>0.0008953398792073131</v>
+        <v>0.0009963149204850197</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>103.3912447284925</v>
+        <v>87.87044595314829</v>
       </c>
       <c r="B98">
-        <v>0.08931484976230522</v>
+        <v>0.09575851793139539</v>
       </c>
       <c r="C98">
-        <v>0.0008423579346848335</v>
+        <v>0.001143778466945947</v>
       </c>
       <c r="D98">
-        <v>0.7078004867067044</v>
+        <v>0.7430450824978891</v>
       </c>
       <c r="E98">
-        <v>1.034116923179141</v>
+        <v>1.034773080796189</v>
       </c>
       <c r="F98">
-        <v>92767.28100028589</v>
+        <v>72308.43896460353</v>
       </c>
       <c r="G98">
-        <v>98.22142028808594</v>
+        <v>85.09686279296875</v>
       </c>
       <c r="H98">
-        <v>0.09311936795711517</v>
+        <v>0.09806754440069199</v>
       </c>
       <c r="I98">
-        <v>0.0008378461934626102</v>
+        <v>0.001141042332164943</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>81.18856148149872</v>
+        <v>81.14996396018917</v>
       </c>
       <c r="B99">
-        <v>0.09037095102468523</v>
+        <v>0.08989358660087288</v>
       </c>
       <c r="C99">
-        <v>0.001141976465930482</v>
+        <v>0.001050071104343352</v>
       </c>
       <c r="D99">
-        <v>0.7580146015509406</v>
+        <v>0.7537488625999627</v>
       </c>
       <c r="E99">
-        <v>1.037365220654209</v>
+        <v>1.037579696140864</v>
       </c>
       <c r="F99">
-        <v>74613.77525697168</v>
+        <v>80710.40566740364</v>
       </c>
       <c r="G99">
-        <v>64.81377410888672</v>
+        <v>68.28420257568359</v>
       </c>
       <c r="H99">
-        <v>0.1001377329230309</v>
+        <v>0.09697384387254715</v>
       </c>
       <c r="I99">
-        <v>0.001141287735663354</v>
+        <v>0.001056971261277795</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>112.8942122067917</v>
+        <v>100.7114596271362</v>
       </c>
       <c r="B100">
-        <v>0.0826750614403574</v>
+        <v>0.0902157897343234</v>
       </c>
       <c r="C100">
-        <v>0.001185381033214484</v>
+        <v>0.0009613604661513125</v>
       </c>
       <c r="D100">
-        <v>0.7507550393034793</v>
+        <v>0.7257277783910668</v>
       </c>
       <c r="E100">
-        <v>1.03378980233536</v>
+        <v>1.034082126186788</v>
       </c>
       <c r="F100">
-        <v>69935.752314963</v>
+        <v>83498.908622774</v>
       </c>
       <c r="G100">
-        <v>110.8403244018555</v>
+        <v>100.4700698852539</v>
       </c>
       <c r="H100">
-        <v>0.08295104652643204</v>
+        <v>0.09035585075616837</v>
       </c>
       <c r="I100">
-        <v>0.001170862815342844</v>
+        <v>0.0009623237419873476</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>80.58441943915261</v>
+        <v>113.4366061119184</v>
       </c>
       <c r="B101">
-        <v>0.09742917896218622</v>
+        <v>0.0993490385417231</v>
       </c>
       <c r="C101">
-        <v>0.001180643866526262</v>
+        <v>0.000967343768785153</v>
       </c>
       <c r="D101">
-        <v>0.7472733444641038</v>
+        <v>0.6946367487832711</v>
       </c>
       <c r="E101">
-        <v>1.035974922613619</v>
+        <v>1.031951833951641</v>
       </c>
       <c r="F101">
-        <v>70817.75348355506</v>
+        <v>78486.68252981959</v>
       </c>
       <c r="G101">
-        <v>68.18665313720703</v>
+        <v>110.3887634277344</v>
       </c>
       <c r="H101">
-        <v>0.1057525128126144</v>
+        <v>0.1012380048632622</v>
       </c>
       <c r="I101">
-        <v>0.001170065603218973</v>
+        <v>0.0009677702328190207</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -34,13 +34,13 @@
     <t>Mn</t>
   </si>
   <si>
-    <t>MLP_POX/C</t>
+    <t>MLP_X</t>
   </si>
   <si>
-    <t>MLP_C/A</t>
+    <t>MLP_PDI</t>
   </si>
   <si>
-    <t>MLP_POX/M</t>
+    <t>MLP_Mn</t>
   </si>
 </sst>
 </file>
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>87.24684305404202</v>
+        <v>101.9134541931352</v>
       </c>
       <c r="B2">
-        <v>0.09503015678890928</v>
+        <v>0.106970280159525</v>
       </c>
       <c r="C2">
-        <v>0.0008196804918192448</v>
+        <v>0.000926225341393263</v>
       </c>
       <c r="D2">
-        <v>0.7148456240649922</v>
+        <v>0.6894056795738879</v>
       </c>
       <c r="E2">
-        <v>1.035448897428706</v>
+        <v>1.031882260731193</v>
       </c>
       <c r="F2">
-        <v>97063.42835360227</v>
+        <v>81538.50378104943</v>
       </c>
       <c r="G2">
-        <v>87.54514312744141</v>
+        <v>0.6893292665481567</v>
       </c>
       <c r="H2">
-        <v>0.09368538111448288</v>
+        <v>1.03188943862915</v>
       </c>
       <c r="I2">
-        <v>0.0008130731293931603</v>
+        <v>81539.6875</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>93.25725353742199</v>
+        <v>108.4352681589187</v>
       </c>
       <c r="B3">
-        <v>0.08913646128992846</v>
+        <v>0.09098447821450543</v>
       </c>
       <c r="C3">
-        <v>0.001054763395272719</v>
+        <v>0.001076965233335448</v>
       </c>
       <c r="D3">
-        <v>0.7446837070635096</v>
+        <v>0.7284417809339752</v>
       </c>
       <c r="E3">
-        <v>1.035152024588563</v>
+        <v>1.033028378276281</v>
       </c>
       <c r="F3">
-        <v>78591.98581522674</v>
+        <v>74465.41067907</v>
       </c>
       <c r="G3">
-        <v>92.87812042236328</v>
+        <v>0.7284060716629028</v>
       </c>
       <c r="H3">
-        <v>0.08897542208433151</v>
+        <v>1.033044338226318</v>
       </c>
       <c r="I3">
-        <v>0.001056399429216981</v>
+        <v>74435.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>107.0695378009849</v>
+        <v>104.0282503206033</v>
       </c>
       <c r="B4">
-        <v>0.08355715668275283</v>
+        <v>0.109219436254788</v>
       </c>
       <c r="C4">
-        <v>0.0009640554005717663</v>
+        <v>0.0009520796015673995</v>
       </c>
       <c r="D4">
-        <v>0.732428008535534</v>
+        <v>0.6864619032469254</v>
       </c>
       <c r="E4">
-        <v>1.034498025163774</v>
+        <v>1.031506971853486</v>
       </c>
       <c r="F4">
-        <v>84060.73823639864</v>
+        <v>78830.50808908061</v>
       </c>
       <c r="G4">
-        <v>105.083381652832</v>
+        <v>0.6863099932670593</v>
       </c>
       <c r="H4">
-        <v>0.08475181460380554</v>
+        <v>1.031484484672546</v>
       </c>
       <c r="I4">
-        <v>0.0009663471137173474</v>
+        <v>78887.0234375</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>82.87805326444487</v>
+        <v>101.7593884437088</v>
       </c>
       <c r="B5">
-        <v>0.08374448689060994</v>
+        <v>0.1181174580499429</v>
       </c>
       <c r="C5">
-        <v>0.0009519442595065787</v>
+        <v>0.0008744069494475604</v>
       </c>
       <c r="D5">
-        <v>0.7569665888094008</v>
+        <v>0.6642529128823289</v>
       </c>
       <c r="E5">
-        <v>1.038799160384356</v>
+        <v>1.031062335648002</v>
       </c>
       <c r="F5">
-        <v>89703.79045029118</v>
+        <v>82841.31125921379</v>
       </c>
       <c r="G5">
-        <v>67.00277709960938</v>
+        <v>0.665482759475708</v>
       </c>
       <c r="H5">
-        <v>0.09138521552085876</v>
+        <v>1.030888557434082</v>
       </c>
       <c r="I5">
-        <v>0.000954038929194212</v>
+        <v>82448.203125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>104.2040982085417</v>
+        <v>97.00732312623538</v>
       </c>
       <c r="B6">
-        <v>0.08907894137537925</v>
+        <v>0.09015130420140427</v>
       </c>
       <c r="C6">
-        <v>0.001121268840439418</v>
+        <v>0.0008136774853122456</v>
       </c>
       <c r="D6">
-        <v>0.7401874264618626</v>
+        <v>0.7101028212261322</v>
       </c>
       <c r="E6">
-        <v>1.033632438645933</v>
+        <v>1.034769324225474</v>
       </c>
       <c r="F6">
-        <v>72949.96496684253</v>
+        <v>96695.83683405023</v>
       </c>
       <c r="G6">
-        <v>104.0464248657227</v>
+        <v>0.7130743861198425</v>
       </c>
       <c r="H6">
-        <v>0.08905736356973648</v>
+        <v>1.034722208976746</v>
       </c>
       <c r="I6">
-        <v>0.001118340063840151</v>
+        <v>94986.3984375</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>99.1237590141851</v>
+        <v>105.7189441433412</v>
       </c>
       <c r="B7">
-        <v>0.08432083930167632</v>
+        <v>0.1029853126523506</v>
       </c>
       <c r="C7">
-        <v>0.001081940394690201</v>
+        <v>0.0008303649726743065</v>
       </c>
       <c r="D7">
-        <v>0.751109158450342</v>
+        <v>0.6768559756948075</v>
       </c>
       <c r="E7">
-        <v>1.035164651841893</v>
+        <v>1.032255186762739</v>
       </c>
       <c r="F7">
-        <v>77218.0590965172</v>
+        <v>89221.94783598969</v>
       </c>
       <c r="G7">
-        <v>97.84542083740234</v>
+        <v>0.6800749897956848</v>
       </c>
       <c r="H7">
-        <v>0.08464979380369186</v>
+        <v>1.032278418540955</v>
       </c>
       <c r="I7">
-        <v>0.001083379378542304</v>
+        <v>88542.6328125</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>91.53295467587806</v>
+        <v>97.55346363800341</v>
       </c>
       <c r="B8">
-        <v>0.09078972541995434</v>
+        <v>0.1036079774072063</v>
       </c>
       <c r="C8">
-        <v>0.001178095583025669</v>
+        <v>0.001070320675028789</v>
       </c>
       <c r="D8">
-        <v>0.7514683261800849</v>
+        <v>0.7153566801011026</v>
       </c>
       <c r="E8">
-        <v>1.034996795073989</v>
+        <v>1.032354481830206</v>
       </c>
       <c r="F8">
-        <v>71035.12503973859</v>
+        <v>73551.88058884651</v>
       </c>
       <c r="G8">
-        <v>88.76673889160156</v>
+        <v>0.7149227857589722</v>
       </c>
       <c r="H8">
-        <v>0.09302555769681931</v>
+        <v>1.03235387802124</v>
       </c>
       <c r="I8">
-        <v>0.001172484713606536</v>
+        <v>73516.4375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>89.74598903554313</v>
+        <v>115.3572194329611</v>
       </c>
       <c r="B9">
-        <v>0.08299337142151801</v>
+        <v>0.1028322226632898</v>
       </c>
       <c r="C9">
-        <v>0.0009419600727911907</v>
+        <v>0.0009818494965918576</v>
       </c>
       <c r="D9">
-        <v>0.7503470351066801</v>
+        <v>0.6881219546363398</v>
       </c>
       <c r="E9">
-        <v>1.037324785279951</v>
+        <v>1.031530999477865</v>
       </c>
       <c r="F9">
-        <v>89322.30574705215</v>
+        <v>76427.09527010556</v>
       </c>
       <c r="G9">
-        <v>83.14618682861328</v>
+        <v>0.6888170838356018</v>
       </c>
       <c r="H9">
-        <v>0.08561209589242935</v>
+        <v>1.031494379043579</v>
       </c>
       <c r="I9">
-        <v>0.00094818469369784</v>
+        <v>76393.2578125</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>100.5688890836487</v>
+        <v>118.1752462310887</v>
       </c>
       <c r="B10">
-        <v>0.0829720236934392</v>
+        <v>0.08914499946635959</v>
       </c>
       <c r="C10">
-        <v>0.001155833900205463</v>
+        <v>0.001014338787271196</v>
       </c>
       <c r="D10">
-        <v>0.7583220653511172</v>
+        <v>0.7149164559504366</v>
       </c>
       <c r="E10">
-        <v>1.03513886711494</v>
+        <v>1.032809430113941</v>
       </c>
       <c r="F10">
-        <v>72988.72244966761</v>
+        <v>77261.85062254904</v>
       </c>
       <c r="G10">
-        <v>98.30451965332031</v>
+        <v>0.7146373391151428</v>
       </c>
       <c r="H10">
-        <v>0.08368927240371704</v>
+        <v>1.03272545337677</v>
       </c>
       <c r="I10">
-        <v>0.001151366741396487</v>
+        <v>77441.59375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>94.82285629003067</v>
+        <v>95.43099149611669</v>
       </c>
       <c r="B11">
-        <v>0.1139657696122035</v>
+        <v>0.117747435132188</v>
       </c>
       <c r="C11">
-        <v>0.001105825192411558</v>
+        <v>0.001155492289612001</v>
       </c>
       <c r="D11">
-        <v>0.7037132608678947</v>
+        <v>0.700898654350199</v>
       </c>
       <c r="E11">
-        <v>1.031452835771838</v>
+        <v>1.031000690276929</v>
       </c>
       <c r="F11">
-        <v>69820.42962153727</v>
+        <v>66432.29719207993</v>
       </c>
       <c r="G11">
-        <v>104.9837036132812</v>
+        <v>0.7017715573310852</v>
       </c>
       <c r="H11">
-        <v>0.1075723916292191</v>
+        <v>1.030937194824219</v>
       </c>
       <c r="I11">
-        <v>0.001100832363590598</v>
+        <v>65922.734375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>98.29561105661837</v>
+        <v>111.4354113606119</v>
       </c>
       <c r="B12">
-        <v>0.0867553575976706</v>
+        <v>0.09792735292788715</v>
       </c>
       <c r="C12">
-        <v>0.0009441114904084773</v>
+        <v>0.001192209335422964</v>
       </c>
       <c r="D12">
-        <v>0.7333509378543116</v>
+        <v>0.7228637911922389</v>
       </c>
       <c r="E12">
-        <v>1.035000906902681</v>
+        <v>1.031833111580448</v>
       </c>
       <c r="F12">
-        <v>86253.3713517502</v>
+        <v>66425.55258270158</v>
       </c>
       <c r="G12">
-        <v>98.33365631103516</v>
+        <v>0.7233501076698303</v>
       </c>
       <c r="H12">
-        <v>0.08656837046146393</v>
+        <v>1.031862378120422</v>
       </c>
       <c r="I12">
-        <v>0.0009456824627704918</v>
+        <v>65790.1484375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>93.62923043169513</v>
+        <v>101.1326600410373</v>
       </c>
       <c r="B13">
-        <v>0.1023395073184932</v>
+        <v>0.1135789704395148</v>
       </c>
       <c r="C13">
-        <v>0.001047691974722346</v>
+        <v>0.0008890256571012658</v>
       </c>
       <c r="D13">
-        <v>0.7194051939104067</v>
+        <v>0.6743774679801835</v>
       </c>
       <c r="E13">
-        <v>1.032976132539577</v>
+        <v>1.031373309824868</v>
       </c>
       <c r="F13">
-        <v>75799.86689697165</v>
+        <v>82897.20479325813</v>
       </c>
       <c r="G13">
-        <v>93.66086578369141</v>
+        <v>0.6750433444976807</v>
       </c>
       <c r="H13">
-        <v>0.1022840142250061</v>
+        <v>1.031355857849121</v>
       </c>
       <c r="I13">
-        <v>0.001048504374921322</v>
+        <v>82648.6484375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>118.4430138880268</v>
+        <v>102.6672977817588</v>
       </c>
       <c r="B14">
-        <v>0.1107192603698578</v>
+        <v>0.1078194439056891</v>
       </c>
       <c r="C14">
-        <v>0.000917120946349509</v>
+        <v>0.001063925480947941</v>
       </c>
       <c r="D14">
-        <v>0.6614503213130907</v>
+        <v>0.7026196391448699</v>
       </c>
       <c r="E14">
-        <v>1.031246321126048</v>
+        <v>1.031510342624039</v>
       </c>
       <c r="F14">
-        <v>78282.99535352195</v>
+        <v>72324.81594804979</v>
       </c>
       <c r="G14">
-        <v>138.1073608398438</v>
+        <v>0.7022953629493713</v>
       </c>
       <c r="H14">
-        <v>0.09435322135686874</v>
+        <v>1.03150200843811</v>
       </c>
       <c r="I14">
-        <v>0.0009183171205222607</v>
+        <v>72459.609375</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>85.63108976137696</v>
+        <v>116.6830816598987</v>
       </c>
       <c r="B15">
-        <v>0.09829128635988246</v>
+        <v>0.09205967438154888</v>
       </c>
       <c r="C15">
-        <v>0.001146762070656294</v>
+        <v>0.0009072240764916553</v>
       </c>
       <c r="D15">
-        <v>0.7403880426453798</v>
+        <v>0.6956464564419574</v>
       </c>
       <c r="E15">
-        <v>1.034746972229099</v>
+        <v>1.032771325200475</v>
       </c>
       <c r="F15">
-        <v>71875.73654871825</v>
+        <v>83935.62639688494</v>
       </c>
       <c r="G15">
-        <v>81.776611328125</v>
+        <v>0.6964573860168457</v>
       </c>
       <c r="H15">
-        <v>0.1012948825955391</v>
+        <v>1.032673239707947</v>
       </c>
       <c r="I15">
-        <v>0.001141523825936019</v>
+        <v>83806.84375</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>84.19500539041377</v>
+        <v>83.18492246803046</v>
       </c>
       <c r="B16">
-        <v>0.08641230969367225</v>
+        <v>0.1123006485008809</v>
       </c>
       <c r="C16">
-        <v>0.0008480743000689126</v>
+        <v>0.0008120986445855115</v>
       </c>
       <c r="D16">
-        <v>0.7393190218304467</v>
+        <v>0.689193231070699</v>
       </c>
       <c r="E16">
-        <v>1.037906467224055</v>
+        <v>1.033510702563165</v>
       </c>
       <c r="F16">
-        <v>97937.38877344402</v>
+        <v>93837.49906414766</v>
       </c>
       <c r="G16">
-        <v>74.23311614990234</v>
+        <v>0.6895387768745422</v>
       </c>
       <c r="H16">
-        <v>0.09063374251127243</v>
+        <v>1.033268690109253</v>
       </c>
       <c r="I16">
-        <v>0.0008364312816411257</v>
+        <v>91845.6015625</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>93.86106857498228</v>
+        <v>83.81576594286379</v>
       </c>
       <c r="B17">
-        <v>0.0882243851547707</v>
+        <v>0.09594309958906869</v>
       </c>
       <c r="C17">
-        <v>0.0008872763409890126</v>
+        <v>0.001101282571178555</v>
       </c>
       <c r="D17">
-        <v>0.7286654402227625</v>
+        <v>0.7434163471211955</v>
       </c>
       <c r="E17">
-        <v>1.035473370469647</v>
+        <v>1.035594266942751</v>
       </c>
       <c r="F17">
-        <v>91373.45096814222</v>
+        <v>75377.83846040601</v>
       </c>
       <c r="G17">
-        <v>93.52394104003906</v>
+        <v>0.7438605427742004</v>
       </c>
       <c r="H17">
-        <v>0.08805130422115326</v>
+        <v>1.035043835639954</v>
       </c>
       <c r="I17">
-        <v>0.0008843843825161457</v>
+        <v>75524.9375</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>103.5681889466092</v>
+        <v>81.19290677076258</v>
       </c>
       <c r="B18">
-        <v>0.09737302915831496</v>
+        <v>0.1149389708146189</v>
       </c>
       <c r="C18">
-        <v>0.0008757513336356839</v>
+        <v>0.0009294480195554264</v>
       </c>
       <c r="D18">
-        <v>0.6972439242523064</v>
+        <v>0.7007942966215395</v>
       </c>
       <c r="E18">
-        <v>1.032932331098246</v>
+        <v>1.033308949851959</v>
       </c>
       <c r="F18">
-        <v>87510.69575126596</v>
+        <v>83429.7766818427</v>
       </c>
       <c r="G18">
-        <v>100.2322692871094</v>
+        <v>0.6984661221504211</v>
       </c>
       <c r="H18">
-        <v>0.09986521303653717</v>
+        <v>1.033042669296265</v>
       </c>
       <c r="I18">
-        <v>0.0008765645907260478</v>
+        <v>82878.6875</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>106.2396030402442</v>
+        <v>113.0384583563446</v>
       </c>
       <c r="B19">
-        <v>0.1011067559585244</v>
+        <v>0.1031858380657279</v>
       </c>
       <c r="C19">
-        <v>0.0009619868914551064</v>
+        <v>0.0009543186859356742</v>
       </c>
       <c r="D19">
-        <v>0.6991171835476434</v>
+        <v>0.6864408933641143</v>
       </c>
       <c r="E19">
-        <v>1.032152210082423</v>
+        <v>1.031682784533075</v>
       </c>
       <c r="F19">
-        <v>79651.35109116604</v>
+        <v>78495.33357414858</v>
       </c>
       <c r="G19">
-        <v>103.2892608642578</v>
+        <v>0.6870036721229553</v>
       </c>
       <c r="H19">
-        <v>0.1030538901686668</v>
+        <v>1.031634092330933</v>
       </c>
       <c r="I19">
-        <v>0.000962569669354707</v>
+        <v>78743.1328125</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>95.9725384958974</v>
+        <v>110.9035442783677</v>
       </c>
       <c r="B20">
-        <v>0.09409816789784517</v>
+        <v>0.1149637512172175</v>
       </c>
       <c r="C20">
-        <v>0.001096129553897025</v>
+        <v>0.00103461967235672</v>
       </c>
       <c r="D20">
-        <v>0.7360041668664519</v>
+        <v>0.6793646972258551</v>
       </c>
       <c r="E20">
-        <v>1.033817467194434</v>
+        <v>1.030698708548937</v>
       </c>
       <c r="F20">
-        <v>74361.51501304122</v>
+        <v>71426.37757296051</v>
       </c>
       <c r="G20">
-        <v>96.36653900146484</v>
+        <v>0.6790239214897156</v>
       </c>
       <c r="H20">
-        <v>0.09386754781007767</v>
+        <v>1.030445456504822</v>
       </c>
       <c r="I20">
-        <v>0.001096564577892423</v>
+        <v>71417.2109375</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>119.5713377272172</v>
+        <v>114.5042096881212</v>
       </c>
       <c r="B21">
-        <v>0.1110337975768533</v>
+        <v>0.107547099648773</v>
       </c>
       <c r="C21">
-        <v>0.001010547526211624</v>
+        <v>0.00112976860988011</v>
       </c>
       <c r="D21">
-        <v>0.6731918040380712</v>
+        <v>0.6977804745323232</v>
       </c>
       <c r="E21">
-        <v>1.030954138395525</v>
+        <v>1.030956009724942</v>
       </c>
       <c r="F21">
-        <v>72300.28847688934</v>
+        <v>67280.96655030428</v>
       </c>
       <c r="G21">
-        <v>130.8204956054688</v>
+        <v>0.6974489092826843</v>
       </c>
       <c r="H21">
-        <v>0.1011701226234436</v>
+        <v>1.030785322189331</v>
       </c>
       <c r="I21">
-        <v>0.00100487086456269</v>
+        <v>66675.7109375</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>94.19431213360454</v>
+        <v>118.7614942623296</v>
       </c>
       <c r="B22">
-        <v>0.109839867821968</v>
+        <v>0.1088298055162</v>
       </c>
       <c r="C22">
-        <v>0.0009951692075955525</v>
+        <v>0.001050559953619646</v>
       </c>
       <c r="D22">
-        <v>0.7013218946441373</v>
+        <v>0.6827718098353635</v>
       </c>
       <c r="E22">
-        <v>1.032082422450322</v>
+        <v>1.030945237443732</v>
       </c>
       <c r="F22">
-        <v>77469.89135751544</v>
+        <v>70626.40064168505</v>
       </c>
       <c r="G22">
-        <v>105.9136352539062</v>
+        <v>0.6822744011878967</v>
       </c>
       <c r="H22">
-        <v>0.1022627130150795</v>
+        <v>1.030587434768677</v>
       </c>
       <c r="I22">
-        <v>0.0009918935829773545</v>
+        <v>70232.3125</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>108.6789819027705</v>
+        <v>111.7268002306298</v>
       </c>
       <c r="B23">
-        <v>0.1167463951244314</v>
+        <v>0.1000519148175622</v>
       </c>
       <c r="C23">
-        <v>0.0008042176158529816</v>
+        <v>0.001146076372698427</v>
       </c>
       <c r="D23">
-        <v>0.6449976721917365</v>
+        <v>0.7148665515118584</v>
       </c>
       <c r="E23">
-        <v>1.031238413251881</v>
+        <v>1.031684109501938</v>
       </c>
       <c r="F23">
-        <v>87175.11273219282</v>
+        <v>68248.14291811716</v>
       </c>
       <c r="G23">
-        <v>135.8542327880859</v>
+        <v>0.7149112820625305</v>
       </c>
       <c r="H23">
-        <v>0.09680797159671783</v>
+        <v>1.031619429588318</v>
       </c>
       <c r="I23">
-        <v>0.0007934248424135149</v>
+        <v>68098.7578125</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>105.3931425235266</v>
+        <v>98.49001874708463</v>
       </c>
       <c r="B24">
-        <v>0.08153527922166892</v>
+        <v>0.1178781499599128</v>
       </c>
       <c r="C24">
-        <v>0.0009707580136774158</v>
+        <v>0.0009112301088452841</v>
       </c>
       <c r="D24">
-        <v>0.7394340977528826</v>
+        <v>0.6739449663271293</v>
       </c>
       <c r="E24">
-        <v>1.035053468842014</v>
+        <v>1.031149933761538</v>
       </c>
       <c r="F24">
-        <v>84494.75934622377</v>
+        <v>80811.52741395582</v>
       </c>
       <c r="G24">
-        <v>103.3848648071289</v>
+        <v>0.6739618182182312</v>
       </c>
       <c r="H24">
-        <v>0.08244813978672028</v>
+        <v>1.031065464019775</v>
       </c>
       <c r="I24">
-        <v>0.0009733766783028841</v>
+        <v>80713.8046875</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>112.271485943723</v>
+        <v>110.9965416426828</v>
       </c>
       <c r="B25">
-        <v>0.1155108135953629</v>
+        <v>0.1056443120923367</v>
       </c>
       <c r="C25">
-        <v>0.0008289162234980824</v>
+        <v>0.001116832212034963</v>
       </c>
       <c r="D25">
-        <v>0.6465663370512579</v>
+        <v>0.7031361259808071</v>
       </c>
       <c r="E25">
-        <v>1.03122666653677</v>
+        <v>1.031224849014623</v>
       </c>
       <c r="F25">
-        <v>84698.12828038105</v>
+        <v>68738.83122165086</v>
       </c>
       <c r="G25">
-        <v>141.9169921875</v>
+        <v>0.7027291059494019</v>
       </c>
       <c r="H25">
-        <v>0.09301988035440445</v>
+        <v>1.031171798706055</v>
       </c>
       <c r="I25">
-        <v>0.0008234416600316763</v>
+        <v>68486.28125</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>118.6677029776636</v>
+        <v>85.0366324545047</v>
       </c>
       <c r="B26">
-        <v>0.09578877389140622</v>
+        <v>0.0970151727513896</v>
       </c>
       <c r="C26">
-        <v>0.0008856373763102841</v>
+        <v>0.0008767715545611445</v>
       </c>
       <c r="D26">
-        <v>0.6823751596407812</v>
+        <v>0.7212496703066936</v>
       </c>
       <c r="E26">
-        <v>1.0324140789349</v>
+        <v>1.035411357250042</v>
       </c>
       <c r="F26">
-        <v>84098.72460955067</v>
+        <v>91637.49349395366</v>
       </c>
       <c r="G26">
-        <v>121.5503158569336</v>
+        <v>0.7213442325592041</v>
       </c>
       <c r="H26">
-        <v>0.09321368485689163</v>
+        <v>1.035074830055237</v>
       </c>
       <c r="I26">
-        <v>0.0008936867234297097</v>
+        <v>90442.3515625</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>115.2796305607087</v>
+        <v>105.4848032496401</v>
       </c>
       <c r="B27">
-        <v>0.1148319292737067</v>
+        <v>0.1041705373578038</v>
       </c>
       <c r="C27">
-        <v>0.001169495309499196</v>
+        <v>0.001177491068033045</v>
       </c>
       <c r="D27">
-        <v>0.6888917234231884</v>
+        <v>0.7158558035829405</v>
       </c>
       <c r="E27">
-        <v>1.030404591259193</v>
+        <v>1.031537750932059</v>
       </c>
       <c r="F27">
-        <v>63985.52237580124</v>
+        <v>66606.44255704015</v>
       </c>
       <c r="G27">
-        <v>112.2233581542969</v>
+        <v>0.7162432670593262</v>
       </c>
       <c r="H27">
-        <v>0.1147429496049881</v>
+        <v>1.031531929969788</v>
       </c>
       <c r="I27">
-        <v>0.001150851487182081</v>
+        <v>66195.5703125</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>110.3706388283983</v>
+        <v>86.01970576234247</v>
       </c>
       <c r="B28">
-        <v>0.1074786258013067</v>
+        <v>0.08115271970328804</v>
       </c>
       <c r="C28">
-        <v>0.0008884381461154638</v>
+        <v>0.001073494053848722</v>
       </c>
       <c r="D28">
-        <v>0.6725288491260085</v>
+        <v>0.7686366576212547</v>
       </c>
       <c r="E28">
-        <v>1.031581678851069</v>
+        <v>1.038519993711841</v>
       </c>
       <c r="F28">
-        <v>82535.66293265024</v>
+        <v>80737.07906334888</v>
       </c>
       <c r="G28">
-        <v>118.3149032592773</v>
+        <v>0.7667141556739807</v>
       </c>
       <c r="H28">
-        <v>0.1018832623958588</v>
+        <v>1.03705883026123</v>
       </c>
       <c r="I28">
-        <v>0.0008887223084457219</v>
+        <v>80901.4453125</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>107.7711975302747</v>
+        <v>117.4307012492322</v>
       </c>
       <c r="B29">
-        <v>0.1191037202355067</v>
+        <v>0.09222187574112717</v>
       </c>
       <c r="C29">
-        <v>0.001140465773205656</v>
+        <v>0.0008884810586528869</v>
       </c>
       <c r="D29">
-        <v>0.6866650875835119</v>
+        <v>0.6913258647764083</v>
       </c>
       <c r="E29">
-        <v>1.030301566855103</v>
+        <v>1.032781171214299</v>
       </c>
       <c r="F29">
-        <v>65508.00103160247</v>
+        <v>85125.14020514555</v>
       </c>
       <c r="G29">
-        <v>112.4756011962891</v>
+        <v>0.6929113864898682</v>
       </c>
       <c r="H29">
-        <v>0.1149754300713539</v>
+        <v>1.03262984752655</v>
       </c>
       <c r="I29">
-        <v>0.001128574833273888</v>
+        <v>84985.8125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>93.55164674347689</v>
+        <v>100.8564384750557</v>
       </c>
       <c r="B30">
-        <v>0.1101636853437583</v>
+        <v>0.1062786872952407</v>
       </c>
       <c r="C30">
-        <v>0.001118732019883225</v>
+        <v>0.001175366049020141</v>
       </c>
       <c r="D30">
-        <v>0.7118915586209253</v>
+        <v>0.7160858323279562</v>
       </c>
       <c r="E30">
-        <v>1.031952152387034</v>
+        <v>1.031646387282388</v>
       </c>
       <c r="F30">
-        <v>69988.35031201631</v>
+        <v>66848.48321000017</v>
       </c>
       <c r="G30">
-        <v>93.77783203125</v>
+        <v>0.7167258262634277</v>
       </c>
       <c r="H30">
-        <v>0.1095628142356873</v>
+        <v>1.03169059753418</v>
       </c>
       <c r="I30">
-        <v>0.001114261918701231</v>
+        <v>66576.8359375</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>86.18952844102186</v>
+        <v>96.65480951741816</v>
       </c>
       <c r="B31">
-        <v>0.09469024690882596</v>
+        <v>0.09177119341167998</v>
       </c>
       <c r="C31">
-        <v>0.0008663877800823694</v>
+        <v>0.001090493813378289</v>
       </c>
       <c r="D31">
-        <v>0.722940477140147</v>
+        <v>0.7393378848551437</v>
       </c>
       <c r="E31">
-        <v>1.035717231969644</v>
+        <v>1.034127503779021</v>
       </c>
       <c r="F31">
-        <v>92992.4583121184</v>
+        <v>75157.52364805204</v>
       </c>
       <c r="G31">
-        <v>82.7540283203125</v>
+        <v>0.7392576932907104</v>
       </c>
       <c r="H31">
-        <v>0.09608466178178787</v>
+        <v>1.034123539924622</v>
       </c>
       <c r="I31">
-        <v>0.0008656364516355097</v>
+        <v>75381.6796875</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>82.85564635725483</v>
+        <v>90.77074958725981</v>
       </c>
       <c r="B32">
-        <v>0.1000416756093091</v>
+        <v>0.1046261198091555</v>
       </c>
       <c r="C32">
-        <v>0.001041438325796997</v>
+        <v>0.0009035468962782332</v>
       </c>
       <c r="D32">
-        <v>0.7330200121531264</v>
+        <v>0.7039793198119177</v>
       </c>
       <c r="E32">
-        <v>1.035101207277421</v>
+        <v>1.033249898130463</v>
       </c>
       <c r="F32">
-        <v>78440.44818529973</v>
+        <v>86032.53825126126</v>
       </c>
       <c r="G32">
-        <v>79.870849609375</v>
+        <v>0.7044165730476379</v>
       </c>
       <c r="H32">
-        <v>0.1018459051847458</v>
+        <v>1.033223986625671</v>
       </c>
       <c r="I32">
-        <v>0.001043568714521825</v>
+        <v>85931.0234375</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>89.8827327152749</v>
+        <v>110.7497630927721</v>
       </c>
       <c r="B33">
-        <v>0.09515454392164714</v>
+        <v>0.09720778438563397</v>
       </c>
       <c r="C33">
-        <v>0.000849342222209657</v>
+        <v>0.0008876203601682522</v>
       </c>
       <c r="D33">
-        <v>0.7152421017016708</v>
+        <v>0.6901788992722636</v>
       </c>
       <c r="E33">
-        <v>1.034914864437824</v>
+        <v>1.03248806070577</v>
       </c>
       <c r="F33">
-        <v>93533.08339234548</v>
+        <v>85143.38850386722</v>
       </c>
       <c r="G33">
-        <v>90.06999969482422</v>
+        <v>0.6914076805114746</v>
       </c>
       <c r="H33">
-        <v>0.09443672746419907</v>
+        <v>1.032455801963806</v>
       </c>
       <c r="I33">
-        <v>0.0008471254841424525</v>
+        <v>85062.6796875</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>97.34548284057892</v>
+        <v>98.28112460820776</v>
       </c>
       <c r="B34">
-        <v>0.09470464127727971</v>
+        <v>0.08571084588890483</v>
       </c>
       <c r="C34">
-        <v>0.00108933051658148</v>
+        <v>0.001007134548759403</v>
       </c>
       <c r="D34">
-        <v>0.7330969330357789</v>
+        <v>0.7422798747839461</v>
       </c>
       <c r="E34">
-        <v>1.033567255278163</v>
+        <v>1.035108364864163</v>
       </c>
       <c r="F34">
-        <v>74432.53457114066</v>
+        <v>81924.5274006101</v>
       </c>
       <c r="G34">
-        <v>97.42850494384766</v>
+        <v>0.7414772510528564</v>
       </c>
       <c r="H34">
-        <v>0.09458853304386139</v>
+        <v>1.034951448440552</v>
       </c>
       <c r="I34">
-        <v>0.001090292469598353</v>
+        <v>81890.171875</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>100.8622380821771</v>
+        <v>102.6825615020481</v>
       </c>
       <c r="B35">
-        <v>0.09062762859842605</v>
+        <v>0.0920928124765726</v>
       </c>
       <c r="C35">
-        <v>0.001053884222576476</v>
+        <v>0.0008140632021724524</v>
       </c>
       <c r="D35">
-        <v>0.7343990021787085</v>
+        <v>0.6984930615046818</v>
       </c>
       <c r="E35">
-        <v>1.033835270713441</v>
+        <v>1.033801289109046</v>
       </c>
       <c r="F35">
-        <v>77079.89311581993</v>
+        <v>94595.76326410174</v>
       </c>
       <c r="G35">
-        <v>101.2978363037109</v>
+        <v>0.7006757855415344</v>
       </c>
       <c r="H35">
-        <v>0.09043341875076294</v>
+        <v>1.033831596374512</v>
       </c>
       <c r="I35">
-        <v>0.00105469929985702</v>
+        <v>93145.4140625</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>110.7046786143549</v>
+        <v>81.1369067972385</v>
       </c>
       <c r="B36">
-        <v>0.09984203848127329</v>
+        <v>0.1027425741031208</v>
       </c>
       <c r="C36">
-        <v>0.001122277669260724</v>
+        <v>0.0008853303766928711</v>
       </c>
       <c r="D36">
-        <v>0.7140591480071109</v>
+        <v>0.716609925443075</v>
       </c>
       <c r="E36">
-        <v>1.031768580403927</v>
+        <v>1.035242401281537</v>
       </c>
       <c r="F36">
-        <v>69655.20730074689</v>
+        <v>90149.4161812352</v>
       </c>
       <c r="G36">
-        <v>105.1700057983398</v>
+        <v>0.7164406776428223</v>
       </c>
       <c r="H36">
-        <v>0.1026882827281952</v>
+        <v>1.034726500511169</v>
       </c>
       <c r="I36">
-        <v>0.001122939866036177</v>
+        <v>88902.6953125</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>117.9823137485116</v>
+        <v>104.6112267514437</v>
       </c>
       <c r="B37">
-        <v>0.1071240749377647</v>
+        <v>0.1035621467844425</v>
       </c>
       <c r="C37">
-        <v>0.0009919188918555487</v>
+        <v>0.0009704772462480871</v>
       </c>
       <c r="D37">
-        <v>0.6790406789339752</v>
+        <v>0.6977088312201652</v>
       </c>
       <c r="E37">
-        <v>1.03121792195605</v>
+        <v>1.031977861782497</v>
       </c>
       <c r="F37">
-        <v>74443.48408253588</v>
+        <v>78777.28742279726</v>
       </c>
       <c r="G37">
-        <v>125.7409896850586</v>
+        <v>0.697328507900238</v>
       </c>
       <c r="H37">
-        <v>0.1003993228077888</v>
+        <v>1.031993627548218</v>
       </c>
       <c r="I37">
-        <v>0.0009900468867272139</v>
+        <v>78740.8828125</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>84.99923847866282</v>
+        <v>104.3940715871387</v>
       </c>
       <c r="B38">
-        <v>0.09127189901901635</v>
+        <v>0.102913496217743</v>
       </c>
       <c r="C38">
-        <v>0.001162623342133701</v>
+        <v>0.000950675538656223</v>
       </c>
       <c r="D38">
-        <v>0.7545886458486525</v>
+        <v>0.6966317743966153</v>
       </c>
       <c r="E38">
-        <v>1.036217854923258</v>
+        <v>1.032095914577156</v>
       </c>
       <c r="F38">
-        <v>72646.94727156521</v>
+        <v>80320.57700922184</v>
       </c>
       <c r="G38">
-        <v>75.80591583251953</v>
+        <v>0.6965118050575256</v>
       </c>
       <c r="H38">
-        <v>0.09756994247436523</v>
+        <v>1.032091379165649</v>
       </c>
       <c r="I38">
-        <v>0.001157427206635475</v>
+        <v>80218.8671875</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>84.59484537412959</v>
+        <v>104.5837284488568</v>
       </c>
       <c r="B39">
-        <v>0.1009556710332248</v>
+        <v>0.1060053617864398</v>
       </c>
       <c r="C39">
-        <v>0.0008233480332220598</v>
+        <v>0.0009857218287205745</v>
       </c>
       <c r="D39">
-        <v>0.7080531594322872</v>
+        <v>0.695322102979588</v>
       </c>
       <c r="E39">
-        <v>1.034907305388146</v>
+        <v>1.031722457411365</v>
       </c>
       <c r="F39">
-        <v>95573.00500787819</v>
+        <v>77213.73242142811</v>
       </c>
       <c r="G39">
-        <v>87.44361114501953</v>
+        <v>0.6954339146614075</v>
       </c>
       <c r="H39">
-        <v>0.09768088161945343</v>
+        <v>1.031731843948364</v>
       </c>
       <c r="I39">
-        <v>0.000818209839053452</v>
+        <v>77175.140625</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>103.5159685341971</v>
+        <v>117.3946050419503</v>
       </c>
       <c r="B40">
-        <v>0.08500158313597964</v>
+        <v>0.1059623386226816</v>
       </c>
       <c r="C40">
-        <v>0.0009188138093333077</v>
+        <v>0.0009128320546284192</v>
       </c>
       <c r="D40">
-        <v>0.7277293710130082</v>
+        <v>0.6700945400656636</v>
       </c>
       <c r="E40">
-        <v>1.034695202580137</v>
+        <v>1.031543576689112</v>
       </c>
       <c r="F40">
-        <v>87726.62416155901</v>
+        <v>79846.95430622832</v>
       </c>
       <c r="G40">
-        <v>103.3846893310547</v>
+        <v>0.6728787422180176</v>
       </c>
       <c r="H40">
-        <v>0.08511219918727875</v>
+        <v>1.031202673912048</v>
       </c>
       <c r="I40">
-        <v>0.0009176044259220362</v>
+        <v>80211.625</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>109.6194277362438</v>
+        <v>107.1272247580225</v>
       </c>
       <c r="B41">
-        <v>0.08666618026125322</v>
+        <v>0.09731165206894359</v>
       </c>
       <c r="C41">
-        <v>0.001084299069162703</v>
+        <v>0.001034018838695971</v>
       </c>
       <c r="D41">
-        <v>0.7365776614170506</v>
+        <v>0.7134133319763776</v>
       </c>
       <c r="E41">
-        <v>1.033560921989704</v>
+        <v>1.032383244715831</v>
       </c>
       <c r="F41">
-        <v>74933.57895884526</v>
+        <v>75743.91139820353</v>
       </c>
       <c r="G41">
-        <v>109.0103607177734</v>
+        <v>0.7138527631759644</v>
       </c>
       <c r="H41">
-        <v>0.08703906089067459</v>
+        <v>1.032390117645264</v>
       </c>
       <c r="I41">
-        <v>0.00108435598667711</v>
+        <v>75602.890625</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>113.6472441336802</v>
+        <v>94.49281090024398</v>
       </c>
       <c r="B42">
-        <v>0.08223513554426939</v>
+        <v>0.1155443409212008</v>
       </c>
       <c r="C42">
-        <v>0.0009678994008720971</v>
+        <v>0.001142628776636506</v>
       </c>
       <c r="D42">
-        <v>0.7282938065894834</v>
+        <v>0.7042122497507725</v>
       </c>
       <c r="E42">
-        <v>1.034143899052393</v>
+        <v>1.031292712160554</v>
       </c>
       <c r="F42">
-        <v>83001.31164409536</v>
+        <v>67592.10765335572</v>
       </c>
       <c r="G42">
-        <v>102.640983581543</v>
+        <v>0.7054086923599243</v>
       </c>
       <c r="H42">
-        <v>0.08836736530065536</v>
+        <v>1.031299710273743</v>
       </c>
       <c r="I42">
-        <v>0.0009713241597637534</v>
+        <v>67204.9140625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>117.0843036106415</v>
+        <v>97.5316979453971</v>
       </c>
       <c r="B43">
-        <v>0.1184523334844203</v>
+        <v>0.09480852070228082</v>
       </c>
       <c r="C43">
-        <v>0.0008717992866357734</v>
+        <v>0.0008500752424903414</v>
       </c>
       <c r="D43">
-        <v>0.6432112300814457</v>
+        <v>0.7060457030033466</v>
       </c>
       <c r="E43">
-        <v>1.031003275085741</v>
+        <v>1.033895142300206</v>
       </c>
       <c r="F43">
-        <v>79905.71302318215</v>
+        <v>91755.36511022542</v>
       </c>
       <c r="G43">
-        <v>151.1826934814453</v>
+        <v>0.7071259617805481</v>
       </c>
       <c r="H43">
-        <v>0.09076592326164246</v>
+        <v>1.03391432762146</v>
       </c>
       <c r="I43">
-        <v>0.0008717731689102948</v>
+        <v>91011.109375</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>118.9499604802478</v>
+        <v>107.7470005247803</v>
       </c>
       <c r="B44">
-        <v>0.08055168315315499</v>
+        <v>0.09748595126749686</v>
       </c>
       <c r="C44">
-        <v>0.000846029441505123</v>
+        <v>0.001006812484821105</v>
       </c>
       <c r="D44">
-        <v>0.7062832526067457</v>
+        <v>0.7093933098449074</v>
       </c>
       <c r="E44">
-        <v>1.034314658081085</v>
+        <v>1.032365395088041</v>
       </c>
       <c r="F44">
-        <v>91830.43882445815</v>
+        <v>77311.84171533454</v>
       </c>
       <c r="G44">
-        <v>88.39450836181641</v>
+        <v>0.7090123891830444</v>
       </c>
       <c r="H44">
-        <v>0.1009325906634331</v>
+        <v>1.03236997127533</v>
       </c>
       <c r="I44">
-        <v>0.0008539080736227334</v>
+        <v>77379.7265625</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>96.07229850896421</v>
+        <v>82.76115526150562</v>
       </c>
       <c r="B45">
-        <v>0.08740056626966584</v>
+        <v>0.1153631132106164</v>
       </c>
       <c r="C45">
-        <v>0.001124394645870144</v>
+        <v>0.0008557733479345759</v>
       </c>
       <c r="D45">
-        <v>0.7509016139505744</v>
+        <v>0.6904745472247648</v>
       </c>
       <c r="E45">
-        <v>1.034954036294228</v>
+        <v>1.033118990978208</v>
       </c>
       <c r="F45">
-        <v>74288.10970845472</v>
+        <v>89129.26059555032</v>
       </c>
       <c r="G45">
-        <v>94.95803070068359</v>
+        <v>0.6892431974411011</v>
       </c>
       <c r="H45">
-        <v>0.08784390240907669</v>
+        <v>1.032852649688721</v>
       </c>
       <c r="I45">
-        <v>0.001124388654716313</v>
+        <v>87873.140625</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>95.30922538994895</v>
+        <v>106.5371351218709</v>
       </c>
       <c r="B46">
-        <v>0.1044242954232256</v>
+        <v>0.1120025838162596</v>
       </c>
       <c r="C46">
-        <v>0.000989472241012129</v>
+        <v>0.001085007432967264</v>
       </c>
       <c r="D46">
-        <v>0.7086496419739027</v>
+        <v>0.6938899483970491</v>
       </c>
       <c r="E46">
-        <v>1.032602918106318</v>
+        <v>1.030903532724419</v>
       </c>
       <c r="F46">
-        <v>78876.3314480704</v>
+        <v>69787.83105223658</v>
       </c>
       <c r="G46">
-        <v>95.78474426269531</v>
+        <v>0.6941260099411011</v>
       </c>
       <c r="H46">
-        <v>0.10408004373312</v>
+        <v>1.030867695808411</v>
       </c>
       <c r="I46">
-        <v>0.0009901815792545676</v>
+        <v>69754.34375</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>86.19435381318303</v>
+        <v>106.6888815770047</v>
       </c>
       <c r="B47">
-        <v>0.08358998981837847</v>
+        <v>0.10799228561196</v>
       </c>
       <c r="C47">
-        <v>0.001149852445767835</v>
+        <v>0.0009592561521919812</v>
       </c>
       <c r="D47">
-        <v>0.7680610970732911</v>
+        <v>0.6863222732138867</v>
       </c>
       <c r="E47">
-        <v>1.037739206075698</v>
+        <v>1.031485508244946</v>
       </c>
       <c r="F47">
-        <v>75150.0477460617</v>
+        <v>78161.3104917923</v>
       </c>
       <c r="G47">
-        <v>71.70156097412109</v>
+        <v>0.6861029863357544</v>
       </c>
       <c r="H47">
-        <v>0.09129264205694199</v>
+        <v>1.031461715698242</v>
       </c>
       <c r="I47">
-        <v>0.001145939226262271</v>
+        <v>78180.5703125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>107.2492967864181</v>
+        <v>88.64720500819999</v>
       </c>
       <c r="B48">
-        <v>0.1149700678378315</v>
+        <v>0.08432918194289275</v>
       </c>
       <c r="C48">
-        <v>0.001091447660249062</v>
+        <v>0.001025644683012808</v>
       </c>
       <c r="D48">
-        <v>0.6890914446606669</v>
+        <v>0.7562641128533033</v>
       </c>
       <c r="E48">
-        <v>1.030668449464769</v>
+        <v>1.037121702298637</v>
       </c>
       <c r="F48">
-        <v>68798.95753649237</v>
+        <v>82694.22254685163</v>
       </c>
       <c r="G48">
-        <v>108.842414855957</v>
+        <v>0.7545306086540222</v>
       </c>
       <c r="H48">
-        <v>0.1136021912097931</v>
+        <v>1.036325454711914</v>
       </c>
       <c r="I48">
-        <v>0.001087652985006571</v>
+        <v>82716.7890625</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>106.1449558538001</v>
+        <v>85.45417815587153</v>
       </c>
       <c r="B49">
-        <v>0.1086089519929977</v>
+        <v>0.1164434163016057</v>
       </c>
       <c r="C49">
-        <v>0.0009646133228576964</v>
+        <v>0.0008758479771603934</v>
       </c>
       <c r="D49">
-        <v>0.6865865140438194</v>
+        <v>0.6878212272522747</v>
       </c>
       <c r="E49">
-        <v>1.031436042477189</v>
+        <v>1.032556152861056</v>
       </c>
       <c r="F49">
-        <v>77760.32072786635</v>
+        <v>86541.90034558781</v>
       </c>
       <c r="G49">
-        <v>105.8578643798828</v>
+        <v>0.6866509914398193</v>
       </c>
       <c r="H49">
-        <v>0.1088031232357025</v>
+        <v>1.032411336898804</v>
       </c>
       <c r="I49">
-        <v>0.0009650962892919779</v>
+        <v>85546.15625</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>114.1925929603489</v>
+        <v>92.76492430488469</v>
       </c>
       <c r="B50">
-        <v>0.1182821509353787</v>
+        <v>0.1083981046223463</v>
       </c>
       <c r="C50">
-        <v>0.0009504172286608287</v>
+        <v>0.0008607828798568635</v>
       </c>
       <c r="D50">
-        <v>0.6596111036803401</v>
+        <v>0.6896293822247288</v>
       </c>
       <c r="E50">
-        <v>1.03069784216862</v>
+        <v>1.032629445520842</v>
       </c>
       <c r="F50">
-        <v>75284.58361164908</v>
+        <v>88164.86777930609</v>
       </c>
       <c r="G50">
-        <v>135.6570281982422</v>
+        <v>0.6902236938476562</v>
       </c>
       <c r="H50">
-        <v>0.1004170700907707</v>
+        <v>1.032659292221069</v>
       </c>
       <c r="I50">
-        <v>0.0009469970827922225</v>
+        <v>87478.640625</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>84.21280349444666</v>
+        <v>94.65756039133619</v>
       </c>
       <c r="B51">
-        <v>0.100299307951883</v>
+        <v>0.1195544433333726</v>
       </c>
       <c r="C51">
-        <v>0.001006130119242841</v>
+        <v>0.0009953181480460993</v>
       </c>
       <c r="D51">
-        <v>0.7286800420230491</v>
+        <v>0.6854854483048188</v>
       </c>
       <c r="E51">
-        <v>1.034820284498246</v>
+        <v>1.031098771365783</v>
       </c>
       <c r="F51">
-        <v>80600.21591393145</v>
+        <v>75383.59993599266</v>
       </c>
       <c r="G51">
-        <v>83.00258636474609</v>
+        <v>0.6847928166389465</v>
       </c>
       <c r="H51">
-        <v>0.1010469645261765</v>
+        <v>1.031049966812134</v>
       </c>
       <c r="I51">
-        <v>0.001008278923109174</v>
+        <v>75538.4140625</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>99.91285638806713</v>
+        <v>102.7516628370014</v>
       </c>
       <c r="B52">
-        <v>0.09217596815087578</v>
+        <v>0.0862586260482042</v>
       </c>
       <c r="C52">
-        <v>0.001152508699215741</v>
+        <v>0.000943401233271914</v>
       </c>
       <c r="D52">
-        <v>0.7404075967257623</v>
+        <v>0.7291462628091541</v>
       </c>
       <c r="E52">
-        <v>1.033576656161599</v>
+        <v>1.034362762442925</v>
       </c>
       <c r="F52">
-        <v>71053.5897756389</v>
+        <v>85600.81365638027</v>
       </c>
       <c r="G52">
-        <v>99.71010589599609</v>
+        <v>0.7283429503440857</v>
       </c>
       <c r="H52">
-        <v>0.09224321693181992</v>
+        <v>1.034497022628784</v>
       </c>
       <c r="I52">
-        <v>0.001148025505244732</v>
+        <v>85410.6015625</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>103.178353239085</v>
+        <v>97.59322355361761</v>
       </c>
       <c r="B53">
-        <v>0.1019403867978567</v>
+        <v>0.1144302762842485</v>
       </c>
       <c r="C53">
-        <v>0.001093011494108517</v>
+        <v>0.001172646150067286</v>
       </c>
       <c r="D53">
-        <v>0.7148553361117016</v>
+        <v>0.7054002430936264</v>
       </c>
       <c r="E53">
-        <v>1.032037741105604</v>
+        <v>1.031104261354251</v>
       </c>
       <c r="F53">
-        <v>71803.29035701341</v>
+        <v>65890.78658717666</v>
       </c>
       <c r="G53">
-        <v>104.7065277099609</v>
+        <v>0.7066509127616882</v>
       </c>
       <c r="H53">
-        <v>0.1009234115481377</v>
+        <v>1.031095743179321</v>
       </c>
       <c r="I53">
-        <v>0.001093755476176739</v>
+        <v>65587.8125</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>89.86922212840625</v>
+        <v>119.1439026717536</v>
       </c>
       <c r="B54">
-        <v>0.1168877833953954</v>
+        <v>0.08676996614875775</v>
       </c>
       <c r="C54">
-        <v>0.0008060235264221761</v>
+        <v>0.00110400558833012</v>
       </c>
       <c r="D54">
-        <v>0.6718137772565331</v>
+        <v>0.7290545606182485</v>
       </c>
       <c r="E54">
-        <v>1.032130806916685</v>
+        <v>1.032907513995086</v>
       </c>
       <c r="F54">
-        <v>91526.34544743832</v>
+        <v>72479.6296109854</v>
       </c>
       <c r="G54">
-        <v>100.9572601318359</v>
+        <v>0.7284944653511047</v>
       </c>
       <c r="H54">
-        <v>0.1075192913413048</v>
+        <v>1.03281831741333</v>
       </c>
       <c r="I54">
-        <v>0.0007938930066302419</v>
+        <v>72098.7109375</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>87.0260343243077</v>
+        <v>84.40044323210628</v>
       </c>
       <c r="B55">
-        <v>0.1008138333852267</v>
+        <v>0.1045298516813095</v>
       </c>
       <c r="C55">
-        <v>0.001076108479199833</v>
+        <v>0.001097474347834486</v>
       </c>
       <c r="D55">
-        <v>0.730376451107702</v>
+        <v>0.7276451006335699</v>
       </c>
       <c r="E55">
-        <v>1.034136130811284</v>
+        <v>1.034011041081854</v>
       </c>
       <c r="F55">
-        <v>75349.67607187008</v>
+        <v>73602.51374138611</v>
       </c>
       <c r="G55">
-        <v>86.42799377441406</v>
+        <v>0.7295324206352234</v>
       </c>
       <c r="H55">
-        <v>0.1014620587229729</v>
+        <v>1.033728122711182</v>
       </c>
       <c r="I55">
-        <v>0.001076978980563581</v>
+        <v>73765.515625</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>114.0953097782649</v>
+        <v>88.58817853766813</v>
       </c>
       <c r="B56">
-        <v>0.09087468333191927</v>
+        <v>0.08525401429362491</v>
       </c>
       <c r="C56">
-        <v>0.001164443881756639</v>
+        <v>0.001158255229949982</v>
       </c>
       <c r="D56">
-        <v>0.7314273069296758</v>
+        <v>0.7633794966867676</v>
       </c>
       <c r="E56">
-        <v>1.032544732237593</v>
+        <v>1.036772741078652</v>
       </c>
       <c r="F56">
-        <v>68968.9767657419</v>
+        <v>73883.31084644256</v>
       </c>
       <c r="G56">
-        <v>110.5324249267578</v>
+        <v>0.7640138268470764</v>
       </c>
       <c r="H56">
-        <v>0.09234288334846497</v>
+        <v>1.03600013256073</v>
       </c>
       <c r="I56">
-        <v>0.001157156890258193</v>
+        <v>74063.8515625</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>82.69488694299042</v>
+        <v>86.72357706296171</v>
       </c>
       <c r="B57">
-        <v>0.1147937606918059</v>
+        <v>0.1136416719159027</v>
       </c>
       <c r="C57">
-        <v>0.001082497141793565</v>
+        <v>0.0008367045953397895</v>
       </c>
       <c r="D57">
-        <v>0.7114535321544778</v>
+        <v>0.6856654575039429</v>
       </c>
       <c r="E57">
-        <v>1.032915486381735</v>
+        <v>1.032790789802179</v>
       </c>
       <c r="F57">
-        <v>72664.8197206356</v>
+        <v>90324.24573556196</v>
       </c>
       <c r="G57">
-        <v>81.88812255859375</v>
+        <v>0.6859975457191467</v>
       </c>
       <c r="H57">
-        <v>0.1145649254322052</v>
+        <v>1.032703995704651</v>
       </c>
       <c r="I57">
-        <v>0.00107184995431453</v>
+        <v>88787.046875</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>98.84836059562161</v>
+        <v>106.0017360729083</v>
       </c>
       <c r="B58">
-        <v>0.09497930719979213</v>
+        <v>0.1120466818173474</v>
       </c>
       <c r="C58">
-        <v>0.0008733885929315258</v>
+        <v>0.001020459072262421</v>
       </c>
       <c r="D58">
-        <v>0.707424798571813</v>
+        <v>0.6877098068144484</v>
       </c>
       <c r="E58">
-        <v>1.033682375974856</v>
+        <v>1.031046652848445</v>
       </c>
       <c r="F58">
-        <v>89405.92067125688</v>
+        <v>73545.58559935106</v>
       </c>
       <c r="G58">
-        <v>98.1163330078125</v>
+        <v>0.6872108578681946</v>
       </c>
       <c r="H58">
-        <v>0.09566657245159149</v>
+        <v>1.030995726585388</v>
       </c>
       <c r="I58">
-        <v>0.0008725796942599118</v>
+        <v>73571</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>84.94096956929748</v>
+        <v>90.32920852588759</v>
       </c>
       <c r="B59">
-        <v>0.0804545864781205</v>
+        <v>0.1027086991797944</v>
       </c>
       <c r="C59">
-        <v>0.0009935392246720079</v>
+        <v>0.001033114010541766</v>
       </c>
       <c r="D59">
-        <v>0.7652546024581972</v>
+        <v>0.7207335476221508</v>
       </c>
       <c r="E59">
-        <v>1.03910535293656</v>
+        <v>1.033374621300533</v>
       </c>
       <c r="F59">
-        <v>86984.66508684293</v>
+        <v>77169.51657621456</v>
       </c>
       <c r="G59">
-        <v>67.07215118408203</v>
+        <v>0.7211425304412842</v>
       </c>
       <c r="H59">
-        <v>0.08876136690378189</v>
+        <v>1.03336238861084</v>
       </c>
       <c r="I59">
-        <v>0.001003292854875326</v>
+        <v>77083.71875</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>98.31673437515882</v>
+        <v>98.67940656262739</v>
       </c>
       <c r="B60">
-        <v>0.09010943462649809</v>
+        <v>0.09636165210798399</v>
       </c>
       <c r="C60">
-        <v>0.0008590064698627904</v>
+        <v>0.001181075733020285</v>
       </c>
       <c r="D60">
-        <v>0.7154406466671918</v>
+        <v>0.7356371608001551</v>
       </c>
       <c r="E60">
-        <v>1.034537291922868</v>
+        <v>1.033059248528237</v>
       </c>
       <c r="F60">
-        <v>92228.82783423671</v>
+        <v>68775.78930627124</v>
       </c>
       <c r="G60">
-        <v>98.82757568359375</v>
+        <v>0.7369955778121948</v>
       </c>
       <c r="H60">
-        <v>0.08928334712982178</v>
+        <v>1.033088445663452</v>
       </c>
       <c r="I60">
-        <v>0.0008543868316337466</v>
+        <v>68492.8359375</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>118.8141774713397</v>
+        <v>89.98166729905992</v>
       </c>
       <c r="B61">
-        <v>0.09287488448781622</v>
+        <v>0.08311165655481778</v>
       </c>
       <c r="C61">
-        <v>0.0009447271647791168</v>
+        <v>0.0009185233276831638</v>
       </c>
       <c r="D61">
-        <v>0.6972414203158651</v>
+        <v>0.7473799297868441</v>
       </c>
       <c r="E61">
-        <v>1.03253566203342</v>
+        <v>1.03735258100045</v>
       </c>
       <c r="F61">
-        <v>80693.43969295148</v>
+        <v>91194.44193383394</v>
       </c>
       <c r="G61">
-        <v>105.5880432128906</v>
+        <v>0.7458044290542603</v>
       </c>
       <c r="H61">
-        <v>0.1013677343726158</v>
+        <v>1.036521315574646</v>
       </c>
       <c r="I61">
-        <v>0.0009530033566989005</v>
+        <v>90204.3125</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>97.00934401046995</v>
+        <v>86.63185332625039</v>
       </c>
       <c r="B62">
-        <v>0.1140638183239798</v>
+        <v>0.1077390656975054</v>
       </c>
       <c r="C62">
-        <v>0.001171346731846419</v>
+        <v>0.0008984067485609944</v>
       </c>
       <c r="D62">
-        <v>0.7063779890107253</v>
+        <v>0.7030418139564719</v>
       </c>
       <c r="E62">
-        <v>1.031184760312207</v>
+        <v>1.03341619281231</v>
       </c>
       <c r="F62">
-        <v>66086.30363402581</v>
+        <v>86528.84316365354</v>
       </c>
       <c r="G62">
-        <v>102.8373870849609</v>
+        <v>0.7031310796737671</v>
       </c>
       <c r="H62">
-        <v>0.1104526445269585</v>
+        <v>1.033331871032715</v>
       </c>
       <c r="I62">
-        <v>0.00115782453212887</v>
+        <v>86099.078125</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>113.9990395258158</v>
+        <v>84.72698618401071</v>
       </c>
       <c r="B63">
-        <v>0.09837335403955512</v>
+        <v>0.0981789066246133</v>
       </c>
       <c r="C63">
-        <v>0.001165932631455943</v>
+        <v>0.0008433181044875778</v>
       </c>
       <c r="D63">
-        <v>0.7175790204100774</v>
+        <v>0.715468013062435</v>
       </c>
       <c r="E63">
-        <v>1.031707272765843</v>
+        <v>1.035312840789655</v>
       </c>
       <c r="F63">
-        <v>67325.35612847716</v>
+        <v>94447.96306783588</v>
       </c>
       <c r="G63">
-        <v>104.9827728271484</v>
+        <v>0.7159788012504578</v>
       </c>
       <c r="H63">
-        <v>0.1026857867836952</v>
+        <v>1.034946084022522</v>
       </c>
       <c r="I63">
-        <v>0.001163958688266575</v>
+        <v>92908.65625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>84.99904576710061</v>
+        <v>106.1280073013973</v>
       </c>
       <c r="B64">
-        <v>0.09782786159648928</v>
+        <v>0.1087044195505466</v>
       </c>
       <c r="C64">
-        <v>0.000914873610299155</v>
+        <v>0.0008104438980017193</v>
       </c>
       <c r="D64">
-        <v>0.7239863616175799</v>
+        <v>0.6628609984960541</v>
       </c>
       <c r="E64">
-        <v>1.035220776167815</v>
+        <v>1.031806298614512</v>
       </c>
       <c r="F64">
-        <v>88124.51862477153</v>
+        <v>89276.023230689</v>
       </c>
       <c r="G64">
-        <v>83.26834869384766</v>
+        <v>0.6672432422637939</v>
       </c>
       <c r="H64">
-        <v>0.09850992262363434</v>
+        <v>1.031682729721069</v>
       </c>
       <c r="I64">
-        <v>0.0009167831158265471</v>
+        <v>88495.203125</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>91.03324617829841</v>
+        <v>85.81703231301414</v>
       </c>
       <c r="B65">
-        <v>0.09357532689992076</v>
+        <v>0.1143619232678425</v>
       </c>
       <c r="C65">
-        <v>0.000937136524465491</v>
+        <v>0.001168372398243357</v>
       </c>
       <c r="D65">
-        <v>0.7273936598878259</v>
+        <v>0.71464410400929</v>
       </c>
       <c r="E65">
-        <v>1.034846283145473</v>
+        <v>1.032405833666826</v>
       </c>
       <c r="F65">
-        <v>86256.91092626422</v>
+        <v>67492.02658628208</v>
       </c>
       <c r="G65">
-        <v>91.43689727783203</v>
+        <v>0.7183607816696167</v>
       </c>
       <c r="H65">
-        <v>0.09319759905338287</v>
+        <v>1.032293438911438</v>
       </c>
       <c r="I65">
-        <v>0.0009369563194923103</v>
+        <v>67362.1875</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>96.22874473313338</v>
+        <v>88.10624713237409</v>
       </c>
       <c r="B66">
-        <v>0.1149223082174916</v>
+        <v>0.1186401004735988</v>
       </c>
       <c r="C66">
-        <v>0.001039282722464959</v>
+        <v>0.001066606062339121</v>
       </c>
       <c r="D66">
-        <v>0.6952686498248134</v>
+        <v>0.6996385592836201</v>
       </c>
       <c r="E66">
-        <v>1.031329315784209</v>
+        <v>1.031710405888304</v>
       </c>
       <c r="F66">
-        <v>73301.26390271114</v>
+        <v>72120.84373442782</v>
       </c>
       <c r="G66">
-        <v>105.7331466674805</v>
+        <v>0.6994439959526062</v>
       </c>
       <c r="H66">
-        <v>0.108797699213028</v>
+        <v>1.031656384468079</v>
       </c>
       <c r="I66">
-        <v>0.00103826355189085</v>
+        <v>72493.9765625</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>96.07270805460293</v>
+        <v>94.85412124837693</v>
       </c>
       <c r="B67">
-        <v>0.1174447290991821</v>
+        <v>0.1139472347333698</v>
       </c>
       <c r="C67">
-        <v>0.001181570003289342</v>
+        <v>0.001111777887530413</v>
       </c>
       <c r="D67">
-        <v>0.7025772057424656</v>
+        <v>0.7041640099730463</v>
       </c>
       <c r="E67">
-        <v>1.030946513957388</v>
+        <v>1.031444534730954</v>
       </c>
       <c r="F67">
-        <v>65108.52459357276</v>
+        <v>69491.07525294257</v>
       </c>
       <c r="G67">
-        <v>104.7194671630859</v>
+        <v>0.7049610018730164</v>
       </c>
       <c r="H67">
-        <v>0.1118271127343178</v>
+        <v>1.031464815139771</v>
       </c>
       <c r="I67">
-        <v>0.001162879285402596</v>
+        <v>69305.75</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>106.7181089147738</v>
+        <v>112.5827033956628</v>
       </c>
       <c r="B68">
-        <v>0.1192817465897325</v>
+        <v>0.08085954381688894</v>
       </c>
       <c r="C68">
-        <v>0.0008619406598730223</v>
+        <v>0.0009144397736736748</v>
       </c>
       <c r="D68">
-        <v>0.6539879484337644</v>
+        <v>0.725044182287746</v>
       </c>
       <c r="E68">
-        <v>1.030907778374236</v>
+        <v>1.034555272269227</v>
       </c>
       <c r="F68">
-        <v>82506.17722997459</v>
+        <v>87566.73374752047</v>
       </c>
       <c r="G68">
-        <v>124.6686172485352</v>
+        <v>0.7232780456542969</v>
       </c>
       <c r="H68">
-        <v>0.1057022660970688</v>
+        <v>1.034405112266541</v>
       </c>
       <c r="I68">
-        <v>0.0008608127245679498</v>
+        <v>87262.1640625</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>93.91306244408116</v>
+        <v>84.20666022274528</v>
       </c>
       <c r="B69">
-        <v>0.09516834644926991</v>
+        <v>0.09451124098664006</v>
       </c>
       <c r="C69">
-        <v>0.0009047130752769508</v>
+        <v>0.001033872162724664</v>
       </c>
       <c r="D69">
-        <v>0.7173173577322881</v>
+        <v>0.7412395227128463</v>
       </c>
       <c r="E69">
-        <v>1.034188205235354</v>
+        <v>1.035849679193247</v>
       </c>
       <c r="F69">
-        <v>87819.82562395297</v>
+        <v>80099.88371637101</v>
       </c>
       <c r="G69">
-        <v>94.59822845458984</v>
+        <v>0.7411249876022339</v>
       </c>
       <c r="H69">
-        <v>0.09467557072639465</v>
+        <v>1.035458445549011</v>
       </c>
       <c r="I69">
-        <v>0.0009049707441590726</v>
+        <v>80504.328125</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>108.3795072634309</v>
+        <v>113.2471969491275</v>
       </c>
       <c r="B70">
-        <v>0.1182726440982919</v>
+        <v>0.1090154643827053</v>
       </c>
       <c r="C70">
-        <v>0.001146431585533792</v>
+        <v>0.0008290736051897543</v>
       </c>
       <c r="D70">
-        <v>0.6878844757232337</v>
+        <v>0.6558546771011399</v>
       </c>
       <c r="E70">
-        <v>1.030332081547475</v>
+        <v>1.031619204526727</v>
       </c>
       <c r="F70">
-        <v>65284.48111255702</v>
+        <v>86055.46884267239</v>
       </c>
       <c r="G70">
-        <v>112.3126754760742</v>
+        <v>0.6623660326004028</v>
       </c>
       <c r="H70">
-        <v>0.114651694893837</v>
+        <v>1.03122353553772</v>
       </c>
       <c r="I70">
-        <v>0.001132568228058517</v>
+        <v>85457.546875</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>105.4560261920315</v>
+        <v>84.16734852347561</v>
       </c>
       <c r="B71">
-        <v>0.1114414688859923</v>
+        <v>0.08712811987681258</v>
       </c>
       <c r="C71">
-        <v>0.0009968218132306718</v>
+        <v>0.0009943661211321206</v>
       </c>
       <c r="D71">
-        <v>0.6866056167181092</v>
+        <v>0.7524249927611296</v>
       </c>
       <c r="E71">
-        <v>1.031161974341581</v>
+        <v>1.037533708867497</v>
       </c>
       <c r="F71">
-        <v>75200.0863413029</v>
+        <v>85011.69015755533</v>
       </c>
       <c r="G71">
-        <v>105.8482360839844</v>
+        <v>0.7503777742385864</v>
       </c>
       <c r="H71">
-        <v>0.111373171210289</v>
+        <v>1.036545872688293</v>
       </c>
       <c r="I71">
-        <v>0.000996679300442338</v>
+        <v>84836.359375</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>96.04718952914178</v>
+        <v>118.6768678303895</v>
       </c>
       <c r="B72">
-        <v>0.106886888037146</v>
+        <v>0.1008246198103409</v>
       </c>
       <c r="C72">
-        <v>0.001156389874399549</v>
+        <v>0.001187174655338407</v>
       </c>
       <c r="D72">
-        <v>0.7177942956917942</v>
+        <v>0.7108282794264837</v>
       </c>
       <c r="E72">
-        <v>1.032026089775439</v>
+        <v>1.031314668545222</v>
       </c>
       <c r="F72">
-        <v>68274.87039988649</v>
+        <v>65295.51843847329</v>
       </c>
       <c r="G72">
-        <v>95.49703979492188</v>
+        <v>0.7106985449790955</v>
       </c>
       <c r="H72">
-        <v>0.106824092566967</v>
+        <v>1.031066179275513</v>
       </c>
       <c r="I72">
-        <v>0.001149305375292897</v>
+        <v>64527.50390625</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>97.32504615785709</v>
+        <v>98.77114968541773</v>
       </c>
       <c r="B73">
-        <v>0.0899998513517226</v>
+        <v>0.08253037015734535</v>
       </c>
       <c r="C73">
-        <v>0.0008767252810725982</v>
+        <v>0.001147587344162187</v>
       </c>
       <c r="D73">
-        <v>0.7194493620758404</v>
+        <v>0.7601469652061295</v>
       </c>
       <c r="E73">
-        <v>1.034656987825434</v>
+        <v>1.035503721727833</v>
       </c>
       <c r="F73">
-        <v>90952.14777310414</v>
+        <v>73809.16535697946</v>
       </c>
       <c r="G73">
-        <v>97.22327423095703</v>
+        <v>0.7587941884994507</v>
       </c>
       <c r="H73">
-        <v>0.089786097407341</v>
+        <v>1.035117626190186</v>
       </c>
       <c r="I73">
-        <v>0.0008743624784983695</v>
+        <v>73624.265625</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>104.4894033372088</v>
+        <v>118.6886912416637</v>
       </c>
       <c r="B74">
-        <v>0.08888532886745625</v>
+        <v>0.08824007987120169</v>
       </c>
       <c r="C74">
-        <v>0.001012805850973932</v>
+        <v>0.000936559474876001</v>
       </c>
       <c r="D74">
-        <v>0.729998587359443</v>
+        <v>0.7053870997939153</v>
       </c>
       <c r="E74">
-        <v>1.033797061657793</v>
+        <v>1.033072730515658</v>
       </c>
       <c r="F74">
-        <v>79616.82819472415</v>
+        <v>82545.26761393597</v>
       </c>
       <c r="G74">
-        <v>104.6935653686523</v>
+        <v>0.7052932977676392</v>
       </c>
       <c r="H74">
-        <v>0.08879747241735458</v>
+        <v>1.032970428466797</v>
       </c>
       <c r="I74">
-        <v>0.001013812492601573</v>
+        <v>82625.3046875</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>83.14596355623566</v>
+        <v>104.1098688528135</v>
       </c>
       <c r="B75">
-        <v>0.08690931527005682</v>
+        <v>0.0811264011560366</v>
       </c>
       <c r="C75">
-        <v>0.0009318989473943713</v>
+        <v>0.001180932175847984</v>
       </c>
       <c r="D75">
-        <v>0.7484713175843096</v>
+        <v>0.7610371712292983</v>
       </c>
       <c r="E75">
-        <v>1.03792710323316</v>
+        <v>1.035011841792028</v>
       </c>
       <c r="F75">
-        <v>90322.33036064438</v>
+        <v>71623.59727313645</v>
       </c>
       <c r="G75">
-        <v>71.55860137939453</v>
+        <v>0.7596989870071411</v>
       </c>
       <c r="H75">
-        <v>0.09276571124792099</v>
+        <v>1.03473174571991</v>
       </c>
       <c r="I75">
-        <v>0.0009329932508990169</v>
+        <v>71258.5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>112.6381119110036</v>
+        <v>109.3789599686562</v>
       </c>
       <c r="B76">
-        <v>0.116571754605359</v>
+        <v>0.1115127384184534</v>
       </c>
       <c r="C76">
-        <v>0.0009280860049386678</v>
+        <v>0.0008948289701545773</v>
       </c>
       <c r="D76">
-        <v>0.660916882683929</v>
+        <v>0.6680746081001433</v>
       </c>
       <c r="E76">
-        <v>1.03084111831832</v>
+        <v>1.031277780665849</v>
       </c>
       <c r="F76">
-        <v>77332.63631494337</v>
+        <v>81320.40426984521</v>
       </c>
       <c r="G76">
-        <v>131.9586791992188</v>
+        <v>0.6698392629623413</v>
       </c>
       <c r="H76">
-        <v>0.1009263247251511</v>
+        <v>1.031046748161316</v>
       </c>
       <c r="I76">
-        <v>0.0009274937328882515</v>
+        <v>81074.4609375</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>106.0139990049809</v>
+        <v>81.93649338364159</v>
       </c>
       <c r="B77">
-        <v>0.09192795349389446</v>
+        <v>0.08917804663155368</v>
       </c>
       <c r="C77">
-        <v>0.0009791761525170255</v>
+        <v>0.001176129741902136</v>
       </c>
       <c r="D77">
-        <v>0.7185480816370593</v>
+        <v>0.7614038556133618</v>
       </c>
       <c r="E77">
-        <v>1.033254343389073</v>
+        <v>1.037430665727448</v>
       </c>
       <c r="F77">
-        <v>80826.87996130693</v>
+        <v>72790.46354393325</v>
       </c>
       <c r="G77">
-        <v>104.9416427612305</v>
+        <v>0.7638084888458252</v>
       </c>
       <c r="H77">
-        <v>0.09255153685808182</v>
+        <v>1.036173939704895</v>
       </c>
       <c r="I77">
-        <v>0.0009796782396733761</v>
+        <v>73193</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>108.8724615686199</v>
+        <v>91.48618937913805</v>
       </c>
       <c r="B78">
-        <v>0.09816132820824248</v>
+        <v>0.09393789727792556</v>
       </c>
       <c r="C78">
-        <v>0.0009737668420969875</v>
+        <v>0.001173016880960738</v>
       </c>
       <c r="D78">
-        <v>0.7029098984379627</v>
+        <v>0.7452944764604019</v>
       </c>
       <c r="E78">
-        <v>1.032293971810413</v>
+        <v>1.034436893279325</v>
       </c>
       <c r="F78">
-        <v>79120.57952611352</v>
+        <v>70608.55581957518</v>
       </c>
       <c r="G78">
-        <v>102.5155487060547</v>
+        <v>0.7465767860412598</v>
       </c>
       <c r="H78">
-        <v>0.1022186800837517</v>
+        <v>1.03429639339447</v>
       </c>
       <c r="I78">
-        <v>0.0009746525902301073</v>
+        <v>70941.4921875</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>101.4473550464524</v>
+        <v>85.11197877546697</v>
       </c>
       <c r="B79">
-        <v>0.0997631514445269</v>
+        <v>0.1167804783529576</v>
       </c>
       <c r="C79">
-        <v>0.0009440810043773063</v>
+        <v>0.001117285259058377</v>
       </c>
       <c r="D79">
-        <v>0.7048468069264713</v>
+        <v>0.7085130180079342</v>
       </c>
       <c r="E79">
-        <v>1.032675102313445</v>
+        <v>1.032271248902489</v>
       </c>
       <c r="F79">
-        <v>82094.28203290059</v>
+        <v>69925.81047232136</v>
       </c>
       <c r="G79">
-        <v>101.9151916503906</v>
+        <v>0.710082471370697</v>
       </c>
       <c r="H79">
-        <v>0.09951972216367722</v>
+        <v>1.032105326652527</v>
       </c>
       <c r="I79">
-        <v>0.0009441933361813426</v>
+        <v>70259.7734375</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>84.73098332779654</v>
+        <v>92.0088425849591</v>
       </c>
       <c r="B80">
-        <v>0.1109041261720908</v>
+        <v>0.1080128973138284</v>
       </c>
       <c r="C80">
-        <v>0.001162665552891091</v>
+        <v>0.001051134651623293</v>
       </c>
       <c r="D80">
-        <v>0.7206276814441637</v>
+        <v>0.7116208864002004</v>
       </c>
       <c r="E80">
-        <v>1.032996611635539</v>
+        <v>1.032448167786267</v>
       </c>
       <c r="F80">
-        <v>68559.28321741846</v>
+        <v>74599.91229194535</v>
       </c>
       <c r="G80">
-        <v>80.90505218505859</v>
+        <v>0.7113417983055115</v>
       </c>
       <c r="H80">
-        <v>0.1134972050786018</v>
+        <v>1.032450199127197</v>
       </c>
       <c r="I80">
-        <v>0.001145497313700616</v>
+        <v>74876.2109375</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>96.27746444496174</v>
+        <v>85.05440121693771</v>
       </c>
       <c r="B81">
-        <v>0.1134937625372691</v>
+        <v>0.08164842325835291</v>
       </c>
       <c r="C81">
-        <v>0.001090842051415008</v>
+        <v>0.001146718186886325</v>
       </c>
       <c r="D81">
-        <v>0.7019438354394417</v>
+        <v>0.7727114629193994</v>
       </c>
       <c r="E81">
-        <v>1.031390279009938</v>
+        <v>1.038565792072625</v>
       </c>
       <c r="F81">
-        <v>70554.3795401002</v>
+        <v>76030.25181731302</v>
       </c>
       <c r="G81">
-        <v>105.8284149169922</v>
+        <v>0.7725399136543274</v>
       </c>
       <c r="H81">
-        <v>0.1075412034988403</v>
+        <v>1.036976456642151</v>
       </c>
       <c r="I81">
-        <v>0.001086160773411393</v>
+        <v>75985.6953125</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>96.29071260794213</v>
+        <v>92.86507174063409</v>
       </c>
       <c r="B82">
-        <v>0.08585190986427912</v>
+        <v>0.08685625245860171</v>
       </c>
       <c r="C82">
-        <v>0.001089196781560049</v>
+        <v>0.0009188654424209869</v>
       </c>
       <c r="D82">
-        <v>0.7511635449452094</v>
+        <v>0.7364226910432496</v>
       </c>
       <c r="E82">
-        <v>1.035269794975554</v>
+        <v>1.035866189499203</v>
       </c>
       <c r="F82">
-        <v>76782.59346763766</v>
+        <v>89345.48785304721</v>
       </c>
       <c r="G82">
-        <v>95.12694549560547</v>
+        <v>0.7363520264625549</v>
       </c>
       <c r="H82">
-        <v>0.08613588660955429</v>
+        <v>1.035582661628723</v>
       </c>
       <c r="I82">
-        <v>0.001091687823645771</v>
+        <v>88654.484375</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>92.98501411407457</v>
+        <v>96.63917114212879</v>
       </c>
       <c r="B83">
-        <v>0.09713470357173581</v>
+        <v>0.1047618658367806</v>
       </c>
       <c r="C83">
-        <v>0.0009176475855127948</v>
+        <v>0.001136783360210136</v>
       </c>
       <c r="D83">
-        <v>0.7163405843396431</v>
+        <v>0.7194845325471008</v>
       </c>
       <c r="E83">
-        <v>1.034003573526568</v>
+        <v>1.032230302873027</v>
       </c>
       <c r="F83">
-        <v>86425.52915136746</v>
+        <v>69659.94878883265</v>
       </c>
       <c r="G83">
-        <v>93.10748291015625</v>
+        <v>0.7196366190910339</v>
       </c>
       <c r="H83">
-        <v>0.09703821688890457</v>
+        <v>1.032240033149719</v>
       </c>
       <c r="I83">
-        <v>0.000918315548915416</v>
+        <v>69565.34375</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>81.57439131737111</v>
+        <v>82.91489580544012</v>
       </c>
       <c r="B84">
-        <v>0.1134396646416203</v>
+        <v>0.1030273050448205</v>
       </c>
       <c r="C84">
-        <v>0.001030461534584069</v>
+        <v>0.001046206814155014</v>
       </c>
       <c r="D84">
-        <v>0.7110819842492559</v>
+        <v>0.728110580226787</v>
       </c>
       <c r="E84">
-        <v>1.033332379659182</v>
+        <v>1.034577587221023</v>
       </c>
       <c r="F84">
-        <v>76405.68136514761</v>
+        <v>77414.34810601255</v>
       </c>
       <c r="G84">
-        <v>81.10110473632812</v>
+        <v>0.7291608452796936</v>
       </c>
       <c r="H84">
-        <v>0.1125128269195557</v>
+        <v>1.034204959869385</v>
       </c>
       <c r="I84">
-        <v>0.001020956784486771</v>
+        <v>77475.203125</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>109.3001954133685</v>
+        <v>107.5447684398666</v>
       </c>
       <c r="B85">
-        <v>0.1124666765033131</v>
+        <v>0.0897255873960926</v>
       </c>
       <c r="C85">
-        <v>0.001109436326899179</v>
+        <v>0.0008091923544411792</v>
       </c>
       <c r="D85">
-        <v>0.6927861286095364</v>
+        <v>0.6955436764158279</v>
       </c>
       <c r="E85">
-        <v>1.03075947455289</v>
+        <v>1.033772694206561</v>
       </c>
       <c r="F85">
-        <v>68048.34024035787</v>
+        <v>94602.86908759469</v>
       </c>
       <c r="G85">
-        <v>109.2839508056641</v>
+        <v>0.6977176666259766</v>
       </c>
       <c r="H85">
-        <v>0.1120344772934914</v>
+        <v>1.033668756484985</v>
       </c>
       <c r="I85">
-        <v>0.001104434370063245</v>
+        <v>92966.8359375</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>84.70383183189445</v>
+        <v>102.6107290312576</v>
       </c>
       <c r="B86">
-        <v>0.08441490571636187</v>
+        <v>0.1170208759503149</v>
       </c>
       <c r="C86">
-        <v>0.001115869295304324</v>
+        <v>0.0009401166394204532</v>
       </c>
       <c r="D86">
-        <v>0.7656273636762139</v>
+        <v>0.6740647291208485</v>
       </c>
       <c r="E86">
-        <v>1.037941217987962</v>
+        <v>1.030959004986297</v>
       </c>
       <c r="F86">
-        <v>77243.48325534165</v>
+        <v>78210.63072795217</v>
       </c>
       <c r="G86">
-        <v>69.50928497314453</v>
+        <v>0.6737622618675232</v>
       </c>
       <c r="H86">
-        <v>0.09242987632751465</v>
+        <v>1.030811905860901</v>
       </c>
       <c r="I86">
-        <v>0.001117968466132879</v>
+        <v>78283.78125</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>104.1672022406412</v>
+        <v>90.8034370369341</v>
       </c>
       <c r="B87">
-        <v>0.08653047478585886</v>
+        <v>0.1044673833831366</v>
       </c>
       <c r="C87">
-        <v>0.000939057060477083</v>
+        <v>0.0008620737519654265</v>
       </c>
       <c r="D87">
-        <v>0.7264359085167267</v>
+        <v>0.6989627579060896</v>
       </c>
       <c r="E87">
-        <v>1.034326910267628</v>
+        <v>1.033323179607884</v>
       </c>
       <c r="F87">
-        <v>85567.06238613185</v>
+        <v>89517.44737723017</v>
       </c>
       <c r="G87">
-        <v>104.8616943359375</v>
+        <v>0.6994968056678772</v>
       </c>
       <c r="H87">
-        <v>0.08629070222377777</v>
+        <v>1.033293724060059</v>
       </c>
       <c r="I87">
-        <v>0.0009388693724758923</v>
+        <v>88940.234375</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>107.9659794820827</v>
+        <v>100.9113069501078</v>
       </c>
       <c r="B88">
-        <v>0.09232472974818037</v>
+        <v>0.1013967802119425</v>
       </c>
       <c r="C88">
-        <v>0.001106180169453527</v>
+        <v>0.001188873650147337</v>
       </c>
       <c r="D88">
-        <v>0.7290930923389631</v>
+        <v>0.7253526274749621</v>
       </c>
       <c r="E88">
-        <v>1.032865076542422</v>
+        <v>1.03216895335104</v>
       </c>
       <c r="F88">
-        <v>72532.24945943343</v>
+        <v>67099.66344767701</v>
       </c>
       <c r="G88">
-        <v>106.7098846435547</v>
+        <v>0.7263022065162659</v>
       </c>
       <c r="H88">
-        <v>0.09306976944208145</v>
+        <v>1.032225012779236</v>
       </c>
       <c r="I88">
-        <v>0.001105969888158143</v>
+        <v>66895.8203125</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>105.2835267711725</v>
+        <v>84.08276051011633</v>
       </c>
       <c r="B89">
-        <v>0.08335438138083572</v>
+        <v>0.1035244063101161</v>
       </c>
       <c r="C89">
-        <v>0.001092468708383193</v>
+        <v>0.0009915213161603433</v>
       </c>
       <c r="D89">
-        <v>0.748280337168583</v>
+        <v>0.7220028221974876</v>
       </c>
       <c r="E89">
-        <v>1.034538732201465</v>
+        <v>1.034325903694894</v>
       </c>
       <c r="F89">
-        <v>75923.9059842657</v>
+        <v>80887.51816786182</v>
       </c>
       <c r="G89">
-        <v>104.0115127563477</v>
+        <v>0.7217928171157837</v>
       </c>
       <c r="H89">
-        <v>0.08373447507619858</v>
+        <v>1.034125685691833</v>
       </c>
       <c r="I89">
-        <v>0.001092170365154743</v>
+        <v>81279.6484375</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>117.9980455531489</v>
+        <v>102.9770479208428</v>
       </c>
       <c r="B90">
-        <v>0.0970468439772833</v>
+        <v>0.1090206177980426</v>
       </c>
       <c r="C90">
-        <v>0.0008594731246255466</v>
+        <v>0.0009989774340657099</v>
       </c>
       <c r="D90">
-        <v>0.6762742405767642</v>
+        <v>0.6935740070103765</v>
       </c>
       <c r="E90">
-        <v>1.032388961934161</v>
+        <v>1.031488716325431</v>
       </c>
       <c r="F90">
-        <v>85845.3233045512</v>
+        <v>75969.34526755988</v>
       </c>
       <c r="G90">
-        <v>125.6854782104492</v>
+        <v>0.6933746933937073</v>
       </c>
       <c r="H90">
-        <v>0.09164112061262131</v>
+        <v>1.031495094299316</v>
       </c>
       <c r="I90">
-        <v>0.0008669538656249642</v>
+        <v>75929.4453125</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>84.44957342732556</v>
+        <v>116.8281017189874</v>
       </c>
       <c r="B91">
-        <v>0.08461889667844008</v>
+        <v>0.09262837928055004</v>
       </c>
       <c r="C91">
-        <v>0.001143447987739186</v>
+        <v>0.001054672221794934</v>
       </c>
       <c r="D91">
-        <v>0.766933276578167</v>
+        <v>0.7143696787510426</v>
       </c>
       <c r="E91">
-        <v>1.037927458093946</v>
+        <v>1.032377357615672</v>
       </c>
       <c r="F91">
-        <v>75517.38756077058</v>
+        <v>74177.05785785212</v>
       </c>
       <c r="G91">
-        <v>67.92872619628906</v>
+        <v>0.7146655321121216</v>
       </c>
       <c r="H91">
-        <v>0.09373834729194641</v>
+        <v>1.032333612442017</v>
       </c>
       <c r="I91">
-        <v>0.00114006653893739</v>
+        <v>74199.796875</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>114.3926881630415</v>
+        <v>92.8880336225444</v>
       </c>
       <c r="B92">
-        <v>0.1026740805340977</v>
+        <v>0.09601033895117593</v>
       </c>
       <c r="C92">
-        <v>0.0009769984389775689</v>
+        <v>0.0009484861121999809</v>
       </c>
       <c r="D92">
-        <v>0.6888673429956511</v>
+        <v>0.7219977090184246</v>
       </c>
       <c r="E92">
-        <v>1.031618054537494</v>
+        <v>1.034146392318629</v>
       </c>
       <c r="F92">
-        <v>76923.10441037854</v>
+        <v>84349.1162867714</v>
       </c>
       <c r="G92">
-        <v>114.5819931030273</v>
+        <v>0.7218051552772522</v>
       </c>
       <c r="H92">
-        <v>0.1021546348929405</v>
+        <v>1.034152269363403</v>
       </c>
       <c r="I92">
-        <v>0.0009764889837242663</v>
+        <v>84289.8046875</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>81.54459633468218</v>
+        <v>106.5623663073396</v>
       </c>
       <c r="B93">
-        <v>0.09006521459796496</v>
+        <v>0.08862608396204151</v>
       </c>
       <c r="C93">
-        <v>0.0009946729938511436</v>
+        <v>0.0008576675219414992</v>
       </c>
       <c r="D93">
-        <v>0.7491910443322317</v>
+        <v>0.7074786721016743</v>
       </c>
       <c r="E93">
-        <v>1.037496779330206</v>
+        <v>1.033917052034888</v>
       </c>
       <c r="F93">
-        <v>84635.11232976995</v>
+        <v>90936.71391413134</v>
       </c>
       <c r="G93">
-        <v>70.81954193115234</v>
+        <v>0.7075839638710022</v>
       </c>
       <c r="H93">
-        <v>0.09568310528993607</v>
+        <v>1.033868789672852</v>
       </c>
       <c r="I93">
-        <v>0.001000732998363674</v>
+        <v>90052.3984375</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>101.3687155622099</v>
+        <v>85.56674142563895</v>
       </c>
       <c r="B94">
-        <v>0.1037801067000811</v>
+        <v>0.08769899186857372</v>
       </c>
       <c r="C94">
-        <v>0.0009797610900295687</v>
+        <v>0.00112626783116848</v>
       </c>
       <c r="D94">
-        <v>0.7020835671951815</v>
+        <v>0.7590575424224655</v>
       </c>
       <c r="E94">
-        <v>1.032152778567538</v>
+        <v>1.036911122608015</v>
       </c>
       <c r="F94">
-        <v>78655.4809861657</v>
+        <v>75602.5895983599</v>
       </c>
       <c r="G94">
-        <v>101.4636383056641</v>
+        <v>0.7592369318008423</v>
       </c>
       <c r="H94">
-        <v>0.1036557555198669</v>
+        <v>1.036067724227905</v>
       </c>
       <c r="I94">
-        <v>0.0009795543737709522</v>
+        <v>75815.3828125</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>96.24641879742177</v>
+        <v>108.4798705789726</v>
       </c>
       <c r="B95">
-        <v>0.08500728070162036</v>
+        <v>0.1174190776018499</v>
       </c>
       <c r="C95">
-        <v>0.001026595143878193</v>
+        <v>0.0008784226155199023</v>
       </c>
       <c r="D95">
-        <v>0.7476367735733105</v>
+        <v>0.6572139204209659</v>
       </c>
       <c r="E95">
-        <v>1.03553648970176</v>
+        <v>1.0309514647316</v>
       </c>
       <c r="F95">
-        <v>81120.72333655918</v>
+        <v>81350.10967911783</v>
       </c>
       <c r="G95">
-        <v>95.12285614013672</v>
+        <v>0.6587870717048645</v>
       </c>
       <c r="H95">
-        <v>0.08511560410261154</v>
+        <v>1.03050684928894</v>
       </c>
       <c r="I95">
-        <v>0.001029293984174728</v>
+        <v>81152.9609375</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>100.9479899075782</v>
+        <v>91.74487053625876</v>
       </c>
       <c r="B96">
-        <v>0.1186543048584784</v>
+        <v>0.1093902186152908</v>
       </c>
       <c r="C96">
-        <v>0.00104749747217465</v>
+        <v>0.001004436959626538</v>
       </c>
       <c r="D96">
-        <v>0.6854314109554979</v>
+        <v>0.7055151497104646</v>
       </c>
       <c r="E96">
-        <v>1.030692191665289</v>
+        <v>1.032401018416415</v>
       </c>
       <c r="F96">
-        <v>71416.90396947057</v>
+        <v>77350.32360771715</v>
       </c>
       <c r="G96">
-        <v>104.7830123901367</v>
+        <v>0.7049343585968018</v>
       </c>
       <c r="H96">
-        <v>0.1159503385424614</v>
+        <v>1.032411098480225</v>
       </c>
       <c r="I96">
-        <v>0.001047004479914904</v>
+        <v>77460.84375</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>94.71201235055186</v>
+        <v>87.58132959085522</v>
       </c>
       <c r="B97">
-        <v>0.1169560876133935</v>
+        <v>0.09962599217041652</v>
       </c>
       <c r="C97">
-        <v>0.0009992864028918289</v>
+        <v>0.000891934261127898</v>
       </c>
       <c r="D97">
-        <v>0.6898251315775463</v>
+        <v>0.7152202368609176</v>
       </c>
       <c r="E97">
-        <v>1.031323768471317</v>
+        <v>1.034477481634569</v>
       </c>
       <c r="F97">
-        <v>75633.97819806292</v>
+        <v>88999.55306112269</v>
       </c>
       <c r="G97">
-        <v>104.6104965209961</v>
+        <v>0.7154037356376648</v>
       </c>
       <c r="H97">
-        <v>0.1103134080767632</v>
+        <v>1.034322023391724</v>
       </c>
       <c r="I97">
-        <v>0.0009963149204850197</v>
+        <v>88329.9140625</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>87.87044595314829</v>
+        <v>103.3912447284925</v>
       </c>
       <c r="B98">
-        <v>0.09575851793139539</v>
+        <v>0.08931484976230522</v>
       </c>
       <c r="C98">
-        <v>0.001143778466945947</v>
+        <v>0.0008423579346848335</v>
       </c>
       <c r="D98">
-        <v>0.7430450824978891</v>
+        <v>0.7078004867067044</v>
       </c>
       <c r="E98">
-        <v>1.034773080796189</v>
+        <v>1.034116923179141</v>
       </c>
       <c r="F98">
-        <v>72308.43896460353</v>
+        <v>92767.28100028589</v>
       </c>
       <c r="G98">
-        <v>85.09686279296875</v>
+        <v>0.7083290815353394</v>
       </c>
       <c r="H98">
-        <v>0.09806754440069199</v>
+        <v>1.03408944606781</v>
       </c>
       <c r="I98">
-        <v>0.001141042332164943</v>
+        <v>91605.28125</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>81.14996396018917</v>
+        <v>81.18856148149872</v>
       </c>
       <c r="B99">
-        <v>0.08989358660087288</v>
+        <v>0.09037095102468523</v>
       </c>
       <c r="C99">
-        <v>0.001050071104343352</v>
+        <v>0.001141976465930482</v>
       </c>
       <c r="D99">
-        <v>0.7537488625999627</v>
+        <v>0.7580146015509406</v>
       </c>
       <c r="E99">
-        <v>1.037579696140864</v>
+        <v>1.037365220654209</v>
       </c>
       <c r="F99">
-        <v>80710.40566740364</v>
+        <v>74613.77525697168</v>
       </c>
       <c r="G99">
-        <v>68.28420257568359</v>
+        <v>0.7595488429069519</v>
       </c>
       <c r="H99">
-        <v>0.09697384387254715</v>
+        <v>1.036164999008179</v>
       </c>
       <c r="I99">
-        <v>0.001056971261277795</v>
+        <v>74998.9609375</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>100.7114596271362</v>
+        <v>112.8942122067917</v>
       </c>
       <c r="B100">
-        <v>0.0902157897343234</v>
+        <v>0.0826750614403574</v>
       </c>
       <c r="C100">
-        <v>0.0009613604661513125</v>
+        <v>0.001185381033214484</v>
       </c>
       <c r="D100">
-        <v>0.7257277783910668</v>
+        <v>0.7507550393034793</v>
       </c>
       <c r="E100">
-        <v>1.034082126186788</v>
+        <v>1.03378980233536</v>
       </c>
       <c r="F100">
-        <v>83498.908622774</v>
+        <v>69935.752314963</v>
       </c>
       <c r="G100">
-        <v>100.4700698852539</v>
+        <v>0.74996018409729</v>
       </c>
       <c r="H100">
-        <v>0.09035585075616837</v>
+        <v>1.033718705177307</v>
       </c>
       <c r="I100">
-        <v>0.0009623237419873476</v>
+        <v>69184.765625</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>113.4366061119184</v>
+        <v>80.58441943915261</v>
       </c>
       <c r="B101">
-        <v>0.0993490385417231</v>
+        <v>0.09742917896218622</v>
       </c>
       <c r="C101">
-        <v>0.000967343768785153</v>
+        <v>0.001180643866526262</v>
       </c>
       <c r="D101">
-        <v>0.6946367487832711</v>
+        <v>0.7472733444641038</v>
       </c>
       <c r="E101">
-        <v>1.031951833951641</v>
+        <v>1.035974922613619</v>
       </c>
       <c r="F101">
-        <v>78486.68252981959</v>
+        <v>70817.75348355506</v>
       </c>
       <c r="G101">
-        <v>110.3887634277344</v>
+        <v>0.7506222724914551</v>
       </c>
       <c r="H101">
-        <v>0.1012380048632622</v>
+        <v>1.035008072853088</v>
       </c>
       <c r="I101">
-        <v>0.0009677702328190207</v>
+        <v>71307.8046875</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -453,13 +453,13 @@
         <v>81538.50378104943</v>
       </c>
       <c r="G2">
-        <v>0.6893292665481567</v>
+        <v>0.689469039440155</v>
       </c>
       <c r="H2">
-        <v>1.03188943862915</v>
+        <v>1.031892776489258</v>
       </c>
       <c r="I2">
-        <v>81539.6875</v>
+        <v>81521.96875</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,13 +482,13 @@
         <v>74465.41067907</v>
       </c>
       <c r="G3">
-        <v>0.7284060716629028</v>
+        <v>0.7285410165786743</v>
       </c>
       <c r="H3">
-        <v>1.033044338226318</v>
+        <v>1.033046364784241</v>
       </c>
       <c r="I3">
-        <v>74435.25</v>
+        <v>74414.078125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,13 +511,13 @@
         <v>78830.50808908061</v>
       </c>
       <c r="G4">
-        <v>0.6863099932670593</v>
+        <v>0.6863716840744019</v>
       </c>
       <c r="H4">
-        <v>1.031484484672546</v>
+        <v>1.031484007835388</v>
       </c>
       <c r="I4">
-        <v>78887.0234375</v>
+        <v>78877.703125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,13 +540,13 @@
         <v>82841.31125921379</v>
       </c>
       <c r="G5">
-        <v>0.665482759475708</v>
+        <v>0.6656992435455322</v>
       </c>
       <c r="H5">
-        <v>1.030888557434082</v>
+        <v>1.030896663665771</v>
       </c>
       <c r="I5">
-        <v>82448.203125</v>
+        <v>82427.5625</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,13 +569,13 @@
         <v>96695.83683405023</v>
       </c>
       <c r="G6">
-        <v>0.7130743861198425</v>
+        <v>0.7135008573532104</v>
       </c>
       <c r="H6">
-        <v>1.034722208976746</v>
+        <v>1.034761548042297</v>
       </c>
       <c r="I6">
-        <v>94986.3984375</v>
+        <v>94985.8515625</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,13 +598,13 @@
         <v>89221.94783598969</v>
       </c>
       <c r="G7">
-        <v>0.6800749897956848</v>
+        <v>0.6804012656211853</v>
       </c>
       <c r="H7">
-        <v>1.032278418540955</v>
+        <v>1.032281398773193</v>
       </c>
       <c r="I7">
-        <v>88542.6328125</v>
+        <v>88518.3125</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,13 +627,13 @@
         <v>73551.88058884651</v>
       </c>
       <c r="G8">
-        <v>0.7149227857589722</v>
+        <v>0.7150504589080811</v>
       </c>
       <c r="H8">
-        <v>1.03235387802124</v>
+        <v>1.032357335090637</v>
       </c>
       <c r="I8">
-        <v>73516.4375</v>
+        <v>73518.2890625</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -656,13 +656,13 @@
         <v>76427.09527010556</v>
       </c>
       <c r="G9">
-        <v>0.6888170838356018</v>
+        <v>0.6888980269432068</v>
       </c>
       <c r="H9">
-        <v>1.031494379043579</v>
+        <v>1.031484484672546</v>
       </c>
       <c r="I9">
-        <v>76393.2578125</v>
+        <v>76420.7890625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -685,13 +685,13 @@
         <v>77261.85062254904</v>
       </c>
       <c r="G10">
-        <v>0.7146373391151428</v>
+        <v>0.7149366736412048</v>
       </c>
       <c r="H10">
-        <v>1.03272545337677</v>
+        <v>1.032739043235779</v>
       </c>
       <c r="I10">
-        <v>77441.59375</v>
+        <v>77498.5859375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -714,13 +714,13 @@
         <v>66432.29719207993</v>
       </c>
       <c r="G11">
-        <v>0.7017715573310852</v>
+        <v>0.7018513679504395</v>
       </c>
       <c r="H11">
-        <v>1.030937194824219</v>
+        <v>1.030927062034607</v>
       </c>
       <c r="I11">
-        <v>65922.734375</v>
+        <v>65899.6171875</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,13 +743,13 @@
         <v>66425.55258270158</v>
       </c>
       <c r="G12">
-        <v>0.7233501076698303</v>
+        <v>0.7236108779907227</v>
       </c>
       <c r="H12">
-        <v>1.031862378120422</v>
+        <v>1.031871795654297</v>
       </c>
       <c r="I12">
-        <v>65790.1484375</v>
+        <v>65785.734375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -772,13 +772,13 @@
         <v>82897.20479325813</v>
       </c>
       <c r="G13">
-        <v>0.6750433444976807</v>
+        <v>0.6752234697341919</v>
       </c>
       <c r="H13">
-        <v>1.031355857849121</v>
+        <v>1.031356692314148</v>
       </c>
       <c r="I13">
-        <v>82648.6484375</v>
+        <v>82598.1875</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -801,13 +801,13 @@
         <v>72324.81594804979</v>
       </c>
       <c r="G14">
-        <v>0.7022953629493713</v>
+        <v>0.7023497223854065</v>
       </c>
       <c r="H14">
-        <v>1.03150200843811</v>
+        <v>1.031507730484009</v>
       </c>
       <c r="I14">
-        <v>72459.609375</v>
+        <v>72474.734375</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -830,13 +830,13 @@
         <v>83935.62639688494</v>
       </c>
       <c r="G15">
-        <v>0.6964573860168457</v>
+        <v>0.6967504024505615</v>
       </c>
       <c r="H15">
-        <v>1.032673239707947</v>
+        <v>1.03267765045166</v>
       </c>
       <c r="I15">
-        <v>83806.84375</v>
+        <v>83900.8125</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -859,13 +859,13 @@
         <v>93837.49906414766</v>
       </c>
       <c r="G16">
-        <v>0.6895387768745422</v>
+        <v>0.689745306968689</v>
       </c>
       <c r="H16">
-        <v>1.033268690109253</v>
+        <v>1.033232450485229</v>
       </c>
       <c r="I16">
-        <v>91845.6015625</v>
+        <v>91798.921875</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -888,13 +888,13 @@
         <v>75377.83846040601</v>
       </c>
       <c r="G17">
-        <v>0.7438605427742004</v>
+        <v>0.7440435886383057</v>
       </c>
       <c r="H17">
-        <v>1.035043835639954</v>
+        <v>1.035033702850342</v>
       </c>
       <c r="I17">
-        <v>75524.9375</v>
+        <v>75483.7578125</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -917,13 +917,13 @@
         <v>83429.7766818427</v>
       </c>
       <c r="G18">
-        <v>0.6984661221504211</v>
+        <v>0.6989539265632629</v>
       </c>
       <c r="H18">
-        <v>1.033042669296265</v>
+        <v>1.033021688461304</v>
       </c>
       <c r="I18">
-        <v>82878.6875</v>
+        <v>82803.53125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -946,13 +946,13 @@
         <v>78495.33357414858</v>
       </c>
       <c r="G19">
-        <v>0.6870036721229553</v>
+        <v>0.6870363354682922</v>
       </c>
       <c r="H19">
-        <v>1.031634092330933</v>
+        <v>1.031622767448425</v>
       </c>
       <c r="I19">
-        <v>78743.1328125</v>
+        <v>78732.390625</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -975,13 +975,13 @@
         <v>71426.37757296051</v>
       </c>
       <c r="G20">
-        <v>0.6790239214897156</v>
+        <v>0.6792457699775696</v>
       </c>
       <c r="H20">
-        <v>1.030445456504822</v>
+        <v>1.030458927154541</v>
       </c>
       <c r="I20">
-        <v>71417.2109375</v>
+        <v>71471.5703125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1004,13 +1004,13 @@
         <v>67280.96655030428</v>
       </c>
       <c r="G21">
-        <v>0.6974489092826843</v>
+        <v>0.6977505683898926</v>
       </c>
       <c r="H21">
-        <v>1.030785322189331</v>
+        <v>1.030784845352173</v>
       </c>
       <c r="I21">
-        <v>66675.7109375</v>
+        <v>66753.359375</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1033,13 +1033,13 @@
         <v>70626.40064168505</v>
       </c>
       <c r="G22">
-        <v>0.6822744011878967</v>
+        <v>0.6827652454376221</v>
       </c>
       <c r="H22">
-        <v>1.030587434768677</v>
+        <v>1.030595302581787</v>
       </c>
       <c r="I22">
-        <v>70232.3125</v>
+        <v>70250.9375</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1062,13 +1062,13 @@
         <v>68248.14291811716</v>
       </c>
       <c r="G23">
-        <v>0.7149112820625305</v>
+        <v>0.7150337696075439</v>
       </c>
       <c r="H23">
-        <v>1.031619429588318</v>
+        <v>1.031635642051697</v>
       </c>
       <c r="I23">
-        <v>68098.7578125</v>
+        <v>68065.78125</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1091,13 +1091,13 @@
         <v>80811.52741395582</v>
       </c>
       <c r="G24">
-        <v>0.6739618182182312</v>
+        <v>0.6742108464241028</v>
       </c>
       <c r="H24">
-        <v>1.031065464019775</v>
+        <v>1.031075954437256</v>
       </c>
       <c r="I24">
-        <v>80713.8046875</v>
+        <v>80692.625</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1120,13 +1120,13 @@
         <v>68738.83122165086</v>
       </c>
       <c r="G25">
-        <v>0.7027291059494019</v>
+        <v>0.7029770612716675</v>
       </c>
       <c r="H25">
-        <v>1.031171798706055</v>
+        <v>1.031164288520813</v>
       </c>
       <c r="I25">
-        <v>68486.28125</v>
+        <v>68519.109375</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1149,13 +1149,13 @@
         <v>91637.49349395366</v>
       </c>
       <c r="G26">
-        <v>0.7213442325592041</v>
+        <v>0.7219290137290955</v>
       </c>
       <c r="H26">
-        <v>1.035074830055237</v>
+        <v>1.035107731819153</v>
       </c>
       <c r="I26">
-        <v>90442.3515625</v>
+        <v>90452.375</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1178,13 +1178,13 @@
         <v>66606.44255704015</v>
       </c>
       <c r="G27">
-        <v>0.7162432670593262</v>
+        <v>0.7162647843360901</v>
       </c>
       <c r="H27">
-        <v>1.031531929969788</v>
+        <v>1.031540513038635</v>
       </c>
       <c r="I27">
-        <v>66195.5703125</v>
+        <v>66218.46875</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1207,13 +1207,13 @@
         <v>80737.07906334888</v>
       </c>
       <c r="G28">
-        <v>0.7667141556739807</v>
+        <v>0.7668229937553406</v>
       </c>
       <c r="H28">
-        <v>1.03705883026123</v>
+        <v>1.037062168121338</v>
       </c>
       <c r="I28">
-        <v>80901.4453125</v>
+        <v>80936.6953125</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1236,13 +1236,13 @@
         <v>85125.14020514555</v>
       </c>
       <c r="G29">
-        <v>0.6929113864898682</v>
+        <v>0.6931281685829163</v>
       </c>
       <c r="H29">
-        <v>1.03262984752655</v>
+        <v>1.032634735107422</v>
       </c>
       <c r="I29">
-        <v>84985.8125</v>
+        <v>85065.9375</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1265,13 +1265,13 @@
         <v>66848.48321000017</v>
       </c>
       <c r="G30">
-        <v>0.7167258262634277</v>
+        <v>0.7167617678642273</v>
       </c>
       <c r="H30">
-        <v>1.03169059753418</v>
+        <v>1.031699061393738</v>
       </c>
       <c r="I30">
-        <v>66576.8359375</v>
+        <v>66589.4765625</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1294,13 +1294,13 @@
         <v>75157.52364805204</v>
       </c>
       <c r="G31">
-        <v>0.7392576932907104</v>
+        <v>0.7393189072608948</v>
       </c>
       <c r="H31">
-        <v>1.034123539924622</v>
+        <v>1.03412926197052</v>
       </c>
       <c r="I31">
-        <v>75381.6796875</v>
+        <v>75366.734375</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1323,13 +1323,13 @@
         <v>86032.53825126126</v>
       </c>
       <c r="G32">
-        <v>0.7044165730476379</v>
+        <v>0.7045450210571289</v>
       </c>
       <c r="H32">
-        <v>1.033223986625671</v>
+        <v>1.033206343650818</v>
       </c>
       <c r="I32">
-        <v>85931.0234375</v>
+        <v>85870.9609375</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1352,13 +1352,13 @@
         <v>85143.38850386722</v>
       </c>
       <c r="G33">
-        <v>0.6914076805114746</v>
+        <v>0.6914399862289429</v>
       </c>
       <c r="H33">
-        <v>1.032455801963806</v>
+        <v>1.032442450523376</v>
       </c>
       <c r="I33">
-        <v>85062.6796875</v>
+        <v>85093.1953125</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1381,13 +1381,13 @@
         <v>81924.5274006101</v>
       </c>
       <c r="G34">
-        <v>0.7414772510528564</v>
+        <v>0.7417071461677551</v>
       </c>
       <c r="H34">
-        <v>1.034951448440552</v>
+        <v>1.034955739974976</v>
       </c>
       <c r="I34">
-        <v>81890.171875</v>
+        <v>81933.953125</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1410,13 +1410,13 @@
         <v>94595.76326410174</v>
       </c>
       <c r="G35">
-        <v>0.7006757855415344</v>
+        <v>0.7011125087738037</v>
       </c>
       <c r="H35">
-        <v>1.033831596374512</v>
+        <v>1.033842206001282</v>
       </c>
       <c r="I35">
-        <v>93145.4140625</v>
+        <v>93163.359375</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1439,13 +1439,13 @@
         <v>90149.4161812352</v>
       </c>
       <c r="G36">
-        <v>0.7164406776428223</v>
+        <v>0.7169223427772522</v>
       </c>
       <c r="H36">
-        <v>1.034726500511169</v>
+        <v>1.034726858139038</v>
       </c>
       <c r="I36">
-        <v>88902.6953125</v>
+        <v>88849.859375</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1468,13 +1468,13 @@
         <v>78777.28742279726</v>
       </c>
       <c r="G37">
-        <v>0.697328507900238</v>
+        <v>0.6973750591278076</v>
       </c>
       <c r="H37">
-        <v>1.031993627548218</v>
+        <v>1.031994819641113</v>
       </c>
       <c r="I37">
-        <v>78740.8828125</v>
+        <v>78727.671875</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1497,13 +1497,13 @@
         <v>80320.57700922184</v>
       </c>
       <c r="G38">
-        <v>0.6965118050575256</v>
+        <v>0.6965954303741455</v>
       </c>
       <c r="H38">
-        <v>1.032091379165649</v>
+        <v>1.032090902328491</v>
       </c>
       <c r="I38">
-        <v>80218.8671875</v>
+        <v>80209.7265625</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1526,13 +1526,13 @@
         <v>77213.73242142811</v>
       </c>
       <c r="G39">
-        <v>0.6954339146614075</v>
+        <v>0.6954224705696106</v>
       </c>
       <c r="H39">
-        <v>1.031731843948364</v>
+        <v>1.031730175018311</v>
       </c>
       <c r="I39">
-        <v>77175.140625</v>
+        <v>77168.5859375</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1555,13 +1555,13 @@
         <v>79846.95430622832</v>
       </c>
       <c r="G40">
-        <v>0.6728787422180176</v>
+        <v>0.6729841828346252</v>
       </c>
       <c r="H40">
-        <v>1.031202673912048</v>
+        <v>1.031192421913147</v>
       </c>
       <c r="I40">
-        <v>80211.625</v>
+        <v>80196.375</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1584,13 +1584,13 @@
         <v>75743.91139820353</v>
       </c>
       <c r="G41">
-        <v>0.7138527631759644</v>
+        <v>0.7139703631401062</v>
       </c>
       <c r="H41">
-        <v>1.032390117645264</v>
+        <v>1.032395601272583</v>
       </c>
       <c r="I41">
-        <v>75602.890625</v>
+        <v>75620.3203125</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1613,13 +1613,13 @@
         <v>67592.10765335572</v>
       </c>
       <c r="G42">
-        <v>0.7054086923599243</v>
+        <v>0.7054785490036011</v>
       </c>
       <c r="H42">
-        <v>1.031299710273743</v>
+        <v>1.031293272972107</v>
       </c>
       <c r="I42">
-        <v>67204.9140625</v>
+        <v>67178.9609375</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1642,13 +1642,13 @@
         <v>91755.36511022542</v>
       </c>
       <c r="G43">
-        <v>0.7071259617805481</v>
+        <v>0.7074242830276489</v>
       </c>
       <c r="H43">
-        <v>1.03391432762146</v>
+        <v>1.033932685852051</v>
       </c>
       <c r="I43">
-        <v>91011.109375</v>
+        <v>91019.8046875</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1671,13 +1671,13 @@
         <v>77311.84171533454</v>
       </c>
       <c r="G44">
-        <v>0.7090123891830444</v>
+        <v>0.7090980410575867</v>
       </c>
       <c r="H44">
-        <v>1.03236997127533</v>
+        <v>1.032373189926147</v>
       </c>
       <c r="I44">
-        <v>77379.7265625</v>
+        <v>77378.8515625</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1700,13 +1700,13 @@
         <v>89129.26059555032</v>
       </c>
       <c r="G45">
-        <v>0.6892431974411011</v>
+        <v>0.689551055431366</v>
       </c>
       <c r="H45">
-        <v>1.032852649688721</v>
+        <v>1.032832264900208</v>
       </c>
       <c r="I45">
-        <v>87873.140625</v>
+        <v>87806.578125</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1729,13 +1729,13 @@
         <v>69787.83105223658</v>
       </c>
       <c r="G46">
-        <v>0.6941260099411011</v>
+        <v>0.6943120360374451</v>
       </c>
       <c r="H46">
-        <v>1.030867695808411</v>
+        <v>1.030883193016052</v>
       </c>
       <c r="I46">
-        <v>69754.34375</v>
+        <v>69785.6484375</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1758,13 +1758,13 @@
         <v>78161.3104917923</v>
       </c>
       <c r="G47">
-        <v>0.6861029863357544</v>
+        <v>0.6861982345581055</v>
       </c>
       <c r="H47">
-        <v>1.031461715698242</v>
+        <v>1.031460404396057</v>
       </c>
       <c r="I47">
-        <v>78180.5703125</v>
+        <v>78166.59375</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1787,13 +1787,13 @@
         <v>82694.22254685163</v>
       </c>
       <c r="G48">
-        <v>0.7545306086540222</v>
+        <v>0.7547442317008972</v>
       </c>
       <c r="H48">
-        <v>1.036325454711914</v>
+        <v>1.036335110664368</v>
       </c>
       <c r="I48">
-        <v>82716.7890625</v>
+        <v>82724.8046875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1816,13 +1816,13 @@
         <v>86541.90034558781</v>
       </c>
       <c r="G49">
-        <v>0.6866509914398193</v>
+        <v>0.6865742802619934</v>
       </c>
       <c r="H49">
-        <v>1.032411336898804</v>
+        <v>1.032389879226685</v>
       </c>
       <c r="I49">
-        <v>85546.15625</v>
+        <v>85530.75</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1845,13 +1845,13 @@
         <v>88164.86777930609</v>
       </c>
       <c r="G50">
-        <v>0.6902236938476562</v>
+        <v>0.6902719736099243</v>
       </c>
       <c r="H50">
-        <v>1.032659292221069</v>
+        <v>1.032644748687744</v>
       </c>
       <c r="I50">
-        <v>87478.640625</v>
+        <v>87477.2109375</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1874,13 +1874,13 @@
         <v>75383.59993599266</v>
       </c>
       <c r="G51">
-        <v>0.6847928166389465</v>
+        <v>0.6850060820579529</v>
       </c>
       <c r="H51">
-        <v>1.031049966812134</v>
+        <v>1.031035423278809</v>
       </c>
       <c r="I51">
-        <v>75538.4140625</v>
+        <v>75529.3671875</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1903,13 +1903,13 @@
         <v>85600.81365638027</v>
       </c>
       <c r="G52">
-        <v>0.7283429503440857</v>
+        <v>0.7285997271537781</v>
       </c>
       <c r="H52">
-        <v>1.034497022628784</v>
+        <v>1.034504055976868</v>
       </c>
       <c r="I52">
-        <v>85410.6015625</v>
+        <v>85403.8671875</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1932,13 +1932,13 @@
         <v>65890.78658717666</v>
       </c>
       <c r="G53">
-        <v>0.7066509127616882</v>
+        <v>0.706885814666748</v>
       </c>
       <c r="H53">
-        <v>1.031095743179321</v>
+        <v>1.031099200248718</v>
       </c>
       <c r="I53">
-        <v>65587.8125</v>
+        <v>65599</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1961,13 +1961,13 @@
         <v>72479.6296109854</v>
       </c>
       <c r="G54">
-        <v>0.7284944653511047</v>
+        <v>0.7288176417350769</v>
       </c>
       <c r="H54">
-        <v>1.03281831741333</v>
+        <v>1.032827854156494</v>
       </c>
       <c r="I54">
-        <v>72098.7109375</v>
+        <v>72110.6640625</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1990,13 +1990,13 @@
         <v>73602.51374138611</v>
       </c>
       <c r="G55">
-        <v>0.7295324206352234</v>
+        <v>0.7294675707817078</v>
       </c>
       <c r="H55">
-        <v>1.033728122711182</v>
+        <v>1.033724904060364</v>
       </c>
       <c r="I55">
-        <v>73765.515625</v>
+        <v>73783.3828125</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2019,13 +2019,13 @@
         <v>73883.31084644256</v>
       </c>
       <c r="G56">
-        <v>0.7640138268470764</v>
+        <v>0.7641710042953491</v>
       </c>
       <c r="H56">
-        <v>1.03600013256073</v>
+        <v>1.036008238792419</v>
       </c>
       <c r="I56">
-        <v>74063.8515625</v>
+        <v>74130.640625</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2048,13 +2048,13 @@
         <v>90324.24573556196</v>
       </c>
       <c r="G57">
-        <v>0.6859975457191467</v>
+        <v>0.6860859990119934</v>
       </c>
       <c r="H57">
-        <v>1.032703995704651</v>
+        <v>1.032677054405212</v>
       </c>
       <c r="I57">
-        <v>88787.046875</v>
+        <v>88792.7109375</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2077,13 +2077,13 @@
         <v>73545.58559935106</v>
       </c>
       <c r="G58">
-        <v>0.6872108578681946</v>
+        <v>0.6872401237487793</v>
       </c>
       <c r="H58">
-        <v>1.030995726585388</v>
+        <v>1.030989170074463</v>
       </c>
       <c r="I58">
-        <v>73571</v>
+        <v>73524.5703125</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2106,13 +2106,13 @@
         <v>77169.51657621456</v>
       </c>
       <c r="G59">
-        <v>0.7211425304412842</v>
+        <v>0.7212797403335571</v>
       </c>
       <c r="H59">
-        <v>1.03336238861084</v>
+        <v>1.033361196517944</v>
       </c>
       <c r="I59">
-        <v>77083.71875</v>
+        <v>77037.171875</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2135,13 +2135,13 @@
         <v>68775.78930627124</v>
       </c>
       <c r="G60">
-        <v>0.7369955778121948</v>
+        <v>0.7370908856391907</v>
       </c>
       <c r="H60">
-        <v>1.033088445663452</v>
+        <v>1.033094048500061</v>
       </c>
       <c r="I60">
-        <v>68492.8359375</v>
+        <v>68482.0078125</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2164,13 +2164,13 @@
         <v>91194.44193383394</v>
       </c>
       <c r="G61">
-        <v>0.7458044290542603</v>
+        <v>0.7459529042243958</v>
       </c>
       <c r="H61">
-        <v>1.036521315574646</v>
+        <v>1.036543965339661</v>
       </c>
       <c r="I61">
-        <v>90204.3125</v>
+        <v>90221.421875</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2193,13 +2193,13 @@
         <v>86528.84316365354</v>
       </c>
       <c r="G62">
-        <v>0.7031310796737671</v>
+        <v>0.7034651637077332</v>
       </c>
       <c r="H62">
-        <v>1.033331871032715</v>
+        <v>1.033316731452942</v>
       </c>
       <c r="I62">
-        <v>86099.078125</v>
+        <v>86025.8828125</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2222,13 +2222,13 @@
         <v>94447.96306783588</v>
       </c>
       <c r="G63">
-        <v>0.7159788012504578</v>
+        <v>0.7166908383369446</v>
       </c>
       <c r="H63">
-        <v>1.034946084022522</v>
+        <v>1.034984230995178</v>
       </c>
       <c r="I63">
-        <v>92908.65625</v>
+        <v>92856.53125</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2251,13 +2251,13 @@
         <v>89276.023230689</v>
       </c>
       <c r="G64">
-        <v>0.6672432422637939</v>
+        <v>0.6672847270965576</v>
       </c>
       <c r="H64">
-        <v>1.031682729721069</v>
+        <v>1.03166937828064</v>
       </c>
       <c r="I64">
-        <v>88495.203125</v>
+        <v>88429.0234375</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2280,13 +2280,13 @@
         <v>67492.02658628208</v>
       </c>
       <c r="G65">
-        <v>0.7183607816696167</v>
+        <v>0.7185386419296265</v>
       </c>
       <c r="H65">
-        <v>1.032293438911438</v>
+        <v>1.032294511795044</v>
       </c>
       <c r="I65">
-        <v>67362.1875</v>
+        <v>67376.53125</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2309,13 +2309,13 @@
         <v>72120.84373442782</v>
       </c>
       <c r="G66">
-        <v>0.6994439959526062</v>
+        <v>0.6993108987808228</v>
       </c>
       <c r="H66">
-        <v>1.031656384468079</v>
+        <v>1.031658530235291</v>
       </c>
       <c r="I66">
-        <v>72493.9765625</v>
+        <v>72440.1015625</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2338,13 +2338,13 @@
         <v>69491.07525294257</v>
       </c>
       <c r="G67">
-        <v>0.7049610018730164</v>
+        <v>0.7050600051879883</v>
       </c>
       <c r="H67">
-        <v>1.031464815139771</v>
+        <v>1.031457304954529</v>
       </c>
       <c r="I67">
-        <v>69305.75</v>
+        <v>69270.4609375</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2367,13 +2367,13 @@
         <v>87566.73374752047</v>
       </c>
       <c r="G68">
-        <v>0.7232780456542969</v>
+        <v>0.7240824103355408</v>
       </c>
       <c r="H68">
-        <v>1.034405112266541</v>
+        <v>1.034431576728821</v>
       </c>
       <c r="I68">
-        <v>87262.1640625</v>
+        <v>87375.5234375</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2396,13 +2396,13 @@
         <v>80099.88371637101</v>
       </c>
       <c r="G69">
-        <v>0.7411249876022339</v>
+        <v>0.7412758469581604</v>
       </c>
       <c r="H69">
-        <v>1.035458445549011</v>
+        <v>1.03548538684845</v>
       </c>
       <c r="I69">
-        <v>80504.328125</v>
+        <v>80538.1015625</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2425,13 +2425,13 @@
         <v>86055.46884267239</v>
       </c>
       <c r="G70">
-        <v>0.6623660326004028</v>
+        <v>0.6627015471458435</v>
       </c>
       <c r="H70">
-        <v>1.03122353553772</v>
+        <v>1.031229019165039</v>
       </c>
       <c r="I70">
-        <v>85457.546875</v>
+        <v>85423.0390625</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2454,13 +2454,13 @@
         <v>85011.69015755533</v>
       </c>
       <c r="G71">
-        <v>0.7503777742385864</v>
+        <v>0.750521719455719</v>
       </c>
       <c r="H71">
-        <v>1.036545872688293</v>
+        <v>1.036573648452759</v>
       </c>
       <c r="I71">
-        <v>84836.359375</v>
+        <v>84878.1953125</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2483,13 +2483,13 @@
         <v>65295.51843847329</v>
       </c>
       <c r="G72">
-        <v>0.7106985449790955</v>
+        <v>0.7109637856483459</v>
       </c>
       <c r="H72">
-        <v>1.031066179275513</v>
+        <v>1.031089544296265</v>
       </c>
       <c r="I72">
-        <v>64527.50390625</v>
+        <v>64514.2265625</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2512,13 +2512,13 @@
         <v>73809.16535697946</v>
       </c>
       <c r="G73">
-        <v>0.7587941884994507</v>
+        <v>0.7589356303215027</v>
       </c>
       <c r="H73">
-        <v>1.035117626190186</v>
+        <v>1.035120368003845</v>
       </c>
       <c r="I73">
-        <v>73624.265625</v>
+        <v>73623.203125</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2541,13 +2541,13 @@
         <v>82545.26761393597</v>
       </c>
       <c r="G74">
-        <v>0.7052932977676392</v>
+        <v>0.7058426737785339</v>
       </c>
       <c r="H74">
-        <v>1.032970428466797</v>
+        <v>1.03299355506897</v>
       </c>
       <c r="I74">
-        <v>82625.3046875</v>
+        <v>82723.515625</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2570,13 +2570,13 @@
         <v>71623.59727313645</v>
       </c>
       <c r="G75">
-        <v>0.7596989870071411</v>
+        <v>0.7598705291748047</v>
       </c>
       <c r="H75">
-        <v>1.03473174571991</v>
+        <v>1.034739375114441</v>
       </c>
       <c r="I75">
-        <v>71258.5</v>
+        <v>71238.75</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2599,13 +2599,13 @@
         <v>81320.40426984521</v>
       </c>
       <c r="G76">
-        <v>0.6698392629623413</v>
+        <v>0.6700164675712585</v>
       </c>
       <c r="H76">
-        <v>1.031046748161316</v>
+        <v>1.031044363975525</v>
       </c>
       <c r="I76">
-        <v>81074.4609375</v>
+        <v>81031.6171875</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2628,13 +2628,13 @@
         <v>72790.46354393325</v>
       </c>
       <c r="G77">
-        <v>0.7638084888458252</v>
+        <v>0.764169454574585</v>
       </c>
       <c r="H77">
-        <v>1.036173939704895</v>
+        <v>1.036182522773743</v>
       </c>
       <c r="I77">
-        <v>73193</v>
+        <v>73126.9140625</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2657,13 +2657,13 @@
         <v>70608.55581957518</v>
       </c>
       <c r="G78">
-        <v>0.7465767860412598</v>
+        <v>0.7466852068901062</v>
       </c>
       <c r="H78">
-        <v>1.03429639339447</v>
+        <v>1.034306049346924</v>
       </c>
       <c r="I78">
-        <v>70941.4921875</v>
+        <v>70934.96875</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2686,13 +2686,13 @@
         <v>69925.81047232136</v>
       </c>
       <c r="G79">
-        <v>0.710082471370697</v>
+        <v>0.7099311351776123</v>
       </c>
       <c r="H79">
-        <v>1.032105326652527</v>
+        <v>1.032107949256897</v>
       </c>
       <c r="I79">
-        <v>70259.7734375</v>
+        <v>70190.578125</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2715,13 +2715,13 @@
         <v>74599.91229194535</v>
       </c>
       <c r="G80">
-        <v>0.7113417983055115</v>
+        <v>0.71136075258255</v>
       </c>
       <c r="H80">
-        <v>1.032450199127197</v>
+        <v>1.032452940940857</v>
       </c>
       <c r="I80">
-        <v>74876.2109375</v>
+        <v>74860.03125</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2744,13 +2744,13 @@
         <v>76030.25181731302</v>
       </c>
       <c r="G81">
-        <v>0.7725399136543274</v>
+        <v>0.7727171182632446</v>
       </c>
       <c r="H81">
         <v>1.036976456642151</v>
       </c>
       <c r="I81">
-        <v>75985.6953125</v>
+        <v>76035.9375</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2773,13 +2773,13 @@
         <v>89345.48785304721</v>
       </c>
       <c r="G82">
-        <v>0.7363520264625549</v>
+        <v>0.7364472150802612</v>
       </c>
       <c r="H82">
-        <v>1.035582661628723</v>
+        <v>1.035605192184448</v>
       </c>
       <c r="I82">
-        <v>88654.484375</v>
+        <v>88680.703125</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2802,13 +2802,13 @@
         <v>69659.94878883265</v>
       </c>
       <c r="G83">
-        <v>0.7196366190910339</v>
+        <v>0.7197152972221375</v>
       </c>
       <c r="H83">
-        <v>1.032240033149719</v>
+        <v>1.032243490219116</v>
       </c>
       <c r="I83">
-        <v>69565.34375</v>
+        <v>69547.4140625</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2831,13 +2831,13 @@
         <v>77414.34810601255</v>
       </c>
       <c r="G84">
-        <v>0.7291608452796936</v>
+        <v>0.7290828824043274</v>
       </c>
       <c r="H84">
-        <v>1.034204959869385</v>
+        <v>1.034188508987427</v>
       </c>
       <c r="I84">
-        <v>77475.203125</v>
+        <v>77362.7109375</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2860,13 +2860,13 @@
         <v>94602.86908759469</v>
       </c>
       <c r="G85">
-        <v>0.6977176666259766</v>
+        <v>0.6982203722000122</v>
       </c>
       <c r="H85">
-        <v>1.033668756484985</v>
+        <v>1.033687233924866</v>
       </c>
       <c r="I85">
-        <v>92966.8359375</v>
+        <v>92974.6953125</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2889,13 +2889,13 @@
         <v>78210.63072795217</v>
       </c>
       <c r="G86">
-        <v>0.6737622618675232</v>
+        <v>0.6738466024398804</v>
       </c>
       <c r="H86">
-        <v>1.030811905860901</v>
+        <v>1.030809283256531</v>
       </c>
       <c r="I86">
-        <v>78283.78125</v>
+        <v>78273.6953125</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2918,13 +2918,13 @@
         <v>89517.44737723017</v>
       </c>
       <c r="G87">
-        <v>0.6994968056678772</v>
+        <v>0.6996777653694153</v>
       </c>
       <c r="H87">
-        <v>1.033293724060059</v>
+        <v>1.033280968666077</v>
       </c>
       <c r="I87">
-        <v>88940.234375</v>
+        <v>88931.8515625</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2947,13 +2947,13 @@
         <v>67099.66344767701</v>
       </c>
       <c r="G88">
-        <v>0.7263022065162659</v>
+        <v>0.7264600396156311</v>
       </c>
       <c r="H88">
-        <v>1.032225012779236</v>
+        <v>1.032234072685242</v>
       </c>
       <c r="I88">
-        <v>66895.8203125</v>
+        <v>66890.1171875</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2976,13 +2976,13 @@
         <v>80887.51816786182</v>
       </c>
       <c r="G89">
-        <v>0.7217928171157837</v>
+        <v>0.7218136787414551</v>
       </c>
       <c r="H89">
-        <v>1.034125685691833</v>
+        <v>1.034102439880371</v>
       </c>
       <c r="I89">
-        <v>81279.6484375</v>
+        <v>81228.2890625</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3005,13 +3005,13 @@
         <v>75969.34526755988</v>
       </c>
       <c r="G90">
-        <v>0.6933746933937073</v>
+        <v>0.693386435508728</v>
       </c>
       <c r="H90">
-        <v>1.031495094299316</v>
+        <v>1.031495332717896</v>
       </c>
       <c r="I90">
-        <v>75929.4453125</v>
+        <v>75915.59375</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3034,13 +3034,13 @@
         <v>74177.05785785212</v>
       </c>
       <c r="G91">
-        <v>0.7146655321121216</v>
+        <v>0.7149146795272827</v>
       </c>
       <c r="H91">
-        <v>1.032333612442017</v>
+        <v>1.032339692115784</v>
       </c>
       <c r="I91">
-        <v>74199.796875</v>
+        <v>74185.1953125</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3063,13 +3063,13 @@
         <v>84349.1162867714</v>
       </c>
       <c r="G92">
-        <v>0.7218051552772522</v>
+        <v>0.7219964861869812</v>
       </c>
       <c r="H92">
-        <v>1.034152269363403</v>
+        <v>1.034164071083069</v>
       </c>
       <c r="I92">
-        <v>84289.8046875</v>
+        <v>84316.421875</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3092,13 +3092,13 @@
         <v>90936.71391413134</v>
       </c>
       <c r="G93">
-        <v>0.7075839638710022</v>
+        <v>0.7081741690635681</v>
       </c>
       <c r="H93">
-        <v>1.033868789672852</v>
+        <v>1.033880591392517</v>
       </c>
       <c r="I93">
-        <v>90052.3984375</v>
+        <v>90082.6328125</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3121,13 +3121,13 @@
         <v>75602.5895983599</v>
       </c>
       <c r="G94">
-        <v>0.7592369318008423</v>
+        <v>0.7594336867332458</v>
       </c>
       <c r="H94">
-        <v>1.036067724227905</v>
+        <v>1.036071300506592</v>
       </c>
       <c r="I94">
-        <v>75815.3828125</v>
+        <v>75835.453125</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3150,13 +3150,13 @@
         <v>81350.10967911783</v>
       </c>
       <c r="G95">
-        <v>0.6587870717048645</v>
+        <v>0.6588159799575806</v>
       </c>
       <c r="H95">
-        <v>1.03050684928894</v>
+        <v>1.030503034591675</v>
       </c>
       <c r="I95">
-        <v>81152.9609375</v>
+        <v>81080.015625</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3179,13 +3179,13 @@
         <v>77350.32360771715</v>
       </c>
       <c r="G96">
-        <v>0.7049343585968018</v>
+        <v>0.705009400844574</v>
       </c>
       <c r="H96">
-        <v>1.032411098480225</v>
+        <v>1.032406091690063</v>
       </c>
       <c r="I96">
-        <v>77460.84375</v>
+        <v>77411.40625</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3208,13 +3208,13 @@
         <v>88999.55306112269</v>
       </c>
       <c r="G97">
-        <v>0.7154037356376648</v>
+        <v>0.7159812450408936</v>
       </c>
       <c r="H97">
-        <v>1.034322023391724</v>
+        <v>1.034348487854004</v>
       </c>
       <c r="I97">
-        <v>88329.9140625</v>
+        <v>88287.796875</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3237,13 +3237,13 @@
         <v>92767.28100028589</v>
       </c>
       <c r="G98">
-        <v>0.7083290815353394</v>
+        <v>0.7088088989257812</v>
       </c>
       <c r="H98">
-        <v>1.03408944606781</v>
+        <v>1.034107446670532</v>
       </c>
       <c r="I98">
-        <v>91605.28125</v>
+        <v>91660.921875</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3266,13 +3266,13 @@
         <v>74613.77525697168</v>
       </c>
       <c r="G99">
-        <v>0.7595488429069519</v>
+        <v>0.7599373459815979</v>
       </c>
       <c r="H99">
-        <v>1.036164999008179</v>
+        <v>1.036172389984131</v>
       </c>
       <c r="I99">
-        <v>74998.9609375</v>
+        <v>74941.0546875</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3295,13 +3295,13 @@
         <v>69935.752314963</v>
       </c>
       <c r="G100">
-        <v>0.74996018409729</v>
+        <v>0.7502539753913879</v>
       </c>
       <c r="H100">
-        <v>1.033718705177307</v>
+        <v>1.033731579780579</v>
       </c>
       <c r="I100">
-        <v>69184.765625</v>
+        <v>69151.03125</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3324,13 +3324,13 @@
         <v>70817.75348355506</v>
       </c>
       <c r="G101">
-        <v>0.7506222724914551</v>
+        <v>0.7507031559944153</v>
       </c>
       <c r="H101">
-        <v>1.035008072853088</v>
+        <v>1.034991979598999</v>
       </c>
       <c r="I101">
-        <v>71307.8046875</v>
+        <v>71240.5859375</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>101.9134541931352</v>
+        <v>115.9366827238042</v>
       </c>
       <c r="B2">
-        <v>0.106970280159525</v>
+        <v>0.09612944355519132</v>
       </c>
       <c r="C2">
-        <v>0.000926225341393263</v>
+        <v>0.0009256706496284394</v>
       </c>
       <c r="D2">
-        <v>0.6894056795738879</v>
+        <v>0.6916197704167792</v>
       </c>
       <c r="E2">
-        <v>1.031882260731193</v>
+        <v>1.032336315794523</v>
       </c>
       <c r="F2">
-        <v>81538.50378104943</v>
+        <v>81664.51409179802</v>
       </c>
       <c r="G2">
-        <v>0.689469039440155</v>
+        <v>0.6923421025276184</v>
       </c>
       <c r="H2">
-        <v>1.031892776489258</v>
+        <v>1.032211184501648</v>
       </c>
       <c r="I2">
-        <v>81521.96875</v>
+        <v>81728.7734375</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>108.4352681589187</v>
+        <v>110.7424580429719</v>
       </c>
       <c r="B3">
-        <v>0.09098447821450543</v>
+        <v>0.1168279143357094</v>
       </c>
       <c r="C3">
-        <v>0.001076965233335448</v>
+        <v>0.0009502305811828078</v>
       </c>
       <c r="D3">
-        <v>0.7284417809339752</v>
+        <v>0.6659891480647903</v>
       </c>
       <c r="E3">
-        <v>1.033028378276281</v>
+        <v>1.030756421434401</v>
       </c>
       <c r="F3">
-        <v>74465.41067907</v>
+        <v>76173.52837206401</v>
       </c>
       <c r="G3">
-        <v>0.7285410165786743</v>
+        <v>0.6660783886909485</v>
       </c>
       <c r="H3">
-        <v>1.033046364784241</v>
+        <v>1.030390858650208</v>
       </c>
       <c r="I3">
-        <v>74414.078125</v>
+        <v>76138.1640625</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>104.0282503206033</v>
+        <v>93.45941014660464</v>
       </c>
       <c r="B4">
-        <v>0.109219436254788</v>
+        <v>0.0843051936657227</v>
       </c>
       <c r="C4">
-        <v>0.0009520796015673995</v>
+        <v>0.001009788233499279</v>
       </c>
       <c r="D4">
-        <v>0.6864619032469254</v>
+        <v>0.7503095087425227</v>
       </c>
       <c r="E4">
-        <v>1.031506971853486</v>
+        <v>1.036185209556876</v>
       </c>
       <c r="F4">
-        <v>78830.50808908061</v>
+        <v>82986.95494028664</v>
       </c>
       <c r="G4">
-        <v>0.6863716840744019</v>
+        <v>0.7490873336791992</v>
       </c>
       <c r="H4">
-        <v>1.031484007835388</v>
+        <v>1.035754084587097</v>
       </c>
       <c r="I4">
-        <v>78877.703125</v>
+        <v>82766.5703125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>101.7593884437088</v>
+        <v>83.57947622405169</v>
       </c>
       <c r="B5">
-        <v>0.1181174580499429</v>
+        <v>0.117455499357589</v>
       </c>
       <c r="C5">
-        <v>0.0008744069494475604</v>
+        <v>0.001098231443929161</v>
       </c>
       <c r="D5">
-        <v>0.6642529128823289</v>
+        <v>0.7075880810908562</v>
       </c>
       <c r="E5">
-        <v>1.031062335648002</v>
+        <v>1.032441939576134</v>
       </c>
       <c r="F5">
-        <v>82841.31125921379</v>
+        <v>71100.99696412635</v>
       </c>
       <c r="G5">
-        <v>0.6656992435455322</v>
+        <v>0.7083325386047363</v>
       </c>
       <c r="H5">
-        <v>1.030896663665771</v>
+        <v>1.032215714454651</v>
       </c>
       <c r="I5">
-        <v>82427.5625</v>
+        <v>71643.3671875</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>97.00732312623538</v>
+        <v>96.36392073445874</v>
       </c>
       <c r="B6">
-        <v>0.09015130420140427</v>
+        <v>0.1144836842514405</v>
       </c>
       <c r="C6">
-        <v>0.0008136774853122456</v>
+        <v>0.0009347361258512193</v>
       </c>
       <c r="D6">
-        <v>0.7101028212261322</v>
+        <v>0.6847910605909596</v>
       </c>
       <c r="E6">
-        <v>1.034769324225474</v>
+        <v>1.031536719584567</v>
       </c>
       <c r="F6">
-        <v>96695.83683405023</v>
+        <v>80254.54317002522</v>
       </c>
       <c r="G6">
-        <v>0.7135008573532104</v>
+        <v>0.6845700144767761</v>
       </c>
       <c r="H6">
-        <v>1.034761548042297</v>
+        <v>1.031490683555603</v>
       </c>
       <c r="I6">
-        <v>94985.8515625</v>
+        <v>80195.4453125</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>105.7189441433412</v>
+        <v>89.50377124731151</v>
       </c>
       <c r="B7">
-        <v>0.1029853126523506</v>
+        <v>0.09820319897602317</v>
       </c>
       <c r="C7">
-        <v>0.0008303649726743065</v>
+        <v>0.001166267181260725</v>
       </c>
       <c r="D7">
-        <v>0.6768559756948075</v>
+        <v>0.7386795176292599</v>
       </c>
       <c r="E7">
-        <v>1.032255186762739</v>
+        <v>1.034055322776733</v>
       </c>
       <c r="F7">
-        <v>89221.94783598969</v>
+        <v>70301.90645410022</v>
       </c>
       <c r="G7">
-        <v>0.6804012656211853</v>
+        <v>0.7408623695373535</v>
       </c>
       <c r="H7">
-        <v>1.032281398773193</v>
+        <v>1.033913016319275</v>
       </c>
       <c r="I7">
-        <v>88518.3125</v>
+        <v>70645.7265625</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>97.55346363800341</v>
+        <v>85.59378000505033</v>
       </c>
       <c r="B8">
-        <v>0.1036079774072063</v>
+        <v>0.09320679939426481</v>
       </c>
       <c r="C8">
-        <v>0.001070320675028789</v>
+        <v>0.001142026260545851</v>
       </c>
       <c r="D8">
-        <v>0.7153566801011026</v>
+        <v>0.7494068925781461</v>
       </c>
       <c r="E8">
-        <v>1.032354481830206</v>
+        <v>1.035703006552434</v>
       </c>
       <c r="F8">
-        <v>73551.88058884651</v>
+        <v>73305.35859412381</v>
       </c>
       <c r="G8">
-        <v>0.7150504589080811</v>
+        <v>0.7506029009819031</v>
       </c>
       <c r="H8">
-        <v>1.032357335090637</v>
+        <v>1.035131454467773</v>
       </c>
       <c r="I8">
-        <v>73518.2890625</v>
+        <v>73466.1875</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>115.3572194329611</v>
+        <v>82.4946671965525</v>
       </c>
       <c r="B9">
-        <v>0.1028322226632898</v>
+        <v>0.08952376237460116</v>
       </c>
       <c r="C9">
-        <v>0.0009818494965918576</v>
+        <v>0.000823089846847721</v>
       </c>
       <c r="D9">
-        <v>0.6881219546363398</v>
+        <v>0.7321502211040813</v>
       </c>
       <c r="E9">
-        <v>1.031530999477865</v>
+        <v>1.037630523808583</v>
       </c>
       <c r="F9">
-        <v>76427.09527010556</v>
+        <v>99832.73394930655</v>
       </c>
       <c r="G9">
-        <v>0.6888980269432068</v>
+        <v>0.7312948107719421</v>
       </c>
       <c r="H9">
-        <v>1.031484484672546</v>
+        <v>1.036519289016724</v>
       </c>
       <c r="I9">
-        <v>76420.7890625</v>
+        <v>96586.4140625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>118.1752462310887</v>
+        <v>108.8431365793589</v>
       </c>
       <c r="B10">
-        <v>0.08914499946635959</v>
+        <v>0.1044869340439124</v>
       </c>
       <c r="C10">
-        <v>0.001014338787271196</v>
+        <v>0.0009034296440442345</v>
       </c>
       <c r="D10">
-        <v>0.7149164559504366</v>
+        <v>0.6819274209075046</v>
       </c>
       <c r="E10">
-        <v>1.032809430113941</v>
+        <v>1.031809704274785</v>
       </c>
       <c r="F10">
-        <v>77261.85062254904</v>
+        <v>82471.10627716557</v>
       </c>
       <c r="G10">
-        <v>0.7149366736412048</v>
+        <v>0.6834313273429871</v>
       </c>
       <c r="H10">
-        <v>1.032739043235779</v>
+        <v>1.031773328781128</v>
       </c>
       <c r="I10">
-        <v>77498.5859375</v>
+        <v>82343.1484375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>95.43099149611669</v>
+        <v>80.84830830139711</v>
       </c>
       <c r="B11">
-        <v>0.117747435132188</v>
+        <v>0.08169686031650679</v>
       </c>
       <c r="C11">
-        <v>0.001155492289612001</v>
+        <v>0.0009788855089532644</v>
       </c>
       <c r="D11">
-        <v>0.700898654350199</v>
+        <v>0.7654000419682092</v>
       </c>
       <c r="E11">
-        <v>1.031000690276929</v>
+        <v>1.039952007682214</v>
       </c>
       <c r="F11">
-        <v>66432.29719207993</v>
+        <v>88580.3608109831</v>
       </c>
       <c r="G11">
-        <v>0.7018513679504395</v>
+        <v>0.7620955109596252</v>
       </c>
       <c r="H11">
-        <v>1.030927062034607</v>
+        <v>1.037750005722046</v>
       </c>
       <c r="I11">
-        <v>65899.6171875</v>
+        <v>87694.28125</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>111.4354113606119</v>
+        <v>110.6065704395066</v>
       </c>
       <c r="B12">
-        <v>0.09792735292788715</v>
+        <v>0.08101210663972334</v>
       </c>
       <c r="C12">
-        <v>0.001192209335422964</v>
+        <v>0.0008450169802887373</v>
       </c>
       <c r="D12">
-        <v>0.7228637911922389</v>
+        <v>0.7161161788158763</v>
       </c>
       <c r="E12">
-        <v>1.031833111580448</v>
+        <v>1.034816660661998</v>
       </c>
       <c r="F12">
-        <v>66425.55258270158</v>
+        <v>93642.69126249627</v>
       </c>
       <c r="G12">
-        <v>0.7236108779907227</v>
+        <v>0.7169065475463867</v>
       </c>
       <c r="H12">
-        <v>1.031871795654297</v>
+        <v>1.034643054008484</v>
       </c>
       <c r="I12">
-        <v>65785.734375</v>
+        <v>92072.9921875</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>101.1326600410373</v>
+        <v>86.16056280727373</v>
       </c>
       <c r="B13">
-        <v>0.1135789704395148</v>
+        <v>0.097208843611027</v>
       </c>
       <c r="C13">
-        <v>0.0008890256571012658</v>
+        <v>0.0009406036791425204</v>
       </c>
       <c r="D13">
-        <v>0.6743774679801835</v>
+        <v>0.7264089410824757</v>
       </c>
       <c r="E13">
-        <v>1.031373309824868</v>
+        <v>1.035060394503714</v>
       </c>
       <c r="F13">
-        <v>82897.20479325813</v>
+        <v>85958.32960156043</v>
       </c>
       <c r="G13">
-        <v>0.6752234697341919</v>
+        <v>0.7259270548820496</v>
       </c>
       <c r="H13">
-        <v>1.031356692314148</v>
+        <v>1.03483247756958</v>
       </c>
       <c r="I13">
-        <v>82598.1875</v>
+        <v>85706.4765625</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>102.6672977817588</v>
+        <v>83.51756851151269</v>
       </c>
       <c r="B14">
-        <v>0.1078194439056891</v>
+        <v>0.0830688148200268</v>
       </c>
       <c r="C14">
-        <v>0.001063925480947941</v>
+        <v>0.001094116500597568</v>
       </c>
       <c r="D14">
-        <v>0.7026196391448699</v>
+        <v>0.7680176263492305</v>
       </c>
       <c r="E14">
-        <v>1.031510342624039</v>
+        <v>1.038636355198548</v>
       </c>
       <c r="F14">
-        <v>72324.81594804979</v>
+        <v>79212.20090002203</v>
       </c>
       <c r="G14">
-        <v>0.7023497223854065</v>
+        <v>0.766714334487915</v>
       </c>
       <c r="H14">
-        <v>1.031507730484009</v>
+        <v>1.037063121795654</v>
       </c>
       <c r="I14">
-        <v>72474.734375</v>
+        <v>79485.890625</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>116.6830816598987</v>
+        <v>83.91273455486298</v>
       </c>
       <c r="B15">
-        <v>0.09205967438154888</v>
+        <v>0.09027626541843488</v>
       </c>
       <c r="C15">
-        <v>0.0009072240764916553</v>
+        <v>0.001070760376345575</v>
       </c>
       <c r="D15">
-        <v>0.6956464564419574</v>
+        <v>0.7520002188925617</v>
       </c>
       <c r="E15">
-        <v>1.032771325200475</v>
+        <v>1.036768772032835</v>
       </c>
       <c r="F15">
-        <v>83935.62639688494</v>
+        <v>78735.52344873219</v>
       </c>
       <c r="G15">
-        <v>0.6967504024505615</v>
+        <v>0.7516102194786072</v>
       </c>
       <c r="H15">
-        <v>1.03267765045166</v>
+        <v>1.036039113998413</v>
       </c>
       <c r="I15">
-        <v>83900.8125</v>
+        <v>79205.1015625</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>83.18492246803046</v>
+        <v>106.7441501206551</v>
       </c>
       <c r="B16">
-        <v>0.1123006485008809</v>
+        <v>0.08906970873192417</v>
       </c>
       <c r="C16">
-        <v>0.0008120986445855115</v>
+        <v>0.001047973814451577</v>
       </c>
       <c r="D16">
-        <v>0.689193231070699</v>
+        <v>0.7309986523827755</v>
       </c>
       <c r="E16">
-        <v>1.033510702563165</v>
+        <v>1.033469691069379</v>
       </c>
       <c r="F16">
-        <v>93837.49906414766</v>
+        <v>76950.39052454225</v>
       </c>
       <c r="G16">
-        <v>0.689745306968689</v>
+        <v>0.7299219965934753</v>
       </c>
       <c r="H16">
-        <v>1.033232450485229</v>
+        <v>1.033463835716248</v>
       </c>
       <c r="I16">
-        <v>91798.921875</v>
+        <v>77111.2890625</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>83.81576594286379</v>
+        <v>90.01857804057261</v>
       </c>
       <c r="B17">
-        <v>0.09594309958906869</v>
+        <v>0.09032527257258932</v>
       </c>
       <c r="C17">
-        <v>0.001101282571178555</v>
+        <v>0.001082525617411708</v>
       </c>
       <c r="D17">
-        <v>0.7434163471211955</v>
+        <v>0.7474447696844148</v>
       </c>
       <c r="E17">
-        <v>1.035594266942751</v>
+        <v>1.035457754754129</v>
       </c>
       <c r="F17">
-        <v>75377.83846040601</v>
+        <v>76996.88611420967</v>
       </c>
       <c r="G17">
-        <v>0.7440435886383057</v>
+        <v>0.7472257614135742</v>
       </c>
       <c r="H17">
-        <v>1.035033702850342</v>
+        <v>1.035185098648071</v>
       </c>
       <c r="I17">
-        <v>75483.7578125</v>
+        <v>76925.4296875</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>81.19290677076258</v>
+        <v>96.88520433001295</v>
       </c>
       <c r="B18">
-        <v>0.1149389708146189</v>
+        <v>0.08553763081794895</v>
       </c>
       <c r="C18">
-        <v>0.0009294480195554264</v>
+        <v>0.0008843322107500298</v>
       </c>
       <c r="D18">
-        <v>0.7007942966215395</v>
+        <v>0.7300425664749978</v>
       </c>
       <c r="E18">
-        <v>1.033308949851959</v>
+        <v>1.035537501774775</v>
       </c>
       <c r="F18">
-        <v>83429.7766818427</v>
+        <v>91813.1528097886</v>
       </c>
       <c r="G18">
-        <v>0.6989539265632629</v>
+        <v>0.7286370992660522</v>
       </c>
       <c r="H18">
-        <v>1.033021688461304</v>
+        <v>1.035286664962769</v>
       </c>
       <c r="I18">
-        <v>82803.53125</v>
+        <v>90979.1015625</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>113.0384583563446</v>
+        <v>102.2488152966294</v>
       </c>
       <c r="B19">
-        <v>0.1031858380657279</v>
+        <v>0.08087217142238544</v>
       </c>
       <c r="C19">
-        <v>0.0009543186859356742</v>
+        <v>0.0009379468012900157</v>
       </c>
       <c r="D19">
-        <v>0.6864408933641143</v>
+        <v>0.7404212016045542</v>
       </c>
       <c r="E19">
-        <v>1.031682784533075</v>
+        <v>1.035637245095123</v>
       </c>
       <c r="F19">
-        <v>78495.33357414858</v>
+        <v>87785.39898798989</v>
       </c>
       <c r="G19">
-        <v>0.6870363354682922</v>
+        <v>0.7379845380783081</v>
       </c>
       <c r="H19">
-        <v>1.031622767448425</v>
+        <v>1.035333395004272</v>
       </c>
       <c r="I19">
-        <v>78732.390625</v>
+        <v>87304.046875</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>110.9035442783677</v>
+        <v>114.1333463057615</v>
       </c>
       <c r="B20">
-        <v>0.1149637512172175</v>
+        <v>0.08492726141803682</v>
       </c>
       <c r="C20">
-        <v>0.00103461967235672</v>
+        <v>0.001069085783561953</v>
       </c>
       <c r="D20">
-        <v>0.6793646972258551</v>
+        <v>0.7341189327102274</v>
       </c>
       <c r="E20">
-        <v>1.030698708548937</v>
+        <v>1.033512014317624</v>
       </c>
       <c r="F20">
-        <v>71426.37757296051</v>
+        <v>75633.06256820157</v>
       </c>
       <c r="G20">
-        <v>0.6792457699775696</v>
+        <v>0.7323932647705078</v>
       </c>
       <c r="H20">
-        <v>1.030458927154541</v>
+        <v>1.033496737480164</v>
       </c>
       <c r="I20">
-        <v>71471.5703125</v>
+        <v>75568.453125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>114.5042096881212</v>
+        <v>108.899971556213</v>
       </c>
       <c r="B21">
-        <v>0.107547099648773</v>
+        <v>0.1046443408304789</v>
       </c>
       <c r="C21">
-        <v>0.00112976860988011</v>
+        <v>0.001148657295445396</v>
       </c>
       <c r="D21">
-        <v>0.6977804745323232</v>
+        <v>0.70968489632294</v>
       </c>
       <c r="E21">
-        <v>1.030956009724942</v>
+        <v>1.031349918333347</v>
       </c>
       <c r="F21">
-        <v>67280.96655030428</v>
+        <v>67556.93680367025</v>
       </c>
       <c r="G21">
-        <v>0.6977505683898926</v>
+        <v>0.7094854116439819</v>
       </c>
       <c r="H21">
-        <v>1.030784845352173</v>
+        <v>1.03127121925354</v>
       </c>
       <c r="I21">
-        <v>66753.359375</v>
+        <v>67239.84375</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>118.7614942623296</v>
+        <v>90.99701932028022</v>
       </c>
       <c r="B22">
-        <v>0.1088298055162</v>
+        <v>0.1185905019313548</v>
       </c>
       <c r="C22">
-        <v>0.001050559953619646</v>
+        <v>0.001017121482483573</v>
       </c>
       <c r="D22">
-        <v>0.6827718098353635</v>
+        <v>0.6928627696458554</v>
       </c>
       <c r="E22">
-        <v>1.030945237443732</v>
+        <v>1.031472046385085</v>
       </c>
       <c r="F22">
-        <v>70626.40064168505</v>
+        <v>74754.65763892292</v>
       </c>
       <c r="G22">
-        <v>0.6827652454376221</v>
+        <v>0.6926150918006897</v>
       </c>
       <c r="H22">
-        <v>1.030595302581787</v>
+        <v>1.031440734863281</v>
       </c>
       <c r="I22">
-        <v>70250.9375</v>
+        <v>74887.5234375</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>111.7268002306298</v>
+        <v>85.55439117854182</v>
       </c>
       <c r="B23">
-        <v>0.1000519148175622</v>
+        <v>0.1192211708611717</v>
       </c>
       <c r="C23">
-        <v>0.001146076372698427</v>
+        <v>0.0009148198284050538</v>
       </c>
       <c r="D23">
-        <v>0.7148665515118584</v>
+        <v>0.6878199630184515</v>
       </c>
       <c r="E23">
-        <v>1.031684109501938</v>
+        <v>1.032181874266357</v>
       </c>
       <c r="F23">
-        <v>68248.14291811716</v>
+        <v>82760.26344095323</v>
       </c>
       <c r="G23">
-        <v>0.7150337696075439</v>
+        <v>0.6853999495506287</v>
       </c>
       <c r="H23">
-        <v>1.031635642051697</v>
+        <v>1.032002925872803</v>
       </c>
       <c r="I23">
-        <v>68065.78125</v>
+        <v>82239.390625</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>98.49001874708463</v>
+        <v>82.57099362847804</v>
       </c>
       <c r="B24">
-        <v>0.1178781499599128</v>
+        <v>0.0964349860477957</v>
       </c>
       <c r="C24">
-        <v>0.0009112301088452841</v>
+        <v>0.000815855604896995</v>
       </c>
       <c r="D24">
-        <v>0.6739449663271293</v>
+        <v>0.7179174325225729</v>
       </c>
       <c r="E24">
-        <v>1.031149933761538</v>
+        <v>1.036139824977295</v>
       </c>
       <c r="F24">
-        <v>80811.52741395582</v>
+        <v>98248.79070763022</v>
       </c>
       <c r="G24">
-        <v>0.6742108464241028</v>
+        <v>0.7182028293609619</v>
       </c>
       <c r="H24">
-        <v>1.031075954437256</v>
+        <v>1.035474300384521</v>
       </c>
       <c r="I24">
-        <v>80692.625</v>
+        <v>95668.1796875</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>110.9965416426828</v>
+        <v>92.22280938198161</v>
       </c>
       <c r="B25">
-        <v>0.1056443120923367</v>
+        <v>0.0867880562780543</v>
       </c>
       <c r="C25">
-        <v>0.001116832212034963</v>
+        <v>0.001082450521882363</v>
       </c>
       <c r="D25">
-        <v>0.7031361259808071</v>
+        <v>0.7524289485314408</v>
       </c>
       <c r="E25">
-        <v>1.031224849014623</v>
+        <v>1.03578118000606</v>
       </c>
       <c r="F25">
-        <v>68738.83122165086</v>
+        <v>77579.49528373979</v>
       </c>
       <c r="G25">
-        <v>0.7029770612716675</v>
+        <v>0.7515615224838257</v>
       </c>
       <c r="H25">
-        <v>1.031164288520813</v>
+        <v>1.03541374206543</v>
       </c>
       <c r="I25">
-        <v>68519.109375</v>
+        <v>77372.71875</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>85.0366324545047</v>
+        <v>90.67520279868074</v>
       </c>
       <c r="B26">
-        <v>0.0970151727513896</v>
+        <v>0.1054393609373976</v>
       </c>
       <c r="C26">
-        <v>0.0008767715545611445</v>
+        <v>0.0008070941133313807</v>
       </c>
       <c r="D26">
-        <v>0.7212496703066936</v>
+        <v>0.6896021182423618</v>
       </c>
       <c r="E26">
-        <v>1.035411357250042</v>
+        <v>1.033313371147812</v>
       </c>
       <c r="F26">
-        <v>91637.49349395366</v>
+        <v>94270.09119819044</v>
       </c>
       <c r="G26">
-        <v>0.7219290137290955</v>
+        <v>0.6913641095161438</v>
       </c>
       <c r="H26">
-        <v>1.035107731819153</v>
+        <v>1.033295392990112</v>
       </c>
       <c r="I26">
-        <v>90452.375</v>
+        <v>92692.296875</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>105.4848032496401</v>
+        <v>98.28074181093199</v>
       </c>
       <c r="B27">
-        <v>0.1041705373578038</v>
+        <v>0.09961997656785855</v>
       </c>
       <c r="C27">
-        <v>0.001177491068033045</v>
+        <v>0.0009500911124742024</v>
       </c>
       <c r="D27">
-        <v>0.7158558035829405</v>
+        <v>0.7094886735097066</v>
       </c>
       <c r="E27">
-        <v>1.031537750932059</v>
+        <v>1.032968493400892</v>
       </c>
       <c r="F27">
-        <v>66606.44255704015</v>
+        <v>82278.93675517307</v>
       </c>
       <c r="G27">
-        <v>0.7162647843360901</v>
+        <v>0.7093926072120667</v>
       </c>
       <c r="H27">
-        <v>1.031540513038635</v>
+        <v>1.032952427864075</v>
       </c>
       <c r="I27">
-        <v>66218.46875</v>
+        <v>82437.7109375</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>86.01970576234247</v>
+        <v>107.1844963342371</v>
       </c>
       <c r="B28">
-        <v>0.08115271970328804</v>
+        <v>0.119184510743185</v>
       </c>
       <c r="C28">
-        <v>0.001073494053848722</v>
+        <v>0.001011970368146245</v>
       </c>
       <c r="D28">
-        <v>0.7686366576212547</v>
+        <v>0.6742275216962692</v>
       </c>
       <c r="E28">
-        <v>1.038519993711841</v>
+        <v>1.030531565828567</v>
       </c>
       <c r="F28">
-        <v>80737.07906334888</v>
+        <v>72481.79789926219</v>
       </c>
       <c r="G28">
-        <v>0.7668229937553406</v>
+        <v>0.6726382970809937</v>
       </c>
       <c r="H28">
-        <v>1.037062168121338</v>
+        <v>1.030224800109863</v>
       </c>
       <c r="I28">
-        <v>80936.6953125</v>
+        <v>72217.1015625</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>117.4307012492322</v>
+        <v>107.6683765582352</v>
       </c>
       <c r="B29">
-        <v>0.09222187574112717</v>
+        <v>0.08296023803572811</v>
       </c>
       <c r="C29">
-        <v>0.0008884810586528869</v>
+        <v>0.001165464652505051</v>
       </c>
       <c r="D29">
-        <v>0.6913258647764083</v>
+        <v>0.7530645526196148</v>
       </c>
       <c r="E29">
-        <v>1.032781171214299</v>
+        <v>1.034261806170276</v>
       </c>
       <c r="F29">
-        <v>85125.14020514555</v>
+        <v>71551.14639535559</v>
       </c>
       <c r="G29">
-        <v>0.6931281685829163</v>
+        <v>0.7515797019004822</v>
       </c>
       <c r="H29">
-        <v>1.032634735107422</v>
+        <v>1.034102916717529</v>
       </c>
       <c r="I29">
-        <v>85065.9375</v>
+        <v>71039.5703125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>100.8564384750557</v>
+        <v>91.51409471938713</v>
       </c>
       <c r="B30">
-        <v>0.1062786872952407</v>
+        <v>0.1111025859655301</v>
       </c>
       <c r="C30">
-        <v>0.001175366049020141</v>
+        <v>0.0008390848185614511</v>
       </c>
       <c r="D30">
-        <v>0.7160858323279562</v>
+        <v>0.6837408471339597</v>
       </c>
       <c r="E30">
-        <v>1.031646387282388</v>
+        <v>1.032491833558275</v>
       </c>
       <c r="F30">
-        <v>66848.48321000017</v>
+        <v>89625.18409234335</v>
       </c>
       <c r="G30">
-        <v>0.7167617678642273</v>
+        <v>0.6848196387290955</v>
       </c>
       <c r="H30">
-        <v>1.031699061393738</v>
+        <v>1.032500147819519</v>
       </c>
       <c r="I30">
-        <v>66589.4765625</v>
+        <v>88543.1328125</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>96.65480951741816</v>
+        <v>95.29322316100293</v>
       </c>
       <c r="B31">
-        <v>0.09177119341167998</v>
+        <v>0.09170537351390343</v>
       </c>
       <c r="C31">
-        <v>0.001090493813378289</v>
+        <v>0.0009631300677176743</v>
       </c>
       <c r="D31">
-        <v>0.7393378848551437</v>
+        <v>0.729042586127758</v>
       </c>
       <c r="E31">
-        <v>1.034127503779021</v>
+        <v>1.03449619594539</v>
       </c>
       <c r="F31">
-        <v>75157.52364805204</v>
+        <v>83962.37647717001</v>
       </c>
       <c r="G31">
-        <v>0.7393189072608948</v>
+        <v>0.7289700508117676</v>
       </c>
       <c r="H31">
-        <v>1.03412926197052</v>
+        <v>1.034492611885071</v>
       </c>
       <c r="I31">
-        <v>75366.734375</v>
+        <v>83970.2421875</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>90.77074958725981</v>
+        <v>87.50134736998193</v>
       </c>
       <c r="B32">
-        <v>0.1046261198091555</v>
+        <v>0.08986379616554832</v>
       </c>
       <c r="C32">
-        <v>0.0009035468962782332</v>
+        <v>0.0008135342007021626</v>
       </c>
       <c r="D32">
-        <v>0.7039793198119177</v>
+        <v>0.7235835067025165</v>
       </c>
       <c r="E32">
-        <v>1.033249898130463</v>
+        <v>1.036407406012754</v>
       </c>
       <c r="F32">
-        <v>86032.53825126126</v>
+        <v>99322.95612949997</v>
       </c>
       <c r="G32">
-        <v>0.7045450210571289</v>
+        <v>0.7233743667602539</v>
       </c>
       <c r="H32">
-        <v>1.033206343650818</v>
+        <v>1.035829305648804</v>
       </c>
       <c r="I32">
-        <v>85870.9609375</v>
+        <v>96857.40625</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>110.7497630927721</v>
+        <v>111.3107762404287</v>
       </c>
       <c r="B33">
-        <v>0.09720778438563397</v>
+        <v>0.1063700621505431</v>
       </c>
       <c r="C33">
-        <v>0.0008876203601682522</v>
+        <v>0.0009383046395494612</v>
       </c>
       <c r="D33">
-        <v>0.6901788992722636</v>
+        <v>0.6807372678070543</v>
       </c>
       <c r="E33">
-        <v>1.03248806070577</v>
+        <v>1.031487950055388</v>
       </c>
       <c r="F33">
-        <v>85143.38850386722</v>
+        <v>79127.05478577153</v>
       </c>
       <c r="G33">
-        <v>0.6914399862289429</v>
+        <v>0.6815074682235718</v>
       </c>
       <c r="H33">
-        <v>1.032442450523376</v>
+        <v>1.031429648399353</v>
       </c>
       <c r="I33">
-        <v>85093.1953125</v>
+        <v>79271.5703125</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>98.28112460820776</v>
+        <v>82.62876380259009</v>
       </c>
       <c r="B34">
-        <v>0.08571084588890483</v>
+        <v>0.0900458597646696</v>
       </c>
       <c r="C34">
-        <v>0.001007134548759403</v>
+        <v>0.001047913694623639</v>
       </c>
       <c r="D34">
-        <v>0.7422798747839461</v>
+        <v>0.7520423847278569</v>
       </c>
       <c r="E34">
-        <v>1.035108364864163</v>
+        <v>1.037158912394181</v>
       </c>
       <c r="F34">
-        <v>81924.5274006101</v>
+        <v>80565.80093452327</v>
       </c>
       <c r="G34">
-        <v>0.7417071461677551</v>
+        <v>0.7512412071228027</v>
       </c>
       <c r="H34">
-        <v>1.034955739974976</v>
+        <v>1.036276459693909</v>
       </c>
       <c r="I34">
-        <v>81933.953125</v>
+        <v>81071.1484375</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>102.6825615020481</v>
+        <v>107.7221499766941</v>
       </c>
       <c r="B35">
-        <v>0.0920928124765726</v>
+        <v>0.106501557938472</v>
       </c>
       <c r="C35">
-        <v>0.0008140632021724524</v>
+        <v>0.0009133962270995029</v>
       </c>
       <c r="D35">
-        <v>0.6984930615046818</v>
+        <v>0.6813239049910388</v>
       </c>
       <c r="E35">
-        <v>1.033801289109046</v>
+        <v>1.031672842497762</v>
       </c>
       <c r="F35">
-        <v>94595.76326410174</v>
+        <v>81477.61771880077</v>
       </c>
       <c r="G35">
-        <v>0.7011125087738037</v>
+        <v>0.6823998093605042</v>
       </c>
       <c r="H35">
-        <v>1.033842206001282</v>
+        <v>1.031611204147339</v>
       </c>
       <c r="I35">
-        <v>93163.359375</v>
+        <v>81267.59375</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>81.1369067972385</v>
+        <v>110.9246587740338</v>
       </c>
       <c r="B36">
-        <v>0.1027425741031208</v>
+        <v>0.1006784814068455</v>
       </c>
       <c r="C36">
-        <v>0.0008853303766928711</v>
+        <v>0.0008862240709628215</v>
       </c>
       <c r="D36">
-        <v>0.716609925443075</v>
+        <v>0.6833713349462101</v>
       </c>
       <c r="E36">
-        <v>1.035242401281537</v>
+        <v>1.032140701955307</v>
       </c>
       <c r="F36">
-        <v>90149.4161812352</v>
+        <v>84292.60941559535</v>
       </c>
       <c r="G36">
-        <v>0.7169223427772522</v>
+        <v>0.6855370402336121</v>
       </c>
       <c r="H36">
-        <v>1.034726858139038</v>
+        <v>1.032081604003906</v>
       </c>
       <c r="I36">
-        <v>88849.859375</v>
+        <v>84187.890625</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>104.6112267514437</v>
+        <v>110.8741766052524</v>
       </c>
       <c r="B37">
-        <v>0.1035621467844425</v>
+        <v>0.0970243430260852</v>
       </c>
       <c r="C37">
-        <v>0.0009704772462480871</v>
+        <v>0.0008493584355891823</v>
       </c>
       <c r="D37">
-        <v>0.6977088312201652</v>
+        <v>0.6840019190808251</v>
       </c>
       <c r="E37">
-        <v>1.031977861782497</v>
+        <v>1.03259376613729</v>
       </c>
       <c r="F37">
-        <v>78777.28742279726</v>
+        <v>88160.90003302632</v>
       </c>
       <c r="G37">
-        <v>0.6973750591278076</v>
+        <v>0.6870647668838501</v>
       </c>
       <c r="H37">
-        <v>1.031994819641113</v>
+        <v>1.032526969909668</v>
       </c>
       <c r="I37">
-        <v>78727.671875</v>
+        <v>87717.0859375</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>104.3940715871387</v>
+        <v>90.56953781247785</v>
       </c>
       <c r="B38">
-        <v>0.102913496217743</v>
+        <v>0.102143722707396</v>
       </c>
       <c r="C38">
-        <v>0.000950675538656223</v>
+        <v>0.0010302384200077</v>
       </c>
       <c r="D38">
-        <v>0.6966317743966153</v>
+        <v>0.7212427710176909</v>
       </c>
       <c r="E38">
-        <v>1.032095914577156</v>
+        <v>1.033431262864771</v>
       </c>
       <c r="F38">
-        <v>80320.57700922184</v>
+        <v>77449.01893265596</v>
       </c>
       <c r="G38">
-        <v>0.6965954303741455</v>
+        <v>0.7215126156806946</v>
       </c>
       <c r="H38">
-        <v>1.032090902328491</v>
+        <v>1.033400058746338</v>
       </c>
       <c r="I38">
-        <v>80209.7265625</v>
+        <v>77319.28125</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>104.5837284488568</v>
+        <v>95.05356590051393</v>
       </c>
       <c r="B39">
-        <v>0.1060053617864398</v>
+        <v>0.09165257296959857</v>
       </c>
       <c r="C39">
-        <v>0.0009857218287205745</v>
+        <v>0.001076544435766822</v>
       </c>
       <c r="D39">
-        <v>0.695322102979588</v>
+        <v>0.7399083882987981</v>
       </c>
       <c r="E39">
-        <v>1.031722457411365</v>
+        <v>1.034378450345545</v>
       </c>
       <c r="F39">
-        <v>77213.73242142811</v>
+        <v>76279.67529202791</v>
       </c>
       <c r="G39">
-        <v>0.6954224705696106</v>
+        <v>0.7401264309883118</v>
       </c>
       <c r="H39">
-        <v>1.031730175018311</v>
+        <v>1.034372448921204</v>
       </c>
       <c r="I39">
-        <v>77168.5859375</v>
+        <v>76263.34375</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>117.3946050419503</v>
+        <v>103.4338426008754</v>
       </c>
       <c r="B40">
-        <v>0.1059623386226816</v>
+        <v>0.1080975796882395</v>
       </c>
       <c r="C40">
-        <v>0.0009128320546284192</v>
+        <v>0.00106740596049046</v>
       </c>
       <c r="D40">
-        <v>0.6700945400656636</v>
+        <v>0.7017237980108207</v>
       </c>
       <c r="E40">
-        <v>1.031543576689112</v>
+        <v>1.031433946186709</v>
       </c>
       <c r="F40">
-        <v>79846.95430622832</v>
+        <v>71960.20679108948</v>
       </c>
       <c r="G40">
-        <v>0.6729841828346252</v>
+        <v>0.7014785408973694</v>
       </c>
       <c r="H40">
-        <v>1.031192421913147</v>
+        <v>1.031423449516296</v>
       </c>
       <c r="I40">
-        <v>80196.375</v>
+        <v>72077.0859375</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>107.1272247580225</v>
+        <v>91.09478221351259</v>
       </c>
       <c r="B41">
-        <v>0.09731165206894359</v>
+        <v>0.09666245060725594</v>
       </c>
       <c r="C41">
-        <v>0.001034018838695971</v>
+        <v>0.001175950286935216</v>
       </c>
       <c r="D41">
-        <v>0.7134133319763776</v>
+        <v>0.7407840970310974</v>
       </c>
       <c r="E41">
-        <v>1.032383244715831</v>
+        <v>1.034022305622192</v>
       </c>
       <c r="F41">
-        <v>75743.91139820353</v>
+        <v>69907.14507071544</v>
       </c>
       <c r="G41">
-        <v>0.7139703631401062</v>
+        <v>0.7428241372108459</v>
       </c>
       <c r="H41">
-        <v>1.032395601272583</v>
+        <v>1.033937454223633</v>
       </c>
       <c r="I41">
-        <v>75620.3203125</v>
+        <v>70159.6953125</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>94.49281090024398</v>
+        <v>94.93752275525797</v>
       </c>
       <c r="B42">
-        <v>0.1155443409212008</v>
+        <v>0.09453348642136257</v>
       </c>
       <c r="C42">
-        <v>0.001142628776636506</v>
+        <v>0.0008050632419207495</v>
       </c>
       <c r="D42">
-        <v>0.7042122497507725</v>
+        <v>0.7030583900633974</v>
       </c>
       <c r="E42">
-        <v>1.031292712160554</v>
+        <v>1.034314629483044</v>
       </c>
       <c r="F42">
-        <v>67592.10765335572</v>
+        <v>96638.59655306568</v>
       </c>
       <c r="G42">
-        <v>0.7054785490036011</v>
+        <v>0.7053549289703369</v>
       </c>
       <c r="H42">
-        <v>1.031293272972107</v>
+        <v>1.034303903579712</v>
       </c>
       <c r="I42">
-        <v>67178.9609375</v>
+        <v>94750.8515625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>97.5316979453971</v>
+        <v>88.12474599786584</v>
       </c>
       <c r="B43">
-        <v>0.09480852070228082</v>
+        <v>0.112883114315986</v>
       </c>
       <c r="C43">
-        <v>0.0008500752424903414</v>
+        <v>0.001057700028055423</v>
       </c>
       <c r="D43">
-        <v>0.7060457030033466</v>
+        <v>0.7079126312855549</v>
       </c>
       <c r="E43">
-        <v>1.033895142300206</v>
+        <v>1.032360334061508</v>
       </c>
       <c r="F43">
-        <v>91755.36511022542</v>
+        <v>73772.9531634837</v>
       </c>
       <c r="G43">
-        <v>0.7074242830276489</v>
+        <v>0.7078742980957031</v>
       </c>
       <c r="H43">
-        <v>1.033932685852051</v>
+        <v>1.032322406768799</v>
       </c>
       <c r="I43">
-        <v>91019.8046875</v>
+        <v>74162.3125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>107.7470005247803</v>
+        <v>98.42637955941169</v>
       </c>
       <c r="B44">
-        <v>0.09748595126749686</v>
+        <v>0.1166583968409892</v>
       </c>
       <c r="C44">
-        <v>0.001006812484821105</v>
+        <v>0.001039353033807756</v>
       </c>
       <c r="D44">
-        <v>0.7093933098449074</v>
+        <v>0.6903270071104682</v>
       </c>
       <c r="E44">
-        <v>1.032365395088041</v>
+        <v>1.031019672340314</v>
       </c>
       <c r="F44">
-        <v>77311.84171533454</v>
+        <v>72638.02699825242</v>
       </c>
       <c r="G44">
-        <v>0.7090980410575867</v>
+        <v>0.6889962553977966</v>
       </c>
       <c r="H44">
-        <v>1.032373189926147</v>
+        <v>1.030935764312744</v>
       </c>
       <c r="I44">
-        <v>77378.8515625</v>
+        <v>72660.5234375</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>82.76115526150562</v>
+        <v>82.14913022910976</v>
       </c>
       <c r="B45">
-        <v>0.1153631132106164</v>
+        <v>0.08220381360189224</v>
       </c>
       <c r="C45">
-        <v>0.0008557733479345759</v>
+        <v>0.001034785287908779</v>
       </c>
       <c r="D45">
-        <v>0.6904745472247648</v>
+        <v>0.7671786689302496</v>
       </c>
       <c r="E45">
-        <v>1.033118990978208</v>
+        <v>1.039321072442807</v>
       </c>
       <c r="F45">
-        <v>89129.26059555032</v>
+        <v>83840.72177582633</v>
       </c>
       <c r="G45">
-        <v>0.689551055431366</v>
+        <v>0.7648162841796875</v>
       </c>
       <c r="H45">
-        <v>1.032832264900208</v>
+        <v>1.037438035011292</v>
       </c>
       <c r="I45">
-        <v>87806.578125</v>
+        <v>83794.3671875</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>106.5371351218709</v>
+        <v>111.7517827294348</v>
       </c>
       <c r="B46">
-        <v>0.1120025838162596</v>
+        <v>0.08951917071016341</v>
       </c>
       <c r="C46">
-        <v>0.001085007432967264</v>
+        <v>0.001181402632000191</v>
       </c>
       <c r="D46">
-        <v>0.6938899483970491</v>
+        <v>0.7375710487092731</v>
       </c>
       <c r="E46">
-        <v>1.030903532724419</v>
+        <v>1.032846997965381</v>
       </c>
       <c r="F46">
-        <v>69787.83105223658</v>
+        <v>68688.14380073671</v>
       </c>
       <c r="G46">
-        <v>0.6943120360374451</v>
+        <v>0.7377176880836487</v>
       </c>
       <c r="H46">
-        <v>1.030883193016052</v>
+        <v>1.032907009124756</v>
       </c>
       <c r="I46">
-        <v>69785.6484375</v>
+        <v>68122.9453125</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>106.6888815770047</v>
+        <v>83.41699744403878</v>
       </c>
       <c r="B47">
-        <v>0.10799228561196</v>
+        <v>0.09406206839700007</v>
       </c>
       <c r="C47">
-        <v>0.0009592561521919812</v>
+        <v>0.000810617175978835</v>
       </c>
       <c r="D47">
-        <v>0.6863222732138867</v>
+        <v>0.7205389242190171</v>
       </c>
       <c r="E47">
-        <v>1.031485508244946</v>
+        <v>1.036433063574819</v>
       </c>
       <c r="F47">
-        <v>78161.3104917923</v>
+        <v>99327.46901673396</v>
       </c>
       <c r="G47">
-        <v>0.6861982345581055</v>
+        <v>0.7206618785858154</v>
       </c>
       <c r="H47">
-        <v>1.031460404396057</v>
+        <v>1.03571891784668</v>
       </c>
       <c r="I47">
-        <v>78166.59375</v>
+        <v>96541.125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>88.64720500819999</v>
+        <v>100.7383242670648</v>
       </c>
       <c r="B48">
-        <v>0.08432918194289275</v>
+        <v>0.1123464591180612</v>
       </c>
       <c r="C48">
-        <v>0.001025644683012808</v>
+        <v>0.001077019697553946</v>
       </c>
       <c r="D48">
-        <v>0.7562641128533033</v>
+        <v>0.6983261202818404</v>
       </c>
       <c r="E48">
-        <v>1.037121702298637</v>
+        <v>1.031193890524973</v>
       </c>
       <c r="F48">
-        <v>82694.22254685163</v>
+        <v>70949.41208099748</v>
       </c>
       <c r="G48">
-        <v>0.7547442317008972</v>
+        <v>0.6980242729187012</v>
       </c>
       <c r="H48">
-        <v>1.036335110664368</v>
+        <v>1.031163215637207</v>
       </c>
       <c r="I48">
-        <v>82724.8046875</v>
+        <v>70878.4921875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>85.45417815587153</v>
+        <v>92.42709505863411</v>
       </c>
       <c r="B49">
-        <v>0.1164434163016057</v>
+        <v>0.1190309142596759</v>
       </c>
       <c r="C49">
-        <v>0.0008758479771603934</v>
+        <v>0.001122959771226961</v>
       </c>
       <c r="D49">
-        <v>0.6878212272522747</v>
+        <v>0.6992598592536114</v>
       </c>
       <c r="E49">
-        <v>1.032556152861056</v>
+        <v>1.031177348316878</v>
       </c>
       <c r="F49">
-        <v>86541.90034558781</v>
+        <v>68276.71758514796</v>
       </c>
       <c r="G49">
-        <v>0.6865742802619934</v>
+        <v>0.7001422643661499</v>
       </c>
       <c r="H49">
-        <v>1.032389879226685</v>
+        <v>1.031119585037231</v>
       </c>
       <c r="I49">
-        <v>85530.75</v>
+        <v>67964.734375</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>92.76492430488469</v>
+        <v>103.0396277392906</v>
       </c>
       <c r="B50">
-        <v>0.1083981046223463</v>
+        <v>0.1183833530184448</v>
       </c>
       <c r="C50">
-        <v>0.0008607828798568635</v>
+        <v>0.001003844350433521</v>
       </c>
       <c r="D50">
-        <v>0.6896293822247288</v>
+        <v>0.6790872069655358</v>
       </c>
       <c r="E50">
-        <v>1.032629445520842</v>
+        <v>1.030718826563334</v>
       </c>
       <c r="F50">
-        <v>88164.86777930609</v>
+        <v>73755.25314880314</v>
       </c>
       <c r="G50">
-        <v>0.6902719736099243</v>
+        <v>0.677836000919342</v>
       </c>
       <c r="H50">
-        <v>1.032644748687744</v>
+        <v>1.030547857284546</v>
       </c>
       <c r="I50">
-        <v>87477.2109375</v>
+        <v>73571.4609375</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>94.65756039133619</v>
+        <v>118.0094560266085</v>
       </c>
       <c r="B51">
-        <v>0.1195544433333726</v>
+        <v>0.1158736834575387</v>
       </c>
       <c r="C51">
-        <v>0.0009953181480460993</v>
+        <v>0.0009349154248482668</v>
       </c>
       <c r="D51">
-        <v>0.6854854483048188</v>
+        <v>0.6564492835740371</v>
       </c>
       <c r="E51">
-        <v>1.031098771365783</v>
+        <v>1.030916382654812</v>
       </c>
       <c r="F51">
-        <v>75383.59993599266</v>
+        <v>76104.17076446612</v>
       </c>
       <c r="G51">
-        <v>0.6850060820579529</v>
+        <v>0.6577295660972595</v>
       </c>
       <c r="H51">
-        <v>1.031035423278809</v>
+        <v>1.030143022537231</v>
       </c>
       <c r="I51">
-        <v>75529.3671875</v>
+        <v>76419.9921875</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>102.7516628370014</v>
+        <v>105.7062487270892</v>
       </c>
       <c r="B52">
-        <v>0.0862586260482042</v>
+        <v>0.0920251521329037</v>
       </c>
       <c r="C52">
-        <v>0.000943401233271914</v>
+        <v>0.001114007249036693</v>
       </c>
       <c r="D52">
-        <v>0.7291462628091541</v>
+        <v>0.7324773492254714</v>
       </c>
       <c r="E52">
-        <v>1.034362762442925</v>
+        <v>1.033042440050155</v>
       </c>
       <c r="F52">
-        <v>85600.81365638027</v>
+        <v>72465.23526349712</v>
       </c>
       <c r="G52">
-        <v>0.7285997271537781</v>
+        <v>0.7326982617378235</v>
       </c>
       <c r="H52">
-        <v>1.034504055976868</v>
+        <v>1.033112645149231</v>
       </c>
       <c r="I52">
-        <v>85403.8671875</v>
+        <v>72428.671875</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>97.59322355361761</v>
+        <v>81.78654216432695</v>
       </c>
       <c r="B53">
-        <v>0.1144302762842485</v>
+        <v>0.1192864863416227</v>
       </c>
       <c r="C53">
-        <v>0.001172646150067286</v>
+        <v>0.0008421221279441666</v>
       </c>
       <c r="D53">
-        <v>0.7054002430936264</v>
+        <v>0.6839960825317173</v>
       </c>
       <c r="E53">
-        <v>1.031104261354251</v>
+        <v>1.032835379940723</v>
       </c>
       <c r="F53">
-        <v>65890.78658717666</v>
+        <v>89626.34587478536</v>
       </c>
       <c r="G53">
-        <v>0.706885814666748</v>
+        <v>0.6828212141990662</v>
       </c>
       <c r="H53">
-        <v>1.031099200248718</v>
+        <v>1.032517313957214</v>
       </c>
       <c r="I53">
-        <v>65599</v>
+        <v>87852.421875</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>119.1439026717536</v>
+        <v>97.27182576047903</v>
       </c>
       <c r="B54">
-        <v>0.08676996614875775</v>
+        <v>0.09017744610446236</v>
       </c>
       <c r="C54">
-        <v>0.00110400558833012</v>
+        <v>0.0009772783875127641</v>
       </c>
       <c r="D54">
-        <v>0.7290545606182485</v>
+        <v>0.7313581543771595</v>
       </c>
       <c r="E54">
-        <v>1.032907513995086</v>
+        <v>1.034467295892607</v>
       </c>
       <c r="F54">
-        <v>72479.6296109854</v>
+        <v>82979.80942841155</v>
       </c>
       <c r="G54">
-        <v>0.7288176417350769</v>
+        <v>0.731647253036499</v>
       </c>
       <c r="H54">
-        <v>1.032827854156494</v>
+        <v>1.03447961807251</v>
       </c>
       <c r="I54">
-        <v>72110.6640625</v>
+        <v>82934.5859375</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>84.40044323210628</v>
+        <v>100.3926533956445</v>
       </c>
       <c r="B55">
-        <v>0.1045298516813095</v>
+        <v>0.08455180514080538</v>
       </c>
       <c r="C55">
-        <v>0.001097474347834486</v>
+        <v>0.001007821187112979</v>
       </c>
       <c r="D55">
-        <v>0.7276451006335699</v>
+        <v>0.7425448923268227</v>
       </c>
       <c r="E55">
-        <v>1.034011041081854</v>
+        <v>1.035040665232845</v>
       </c>
       <c r="F55">
-        <v>73602.51374138611</v>
+        <v>81843.39851304673</v>
       </c>
       <c r="G55">
-        <v>0.7294675707817078</v>
+        <v>0.7418895959854126</v>
       </c>
       <c r="H55">
-        <v>1.033724904060364</v>
+        <v>1.034897565841675</v>
       </c>
       <c r="I55">
-        <v>73783.3828125</v>
+        <v>81816.859375</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>88.58817853766813</v>
+        <v>101.4181317333931</v>
       </c>
       <c r="B56">
-        <v>0.08525401429362491</v>
+        <v>0.1176770175280574</v>
       </c>
       <c r="C56">
-        <v>0.001158255229949982</v>
+        <v>0.001076029516000472</v>
       </c>
       <c r="D56">
-        <v>0.7633794966867676</v>
+        <v>0.6891623556691627</v>
       </c>
       <c r="E56">
-        <v>1.036772741078652</v>
+        <v>1.030712598277624</v>
       </c>
       <c r="F56">
-        <v>73883.31084644256</v>
+        <v>69914.77918551542</v>
       </c>
       <c r="G56">
-        <v>0.7641710042953491</v>
+        <v>0.6882236003875732</v>
       </c>
       <c r="H56">
-        <v>1.036008238792419</v>
+        <v>1.030601263046265</v>
       </c>
       <c r="I56">
-        <v>74130.640625</v>
+        <v>69781.1328125</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>86.72357706296171</v>
+        <v>107.1104557569764</v>
       </c>
       <c r="B57">
-        <v>0.1136416719159027</v>
+        <v>0.0895502660341916</v>
       </c>
       <c r="C57">
-        <v>0.0008367045953397895</v>
+        <v>0.0008396301538444109</v>
       </c>
       <c r="D57">
-        <v>0.6856654575039429</v>
+        <v>0.7018917609286974</v>
       </c>
       <c r="E57">
-        <v>1.032790789802179</v>
+        <v>1.033763472925821</v>
       </c>
       <c r="F57">
-        <v>90324.24573556196</v>
+        <v>92063.29612232554</v>
       </c>
       <c r="G57">
-        <v>0.6860859990119934</v>
+        <v>0.7025277614593506</v>
       </c>
       <c r="H57">
-        <v>1.032677054405212</v>
+        <v>1.033699154853821</v>
       </c>
       <c r="I57">
-        <v>88792.7109375</v>
+        <v>90995.7578125</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>106.0017360729083</v>
+        <v>91.28192723066191</v>
       </c>
       <c r="B58">
-        <v>0.1120466818173474</v>
+        <v>0.1074387792992208</v>
       </c>
       <c r="C58">
-        <v>0.001020459072262421</v>
+        <v>0.0008932836855761951</v>
       </c>
       <c r="D58">
-        <v>0.6877098068144484</v>
+        <v>0.6973346098813284</v>
       </c>
       <c r="E58">
-        <v>1.031046652848445</v>
+        <v>1.032843702319994</v>
       </c>
       <c r="F58">
-        <v>73545.58559935106</v>
+        <v>86043.65799686007</v>
       </c>
       <c r="G58">
-        <v>0.6872401237487793</v>
+        <v>0.6977643370628357</v>
       </c>
       <c r="H58">
-        <v>1.030989170074463</v>
+        <v>1.032826542854309</v>
       </c>
       <c r="I58">
-        <v>73524.5703125</v>
+        <v>85628.6796875</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>90.32920852588759</v>
+        <v>85.45160150142853</v>
       </c>
       <c r="B59">
-        <v>0.1027086991797944</v>
+        <v>0.08268788739201635</v>
       </c>
       <c r="C59">
-        <v>0.001033114010541766</v>
+        <v>0.0009648388586806244</v>
       </c>
       <c r="D59">
-        <v>0.7207335476221508</v>
+        <v>0.7576617064409804</v>
       </c>
       <c r="E59">
-        <v>1.033374621300533</v>
+        <v>1.03838177953815</v>
       </c>
       <c r="F59">
-        <v>77169.51657621456</v>
+        <v>88443.83152198538</v>
       </c>
       <c r="G59">
-        <v>0.7212797403335571</v>
+        <v>0.7552383542060852</v>
       </c>
       <c r="H59">
-        <v>1.033361196517944</v>
+        <v>1.037052750587463</v>
       </c>
       <c r="I59">
-        <v>77037.171875</v>
+        <v>87668.078125</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>98.67940656262739</v>
+        <v>95.79296382734353</v>
       </c>
       <c r="B60">
-        <v>0.09636165210798399</v>
+        <v>0.1090436305039106</v>
       </c>
       <c r="C60">
-        <v>0.001181075733020285</v>
+        <v>0.001048330623721019</v>
       </c>
       <c r="D60">
-        <v>0.7356371608001551</v>
+        <v>0.7059764651810857</v>
       </c>
       <c r="E60">
-        <v>1.033059248528237</v>
+        <v>1.03193165212807</v>
       </c>
       <c r="F60">
-        <v>68775.78930627124</v>
+        <v>73994.22263854647</v>
       </c>
       <c r="G60">
-        <v>0.7370908856391907</v>
+        <v>0.7062215209007263</v>
       </c>
       <c r="H60">
-        <v>1.033094048500061</v>
+        <v>1.031957030296326</v>
       </c>
       <c r="I60">
-        <v>68482.0078125</v>
+        <v>74046.0234375</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>89.98166729905992</v>
+        <v>117.8907755803606</v>
       </c>
       <c r="B61">
-        <v>0.08311165655481778</v>
+        <v>0.1149631573669061</v>
       </c>
       <c r="C61">
-        <v>0.0009185233276831638</v>
+        <v>0.001151685838923124</v>
       </c>
       <c r="D61">
-        <v>0.7473799297868441</v>
+        <v>0.6845751277075967</v>
       </c>
       <c r="E61">
-        <v>1.03735258100045</v>
+        <v>1.03041618243808</v>
       </c>
       <c r="F61">
-        <v>91194.44193383394</v>
+        <v>64498.11933811042</v>
       </c>
       <c r="G61">
-        <v>0.7459529042243958</v>
+        <v>0.6834172010421753</v>
       </c>
       <c r="H61">
-        <v>1.036543965339661</v>
+        <v>1.029812932014465</v>
       </c>
       <c r="I61">
-        <v>90221.421875</v>
+        <v>63162.87109375</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>86.63185332625039</v>
+        <v>87.73575631912986</v>
       </c>
       <c r="B62">
-        <v>0.1077390656975054</v>
+        <v>0.09107969021806325</v>
       </c>
       <c r="C62">
-        <v>0.0008984067485609944</v>
+        <v>0.001046579002034799</v>
       </c>
       <c r="D62">
-        <v>0.7030418139564719</v>
+        <v>0.745401176123875</v>
       </c>
       <c r="E62">
-        <v>1.03341619281231</v>
+        <v>1.03577982924757</v>
       </c>
       <c r="F62">
-        <v>86528.84316365354</v>
+        <v>79524.53024077832</v>
       </c>
       <c r="G62">
-        <v>0.7034651637077332</v>
+        <v>0.7446609139442444</v>
       </c>
       <c r="H62">
-        <v>1.033316731452942</v>
+        <v>1.035460710525513</v>
       </c>
       <c r="I62">
-        <v>86025.8828125</v>
+        <v>79857.5546875</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>84.72698618401071</v>
+        <v>115.8358800398279</v>
       </c>
       <c r="B63">
-        <v>0.0981789066246133</v>
+        <v>0.09525911744266548</v>
       </c>
       <c r="C63">
-        <v>0.0008433181044875778</v>
+        <v>0.0008563195368172368</v>
       </c>
       <c r="D63">
-        <v>0.715468013062435</v>
+        <v>0.6819585982717494</v>
       </c>
       <c r="E63">
-        <v>1.035312840789655</v>
+        <v>1.032601862275007</v>
       </c>
       <c r="F63">
-        <v>94447.96306783588</v>
+        <v>87043.56193907039</v>
       </c>
       <c r="G63">
-        <v>0.7166908383369446</v>
+        <v>0.6858286261558533</v>
       </c>
       <c r="H63">
-        <v>1.034984230995178</v>
+        <v>1.032393097877502</v>
       </c>
       <c r="I63">
-        <v>92856.53125</v>
+        <v>86678.140625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>106.1280073013973</v>
+        <v>101.7171616892024</v>
       </c>
       <c r="B64">
-        <v>0.1087044195505466</v>
+        <v>0.0950725009317954</v>
       </c>
       <c r="C64">
-        <v>0.0008104438980017193</v>
+        <v>0.00118838395038971</v>
       </c>
       <c r="D64">
-        <v>0.6628609984960541</v>
+        <v>0.7360256783310986</v>
       </c>
       <c r="E64">
-        <v>1.031806298614512</v>
+        <v>1.03292547267153</v>
       </c>
       <c r="F64">
-        <v>89276.023230689</v>
+        <v>68311.41987461812</v>
       </c>
       <c r="G64">
-        <v>0.6672847270965576</v>
+        <v>0.7370454072952271</v>
       </c>
       <c r="H64">
-        <v>1.03166937828064</v>
+        <v>1.032935738563538</v>
       </c>
       <c r="I64">
-        <v>88429.0234375</v>
+        <v>67992.953125</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>85.81703231301414</v>
+        <v>98.31095876561336</v>
       </c>
       <c r="B65">
-        <v>0.1143619232678425</v>
+        <v>0.1097523204911027</v>
       </c>
       <c r="C65">
-        <v>0.001168372398243357</v>
+        <v>0.001145737330017305</v>
       </c>
       <c r="D65">
-        <v>0.71464410400929</v>
+        <v>0.7103691048997163</v>
       </c>
       <c r="E65">
-        <v>1.032405833666826</v>
+        <v>1.031513002864552</v>
       </c>
       <c r="F65">
-        <v>67492.02658628208</v>
+        <v>68017.11579478413</v>
       </c>
       <c r="G65">
-        <v>0.7185386419296265</v>
+        <v>0.7107017040252686</v>
       </c>
       <c r="H65">
-        <v>1.032294511795044</v>
+        <v>1.031540751457214</v>
       </c>
       <c r="I65">
-        <v>67376.53125</v>
+        <v>67937.1640625</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>88.10624713237409</v>
+        <v>114.9757480930695</v>
       </c>
       <c r="B66">
-        <v>0.1186401004735988</v>
+        <v>0.08972223276738539</v>
       </c>
       <c r="C66">
-        <v>0.001066606062339121</v>
+        <v>0.001001066518771074</v>
       </c>
       <c r="D66">
-        <v>0.6996385592836201</v>
+        <v>0.7156081728858836</v>
       </c>
       <c r="E66">
-        <v>1.031710405888304</v>
+        <v>1.032908076848739</v>
       </c>
       <c r="F66">
-        <v>72120.84373442782</v>
+        <v>78457.27614627803</v>
       </c>
       <c r="G66">
-        <v>0.6993108987808228</v>
+        <v>0.7157616019248962</v>
       </c>
       <c r="H66">
-        <v>1.031658530235291</v>
+        <v>1.03290843963623</v>
       </c>
       <c r="I66">
-        <v>72440.1015625</v>
+        <v>78503.6484375</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>94.85412124837693</v>
+        <v>98.37730511927568</v>
       </c>
       <c r="B67">
-        <v>0.1139472347333698</v>
+        <v>0.08713687784989896</v>
       </c>
       <c r="C67">
-        <v>0.001111777887530413</v>
+        <v>0.001165557366652916</v>
       </c>
       <c r="D67">
-        <v>0.7041640099730463</v>
+        <v>0.7523747538466984</v>
       </c>
       <c r="E67">
-        <v>1.031444534730954</v>
+        <v>1.034618574939574</v>
       </c>
       <c r="F67">
-        <v>69491.07525294257</v>
+        <v>71706.3961412817</v>
       </c>
       <c r="G67">
-        <v>0.7050600051879883</v>
+        <v>0.7519497871398926</v>
       </c>
       <c r="H67">
-        <v>1.031457304954529</v>
+        <v>1.03445827960968</v>
       </c>
       <c r="I67">
-        <v>69270.4609375</v>
+        <v>71831.5546875</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>112.5827033956628</v>
+        <v>108.7872098851617</v>
       </c>
       <c r="B68">
-        <v>0.08085954381688894</v>
+        <v>0.09801226915425122</v>
       </c>
       <c r="C68">
-        <v>0.0009144397736736748</v>
+        <v>0.001016220973083133</v>
       </c>
       <c r="D68">
-        <v>0.725044182287746</v>
+        <v>0.7083775032677835</v>
       </c>
       <c r="E68">
-        <v>1.034555272269227</v>
+        <v>1.032196179297217</v>
       </c>
       <c r="F68">
-        <v>87566.73374752047</v>
+        <v>76430.03344675674</v>
       </c>
       <c r="G68">
-        <v>0.7240824103355408</v>
+        <v>0.707850456237793</v>
       </c>
       <c r="H68">
-        <v>1.034431576728821</v>
+        <v>1.032207369804382</v>
       </c>
       <c r="I68">
-        <v>87375.5234375</v>
+        <v>76561.390625</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>84.20666022274528</v>
+        <v>96.04186534375121</v>
       </c>
       <c r="B69">
-        <v>0.09451124098664006</v>
+        <v>0.09233530241239576</v>
       </c>
       <c r="C69">
-        <v>0.001033872162724664</v>
+        <v>0.001165932929500005</v>
       </c>
       <c r="D69">
-        <v>0.7412395227128463</v>
+        <v>0.7442424953237337</v>
       </c>
       <c r="E69">
-        <v>1.035849679193247</v>
+        <v>1.03402518425706</v>
       </c>
       <c r="F69">
-        <v>80099.88371637101</v>
+        <v>70777.02219071612</v>
       </c>
       <c r="G69">
-        <v>0.7412758469581604</v>
+        <v>0.7446960806846619</v>
       </c>
       <c r="H69">
-        <v>1.03548538684845</v>
+        <v>1.033970952033997</v>
       </c>
       <c r="I69">
-        <v>80538.1015625</v>
+        <v>70883.90625</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>113.2471969491275</v>
+        <v>115.8382491648245</v>
       </c>
       <c r="B70">
-        <v>0.1090154643827053</v>
+        <v>0.1132959692714942</v>
       </c>
       <c r="C70">
-        <v>0.0008290736051897543</v>
+        <v>0.001129317392211417</v>
       </c>
       <c r="D70">
-        <v>0.6558546771011399</v>
+        <v>0.6870213423802316</v>
       </c>
       <c r="E70">
-        <v>1.031619204526727</v>
+        <v>1.030538658329306</v>
       </c>
       <c r="F70">
-        <v>86055.46884267239</v>
+        <v>66097.13286200729</v>
       </c>
       <c r="G70">
-        <v>0.6627015471458435</v>
+        <v>0.6863332390785217</v>
       </c>
       <c r="H70">
-        <v>1.031229019165039</v>
+        <v>1.030140280723572</v>
       </c>
       <c r="I70">
-        <v>85423.0390625</v>
+        <v>65121.1796875</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>84.16734852347561</v>
+        <v>107.448843914726</v>
       </c>
       <c r="B71">
-        <v>0.08712811987681258</v>
+        <v>0.08971966848678824</v>
       </c>
       <c r="C71">
-        <v>0.0009943661211321206</v>
+        <v>0.001183564899725273</v>
       </c>
       <c r="D71">
-        <v>0.7524249927611296</v>
+        <v>0.7410484860519453</v>
       </c>
       <c r="E71">
-        <v>1.037533708867497</v>
+        <v>1.03315694776936</v>
       </c>
       <c r="F71">
-        <v>85011.69015755533</v>
+        <v>69040.82480134084</v>
       </c>
       <c r="G71">
-        <v>0.750521719455719</v>
+        <v>0.7413972020149231</v>
       </c>
       <c r="H71">
-        <v>1.036573648452759</v>
+        <v>1.033211588859558</v>
       </c>
       <c r="I71">
-        <v>84878.1953125</v>
+        <v>68662.046875</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>118.6768678303895</v>
+        <v>107.8250407370182</v>
       </c>
       <c r="B72">
-        <v>0.1008246198103409</v>
+        <v>0.1000936650124308</v>
       </c>
       <c r="C72">
-        <v>0.001187174655338407</v>
+        <v>0.001164551838090836</v>
       </c>
       <c r="D72">
-        <v>0.7108282794264837</v>
+        <v>0.7199124997255376</v>
       </c>
       <c r="E72">
-        <v>1.031314668545222</v>
+        <v>1.031839784836584</v>
       </c>
       <c r="F72">
-        <v>65295.51843847329</v>
+        <v>67773.05164029865</v>
       </c>
       <c r="G72">
-        <v>0.7109637856483459</v>
+        <v>0.7203251719474792</v>
       </c>
       <c r="H72">
-        <v>1.031089544296265</v>
+        <v>1.031852960586548</v>
       </c>
       <c r="I72">
-        <v>64514.2265625</v>
+        <v>67467.7109375</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>98.77114968541773</v>
+        <v>93.24676383561859</v>
       </c>
       <c r="B73">
-        <v>0.08253037015734535</v>
+        <v>0.1173489583111207</v>
       </c>
       <c r="C73">
-        <v>0.001147587344162187</v>
+        <v>0.0008181285984230924</v>
       </c>
       <c r="D73">
-        <v>0.7601469652061295</v>
+        <v>0.6682513436092981</v>
       </c>
       <c r="E73">
-        <v>1.035503721727833</v>
+        <v>1.031747084751873</v>
       </c>
       <c r="F73">
-        <v>73809.16535697946</v>
+        <v>89492.44819854602</v>
       </c>
       <c r="G73">
-        <v>0.7589356303215027</v>
+        <v>0.6687574982643127</v>
       </c>
       <c r="H73">
-        <v>1.035120368003845</v>
+        <v>1.031662821769714</v>
       </c>
       <c r="I73">
-        <v>73623.203125</v>
+        <v>87979.4921875</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>118.6886912416637</v>
+        <v>110.0655378352676</v>
       </c>
       <c r="B74">
-        <v>0.08824007987120169</v>
+        <v>0.1052526132318164</v>
       </c>
       <c r="C74">
-        <v>0.000936559474876001</v>
+        <v>0.00087251296827826</v>
       </c>
       <c r="D74">
-        <v>0.7053870997939153</v>
+        <v>0.6741740686362707</v>
       </c>
       <c r="E74">
-        <v>1.033072730515658</v>
+        <v>1.031808954534466</v>
       </c>
       <c r="F74">
-        <v>82545.26761393597</v>
+        <v>84327.41936325681</v>
       </c>
       <c r="G74">
-        <v>0.7058426737785339</v>
+        <v>0.67691570520401</v>
       </c>
       <c r="H74">
-        <v>1.03299355506897</v>
+        <v>1.031676769256592</v>
       </c>
       <c r="I74">
-        <v>82723.515625</v>
+        <v>83941.359375</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>104.1098688528135</v>
+        <v>105.3334953674981</v>
       </c>
       <c r="B75">
-        <v>0.0811264011560366</v>
+        <v>0.1143974801321912</v>
       </c>
       <c r="C75">
-        <v>0.001180932175847984</v>
+        <v>0.000956541591996784</v>
       </c>
       <c r="D75">
-        <v>0.7610371712292983</v>
+        <v>0.6770862756932008</v>
       </c>
       <c r="E75">
-        <v>1.035011841792028</v>
+        <v>1.031010078795796</v>
       </c>
       <c r="F75">
-        <v>71623.59727313645</v>
+        <v>77188.8748609593</v>
       </c>
       <c r="G75">
-        <v>0.7598705291748047</v>
+        <v>0.6769734025001526</v>
       </c>
       <c r="H75">
-        <v>1.034739375114441</v>
+        <v>1.030893683433533</v>
       </c>
       <c r="I75">
-        <v>71238.75</v>
+        <v>77218.171875</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>109.3789599686562</v>
+        <v>89.80898198227321</v>
       </c>
       <c r="B76">
-        <v>0.1115127384184534</v>
+        <v>0.1172559027356181</v>
       </c>
       <c r="C76">
-        <v>0.0008948289701545773</v>
+        <v>0.001177236680514364</v>
       </c>
       <c r="D76">
-        <v>0.6680746081001433</v>
+        <v>0.7076019236492728</v>
       </c>
       <c r="E76">
-        <v>1.031277780665849</v>
+        <v>1.03157126723916</v>
       </c>
       <c r="F76">
-        <v>81320.40426984521</v>
+        <v>66063.25871233764</v>
       </c>
       <c r="G76">
-        <v>0.6700164675712585</v>
+        <v>0.71014803647995</v>
       </c>
       <c r="H76">
-        <v>1.031044363975525</v>
+        <v>1.031476855278015</v>
       </c>
       <c r="I76">
-        <v>81031.6171875</v>
+        <v>65483.50390625</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>81.93649338364159</v>
+        <v>86.69336635843089</v>
       </c>
       <c r="B77">
-        <v>0.08917804663155368</v>
+        <v>0.1098298019577082</v>
       </c>
       <c r="C77">
-        <v>0.001176129741902136</v>
+        <v>0.0009216127768446524</v>
       </c>
       <c r="D77">
-        <v>0.7614038556133618</v>
+        <v>0.7020655930849566</v>
       </c>
       <c r="E77">
-        <v>1.037430665727448</v>
+        <v>1.033101971276037</v>
       </c>
       <c r="F77">
-        <v>72790.46354393325</v>
+        <v>84147.42459550958</v>
       </c>
       <c r="G77">
-        <v>0.764169454574585</v>
+        <v>0.7016253471374512</v>
       </c>
       <c r="H77">
-        <v>1.036182522773743</v>
+        <v>1.033047437667847</v>
       </c>
       <c r="I77">
-        <v>73126.9140625</v>
+        <v>83632.96875</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>91.48618937913805</v>
+        <v>111.6183323075738</v>
       </c>
       <c r="B78">
-        <v>0.09393789727792556</v>
+        <v>0.1078231986050585</v>
       </c>
       <c r="C78">
-        <v>0.001173016880960738</v>
+        <v>0.0008669057620867341</v>
       </c>
       <c r="D78">
-        <v>0.7452944764604019</v>
+        <v>0.666806506079803</v>
       </c>
       <c r="E78">
-        <v>1.034436893279325</v>
+        <v>1.031592230976194</v>
       </c>
       <c r="F78">
-        <v>70608.55581957518</v>
+        <v>83795.85363951666</v>
       </c>
       <c r="G78">
-        <v>0.7466852068901062</v>
+        <v>0.6707728505134583</v>
       </c>
       <c r="H78">
-        <v>1.034306049346924</v>
+        <v>1.031362771987915</v>
       </c>
       <c r="I78">
-        <v>70934.96875</v>
+        <v>83550.109375</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>85.11197877546697</v>
+        <v>117.9990000970527</v>
       </c>
       <c r="B79">
-        <v>0.1167804783529576</v>
+        <v>0.1183439131309832</v>
       </c>
       <c r="C79">
-        <v>0.001117285259058377</v>
+        <v>0.001151428646517885</v>
       </c>
       <c r="D79">
-        <v>0.7085130180079342</v>
+        <v>0.6791674880359653</v>
       </c>
       <c r="E79">
-        <v>1.032271248902489</v>
+        <v>1.030259078348636</v>
       </c>
       <c r="F79">
-        <v>69925.81047232136</v>
+        <v>63931.14869255521</v>
       </c>
       <c r="G79">
-        <v>0.7099311351776123</v>
+        <v>0.6788094639778137</v>
       </c>
       <c r="H79">
-        <v>1.032107949256897</v>
+        <v>1.029512524604797</v>
       </c>
       <c r="I79">
-        <v>70190.578125</v>
+        <v>62377.78515625</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>92.0088425849591</v>
+        <v>98.35907218158147</v>
       </c>
       <c r="B80">
-        <v>0.1080128973138284</v>
+        <v>0.1193801548327522</v>
       </c>
       <c r="C80">
-        <v>0.001051134651623293</v>
+        <v>0.0009789869969953719</v>
       </c>
       <c r="D80">
-        <v>0.7116208864002004</v>
+        <v>0.6799931354223326</v>
       </c>
       <c r="E80">
-        <v>1.032448167786267</v>
+        <v>1.030912196951918</v>
       </c>
       <c r="F80">
-        <v>74599.91229194535</v>
+        <v>75875.18468210973</v>
       </c>
       <c r="G80">
-        <v>0.71136075258255</v>
+        <v>0.6790220141410828</v>
       </c>
       <c r="H80">
-        <v>1.032452940940857</v>
+        <v>1.030791878700256</v>
       </c>
       <c r="I80">
-        <v>74860.03125</v>
+        <v>75832.5703125</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>85.05440121693771</v>
+        <v>103.5665137439572</v>
       </c>
       <c r="B81">
-        <v>0.08164842325835291</v>
+        <v>0.09811144466393971</v>
       </c>
       <c r="C81">
-        <v>0.001146718186886325</v>
+        <v>0.001159884295021469</v>
       </c>
       <c r="D81">
-        <v>0.7727114629193994</v>
+        <v>0.726862917279779</v>
       </c>
       <c r="E81">
-        <v>1.038565792072625</v>
+        <v>1.032477766164896</v>
       </c>
       <c r="F81">
-        <v>76030.25181731302</v>
+        <v>68920.74399893965</v>
       </c>
       <c r="G81">
-        <v>0.7727171182632446</v>
+        <v>0.7271367311477661</v>
       </c>
       <c r="H81">
-        <v>1.036976456642151</v>
+        <v>1.032413721084595</v>
       </c>
       <c r="I81">
-        <v>76035.9375</v>
+        <v>68795.359375</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>92.86507174063409</v>
+        <v>114.022469981476</v>
       </c>
       <c r="B82">
-        <v>0.08685625245860171</v>
+        <v>0.08317840441126728</v>
       </c>
       <c r="C82">
-        <v>0.0009188654424209869</v>
+        <v>0.0008668127901887025</v>
       </c>
       <c r="D82">
-        <v>0.7364226910432496</v>
+        <v>0.7106499517812384</v>
       </c>
       <c r="E82">
-        <v>1.035866189499203</v>
+        <v>1.034155109705992</v>
       </c>
       <c r="F82">
-        <v>89345.48785304721</v>
+        <v>90295.91205922526</v>
       </c>
       <c r="G82">
-        <v>0.7364472150802612</v>
+        <v>0.7116634249687195</v>
       </c>
       <c r="H82">
-        <v>1.035605192184448</v>
+        <v>1.034004926681519</v>
       </c>
       <c r="I82">
-        <v>88680.703125</v>
+        <v>89346.40625</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>96.63917114212879</v>
+        <v>98.32319018381122</v>
       </c>
       <c r="B83">
-        <v>0.1047618658367806</v>
+        <v>0.09187767528483355</v>
       </c>
       <c r="C83">
-        <v>0.001136783360210136</v>
+        <v>0.001063156903966918</v>
       </c>
       <c r="D83">
-        <v>0.7194845325471008</v>
+        <v>0.7352960241149812</v>
       </c>
       <c r="E83">
-        <v>1.032230302873027</v>
+        <v>1.033924560700284</v>
       </c>
       <c r="F83">
-        <v>69659.94878883265</v>
+        <v>76570.94727949964</v>
       </c>
       <c r="G83">
-        <v>0.7197152972221375</v>
+        <v>0.7351704239845276</v>
       </c>
       <c r="H83">
-        <v>1.032243490219116</v>
+        <v>1.033919334411621</v>
       </c>
       <c r="I83">
-        <v>69547.4140625</v>
+        <v>76610.3359375</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>82.91489580544012</v>
+        <v>117.7131540025008</v>
       </c>
       <c r="B84">
-        <v>0.1030273050448205</v>
+        <v>0.08637255487506248</v>
       </c>
       <c r="C84">
-        <v>0.001046206814155014</v>
+        <v>0.0009765838213948441</v>
       </c>
       <c r="D84">
-        <v>0.728110580226787</v>
+        <v>0.7161129519634694</v>
       </c>
       <c r="E84">
-        <v>1.034577587221023</v>
+        <v>1.033259822832296</v>
       </c>
       <c r="F84">
-        <v>77414.34810601255</v>
+        <v>80509.2520972249</v>
       </c>
       <c r="G84">
-        <v>0.7290828824043274</v>
+        <v>0.7159156203269958</v>
       </c>
       <c r="H84">
-        <v>1.034188508987427</v>
+        <v>1.033242106437683</v>
       </c>
       <c r="I84">
-        <v>77362.7109375</v>
+        <v>80560.171875</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>107.5447684398666</v>
+        <v>102.9693909879001</v>
       </c>
       <c r="B85">
-        <v>0.0897255873960926</v>
+        <v>0.09676552532732691</v>
       </c>
       <c r="C85">
-        <v>0.0008091923544411792</v>
+        <v>0.0008339858640646334</v>
       </c>
       <c r="D85">
-        <v>0.6955436764158279</v>
+        <v>0.6925532809797142</v>
       </c>
       <c r="E85">
-        <v>1.033772694206561</v>
+        <v>1.033167407540073</v>
       </c>
       <c r="F85">
-        <v>94602.86908759469</v>
+        <v>91308.41814728633</v>
       </c>
       <c r="G85">
-        <v>0.6982203722000122</v>
+        <v>0.6941773295402527</v>
       </c>
       <c r="H85">
-        <v>1.033687233924866</v>
+        <v>1.033115863800049</v>
       </c>
       <c r="I85">
-        <v>92974.6953125</v>
+        <v>90401.1171875</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>102.6107290312576</v>
+        <v>112.5738400799838</v>
       </c>
       <c r="B86">
-        <v>0.1170208759503149</v>
+        <v>0.08554680726184008</v>
       </c>
       <c r="C86">
-        <v>0.0009401166394204532</v>
+        <v>0.001077012137561676</v>
       </c>
       <c r="D86">
-        <v>0.6740647291208485</v>
+        <v>0.735231904745961</v>
       </c>
       <c r="E86">
-        <v>1.030959004986297</v>
+        <v>1.033513238693836</v>
       </c>
       <c r="F86">
-        <v>78210.63072795217</v>
+        <v>75228.35134255134</v>
       </c>
       <c r="G86">
-        <v>0.6738466024398804</v>
+        <v>0.7333380579948425</v>
       </c>
       <c r="H86">
-        <v>1.030809283256531</v>
+        <v>1.03346061706543</v>
       </c>
       <c r="I86">
-        <v>78273.6953125</v>
+        <v>75343.53125</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>90.8034370369341</v>
+        <v>116.026379267888</v>
       </c>
       <c r="B87">
-        <v>0.1044673833831366</v>
+        <v>0.1040813429206065</v>
       </c>
       <c r="C87">
-        <v>0.0008620737519654265</v>
+        <v>0.0009009821316813486</v>
       </c>
       <c r="D87">
-        <v>0.6989627579060896</v>
+        <v>0.6731836512538621</v>
       </c>
       <c r="E87">
-        <v>1.033323179607884</v>
+        <v>1.031714271168566</v>
       </c>
       <c r="F87">
-        <v>89517.44737723017</v>
+        <v>81371.90127569156</v>
       </c>
       <c r="G87">
-        <v>0.6996777653694153</v>
+        <v>0.6760851144790649</v>
       </c>
       <c r="H87">
-        <v>1.033280968666077</v>
+        <v>1.031450033187866</v>
       </c>
       <c r="I87">
-        <v>88931.8515625</v>
+        <v>81543.0234375</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>100.9113069501078</v>
+        <v>112.3683064210187</v>
       </c>
       <c r="B88">
-        <v>0.1013967802119425</v>
+        <v>0.09540616033342089</v>
       </c>
       <c r="C88">
-        <v>0.001188873650147337</v>
+        <v>0.0008195326010429124</v>
       </c>
       <c r="D88">
-        <v>0.7253526274749621</v>
+        <v>0.6796215540744854</v>
       </c>
       <c r="E88">
-        <v>1.03216895335104</v>
+        <v>1.032798504423246</v>
       </c>
       <c r="F88">
-        <v>67099.66344767701</v>
+        <v>90761.51571779927</v>
       </c>
       <c r="G88">
-        <v>0.7264600396156311</v>
+        <v>0.6847079992294312</v>
       </c>
       <c r="H88">
-        <v>1.032234072685242</v>
+        <v>1.03269100189209</v>
       </c>
       <c r="I88">
-        <v>66890.1171875</v>
+        <v>89890.5</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>84.08276051011633</v>
+        <v>86.64929229409407</v>
       </c>
       <c r="B89">
-        <v>0.1035244063101161</v>
+        <v>0.1154988418640082</v>
       </c>
       <c r="C89">
-        <v>0.0009915213161603433</v>
+        <v>0.0008275013346755327</v>
       </c>
       <c r="D89">
-        <v>0.7220028221974876</v>
+        <v>0.6815446821107579</v>
       </c>
       <c r="E89">
-        <v>1.034325903694894</v>
+        <v>1.032586506873394</v>
       </c>
       <c r="F89">
-        <v>80887.51816786182</v>
+        <v>90704.43324125145</v>
       </c>
       <c r="G89">
-        <v>0.7218136787414551</v>
+        <v>0.6823380589485168</v>
       </c>
       <c r="H89">
-        <v>1.034102439880371</v>
+        <v>1.032509088516235</v>
       </c>
       <c r="I89">
-        <v>81228.2890625</v>
+        <v>88902.9296875</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>102.9770479208428</v>
+        <v>105.0527259644873</v>
       </c>
       <c r="B90">
-        <v>0.1090206177980426</v>
+        <v>0.1183372141776959</v>
       </c>
       <c r="C90">
-        <v>0.0009989774340657099</v>
+        <v>0.0008279459481218542</v>
       </c>
       <c r="D90">
-        <v>0.6935740070103765</v>
+        <v>0.6519619863648244</v>
       </c>
       <c r="E90">
-        <v>1.031488716325431</v>
+        <v>1.031095971370543</v>
       </c>
       <c r="F90">
-        <v>75969.34526755988</v>
+        <v>85703.84955974069</v>
       </c>
       <c r="G90">
-        <v>0.693386435508728</v>
+        <v>0.6553859710693359</v>
       </c>
       <c r="H90">
-        <v>1.031495332717896</v>
+        <v>1.030715465545654</v>
       </c>
       <c r="I90">
-        <v>75915.59375</v>
+        <v>84918.1640625</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>116.8281017189874</v>
+        <v>96.01869609662914</v>
       </c>
       <c r="B91">
-        <v>0.09262837928055004</v>
+        <v>0.1018378543738154</v>
       </c>
       <c r="C91">
-        <v>0.001054672221794934</v>
+        <v>0.001159828382396135</v>
       </c>
       <c r="D91">
-        <v>0.7143696787510426</v>
+        <v>0.7266487461991435</v>
       </c>
       <c r="E91">
-        <v>1.032377357615672</v>
+        <v>1.032634622773342</v>
       </c>
       <c r="F91">
-        <v>74177.05785785212</v>
+        <v>69087.0331821898</v>
       </c>
       <c r="G91">
-        <v>0.7149146795272827</v>
+        <v>0.7279711961746216</v>
       </c>
       <c r="H91">
-        <v>1.032339692115784</v>
+        <v>1.032669186592102</v>
       </c>
       <c r="I91">
-        <v>74185.1953125</v>
+        <v>68882.2421875</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>92.8880336225444</v>
+        <v>82.85866270119838</v>
       </c>
       <c r="B92">
-        <v>0.09601033895117593</v>
+        <v>0.09117324613546378</v>
       </c>
       <c r="C92">
-        <v>0.0009484861121999809</v>
+        <v>0.00109403276788308</v>
       </c>
       <c r="D92">
-        <v>0.7219977090184246</v>
+        <v>0.7526074263868798</v>
       </c>
       <c r="E92">
-        <v>1.034146392318629</v>
+        <v>1.036805377836442</v>
       </c>
       <c r="F92">
-        <v>84349.1162867714</v>
+        <v>77148.76729680247</v>
       </c>
       <c r="G92">
-        <v>0.7219964861869812</v>
+        <v>0.7528788447380066</v>
       </c>
       <c r="H92">
-        <v>1.034164071083069</v>
+        <v>1.035961627960205</v>
       </c>
       <c r="I92">
-        <v>84316.421875</v>
+        <v>77501.8046875</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>106.5623663073396</v>
+        <v>97.02211899434958</v>
       </c>
       <c r="B93">
-        <v>0.08862608396204151</v>
+        <v>0.1036153659810449</v>
       </c>
       <c r="C93">
-        <v>0.0008576675219414992</v>
+        <v>0.001156037576748007</v>
       </c>
       <c r="D93">
-        <v>0.7074786721016743</v>
+        <v>0.7224669952484499</v>
       </c>
       <c r="E93">
-        <v>1.033917052034888</v>
+        <v>1.032291606551685</v>
       </c>
       <c r="F93">
-        <v>90936.71391413134</v>
+        <v>68808.84927803127</v>
       </c>
       <c r="G93">
-        <v>0.7081741690635681</v>
+        <v>0.72337406873703</v>
       </c>
       <c r="H93">
-        <v>1.033880591392517</v>
+        <v>1.032343029975891</v>
       </c>
       <c r="I93">
-        <v>90082.6328125</v>
+        <v>68701.3125</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>85.56674142563895</v>
+        <v>90.54058924415125</v>
       </c>
       <c r="B94">
-        <v>0.08769899186857372</v>
+        <v>0.1155527516116848</v>
       </c>
       <c r="C94">
-        <v>0.00112626783116848</v>
+        <v>0.001067651022901972</v>
       </c>
       <c r="D94">
-        <v>0.7590575424224655</v>
+        <v>0.7022200741894955</v>
       </c>
       <c r="E94">
-        <v>1.036911122608015</v>
+        <v>1.031762713806903</v>
       </c>
       <c r="F94">
-        <v>75602.5895983599</v>
+        <v>72297.83507449919</v>
       </c>
       <c r="G94">
-        <v>0.7594336867332458</v>
+        <v>0.7023171782493591</v>
       </c>
       <c r="H94">
-        <v>1.036071300506592</v>
+        <v>1.031733632087708</v>
       </c>
       <c r="I94">
-        <v>75835.453125</v>
+        <v>72572.2578125</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>108.4798705789726</v>
+        <v>113.6820502748933</v>
       </c>
       <c r="B95">
-        <v>0.1174190776018499</v>
+        <v>0.09634401433759027</v>
       </c>
       <c r="C95">
-        <v>0.0008784226155199023</v>
+        <v>0.001011344243723135</v>
       </c>
       <c r="D95">
-        <v>0.6572139204209659</v>
+        <v>0.705555221633986</v>
       </c>
       <c r="E95">
-        <v>1.0309514647316</v>
+        <v>1.032193049556997</v>
       </c>
       <c r="F95">
-        <v>81350.10967911783</v>
+        <v>76361.44521396242</v>
       </c>
       <c r="G95">
-        <v>0.6588159799575806</v>
+        <v>0.7046850323677063</v>
       </c>
       <c r="H95">
-        <v>1.030503034591675</v>
+        <v>1.032120943069458</v>
       </c>
       <c r="I95">
-        <v>81080.015625</v>
+        <v>76580.0703125</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>91.74487053625876</v>
+        <v>81.7058775256011</v>
       </c>
       <c r="B96">
-        <v>0.1093902186152908</v>
+        <v>0.1020414309338635</v>
       </c>
       <c r="C96">
-        <v>0.001004436959626538</v>
+        <v>0.0009233443834149986</v>
       </c>
       <c r="D96">
-        <v>0.7055151497104646</v>
+        <v>0.7210073303644048</v>
       </c>
       <c r="E96">
-        <v>1.032401018416415</v>
+        <v>1.035144599616485</v>
       </c>
       <c r="F96">
-        <v>77350.32360771715</v>
+        <v>86977.07758554851</v>
       </c>
       <c r="G96">
-        <v>0.705009400844574</v>
+        <v>0.7200483679771423</v>
       </c>
       <c r="H96">
-        <v>1.032406091690063</v>
+        <v>1.034693598747253</v>
       </c>
       <c r="I96">
-        <v>77411.40625</v>
+        <v>86484.3671875</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>87.58132959085522</v>
+        <v>117.9917920875714</v>
       </c>
       <c r="B97">
-        <v>0.09962599217041652</v>
+        <v>0.09104895297077295</v>
       </c>
       <c r="C97">
-        <v>0.000891934261127898</v>
+        <v>0.001195197615652936</v>
       </c>
       <c r="D97">
-        <v>0.7152202368609176</v>
+        <v>0.7302774679000529</v>
       </c>
       <c r="E97">
-        <v>1.034477481634569</v>
+        <v>1.032280888110007</v>
       </c>
       <c r="F97">
-        <v>88999.55306112269</v>
+        <v>66960.90331377479</v>
       </c>
       <c r="G97">
-        <v>0.7159812450408936</v>
+        <v>0.7300464510917664</v>
       </c>
       <c r="H97">
-        <v>1.034348487854004</v>
+        <v>1.032207012176514</v>
       </c>
       <c r="I97">
-        <v>88287.796875</v>
+        <v>66087</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>103.3912447284925</v>
+        <v>94.33056303924853</v>
       </c>
       <c r="B98">
-        <v>0.08931484976230522</v>
+        <v>0.09825344275243005</v>
       </c>
       <c r="C98">
-        <v>0.0008423579346848335</v>
+        <v>0.0009459791037691262</v>
       </c>
       <c r="D98">
-        <v>0.7078004867067044</v>
+        <v>0.7159885437619762</v>
       </c>
       <c r="E98">
-        <v>1.034116923179141</v>
+        <v>1.033611615809037</v>
       </c>
       <c r="F98">
-        <v>92767.28100028589</v>
+        <v>83672.14667642726</v>
       </c>
       <c r="G98">
-        <v>0.7088088989257812</v>
+        <v>0.7159858345985413</v>
       </c>
       <c r="H98">
-        <v>1.034107446670532</v>
+        <v>1.033631563186646</v>
       </c>
       <c r="I98">
-        <v>91660.921875</v>
+        <v>83686.125</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>81.18856148149872</v>
+        <v>94.38301331912466</v>
       </c>
       <c r="B99">
-        <v>0.09037095102468523</v>
+        <v>0.09614724138352485</v>
       </c>
       <c r="C99">
-        <v>0.001141976465930482</v>
+        <v>0.0009884945995101712</v>
       </c>
       <c r="D99">
-        <v>0.7580146015509406</v>
+        <v>0.7242735929265942</v>
       </c>
       <c r="E99">
-        <v>1.037365220654209</v>
+        <v>1.033864161336145</v>
       </c>
       <c r="F99">
-        <v>74613.77525697168</v>
+        <v>81107.72049008105</v>
       </c>
       <c r="G99">
-        <v>0.7599373459815979</v>
+        <v>0.7242857217788696</v>
       </c>
       <c r="H99">
-        <v>1.036172389984131</v>
+        <v>1.033912301063538</v>
       </c>
       <c r="I99">
-        <v>74941.0546875</v>
+        <v>81090.296875</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>112.8942122067917</v>
+        <v>81.04042569823012</v>
       </c>
       <c r="B100">
-        <v>0.0826750614403574</v>
+        <v>0.09013798905134787</v>
       </c>
       <c r="C100">
-        <v>0.001185381033214484</v>
+        <v>0.000952272985581202</v>
       </c>
       <c r="D100">
-        <v>0.7507550393034793</v>
+        <v>0.7461424155022065</v>
       </c>
       <c r="E100">
-        <v>1.03378980233536</v>
+        <v>1.037668164089466</v>
       </c>
       <c r="F100">
-        <v>69935.752314963</v>
+        <v>88073.0673668307</v>
       </c>
       <c r="G100">
-        <v>0.7502539753913879</v>
+        <v>0.7451409697532654</v>
       </c>
       <c r="H100">
-        <v>1.033731579780579</v>
+        <v>1.036553502082825</v>
       </c>
       <c r="I100">
-        <v>69151.03125</v>
+        <v>87340.8046875</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>80.58441943915261</v>
+        <v>87.66133387931006</v>
       </c>
       <c r="B101">
-        <v>0.09742917896218622</v>
+        <v>0.1002299580203418</v>
       </c>
       <c r="C101">
-        <v>0.001180643866526262</v>
+        <v>0.001187971102222916</v>
       </c>
       <c r="D101">
-        <v>0.7472733444641038</v>
+        <v>0.7376892341466894</v>
       </c>
       <c r="E101">
-        <v>1.035974922613619</v>
+        <v>1.034024882046786</v>
       </c>
       <c r="F101">
-        <v>70817.75348355506</v>
+        <v>68939.22363928355</v>
       </c>
       <c r="G101">
-        <v>0.7507031559944153</v>
+        <v>0.740429699420929</v>
       </c>
       <c r="H101">
-        <v>1.034991979598999</v>
+        <v>1.033789038658142</v>
       </c>
       <c r="I101">
-        <v>71240.5859375</v>
+        <v>69025.9765625</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -444,22 +444,22 @@
         <v>0.0009256706496284394</v>
       </c>
       <c r="D2">
-        <v>0.6916197704167792</v>
+        <v>0.6916169107267716</v>
       </c>
       <c r="E2">
-        <v>1.032336315794523</v>
+        <v>1.03233133240622</v>
       </c>
       <c r="F2">
-        <v>81664.51409179802</v>
+        <v>81664.31108377439</v>
       </c>
       <c r="G2">
-        <v>0.6923421025276184</v>
+        <v>0.6922930479049683</v>
       </c>
       <c r="H2">
-        <v>1.032211184501648</v>
+        <v>1.032208442687988</v>
       </c>
       <c r="I2">
-        <v>81728.7734375</v>
+        <v>81773.6171875</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -473,22 +473,22 @@
         <v>0.0009502305811828078</v>
       </c>
       <c r="D3">
-        <v>0.6659891480647903</v>
+        <v>0.6659909809895277</v>
       </c>
       <c r="E3">
-        <v>1.030756421434401</v>
+        <v>1.030759359202929</v>
       </c>
       <c r="F3">
-        <v>76173.52837206401</v>
+        <v>76173.55251162838</v>
       </c>
       <c r="G3">
-        <v>0.6660783886909485</v>
+        <v>0.6661694645881653</v>
       </c>
       <c r="H3">
-        <v>1.030390858650208</v>
+        <v>1.030373573303223</v>
       </c>
       <c r="I3">
-        <v>76138.1640625</v>
+        <v>76149.8203125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -502,22 +502,22 @@
         <v>0.001009788233499279</v>
       </c>
       <c r="D4">
-        <v>0.7503095087425227</v>
+        <v>0.7502895160164631</v>
       </c>
       <c r="E4">
-        <v>1.036185209556876</v>
+        <v>1.036173236645956</v>
       </c>
       <c r="F4">
-        <v>82986.95494028664</v>
+        <v>82985.06804092509</v>
       </c>
       <c r="G4">
-        <v>0.7490873336791992</v>
+        <v>0.7491308450698853</v>
       </c>
       <c r="H4">
-        <v>1.035754084587097</v>
+        <v>1.035764813423157</v>
       </c>
       <c r="I4">
-        <v>82766.5703125</v>
+        <v>82845.203125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -531,22 +531,22 @@
         <v>0.001098231443929161</v>
       </c>
       <c r="D5">
-        <v>0.7075880810908562</v>
+        <v>0.7075807767078481</v>
       </c>
       <c r="E5">
-        <v>1.032441939576134</v>
+        <v>1.032441819945278</v>
       </c>
       <c r="F5">
-        <v>71100.99696412635</v>
+        <v>71100.13008644794</v>
       </c>
       <c r="G5">
-        <v>0.7083325386047363</v>
+        <v>0.7078872919082642</v>
       </c>
       <c r="H5">
-        <v>1.032215714454651</v>
+        <v>1.032205581665039</v>
       </c>
       <c r="I5">
-        <v>71643.3671875</v>
+        <v>71542.4765625</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -560,22 +560,22 @@
         <v>0.0009347361258512193</v>
       </c>
       <c r="D6">
-        <v>0.6847910605909596</v>
+        <v>0.684790653344315</v>
       </c>
       <c r="E6">
-        <v>1.031536719584567</v>
+        <v>1.031536369160291</v>
       </c>
       <c r="F6">
-        <v>80254.54317002522</v>
+        <v>80254.50606798129</v>
       </c>
       <c r="G6">
-        <v>0.6845700144767761</v>
+        <v>0.6845768690109253</v>
       </c>
       <c r="H6">
-        <v>1.031490683555603</v>
+        <v>1.031507134437561</v>
       </c>
       <c r="I6">
-        <v>80195.4453125</v>
+        <v>80173.7578125</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -589,22 +589,22 @@
         <v>0.001166267181260725</v>
       </c>
       <c r="D7">
-        <v>0.7386795176292599</v>
+        <v>0.7386778500827326</v>
       </c>
       <c r="E7">
-        <v>1.034055322776733</v>
+        <v>1.034052615760915</v>
       </c>
       <c r="F7">
-        <v>70301.90645410022</v>
+        <v>70301.79957630807</v>
       </c>
       <c r="G7">
-        <v>0.7408623695373535</v>
+        <v>0.7407716512680054</v>
       </c>
       <c r="H7">
-        <v>1.033913016319275</v>
+        <v>1.033916115760803</v>
       </c>
       <c r="I7">
-        <v>70645.7265625</v>
+        <v>70670.5859375</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -618,22 +618,22 @@
         <v>0.001142026260545851</v>
       </c>
       <c r="D8">
-        <v>0.7494068925781461</v>
+        <v>0.7494090645068805</v>
       </c>
       <c r="E8">
-        <v>1.035703006552434</v>
+        <v>1.035701039527268</v>
       </c>
       <c r="F8">
-        <v>73305.35859412381</v>
+        <v>73305.4273944772</v>
       </c>
       <c r="G8">
-        <v>0.7506029009819031</v>
+        <v>0.7505240440368652</v>
       </c>
       <c r="H8">
-        <v>1.035131454467773</v>
+        <v>1.035157799720764</v>
       </c>
       <c r="I8">
-        <v>73466.1875</v>
+        <v>73519.984375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -647,22 +647,22 @@
         <v>0.000823089846847721</v>
       </c>
       <c r="D9">
-        <v>0.7321502211040813</v>
+        <v>0.7321570795988199</v>
       </c>
       <c r="E9">
-        <v>1.037630523808583</v>
+        <v>1.037645818330771</v>
       </c>
       <c r="F9">
-        <v>99832.73394930655</v>
+        <v>99832.51338603804</v>
       </c>
       <c r="G9">
-        <v>0.7312948107719421</v>
+        <v>0.7315056324005127</v>
       </c>
       <c r="H9">
-        <v>1.036519289016724</v>
+        <v>1.036564230918884</v>
       </c>
       <c r="I9">
-        <v>96586.4140625</v>
+        <v>96735.1328125</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -676,22 +676,22 @@
         <v>0.0009034296440442345</v>
       </c>
       <c r="D10">
-        <v>0.6819274209075046</v>
+        <v>0.6819281496632681</v>
       </c>
       <c r="E10">
-        <v>1.031809704274785</v>
+        <v>1.031809460928928</v>
       </c>
       <c r="F10">
-        <v>82471.10627716557</v>
+        <v>82471.23865794875</v>
       </c>
       <c r="G10">
-        <v>0.6834313273429871</v>
+        <v>0.6833135485649109</v>
       </c>
       <c r="H10">
-        <v>1.031773328781128</v>
+        <v>1.031765580177307</v>
       </c>
       <c r="I10">
-        <v>82343.1484375</v>
+        <v>82365.5859375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -705,22 +705,22 @@
         <v>0.0009788855089532644</v>
       </c>
       <c r="D11">
-        <v>0.7654000419682092</v>
+        <v>0.7654032416762028</v>
       </c>
       <c r="E11">
-        <v>1.039952007682214</v>
+        <v>1.039946910731191</v>
       </c>
       <c r="F11">
-        <v>88580.3608109831</v>
+        <v>88580.56628777647</v>
       </c>
       <c r="G11">
-        <v>0.7620955109596252</v>
+        <v>0.7622767686843872</v>
       </c>
       <c r="H11">
-        <v>1.037750005722046</v>
+        <v>1.037761092185974</v>
       </c>
       <c r="I11">
-        <v>87694.28125</v>
+        <v>87833.515625</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -734,22 +734,22 @@
         <v>0.0008450169802887373</v>
       </c>
       <c r="D12">
-        <v>0.7161161788158763</v>
+        <v>0.7161190099883681</v>
       </c>
       <c r="E12">
-        <v>1.034816660661998</v>
+        <v>1.034825513844465</v>
       </c>
       <c r="F12">
-        <v>93642.69126249627</v>
+        <v>93643.24871863671</v>
       </c>
       <c r="G12">
-        <v>0.7169065475463867</v>
+        <v>0.716783881187439</v>
       </c>
       <c r="H12">
-        <v>1.034643054008484</v>
+        <v>1.03467071056366</v>
       </c>
       <c r="I12">
-        <v>92072.9921875</v>
+        <v>92160.6484375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -763,22 +763,22 @@
         <v>0.0009406036791425204</v>
       </c>
       <c r="D13">
-        <v>0.7264089410824757</v>
+        <v>0.7264122271188437</v>
       </c>
       <c r="E13">
-        <v>1.035060394503714</v>
+        <v>1.035068400504928</v>
       </c>
       <c r="F13">
-        <v>85958.32960156043</v>
+        <v>85958.56467227172</v>
       </c>
       <c r="G13">
-        <v>0.7259270548820496</v>
+        <v>0.726116955280304</v>
       </c>
       <c r="H13">
-        <v>1.03483247756958</v>
+        <v>1.034859895706177</v>
       </c>
       <c r="I13">
-        <v>85706.4765625</v>
+        <v>85797.8828125</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -792,22 +792,22 @@
         <v>0.001094116500597568</v>
       </c>
       <c r="D14">
-        <v>0.7680176263492305</v>
+        <v>0.7680210005145078</v>
       </c>
       <c r="E14">
-        <v>1.038636355198548</v>
+        <v>1.038637144089842</v>
       </c>
       <c r="F14">
-        <v>79212.20090002203</v>
+        <v>79212.55124218619</v>
       </c>
       <c r="G14">
-        <v>0.766714334487915</v>
+        <v>0.7668142914772034</v>
       </c>
       <c r="H14">
-        <v>1.037063121795654</v>
+        <v>1.037059307098389</v>
       </c>
       <c r="I14">
-        <v>79485.890625</v>
+        <v>79591.234375</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -821,22 +821,22 @@
         <v>0.001070760376345575</v>
       </c>
       <c r="D15">
-        <v>0.7520002188925617</v>
+        <v>0.7520013058133194</v>
       </c>
       <c r="E15">
-        <v>1.036768772032835</v>
+        <v>1.036769139040298</v>
       </c>
       <c r="F15">
-        <v>78735.52344873219</v>
+        <v>78735.64567626338</v>
       </c>
       <c r="G15">
-        <v>0.7516102194786072</v>
+        <v>0.751667320728302</v>
       </c>
       <c r="H15">
-        <v>1.036039113998413</v>
+        <v>1.03604531288147</v>
       </c>
       <c r="I15">
-        <v>79205.1015625</v>
+        <v>79324.578125</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -850,22 +850,22 @@
         <v>0.001047973814451577</v>
       </c>
       <c r="D16">
-        <v>0.7309986523827755</v>
+        <v>0.7309956402938965</v>
       </c>
       <c r="E16">
-        <v>1.033469691069379</v>
+        <v>1.033494057055491</v>
       </c>
       <c r="F16">
-        <v>76950.39052454225</v>
+        <v>76947.81755131742</v>
       </c>
       <c r="G16">
-        <v>0.7299219965934753</v>
+        <v>0.7298361659049988</v>
       </c>
       <c r="H16">
-        <v>1.033463835716248</v>
+        <v>1.03345787525177</v>
       </c>
       <c r="I16">
-        <v>77111.2890625</v>
+        <v>77157.6015625</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -879,22 +879,22 @@
         <v>0.001082525617411708</v>
       </c>
       <c r="D17">
-        <v>0.7474447696844148</v>
+        <v>0.7474444601494893</v>
       </c>
       <c r="E17">
-        <v>1.035457754754129</v>
+        <v>1.03545774412238</v>
       </c>
       <c r="F17">
-        <v>76996.88611420967</v>
+        <v>76996.85447170361</v>
       </c>
       <c r="G17">
-        <v>0.7472257614135742</v>
+        <v>0.7471140027046204</v>
       </c>
       <c r="H17">
-        <v>1.035185098648071</v>
+        <v>1.035199999809265</v>
       </c>
       <c r="I17">
-        <v>76925.4296875</v>
+        <v>77036.5859375</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -908,22 +908,22 @@
         <v>0.0008843322107500298</v>
       </c>
       <c r="D18">
-        <v>0.7300425664749978</v>
+        <v>0.7300438595906057</v>
       </c>
       <c r="E18">
-        <v>1.035537501774775</v>
+        <v>1.03554053793997</v>
       </c>
       <c r="F18">
-        <v>91813.1528097886</v>
+        <v>91813.1229054865</v>
       </c>
       <c r="G18">
-        <v>0.7286370992660522</v>
+        <v>0.7290244102478027</v>
       </c>
       <c r="H18">
-        <v>1.035286664962769</v>
+        <v>1.035299897193909</v>
       </c>
       <c r="I18">
-        <v>90979.1015625</v>
+        <v>91109.3984375</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -937,22 +937,22 @@
         <v>0.0009379468012900157</v>
       </c>
       <c r="D19">
-        <v>0.7404212016045542</v>
+        <v>0.7404203871168218</v>
       </c>
       <c r="E19">
-        <v>1.035637245095123</v>
+        <v>1.035637296811797</v>
       </c>
       <c r="F19">
-        <v>87785.39898798989</v>
+        <v>87785.26784106372</v>
       </c>
       <c r="G19">
-        <v>0.7379845380783081</v>
+        <v>0.7380756139755249</v>
       </c>
       <c r="H19">
-        <v>1.035333395004272</v>
+        <v>1.035354852676392</v>
       </c>
       <c r="I19">
-        <v>87304.046875</v>
+        <v>87371.921875</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -966,22 +966,22 @@
         <v>0.001069085783561953</v>
       </c>
       <c r="D20">
-        <v>0.7341189327102274</v>
+        <v>0.7341238675702554</v>
       </c>
       <c r="E20">
-        <v>1.033512014317624</v>
+        <v>1.033509941994543</v>
       </c>
       <c r="F20">
-        <v>75633.06256820157</v>
+        <v>75633.96089300404</v>
       </c>
       <c r="G20">
-        <v>0.7323932647705078</v>
+        <v>0.7323122024536133</v>
       </c>
       <c r="H20">
-        <v>1.033496737480164</v>
+        <v>1.033477663993835</v>
       </c>
       <c r="I20">
-        <v>75568.453125</v>
+        <v>75608.6171875</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -995,22 +995,22 @@
         <v>0.001148657295445396</v>
       </c>
       <c r="D21">
-        <v>0.70968489632294</v>
+        <v>0.7096797310988086</v>
       </c>
       <c r="E21">
-        <v>1.031349918333347</v>
+        <v>1.031349008594136</v>
       </c>
       <c r="F21">
-        <v>67556.93680367025</v>
+        <v>67556.55768484941</v>
       </c>
       <c r="G21">
-        <v>0.7094854116439819</v>
+        <v>0.7095230221748352</v>
       </c>
       <c r="H21">
-        <v>1.03127121925354</v>
+        <v>1.03127908706665</v>
       </c>
       <c r="I21">
-        <v>67239.84375</v>
+        <v>67314.2421875</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1024,22 +1024,22 @@
         <v>0.001017121482483573</v>
       </c>
       <c r="D22">
-        <v>0.6928627696458554</v>
+        <v>0.6928610254346227</v>
       </c>
       <c r="E22">
-        <v>1.031472046385085</v>
+        <v>1.031433155235062</v>
       </c>
       <c r="F22">
-        <v>74754.65763892292</v>
+        <v>74757.97933965591</v>
       </c>
       <c r="G22">
-        <v>0.6926150918006897</v>
+        <v>0.6923930644989014</v>
       </c>
       <c r="H22">
-        <v>1.031440734863281</v>
+        <v>1.031442642211914</v>
       </c>
       <c r="I22">
-        <v>74887.5234375</v>
+        <v>74874.9921875</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1053,22 +1053,22 @@
         <v>0.0009148198284050538</v>
       </c>
       <c r="D23">
-        <v>0.6878199630184515</v>
+        <v>0.6878239948131314</v>
       </c>
       <c r="E23">
-        <v>1.032181874266357</v>
+        <v>1.032183195625241</v>
       </c>
       <c r="F23">
-        <v>82760.26344095323</v>
+        <v>82760.74823260316</v>
       </c>
       <c r="G23">
-        <v>0.6853999495506287</v>
+        <v>0.6852588653564453</v>
       </c>
       <c r="H23">
-        <v>1.032002925872803</v>
+        <v>1.032020807266235</v>
       </c>
       <c r="I23">
-        <v>82239.390625</v>
+        <v>82273.5234375</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1082,22 +1082,22 @@
         <v>0.000815855604896995</v>
       </c>
       <c r="D24">
-        <v>0.7179174325225729</v>
+        <v>0.7179254511365647</v>
       </c>
       <c r="E24">
-        <v>1.036139824977295</v>
+        <v>1.036146242267356</v>
       </c>
       <c r="F24">
-        <v>98248.79070763022</v>
+        <v>98249.95555034139</v>
       </c>
       <c r="G24">
-        <v>0.7182028293609619</v>
+        <v>0.7188281416893005</v>
       </c>
       <c r="H24">
-        <v>1.035474300384521</v>
+        <v>1.035547137260437</v>
       </c>
       <c r="I24">
-        <v>95668.1796875</v>
+        <v>95734.6484375</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1111,22 +1111,22 @@
         <v>0.001082450521882363</v>
       </c>
       <c r="D25">
-        <v>0.7524289485314408</v>
+        <v>0.7524157733750324</v>
       </c>
       <c r="E25">
-        <v>1.03578118000606</v>
+        <v>1.035772455081468</v>
       </c>
       <c r="F25">
-        <v>77579.49528373979</v>
+        <v>77578.44629947799</v>
       </c>
       <c r="G25">
-        <v>0.7515615224838257</v>
+        <v>0.7514432668685913</v>
       </c>
       <c r="H25">
-        <v>1.03541374206543</v>
+        <v>1.035422682762146</v>
       </c>
       <c r="I25">
-        <v>77372.71875</v>
+        <v>77473.09375</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1140,22 +1140,22 @@
         <v>0.0008070941133313807</v>
       </c>
       <c r="D26">
-        <v>0.6896021182423618</v>
+        <v>0.6895974821618143</v>
       </c>
       <c r="E26">
-        <v>1.033313371147812</v>
+        <v>1.033310615262938</v>
       </c>
       <c r="F26">
-        <v>94270.09119819044</v>
+        <v>94269.53896249807</v>
       </c>
       <c r="G26">
-        <v>0.6913641095161438</v>
+        <v>0.6916362643241882</v>
       </c>
       <c r="H26">
-        <v>1.033295392990112</v>
+        <v>1.033341765403748</v>
       </c>
       <c r="I26">
-        <v>92692.296875</v>
+        <v>92815.8515625</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1169,22 +1169,22 @@
         <v>0.0009500911124742024</v>
       </c>
       <c r="D27">
-        <v>0.7094886735097066</v>
+        <v>0.7094861983221111</v>
       </c>
       <c r="E27">
-        <v>1.032968493400892</v>
+        <v>1.032963146662579</v>
       </c>
       <c r="F27">
-        <v>82278.93675517307</v>
+        <v>82278.5307504925</v>
       </c>
       <c r="G27">
-        <v>0.7093926072120667</v>
+        <v>0.7093263268470764</v>
       </c>
       <c r="H27">
-        <v>1.032952427864075</v>
+        <v>1.032953023910522</v>
       </c>
       <c r="I27">
-        <v>82437.7109375</v>
+        <v>82445.3671875</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1198,22 +1198,22 @@
         <v>0.001011970368146245</v>
       </c>
       <c r="D28">
-        <v>0.6742275216962692</v>
+        <v>0.6742453719563191</v>
       </c>
       <c r="E28">
-        <v>1.030531565828567</v>
+        <v>1.030538679615913</v>
       </c>
       <c r="F28">
-        <v>72481.79789926219</v>
+        <v>72483.96582449484</v>
       </c>
       <c r="G28">
-        <v>0.6726382970809937</v>
+        <v>0.6724995374679565</v>
       </c>
       <c r="H28">
-        <v>1.030224800109863</v>
+        <v>1.030202627182007</v>
       </c>
       <c r="I28">
-        <v>72217.1015625</v>
+        <v>72227.8046875</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1227,22 +1227,22 @@
         <v>0.001165464652505051</v>
       </c>
       <c r="D29">
-        <v>0.7530645526196148</v>
+        <v>0.753065563233476</v>
       </c>
       <c r="E29">
-        <v>1.034261806170276</v>
+        <v>1.034262118927556</v>
       </c>
       <c r="F29">
-        <v>71551.14639535559</v>
+        <v>71551.24104887774</v>
       </c>
       <c r="G29">
-        <v>0.7515797019004822</v>
+        <v>0.7518091797828674</v>
       </c>
       <c r="H29">
-        <v>1.034102916717529</v>
+        <v>1.034107327461243</v>
       </c>
       <c r="I29">
-        <v>71039.5703125</v>
+        <v>71120.84375</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1256,22 +1256,22 @@
         <v>0.0008390848185614511</v>
       </c>
       <c r="D30">
-        <v>0.6837408471339597</v>
+        <v>0.6837369813382663</v>
       </c>
       <c r="E30">
-        <v>1.032491833558275</v>
+        <v>1.032495255850938</v>
       </c>
       <c r="F30">
-        <v>89625.18409234335</v>
+        <v>89623.77385349662</v>
       </c>
       <c r="G30">
-        <v>0.6848196387290955</v>
+        <v>0.684670090675354</v>
       </c>
       <c r="H30">
-        <v>1.032500147819519</v>
+        <v>1.032502412796021</v>
       </c>
       <c r="I30">
-        <v>88543.1328125</v>
+        <v>88509.1015625</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1285,22 +1285,22 @@
         <v>0.0009631300677176743</v>
       </c>
       <c r="D31">
-        <v>0.729042586127758</v>
+        <v>0.7290435312899831</v>
       </c>
       <c r="E31">
-        <v>1.03449619594539</v>
+        <v>1.034499680200203</v>
       </c>
       <c r="F31">
-        <v>83962.37647717001</v>
+        <v>83962.22778404084</v>
       </c>
       <c r="G31">
-        <v>0.7289700508117676</v>
+        <v>0.7291228175163269</v>
       </c>
       <c r="H31">
-        <v>1.034492611885071</v>
+        <v>1.03449010848999</v>
       </c>
       <c r="I31">
-        <v>83970.2421875</v>
+        <v>84007.296875</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1314,22 +1314,22 @@
         <v>0.0008135342007021626</v>
       </c>
       <c r="D32">
-        <v>0.7235835067025165</v>
+        <v>0.7235896823807829</v>
       </c>
       <c r="E32">
-        <v>1.036407406012754</v>
+        <v>1.036421373267817</v>
       </c>
       <c r="F32">
-        <v>99322.95612949997</v>
+        <v>99323.36332238653</v>
       </c>
       <c r="G32">
-        <v>0.7233743667602539</v>
+        <v>0.7237011194229126</v>
       </c>
       <c r="H32">
-        <v>1.035829305648804</v>
+        <v>1.035871624946594</v>
       </c>
       <c r="I32">
-        <v>96857.40625</v>
+        <v>96946.46875</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1343,22 +1343,22 @@
         <v>0.0009383046395494612</v>
       </c>
       <c r="D33">
-        <v>0.6807372678070543</v>
+        <v>0.6807361194587256</v>
       </c>
       <c r="E33">
-        <v>1.031487950055388</v>
+        <v>1.031490923063711</v>
       </c>
       <c r="F33">
-        <v>79127.05478577153</v>
+        <v>79126.6774801102</v>
       </c>
       <c r="G33">
-        <v>0.6815074682235718</v>
+        <v>0.6814299821853638</v>
       </c>
       <c r="H33">
-        <v>1.031429648399353</v>
+        <v>1.031423807144165</v>
       </c>
       <c r="I33">
-        <v>79271.5703125</v>
+        <v>79307.9296875</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1372,22 +1372,22 @@
         <v>0.001047913694623639</v>
       </c>
       <c r="D34">
-        <v>0.7520423847278569</v>
+        <v>0.7520404891501725</v>
       </c>
       <c r="E34">
-        <v>1.037158912394181</v>
+        <v>1.037161423494417</v>
       </c>
       <c r="F34">
-        <v>80565.80093452327</v>
+        <v>80565.58452185837</v>
       </c>
       <c r="G34">
-        <v>0.7512412071228027</v>
+        <v>0.7514634728431702</v>
       </c>
       <c r="H34">
-        <v>1.036276459693909</v>
+        <v>1.036291599273682</v>
       </c>
       <c r="I34">
-        <v>81071.1484375</v>
+        <v>81197</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1401,22 +1401,22 @@
         <v>0.0009133962270995029</v>
       </c>
       <c r="D35">
-        <v>0.6813239049910388</v>
+        <v>0.6813268801129539</v>
       </c>
       <c r="E35">
-        <v>1.031672842497762</v>
+        <v>1.03164345306286</v>
       </c>
       <c r="F35">
-        <v>81477.61771880077</v>
+        <v>81481.04959769519</v>
       </c>
       <c r="G35">
-        <v>0.6823998093605042</v>
+        <v>0.6822929382324219</v>
       </c>
       <c r="H35">
-        <v>1.031611204147339</v>
+        <v>1.031597495079041</v>
       </c>
       <c r="I35">
-        <v>81267.59375</v>
+        <v>81303.546875</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1430,22 +1430,22 @@
         <v>0.0008862240709628215</v>
       </c>
       <c r="D36">
-        <v>0.6833713349462101</v>
+        <v>0.6833679590032055</v>
       </c>
       <c r="E36">
-        <v>1.032140701955307</v>
+        <v>1.032134879707855</v>
       </c>
       <c r="F36">
-        <v>84292.60941559535</v>
+        <v>84292.8216906826</v>
       </c>
       <c r="G36">
-        <v>0.6855370402336121</v>
+        <v>0.6854706406593323</v>
       </c>
       <c r="H36">
-        <v>1.032081604003906</v>
+        <v>1.032075762748718</v>
       </c>
       <c r="I36">
-        <v>84187.890625</v>
+        <v>84201.2109375</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1459,22 +1459,22 @@
         <v>0.0008493584355891823</v>
       </c>
       <c r="D37">
-        <v>0.6840019190808251</v>
+        <v>0.6840112154246035</v>
       </c>
       <c r="E37">
-        <v>1.03259376613729</v>
+        <v>1.032605153433232</v>
       </c>
       <c r="F37">
-        <v>88160.90003302632</v>
+        <v>88161.27262168239</v>
       </c>
       <c r="G37">
-        <v>0.6870647668838501</v>
+        <v>0.6870015859603882</v>
       </c>
       <c r="H37">
-        <v>1.032526969909668</v>
+        <v>1.032548069953918</v>
       </c>
       <c r="I37">
-        <v>87717.0859375</v>
+        <v>87680.5859375</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1488,22 +1488,22 @@
         <v>0.0010302384200077</v>
       </c>
       <c r="D38">
-        <v>0.7212427710176909</v>
+        <v>0.7212417011475958</v>
       </c>
       <c r="E38">
-        <v>1.033431262864771</v>
+        <v>1.033431112187285</v>
       </c>
       <c r="F38">
-        <v>77449.01893265596</v>
+        <v>77448.8952452893</v>
       </c>
       <c r="G38">
-        <v>0.7215126156806946</v>
+        <v>0.7216351628303528</v>
       </c>
       <c r="H38">
-        <v>1.033400058746338</v>
+        <v>1.033413648605347</v>
       </c>
       <c r="I38">
-        <v>77319.28125</v>
+        <v>77358.9921875</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1517,22 +1517,22 @@
         <v>0.001076544435766822</v>
       </c>
       <c r="D39">
-        <v>0.7399083882987981</v>
+        <v>0.7399191911750822</v>
       </c>
       <c r="E39">
-        <v>1.034378450345545</v>
+        <v>1.034384079613546</v>
       </c>
       <c r="F39">
-        <v>76279.67529202791</v>
+        <v>76280.87509901689</v>
       </c>
       <c r="G39">
-        <v>0.7401264309883118</v>
+        <v>0.7398829460144043</v>
       </c>
       <c r="H39">
-        <v>1.034372448921204</v>
+        <v>1.03437077999115</v>
       </c>
       <c r="I39">
-        <v>76263.34375</v>
+        <v>76284.7890625</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1546,22 +1546,22 @@
         <v>0.00106740596049046</v>
       </c>
       <c r="D40">
-        <v>0.7017237980108207</v>
+        <v>0.7017182904900768</v>
       </c>
       <c r="E40">
-        <v>1.031433946186709</v>
+        <v>1.031429272405666</v>
       </c>
       <c r="F40">
-        <v>71960.20679108948</v>
+        <v>71959.68220060731</v>
       </c>
       <c r="G40">
-        <v>0.7014785408973694</v>
+        <v>0.7015612125396729</v>
       </c>
       <c r="H40">
-        <v>1.031423449516296</v>
+        <v>1.031421422958374</v>
       </c>
       <c r="I40">
-        <v>72077.0859375</v>
+        <v>72070.6328125</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1575,22 +1575,22 @@
         <v>0.001175950286935216</v>
       </c>
       <c r="D41">
-        <v>0.7407840970310974</v>
+        <v>0.7407799373371965</v>
       </c>
       <c r="E41">
-        <v>1.034022305622192</v>
+        <v>1.034035829910333</v>
       </c>
       <c r="F41">
-        <v>69907.14507071544</v>
+        <v>69905.5551741338</v>
       </c>
       <c r="G41">
-        <v>0.7428241372108459</v>
+        <v>0.7427082657814026</v>
       </c>
       <c r="H41">
-        <v>1.033937454223633</v>
+        <v>1.033936738967896</v>
       </c>
       <c r="I41">
-        <v>70159.6953125</v>
+        <v>70171.3671875</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1604,22 +1604,22 @@
         <v>0.0008050632419207495</v>
       </c>
       <c r="D42">
-        <v>0.7030583900633974</v>
+        <v>0.7030543869814555</v>
       </c>
       <c r="E42">
-        <v>1.034314629483044</v>
+        <v>1.034349341766968</v>
       </c>
       <c r="F42">
-        <v>96638.59655306568</v>
+        <v>96634.46325861006</v>
       </c>
       <c r="G42">
-        <v>0.7053549289703369</v>
+        <v>0.7056141495704651</v>
       </c>
       <c r="H42">
-        <v>1.034303903579712</v>
+        <v>1.034338116645813</v>
       </c>
       <c r="I42">
-        <v>94750.8515625</v>
+        <v>94768.0625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1633,22 +1633,22 @@
         <v>0.001057700028055423</v>
       </c>
       <c r="D43">
-        <v>0.7079126312855549</v>
+        <v>0.7079066587129136</v>
       </c>
       <c r="E43">
-        <v>1.032360334061508</v>
+        <v>1.032352877469923</v>
       </c>
       <c r="F43">
-        <v>73772.9531634837</v>
+        <v>73772.30104920569</v>
       </c>
       <c r="G43">
-        <v>0.7078742980957031</v>
+        <v>0.7075168490409851</v>
       </c>
       <c r="H43">
-        <v>1.032322406768799</v>
+        <v>1.032320022583008</v>
       </c>
       <c r="I43">
-        <v>74162.3125</v>
+        <v>74133.03125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1662,22 +1662,22 @@
         <v>0.001039353033807756</v>
       </c>
       <c r="D44">
-        <v>0.6903270071104682</v>
+        <v>0.6903248046248358</v>
       </c>
       <c r="E44">
-        <v>1.031019672340314</v>
+        <v>1.031024864444932</v>
       </c>
       <c r="F44">
-        <v>72638.02699825242</v>
+        <v>72637.78106348774</v>
       </c>
       <c r="G44">
-        <v>0.6889962553977966</v>
+        <v>0.6887430548667908</v>
       </c>
       <c r="H44">
-        <v>1.030935764312744</v>
+        <v>1.030939221382141</v>
       </c>
       <c r="I44">
-        <v>72660.5234375</v>
+        <v>72643.7734375</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1691,22 +1691,22 @@
         <v>0.001034785287908779</v>
       </c>
       <c r="D45">
-        <v>0.7671786689302496</v>
+        <v>0.7671844123053787</v>
       </c>
       <c r="E45">
-        <v>1.039321072442807</v>
+        <v>1.039336714619782</v>
       </c>
       <c r="F45">
-        <v>83840.72177582633</v>
+        <v>83841.49808497301</v>
       </c>
       <c r="G45">
-        <v>0.7648162841796875</v>
+        <v>0.7649828195571899</v>
       </c>
       <c r="H45">
-        <v>1.037438035011292</v>
+        <v>1.037452816963196</v>
       </c>
       <c r="I45">
-        <v>83794.3671875</v>
+        <v>83972.7890625</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1720,22 +1720,22 @@
         <v>0.001181402632000191</v>
       </c>
       <c r="D46">
-        <v>0.7375710487092731</v>
+        <v>0.7375690946817102</v>
       </c>
       <c r="E46">
-        <v>1.032846997965381</v>
+        <v>1.03284351054729</v>
       </c>
       <c r="F46">
-        <v>68688.14380073671</v>
+        <v>68688.4591671383</v>
       </c>
       <c r="G46">
-        <v>0.7377176880836487</v>
+        <v>0.7379432916641235</v>
       </c>
       <c r="H46">
-        <v>1.032907009124756</v>
+        <v>1.032896637916565</v>
       </c>
       <c r="I46">
-        <v>68122.9453125</v>
+        <v>68221.3828125</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1749,22 +1749,22 @@
         <v>0.000810617175978835</v>
       </c>
       <c r="D47">
-        <v>0.7205389242190171</v>
+        <v>0.7205381630085242</v>
       </c>
       <c r="E47">
-        <v>1.036433063574819</v>
+        <v>1.036436725240901</v>
       </c>
       <c r="F47">
-        <v>99327.46901673396</v>
+        <v>99326.84690659466</v>
       </c>
       <c r="G47">
-        <v>0.7206618785858154</v>
+        <v>0.7211787700653076</v>
       </c>
       <c r="H47">
-        <v>1.03571891784668</v>
+        <v>1.035783648490906</v>
       </c>
       <c r="I47">
-        <v>96541.125</v>
+        <v>96636.453125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1778,22 +1778,22 @@
         <v>0.001077019697553946</v>
       </c>
       <c r="D48">
-        <v>0.6983261202818404</v>
+        <v>0.698325160386229</v>
       </c>
       <c r="E48">
-        <v>1.031193890524973</v>
+        <v>1.031193679321677</v>
       </c>
       <c r="F48">
-        <v>70949.41208099748</v>
+        <v>70949.30812049766</v>
       </c>
       <c r="G48">
-        <v>0.6980242729187012</v>
+        <v>0.6979702711105347</v>
       </c>
       <c r="H48">
-        <v>1.031163215637207</v>
+        <v>1.031158924102783</v>
       </c>
       <c r="I48">
-        <v>70878.4921875</v>
+        <v>70854.6875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1807,22 +1807,22 @@
         <v>0.001122959771226961</v>
       </c>
       <c r="D49">
-        <v>0.6992598592536114</v>
+        <v>0.6992622008197404</v>
       </c>
       <c r="E49">
-        <v>1.031177348316878</v>
+        <v>1.031177844929144</v>
       </c>
       <c r="F49">
-        <v>68276.71758514796</v>
+        <v>68276.95557744146</v>
       </c>
       <c r="G49">
-        <v>0.7001422643661499</v>
+        <v>0.6999993920326233</v>
       </c>
       <c r="H49">
-        <v>1.031119585037231</v>
+        <v>1.031123280525208</v>
       </c>
       <c r="I49">
-        <v>67964.734375</v>
+        <v>67995.4140625</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1836,22 +1836,22 @@
         <v>0.001003844350433521</v>
       </c>
       <c r="D50">
-        <v>0.6790872069655358</v>
+        <v>0.6790990925983401</v>
       </c>
       <c r="E50">
-        <v>1.030718826563334</v>
+        <v>1.030723389919919</v>
       </c>
       <c r="F50">
-        <v>73755.25314880314</v>
+        <v>73756.59651031996</v>
       </c>
       <c r="G50">
-        <v>0.677836000919342</v>
+        <v>0.6776986122131348</v>
       </c>
       <c r="H50">
-        <v>1.030547857284546</v>
+        <v>1.030539870262146</v>
       </c>
       <c r="I50">
-        <v>73571.4609375</v>
+        <v>73573.9921875</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1865,22 +1865,22 @@
         <v>0.0009349154248482668</v>
       </c>
       <c r="D51">
-        <v>0.6564492835740371</v>
+        <v>0.6564493586444542</v>
       </c>
       <c r="E51">
-        <v>1.030916382654812</v>
+        <v>1.030916729197532</v>
       </c>
       <c r="F51">
-        <v>76104.17076446612</v>
+        <v>76104.17120937689</v>
       </c>
       <c r="G51">
-        <v>0.6577295660972595</v>
+        <v>0.6580114364624023</v>
       </c>
       <c r="H51">
-        <v>1.030143022537231</v>
+        <v>1.030124664306641</v>
       </c>
       <c r="I51">
-        <v>76419.9921875</v>
+        <v>76441.328125</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1894,22 +1894,22 @@
         <v>0.001114007249036693</v>
       </c>
       <c r="D52">
-        <v>0.7324773492254714</v>
+        <v>0.7324802497210223</v>
       </c>
       <c r="E52">
-        <v>1.033042440050155</v>
+        <v>1.033055059314659</v>
       </c>
       <c r="F52">
-        <v>72465.23526349712</v>
+        <v>72465.87387115341</v>
       </c>
       <c r="G52">
-        <v>0.7326982617378235</v>
+        <v>0.7327068448066711</v>
       </c>
       <c r="H52">
-        <v>1.033112645149231</v>
+        <v>1.033099055290222</v>
       </c>
       <c r="I52">
-        <v>72428.671875</v>
+        <v>72432.84375</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1923,22 +1923,22 @@
         <v>0.0008421221279441666</v>
       </c>
       <c r="D53">
-        <v>0.6839960825317173</v>
+        <v>0.6839932462465574</v>
       </c>
       <c r="E53">
-        <v>1.032835379940723</v>
+        <v>1.032834416658856</v>
       </c>
       <c r="F53">
-        <v>89626.34587478536</v>
+        <v>89625.74063939061</v>
       </c>
       <c r="G53">
-        <v>0.6828212141990662</v>
+        <v>0.6824231147766113</v>
       </c>
       <c r="H53">
-        <v>1.032517313957214</v>
+        <v>1.032504916191101</v>
       </c>
       <c r="I53">
-        <v>87852.421875</v>
+        <v>87858.5234375</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1952,22 +1952,22 @@
         <v>0.0009772783875127641</v>
       </c>
       <c r="D54">
-        <v>0.7313581543771595</v>
+        <v>0.731364161086609</v>
       </c>
       <c r="E54">
-        <v>1.034467295892607</v>
+        <v>1.03447212228705</v>
       </c>
       <c r="F54">
-        <v>82979.80942841155</v>
+        <v>82980.48975181185</v>
       </c>
       <c r="G54">
-        <v>0.731647253036499</v>
+        <v>0.7317283153533936</v>
       </c>
       <c r="H54">
-        <v>1.03447961807251</v>
+        <v>1.034487724304199</v>
       </c>
       <c r="I54">
-        <v>82934.5859375</v>
+        <v>82978.546875</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1981,22 +1981,22 @@
         <v>0.001007821187112979</v>
       </c>
       <c r="D55">
-        <v>0.7425448923268227</v>
+        <v>0.74254193787245</v>
       </c>
       <c r="E55">
-        <v>1.035040665232845</v>
+        <v>1.035039549146252</v>
       </c>
       <c r="F55">
-        <v>81843.39851304673</v>
+        <v>81842.9407372874</v>
       </c>
       <c r="G55">
-        <v>0.7418895959854126</v>
+        <v>0.742013692855835</v>
       </c>
       <c r="H55">
-        <v>1.034897565841675</v>
+        <v>1.034916996955872</v>
       </c>
       <c r="I55">
-        <v>81816.859375</v>
+        <v>81850.9375</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2010,22 +2010,22 @@
         <v>0.001076029516000472</v>
       </c>
       <c r="D56">
-        <v>0.6891623556691627</v>
+        <v>0.6891837485501158</v>
       </c>
       <c r="E56">
-        <v>1.030712598277624</v>
+        <v>1.030721102447568</v>
       </c>
       <c r="F56">
-        <v>69914.77918551542</v>
+        <v>69917.11684657419</v>
       </c>
       <c r="G56">
-        <v>0.6882236003875732</v>
+        <v>0.6880288124084473</v>
       </c>
       <c r="H56">
-        <v>1.030601263046265</v>
+        <v>1.030585289001465</v>
       </c>
       <c r="I56">
-        <v>69781.1328125</v>
+        <v>69759.375</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2039,22 +2039,22 @@
         <v>0.0008396301538444109</v>
       </c>
       <c r="D57">
-        <v>0.7018917609286974</v>
+        <v>0.7018921002356862</v>
       </c>
       <c r="E57">
-        <v>1.033763472925821</v>
+        <v>1.033772049197807</v>
       </c>
       <c r="F57">
-        <v>92063.29612232554</v>
+        <v>92062.39893012248</v>
       </c>
       <c r="G57">
-        <v>0.7025277614593506</v>
+        <v>0.7026731967926025</v>
       </c>
       <c r="H57">
-        <v>1.033699154853821</v>
+        <v>1.033701300621033</v>
       </c>
       <c r="I57">
-        <v>90995.7578125</v>
+        <v>91014.8828125</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2068,22 +2068,22 @@
         <v>0.0008932836855761951</v>
       </c>
       <c r="D58">
-        <v>0.6973346098813284</v>
+        <v>0.6973338949138772</v>
       </c>
       <c r="E58">
-        <v>1.032843702319994</v>
+        <v>1.032841190617349</v>
       </c>
       <c r="F58">
-        <v>86043.65799686007</v>
+        <v>86043.60203218627</v>
       </c>
       <c r="G58">
-        <v>0.6977643370628357</v>
+        <v>0.6979203820228577</v>
       </c>
       <c r="H58">
-        <v>1.032826542854309</v>
+        <v>1.032837271690369</v>
       </c>
       <c r="I58">
-        <v>85628.6796875</v>
+        <v>85731.9765625</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2097,22 +2097,22 @@
         <v>0.0009648388586806244</v>
       </c>
       <c r="D59">
-        <v>0.7576617064409804</v>
+        <v>0.7576616097421851</v>
       </c>
       <c r="E59">
-        <v>1.03838177953815</v>
+        <v>1.03838053198734</v>
       </c>
       <c r="F59">
-        <v>88443.83152198538</v>
+        <v>88443.84671618273</v>
       </c>
       <c r="G59">
-        <v>0.7552383542060852</v>
+        <v>0.755454957485199</v>
       </c>
       <c r="H59">
-        <v>1.037052750587463</v>
+        <v>1.037064909934998</v>
       </c>
       <c r="I59">
-        <v>87668.078125</v>
+        <v>87751.78125</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2126,22 +2126,22 @@
         <v>0.001048330623721019</v>
       </c>
       <c r="D60">
-        <v>0.7059764651810857</v>
+        <v>0.7059848901922893</v>
       </c>
       <c r="E60">
-        <v>1.03193165212807</v>
+        <v>1.031936631932215</v>
       </c>
       <c r="F60">
-        <v>73994.22263854647</v>
+        <v>73995.2602399117</v>
       </c>
       <c r="G60">
-        <v>0.7062215209007263</v>
+        <v>0.7061645984649658</v>
       </c>
       <c r="H60">
-        <v>1.031957030296326</v>
+        <v>1.031962633132935</v>
       </c>
       <c r="I60">
-        <v>74046.0234375</v>
+        <v>74056.484375</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2155,22 +2155,22 @@
         <v>0.001151685838923124</v>
       </c>
       <c r="D61">
-        <v>0.6845751277075967</v>
+        <v>0.6845659989323333</v>
       </c>
       <c r="E61">
-        <v>1.03041618243808</v>
+        <v>1.030425637132539</v>
       </c>
       <c r="F61">
-        <v>64498.11933811042</v>
+        <v>64496.41802241396</v>
       </c>
       <c r="G61">
-        <v>0.6834172010421753</v>
+        <v>0.6837354302406311</v>
       </c>
       <c r="H61">
-        <v>1.029812932014465</v>
+        <v>1.029831290245056</v>
       </c>
       <c r="I61">
-        <v>63162.87109375</v>
+        <v>63260.03125</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2184,22 +2184,22 @@
         <v>0.001046579002034799</v>
       </c>
       <c r="D62">
-        <v>0.745401176123875</v>
+        <v>0.7454072744326214</v>
       </c>
       <c r="E62">
-        <v>1.03577982924757</v>
+        <v>1.035787914193823</v>
       </c>
       <c r="F62">
-        <v>79524.53024077832</v>
+        <v>79525.27600805151</v>
       </c>
       <c r="G62">
-        <v>0.7446609139442444</v>
+        <v>0.7447431683540344</v>
       </c>
       <c r="H62">
-        <v>1.035460710525513</v>
+        <v>1.035468339920044</v>
       </c>
       <c r="I62">
-        <v>79857.5546875</v>
+        <v>79955.0546875</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2213,22 +2213,22 @@
         <v>0.0008563195368172368</v>
       </c>
       <c r="D63">
-        <v>0.6819585982717494</v>
+        <v>0.6819556442045661</v>
       </c>
       <c r="E63">
-        <v>1.032601862275007</v>
+        <v>1.032604084538874</v>
       </c>
       <c r="F63">
-        <v>87043.56193907039</v>
+        <v>87042.57133652593</v>
       </c>
       <c r="G63">
-        <v>0.6858286261558533</v>
+        <v>0.685583770275116</v>
       </c>
       <c r="H63">
-        <v>1.032393097877502</v>
+        <v>1.032414674758911</v>
       </c>
       <c r="I63">
-        <v>86678.140625</v>
+        <v>86705.515625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2242,22 +2242,22 @@
         <v>0.00118838395038971</v>
       </c>
       <c r="D64">
-        <v>0.7360256783310986</v>
+        <v>0.7360164635767588</v>
       </c>
       <c r="E64">
-        <v>1.03292547267153</v>
+        <v>1.032912302948618</v>
       </c>
       <c r="F64">
-        <v>68311.41987461812</v>
+        <v>68311.14883828949</v>
       </c>
       <c r="G64">
-        <v>0.7370454072952271</v>
+        <v>0.7369243502616882</v>
       </c>
       <c r="H64">
-        <v>1.032935738563538</v>
+        <v>1.032925486564636</v>
       </c>
       <c r="I64">
-        <v>67992.953125</v>
+        <v>67994</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2271,22 +2271,22 @@
         <v>0.001145737330017305</v>
       </c>
       <c r="D65">
-        <v>0.7103691048997163</v>
+        <v>0.7103703368578718</v>
       </c>
       <c r="E65">
-        <v>1.031513002864552</v>
+        <v>1.031525345629524</v>
       </c>
       <c r="F65">
-        <v>68017.11579478413</v>
+        <v>68017.36554975122</v>
       </c>
       <c r="G65">
-        <v>0.7107017040252686</v>
+        <v>0.7108546495437622</v>
       </c>
       <c r="H65">
-        <v>1.031540751457214</v>
+        <v>1.031538724899292</v>
       </c>
       <c r="I65">
-        <v>67937.1640625</v>
+        <v>67954.421875</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2300,22 +2300,22 @@
         <v>0.001001066518771074</v>
       </c>
       <c r="D66">
-        <v>0.7156081728858836</v>
+        <v>0.7156076877791109</v>
       </c>
       <c r="E66">
-        <v>1.032908076848739</v>
+        <v>1.032909094810353</v>
       </c>
       <c r="F66">
-        <v>78457.27614627803</v>
+        <v>78457.15295339981</v>
       </c>
       <c r="G66">
-        <v>0.7157616019248962</v>
+        <v>0.7154483795166016</v>
       </c>
       <c r="H66">
-        <v>1.03290843963623</v>
+        <v>1.032896161079407</v>
       </c>
       <c r="I66">
-        <v>78503.6484375</v>
+        <v>78464.4453125</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2329,22 +2329,22 @@
         <v>0.001165557366652916</v>
       </c>
       <c r="D67">
-        <v>0.7523747538466984</v>
+        <v>0.7523748577558713</v>
       </c>
       <c r="E67">
-        <v>1.034618574939574</v>
+        <v>1.034618619292193</v>
       </c>
       <c r="F67">
-        <v>71706.3961412817</v>
+        <v>71706.40335674318</v>
       </c>
       <c r="G67">
-        <v>0.7519497871398926</v>
+        <v>0.7519599795341492</v>
       </c>
       <c r="H67">
-        <v>1.03445827960968</v>
+        <v>1.034465074539185</v>
       </c>
       <c r="I67">
-        <v>71831.5546875</v>
+        <v>71884.796875</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2358,22 +2358,22 @@
         <v>0.001016220973083133</v>
       </c>
       <c r="D68">
-        <v>0.7083775032677835</v>
+        <v>0.7083732880717412</v>
       </c>
       <c r="E68">
-        <v>1.032196179297217</v>
+        <v>1.0322284036125</v>
       </c>
       <c r="F68">
-        <v>76430.03344675674</v>
+        <v>76427.08346160008</v>
       </c>
       <c r="G68">
-        <v>0.707850456237793</v>
+        <v>0.7078158855438232</v>
       </c>
       <c r="H68">
-        <v>1.032207369804382</v>
+        <v>1.032213568687439</v>
       </c>
       <c r="I68">
-        <v>76561.390625</v>
+        <v>76593.734375</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2387,22 +2387,22 @@
         <v>0.001165932929500005</v>
       </c>
       <c r="D69">
-        <v>0.7442424953237337</v>
+        <v>0.7442476780757619</v>
       </c>
       <c r="E69">
-        <v>1.03402518425706</v>
+        <v>1.034025206848572</v>
       </c>
       <c r="F69">
-        <v>70777.02219071612</v>
+        <v>70777.64827087872</v>
       </c>
       <c r="G69">
-        <v>0.7446960806846619</v>
+        <v>0.7446931600570679</v>
       </c>
       <c r="H69">
-        <v>1.033970952033997</v>
+        <v>1.033977508544922</v>
       </c>
       <c r="I69">
-        <v>70883.90625</v>
+        <v>70896.234375</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2416,22 +2416,22 @@
         <v>0.001129317392211417</v>
       </c>
       <c r="D70">
-        <v>0.6870213423802316</v>
+        <v>0.6870200698239529</v>
       </c>
       <c r="E70">
-        <v>1.030538658329306</v>
+        <v>1.030533172639321</v>
       </c>
       <c r="F70">
-        <v>66097.13286200729</v>
+        <v>66097.4179527325</v>
       </c>
       <c r="G70">
-        <v>0.6863332390785217</v>
+        <v>0.6866225004196167</v>
       </c>
       <c r="H70">
-        <v>1.030140280723572</v>
+        <v>1.03015661239624</v>
       </c>
       <c r="I70">
-        <v>65121.1796875</v>
+        <v>65208.3046875</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2445,22 +2445,22 @@
         <v>0.001183564899725273</v>
       </c>
       <c r="D71">
-        <v>0.7410484860519453</v>
+        <v>0.7410475753972127</v>
       </c>
       <c r="E71">
-        <v>1.03315694776936</v>
+        <v>1.033143382725525</v>
       </c>
       <c r="F71">
-        <v>69040.82480134084</v>
+        <v>69040.89628198474</v>
       </c>
       <c r="G71">
-        <v>0.7413972020149231</v>
+        <v>0.7413336038589478</v>
       </c>
       <c r="H71">
-        <v>1.033211588859558</v>
+        <v>1.033192992210388</v>
       </c>
       <c r="I71">
-        <v>68662.046875</v>
+        <v>68650.8984375</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2474,22 +2474,22 @@
         <v>0.001164551838090836</v>
       </c>
       <c r="D72">
-        <v>0.7199124997255376</v>
+        <v>0.7199179585395395</v>
       </c>
       <c r="E72">
-        <v>1.031839784836584</v>
+        <v>1.031836015492077</v>
       </c>
       <c r="F72">
-        <v>67773.05164029865</v>
+        <v>67773.72493635563</v>
       </c>
       <c r="G72">
-        <v>0.7203251719474792</v>
+        <v>0.7203259468078613</v>
       </c>
       <c r="H72">
-        <v>1.031852960586548</v>
+        <v>1.0318523645401</v>
       </c>
       <c r="I72">
-        <v>67467.7109375</v>
+        <v>67532.1796875</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2503,22 +2503,22 @@
         <v>0.0008181285984230924</v>
       </c>
       <c r="D73">
-        <v>0.6682513436092981</v>
+        <v>0.6682700874734548</v>
       </c>
       <c r="E73">
-        <v>1.031747084751873</v>
+        <v>1.031709014059942</v>
       </c>
       <c r="F73">
-        <v>89492.44819854602</v>
+        <v>89499.60335847668</v>
       </c>
       <c r="G73">
-        <v>0.6687574982643127</v>
+        <v>0.6687000393867493</v>
       </c>
       <c r="H73">
-        <v>1.031662821769714</v>
+        <v>1.031657934188843</v>
       </c>
       <c r="I73">
-        <v>87979.4921875</v>
+        <v>87951.859375</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2532,22 +2532,22 @@
         <v>0.00087251296827826</v>
       </c>
       <c r="D74">
-        <v>0.6741740686362707</v>
+        <v>0.6741763853753682</v>
       </c>
       <c r="E74">
-        <v>1.031808954534466</v>
+        <v>1.031798202099702</v>
       </c>
       <c r="F74">
-        <v>84327.41936325681</v>
+        <v>84328.7966636936</v>
       </c>
       <c r="G74">
-        <v>0.67691570520401</v>
+        <v>0.6768214702606201</v>
       </c>
       <c r="H74">
-        <v>1.031676769256592</v>
+        <v>1.031669020652771</v>
       </c>
       <c r="I74">
-        <v>83941.359375</v>
+        <v>83999.375</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2561,22 +2561,22 @@
         <v>0.000956541591996784</v>
       </c>
       <c r="D75">
-        <v>0.6770862756932008</v>
+        <v>0.6770848151703923</v>
       </c>
       <c r="E75">
-        <v>1.031010078795796</v>
+        <v>1.031005044565383</v>
       </c>
       <c r="F75">
-        <v>77188.8748609593</v>
+        <v>77189.05511185751</v>
       </c>
       <c r="G75">
-        <v>0.6769734025001526</v>
+        <v>0.6769677400588989</v>
       </c>
       <c r="H75">
-        <v>1.030893683433533</v>
+        <v>1.03089165687561</v>
       </c>
       <c r="I75">
-        <v>77218.171875</v>
+        <v>77201.2578125</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2590,22 +2590,22 @@
         <v>0.001177236680514364</v>
       </c>
       <c r="D76">
-        <v>0.7076019236492728</v>
+        <v>0.7076033148533831</v>
       </c>
       <c r="E76">
-        <v>1.03157126723916</v>
+        <v>1.031572016074253</v>
       </c>
       <c r="F76">
-        <v>66063.25871233764</v>
+        <v>66063.377970948</v>
       </c>
       <c r="G76">
-        <v>0.71014803647995</v>
+        <v>0.7103407382965088</v>
       </c>
       <c r="H76">
-        <v>1.031476855278015</v>
+        <v>1.031470537185669</v>
       </c>
       <c r="I76">
-        <v>65483.50390625</v>
+        <v>65485.71875</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2619,22 +2619,22 @@
         <v>0.0009216127768446524</v>
       </c>
       <c r="D77">
-        <v>0.7020655930849566</v>
+        <v>0.7020662172619335</v>
       </c>
       <c r="E77">
-        <v>1.033101971276037</v>
+        <v>1.033101473952905</v>
       </c>
       <c r="F77">
-        <v>84147.42459550958</v>
+        <v>84147.95772154849</v>
       </c>
       <c r="G77">
-        <v>0.7016253471374512</v>
+        <v>0.7016628384590149</v>
       </c>
       <c r="H77">
-        <v>1.033047437667847</v>
+        <v>1.033050179481506</v>
       </c>
       <c r="I77">
-        <v>83632.96875</v>
+        <v>83751.9921875</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2648,22 +2648,22 @@
         <v>0.0008669057620867341</v>
       </c>
       <c r="D78">
-        <v>0.666806506079803</v>
+        <v>0.6667911911330786</v>
       </c>
       <c r="E78">
-        <v>1.031592230976194</v>
+        <v>1.031587513159019</v>
       </c>
       <c r="F78">
-        <v>83795.85363951666</v>
+        <v>83793.88335801251</v>
       </c>
       <c r="G78">
-        <v>0.6707728505134583</v>
+        <v>0.6705445647239685</v>
       </c>
       <c r="H78">
-        <v>1.031362771987915</v>
+        <v>1.031347513198853</v>
       </c>
       <c r="I78">
-        <v>83550.109375</v>
+        <v>83586.0234375</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2677,22 +2677,22 @@
         <v>0.001151428646517885</v>
       </c>
       <c r="D79">
-        <v>0.6791674880359653</v>
+        <v>0.6791645388143497</v>
       </c>
       <c r="E79">
-        <v>1.030259078348636</v>
+        <v>1.030260207544166</v>
       </c>
       <c r="F79">
-        <v>63931.14869255521</v>
+        <v>63930.91817464786</v>
       </c>
       <c r="G79">
-        <v>0.6788094639778137</v>
+        <v>0.6791036128997803</v>
       </c>
       <c r="H79">
-        <v>1.029512524604797</v>
+        <v>1.029518008232117</v>
       </c>
       <c r="I79">
-        <v>62377.78515625</v>
+        <v>62475.0625</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2706,22 +2706,22 @@
         <v>0.0009789869969953719</v>
       </c>
       <c r="D80">
-        <v>0.6799931354223326</v>
+        <v>0.6799875875920428</v>
       </c>
       <c r="E80">
-        <v>1.030912196951918</v>
+        <v>1.030909681028851</v>
       </c>
       <c r="F80">
-        <v>75875.18468210973</v>
+        <v>75874.65338408426</v>
       </c>
       <c r="G80">
-        <v>0.6790220141410828</v>
+        <v>0.679026186466217</v>
       </c>
       <c r="H80">
-        <v>1.030791878700256</v>
+        <v>1.030793786048889</v>
       </c>
       <c r="I80">
-        <v>75832.5703125</v>
+        <v>75848.9609375</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2735,22 +2735,22 @@
         <v>0.001159884295021469</v>
       </c>
       <c r="D81">
-        <v>0.726862917279779</v>
+        <v>0.7268386851642606</v>
       </c>
       <c r="E81">
-        <v>1.032477766164896</v>
+        <v>1.032372494841546</v>
       </c>
       <c r="F81">
-        <v>68920.74399893965</v>
+        <v>68925.3024314724</v>
       </c>
       <c r="G81">
-        <v>0.7271367311477661</v>
+        <v>0.7270961999893188</v>
       </c>
       <c r="H81">
-        <v>1.032413721084595</v>
+        <v>1.032405138015747</v>
       </c>
       <c r="I81">
-        <v>68795.359375</v>
+        <v>68820.203125</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2764,22 +2764,22 @@
         <v>0.0008668127901887025</v>
       </c>
       <c r="D82">
-        <v>0.7106499517812384</v>
+        <v>0.7106543178673972</v>
       </c>
       <c r="E82">
-        <v>1.034155109705992</v>
+        <v>1.034159641067287</v>
       </c>
       <c r="F82">
-        <v>90295.91205922526</v>
+        <v>90295.80915686264</v>
       </c>
       <c r="G82">
-        <v>0.7116634249687195</v>
+        <v>0.7115335464477539</v>
       </c>
       <c r="H82">
-        <v>1.034004926681519</v>
+        <v>1.034032821655273</v>
       </c>
       <c r="I82">
-        <v>89346.40625</v>
+        <v>89446.3046875</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2793,22 +2793,22 @@
         <v>0.001063156903966918</v>
       </c>
       <c r="D83">
-        <v>0.7352960241149812</v>
+        <v>0.7352893210674257</v>
       </c>
       <c r="E83">
-        <v>1.033924560700284</v>
+        <v>1.033921917090235</v>
       </c>
       <c r="F83">
-        <v>76570.94727949964</v>
+        <v>76570.24796930936</v>
       </c>
       <c r="G83">
-        <v>0.7351704239845276</v>
+        <v>0.735145092010498</v>
       </c>
       <c r="H83">
-        <v>1.033919334411621</v>
+        <v>1.033923864364624</v>
       </c>
       <c r="I83">
-        <v>76610.3359375</v>
+        <v>76628.1796875</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2822,22 +2822,22 @@
         <v>0.0009765838213948441</v>
       </c>
       <c r="D84">
-        <v>0.7161129519634694</v>
+        <v>0.7161128300825185</v>
       </c>
       <c r="E84">
-        <v>1.033259822832296</v>
+        <v>1.033259950590591</v>
       </c>
       <c r="F84">
-        <v>80509.2520972249</v>
+        <v>80509.22076020268</v>
       </c>
       <c r="G84">
-        <v>0.7159156203269958</v>
+        <v>0.7157309055328369</v>
       </c>
       <c r="H84">
-        <v>1.033242106437683</v>
+        <v>1.033239841461182</v>
       </c>
       <c r="I84">
-        <v>80560.171875</v>
+        <v>80615.46875</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2851,22 +2851,22 @@
         <v>0.0008339858640646334</v>
       </c>
       <c r="D85">
-        <v>0.6925532809797142</v>
+        <v>0.6925477684214655</v>
       </c>
       <c r="E85">
-        <v>1.033167407540073</v>
+        <v>1.033109179640014</v>
       </c>
       <c r="F85">
-        <v>91308.41814728633</v>
+        <v>91312.77961256551</v>
       </c>
       <c r="G85">
-        <v>0.6941773295402527</v>
+        <v>0.6941091418266296</v>
       </c>
       <c r="H85">
-        <v>1.033115863800049</v>
+        <v>1.033140063285828</v>
       </c>
       <c r="I85">
-        <v>90401.1171875</v>
+        <v>90496.2265625</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2880,22 +2880,22 @@
         <v>0.001077012137561676</v>
       </c>
       <c r="D86">
-        <v>0.735231904745961</v>
+        <v>0.735232652892329</v>
       </c>
       <c r="E86">
-        <v>1.033513238693836</v>
+        <v>1.033513406448072</v>
       </c>
       <c r="F86">
-        <v>75228.35134255134</v>
+        <v>75228.43553083457</v>
       </c>
       <c r="G86">
-        <v>0.7333380579948425</v>
+        <v>0.7333046197891235</v>
       </c>
       <c r="H86">
-        <v>1.03346061706543</v>
+        <v>1.033439874649048</v>
       </c>
       <c r="I86">
-        <v>75343.53125</v>
+        <v>75339.3515625</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2909,22 +2909,22 @@
         <v>0.0009009821316813486</v>
       </c>
       <c r="D87">
-        <v>0.6731836512538621</v>
+        <v>0.6731835088785955</v>
       </c>
       <c r="E87">
-        <v>1.031714271168566</v>
+        <v>1.031706060085212</v>
       </c>
       <c r="F87">
-        <v>81371.90127569156</v>
+        <v>81372.75780973067</v>
       </c>
       <c r="G87">
-        <v>0.6760851144790649</v>
+        <v>0.6761274337768555</v>
       </c>
       <c r="H87">
-        <v>1.031450033187866</v>
+        <v>1.031444430351257</v>
       </c>
       <c r="I87">
-        <v>81543.0234375</v>
+        <v>81608.359375</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2938,22 +2938,22 @@
         <v>0.0008195326010429124</v>
       </c>
       <c r="D88">
-        <v>0.6796215540744854</v>
+        <v>0.6796223599027201</v>
       </c>
       <c r="E88">
-        <v>1.032798504423246</v>
+        <v>1.032799901038572</v>
       </c>
       <c r="F88">
-        <v>90761.51571779927</v>
+        <v>90762.16179777576</v>
       </c>
       <c r="G88">
-        <v>0.6847079992294312</v>
+        <v>0.6845298409461975</v>
       </c>
       <c r="H88">
-        <v>1.03269100189209</v>
+        <v>1.032716512680054</v>
       </c>
       <c r="I88">
-        <v>89890.5</v>
+        <v>89869.859375</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2967,22 +2967,22 @@
         <v>0.0008275013346755327</v>
       </c>
       <c r="D89">
-        <v>0.6815446821107579</v>
+        <v>0.6815561685388789</v>
       </c>
       <c r="E89">
-        <v>1.032586506873394</v>
+        <v>1.032602413705225</v>
       </c>
       <c r="F89">
-        <v>90704.43324125145</v>
+        <v>90706.60001026362</v>
       </c>
       <c r="G89">
-        <v>0.6823380589485168</v>
+        <v>0.6822375059127808</v>
       </c>
       <c r="H89">
-        <v>1.032509088516235</v>
+        <v>1.032489657402039</v>
       </c>
       <c r="I89">
-        <v>88902.9296875</v>
+        <v>88870.5546875</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2996,22 +2996,22 @@
         <v>0.0008279459481218542</v>
       </c>
       <c r="D90">
-        <v>0.6519619863648244</v>
+        <v>0.6519525511484785</v>
       </c>
       <c r="E90">
-        <v>1.031095971370543</v>
+        <v>1.031085117558549</v>
       </c>
       <c r="F90">
-        <v>85703.84955974069</v>
+        <v>85702.36534121318</v>
       </c>
       <c r="G90">
-        <v>0.6553859710693359</v>
+        <v>0.6554622054100037</v>
       </c>
       <c r="H90">
-        <v>1.030715465545654</v>
+        <v>1.030731797218323</v>
       </c>
       <c r="I90">
-        <v>84918.1640625</v>
+        <v>84983.59375</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3025,22 +3025,22 @@
         <v>0.001159828382396135</v>
       </c>
       <c r="D91">
-        <v>0.7266487461991435</v>
+        <v>0.7266479405513406</v>
       </c>
       <c r="E91">
-        <v>1.032634622773342</v>
+        <v>1.032634411629671</v>
       </c>
       <c r="F91">
-        <v>69087.0331821898</v>
+        <v>69086.95486763729</v>
       </c>
       <c r="G91">
-        <v>0.7279711961746216</v>
+        <v>0.7279180884361267</v>
       </c>
       <c r="H91">
-        <v>1.032669186592102</v>
+        <v>1.032677054405212</v>
       </c>
       <c r="I91">
-        <v>68882.2421875</v>
+        <v>68907.5859375</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3054,22 +3054,22 @@
         <v>0.00109403276788308</v>
       </c>
       <c r="D92">
-        <v>0.7526074263868798</v>
+        <v>0.752607926808589</v>
       </c>
       <c r="E92">
-        <v>1.036805377836442</v>
+        <v>1.036806881138681</v>
       </c>
       <c r="F92">
-        <v>77148.76729680247</v>
+        <v>77148.68840904237</v>
       </c>
       <c r="G92">
-        <v>0.7528788447380066</v>
+        <v>0.7528889775276184</v>
       </c>
       <c r="H92">
-        <v>1.035961627960205</v>
+        <v>1.035979628562927</v>
       </c>
       <c r="I92">
-        <v>77501.8046875</v>
+        <v>77634.515625</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3083,22 +3083,22 @@
         <v>0.001156037576748007</v>
       </c>
       <c r="D93">
-        <v>0.7224669952484499</v>
+        <v>0.722481657826281</v>
       </c>
       <c r="E93">
-        <v>1.032291606551685</v>
+        <v>1.032310480188862</v>
       </c>
       <c r="F93">
-        <v>68808.84927803127</v>
+        <v>68810.35805203325</v>
       </c>
       <c r="G93">
-        <v>0.72337406873703</v>
+        <v>0.7236268520355225</v>
       </c>
       <c r="H93">
-        <v>1.032343029975891</v>
+        <v>1.032350778579712</v>
       </c>
       <c r="I93">
-        <v>68701.3125</v>
+        <v>68793.9453125</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3112,22 +3112,22 @@
         <v>0.001067651022901972</v>
       </c>
       <c r="D94">
-        <v>0.7022200741894955</v>
+        <v>0.7022197026806772</v>
       </c>
       <c r="E94">
-        <v>1.031762713806903</v>
+        <v>1.031759615330917</v>
       </c>
       <c r="F94">
-        <v>72297.83507449919</v>
+        <v>72297.58561264101</v>
       </c>
       <c r="G94">
-        <v>0.7023171782493591</v>
+        <v>0.7019554972648621</v>
       </c>
       <c r="H94">
-        <v>1.031733632087708</v>
+        <v>1.031734228134155</v>
       </c>
       <c r="I94">
-        <v>72572.2578125</v>
+        <v>72545.875</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3141,22 +3141,22 @@
         <v>0.001011344243723135</v>
       </c>
       <c r="D95">
-        <v>0.705555221633986</v>
+        <v>0.7055526894607121</v>
       </c>
       <c r="E95">
-        <v>1.032193049556997</v>
+        <v>1.032185419774601</v>
       </c>
       <c r="F95">
-        <v>76361.44521396242</v>
+        <v>76361.56569644205</v>
       </c>
       <c r="G95">
-        <v>0.7046850323677063</v>
+        <v>0.704606831073761</v>
       </c>
       <c r="H95">
-        <v>1.032120943069458</v>
+        <v>1.032109141349792</v>
       </c>
       <c r="I95">
-        <v>76580.0703125</v>
+        <v>76629.359375</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3170,22 +3170,22 @@
         <v>0.0009233443834149986</v>
       </c>
       <c r="D96">
-        <v>0.7210073303644048</v>
+        <v>0.7210071990665908</v>
       </c>
       <c r="E96">
-        <v>1.035144599616485</v>
+        <v>1.035144303044522</v>
       </c>
       <c r="F96">
-        <v>86977.07758554851</v>
+        <v>86977.06696887348</v>
       </c>
       <c r="G96">
-        <v>0.7200483679771423</v>
+        <v>0.7203654646873474</v>
       </c>
       <c r="H96">
-        <v>1.034693598747253</v>
+        <v>1.034714937210083</v>
       </c>
       <c r="I96">
-        <v>86484.3671875</v>
+        <v>86591.734375</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3199,22 +3199,22 @@
         <v>0.001195197615652936</v>
       </c>
       <c r="D97">
-        <v>0.7302774679000529</v>
+        <v>0.7302879196762835</v>
       </c>
       <c r="E97">
-        <v>1.032280888110007</v>
+        <v>1.032290767589253</v>
       </c>
       <c r="F97">
-        <v>66960.90331377479</v>
+        <v>66962.08093869053</v>
       </c>
       <c r="G97">
-        <v>0.7300464510917664</v>
+        <v>0.7301263213157654</v>
       </c>
       <c r="H97">
-        <v>1.032207012176514</v>
+        <v>1.032213926315308</v>
       </c>
       <c r="I97">
-        <v>66087</v>
+        <v>66204.515625</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3228,22 +3228,22 @@
         <v>0.0009459791037691262</v>
       </c>
       <c r="D98">
-        <v>0.7159885437619762</v>
+        <v>0.7159901909139156</v>
       </c>
       <c r="E98">
-        <v>1.033611615809037</v>
+        <v>1.033610493646493</v>
       </c>
       <c r="F98">
-        <v>83672.14667642726</v>
+        <v>83672.64425407072</v>
       </c>
       <c r="G98">
-        <v>0.7159858345985413</v>
+        <v>0.7160842418670654</v>
       </c>
       <c r="H98">
-        <v>1.033631563186646</v>
+        <v>1.033643960952759</v>
       </c>
       <c r="I98">
-        <v>83686.125</v>
+        <v>83700.2734375</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3257,22 +3257,22 @@
         <v>0.0009884945995101712</v>
       </c>
       <c r="D99">
-        <v>0.7242735929265942</v>
+        <v>0.7242727760092436</v>
       </c>
       <c r="E99">
-        <v>1.033864161336145</v>
+        <v>1.03385505269161</v>
       </c>
       <c r="F99">
-        <v>81107.72049008105</v>
+        <v>81109.11763464961</v>
       </c>
       <c r="G99">
-        <v>0.7242857217788696</v>
+        <v>0.7241787314414978</v>
       </c>
       <c r="H99">
-        <v>1.033912301063538</v>
+        <v>1.033913969993591</v>
       </c>
       <c r="I99">
-        <v>81090.296875</v>
+        <v>81117.3125</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3286,22 +3286,22 @@
         <v>0.000952272985581202</v>
       </c>
       <c r="D100">
-        <v>0.7461424155022065</v>
+        <v>0.7461423285760953</v>
       </c>
       <c r="E100">
-        <v>1.037668164089466</v>
+        <v>1.03766716520513</v>
       </c>
       <c r="F100">
-        <v>88073.0673668307</v>
+        <v>88073.0378206773</v>
       </c>
       <c r="G100">
-        <v>0.7451409697532654</v>
+        <v>0.7450863122940063</v>
       </c>
       <c r="H100">
-        <v>1.036553502082825</v>
+        <v>1.036580801010132</v>
       </c>
       <c r="I100">
-        <v>87340.8046875</v>
+        <v>87477.671875</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3315,22 +3315,22 @@
         <v>0.001187971102222916</v>
       </c>
       <c r="D101">
-        <v>0.7376892341466894</v>
+        <v>0.7376771417079194</v>
       </c>
       <c r="E101">
-        <v>1.034024882046786</v>
+        <v>1.034019368214524</v>
       </c>
       <c r="F101">
-        <v>68939.22363928355</v>
+        <v>68938.11315593032</v>
       </c>
       <c r="G101">
-        <v>0.740429699420929</v>
+        <v>0.7403102517127991</v>
       </c>
       <c r="H101">
-        <v>1.033789038658142</v>
+        <v>1.033787608146667</v>
       </c>
       <c r="I101">
-        <v>69025.9765625</v>
+        <v>69055.5234375</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -34,13 +34,13 @@
     <t>Mn</t>
   </si>
   <si>
-    <t>MLP_X</t>
+    <t>MLP_POX/C</t>
   </si>
   <si>
-    <t>MLP_PDI</t>
+    <t>MLP_C/A</t>
   </si>
   <si>
-    <t>MLP_Mn</t>
+    <t>MLP_POX/M</t>
   </si>
 </sst>
 </file>
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>115.9366827238042</v>
+        <v>124.3933299532707</v>
       </c>
       <c r="B2">
-        <v>0.09612944355519132</v>
+        <v>0.09407557004821653</v>
       </c>
       <c r="C2">
-        <v>0.0009256706496284394</v>
+        <v>0.0008862284955878868</v>
       </c>
       <c r="D2">
-        <v>0.6916169107267716</v>
+        <v>0.6784198567924783</v>
       </c>
       <c r="E2">
-        <v>1.03233133240622</v>
+        <v>1.032520547705948</v>
       </c>
       <c r="F2">
-        <v>81664.31108377439</v>
+        <v>83409.28631610108</v>
       </c>
       <c r="G2">
-        <v>0.6922930479049683</v>
+        <v>117.9992065429688</v>
       </c>
       <c r="H2">
-        <v>1.032208442687988</v>
+        <v>0.09799819439649582</v>
       </c>
       <c r="I2">
-        <v>81773.6171875</v>
+        <v>0.0008866996504366398</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>110.7424580429719</v>
+        <v>116.4428399619183</v>
       </c>
       <c r="B3">
-        <v>0.1168279143357094</v>
+        <v>0.1257574850381628</v>
       </c>
       <c r="C3">
-        <v>0.0009502305811828078</v>
+        <v>0.0009238209183284484</v>
       </c>
       <c r="D3">
-        <v>0.6659909809895277</v>
+        <v>0.6416617889190355</v>
       </c>
       <c r="E3">
-        <v>1.030759359202929</v>
+        <v>1.030511283758649</v>
       </c>
       <c r="F3">
-        <v>76173.55251162838</v>
+        <v>75107.5135513743</v>
       </c>
       <c r="G3">
-        <v>0.6661694645881653</v>
+        <v>116.8427505493164</v>
       </c>
       <c r="H3">
-        <v>1.030373573303223</v>
+        <v>0.125066950917244</v>
       </c>
       <c r="I3">
-        <v>76149.8203125</v>
+        <v>0.0009185144444927573</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>93.45941014660464</v>
+        <v>89.9887091217185</v>
       </c>
       <c r="B4">
-        <v>0.0843051936657227</v>
+        <v>0.07597689581327628</v>
       </c>
       <c r="C4">
-        <v>0.001009788233499279</v>
+        <v>0.001014982265352558</v>
       </c>
       <c r="D4">
-        <v>0.7502895160164631</v>
+        <v>0.7718972205292524</v>
       </c>
       <c r="E4">
-        <v>1.036173236645956</v>
+        <v>1.039100748781483</v>
       </c>
       <c r="F4">
-        <v>82985.06804092509</v>
+        <v>85842.14652299837</v>
       </c>
       <c r="G4">
-        <v>0.7491308450698853</v>
+        <v>90.98735046386719</v>
       </c>
       <c r="H4">
-        <v>1.035764813423157</v>
+        <v>0.07556474208831787</v>
       </c>
       <c r="I4">
-        <v>82845.203125</v>
+        <v>0.00101706909481436</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>83.57947622405169</v>
+        <v>74.8660833992798</v>
       </c>
       <c r="B5">
-        <v>0.117455499357589</v>
+        <v>0.1267180920087448</v>
       </c>
       <c r="C5">
-        <v>0.001098231443929161</v>
+        <v>0.001150357013757392</v>
       </c>
       <c r="D5">
-        <v>0.7075807767078481</v>
+        <v>0.7032856237307542</v>
       </c>
       <c r="E5">
-        <v>1.032441819945278</v>
+        <v>1.032934773588853</v>
       </c>
       <c r="F5">
-        <v>71100.13008644794</v>
+        <v>67652.86321083634</v>
       </c>
       <c r="G5">
-        <v>0.7078872919082642</v>
+        <v>74.69286346435547</v>
       </c>
       <c r="H5">
-        <v>1.032205581665039</v>
+        <v>0.1264773309230804</v>
       </c>
       <c r="I5">
-        <v>71542.4765625</v>
+        <v>0.001156148849986494</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>96.36392073445874</v>
+        <v>94.43447028482844</v>
       </c>
       <c r="B6">
-        <v>0.1144836842514405</v>
+        <v>0.1221693118327979</v>
       </c>
       <c r="C6">
-        <v>0.0009347361258512193</v>
+        <v>0.0009001044794747651</v>
       </c>
       <c r="D6">
-        <v>0.684790653344315</v>
+        <v>0.6709600940413744</v>
       </c>
       <c r="E6">
-        <v>1.031536369160291</v>
+        <v>1.031073969162547</v>
       </c>
       <c r="F6">
-        <v>80254.50606798129</v>
+        <v>81497.62068130456</v>
       </c>
       <c r="G6">
-        <v>0.6845768690109253</v>
+        <v>93.00141906738281</v>
       </c>
       <c r="H6">
-        <v>1.031507134437561</v>
+        <v>0.1231672912836075</v>
       </c>
       <c r="I6">
-        <v>80173.7578125</v>
+        <v>0.0008988726185634732</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>89.50377124731151</v>
+        <v>83.93404853025656</v>
       </c>
       <c r="B7">
-        <v>0.09820319897602317</v>
+        <v>0.09724974381445312</v>
       </c>
       <c r="C7">
-        <v>0.001166267181260725</v>
+        <v>0.001254495259972458</v>
       </c>
       <c r="D7">
-        <v>0.7386778500827326</v>
+        <v>0.7485465449616532</v>
       </c>
       <c r="E7">
-        <v>1.034052615760915</v>
+        <v>1.035219920456572</v>
       </c>
       <c r="F7">
-        <v>70301.79957630807</v>
+        <v>66574.37095774284</v>
       </c>
       <c r="G7">
-        <v>0.7407716512680054</v>
+        <v>83.90248870849609</v>
       </c>
       <c r="H7">
-        <v>1.033916115760803</v>
+        <v>0.09756290912628174</v>
       </c>
       <c r="I7">
-        <v>70670.5859375</v>
+        <v>0.001252247719094157</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>85.59378000505033</v>
+        <v>77.94925808547897</v>
       </c>
       <c r="B8">
-        <v>0.09320679939426481</v>
+        <v>0.0896020529060956</v>
       </c>
       <c r="C8">
-        <v>0.001142026260545851</v>
+        <v>0.001217391128101541</v>
       </c>
       <c r="D8">
-        <v>0.7494090645068805</v>
+        <v>0.764856932365654</v>
       </c>
       <c r="E8">
-        <v>1.035701039527268</v>
+        <v>1.038445191596417</v>
       </c>
       <c r="F8">
-        <v>73305.4273944772</v>
+        <v>70911.90759739096</v>
       </c>
       <c r="G8">
-        <v>0.7505240440368652</v>
+        <v>78.75368499755859</v>
       </c>
       <c r="H8">
-        <v>1.035157799720764</v>
+        <v>0.08956651389598846</v>
       </c>
       <c r="I8">
-        <v>73519.984375</v>
+        <v>0.001218026271089911</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>82.4946671965525</v>
+        <v>73.20563090720951</v>
       </c>
       <c r="B9">
-        <v>0.08952376237460116</v>
+        <v>0.08396464775674342</v>
       </c>
       <c r="C9">
-        <v>0.000823089846847721</v>
+        <v>0.0007292141775853172</v>
       </c>
       <c r="D9">
-        <v>0.7321570795988199</v>
+        <v>0.7433787493579103</v>
       </c>
       <c r="E9">
-        <v>1.037645818330771</v>
+        <v>1.042317850651267</v>
       </c>
       <c r="F9">
-        <v>99832.51338603804</v>
+        <v>116170.4916872346</v>
       </c>
       <c r="G9">
-        <v>0.7315056324005127</v>
+        <v>73.70938110351562</v>
       </c>
       <c r="H9">
-        <v>1.036564230918884</v>
+        <v>0.0834367424249649</v>
       </c>
       <c r="I9">
-        <v>96735.1328125</v>
+        <v>0.0007184894639067352</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>108.8431365793589</v>
+        <v>113.5356618526347</v>
       </c>
       <c r="B10">
-        <v>0.1044869340439124</v>
+        <v>0.1068678823886125</v>
       </c>
       <c r="C10">
-        <v>0.0009034296440442345</v>
+        <v>0.0008521855145540937</v>
       </c>
       <c r="D10">
-        <v>0.6819281496632681</v>
+        <v>0.6633214954354553</v>
       </c>
       <c r="E10">
-        <v>1.031809460928928</v>
+        <v>1.031685788940426</v>
       </c>
       <c r="F10">
-        <v>82471.23865794875</v>
+        <v>84745.99644791485</v>
       </c>
       <c r="G10">
-        <v>0.6833135485649109</v>
+        <v>114.6251907348633</v>
       </c>
       <c r="H10">
-        <v>1.031765580177307</v>
+        <v>0.1066644117236137</v>
       </c>
       <c r="I10">
-        <v>82365.5859375</v>
+        <v>0.0008514208602719009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>80.84830830139711</v>
+        <v>70.68564751750186</v>
       </c>
       <c r="B11">
-        <v>0.08169686031650679</v>
+        <v>0.07198447548853035</v>
       </c>
       <c r="C11">
-        <v>0.0009788855089532644</v>
+        <v>0.0009676813075955211</v>
       </c>
       <c r="D11">
-        <v>0.7654032416762028</v>
+        <v>0.7948113810482275</v>
       </c>
       <c r="E11">
-        <v>1.039946910731191</v>
+        <v>1.048039049961201</v>
       </c>
       <c r="F11">
-        <v>88580.56628777647</v>
+        <v>95479.58700957269</v>
       </c>
       <c r="G11">
-        <v>0.7622767686843872</v>
+        <v>62.53820419311523</v>
       </c>
       <c r="H11">
-        <v>1.037761092185974</v>
+        <v>0.07453781366348267</v>
       </c>
       <c r="I11">
-        <v>87833.515625</v>
+        <v>0.0009851508075371385</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>110.6065704395066</v>
+        <v>116.2348449101666</v>
       </c>
       <c r="B12">
-        <v>0.08101210663972334</v>
+        <v>0.0709363638668097</v>
       </c>
       <c r="C12">
-        <v>0.0008450169802887373</v>
+        <v>0.0007627767332454845</v>
       </c>
       <c r="D12">
-        <v>0.7161190099883681</v>
+        <v>0.7160064389613174</v>
       </c>
       <c r="E12">
-        <v>1.034825513844465</v>
+        <v>1.036388960206295</v>
       </c>
       <c r="F12">
-        <v>93643.24871863671</v>
+        <v>104053.362468149</v>
       </c>
       <c r="G12">
-        <v>0.716783881187439</v>
+        <v>102.5220489501953</v>
       </c>
       <c r="H12">
-        <v>1.03467071056366</v>
+        <v>0.07985551655292511</v>
       </c>
       <c r="I12">
-        <v>92160.6484375</v>
+        <v>0.0007696651155129075</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>86.16056280727373</v>
+        <v>78.8167987240225</v>
       </c>
       <c r="B13">
-        <v>0.097208843611027</v>
+        <v>0.09572774334989427</v>
       </c>
       <c r="C13">
-        <v>0.0009406036791425204</v>
+        <v>0.0009090855934200982</v>
       </c>
       <c r="D13">
-        <v>0.7264122271188437</v>
+        <v>0.7341306355545723</v>
       </c>
       <c r="E13">
-        <v>1.035068400504928</v>
+        <v>1.037063402774055</v>
       </c>
       <c r="F13">
-        <v>85958.56467227172</v>
+        <v>90574.79262062583</v>
       </c>
       <c r="G13">
-        <v>0.726116955280304</v>
+        <v>78.76248931884766</v>
       </c>
       <c r="H13">
-        <v>1.034859895706177</v>
+        <v>0.09611471742391586</v>
       </c>
       <c r="I13">
-        <v>85797.8828125</v>
+        <v>0.0009054584661498666</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>83.51756851151269</v>
+        <v>74.77132495520534</v>
       </c>
       <c r="B14">
-        <v>0.0830688148200268</v>
+        <v>0.07408444443848322</v>
       </c>
       <c r="C14">
-        <v>0.001094116500597568</v>
+        <v>0.001144058515370609</v>
       </c>
       <c r="D14">
-        <v>0.7680210005145078</v>
+        <v>0.7956746251039636</v>
       </c>
       <c r="E14">
-        <v>1.038637144089842</v>
+        <v>1.044823675358364</v>
       </c>
       <c r="F14">
-        <v>79212.55124218619</v>
+        <v>80122.00114732057</v>
       </c>
       <c r="G14">
-        <v>0.7668142914772034</v>
+        <v>72.30249786376953</v>
       </c>
       <c r="H14">
-        <v>1.037059307098389</v>
+        <v>0.07437554001808167</v>
       </c>
       <c r="I14">
-        <v>79591.234375</v>
+        <v>0.0011535226367414</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>83.91273455486298</v>
+        <v>75.37618205431632</v>
       </c>
       <c r="B15">
-        <v>0.09027626541843488</v>
+        <v>0.08511645929476558</v>
       </c>
       <c r="C15">
-        <v>0.001070760376345575</v>
+        <v>0.001108308688685695</v>
       </c>
       <c r="D15">
-        <v>0.7520013058133194</v>
+        <v>0.7707501997625664</v>
       </c>
       <c r="E15">
-        <v>1.036769139040298</v>
+        <v>1.040626946483221</v>
       </c>
       <c r="F15">
-        <v>78735.64567626338</v>
+        <v>79041.70762667377</v>
       </c>
       <c r="G15">
-        <v>0.751667320728302</v>
+        <v>76.4852294921875</v>
       </c>
       <c r="H15">
-        <v>1.03604531288147</v>
+        <v>0.08495292812585831</v>
       </c>
       <c r="I15">
-        <v>79324.578125</v>
+        <v>0.001112704048864543</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>106.7441501206551</v>
+        <v>110.3228684412349</v>
       </c>
       <c r="B16">
-        <v>0.08906970873192417</v>
+        <v>0.08326965492076503</v>
       </c>
       <c r="C16">
-        <v>0.001047973814451577</v>
+        <v>0.001073430657139603</v>
       </c>
       <c r="D16">
-        <v>0.7309956402938965</v>
+        <v>0.7418196638097755</v>
       </c>
       <c r="E16">
-        <v>1.033494057055491</v>
+        <v>1.034070726410104</v>
       </c>
       <c r="F16">
-        <v>76947.81755131742</v>
+        <v>76365.20494028791</v>
       </c>
       <c r="G16">
-        <v>0.7298361659049988</v>
+        <v>118.3941879272461</v>
       </c>
       <c r="H16">
-        <v>1.03345787525177</v>
+        <v>0.07937987893819809</v>
       </c>
       <c r="I16">
-        <v>77157.6015625</v>
+        <v>0.001069480902515352</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>90.01857804057261</v>
+        <v>84.72203259117069</v>
       </c>
       <c r="B17">
-        <v>0.09032527257258932</v>
+        <v>0.08519147162337112</v>
       </c>
       <c r="C17">
-        <v>0.001082525617411708</v>
+        <v>0.001126317041633407</v>
       </c>
       <c r="D17">
-        <v>0.7474444601494893</v>
+        <v>0.7646425782202013</v>
       </c>
       <c r="E17">
-        <v>1.03545774412238</v>
+        <v>1.037720783918302</v>
       </c>
       <c r="F17">
-        <v>76996.85447170361</v>
+        <v>76376.66583768409</v>
       </c>
       <c r="G17">
-        <v>0.7471140027046204</v>
+        <v>85.76389312744141</v>
       </c>
       <c r="H17">
-        <v>1.035199999809265</v>
+        <v>0.08492544293403625</v>
       </c>
       <c r="I17">
-        <v>77036.5859375</v>
+        <v>0.001126586925238371</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>96.88520433001295</v>
+        <v>95.23236800080591</v>
       </c>
       <c r="B18">
-        <v>0.08553763081794895</v>
+        <v>0.07786331387291547</v>
       </c>
       <c r="C18">
-        <v>0.0008843322107500298</v>
+        <v>0.0008229542121758211</v>
       </c>
       <c r="D18">
-        <v>0.7300438595906057</v>
+        <v>0.7399301574047675</v>
       </c>
       <c r="E18">
-        <v>1.03554053793997</v>
+        <v>1.037674897709341</v>
       </c>
       <c r="F18">
-        <v>91813.1229054865</v>
+        <v>100708.7277807855</v>
       </c>
       <c r="G18">
-        <v>0.7290244102478027</v>
+        <v>97.03812408447266</v>
       </c>
       <c r="H18">
-        <v>1.035299897193909</v>
+        <v>0.07671528309583664</v>
       </c>
       <c r="I18">
-        <v>91109.3984375</v>
+        <v>0.0008175056427717209</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>102.2488152966294</v>
+        <v>103.442127479435</v>
       </c>
       <c r="B19">
-        <v>0.08087217142238544</v>
+        <v>0.07072217337385926</v>
       </c>
       <c r="C19">
-        <v>0.0009379468012900157</v>
+        <v>0.0009050188689188393</v>
       </c>
       <c r="D19">
-        <v>0.7404203871168218</v>
+        <v>0.7580316625516856</v>
       </c>
       <c r="E19">
-        <v>1.035637296811797</v>
+        <v>1.038027147583681</v>
       </c>
       <c r="F19">
-        <v>87785.26784106372</v>
+        <v>93871.73015730472</v>
       </c>
       <c r="G19">
-        <v>0.7380756139755249</v>
+        <v>102.3788146972656</v>
       </c>
       <c r="H19">
-        <v>1.035354852676392</v>
+        <v>0.07076247036457062</v>
       </c>
       <c r="I19">
-        <v>87371.921875</v>
+        <v>0.0009084654739126563</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>114.1333463057615</v>
+        <v>121.6330704297276</v>
       </c>
       <c r="B20">
-        <v>0.08492726141803682</v>
+        <v>0.07692905782832489</v>
       </c>
       <c r="C20">
-        <v>0.001069085783561953</v>
+        <v>0.001105745489366478</v>
       </c>
       <c r="D20">
-        <v>0.7341238675702554</v>
+        <v>0.7479038208218112</v>
       </c>
       <c r="E20">
-        <v>1.033509941994543</v>
+        <v>1.034256550399932</v>
       </c>
       <c r="F20">
-        <v>75633.96089300404</v>
+        <v>74609.27065760476</v>
       </c>
       <c r="G20">
-        <v>0.7323122024536133</v>
+        <v>118.6979522705078</v>
       </c>
       <c r="H20">
-        <v>1.033477663993835</v>
+        <v>0.07821927219629288</v>
       </c>
       <c r="I20">
-        <v>75608.6171875</v>
+        <v>0.001105834264308214</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>108.899971556213</v>
+        <v>113.6226557626797</v>
       </c>
       <c r="B21">
-        <v>0.1046443408304789</v>
+        <v>0.1071088155707649</v>
       </c>
       <c r="C21">
-        <v>0.001148657295445396</v>
+        <v>0.001227540857818796</v>
       </c>
       <c r="D21">
-        <v>0.7096797310988086</v>
+        <v>0.707758356138476</v>
       </c>
       <c r="E21">
-        <v>1.031349008594136</v>
+        <v>1.030861593401781</v>
       </c>
       <c r="F21">
-        <v>67556.55768484941</v>
+        <v>62854.86447053956</v>
       </c>
       <c r="G21">
-        <v>0.7095230221748352</v>
+        <v>108.1852035522461</v>
       </c>
       <c r="H21">
-        <v>1.03127908706665</v>
+        <v>0.1101528480648994</v>
       </c>
       <c r="I21">
-        <v>67314.2421875</v>
+        <v>0.001229594578035176</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>90.99701932028022</v>
+        <v>86.21967431432287</v>
       </c>
       <c r="B22">
-        <v>0.1185905019313548</v>
+        <v>0.128455372769083</v>
       </c>
       <c r="C22">
-        <v>0.001017121482483573</v>
+        <v>0.001026206832296857</v>
       </c>
       <c r="D22">
-        <v>0.6928610254346227</v>
+        <v>0.6839348889662489</v>
       </c>
       <c r="E22">
-        <v>1.031433155235062</v>
+        <v>1.031086303302005</v>
       </c>
       <c r="F22">
-        <v>74757.97933965591</v>
+        <v>73081.2539544483</v>
       </c>
       <c r="G22">
-        <v>0.6923930644989014</v>
+        <v>104.1438827514648</v>
       </c>
       <c r="H22">
-        <v>1.031442642211914</v>
+        <v>0.1160697191953659</v>
       </c>
       <c r="I22">
-        <v>74874.9921875</v>
+        <v>0.001016102498397231</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>85.55439117854182</v>
+        <v>77.88896795746766</v>
       </c>
       <c r="B23">
-        <v>0.1192211708611717</v>
+        <v>0.1294207000936536</v>
       </c>
       <c r="C23">
-        <v>0.0009148198284050538</v>
+        <v>0.000869619790567322</v>
       </c>
       <c r="D23">
-        <v>0.6878239948131314</v>
+        <v>0.6771529933949744</v>
       </c>
       <c r="E23">
-        <v>1.032183195625241</v>
+        <v>1.032330470711368</v>
       </c>
       <c r="F23">
-        <v>82760.74823260316</v>
+        <v>85824.59714730343</v>
       </c>
       <c r="G23">
-        <v>0.6852588653564453</v>
+        <v>107.2238693237305</v>
       </c>
       <c r="H23">
-        <v>1.032020807266235</v>
+        <v>0.1053155958652496</v>
       </c>
       <c r="I23">
-        <v>82273.5234375</v>
+        <v>0.0008600539877079427</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>82.57099362847804</v>
+        <v>73.32245922527187</v>
       </c>
       <c r="B24">
-        <v>0.0964349860477957</v>
+        <v>0.09454324572238371</v>
       </c>
       <c r="C24">
-        <v>0.000815855604896995</v>
+        <v>0.0007181411548035895</v>
       </c>
       <c r="D24">
-        <v>0.7179254511365647</v>
+        <v>0.7206975117748889</v>
       </c>
       <c r="E24">
-        <v>1.036146242267356</v>
+        <v>1.039301591704531</v>
       </c>
       <c r="F24">
-        <v>98249.95555034139</v>
+        <v>113238.1991159762</v>
       </c>
       <c r="G24">
-        <v>0.7188281416893005</v>
+        <v>72.77507019042969</v>
       </c>
       <c r="H24">
-        <v>1.035547137260437</v>
+        <v>0.0951179563999176</v>
       </c>
       <c r="I24">
-        <v>95734.6484375</v>
+        <v>0.0007209949544630945</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>92.22280938198161</v>
+        <v>88.09591806885655</v>
       </c>
       <c r="B25">
-        <v>0.0867880562780543</v>
+        <v>0.07977726556279632</v>
       </c>
       <c r="C25">
-        <v>0.001082450521882363</v>
+        <v>0.001126202097384528</v>
       </c>
       <c r="D25">
-        <v>0.7524157733750324</v>
+        <v>0.7731456729431915</v>
       </c>
       <c r="E25">
-        <v>1.035772455081468</v>
+        <v>1.038320964347527</v>
       </c>
       <c r="F25">
-        <v>77578.44629947799</v>
+        <v>77363.1933597444</v>
       </c>
       <c r="G25">
-        <v>0.7514432668685913</v>
+        <v>89.23888397216797</v>
       </c>
       <c r="H25">
-        <v>1.035422682762146</v>
+        <v>0.07928401231765747</v>
       </c>
       <c r="I25">
-        <v>77473.09375</v>
+        <v>0.001125463168136775</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>90.67520279868074</v>
+        <v>85.72708895438069</v>
       </c>
       <c r="B26">
-        <v>0.1054393609373976</v>
+        <v>0.1083257054419918</v>
       </c>
       <c r="C26">
-        <v>0.0008070941133313807</v>
+        <v>0.0007047304621050643</v>
       </c>
       <c r="D26">
-        <v>0.6895974821618143</v>
+        <v>0.6743137651026689</v>
       </c>
       <c r="E26">
-        <v>1.033310615262938</v>
+        <v>1.033810676182253</v>
       </c>
       <c r="F26">
-        <v>94269.53896249807</v>
+        <v>105723.086383676</v>
       </c>
       <c r="G26">
-        <v>0.6916362643241882</v>
+        <v>89.49642944335938</v>
       </c>
       <c r="H26">
-        <v>1.033341765403748</v>
+        <v>0.1052433401346207</v>
       </c>
       <c r="I26">
-        <v>92815.8515625</v>
+        <v>0.000699504918884486</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>98.28074181093199</v>
+        <v>97.36843400802877</v>
       </c>
       <c r="B27">
-        <v>0.09961997656785855</v>
+        <v>0.09941832079292423</v>
       </c>
       <c r="C27">
-        <v>0.0009500911124742024</v>
+        <v>0.0009236074418925973</v>
       </c>
       <c r="D27">
-        <v>0.7094861983221111</v>
+        <v>0.7077250982986302</v>
       </c>
       <c r="E27">
-        <v>1.032963146662579</v>
+        <v>1.033133578699026</v>
       </c>
       <c r="F27">
-        <v>82278.5307504925</v>
+        <v>84476.04130566434</v>
       </c>
       <c r="G27">
-        <v>0.7093263268470764</v>
+        <v>101.3101348876953</v>
       </c>
       <c r="H27">
-        <v>1.032953023910522</v>
+        <v>0.09703924506902695</v>
       </c>
       <c r="I27">
-        <v>82445.3671875</v>
+        <v>0.0009214774472638965</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>107.1844963342371</v>
+        <v>110.9968801328608</v>
       </c>
       <c r="B28">
-        <v>0.119184510743185</v>
+        <v>0.1293645866370659</v>
       </c>
       <c r="C28">
-        <v>0.001011970368146245</v>
+        <v>0.001018322328737669</v>
       </c>
       <c r="D28">
-        <v>0.6742453719563191</v>
+        <v>0.6557881864258343</v>
       </c>
       <c r="E28">
-        <v>1.030538679615913</v>
+        <v>1.029983643882705</v>
       </c>
       <c r="F28">
-        <v>72483.96582449484</v>
+        <v>69737.01653111538</v>
       </c>
       <c r="G28">
-        <v>0.6724995374679565</v>
+        <v>111.8366470336914</v>
       </c>
       <c r="H28">
-        <v>1.030202627182007</v>
+        <v>0.1283295899629593</v>
       </c>
       <c r="I28">
-        <v>72227.8046875</v>
+        <v>0.001022264710627496</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>107.6683765582352</v>
+        <v>111.7375267383315</v>
       </c>
       <c r="B29">
-        <v>0.08296023803572811</v>
+        <v>0.07391825242910682</v>
       </c>
       <c r="C29">
-        <v>0.001165464652505051</v>
+        <v>0.001253266877060316</v>
       </c>
       <c r="D29">
-        <v>0.753065563233476</v>
+        <v>0.7757654120414401</v>
       </c>
       <c r="E29">
-        <v>1.034262118927556</v>
+        <v>1.035575657454294</v>
       </c>
       <c r="F29">
-        <v>71551.24104887774</v>
+        <v>68865.52578591356</v>
       </c>
       <c r="G29">
-        <v>0.7518091797828674</v>
+        <v>111.7605895996094</v>
       </c>
       <c r="H29">
-        <v>1.034107327461243</v>
+        <v>0.07374025881290436</v>
       </c>
       <c r="I29">
-        <v>71120.84375</v>
+        <v>0.001251749810762703</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>91.51409471938713</v>
+        <v>87.01113079493</v>
       </c>
       <c r="B30">
-        <v>0.1111025859655301</v>
+        <v>0.1169940662988288</v>
       </c>
       <c r="C30">
-        <v>0.0008390848185614511</v>
+        <v>0.0007536967270197401</v>
       </c>
       <c r="D30">
-        <v>0.6837369813382663</v>
+        <v>0.6672443061447282</v>
       </c>
       <c r="E30">
-        <v>1.032495255850938</v>
+        <v>1.032538786718346</v>
       </c>
       <c r="F30">
-        <v>89623.77385349662</v>
+        <v>97367.21741307162</v>
       </c>
       <c r="G30">
-        <v>0.684670090675354</v>
+        <v>89.015380859375</v>
       </c>
       <c r="H30">
-        <v>1.032502412796021</v>
+        <v>0.1143453940749168</v>
       </c>
       <c r="I30">
-        <v>88509.1015625</v>
+        <v>0.000754110049456358</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>95.29322316100293</v>
+        <v>92.79561735400723</v>
       </c>
       <c r="B31">
-        <v>0.09170537351390343</v>
+        <v>0.08730390983988964</v>
       </c>
       <c r="C31">
-        <v>0.0009631300677176743</v>
+        <v>0.0009435653931809701</v>
       </c>
       <c r="D31">
-        <v>0.7290435312899831</v>
+        <v>0.7383478575800083</v>
       </c>
       <c r="E31">
-        <v>1.034499680200203</v>
+        <v>1.035749794825007</v>
       </c>
       <c r="F31">
-        <v>83962.22778404084</v>
+        <v>87220.02911078013</v>
       </c>
       <c r="G31">
-        <v>0.7291228175163269</v>
+        <v>92.89793395996094</v>
       </c>
       <c r="H31">
-        <v>1.03449010848999</v>
+        <v>0.08819582313299179</v>
       </c>
       <c r="I31">
-        <v>84007.296875</v>
+        <v>0.0009370758780278265</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>87.50134736998193</v>
+        <v>80.86905770421419</v>
       </c>
       <c r="B32">
-        <v>0.08986379616554832</v>
+        <v>0.08448511720459445</v>
       </c>
       <c r="C32">
-        <v>0.0008135342007021626</v>
+        <v>0.0007145879198260947</v>
       </c>
       <c r="D32">
-        <v>0.7235896823807829</v>
+        <v>0.7285509097511074</v>
       </c>
       <c r="E32">
-        <v>1.036421373267817</v>
+        <v>1.039547351294224</v>
       </c>
       <c r="F32">
-        <v>99323.36332238653</v>
+        <v>115010.9560480666</v>
       </c>
       <c r="G32">
-        <v>0.7237011194229126</v>
+        <v>81.75312805175781</v>
       </c>
       <c r="H32">
-        <v>1.035871624946594</v>
+        <v>0.0847114622592926</v>
       </c>
       <c r="I32">
-        <v>96946.46875</v>
+        <v>0.0007145268027670681</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>111.3107762404287</v>
+        <v>117.3127307383911</v>
       </c>
       <c r="B33">
-        <v>0.1063700621505431</v>
+        <v>0.1097502742919606</v>
       </c>
       <c r="C33">
-        <v>0.0009383046395494612</v>
+        <v>0.0009055665906049541</v>
       </c>
       <c r="D33">
-        <v>0.6807361194587256</v>
+        <v>0.6626123402218426</v>
       </c>
       <c r="E33">
-        <v>1.031490923063711</v>
+        <v>1.031327925136094</v>
       </c>
       <c r="F33">
-        <v>79126.6774801102</v>
+        <v>79478.88207987168</v>
       </c>
       <c r="G33">
-        <v>0.6814299821853638</v>
+        <v>116.9739608764648</v>
       </c>
       <c r="H33">
-        <v>1.031423807144165</v>
+        <v>0.1098680794239044</v>
       </c>
       <c r="I33">
-        <v>79307.9296875</v>
+        <v>0.0009033679380081594</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>82.62876380259009</v>
+        <v>73.41088458599442</v>
       </c>
       <c r="B34">
-        <v>0.0900458597646696</v>
+        <v>0.08476379109945789</v>
       </c>
       <c r="C34">
-        <v>0.001047913694623639</v>
+        <v>0.001073338635303877</v>
       </c>
       <c r="D34">
-        <v>0.7520404891501725</v>
+        <v>0.7712180172339782</v>
       </c>
       <c r="E34">
-        <v>1.037161423494417</v>
+        <v>1.041511410303073</v>
       </c>
       <c r="F34">
-        <v>80565.58452185837</v>
+        <v>81895.13603513388</v>
       </c>
       <c r="G34">
-        <v>0.7514634728431702</v>
+        <v>73.92416381835938</v>
       </c>
       <c r="H34">
-        <v>1.036291599273682</v>
+        <v>0.08467144519090652</v>
       </c>
       <c r="I34">
-        <v>81197</v>
+        <v>0.001076910528354347</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>107.7221499766941</v>
+        <v>111.8198345034992</v>
       </c>
       <c r="B35">
-        <v>0.106501557938472</v>
+        <v>0.1099515470535513</v>
       </c>
       <c r="C35">
-        <v>0.0009133962270995029</v>
+        <v>0.000867440768937159</v>
       </c>
       <c r="D35">
-        <v>0.6813268801129539</v>
+        <v>0.6630494335573829</v>
       </c>
       <c r="E35">
-        <v>1.03164345306286</v>
+        <v>1.031436270968225</v>
       </c>
       <c r="F35">
-        <v>81481.04959769519</v>
+        <v>83198.31333911861</v>
       </c>
       <c r="G35">
-        <v>0.6822929382324219</v>
+        <v>112.2024765014648</v>
       </c>
       <c r="H35">
-        <v>1.031597495079041</v>
+        <v>0.1103550568223</v>
       </c>
       <c r="I35">
-        <v>81303.546875</v>
+        <v>0.0008663847111165524</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>110.9246587740338</v>
+        <v>116.7217237564662</v>
       </c>
       <c r="B36">
-        <v>0.1006784814068455</v>
+        <v>0.1010385110321373</v>
       </c>
       <c r="C36">
-        <v>0.0008862240709628215</v>
+        <v>0.0008258499697933812</v>
       </c>
       <c r="D36">
-        <v>0.6833679590032055</v>
+        <v>0.6643434201113845</v>
       </c>
       <c r="E36">
-        <v>1.032134879707855</v>
+        <v>1.032185072473901</v>
       </c>
       <c r="F36">
-        <v>84292.8216906826</v>
+        <v>87641.57555019447</v>
       </c>
       <c r="G36">
-        <v>0.6854706406593323</v>
+        <v>118.6998138427734</v>
       </c>
       <c r="H36">
-        <v>1.032075762748718</v>
+        <v>0.09945778548717499</v>
       </c>
       <c r="I36">
-        <v>84201.2109375</v>
+        <v>0.000828163989353925</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>110.8741766052524</v>
+        <v>116.6444537109252</v>
       </c>
       <c r="B37">
-        <v>0.0970243430260852</v>
+        <v>0.09544533930615096</v>
       </c>
       <c r="C37">
-        <v>0.0008493584355891823</v>
+        <v>0.0007694219399962561</v>
       </c>
       <c r="D37">
-        <v>0.6840112154246035</v>
+        <v>0.663162437633379</v>
       </c>
       <c r="E37">
-        <v>1.032605153433232</v>
+        <v>1.032841054132209</v>
       </c>
       <c r="F37">
-        <v>88161.27262168239</v>
+        <v>94083.84263998304</v>
       </c>
       <c r="G37">
-        <v>0.6870015859603882</v>
+        <v>117.0619812011719</v>
       </c>
       <c r="H37">
-        <v>1.032548069953918</v>
+        <v>0.09612977504730225</v>
       </c>
       <c r="I37">
-        <v>87680.5859375</v>
+        <v>0.0007787880604155362</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>90.56953781247785</v>
+        <v>85.5653538607213</v>
       </c>
       <c r="B38">
-        <v>0.102143722707396</v>
+        <v>0.1032812685196851</v>
       </c>
       <c r="C38">
-        <v>0.0010302384200077</v>
+        <v>0.001046284146412205</v>
       </c>
       <c r="D38">
-        <v>0.7212417011475958</v>
+        <v>0.7252704275930315</v>
       </c>
       <c r="E38">
-        <v>1.033431112187285</v>
+        <v>1.034033639092562</v>
       </c>
       <c r="F38">
-        <v>77448.8952452893</v>
+        <v>76928.77987052749</v>
       </c>
       <c r="G38">
-        <v>0.7216351628303528</v>
+        <v>84.62783813476562</v>
       </c>
       <c r="H38">
-        <v>1.033413648605347</v>
+        <v>0.1047197133302689</v>
       </c>
       <c r="I38">
-        <v>77358.9921875</v>
+        <v>0.001043959404341877</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>95.05356590051393</v>
+        <v>92.42878827595366</v>
       </c>
       <c r="B39">
-        <v>0.09165257296959857</v>
+        <v>0.08722309119517779</v>
       </c>
       <c r="C39">
-        <v>0.001076544435766822</v>
+        <v>0.001117162003542812</v>
       </c>
       <c r="D39">
-        <v>0.7399191911750822</v>
+        <v>0.7538439331109222</v>
       </c>
       <c r="E39">
-        <v>1.034384079613546</v>
+        <v>1.035585142224106</v>
       </c>
       <c r="F39">
-        <v>76280.87509901689</v>
+        <v>75281.13903724252</v>
       </c>
       <c r="G39">
-        <v>0.7398829460144043</v>
+        <v>93.591796875</v>
       </c>
       <c r="H39">
-        <v>1.03437077999115</v>
+        <v>0.08695799112319946</v>
       </c>
       <c r="I39">
-        <v>76284.7890625</v>
+        <v>0.00111690943595022</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>103.4338426008754</v>
+        <v>105.2559781117833</v>
       </c>
       <c r="B40">
-        <v>0.1080975796882395</v>
+        <v>0.1123944823763787</v>
       </c>
       <c r="C40">
-        <v>0.00106740596049046</v>
+        <v>0.001103174284357493</v>
       </c>
       <c r="D40">
-        <v>0.7017182904900768</v>
+        <v>0.6962324545474903</v>
       </c>
       <c r="E40">
-        <v>1.031429272405666</v>
+        <v>1.030914796549939</v>
       </c>
       <c r="F40">
-        <v>71959.68220060731</v>
+        <v>68905.38191617109</v>
       </c>
       <c r="G40">
-        <v>0.7015612125396729</v>
+        <v>102.6518020629883</v>
       </c>
       <c r="H40">
-        <v>1.031421422958374</v>
+        <v>0.1135381087660789</v>
       </c>
       <c r="I40">
-        <v>72070.6328125</v>
+        <v>0.001106056850403547</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>91.09478221351259</v>
+        <v>86.36931414546802</v>
       </c>
       <c r="B41">
-        <v>0.09666245060725594</v>
+        <v>0.09489141216001384</v>
       </c>
       <c r="C41">
-        <v>0.001175950286935216</v>
+        <v>0.001269316612432304</v>
       </c>
       <c r="D41">
-        <v>0.7407799373371965</v>
+        <v>0.7518829660278734</v>
       </c>
       <c r="E41">
-        <v>1.034035829910333</v>
+        <v>1.035139481652131</v>
       </c>
       <c r="F41">
-        <v>69905.5551741338</v>
+        <v>66060.09710720505</v>
       </c>
       <c r="G41">
-        <v>0.7427082657814026</v>
+        <v>86.56584930419922</v>
       </c>
       <c r="H41">
-        <v>1.033936738967896</v>
+        <v>0.09522611647844315</v>
       </c>
       <c r="I41">
-        <v>70171.3671875</v>
+        <v>0.001265473430976272</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>94.93752275525797</v>
+        <v>92.25116795307332</v>
       </c>
       <c r="B42">
-        <v>0.09453348642136257</v>
+        <v>0.09163273362915354</v>
       </c>
       <c r="C42">
-        <v>0.0008050632419207495</v>
+        <v>0.0007016219283361016</v>
       </c>
       <c r="D42">
-        <v>0.7030543869814555</v>
+        <v>0.6934947275432691</v>
       </c>
       <c r="E42">
-        <v>1.034349341766968</v>
+        <v>1.035400807351477</v>
       </c>
       <c r="F42">
-        <v>96634.46325861006</v>
+        <v>109687.0143272433</v>
       </c>
       <c r="G42">
-        <v>0.7056141495704651</v>
+        <v>91.85621643066406</v>
       </c>
       <c r="H42">
-        <v>1.034338116645813</v>
+        <v>0.09169479459524155</v>
       </c>
       <c r="I42">
-        <v>94768.0625</v>
+        <v>0.0007016936433501542</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>88.12474599786584</v>
+        <v>81.82325681113838</v>
       </c>
       <c r="B43">
-        <v>0.112883114315986</v>
+        <v>0.1197194148733443</v>
       </c>
       <c r="C43">
-        <v>0.001057700028055423</v>
+        <v>0.001088317992336421</v>
       </c>
       <c r="D43">
-        <v>0.7079066587129136</v>
+        <v>0.7050096455135749</v>
       </c>
       <c r="E43">
-        <v>1.032352877469923</v>
+        <v>1.032470441238011</v>
       </c>
       <c r="F43">
-        <v>73772.30104920569</v>
+        <v>71506.19640667473</v>
       </c>
       <c r="G43">
-        <v>0.7075168490409851</v>
+        <v>81.35470581054688</v>
       </c>
       <c r="H43">
-        <v>1.032320022583008</v>
+        <v>0.1204574108123779</v>
       </c>
       <c r="I43">
-        <v>74133.03125</v>
+        <v>0.001085730036720634</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>98.42637955941169</v>
+        <v>97.59135302536043</v>
       </c>
       <c r="B44">
-        <v>0.1166583968409892</v>
+        <v>0.1254980147171915</v>
       </c>
       <c r="C44">
-        <v>0.001039353033807756</v>
+        <v>0.001060235342258584</v>
       </c>
       <c r="D44">
-        <v>0.6903248046248358</v>
+        <v>0.679845040524699</v>
       </c>
       <c r="E44">
-        <v>1.031024864444932</v>
+        <v>1.030373915357333</v>
       </c>
       <c r="F44">
-        <v>72637.78106348774</v>
+        <v>69938.16159228876</v>
       </c>
       <c r="G44">
-        <v>0.6887430548667908</v>
+        <v>97.37001800537109</v>
       </c>
       <c r="H44">
-        <v>1.030939221382141</v>
+        <v>0.1254052519798279</v>
       </c>
       <c r="I44">
-        <v>72643.7734375</v>
+        <v>0.001062678638845682</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>82.14913022910976</v>
+        <v>72.67673807524685</v>
       </c>
       <c r="B45">
-        <v>0.08220381360189224</v>
+        <v>0.07276043865323782</v>
       </c>
       <c r="C45">
-        <v>0.001034785287908779</v>
+        <v>0.001053243765982173</v>
       </c>
       <c r="D45">
-        <v>0.7671844123053787</v>
+        <v>0.7960775568917287</v>
       </c>
       <c r="E45">
-        <v>1.039336714619782</v>
+        <v>1.046506692738404</v>
       </c>
       <c r="F45">
-        <v>83841.49808497301</v>
+        <v>87496.15324522577</v>
       </c>
       <c r="G45">
-        <v>0.7649828195571899</v>
+        <v>68.35308074951172</v>
       </c>
       <c r="H45">
-        <v>1.037452816963196</v>
+        <v>0.07320326566696167</v>
       </c>
       <c r="I45">
-        <v>83972.7890625</v>
+        <v>0.001068957033567131</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>111.7517827294348</v>
+        <v>117.9877530742371</v>
       </c>
       <c r="B46">
-        <v>0.08951917071016341</v>
+        <v>0.08395761956978594</v>
       </c>
       <c r="C46">
-        <v>0.001181402632000191</v>
+        <v>0.001277662191904146</v>
       </c>
       <c r="D46">
-        <v>0.7375690946817102</v>
+        <v>0.7509299937011242</v>
       </c>
       <c r="E46">
-        <v>1.03284351054729</v>
+        <v>1.033119442785878</v>
       </c>
       <c r="F46">
-        <v>68688.4591671383</v>
+        <v>64684.70715238346</v>
       </c>
       <c r="G46">
-        <v>0.7379432916641235</v>
+        <v>120.3410034179688</v>
       </c>
       <c r="H46">
-        <v>1.032896637916565</v>
+        <v>0.08246582746505737</v>
       </c>
       <c r="I46">
-        <v>68221.3828125</v>
+        <v>0.001277037896215916</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>83.41699744403878</v>
+        <v>74.61738681919796</v>
       </c>
       <c r="B47">
-        <v>0.09406206839700007</v>
+        <v>0.09091116216955381</v>
       </c>
       <c r="C47">
-        <v>0.000810617175978835</v>
+        <v>0.0007101230040220238</v>
       </c>
       <c r="D47">
-        <v>0.7205381630085242</v>
+        <v>0.7244345893679132</v>
       </c>
       <c r="E47">
-        <v>1.036436725240901</v>
+        <v>1.039793888232167</v>
       </c>
       <c r="F47">
-        <v>99326.84690659466</v>
+        <v>115267.9589654767</v>
       </c>
       <c r="G47">
-        <v>0.7211787700653076</v>
+        <v>74.56055450439453</v>
       </c>
       <c r="H47">
-        <v>1.035783648490906</v>
+        <v>0.09123221784830093</v>
       </c>
       <c r="I47">
-        <v>96636.453125</v>
+        <v>0.0007101905066519976</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>100.7383242670648</v>
+        <v>101.1301089298916</v>
       </c>
       <c r="B48">
-        <v>0.1123464591180612</v>
+        <v>0.1188979887622148</v>
       </c>
       <c r="C48">
-        <v>0.001077019697553946</v>
+        <v>0.00111788945842087</v>
       </c>
       <c r="D48">
-        <v>0.698325160386229</v>
+        <v>0.6912308563746256</v>
       </c>
       <c r="E48">
-        <v>1.031193679321677</v>
+        <v>1.030582143795597</v>
       </c>
       <c r="F48">
-        <v>70949.30812049766</v>
+        <v>67484.36802223547</v>
       </c>
       <c r="G48">
-        <v>0.6979702711105347</v>
+        <v>99.02948760986328</v>
       </c>
       <c r="H48">
-        <v>1.031158924102783</v>
+        <v>0.1201517805457115</v>
       </c>
       <c r="I48">
-        <v>70854.6875</v>
+        <v>0.001117471721954644</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>92.42709505863411</v>
+        <v>88.40860597271177</v>
       </c>
       <c r="B49">
-        <v>0.1190309142596759</v>
+        <v>0.1291294856585979</v>
       </c>
       <c r="C49">
-        <v>0.001122959771226961</v>
+        <v>0.001188207189821118</v>
       </c>
       <c r="D49">
-        <v>0.6992622008197404</v>
+        <v>0.6919033983012089</v>
       </c>
       <c r="E49">
-        <v>1.031177844929144</v>
+        <v>1.030646211324407</v>
       </c>
       <c r="F49">
-        <v>68276.95557744146</v>
+        <v>63764.65667907918</v>
       </c>
       <c r="G49">
-        <v>0.6999993920326233</v>
+        <v>111.5127639770508</v>
       </c>
       <c r="H49">
-        <v>1.031123280525208</v>
+        <v>0.1157396584749222</v>
       </c>
       <c r="I49">
-        <v>67995.4140625</v>
+        <v>0.001185025903396308</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>103.0396277392906</v>
+        <v>104.6525769298825</v>
       </c>
       <c r="B50">
-        <v>0.1183833530184448</v>
+        <v>0.1281383022802211</v>
       </c>
       <c r="C50">
-        <v>0.001003844350433521</v>
+        <v>0.00100588431797295</v>
       </c>
       <c r="D50">
-        <v>0.6790990925983401</v>
+        <v>0.6631027374126225</v>
       </c>
       <c r="E50">
-        <v>1.030723389919919</v>
+        <v>1.030085450172494</v>
       </c>
       <c r="F50">
-        <v>73756.59651031996</v>
+        <v>71594.81767578296</v>
       </c>
       <c r="G50">
-        <v>0.6776986122131348</v>
+        <v>105.149787902832</v>
       </c>
       <c r="H50">
-        <v>1.030539870262146</v>
+        <v>0.1277089416980743</v>
       </c>
       <c r="I50">
-        <v>73573.9921875</v>
+        <v>0.001010001869872212</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>118.0094560266085</v>
+        <v>127.5660004500055</v>
       </c>
       <c r="B51">
-        <v>0.1158736834575387</v>
+        <v>0.1242969007329956</v>
       </c>
       <c r="C51">
-        <v>0.0009349154248482668</v>
+        <v>0.0009003789217580855</v>
       </c>
       <c r="D51">
-        <v>0.6564493586444542</v>
+        <v>0.6259005328052535</v>
       </c>
       <c r="E51">
-        <v>1.030916729197532</v>
+        <v>1.031171667836335</v>
       </c>
       <c r="F51">
-        <v>76104.17120937689</v>
+        <v>74907.90416122538</v>
       </c>
       <c r="G51">
-        <v>0.6580114364624023</v>
+        <v>127.5748291015625</v>
       </c>
       <c r="H51">
-        <v>1.030124664306641</v>
+        <v>0.1240920200943947</v>
       </c>
       <c r="I51">
-        <v>76441.328125</v>
+        <v>0.0008976262761279941</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>105.7062487270892</v>
+        <v>108.7342146673602</v>
       </c>
       <c r="B52">
-        <v>0.0920251521329037</v>
+        <v>0.0877933759038418</v>
       </c>
       <c r="C52">
-        <v>0.001114007249036693</v>
+        <v>0.001174504097936443</v>
       </c>
       <c r="D52">
-        <v>0.7324802497210223</v>
+        <v>0.7430278315328751</v>
       </c>
       <c r="E52">
-        <v>1.033055059314659</v>
+        <v>1.033336105092942</v>
       </c>
       <c r="F52">
-        <v>72465.87387115341</v>
+        <v>69789.49170130971</v>
       </c>
       <c r="G52">
-        <v>0.7327068448066711</v>
+        <v>116.0729217529297</v>
       </c>
       <c r="H52">
-        <v>1.033099055290222</v>
+        <v>0.08418243378400803</v>
       </c>
       <c r="I52">
-        <v>72432.84375</v>
+        <v>0.001175745273940265</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>81.78654216432695</v>
+        <v>72.12174614532945</v>
       </c>
       <c r="B53">
-        <v>0.1192864863416227</v>
+        <v>0.1295206746048684</v>
       </c>
       <c r="C53">
-        <v>0.0008421221279441666</v>
+        <v>0.0007583457553794547</v>
       </c>
       <c r="D53">
-        <v>0.6839932462465574</v>
+        <v>0.6713584894813033</v>
       </c>
       <c r="E53">
-        <v>1.032834416658856</v>
+        <v>1.033607533822902</v>
       </c>
       <c r="F53">
-        <v>89625.74063939061</v>
+        <v>98010.1284636537</v>
       </c>
       <c r="G53">
-        <v>0.6824231147766113</v>
+        <v>105.5718154907227</v>
       </c>
       <c r="H53">
-        <v>1.032504916191101</v>
+        <v>0.09856145828962326</v>
       </c>
       <c r="I53">
-        <v>87858.5234375</v>
+        <v>0.0007530032889917493</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>97.27182576047903</v>
+        <v>95.82414637048367</v>
       </c>
       <c r="B54">
-        <v>0.09017744610446236</v>
+        <v>0.08496520246338708</v>
       </c>
       <c r="C54">
-        <v>0.0009772783875127641</v>
+        <v>0.0009652213826379551</v>
       </c>
       <c r="D54">
-        <v>0.731364161086609</v>
+        <v>0.7420933880525407</v>
       </c>
       <c r="E54">
-        <v>1.03447212228705</v>
+        <v>1.035682225718927</v>
       </c>
       <c r="F54">
-        <v>82980.48975181185</v>
+        <v>85650.62930443509</v>
       </c>
       <c r="G54">
-        <v>0.7317283153533936</v>
+        <v>100.7298889160156</v>
       </c>
       <c r="H54">
-        <v>1.034487724304199</v>
+        <v>0.08305653929710388</v>
       </c>
       <c r="I54">
-        <v>82978.546875</v>
+        <v>0.0009594039293006063</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>100.3926533956445</v>
+        <v>100.601011139095</v>
       </c>
       <c r="B55">
-        <v>0.08455180514080538</v>
+        <v>0.07635436929293393</v>
       </c>
       <c r="C55">
-        <v>0.001007821187112979</v>
+        <v>0.001011971424742503</v>
       </c>
       <c r="D55">
-        <v>0.74254193787245</v>
+        <v>0.7603720637778855</v>
       </c>
       <c r="E55">
-        <v>1.035039549146252</v>
+        <v>1.036828579825647</v>
       </c>
       <c r="F55">
-        <v>81842.9407372874</v>
+        <v>84004.61666582579</v>
       </c>
       <c r="G55">
-        <v>0.742013692855835</v>
+        <v>101.5518493652344</v>
       </c>
       <c r="H55">
-        <v>1.034916996955872</v>
+        <v>0.07592907547950745</v>
       </c>
       <c r="I55">
-        <v>81850.9375</v>
+        <v>0.001007413025945425</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>101.4181317333931</v>
+        <v>102.1706496822071</v>
       </c>
       <c r="B56">
-        <v>0.1176770175280574</v>
+        <v>0.1270571566633237</v>
       </c>
       <c r="C56">
-        <v>0.001076029516000472</v>
+        <v>0.001116373846560729</v>
       </c>
       <c r="D56">
-        <v>0.6891837485501158</v>
+        <v>0.6780697042156889</v>
       </c>
       <c r="E56">
-        <v>1.030721102447568</v>
+        <v>1.030005205295823</v>
       </c>
       <c r="F56">
-        <v>69917.11684657419</v>
+        <v>66076.14349168811</v>
       </c>
       <c r="G56">
-        <v>0.6880288124084473</v>
+        <v>101.7776947021484</v>
       </c>
       <c r="H56">
-        <v>1.030585289001465</v>
+        <v>0.1268920004367828</v>
       </c>
       <c r="I56">
-        <v>69759.375</v>
+        <v>0.001120463362894952</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>107.1104557569764</v>
+        <v>110.8835506362303</v>
       </c>
       <c r="B57">
-        <v>0.0895502660341916</v>
+        <v>0.08400521532808579</v>
       </c>
       <c r="C57">
-        <v>0.0008396301538444109</v>
+        <v>0.0007545314392194457</v>
       </c>
       <c r="D57">
-        <v>0.7018921002356862</v>
+        <v>0.6916547124074117</v>
       </c>
       <c r="E57">
-        <v>1.033772049197807</v>
+        <v>1.034493847375648</v>
       </c>
       <c r="F57">
-        <v>92062.39893012248</v>
+        <v>100974.4605230354</v>
       </c>
       <c r="G57">
-        <v>0.7026731967926025</v>
+        <v>100.4594573974609</v>
       </c>
       <c r="H57">
-        <v>1.033701300621033</v>
+        <v>0.09247489273548126</v>
       </c>
       <c r="I57">
-        <v>91014.8828125</v>
+        <v>0.0007582555408589542</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>91.28192723066191</v>
+        <v>86.65576586390597</v>
       </c>
       <c r="B58">
-        <v>0.1074387792992208</v>
+        <v>0.111386095904665</v>
       </c>
       <c r="C58">
-        <v>0.0008932836855761951</v>
+        <v>0.0008366557009227165</v>
       </c>
       <c r="D58">
-        <v>0.6973338949138772</v>
+        <v>0.689383799471708</v>
       </c>
       <c r="E58">
-        <v>1.032841190617349</v>
+        <v>1.033062322258398</v>
       </c>
       <c r="F58">
-        <v>86043.60203218627</v>
+        <v>90919.80278843472</v>
       </c>
       <c r="G58">
-        <v>0.6979203820228577</v>
+        <v>95.77234649658203</v>
       </c>
       <c r="H58">
-        <v>1.032837271690369</v>
+        <v>0.1044458299875259</v>
       </c>
       <c r="I58">
-        <v>85731.9765625</v>
+        <v>0.0008358619525097311</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>85.45160150142853</v>
+        <v>77.73163392797922</v>
       </c>
       <c r="B59">
-        <v>0.08268788739201635</v>
+        <v>0.07350138153883533</v>
       </c>
       <c r="C59">
-        <v>0.0009648388586806244</v>
+        <v>0.0009461809376140754</v>
       </c>
       <c r="D59">
-        <v>0.7576616097421851</v>
+        <v>0.7836134480487633</v>
       </c>
       <c r="E59">
-        <v>1.03838053198734</v>
+        <v>1.044085211243019</v>
       </c>
       <c r="F59">
-        <v>88443.84671618273</v>
+        <v>95046.12986299345</v>
       </c>
       <c r="G59">
-        <v>0.755454957485199</v>
+        <v>76.692138671875</v>
       </c>
       <c r="H59">
-        <v>1.037064909934998</v>
+        <v>0.07241386920213699</v>
       </c>
       <c r="I59">
-        <v>87751.78125</v>
+        <v>0.0009550037211738527</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>95.79296382734353</v>
+        <v>93.56054059282566</v>
       </c>
       <c r="B60">
-        <v>0.1090436305039106</v>
+        <v>0.1138425459476486</v>
       </c>
       <c r="C60">
-        <v>0.001048330623721019</v>
+        <v>0.001073976803812078</v>
       </c>
       <c r="D60">
-        <v>0.7059848901922893</v>
+        <v>0.7025635172614124</v>
       </c>
       <c r="E60">
-        <v>1.031936631932215</v>
+        <v>1.031612313681576</v>
       </c>
       <c r="F60">
-        <v>73995.2602399117</v>
+        <v>71826.67372758154</v>
       </c>
       <c r="G60">
-        <v>0.7061645984649658</v>
+        <v>107.5172729492188</v>
       </c>
       <c r="H60">
-        <v>1.031962633132935</v>
+        <v>0.1049096658825874</v>
       </c>
       <c r="I60">
-        <v>74056.484375</v>
+        <v>0.001065039308741689</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>117.8907755803606</v>
+        <v>127.3843433677569</v>
       </c>
       <c r="B61">
-        <v>0.1149631573669061</v>
+        <v>0.1229032127400304</v>
       </c>
       <c r="C61">
-        <v>0.001151685838923124</v>
+        <v>0.00123217646873045</v>
       </c>
       <c r="D61">
-        <v>0.6845659989323333</v>
+        <v>0.6712166916028474</v>
       </c>
       <c r="E61">
-        <v>1.030425637132539</v>
+        <v>1.030147368301491</v>
       </c>
       <c r="F61">
-        <v>64496.41802241396</v>
+        <v>58791.80820596583</v>
       </c>
       <c r="G61">
-        <v>0.6837354302406311</v>
+        <v>126.4006576538086</v>
       </c>
       <c r="H61">
-        <v>1.029831290245056</v>
+        <v>0.1236241310834885</v>
       </c>
       <c r="I61">
-        <v>63260.03125</v>
+        <v>0.00123059400357306</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>87.73575631912986</v>
+        <v>81.22785350505069</v>
       </c>
       <c r="B62">
-        <v>0.09107969021806325</v>
+        <v>0.08634621372795775</v>
       </c>
       <c r="C62">
-        <v>0.001046579002034799</v>
+        <v>0.001071295700944826</v>
       </c>
       <c r="D62">
-        <v>0.7454072744326214</v>
+        <v>0.7619142859920729</v>
       </c>
       <c r="E62">
-        <v>1.035787914193823</v>
+        <v>1.038419625202974</v>
       </c>
       <c r="F62">
-        <v>79525.27600805151</v>
+        <v>80205.41899529703</v>
       </c>
       <c r="G62">
-        <v>0.7447431683540344</v>
+        <v>81.76152801513672</v>
       </c>
       <c r="H62">
-        <v>1.035468339920044</v>
+        <v>0.08659733831882477</v>
       </c>
       <c r="I62">
-        <v>79955.0546875</v>
+        <v>0.001070693833753467</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>115.8358800398279</v>
+        <v>124.2390372956942</v>
       </c>
       <c r="B63">
-        <v>0.09525911744266548</v>
+        <v>0.09274341376464572</v>
       </c>
       <c r="C63">
-        <v>0.0008563195368172368</v>
+        <v>0.0007800768825609606</v>
       </c>
       <c r="D63">
-        <v>0.6819556442045661</v>
+        <v>0.6597863025784145</v>
       </c>
       <c r="E63">
-        <v>1.032604084538874</v>
+        <v>1.032970371739583</v>
       </c>
       <c r="F63">
-        <v>87042.57133652593</v>
+        <v>92131.02580722452</v>
       </c>
       <c r="G63">
-        <v>0.685583770275116</v>
+        <v>122.4994354248047</v>
       </c>
       <c r="H63">
-        <v>1.032414674758911</v>
+        <v>0.09378942847251892</v>
       </c>
       <c r="I63">
-        <v>86705.515625</v>
+        <v>0.0007852858980186284</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>101.7171616892024</v>
+        <v>102.6283570046396</v>
       </c>
       <c r="B64">
-        <v>0.0950725009317954</v>
+        <v>0.09245777099925498</v>
       </c>
       <c r="C64">
-        <v>0.00118838395038971</v>
+        <v>0.001288348079672369</v>
       </c>
       <c r="D64">
-        <v>0.7360164635767588</v>
+        <v>0.7464088696618176</v>
       </c>
       <c r="E64">
-        <v>1.032912302948618</v>
+        <v>1.033110642448483</v>
       </c>
       <c r="F64">
-        <v>68311.14883828949</v>
+        <v>63972.07818035327</v>
       </c>
       <c r="G64">
-        <v>0.7369243502616882</v>
+        <v>103.2863388061523</v>
       </c>
       <c r="H64">
-        <v>1.032925486564636</v>
+        <v>0.09257068485021591</v>
       </c>
       <c r="I64">
-        <v>67994</v>
+        <v>0.001281492994166911</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>98.31095876561336</v>
+        <v>97.41468529874595</v>
       </c>
       <c r="B65">
-        <v>0.1097523204911027</v>
+        <v>0.114927295452408</v>
       </c>
       <c r="C65">
-        <v>0.001145737330017305</v>
+        <v>0.001223071440853296</v>
       </c>
       <c r="D65">
-        <v>0.7103703368578718</v>
+        <v>0.7080070840829442</v>
       </c>
       <c r="E65">
-        <v>1.031525345629524</v>
+        <v>1.03102768386856</v>
       </c>
       <c r="F65">
-        <v>68017.36554975122</v>
+        <v>63405.30904623989</v>
       </c>
       <c r="G65">
-        <v>0.7108546495437622</v>
+        <v>109.5133666992188</v>
       </c>
       <c r="H65">
-        <v>1.031538724899292</v>
+        <v>0.1086644157767296</v>
       </c>
       <c r="I65">
-        <v>67954.421875</v>
+        <v>0.001221498125232756</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>114.9757480930695</v>
+        <v>122.9224846137934</v>
       </c>
       <c r="B66">
-        <v>0.08972223276738539</v>
+        <v>0.08426843455234234</v>
       </c>
       <c r="C66">
-        <v>0.001001066518771074</v>
+        <v>0.001001632456687194</v>
       </c>
       <c r="D66">
-        <v>0.7156076877791109</v>
+        <v>0.7180552447694034</v>
       </c>
       <c r="E66">
-        <v>1.032909094810353</v>
+        <v>1.033268530745665</v>
       </c>
       <c r="F66">
-        <v>78457.15295339981</v>
+        <v>78613.79212365102</v>
       </c>
       <c r="G66">
-        <v>0.7154483795166016</v>
+        <v>108.9121322631836</v>
       </c>
       <c r="H66">
-        <v>1.032896161079407</v>
+        <v>0.09239477664232254</v>
       </c>
       <c r="I66">
-        <v>78464.4453125</v>
+        <v>0.001000887015834451</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>98.37730511927568</v>
+        <v>97.51623770611515</v>
       </c>
       <c r="B67">
-        <v>0.08713687784989896</v>
+        <v>0.08031118594285859</v>
       </c>
       <c r="C67">
-        <v>0.001165557366652916</v>
+        <v>0.00125340878907798</v>
       </c>
       <c r="D67">
-        <v>0.7523748577558713</v>
+        <v>0.7722176369821682</v>
       </c>
       <c r="E67">
-        <v>1.034618619292193</v>
+        <v>1.036104146818188</v>
       </c>
       <c r="F67">
-        <v>71706.40335674318</v>
+        <v>68852.23097187662</v>
       </c>
       <c r="G67">
-        <v>0.7519599795341492</v>
+        <v>98.53878021240234</v>
       </c>
       <c r="H67">
-        <v>1.034465074539185</v>
+        <v>0.08000711351633072</v>
       </c>
       <c r="I67">
-        <v>71884.796875</v>
+        <v>0.001252826186828315</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>108.7872098851617</v>
+        <v>113.4500581966926</v>
       </c>
       <c r="B68">
-        <v>0.09801226915425122</v>
+        <v>0.0969574989212643</v>
       </c>
       <c r="C68">
-        <v>0.001016220973083133</v>
+        <v>0.001024828476254281</v>
       </c>
       <c r="D68">
-        <v>0.7083732880717412</v>
+        <v>0.7062912258897861</v>
       </c>
       <c r="E68">
-        <v>1.0322284036125</v>
+        <v>1.03211112486523</v>
       </c>
       <c r="F68">
-        <v>76427.08346160008</v>
+        <v>75426.07386768324</v>
       </c>
       <c r="G68">
-        <v>0.7078158855438232</v>
+        <v>103.0966796875</v>
       </c>
       <c r="H68">
-        <v>1.032213568687439</v>
+        <v>0.1031526029109955</v>
       </c>
       <c r="I68">
-        <v>76593.734375</v>
+        <v>0.001018972834572196</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>96.04186534375121</v>
+        <v>93.94151930218612</v>
       </c>
       <c r="B69">
-        <v>0.09233530241239576</v>
+        <v>0.08826810444263918</v>
       </c>
       <c r="C69">
-        <v>0.001165932929500005</v>
+        <v>0.001253983640733498</v>
       </c>
       <c r="D69">
-        <v>0.7442476780757619</v>
+        <v>0.7586699818863659</v>
       </c>
       <c r="E69">
-        <v>1.034025206848572</v>
+        <v>1.035012007433223</v>
       </c>
       <c r="F69">
-        <v>70777.64827087872</v>
+        <v>67379.14590141598</v>
       </c>
       <c r="G69">
-        <v>0.7446931600570679</v>
+        <v>94.51969146728516</v>
       </c>
       <c r="H69">
-        <v>1.033977508544922</v>
+        <v>0.08811758458614349</v>
       </c>
       <c r="I69">
-        <v>70896.234375</v>
+        <v>0.001255322713404894</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>115.8382491648245</v>
+        <v>124.2426635740575</v>
       </c>
       <c r="B70">
-        <v>0.1132959692714942</v>
+        <v>0.1203513473355191</v>
       </c>
       <c r="C70">
-        <v>0.001129317392211417</v>
+        <v>0.001197938421162006</v>
       </c>
       <c r="D70">
-        <v>0.6870200698239529</v>
+        <v>0.6746968088761803</v>
       </c>
       <c r="E70">
-        <v>1.030533172639321</v>
+        <v>1.030193137125716</v>
       </c>
       <c r="F70">
-        <v>66097.4179527325</v>
+        <v>60883.36704473837</v>
       </c>
       <c r="G70">
-        <v>0.6866225004196167</v>
+        <v>123.6005859375</v>
       </c>
       <c r="H70">
-        <v>1.03015661239624</v>
+        <v>0.1210310161113739</v>
       </c>
       <c r="I70">
-        <v>65208.3046875</v>
+        <v>0.001199435908347368</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>107.448843914726</v>
+        <v>111.4015012114736</v>
       </c>
       <c r="B71">
-        <v>0.08971966848678824</v>
+        <v>0.08426450956093834</v>
       </c>
       <c r="C71">
-        <v>0.001183564899725273</v>
+        <v>0.001280971846176578</v>
       </c>
       <c r="D71">
-        <v>0.7410475753972127</v>
+        <v>0.7555839016470159</v>
       </c>
       <c r="E71">
-        <v>1.033143382725525</v>
+        <v>1.033555811974699</v>
       </c>
       <c r="F71">
-        <v>69040.89628198474</v>
+        <v>65132.60236384827</v>
       </c>
       <c r="G71">
-        <v>0.7413336038589478</v>
+        <v>115.253791809082</v>
       </c>
       <c r="H71">
-        <v>1.033192992210388</v>
+        <v>0.08277075737714767</v>
       </c>
       <c r="I71">
-        <v>68650.8984375</v>
+        <v>0.001278181094676256</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>107.8250407370182</v>
+        <v>111.977323255031</v>
       </c>
       <c r="B72">
-        <v>0.1000936650124308</v>
+        <v>0.1001433674493557</v>
       </c>
       <c r="C72">
-        <v>0.001164551838090836</v>
+        <v>0.001251869686466895</v>
       </c>
       <c r="D72">
-        <v>0.7199179585395395</v>
+        <v>0.7229511346614532</v>
       </c>
       <c r="E72">
-        <v>1.031836015492077</v>
+        <v>1.031511411718055</v>
       </c>
       <c r="F72">
-        <v>67773.72493635563</v>
+        <v>63192.32204673142</v>
       </c>
       <c r="G72">
-        <v>0.7203259468078613</v>
+        <v>111.7640075683594</v>
       </c>
       <c r="H72">
-        <v>1.0318523645401</v>
+        <v>0.100952185690403</v>
       </c>
       <c r="I72">
-        <v>67532.1796875</v>
+        <v>0.00124858773779124</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>93.24676383561859</v>
+        <v>89.66322409342713</v>
       </c>
       <c r="B73">
-        <v>0.1173489583111207</v>
+        <v>0.1265550159818758</v>
       </c>
       <c r="C73">
-        <v>0.0008181285984230924</v>
+        <v>0.0007216202904571417</v>
       </c>
       <c r="D73">
-        <v>0.6682700874734548</v>
+        <v>0.6428305941864779</v>
       </c>
       <c r="E73">
-        <v>1.031709014059942</v>
+        <v>1.031502730793604</v>
       </c>
       <c r="F73">
-        <v>89499.60335847668</v>
+        <v>97420.35231875927</v>
       </c>
       <c r="G73">
-        <v>0.6687000393867493</v>
+        <v>91.28717041015625</v>
       </c>
       <c r="H73">
-        <v>1.031657934188843</v>
+        <v>0.1236177161335945</v>
       </c>
       <c r="I73">
-        <v>87951.859375</v>
+        <v>0.0007196418009698391</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>110.0655378352676</v>
+        <v>115.4067185642133</v>
       </c>
       <c r="B74">
-        <v>0.1052526132318164</v>
+        <v>0.1080398618646796</v>
       </c>
       <c r="C74">
-        <v>0.00087251296827826</v>
+        <v>0.000804863202496564</v>
       </c>
       <c r="D74">
-        <v>0.6741763853753682</v>
+        <v>0.6497570369235045</v>
       </c>
       <c r="E74">
-        <v>1.031798202099702</v>
+        <v>1.031769793793699</v>
       </c>
       <c r="F74">
-        <v>84328.7966636936</v>
+        <v>87750.80997260317</v>
       </c>
       <c r="G74">
-        <v>0.6768214702606201</v>
+        <v>117.9160766601562</v>
       </c>
       <c r="H74">
-        <v>1.031669020652771</v>
+        <v>0.1060338392853737</v>
       </c>
       <c r="I74">
-        <v>83999.375</v>
+        <v>0.0008069499745033681</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>105.3334953674981</v>
+        <v>108.1636633268285</v>
       </c>
       <c r="B75">
-        <v>0.1143974801321912</v>
+        <v>0.1220373643277479</v>
       </c>
       <c r="C75">
-        <v>0.000956541591996784</v>
+        <v>0.0009334808062607114</v>
       </c>
       <c r="D75">
-        <v>0.6770848151703923</v>
+        <v>0.6587977449674783</v>
       </c>
       <c r="E75">
-        <v>1.031005044565383</v>
+        <v>1.030527470122888</v>
       </c>
       <c r="F75">
-        <v>77189.05511185751</v>
+        <v>76653.88539524633</v>
       </c>
       <c r="G75">
-        <v>0.6769677400588989</v>
+        <v>106.6337890625</v>
       </c>
       <c r="H75">
-        <v>1.03089165687561</v>
+        <v>0.1227662786841393</v>
       </c>
       <c r="I75">
-        <v>77201.2578125</v>
+        <v>0.0009346196311526</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>89.80898198227321</v>
+        <v>84.40121640278258</v>
       </c>
       <c r="B76">
-        <v>0.1172559027356181</v>
+        <v>0.1264125813612861</v>
       </c>
       <c r="C76">
-        <v>0.001177236680514364</v>
+        <v>0.001271285618377252</v>
       </c>
       <c r="D76">
-        <v>0.7076033148533831</v>
+        <v>0.7024793765763708</v>
       </c>
       <c r="E76">
-        <v>1.031572016074253</v>
+        <v>1.031315405841372</v>
       </c>
       <c r="F76">
-        <v>66063.377970948</v>
+        <v>60725.36999170583</v>
       </c>
       <c r="G76">
-        <v>0.7103407382965088</v>
+        <v>83.490478515625</v>
       </c>
       <c r="H76">
-        <v>1.031470537185669</v>
+        <v>0.1272160708904266</v>
       </c>
       <c r="I76">
-        <v>65485.71875</v>
+        <v>0.001267226645722985</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>86.69336635843089</v>
+        <v>79.63232934911538</v>
       </c>
       <c r="B77">
-        <v>0.1098298019577082</v>
+        <v>0.1150458917131811</v>
       </c>
       <c r="C77">
-        <v>0.0009216127768446524</v>
+        <v>0.0008800173516855577</v>
       </c>
       <c r="D77">
-        <v>0.7020662172619335</v>
+        <v>0.6975019059942623</v>
       </c>
       <c r="E77">
-        <v>1.033101473952905</v>
+        <v>1.033650535675252</v>
       </c>
       <c r="F77">
-        <v>84147.95772154849</v>
+        <v>87796.77035541096</v>
       </c>
       <c r="G77">
-        <v>0.7016628384590149</v>
+        <v>100.7484130859375</v>
       </c>
       <c r="H77">
-        <v>1.033050179481506</v>
+        <v>0.100490964949131</v>
       </c>
       <c r="I77">
-        <v>83751.9921875</v>
+        <v>0.0008702156483195722</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>111.6183323075738</v>
+        <v>117.7834884710399</v>
       </c>
       <c r="B78">
-        <v>0.1078231986050585</v>
+        <v>0.1119745036134851</v>
       </c>
       <c r="C78">
-        <v>0.0008669057620867341</v>
+        <v>0.0007962805863325608</v>
       </c>
       <c r="D78">
-        <v>0.6667911911330786</v>
+        <v>0.6380377911827911</v>
       </c>
       <c r="E78">
-        <v>1.031587513159019</v>
+        <v>1.031612526939057</v>
       </c>
       <c r="F78">
-        <v>83793.88335801251</v>
+        <v>86886.12262938012</v>
       </c>
       <c r="G78">
-        <v>0.6705445647239685</v>
+        <v>118.8732833862305</v>
       </c>
       <c r="H78">
-        <v>1.031347513198853</v>
+        <v>0.1110669448971748</v>
       </c>
       <c r="I78">
-        <v>83586.0234375</v>
+        <v>0.0007989100995473564</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>117.9990000970527</v>
+        <v>127.5499961821133</v>
       </c>
       <c r="B79">
-        <v>0.1183439131309832</v>
+        <v>0.1280779339962536</v>
       </c>
       <c r="C79">
-        <v>0.001151428646517885</v>
+        <v>0.001231782799651936</v>
       </c>
       <c r="D79">
-        <v>0.6791645388143497</v>
+        <v>0.6634964277345259</v>
       </c>
       <c r="E79">
-        <v>1.030260207544166</v>
+        <v>1.029959214291003</v>
       </c>
       <c r="F79">
-        <v>63930.91817464786</v>
+        <v>58060.50686722877</v>
       </c>
       <c r="G79">
-        <v>0.6791036128997803</v>
+        <v>125.7451858520508</v>
       </c>
       <c r="H79">
-        <v>1.029518008232117</v>
+        <v>0.1289099752902985</v>
       </c>
       <c r="I79">
-        <v>62475.0625</v>
+        <v>0.001224148436449468</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>98.35907218158147</v>
+        <v>97.48832963560257</v>
       </c>
       <c r="B80">
-        <v>0.1193801548327522</v>
+        <v>0.1296640473788608</v>
       </c>
       <c r="C80">
-        <v>0.0009789869969953719</v>
+        <v>0.0009678366492899215</v>
       </c>
       <c r="D80">
-        <v>0.6799875875920428</v>
+        <v>0.6646465653657745</v>
       </c>
       <c r="E80">
-        <v>1.030909681028851</v>
+        <v>1.030263532339096</v>
       </c>
       <c r="F80">
-        <v>75874.65338408426</v>
+        <v>74788.82177647536</v>
       </c>
       <c r="G80">
-        <v>0.679026186466217</v>
+        <v>99.39351654052734</v>
       </c>
       <c r="H80">
-        <v>1.030793786048889</v>
+        <v>0.1278773993253708</v>
       </c>
       <c r="I80">
-        <v>75848.9609375</v>
+        <v>0.0009725976851768792</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>103.5665137439572</v>
+        <v>105.4590499194211</v>
       </c>
       <c r="B81">
-        <v>0.09811144466393971</v>
+        <v>0.09710930096018558</v>
       </c>
       <c r="C81">
-        <v>0.001159884295021469</v>
+        <v>0.001244725356612596</v>
       </c>
       <c r="D81">
-        <v>0.7268386851642606</v>
+        <v>0.7330835464877613</v>
       </c>
       <c r="E81">
-        <v>1.032372494841546</v>
+        <v>1.032261673029421</v>
       </c>
       <c r="F81">
-        <v>68925.3024314724</v>
+        <v>64754.33660467443</v>
       </c>
       <c r="G81">
-        <v>0.7270961999893188</v>
+        <v>115.7554321289062</v>
       </c>
       <c r="H81">
-        <v>1.032405138015747</v>
+        <v>0.09215583652257919</v>
       </c>
       <c r="I81">
-        <v>68820.203125</v>
+        <v>0.001240601413883269</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>114.022469981476</v>
+        <v>121.4633586516133</v>
       </c>
       <c r="B82">
-        <v>0.08317840441126728</v>
+        <v>0.0742521866910525</v>
       </c>
       <c r="C82">
-        <v>0.0008668127901887025</v>
+        <v>0.0007961382797920859</v>
       </c>
       <c r="D82">
-        <v>0.7106543178673972</v>
+        <v>0.7076041795928416</v>
       </c>
       <c r="E82">
-        <v>1.034159641067287</v>
+        <v>1.035283742949076</v>
       </c>
       <c r="F82">
-        <v>90295.80915686264</v>
+        <v>97999.7925337427</v>
       </c>
       <c r="G82">
-        <v>0.7115335464477539</v>
+        <v>105.8656845092773</v>
       </c>
       <c r="H82">
-        <v>1.034032821655273</v>
+        <v>0.08509035408496857</v>
       </c>
       <c r="I82">
-        <v>89446.3046875</v>
+        <v>0.0007997592911124229</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>98.32319018381122</v>
+        <v>97.43340720123143</v>
       </c>
       <c r="B83">
-        <v>0.09187767528483355</v>
+        <v>0.08756764188643114</v>
       </c>
       <c r="C83">
-        <v>0.001063156903966918</v>
+        <v>0.00109667050690486</v>
       </c>
       <c r="D83">
-        <v>0.7352893210674257</v>
+        <v>0.7472925607450387</v>
       </c>
       <c r="E83">
-        <v>1.033921917090235</v>
+        <v>1.034756772865848</v>
       </c>
       <c r="F83">
-        <v>76570.24796930936</v>
+        <v>75711.17553040909</v>
       </c>
       <c r="G83">
-        <v>0.735145092010498</v>
+        <v>100.1605606079102</v>
       </c>
       <c r="H83">
-        <v>1.033923864364624</v>
+        <v>0.08735109865665436</v>
       </c>
       <c r="I83">
-        <v>76628.1796875</v>
+        <v>0.001096017891541123</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>117.7131540025008</v>
+        <v>127.1124686099642</v>
       </c>
       <c r="B84">
-        <v>0.08637255487506248</v>
+        <v>0.07914128234126383</v>
       </c>
       <c r="C84">
-        <v>0.0009765838213948441</v>
+        <v>0.0009641582516976951</v>
       </c>
       <c r="D84">
-        <v>0.7161128300825185</v>
+        <v>0.7191205251652686</v>
       </c>
       <c r="E84">
-        <v>1.033259950590591</v>
+        <v>1.033881883859647</v>
       </c>
       <c r="F84">
-        <v>80509.22076020268</v>
+        <v>81860.39258686568</v>
       </c>
       <c r="G84">
-        <v>0.7157309055328369</v>
+        <v>112.8530578613281</v>
       </c>
       <c r="H84">
-        <v>1.033239841461182</v>
+        <v>0.08668239414691925</v>
       </c>
       <c r="I84">
-        <v>80615.46875</v>
+        <v>0.0009667236008681357</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>102.9693909879001</v>
+        <v>104.5450697226923</v>
       </c>
       <c r="B85">
-        <v>0.09676552532732691</v>
+        <v>0.09504918248776072</v>
       </c>
       <c r="C85">
-        <v>0.0008339858640646334</v>
+        <v>0.0007458920614181712</v>
       </c>
       <c r="D85">
-        <v>0.6925477684214655</v>
+        <v>0.6769216282699558</v>
       </c>
       <c r="E85">
-        <v>1.033109179640014</v>
+        <v>1.033430588323553</v>
       </c>
       <c r="F85">
-        <v>91312.77961256551</v>
+        <v>99708.62786581762</v>
       </c>
       <c r="G85">
-        <v>0.6941091418266296</v>
+        <v>91.44895172119141</v>
       </c>
       <c r="H85">
-        <v>1.033140063285828</v>
+        <v>0.1067515984177589</v>
       </c>
       <c r="I85">
-        <v>90496.2265625</v>
+        <v>0.0007500025094486773</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>112.5738400799838</v>
+        <v>119.2460272420789</v>
       </c>
       <c r="B86">
-        <v>0.08554680726184008</v>
+        <v>0.07787735970839536</v>
       </c>
       <c r="C86">
-        <v>0.001077012137561676</v>
+        <v>0.0011178778867915</v>
       </c>
       <c r="D86">
-        <v>0.735232652892329</v>
+        <v>0.7493032501972013</v>
       </c>
       <c r="E86">
-        <v>1.033513406448072</v>
+        <v>1.034231378771473</v>
       </c>
       <c r="F86">
-        <v>75228.43553083457</v>
+        <v>73985.46739173371</v>
       </c>
       <c r="G86">
-        <v>0.7333046197891235</v>
+        <v>118.7422866821289</v>
       </c>
       <c r="H86">
-        <v>1.033439874649048</v>
+        <v>0.07817932218313217</v>
       </c>
       <c r="I86">
-        <v>75339.3515625</v>
+        <v>0.001118127489462495</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>116.026379267888</v>
+        <v>124.5306231047643</v>
       </c>
       <c r="B87">
-        <v>0.1040813429206065</v>
+        <v>0.1062470682412529</v>
       </c>
       <c r="C87">
-        <v>0.0009009821316813486</v>
+        <v>0.0008484392533234922</v>
       </c>
       <c r="D87">
-        <v>0.6731835088785955</v>
+        <v>0.648923827436609</v>
       </c>
       <c r="E87">
-        <v>1.031706060085212</v>
+        <v>1.031856827061071</v>
       </c>
       <c r="F87">
-        <v>81372.75780973067</v>
+        <v>82911.56533387257</v>
       </c>
       <c r="G87">
-        <v>0.6761274337768555</v>
+        <v>125.8243255615234</v>
       </c>
       <c r="H87">
-        <v>1.031444430351257</v>
+        <v>0.1045068055391312</v>
       </c>
       <c r="I87">
-        <v>81608.359375</v>
+        <v>0.000846119481138885</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>112.3683064210187</v>
+        <v>118.9314291261141</v>
       </c>
       <c r="B88">
-        <v>0.09540616033342089</v>
+        <v>0.09296848354947125</v>
       </c>
       <c r="C88">
-        <v>0.0008195326010429124</v>
+        <v>0.0007237693135477107</v>
       </c>
       <c r="D88">
-        <v>0.6796223599027201</v>
+        <v>0.6537496311955058</v>
       </c>
       <c r="E88">
-        <v>1.032799901038572</v>
+        <v>1.033183957046324</v>
       </c>
       <c r="F88">
-        <v>90762.16179777576</v>
+        <v>98551.70281246703</v>
       </c>
       <c r="G88">
-        <v>0.6845298409461975</v>
+        <v>122.1863250732422</v>
       </c>
       <c r="H88">
-        <v>1.032716512680054</v>
+        <v>0.09119868278503418</v>
       </c>
       <c r="I88">
-        <v>89869.859375</v>
+        <v>0.0007290978101082146</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>86.64929229409407</v>
+        <v>79.56486780693736</v>
       </c>
       <c r="B89">
-        <v>0.1154988418640082</v>
+        <v>0.1237231530572926</v>
       </c>
       <c r="C89">
-        <v>0.0008275013346755327</v>
+        <v>0.0007359665789497439</v>
       </c>
       <c r="D89">
-        <v>0.6815561685388789</v>
+        <v>0.6653850712084747</v>
       </c>
       <c r="E89">
-        <v>1.032602413705225</v>
+        <v>1.032892603805527</v>
       </c>
       <c r="F89">
-        <v>90706.60001026362</v>
+        <v>99694.11763294638</v>
       </c>
       <c r="G89">
-        <v>0.6822375059127808</v>
+        <v>92.93354797363281</v>
       </c>
       <c r="H89">
-        <v>1.032489657402039</v>
+        <v>0.1101241260766983</v>
       </c>
       <c r="I89">
-        <v>88870.5546875</v>
+        <v>0.0007352271350100636</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>105.0527259644873</v>
+        <v>107.733906343702</v>
       </c>
       <c r="B90">
-        <v>0.1183372141776959</v>
+        <v>0.1280676803079101</v>
       </c>
       <c r="C90">
-        <v>0.0008279459481218542</v>
+        <v>0.0007366471222400724</v>
       </c>
       <c r="D90">
-        <v>0.6519525511484785</v>
+        <v>0.6153932575825869</v>
       </c>
       <c r="E90">
-        <v>1.031085117558549</v>
+        <v>1.030950496853446</v>
       </c>
       <c r="F90">
-        <v>85702.36534121318</v>
+        <v>90483.33742782936</v>
       </c>
       <c r="G90">
-        <v>0.6554622054100037</v>
+        <v>107.5511932373047</v>
       </c>
       <c r="H90">
-        <v>1.030731797218323</v>
+        <v>0.1271349340677261</v>
       </c>
       <c r="I90">
-        <v>84983.59375</v>
+        <v>0.0007374442066065967</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>96.01869609662914</v>
+        <v>93.90605551718062</v>
       </c>
       <c r="B91">
-        <v>0.1018378543738154</v>
+        <v>0.1028130941001653</v>
       </c>
       <c r="C91">
-        <v>0.001159828382396135</v>
+        <v>0.001244639774491023</v>
       </c>
       <c r="D91">
-        <v>0.7266479405513406</v>
+        <v>0.7316732971255329</v>
       </c>
       <c r="E91">
-        <v>1.032634411629671</v>
+        <v>1.032685375593823</v>
       </c>
       <c r="F91">
-        <v>69086.95486763729</v>
+        <v>64886.44043736569</v>
       </c>
       <c r="G91">
-        <v>0.7279180884361267</v>
+        <v>94.30303192138672</v>
       </c>
       <c r="H91">
-        <v>1.032677054405212</v>
+        <v>0.1028502359986305</v>
       </c>
       <c r="I91">
-        <v>68907.5859375</v>
+        <v>0.001244634855538607</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>82.85866270119838</v>
+        <v>73.76277712140075</v>
       </c>
       <c r="B92">
-        <v>0.09117324613546378</v>
+        <v>0.0864894141920558</v>
       </c>
       <c r="C92">
-        <v>0.00109403276788308</v>
+        <v>0.001143930350697461</v>
       </c>
       <c r="D92">
-        <v>0.752607926808589</v>
+        <v>0.7706467206901308</v>
       </c>
       <c r="E92">
-        <v>1.036806881138681</v>
+        <v>1.040790036772196</v>
       </c>
       <c r="F92">
-        <v>77148.68840904237</v>
+        <v>76623.48701136459</v>
       </c>
       <c r="G92">
-        <v>0.7528889775276184</v>
+        <v>74.52113342285156</v>
       </c>
       <c r="H92">
-        <v>1.035979628562927</v>
+        <v>0.08638521283864975</v>
       </c>
       <c r="I92">
-        <v>77634.515625</v>
+        <v>0.001150833442807198</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>97.02211899434958</v>
+        <v>95.44193511339051</v>
       </c>
       <c r="B93">
-        <v>0.1036153659810449</v>
+        <v>0.1055338251257102</v>
       </c>
       <c r="C93">
-        <v>0.001156037576748007</v>
+        <v>0.001238837414328241</v>
       </c>
       <c r="D93">
-        <v>0.722481657826281</v>
+        <v>0.7256462172873204</v>
       </c>
       <c r="E93">
-        <v>1.032310480188862</v>
+        <v>1.032179325029711</v>
       </c>
       <c r="F93">
-        <v>68810.35805203325</v>
+        <v>64501.18126361145</v>
       </c>
       <c r="G93">
-        <v>0.7236268520355225</v>
+        <v>99.23415374755859</v>
       </c>
       <c r="H93">
-        <v>1.032350778579712</v>
+        <v>0.1043713167309761</v>
       </c>
       <c r="I93">
-        <v>68793.9453125</v>
+        <v>0.00124094937928021</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>90.54058924415125</v>
+        <v>85.52104401336446</v>
       </c>
       <c r="B94">
-        <v>0.1155527516116848</v>
+        <v>0.1238056694934646</v>
       </c>
       <c r="C94">
-        <v>0.001067651022901972</v>
+        <v>0.001103549386777913</v>
       </c>
       <c r="D94">
-        <v>0.7022197026806772</v>
+        <v>0.6968013165638276</v>
       </c>
       <c r="E94">
-        <v>1.031759615330917</v>
+        <v>1.03150404141189</v>
       </c>
       <c r="F94">
-        <v>72297.58561264101</v>
+        <v>69399.16449259431</v>
       </c>
       <c r="G94">
-        <v>0.7019554972648621</v>
+        <v>112.1028823852539</v>
       </c>
       <c r="H94">
-        <v>1.031734228134155</v>
+        <v>0.1075420007109642</v>
       </c>
       <c r="I94">
-        <v>72545.875</v>
+        <v>0.001097905333153903</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>113.6820502748933</v>
+        <v>120.9422985057106</v>
       </c>
       <c r="B95">
-        <v>0.09634401433759027</v>
+        <v>0.09440400075014491</v>
       </c>
       <c r="C95">
-        <v>0.001011344243723135</v>
+        <v>0.00101736395741853</v>
       </c>
       <c r="D95">
-        <v>0.7055526894607121</v>
+        <v>0.7019811369707896</v>
       </c>
       <c r="E95">
-        <v>1.032185419774601</v>
+        <v>1.032161813812102</v>
       </c>
       <c r="F95">
-        <v>76361.56569644205</v>
+        <v>75342.83873796505</v>
       </c>
       <c r="G95">
-        <v>0.704606831073761</v>
+        <v>107.0515441894531</v>
       </c>
       <c r="H95">
-        <v>1.032109141349792</v>
+        <v>0.1026104763150215</v>
       </c>
       <c r="I95">
-        <v>76629.359375</v>
+        <v>0.001011267304420471</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>81.7058775256011</v>
+        <v>71.99827759280177</v>
       </c>
       <c r="B96">
-        <v>0.1020414309338635</v>
+        <v>0.1031246966015183</v>
       </c>
       <c r="C96">
-        <v>0.0009233443834149986</v>
+        <v>0.000882667818608427</v>
       </c>
       <c r="D96">
-        <v>0.7210071990665908</v>
+        <v>0.7260549708526954</v>
       </c>
       <c r="E96">
-        <v>1.035144303044522</v>
+        <v>1.037535575450454</v>
       </c>
       <c r="F96">
-        <v>86977.06696887348</v>
+        <v>92438.69897281061</v>
       </c>
       <c r="G96">
-        <v>0.7203654646873474</v>
+        <v>72.79779815673828</v>
       </c>
       <c r="H96">
-        <v>1.034714937210083</v>
+        <v>0.1026953160762787</v>
       </c>
       <c r="I96">
-        <v>86591.734375</v>
+        <v>0.0008821362280286849</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>117.9917920875714</v>
+        <v>127.5389633118084</v>
       </c>
       <c r="B97">
-        <v>0.09104895297077295</v>
+        <v>0.08629916605636875</v>
       </c>
       <c r="C97">
-        <v>0.001195197615652936</v>
+        <v>0.001298777350797204</v>
       </c>
       <c r="D97">
-        <v>0.7302879196762835</v>
+        <v>0.7401592721713833</v>
       </c>
       <c r="E97">
-        <v>1.032290767589253</v>
+        <v>1.032365287420278</v>
       </c>
       <c r="F97">
-        <v>66962.08093869053</v>
+        <v>62364.08515746631</v>
       </c>
       <c r="G97">
-        <v>0.7301263213157654</v>
+        <v>116.5238494873047</v>
       </c>
       <c r="H97">
-        <v>1.032213926315308</v>
+        <v>0.09025322645902634</v>
       </c>
       <c r="I97">
-        <v>66204.515625</v>
+        <v>0.001295522204600275</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>94.33056303924853</v>
+        <v>91.32213090831578</v>
       </c>
       <c r="B98">
-        <v>0.09825344275243005</v>
+        <v>0.09732664896700162</v>
       </c>
       <c r="C98">
-        <v>0.0009459791037691262</v>
+        <v>0.0009173134353636336</v>
       </c>
       <c r="D98">
-        <v>0.7159901909139156</v>
+        <v>0.7178933882592314</v>
       </c>
       <c r="E98">
-        <v>1.033610493646493</v>
+        <v>1.034217295474112</v>
       </c>
       <c r="F98">
-        <v>83672.64425407072</v>
+        <v>86739.79865804066</v>
       </c>
       <c r="G98">
-        <v>0.7160842418670654</v>
+        <v>108.8117370605469</v>
       </c>
       <c r="H98">
-        <v>1.033643960952759</v>
+        <v>0.08663678914308548</v>
       </c>
       <c r="I98">
-        <v>83700.2734375</v>
+        <v>0.0009146659867838025</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>94.38301331912466</v>
+        <v>91.40241342415257</v>
       </c>
       <c r="B99">
-        <v>0.09614724138352485</v>
+        <v>0.09410281212277592</v>
       </c>
       <c r="C99">
-        <v>0.0009884945995101712</v>
+        <v>0.0009823893695283456</v>
       </c>
       <c r="D99">
-        <v>0.7242727760092436</v>
+        <v>0.730615620917187</v>
       </c>
       <c r="E99">
-        <v>1.03385505269161</v>
+        <v>1.034641661050811</v>
       </c>
       <c r="F99">
-        <v>81109.11763464961</v>
+        <v>82610.05204211794</v>
       </c>
       <c r="G99">
-        <v>0.7241787314414978</v>
+        <v>101.8817901611328</v>
       </c>
       <c r="H99">
-        <v>1.033913969993591</v>
+        <v>0.08859714865684509</v>
       </c>
       <c r="I99">
-        <v>81117.3125</v>
+        <v>0.000980538665316999</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>81.04042569823012</v>
+        <v>70.97971016102247</v>
       </c>
       <c r="B100">
-        <v>0.09013798905134787</v>
+        <v>0.08490480790497827</v>
       </c>
       <c r="C100">
-        <v>0.000952272985581202</v>
+        <v>0.000926947104954077</v>
       </c>
       <c r="D100">
-        <v>0.7461423285760953</v>
+        <v>0.764385354461955</v>
       </c>
       <c r="E100">
-        <v>1.03766716520513</v>
+        <v>1.042635437376985</v>
       </c>
       <c r="F100">
-        <v>88073.0378206773</v>
+        <v>94258.70408486309</v>
       </c>
       <c r="G100">
-        <v>0.7450863122940063</v>
+        <v>70.11355590820312</v>
       </c>
       <c r="H100">
-        <v>1.036580801010132</v>
+        <v>0.0853789821267128</v>
       </c>
       <c r="I100">
-        <v>87477.671875</v>
+        <v>0.0009324488928541541</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>87.66133387931006</v>
+        <v>81.11393951417104</v>
       </c>
       <c r="B101">
-        <v>0.1002299580203418</v>
+        <v>0.1003519830295185</v>
       </c>
       <c r="C101">
-        <v>0.001187971102222916</v>
+        <v>0.001287716157601275</v>
       </c>
       <c r="D101">
-        <v>0.7376771417079194</v>
+        <v>0.7459940220389185</v>
       </c>
       <c r="E101">
-        <v>1.034019368214524</v>
+        <v>1.035268932510816</v>
       </c>
       <c r="F101">
-        <v>68938.11315593032</v>
+        <v>64665.29110012272</v>
       </c>
       <c r="G101">
-        <v>0.7403102517127991</v>
+        <v>80.51104736328125</v>
       </c>
       <c r="H101">
-        <v>1.033787608146667</v>
+        <v>0.1008453592658043</v>
       </c>
       <c r="I101">
-        <v>69055.5234375</v>
+        <v>0.001271405722945929</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -453,13 +453,13 @@
         <v>83409.28631610108</v>
       </c>
       <c r="G2">
-        <v>117.9992065429688</v>
+        <v>122.5541763305664</v>
       </c>
       <c r="H2">
-        <v>0.09799819439649582</v>
+        <v>0.09592395275831223</v>
       </c>
       <c r="I2">
-        <v>0.0008866996504366398</v>
+        <v>0.0008850768208503723</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,13 +482,13 @@
         <v>75107.5135513743</v>
       </c>
       <c r="G3">
-        <v>116.8427505493164</v>
+        <v>117.0876007080078</v>
       </c>
       <c r="H3">
-        <v>0.125066950917244</v>
+        <v>0.1252477914094925</v>
       </c>
       <c r="I3">
-        <v>0.0009185144444927573</v>
+        <v>0.0009252959280274808</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,13 +511,13 @@
         <v>85842.14652299837</v>
       </c>
       <c r="G4">
-        <v>90.98735046386719</v>
+        <v>89.80792999267578</v>
       </c>
       <c r="H4">
-        <v>0.07556474208831787</v>
+        <v>0.07628058642148972</v>
       </c>
       <c r="I4">
-        <v>0.00101706909481436</v>
+        <v>0.001011309446766973</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,13 +540,13 @@
         <v>67652.86321083634</v>
       </c>
       <c r="G5">
-        <v>74.69286346435547</v>
+        <v>75.56355285644531</v>
       </c>
       <c r="H5">
-        <v>0.1264773309230804</v>
+        <v>0.1251118779182434</v>
       </c>
       <c r="I5">
-        <v>0.001156148849986494</v>
+        <v>0.001149959396570921</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,13 +569,13 @@
         <v>81497.62068130456</v>
       </c>
       <c r="G6">
-        <v>93.00141906738281</v>
+        <v>92.82277679443359</v>
       </c>
       <c r="H6">
-        <v>0.1231672912836075</v>
+        <v>0.1222732067108154</v>
       </c>
       <c r="I6">
-        <v>0.0008988726185634732</v>
+        <v>0.0009013325907289982</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,13 +598,13 @@
         <v>66574.37095774284</v>
       </c>
       <c r="G7">
-        <v>83.90248870849609</v>
+        <v>83.95137023925781</v>
       </c>
       <c r="H7">
-        <v>0.09756290912628174</v>
+        <v>0.09757072478532791</v>
       </c>
       <c r="I7">
-        <v>0.001252247719094157</v>
+        <v>0.001253371825441718</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,13 +627,13 @@
         <v>70911.90759739096</v>
       </c>
       <c r="G8">
-        <v>78.75368499755859</v>
+        <v>78.14909362792969</v>
       </c>
       <c r="H8">
-        <v>0.08956651389598846</v>
+        <v>0.08940115571022034</v>
       </c>
       <c r="I8">
-        <v>0.001218026271089911</v>
+        <v>0.00121814024168998</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -656,13 +656,13 @@
         <v>116170.4916872346</v>
       </c>
       <c r="G9">
-        <v>73.70938110351562</v>
+        <v>73.15190124511719</v>
       </c>
       <c r="H9">
-        <v>0.0834367424249649</v>
+        <v>0.08401442319154739</v>
       </c>
       <c r="I9">
-        <v>0.0007184894639067352</v>
+        <v>0.0007203726563602686</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -685,13 +685,13 @@
         <v>84745.99644791485</v>
       </c>
       <c r="G10">
-        <v>114.6251907348633</v>
+        <v>115.0723342895508</v>
       </c>
       <c r="H10">
-        <v>0.1066644117236137</v>
+        <v>0.1059562563896179</v>
       </c>
       <c r="I10">
-        <v>0.0008514208602719009</v>
+        <v>0.0008538272813893855</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -714,13 +714,13 @@
         <v>95479.58700957269</v>
       </c>
       <c r="G11">
-        <v>62.53820419311523</v>
+        <v>63.2378044128418</v>
       </c>
       <c r="H11">
-        <v>0.07453781366348267</v>
+        <v>0.07500645518302917</v>
       </c>
       <c r="I11">
-        <v>0.0009851508075371385</v>
+        <v>0.0009907318744808435</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,13 +743,13 @@
         <v>104053.362468149</v>
       </c>
       <c r="G12">
-        <v>102.5220489501953</v>
+        <v>102.7338790893555</v>
       </c>
       <c r="H12">
-        <v>0.07985551655292511</v>
+        <v>0.07984384149312973</v>
       </c>
       <c r="I12">
-        <v>0.0007696651155129075</v>
+        <v>0.0007633434724994004</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -772,13 +772,13 @@
         <v>90574.79262062583</v>
       </c>
       <c r="G13">
-        <v>78.76248931884766</v>
+        <v>78.73184967041016</v>
       </c>
       <c r="H13">
-        <v>0.09611471742391586</v>
+        <v>0.0957205593585968</v>
       </c>
       <c r="I13">
-        <v>0.0009054584661498666</v>
+        <v>0.000906681758351624</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -801,13 +801,13 @@
         <v>80122.00114732057</v>
       </c>
       <c r="G14">
-        <v>72.30249786376953</v>
+        <v>71.10518646240234</v>
       </c>
       <c r="H14">
-        <v>0.07437554001808167</v>
+        <v>0.07541900128126144</v>
       </c>
       <c r="I14">
-        <v>0.0011535226367414</v>
+        <v>0.001164706889539957</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -830,13 +830,13 @@
         <v>79041.70762667377</v>
       </c>
       <c r="G15">
-        <v>76.4852294921875</v>
+        <v>75.22112274169922</v>
       </c>
       <c r="H15">
-        <v>0.08495292812585831</v>
+        <v>0.08534524589776993</v>
       </c>
       <c r="I15">
-        <v>0.001112704048864543</v>
+        <v>0.001108835102058947</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -859,13 +859,13 @@
         <v>76365.20494028791</v>
       </c>
       <c r="G16">
-        <v>118.3941879272461</v>
+        <v>116.5185546875</v>
       </c>
       <c r="H16">
-        <v>0.07937987893819809</v>
+        <v>0.08007319271564484</v>
       </c>
       <c r="I16">
-        <v>0.001069480902515352</v>
+        <v>0.001071082428097725</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -888,13 +888,13 @@
         <v>76376.66583768409</v>
       </c>
       <c r="G17">
-        <v>85.76389312744141</v>
+        <v>84.99452209472656</v>
       </c>
       <c r="H17">
-        <v>0.08492544293403625</v>
+        <v>0.08532624691724777</v>
       </c>
       <c r="I17">
-        <v>0.001126586925238371</v>
+        <v>0.001121346140280366</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -917,13 +917,13 @@
         <v>100708.7277807855</v>
       </c>
       <c r="G18">
-        <v>97.03812408447266</v>
+        <v>95.86891174316406</v>
       </c>
       <c r="H18">
-        <v>0.07671528309583664</v>
+        <v>0.07773038744926453</v>
       </c>
       <c r="I18">
-        <v>0.0008175056427717209</v>
+        <v>0.0008210433879867196</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -946,13 +946,13 @@
         <v>93871.73015730472</v>
       </c>
       <c r="G19">
-        <v>102.3788146972656</v>
+        <v>101.6601638793945</v>
       </c>
       <c r="H19">
-        <v>0.07076247036457062</v>
+        <v>0.07143610715866089</v>
       </c>
       <c r="I19">
-        <v>0.0009084654739126563</v>
+        <v>0.0009090730454772711</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -975,13 +975,13 @@
         <v>74609.27065760476</v>
       </c>
       <c r="G20">
-        <v>118.6979522705078</v>
+        <v>117.4993209838867</v>
       </c>
       <c r="H20">
-        <v>0.07821927219629288</v>
+        <v>0.07908238470554352</v>
       </c>
       <c r="I20">
-        <v>0.001105834264308214</v>
+        <v>0.001107606687583029</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1004,13 +1004,13 @@
         <v>62854.86447053956</v>
       </c>
       <c r="G21">
-        <v>108.1852035522461</v>
+        <v>106.821907043457</v>
       </c>
       <c r="H21">
-        <v>0.1101528480648994</v>
+        <v>0.1105314418673515</v>
       </c>
       <c r="I21">
-        <v>0.001229594578035176</v>
+        <v>0.001228776061907411</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1033,13 +1033,13 @@
         <v>73081.2539544483</v>
       </c>
       <c r="G22">
-        <v>104.1438827514648</v>
+        <v>103.1705932617188</v>
       </c>
       <c r="H22">
-        <v>0.1160697191953659</v>
+        <v>0.1163385435938835</v>
       </c>
       <c r="I22">
-        <v>0.001016102498397231</v>
+        <v>0.001022068434394896</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1062,13 +1062,13 @@
         <v>85824.59714730343</v>
       </c>
       <c r="G23">
-        <v>107.2238693237305</v>
+        <v>106.9937515258789</v>
       </c>
       <c r="H23">
-        <v>0.1053155958652496</v>
+        <v>0.1061078235507011</v>
       </c>
       <c r="I23">
-        <v>0.0008600539877079427</v>
+        <v>0.0008654823177494109</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1091,13 +1091,13 @@
         <v>113238.1991159762</v>
       </c>
       <c r="G24">
-        <v>72.77507019042969</v>
+        <v>73.98375701904297</v>
       </c>
       <c r="H24">
-        <v>0.0951179563999176</v>
+        <v>0.09468712657690048</v>
       </c>
       <c r="I24">
-        <v>0.0007209949544630945</v>
+        <v>0.0007184743881225586</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1120,13 +1120,13 @@
         <v>77363.1933597444</v>
       </c>
       <c r="G25">
-        <v>89.23888397216797</v>
+        <v>88.26793670654297</v>
       </c>
       <c r="H25">
-        <v>0.07928401231765747</v>
+        <v>0.08006110787391663</v>
       </c>
       <c r="I25">
-        <v>0.001125463168136775</v>
+        <v>0.00112176442053169</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1149,13 +1149,13 @@
         <v>105723.086383676</v>
       </c>
       <c r="G26">
-        <v>89.49642944335938</v>
+        <v>87.90688323974609</v>
       </c>
       <c r="H26">
-        <v>0.1052433401346207</v>
+        <v>0.1073692515492439</v>
       </c>
       <c r="I26">
-        <v>0.000699504918884486</v>
+        <v>0.0007012204732745886</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1178,13 +1178,13 @@
         <v>84476.04130566434</v>
       </c>
       <c r="G27">
-        <v>101.3101348876953</v>
+        <v>101.8606033325195</v>
       </c>
       <c r="H27">
-        <v>0.09703924506902695</v>
+        <v>0.0963086411356926</v>
       </c>
       <c r="I27">
-        <v>0.0009214774472638965</v>
+        <v>0.0009233545861206949</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1207,13 +1207,13 @@
         <v>69737.01653111538</v>
       </c>
       <c r="G28">
-        <v>111.8366470336914</v>
+        <v>111.1206512451172</v>
       </c>
       <c r="H28">
-        <v>0.1283295899629593</v>
+        <v>0.1291499882936478</v>
       </c>
       <c r="I28">
-        <v>0.001022264710627496</v>
+        <v>0.001021995209157467</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1236,13 +1236,13 @@
         <v>68865.52578591356</v>
       </c>
       <c r="G29">
-        <v>111.7605895996094</v>
+        <v>111.6499328613281</v>
       </c>
       <c r="H29">
-        <v>0.07374025881290436</v>
+        <v>0.07429914176464081</v>
       </c>
       <c r="I29">
-        <v>0.001251749810762703</v>
+        <v>0.001254645641893148</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1265,13 +1265,13 @@
         <v>97367.21741307162</v>
       </c>
       <c r="G30">
-        <v>89.015380859375</v>
+        <v>89.42439270019531</v>
       </c>
       <c r="H30">
-        <v>0.1143453940749168</v>
+        <v>0.1136293336749077</v>
       </c>
       <c r="I30">
-        <v>0.000754110049456358</v>
+        <v>0.0007502089138142765</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1294,13 +1294,13 @@
         <v>87220.02911078013</v>
       </c>
       <c r="G31">
-        <v>92.89793395996094</v>
+        <v>90.42308044433594</v>
       </c>
       <c r="H31">
-        <v>0.08819582313299179</v>
+        <v>0.08835438638925552</v>
       </c>
       <c r="I31">
-        <v>0.0009370758780278265</v>
+        <v>0.0009458897402510047</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1323,13 +1323,13 @@
         <v>115010.9560480666</v>
       </c>
       <c r="G32">
-        <v>81.75312805175781</v>
+        <v>81.34254455566406</v>
       </c>
       <c r="H32">
-        <v>0.0847114622592926</v>
+        <v>0.08468663692474365</v>
       </c>
       <c r="I32">
-        <v>0.0007145268027670681</v>
+        <v>0.0007141089299693704</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1352,13 +1352,13 @@
         <v>79478.88207987168</v>
       </c>
       <c r="G33">
-        <v>116.9739608764648</v>
+        <v>118.7299346923828</v>
       </c>
       <c r="H33">
-        <v>0.1098680794239044</v>
+        <v>0.1086748763918877</v>
       </c>
       <c r="I33">
-        <v>0.0009033679380081594</v>
+        <v>0.0009038362768478692</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1381,13 +1381,13 @@
         <v>81895.13603513388</v>
       </c>
       <c r="G34">
-        <v>73.92416381835938</v>
+        <v>72.76876068115234</v>
       </c>
       <c r="H34">
-        <v>0.08467144519090652</v>
+        <v>0.08517204225063324</v>
       </c>
       <c r="I34">
-        <v>0.001076910528354347</v>
+        <v>0.001077014254406095</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1410,13 +1410,13 @@
         <v>83198.31333911861</v>
       </c>
       <c r="G35">
-        <v>112.2024765014648</v>
+        <v>113.1603469848633</v>
       </c>
       <c r="H35">
-        <v>0.1103550568223</v>
+        <v>0.1093378961086273</v>
       </c>
       <c r="I35">
-        <v>0.0008663847111165524</v>
+        <v>0.0008685924112796783</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1439,13 +1439,13 @@
         <v>87641.57555019447</v>
       </c>
       <c r="G36">
-        <v>118.6998138427734</v>
+        <v>119.3285751342773</v>
       </c>
       <c r="H36">
-        <v>0.09945778548717499</v>
+        <v>0.09865288436412811</v>
       </c>
       <c r="I36">
-        <v>0.000828163989353925</v>
+        <v>0.0008251139661297202</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1468,13 +1468,13 @@
         <v>94083.84263998304</v>
       </c>
       <c r="G37">
-        <v>117.0619812011719</v>
+        <v>116.97998046875</v>
       </c>
       <c r="H37">
-        <v>0.09612977504730225</v>
+        <v>0.09534011781215668</v>
       </c>
       <c r="I37">
-        <v>0.0007787880604155362</v>
+        <v>0.0007700502756051719</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1497,13 +1497,13 @@
         <v>76928.77987052749</v>
       </c>
       <c r="G38">
-        <v>84.62783813476562</v>
+        <v>84.82652282714844</v>
       </c>
       <c r="H38">
-        <v>0.1047197133302689</v>
+        <v>0.103992260992527</v>
       </c>
       <c r="I38">
-        <v>0.001043959404341877</v>
+        <v>0.001040842966176569</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1526,13 +1526,13 @@
         <v>75281.13903724252</v>
       </c>
       <c r="G39">
-        <v>93.591796875</v>
+        <v>92.66230010986328</v>
       </c>
       <c r="H39">
-        <v>0.08695799112319946</v>
+        <v>0.0877629816532135</v>
       </c>
       <c r="I39">
-        <v>0.00111690943595022</v>
+        <v>0.001114036072976887</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1555,13 +1555,13 @@
         <v>68905.38191617109</v>
       </c>
       <c r="G40">
-        <v>102.6518020629883</v>
+        <v>103.9529876708984</v>
       </c>
       <c r="H40">
-        <v>0.1135381087660789</v>
+        <v>0.1127211824059486</v>
       </c>
       <c r="I40">
-        <v>0.001106056850403547</v>
+        <v>0.001105529372580349</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1584,13 +1584,13 @@
         <v>66060.09710720505</v>
       </c>
       <c r="G41">
-        <v>86.56584930419922</v>
+        <v>86.4951171875</v>
       </c>
       <c r="H41">
-        <v>0.09522611647844315</v>
+        <v>0.09502165764570236</v>
       </c>
       <c r="I41">
-        <v>0.001265473430976272</v>
+        <v>0.00126872246619314</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1613,13 +1613,13 @@
         <v>109687.0143272433</v>
       </c>
       <c r="G42">
-        <v>91.85621643066406</v>
+        <v>89.56159973144531</v>
       </c>
       <c r="H42">
-        <v>0.09169479459524155</v>
+        <v>0.0941518172621727</v>
       </c>
       <c r="I42">
-        <v>0.0007016936433501542</v>
+        <v>0.0007070438587106764</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1642,13 +1642,13 @@
         <v>71506.19640667473</v>
       </c>
       <c r="G43">
-        <v>81.35470581054688</v>
+        <v>81.18145751953125</v>
       </c>
       <c r="H43">
-        <v>0.1204574108123779</v>
+        <v>0.1197579130530357</v>
       </c>
       <c r="I43">
-        <v>0.001085730036720634</v>
+        <v>0.001085876952856779</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1671,13 +1671,13 @@
         <v>69938.16159228876</v>
       </c>
       <c r="G44">
-        <v>97.37001800537109</v>
+        <v>98.16220092773438</v>
       </c>
       <c r="H44">
-        <v>0.1254052519798279</v>
+        <v>0.1250596791505814</v>
       </c>
       <c r="I44">
-        <v>0.001062678638845682</v>
+        <v>0.001061731367371976</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1700,13 +1700,13 @@
         <v>87496.15324522577</v>
       </c>
       <c r="G45">
-        <v>68.35308074951172</v>
+        <v>67.03541564941406</v>
       </c>
       <c r="H45">
-        <v>0.07320326566696167</v>
+        <v>0.07487544417381287</v>
       </c>
       <c r="I45">
-        <v>0.001068957033567131</v>
+        <v>0.00108410557731986</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1729,13 +1729,13 @@
         <v>64684.70715238346</v>
       </c>
       <c r="G46">
-        <v>120.3410034179688</v>
+        <v>121.2904052734375</v>
       </c>
       <c r="H46">
-        <v>0.08246582746505737</v>
+        <v>0.08239626884460449</v>
       </c>
       <c r="I46">
-        <v>0.001277037896215916</v>
+        <v>0.001273405854590237</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1758,13 +1758,13 @@
         <v>115267.9589654767</v>
       </c>
       <c r="G47">
-        <v>74.56055450439453</v>
+        <v>75.69480133056641</v>
       </c>
       <c r="H47">
-        <v>0.09123221784830093</v>
+        <v>0.09072653204202652</v>
       </c>
       <c r="I47">
-        <v>0.0007101905066519976</v>
+        <v>0.0007087451522238553</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1787,13 +1787,13 @@
         <v>67484.36802223547</v>
       </c>
       <c r="G48">
-        <v>99.02948760986328</v>
+        <v>101.3959884643555</v>
       </c>
       <c r="H48">
-        <v>0.1201517805457115</v>
+        <v>0.1185252144932747</v>
       </c>
       <c r="I48">
-        <v>0.001117471721954644</v>
+        <v>0.001119305961765349</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1816,13 +1816,13 @@
         <v>63764.65667907918</v>
       </c>
       <c r="G49">
-        <v>111.5127639770508</v>
+        <v>113.8244171142578</v>
       </c>
       <c r="H49">
-        <v>0.1157396584749222</v>
+        <v>0.1140708923339844</v>
       </c>
       <c r="I49">
-        <v>0.001185025903396308</v>
+        <v>0.001184737193398178</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1845,13 +1845,13 @@
         <v>71594.81767578296</v>
       </c>
       <c r="G50">
-        <v>105.149787902832</v>
+        <v>106.1189804077148</v>
       </c>
       <c r="H50">
-        <v>0.1277089416980743</v>
+        <v>0.1276006996631622</v>
       </c>
       <c r="I50">
-        <v>0.001010001869872212</v>
+        <v>0.001007228158414364</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1874,13 +1874,13 @@
         <v>74907.90416122538</v>
       </c>
       <c r="G51">
-        <v>127.5748291015625</v>
+        <v>127.9116287231445</v>
       </c>
       <c r="H51">
-        <v>0.1240920200943947</v>
+        <v>0.1229602247476578</v>
       </c>
       <c r="I51">
-        <v>0.0008976262761279941</v>
+        <v>0.0009050829103216529</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1903,13 +1903,13 @@
         <v>69789.49170130971</v>
       </c>
       <c r="G52">
-        <v>116.0729217529297</v>
+        <v>115.0713882446289</v>
       </c>
       <c r="H52">
-        <v>0.08418243378400803</v>
+        <v>0.08503691107034683</v>
       </c>
       <c r="I52">
-        <v>0.001175745273940265</v>
+        <v>0.00117310241330415</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1932,13 +1932,13 @@
         <v>98010.1284636537</v>
       </c>
       <c r="G53">
-        <v>105.5718154907227</v>
+        <v>105.7280349731445</v>
       </c>
       <c r="H53">
-        <v>0.09856145828962326</v>
+        <v>0.09949114173650742</v>
       </c>
       <c r="I53">
-        <v>0.0007530032889917493</v>
+        <v>0.0007516465266235173</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1961,13 +1961,13 @@
         <v>85650.62930443509</v>
       </c>
       <c r="G54">
-        <v>100.7298889160156</v>
+        <v>96.36549377441406</v>
       </c>
       <c r="H54">
-        <v>0.08305653929710388</v>
+        <v>0.08467905968427658</v>
       </c>
       <c r="I54">
-        <v>0.0009594039293006063</v>
+        <v>0.000967401429079473</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1990,13 +1990,13 @@
         <v>84004.61666582579</v>
       </c>
       <c r="G55">
-        <v>101.5518493652344</v>
+        <v>100.1449813842773</v>
       </c>
       <c r="H55">
-        <v>0.07592907547950745</v>
+        <v>0.07679685950279236</v>
       </c>
       <c r="I55">
-        <v>0.001007413025945425</v>
+        <v>0.001012447173707187</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2019,13 +2019,13 @@
         <v>66076.14349168811</v>
       </c>
       <c r="G56">
-        <v>101.7776947021484</v>
+        <v>103.7920989990234</v>
       </c>
       <c r="H56">
-        <v>0.1268920004367828</v>
+        <v>0.1265228092670441</v>
       </c>
       <c r="I56">
-        <v>0.001120463362894952</v>
+        <v>0.001116330618970096</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2048,13 +2048,13 @@
         <v>100974.4605230354</v>
       </c>
       <c r="G57">
-        <v>100.4594573974609</v>
+        <v>98.40957641601562</v>
       </c>
       <c r="H57">
-        <v>0.09247489273548126</v>
+        <v>0.09314112365245819</v>
       </c>
       <c r="I57">
-        <v>0.0007582555408589542</v>
+        <v>0.0007557827630080283</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2077,13 +2077,13 @@
         <v>90919.80278843472</v>
       </c>
       <c r="G58">
-        <v>95.77234649658203</v>
+        <v>95.27127838134766</v>
       </c>
       <c r="H58">
-        <v>0.1044458299875259</v>
+        <v>0.1049692332744598</v>
       </c>
       <c r="I58">
-        <v>0.0008358619525097311</v>
+        <v>0.0008353876764886081</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2106,13 +2106,13 @@
         <v>95046.12986299345</v>
       </c>
       <c r="G59">
-        <v>76.692138671875</v>
+        <v>75.11820220947266</v>
       </c>
       <c r="H59">
-        <v>0.07241386920213699</v>
+        <v>0.07472345978021622</v>
       </c>
       <c r="I59">
-        <v>0.0009550037211738527</v>
+        <v>0.000950452929828316</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2135,13 +2135,13 @@
         <v>71826.67372758154</v>
       </c>
       <c r="G60">
-        <v>107.5172729492188</v>
+        <v>108.4419631958008</v>
       </c>
       <c r="H60">
-        <v>0.1049096658825874</v>
+        <v>0.1045316755771637</v>
       </c>
       <c r="I60">
-        <v>0.001065039308741689</v>
+        <v>0.001069853431545198</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2164,13 +2164,13 @@
         <v>58791.80820596583</v>
       </c>
       <c r="G61">
-        <v>126.4006576538086</v>
+        <v>128.6688079833984</v>
       </c>
       <c r="H61">
-        <v>0.1236241310834885</v>
+        <v>0.1217095702886581</v>
       </c>
       <c r="I61">
-        <v>0.00123059400357306</v>
+        <v>0.001231450820341706</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2193,13 +2193,13 @@
         <v>80205.41899529703</v>
       </c>
       <c r="G62">
-        <v>81.76152801513672</v>
+        <v>81.76454162597656</v>
       </c>
       <c r="H62">
-        <v>0.08659733831882477</v>
+        <v>0.08658402413129807</v>
       </c>
       <c r="I62">
-        <v>0.001070693833753467</v>
+        <v>0.001064549316652119</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2222,13 +2222,13 @@
         <v>92131.02580722452</v>
       </c>
       <c r="G63">
-        <v>122.4994354248047</v>
+        <v>124.0215759277344</v>
       </c>
       <c r="H63">
-        <v>0.09378942847251892</v>
+        <v>0.09147708863019943</v>
       </c>
       <c r="I63">
-        <v>0.0007852858980186284</v>
+        <v>0.0007796850986778736</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2251,13 +2251,13 @@
         <v>63972.07818035327</v>
       </c>
       <c r="G64">
-        <v>103.2863388061523</v>
+        <v>101.798942565918</v>
       </c>
       <c r="H64">
-        <v>0.09257068485021591</v>
+        <v>0.09304580092430115</v>
       </c>
       <c r="I64">
-        <v>0.001281492994166911</v>
+        <v>0.001283018733374774</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2280,13 +2280,13 @@
         <v>63405.30904623989</v>
       </c>
       <c r="G65">
-        <v>109.5133666992188</v>
+        <v>109.1905746459961</v>
       </c>
       <c r="H65">
-        <v>0.1086644157767296</v>
+        <v>0.1086888313293457</v>
       </c>
       <c r="I65">
-        <v>0.001221498125232756</v>
+        <v>0.001220465404912829</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2309,13 +2309,13 @@
         <v>78613.79212365102</v>
       </c>
       <c r="G66">
-        <v>108.9121322631836</v>
+        <v>110.875373840332</v>
       </c>
       <c r="H66">
-        <v>0.09239477664232254</v>
+        <v>0.09111536294221878</v>
       </c>
       <c r="I66">
-        <v>0.001000887015834451</v>
+        <v>0.001004948164336383</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2338,13 +2338,13 @@
         <v>68852.23097187662</v>
       </c>
       <c r="G67">
-        <v>98.53878021240234</v>
+        <v>97.78305053710938</v>
       </c>
       <c r="H67">
-        <v>0.08000711351633072</v>
+        <v>0.08017534762620926</v>
       </c>
       <c r="I67">
-        <v>0.001252826186828315</v>
+        <v>0.001251144916750491</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2367,13 +2367,13 @@
         <v>75426.07386768324</v>
       </c>
       <c r="G68">
-        <v>103.0966796875</v>
+        <v>103.5736465454102</v>
       </c>
       <c r="H68">
-        <v>0.1031526029109955</v>
+        <v>0.1035627275705338</v>
       </c>
       <c r="I68">
-        <v>0.001018972834572196</v>
+        <v>0.001024342724122107</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2396,13 +2396,13 @@
         <v>67379.14590141598</v>
       </c>
       <c r="G69">
-        <v>94.51969146728516</v>
+        <v>94.86302947998047</v>
       </c>
       <c r="H69">
-        <v>0.08811758458614349</v>
+        <v>0.08765923231840134</v>
       </c>
       <c r="I69">
-        <v>0.001255322713404894</v>
+        <v>0.001251881360076368</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2425,13 +2425,13 @@
         <v>60883.36704473837</v>
       </c>
       <c r="G70">
-        <v>123.6005859375</v>
+        <v>125.0317916870117</v>
       </c>
       <c r="H70">
-        <v>0.1210310161113739</v>
+        <v>0.1196629106998444</v>
       </c>
       <c r="I70">
-        <v>0.001199435908347368</v>
+        <v>0.001203107065521181</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2454,13 +2454,13 @@
         <v>65132.60236384827</v>
       </c>
       <c r="G71">
-        <v>115.253791809082</v>
+        <v>112.48974609375</v>
       </c>
       <c r="H71">
-        <v>0.08277075737714767</v>
+        <v>0.08455976098775864</v>
       </c>
       <c r="I71">
-        <v>0.001278181094676256</v>
+        <v>0.001276864320971072</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2483,13 +2483,13 @@
         <v>63192.32204673142</v>
       </c>
       <c r="G72">
-        <v>111.7640075683594</v>
+        <v>111.4057769775391</v>
       </c>
       <c r="H72">
-        <v>0.100952185690403</v>
+        <v>0.1007417738437653</v>
       </c>
       <c r="I72">
-        <v>0.00124858773779124</v>
+        <v>0.001254895934835076</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2512,13 +2512,13 @@
         <v>97420.35231875927</v>
       </c>
       <c r="G73">
-        <v>91.28717041015625</v>
+        <v>90.08791351318359</v>
       </c>
       <c r="H73">
-        <v>0.1236177161335945</v>
+        <v>0.1257588565349579</v>
       </c>
       <c r="I73">
-        <v>0.0007196418009698391</v>
+        <v>0.0007238259422592819</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2541,13 +2541,13 @@
         <v>87750.80997260317</v>
       </c>
       <c r="G74">
-        <v>117.9160766601562</v>
+        <v>116.6947937011719</v>
       </c>
       <c r="H74">
-        <v>0.1060338392853737</v>
+        <v>0.1067973002791405</v>
       </c>
       <c r="I74">
-        <v>0.0008069499745033681</v>
+        <v>0.0008084230939857662</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2570,13 +2570,13 @@
         <v>76653.88539524633</v>
       </c>
       <c r="G75">
-        <v>106.6337890625</v>
+        <v>108.537353515625</v>
       </c>
       <c r="H75">
-        <v>0.1227662786841393</v>
+        <v>0.1221109926700592</v>
       </c>
       <c r="I75">
-        <v>0.0009346196311526</v>
+        <v>0.0009327598381787539</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2599,13 +2599,13 @@
         <v>60725.36999170583</v>
       </c>
       <c r="G76">
-        <v>83.490478515625</v>
+        <v>83.81585693359375</v>
       </c>
       <c r="H76">
-        <v>0.1272160708904266</v>
+        <v>0.1277800500392914</v>
       </c>
       <c r="I76">
-        <v>0.001267226645722985</v>
+        <v>0.001270385924726725</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2628,13 +2628,13 @@
         <v>87796.77035541096</v>
       </c>
       <c r="G77">
-        <v>100.7484130859375</v>
+        <v>101.3415756225586</v>
       </c>
       <c r="H77">
-        <v>0.100490964949131</v>
+        <v>0.1014638543128967</v>
       </c>
       <c r="I77">
-        <v>0.0008702156483195722</v>
+        <v>0.0008716871379874647</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2657,13 +2657,13 @@
         <v>86886.12262938012</v>
       </c>
       <c r="G78">
-        <v>118.8732833862305</v>
+        <v>118.336067199707</v>
       </c>
       <c r="H78">
-        <v>0.1110669448971748</v>
+        <v>0.1118811592459679</v>
       </c>
       <c r="I78">
-        <v>0.0007989100995473564</v>
+        <v>0.0007995521882548928</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2686,13 +2686,13 @@
         <v>58060.50686722877</v>
       </c>
       <c r="G79">
-        <v>125.7451858520508</v>
+        <v>128.0068511962891</v>
       </c>
       <c r="H79">
-        <v>0.1289099752902985</v>
+        <v>0.1272306144237518</v>
       </c>
       <c r="I79">
-        <v>0.001224148436449468</v>
+        <v>0.001224495354108512</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2715,13 +2715,13 @@
         <v>74788.82177647536</v>
       </c>
       <c r="G80">
-        <v>99.39351654052734</v>
+        <v>99.15861511230469</v>
       </c>
       <c r="H80">
-        <v>0.1278773993253708</v>
+        <v>0.1287392675876617</v>
       </c>
       <c r="I80">
-        <v>0.0009725976851768792</v>
+        <v>0.0009709441801533103</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2744,13 +2744,13 @@
         <v>64754.33660467443</v>
       </c>
       <c r="G81">
-        <v>115.7554321289062</v>
+        <v>117.2647018432617</v>
       </c>
       <c r="H81">
-        <v>0.09215583652257919</v>
+        <v>0.09138939529657364</v>
       </c>
       <c r="I81">
-        <v>0.001240601413883269</v>
+        <v>0.001240407815203071</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2773,13 +2773,13 @@
         <v>97999.7925337427</v>
       </c>
       <c r="G82">
-        <v>105.8656845092773</v>
+        <v>105.76025390625</v>
       </c>
       <c r="H82">
-        <v>0.08509035408496857</v>
+        <v>0.0846412405371666</v>
       </c>
       <c r="I82">
-        <v>0.0007997592911124229</v>
+        <v>0.0007893650326877832</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2802,13 +2802,13 @@
         <v>75711.17553040909</v>
       </c>
       <c r="G83">
-        <v>100.1605606079102</v>
+        <v>96.71404266357422</v>
       </c>
       <c r="H83">
-        <v>0.08735109865665436</v>
+        <v>0.08898752182722092</v>
       </c>
       <c r="I83">
-        <v>0.001096017891541123</v>
+        <v>0.001093859784305096</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2831,13 +2831,13 @@
         <v>81860.39258686568</v>
       </c>
       <c r="G84">
-        <v>112.8530578613281</v>
+        <v>111.8480606079102</v>
       </c>
       <c r="H84">
-        <v>0.08668239414691925</v>
+        <v>0.08825567364692688</v>
       </c>
       <c r="I84">
-        <v>0.0009667236008681357</v>
+        <v>0.0009704059339128435</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2860,13 +2860,13 @@
         <v>99708.62786581762</v>
       </c>
       <c r="G85">
-        <v>91.44895172119141</v>
+        <v>89.78704833984375</v>
       </c>
       <c r="H85">
-        <v>0.1067515984177589</v>
+        <v>0.1078937128186226</v>
       </c>
       <c r="I85">
-        <v>0.0007500025094486773</v>
+        <v>0.0007481934153474867</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2889,13 +2889,13 @@
         <v>73985.46739173371</v>
       </c>
       <c r="G86">
-        <v>118.7422866821289</v>
+        <v>117.2825622558594</v>
       </c>
       <c r="H86">
-        <v>0.07817932218313217</v>
+        <v>0.07916270196437836</v>
       </c>
       <c r="I86">
-        <v>0.001118127489462495</v>
+        <v>0.001119646476581693</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2918,13 +2918,13 @@
         <v>82911.56533387257</v>
       </c>
       <c r="G87">
-        <v>125.8243255615234</v>
+        <v>125.4417037963867</v>
       </c>
       <c r="H87">
-        <v>0.1045068055391312</v>
+        <v>0.1055661514401436</v>
       </c>
       <c r="I87">
-        <v>0.000846119481138885</v>
+        <v>0.0008483530255034566</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2947,13 +2947,13 @@
         <v>98551.70281246703</v>
       </c>
       <c r="G88">
-        <v>122.1863250732422</v>
+        <v>119.5552673339844</v>
       </c>
       <c r="H88">
-        <v>0.09119868278503418</v>
+        <v>0.09290625900030136</v>
       </c>
       <c r="I88">
-        <v>0.0007290978101082146</v>
+        <v>0.000729240826331079</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2976,13 +2976,13 @@
         <v>99694.11763294638</v>
       </c>
       <c r="G89">
-        <v>92.93354797363281</v>
+        <v>91.36074829101562</v>
       </c>
       <c r="H89">
-        <v>0.1101241260766983</v>
+        <v>0.1115636602044106</v>
       </c>
       <c r="I89">
-        <v>0.0007352271350100636</v>
+        <v>0.0007314241956919432</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3005,13 +3005,13 @@
         <v>90483.33742782936</v>
       </c>
       <c r="G90">
-        <v>107.5511932373047</v>
+        <v>106.1970291137695</v>
       </c>
       <c r="H90">
-        <v>0.1271349340677261</v>
+        <v>0.1281895488500595</v>
       </c>
       <c r="I90">
-        <v>0.0007374442066065967</v>
+        <v>0.0007382380426861346</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3034,13 +3034,13 @@
         <v>64886.44043736569</v>
       </c>
       <c r="G91">
-        <v>94.30303192138672</v>
+        <v>93.94700622558594</v>
       </c>
       <c r="H91">
-        <v>0.1028502359986305</v>
+        <v>0.1021612137556076</v>
       </c>
       <c r="I91">
-        <v>0.001244634855538607</v>
+        <v>0.001245668274350464</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3063,13 +3063,13 @@
         <v>76623.48701136459</v>
       </c>
       <c r="G92">
-        <v>74.52113342285156</v>
+        <v>73.71344757080078</v>
       </c>
       <c r="H92">
-        <v>0.08638521283864975</v>
+        <v>0.08673055469989777</v>
       </c>
       <c r="I92">
-        <v>0.001150833442807198</v>
+        <v>0.001142336870543659</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3092,13 +3092,13 @@
         <v>64501.18126361145</v>
       </c>
       <c r="G93">
-        <v>99.23415374755859</v>
+        <v>96.75543975830078</v>
       </c>
       <c r="H93">
-        <v>0.1043713167309761</v>
+        <v>0.1050827503204346</v>
       </c>
       <c r="I93">
-        <v>0.00124094937928021</v>
+        <v>0.001239266362972558</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3121,13 +3121,13 @@
         <v>69399.16449259431</v>
       </c>
       <c r="G94">
-        <v>112.1028823852539</v>
+        <v>112.8111419677734</v>
       </c>
       <c r="H94">
-        <v>0.1075420007109642</v>
+        <v>0.1072665452957153</v>
       </c>
       <c r="I94">
-        <v>0.001097905333153903</v>
+        <v>0.001097441534511745</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3150,13 +3150,13 @@
         <v>75342.83873796505</v>
       </c>
       <c r="G95">
-        <v>107.0515441894531</v>
+        <v>108.9831008911133</v>
       </c>
       <c r="H95">
-        <v>0.1026104763150215</v>
+        <v>0.1021992117166519</v>
       </c>
       <c r="I95">
-        <v>0.001011267304420471</v>
+        <v>0.001017640926875174</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3179,13 +3179,13 @@
         <v>92438.69897281061</v>
       </c>
       <c r="G96">
-        <v>72.79779815673828</v>
+        <v>71.54319000244141</v>
       </c>
       <c r="H96">
-        <v>0.1026953160762787</v>
+        <v>0.1027782633900642</v>
       </c>
       <c r="I96">
-        <v>0.0008821362280286849</v>
+        <v>0.0008803816162981093</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3208,13 +3208,13 @@
         <v>62364.08515746631</v>
       </c>
       <c r="G97">
-        <v>116.5238494873047</v>
+        <v>117.3380737304688</v>
       </c>
       <c r="H97">
-        <v>0.09025322645902634</v>
+        <v>0.09014460444450378</v>
       </c>
       <c r="I97">
-        <v>0.001295522204600275</v>
+        <v>0.001296383910812438</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3237,13 +3237,13 @@
         <v>86739.79865804066</v>
       </c>
       <c r="G98">
-        <v>108.8117370605469</v>
+        <v>107.0799865722656</v>
       </c>
       <c r="H98">
-        <v>0.08663678914308548</v>
+        <v>0.0878465548157692</v>
       </c>
       <c r="I98">
-        <v>0.0009146659867838025</v>
+        <v>0.0009124862845055759</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3266,13 +3266,13 @@
         <v>82610.05204211794</v>
       </c>
       <c r="G99">
-        <v>101.8817901611328</v>
+        <v>103.5633850097656</v>
       </c>
       <c r="H99">
-        <v>0.08859714865684509</v>
+        <v>0.08698534965515137</v>
       </c>
       <c r="I99">
-        <v>0.000980538665316999</v>
+        <v>0.0009781386470422149</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3295,13 +3295,13 @@
         <v>94258.70408486309</v>
       </c>
       <c r="G100">
-        <v>70.11355590820312</v>
+        <v>69.787841796875</v>
       </c>
       <c r="H100">
-        <v>0.0853789821267128</v>
+        <v>0.08618083596229553</v>
       </c>
       <c r="I100">
-        <v>0.0009324488928541541</v>
+        <v>0.0009312320617027581</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3324,13 +3324,13 @@
         <v>64665.29110012272</v>
       </c>
       <c r="G101">
-        <v>80.51104736328125</v>
+        <v>80.97049713134766</v>
       </c>
       <c r="H101">
-        <v>0.1008453592658043</v>
+        <v>0.1007971838116646</v>
       </c>
       <c r="I101">
-        <v>0.001271405722945929</v>
+        <v>0.001280110096558928</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>124.3933299532707</v>
+        <v>80.47950312370034</v>
       </c>
       <c r="B2">
-        <v>0.09407557004821653</v>
+        <v>0.09239295734468765</v>
       </c>
       <c r="C2">
-        <v>0.0008862284955878868</v>
+        <v>0.0007239956811404301</v>
       </c>
       <c r="D2">
-        <v>0.6784198567924783</v>
+        <v>0.7148542594299597</v>
       </c>
       <c r="E2">
-        <v>1.032520547705948</v>
+        <v>1.037657893482221</v>
       </c>
       <c r="F2">
-        <v>83409.28631610108</v>
+        <v>110714.6618363113</v>
       </c>
       <c r="G2">
-        <v>122.5541763305664</v>
+        <v>79.75212097167969</v>
       </c>
       <c r="H2">
-        <v>0.09592395275831223</v>
+        <v>0.09297946840524673</v>
       </c>
       <c r="I2">
-        <v>0.0008850768208503723</v>
+        <v>0.0007230084738694131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>116.4428399619183</v>
+        <v>89.67928005448476</v>
       </c>
       <c r="B3">
-        <v>0.1257574850381628</v>
+        <v>0.08337182908089882</v>
       </c>
       <c r="C3">
-        <v>0.0009238209183284484</v>
+        <v>0.001083823063645076</v>
       </c>
       <c r="D3">
-        <v>0.6416617889190355</v>
+        <v>0.7616355600549359</v>
       </c>
       <c r="E3">
-        <v>1.030511283758649</v>
+        <v>1.037050513453626</v>
       </c>
       <c r="F3">
-        <v>75107.5135513743</v>
+        <v>78814.76879823163</v>
       </c>
       <c r="G3">
-        <v>117.0876007080078</v>
+        <v>89.54709625244141</v>
       </c>
       <c r="H3">
-        <v>0.1252477914094925</v>
+        <v>0.08366125822067261</v>
       </c>
       <c r="I3">
-        <v>0.0009252959280274808</v>
+        <v>0.001081483671441674</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>89.9887091217185</v>
+        <v>110.8209199609001</v>
       </c>
       <c r="B4">
-        <v>0.07597689581327628</v>
+        <v>0.07483192020831066</v>
       </c>
       <c r="C4">
-        <v>0.001014982265352558</v>
+        <v>0.0009449817450038469</v>
       </c>
       <c r="D4">
-        <v>0.7718972205292524</v>
+        <v>0.745030186083138</v>
       </c>
       <c r="E4">
-        <v>1.039100748781483</v>
+        <v>1.035866141498359</v>
       </c>
       <c r="F4">
-        <v>85842.14652299837</v>
+        <v>87584.8689481738</v>
       </c>
       <c r="G4">
-        <v>89.80792999267578</v>
+        <v>111.4523086547852</v>
       </c>
       <c r="H4">
-        <v>0.07628058642148972</v>
+        <v>0.07496283948421478</v>
       </c>
       <c r="I4">
-        <v>0.001011309446766973</v>
+        <v>0.0009426595643162727</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>74.8660833992798</v>
+        <v>73.79245710031783</v>
       </c>
       <c r="B5">
-        <v>0.1267180920087448</v>
+        <v>0.0751186553871222</v>
       </c>
       <c r="C5">
-        <v>0.001150357013757392</v>
+        <v>0.0009264439435533324</v>
       </c>
       <c r="D5">
-        <v>0.7032856237307542</v>
+        <v>0.78228369652713</v>
       </c>
       <c r="E5">
-        <v>1.032934773588853</v>
+        <v>1.045092820041995</v>
       </c>
       <c r="F5">
-        <v>67652.86321083634</v>
+        <v>97240.64886250457</v>
       </c>
       <c r="G5">
-        <v>75.56355285644531</v>
+        <v>69.42737579345703</v>
       </c>
       <c r="H5">
-        <v>0.1251118779182434</v>
+        <v>0.0768093541264534</v>
       </c>
       <c r="I5">
-        <v>0.001149959396570921</v>
+        <v>0.0009390211198478937</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>94.43447028482844</v>
+        <v>106.4349624406925</v>
       </c>
       <c r="B6">
-        <v>0.1221693118327979</v>
+        <v>0.08328378677756634</v>
       </c>
       <c r="C6">
-        <v>0.0009001044794747651</v>
+        <v>0.001185618982893519</v>
       </c>
       <c r="D6">
-        <v>0.6709600940413744</v>
+        <v>0.7549607388106844</v>
       </c>
       <c r="E6">
-        <v>1.031073969162547</v>
+        <v>1.034312784197991</v>
       </c>
       <c r="F6">
-        <v>81497.62068130456</v>
+        <v>70553.25308145517</v>
       </c>
       <c r="G6">
-        <v>92.82277679443359</v>
+        <v>113.9127807617188</v>
       </c>
       <c r="H6">
-        <v>0.1222732067108154</v>
+        <v>0.08137539774179459</v>
       </c>
       <c r="I6">
-        <v>0.0009013325907289982</v>
+        <v>0.001188633963465691</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>83.93404853025656</v>
+        <v>98.65879017258494</v>
       </c>
       <c r="B7">
-        <v>0.09724974381445312</v>
+        <v>0.07600084365529332</v>
       </c>
       <c r="C7">
-        <v>0.001254495259972458</v>
+        <v>0.001125421276109974</v>
       </c>
       <c r="D7">
-        <v>0.7485465449616532</v>
+        <v>0.7726512369998835</v>
       </c>
       <c r="E7">
-        <v>1.035219920456572</v>
+        <v>1.037115564928178</v>
       </c>
       <c r="F7">
-        <v>66574.37095774284</v>
+        <v>76929.05447955293</v>
       </c>
       <c r="G7">
-        <v>83.95137023925781</v>
+        <v>99.45830535888672</v>
       </c>
       <c r="H7">
-        <v>0.09757072478532791</v>
+        <v>0.07635018974542618</v>
       </c>
       <c r="I7">
-        <v>0.001253371825441718</v>
+        <v>0.001123866415582597</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>77.94925808547897</v>
+        <v>87.03999860572607</v>
       </c>
       <c r="B8">
-        <v>0.0896020529060956</v>
+        <v>0.08590238190186891</v>
       </c>
       <c r="C8">
-        <v>0.001217391128101541</v>
+        <v>0.001272600289235615</v>
       </c>
       <c r="D8">
-        <v>0.764856932365654</v>
+        <v>0.7686426747971807</v>
       </c>
       <c r="E8">
-        <v>1.038445191596417</v>
+        <v>1.036880237584814</v>
       </c>
       <c r="F8">
-        <v>70911.90759739096</v>
+        <v>67775.15318781788</v>
       </c>
       <c r="G8">
-        <v>78.14909362792969</v>
+        <v>86.98581695556641</v>
       </c>
       <c r="H8">
-        <v>0.08940115571022034</v>
+        <v>0.0866340696811676</v>
       </c>
       <c r="I8">
-        <v>0.00121814024168998</v>
+        <v>0.001269801403395832</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>73.20563090720951</v>
+        <v>84.30479685544348</v>
       </c>
       <c r="B9">
-        <v>0.08396464775674342</v>
+        <v>0.07396896772701729</v>
       </c>
       <c r="C9">
-        <v>0.0007292141775853172</v>
+        <v>0.0009111617442974144</v>
       </c>
       <c r="D9">
-        <v>0.7433787493579103</v>
+        <v>0.7728103531743354</v>
       </c>
       <c r="E9">
-        <v>1.042317850651267</v>
+        <v>1.041503063754441</v>
       </c>
       <c r="F9">
-        <v>116170.4916872346</v>
+        <v>96481.13007662418</v>
       </c>
       <c r="G9">
-        <v>73.15190124511719</v>
+        <v>82.75128173828125</v>
       </c>
       <c r="H9">
-        <v>0.08401442319154739</v>
+        <v>0.07491426169872284</v>
       </c>
       <c r="I9">
-        <v>0.0007203726563602686</v>
+        <v>0.0009137484012171626</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>113.5356618526347</v>
+        <v>100.8707645979254</v>
       </c>
       <c r="B10">
-        <v>0.1068678823886125</v>
+        <v>0.07393629203259555</v>
       </c>
       <c r="C10">
-        <v>0.0008521855145540937</v>
+        <v>0.001238525658789643</v>
       </c>
       <c r="D10">
-        <v>0.6633214954354553</v>
+        <v>0.7828476779742215</v>
       </c>
       <c r="E10">
-        <v>1.031685788940426</v>
+        <v>1.037145661916517</v>
       </c>
       <c r="F10">
-        <v>84745.99644791485</v>
+        <v>70858.65038252129</v>
       </c>
       <c r="G10">
-        <v>115.0723342895508</v>
+        <v>101.3134689331055</v>
       </c>
       <c r="H10">
-        <v>0.1059562563896179</v>
+        <v>0.07427240908145905</v>
       </c>
       <c r="I10">
-        <v>0.0008538272813893855</v>
+        <v>0.001237468677572906</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>70.68564751750186</v>
+        <v>92.07565483222247</v>
       </c>
       <c r="B11">
-        <v>0.07198447548853035</v>
+        <v>0.1213765707773669</v>
       </c>
       <c r="C11">
-        <v>0.0009676813075955211</v>
+        <v>0.001161980311750053</v>
       </c>
       <c r="D11">
-        <v>0.7948113810482275</v>
+        <v>0.6986465246035998</v>
       </c>
       <c r="E11">
-        <v>1.048039049961201</v>
+        <v>1.030967409724419</v>
       </c>
       <c r="F11">
-        <v>95479.58700957269</v>
+        <v>65882.93905127795</v>
       </c>
       <c r="G11">
-        <v>63.2378044128418</v>
+        <v>106.1813507080078</v>
       </c>
       <c r="H11">
-        <v>0.07500645518302917</v>
+        <v>0.1133106648921967</v>
       </c>
       <c r="I11">
-        <v>0.0009907318744808435</v>
+        <v>0.001160298474133015</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>116.2348449101666</v>
+        <v>97.39119347575932</v>
       </c>
       <c r="B12">
-        <v>0.0709363638668097</v>
+        <v>0.07972721564253001</v>
       </c>
       <c r="C12">
-        <v>0.0007627767332454845</v>
+        <v>0.0009144547909568278</v>
       </c>
       <c r="D12">
-        <v>0.7160064389613174</v>
+        <v>0.7456258922776794</v>
       </c>
       <c r="E12">
-        <v>1.036388960206295</v>
+        <v>1.036677984385607</v>
       </c>
       <c r="F12">
-        <v>104053.362468149</v>
+        <v>91078.41849770934</v>
       </c>
       <c r="G12">
-        <v>102.7338790893555</v>
+        <v>98.46724700927734</v>
       </c>
       <c r="H12">
-        <v>0.07984384149312973</v>
+        <v>0.07945484668016434</v>
       </c>
       <c r="I12">
-        <v>0.0007633434724994004</v>
+        <v>0.0009120404720306396</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>78.8167987240225</v>
+        <v>90.2486429058544</v>
       </c>
       <c r="B13">
-        <v>0.09572774334989427</v>
+        <v>0.1035809443494069</v>
       </c>
       <c r="C13">
-        <v>0.0009090855934200982</v>
+        <v>0.001072999261871955</v>
       </c>
       <c r="D13">
-        <v>0.7341306355545723</v>
+        <v>0.7224579881240755</v>
       </c>
       <c r="E13">
-        <v>1.037063402774055</v>
+        <v>1.033217153180326</v>
       </c>
       <c r="F13">
-        <v>90574.79262062583</v>
+        <v>74453.07845140826</v>
       </c>
       <c r="G13">
-        <v>78.73184967041016</v>
+        <v>101.1958465576172</v>
       </c>
       <c r="H13">
-        <v>0.0957205593585968</v>
+        <v>0.09819482266902924</v>
       </c>
       <c r="I13">
-        <v>0.000906681758351624</v>
+        <v>0.001074345083907247</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>74.77132495520534</v>
+        <v>128.2296216157586</v>
       </c>
       <c r="B14">
-        <v>0.07408444443848322</v>
+        <v>0.1164073326669418</v>
       </c>
       <c r="C14">
-        <v>0.001144058515370609</v>
+        <v>0.0008731419745910173</v>
       </c>
       <c r="D14">
-        <v>0.7956746251039636</v>
+        <v>0.6320502746174453</v>
       </c>
       <c r="E14">
-        <v>1.044823675358364</v>
+        <v>1.031517906237351</v>
       </c>
       <c r="F14">
-        <v>80122.00114732057</v>
+        <v>78135.11268005935</v>
       </c>
       <c r="G14">
-        <v>71.10518646240234</v>
+        <v>127.3419342041016</v>
       </c>
       <c r="H14">
-        <v>0.07541900128126144</v>
+        <v>0.1170404180884361</v>
       </c>
       <c r="I14">
-        <v>0.001164706889539957</v>
+        <v>0.0008698375895619392</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>75.37618205431632</v>
+        <v>78.00636590473624</v>
       </c>
       <c r="B15">
-        <v>0.08511645929476558</v>
+        <v>0.097384573920344</v>
       </c>
       <c r="C15">
-        <v>0.001108308688685695</v>
+        <v>0.001224639950244905</v>
       </c>
       <c r="D15">
-        <v>0.7707501997625664</v>
+        <v>0.7507819662196481</v>
       </c>
       <c r="E15">
-        <v>1.040626946483221</v>
+        <v>1.036648787614249</v>
       </c>
       <c r="F15">
-        <v>79041.70762667377</v>
+        <v>68769.88104121231</v>
       </c>
       <c r="G15">
-        <v>75.22112274169922</v>
+        <v>77.52542114257812</v>
       </c>
       <c r="H15">
-        <v>0.08534524589776993</v>
+        <v>0.09769745171070099</v>
       </c>
       <c r="I15">
-        <v>0.001108835102058947</v>
+        <v>0.001223880564793944</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>110.3228684412349</v>
+        <v>75.80823719070246</v>
       </c>
       <c r="B16">
-        <v>0.08326965492076503</v>
+        <v>0.07920213267156075</v>
       </c>
       <c r="C16">
-        <v>0.001073430657139603</v>
+        <v>0.0007674563903273868</v>
       </c>
       <c r="D16">
-        <v>0.7418196638097755</v>
+        <v>0.7551169660496789</v>
       </c>
       <c r="E16">
-        <v>1.034070726410104</v>
+        <v>1.042849564994777</v>
       </c>
       <c r="F16">
-        <v>76365.20494028791</v>
+        <v>112338.4518110541</v>
       </c>
       <c r="G16">
-        <v>116.5185546875</v>
+        <v>75.03432464599609</v>
       </c>
       <c r="H16">
-        <v>0.08007319271564484</v>
+        <v>0.07915347814559937</v>
       </c>
       <c r="I16">
-        <v>0.001071082428097725</v>
+        <v>0.0007577281212434173</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>84.72203259117069</v>
+        <v>90.60350372745496</v>
       </c>
       <c r="B17">
-        <v>0.08519147162337112</v>
+        <v>0.08197576852720687</v>
       </c>
       <c r="C17">
-        <v>0.001126317041633407</v>
+        <v>0.0008274606167764246</v>
       </c>
       <c r="D17">
-        <v>0.7646425782202013</v>
+        <v>0.737666059193431</v>
       </c>
       <c r="E17">
-        <v>1.037720783918302</v>
+        <v>1.037557826832974</v>
       </c>
       <c r="F17">
-        <v>76376.66583768409</v>
+        <v>99907.35472228569</v>
       </c>
       <c r="G17">
-        <v>84.99452209472656</v>
+        <v>90.96507263183594</v>
       </c>
       <c r="H17">
-        <v>0.08532624691724777</v>
+        <v>0.08217146247625351</v>
       </c>
       <c r="I17">
-        <v>0.001121346140280366</v>
+        <v>0.0008223837940022349</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>95.23236800080591</v>
+        <v>105.4616140522295</v>
       </c>
       <c r="B18">
-        <v>0.07786331387291547</v>
+        <v>0.09597905237687085</v>
       </c>
       <c r="C18">
-        <v>0.0008229542121758211</v>
+        <v>0.0008098199752479526</v>
       </c>
       <c r="D18">
-        <v>0.7399301574047675</v>
+        <v>0.6863786183384455</v>
       </c>
       <c r="E18">
-        <v>1.037674897709341</v>
+        <v>1.03309890771149</v>
       </c>
       <c r="F18">
-        <v>100708.7277807855</v>
+        <v>93081.67690294122</v>
       </c>
       <c r="G18">
-        <v>95.86891174316406</v>
+        <v>93.49736022949219</v>
       </c>
       <c r="H18">
-        <v>0.07773038744926453</v>
+        <v>0.1059889942407608</v>
       </c>
       <c r="I18">
-        <v>0.0008210433879867196</v>
+        <v>0.0008154105744324625</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>103.442127479435</v>
+        <v>109.5505883110017</v>
       </c>
       <c r="B19">
-        <v>0.07072217337385926</v>
+        <v>0.1016940453507122</v>
       </c>
       <c r="C19">
-        <v>0.0009050188689188393</v>
+        <v>0.0009418156014425732</v>
       </c>
       <c r="D19">
-        <v>0.7580316625516856</v>
+        <v>0.6915085550610071</v>
       </c>
       <c r="E19">
-        <v>1.038027147583681</v>
+        <v>1.031925803288023</v>
       </c>
       <c r="F19">
-        <v>93871.73015730472</v>
+        <v>80308.98160370781</v>
       </c>
       <c r="G19">
-        <v>101.6601638793945</v>
+        <v>99.27290344238281</v>
       </c>
       <c r="H19">
-        <v>0.07143610715866089</v>
+        <v>0.1087920889258385</v>
       </c>
       <c r="I19">
-        <v>0.0009090730454772711</v>
+        <v>0.000945953419432044</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>121.6330704297276</v>
+        <v>93.83540483008252</v>
       </c>
       <c r="B20">
-        <v>0.07692905782832489</v>
+        <v>0.0909664175229121</v>
       </c>
       <c r="C20">
-        <v>0.001105745489366478</v>
+        <v>0.001147139776019277</v>
       </c>
       <c r="D20">
-        <v>0.7479038208218112</v>
+        <v>0.74740111122718</v>
       </c>
       <c r="E20">
-        <v>1.034256550399932</v>
+        <v>1.034610430079018</v>
       </c>
       <c r="F20">
-        <v>74609.27065760476</v>
+        <v>72418.37381022613</v>
       </c>
       <c r="G20">
-        <v>117.4993209838867</v>
+        <v>93.18444061279297</v>
       </c>
       <c r="H20">
-        <v>0.07908238470554352</v>
+        <v>0.09092806279659271</v>
       </c>
       <c r="I20">
-        <v>0.001107606687583029</v>
+        <v>0.001150672673247755</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>113.6226557626797</v>
+        <v>129.9566796353303</v>
       </c>
       <c r="B21">
-        <v>0.1071088155707649</v>
+        <v>0.1168887760140797</v>
       </c>
       <c r="C21">
-        <v>0.001227540857818796</v>
+        <v>0.001016144469431308</v>
       </c>
       <c r="D21">
-        <v>0.707758356138476</v>
+        <v>0.6528624185802553</v>
       </c>
       <c r="E21">
-        <v>1.030861593401781</v>
+        <v>1.031010373892499</v>
       </c>
       <c r="F21">
-        <v>62854.86447053956</v>
+        <v>69354.92481327662</v>
       </c>
       <c r="G21">
-        <v>106.821907043457</v>
+        <v>129.8472595214844</v>
       </c>
       <c r="H21">
-        <v>0.1105314418673515</v>
+        <v>0.1171072944998741</v>
       </c>
       <c r="I21">
-        <v>0.001228776061907411</v>
+        <v>0.001018858747556806</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>86.21967431432287</v>
+        <v>91.11357977158256</v>
       </c>
       <c r="B22">
-        <v>0.128455372769083</v>
+        <v>0.1150612989313839</v>
       </c>
       <c r="C22">
-        <v>0.001026206832296857</v>
+        <v>0.0009926057941229245</v>
       </c>
       <c r="D22">
-        <v>0.6839348889662489</v>
+        <v>0.6959553476844512</v>
       </c>
       <c r="E22">
-        <v>1.031086303302005</v>
+        <v>1.031848404782693</v>
       </c>
       <c r="F22">
-        <v>73081.2539544483</v>
+        <v>77046.07244606676</v>
       </c>
       <c r="G22">
-        <v>103.1705932617188</v>
+        <v>103.6271133422852</v>
       </c>
       <c r="H22">
-        <v>0.1163385435938835</v>
+        <v>0.1062049195170403</v>
       </c>
       <c r="I22">
-        <v>0.001022068434394896</v>
+        <v>0.0009920671582221985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>77.88896795746766</v>
+        <v>113.2844000775972</v>
       </c>
       <c r="B23">
-        <v>0.1294207000936536</v>
+        <v>0.1256327084423871</v>
       </c>
       <c r="C23">
-        <v>0.000869619790567322</v>
+        <v>0.0007003275789381973</v>
       </c>
       <c r="D23">
-        <v>0.6771529933949744</v>
+        <v>0.6014607693384898</v>
       </c>
       <c r="E23">
-        <v>1.032330470711368</v>
+        <v>1.031412505497343</v>
       </c>
       <c r="F23">
-        <v>85824.59714730343</v>
+        <v>92838.36523798428</v>
       </c>
       <c r="G23">
-        <v>106.9937515258789</v>
+        <v>112.4546508789062</v>
       </c>
       <c r="H23">
-        <v>0.1061078235507011</v>
+        <v>0.1266688257455826</v>
       </c>
       <c r="I23">
-        <v>0.0008654823177494109</v>
+        <v>0.0006963207270018756</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>73.32245922527187</v>
+        <v>108.2549616718476</v>
       </c>
       <c r="B24">
-        <v>0.09454324572238371</v>
+        <v>0.07173715294161764</v>
       </c>
       <c r="C24">
-        <v>0.0007181411548035895</v>
+        <v>0.0009552410352130327</v>
       </c>
       <c r="D24">
-        <v>0.7206975117748889</v>
+        <v>0.7565650575592371</v>
       </c>
       <c r="E24">
-        <v>1.039301591704531</v>
+        <v>1.036924640141883</v>
       </c>
       <c r="F24">
-        <v>113238.1991159762</v>
+        <v>88386.57695820175</v>
       </c>
       <c r="G24">
-        <v>73.98375701904297</v>
+        <v>107.526252746582</v>
       </c>
       <c r="H24">
-        <v>0.09468712657690048</v>
+        <v>0.07269988209009171</v>
       </c>
       <c r="I24">
-        <v>0.0007184743881225586</v>
+        <v>0.000960936420597136</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>88.09591806885655</v>
+        <v>118.7832317948476</v>
       </c>
       <c r="B25">
-        <v>0.07977726556279632</v>
+        <v>0.1237414774726122</v>
       </c>
       <c r="C25">
-        <v>0.001126202097384528</v>
+        <v>0.000738132264901695</v>
       </c>
       <c r="D25">
-        <v>0.7731456729431915</v>
+        <v>0.6051214927972042</v>
       </c>
       <c r="E25">
-        <v>1.038320964347527</v>
+        <v>1.031522256378468</v>
       </c>
       <c r="F25">
-        <v>77363.1933597444</v>
+        <v>88510.38069130151</v>
       </c>
       <c r="G25">
-        <v>88.26793670654297</v>
+        <v>118.0151290893555</v>
       </c>
       <c r="H25">
-        <v>0.08006110787391663</v>
+        <v>0.1246507912874222</v>
       </c>
       <c r="I25">
-        <v>0.00112176442053169</v>
+        <v>0.0007369038066826761</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>85.72708895438069</v>
+        <v>128.5735398072292</v>
       </c>
       <c r="B26">
-        <v>0.1083257054419918</v>
+        <v>0.09355412730772907</v>
       </c>
       <c r="C26">
-        <v>0.0007047304621050643</v>
+        <v>0.0008249519512728903</v>
       </c>
       <c r="D26">
-        <v>0.6743137651026689</v>
+        <v>0.6619779054087238</v>
       </c>
       <c r="E26">
-        <v>1.033810676182253</v>
+        <v>1.032779265983835</v>
       </c>
       <c r="F26">
-        <v>105723.086383676</v>
+        <v>87259.22312703876</v>
       </c>
       <c r="G26">
-        <v>87.90688323974609</v>
+        <v>128.1912384033203</v>
       </c>
       <c r="H26">
-        <v>0.1073692515492439</v>
+        <v>0.09278549253940582</v>
       </c>
       <c r="I26">
-        <v>0.0007012204732745886</v>
+        <v>0.0008264060015790164</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>97.36843400802877</v>
+        <v>123.3876193867324</v>
       </c>
       <c r="B27">
-        <v>0.09941832079292423</v>
+        <v>0.1227023497227996</v>
       </c>
       <c r="C27">
-        <v>0.0009236074418925973</v>
+        <v>0.001259436363376297</v>
       </c>
       <c r="D27">
-        <v>0.7077250982986302</v>
+        <v>0.6774113521556409</v>
       </c>
       <c r="E27">
-        <v>1.033133578699026</v>
+        <v>1.029975939243343</v>
       </c>
       <c r="F27">
-        <v>84476.04130566434</v>
+        <v>58129.14017715984</v>
       </c>
       <c r="G27">
-        <v>101.8606033325195</v>
+        <v>122.3028869628906</v>
       </c>
       <c r="H27">
-        <v>0.0963086411356926</v>
+        <v>0.1233147084712982</v>
       </c>
       <c r="I27">
-        <v>0.0009233545861206949</v>
+        <v>0.001257339841686189</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>110.9968801328608</v>
+        <v>115.8737184614625</v>
       </c>
       <c r="B28">
-        <v>0.1293645866370659</v>
+        <v>0.1114470865693918</v>
       </c>
       <c r="C28">
-        <v>0.001018322328737669</v>
+        <v>0.0008292389226059429</v>
       </c>
       <c r="D28">
-        <v>0.6557881864258343</v>
+        <v>0.6482159643812835</v>
       </c>
       <c r="E28">
-        <v>1.029983643882705</v>
+        <v>1.031484946473459</v>
       </c>
       <c r="F28">
-        <v>69737.01653111538</v>
+        <v>84867.05205977788</v>
       </c>
       <c r="G28">
-        <v>111.1206512451172</v>
+        <v>116.1699981689453</v>
       </c>
       <c r="H28">
-        <v>0.1291499882936478</v>
+        <v>0.1113805547356606</v>
       </c>
       <c r="I28">
-        <v>0.001021995209157467</v>
+        <v>0.0008288726094178855</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>111.7375267383315</v>
+        <v>111.8949086690974</v>
       </c>
       <c r="B29">
-        <v>0.07391825242910682</v>
+        <v>0.1292409254244381</v>
       </c>
       <c r="C29">
-        <v>0.001253266877060316</v>
+        <v>0.001215002583180557</v>
       </c>
       <c r="D29">
-        <v>0.7757654120414401</v>
+        <v>0.674255463494057</v>
       </c>
       <c r="E29">
-        <v>1.035575657454294</v>
+        <v>1.029631416784115</v>
       </c>
       <c r="F29">
-        <v>68865.52578591356</v>
+        <v>60101.35602195264</v>
       </c>
       <c r="G29">
-        <v>111.6499328613281</v>
+        <v>110.3302001953125</v>
       </c>
       <c r="H29">
-        <v>0.07429914176464081</v>
+        <v>0.1301198303699493</v>
       </c>
       <c r="I29">
-        <v>0.001254645641893148</v>
+        <v>0.001208516885526478</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>87.01113079493</v>
+        <v>90.12989018055399</v>
       </c>
       <c r="B30">
-        <v>0.1169940662988288</v>
+        <v>0.1155569471030001</v>
       </c>
       <c r="C30">
-        <v>0.0007536967270197401</v>
+        <v>0.001181736022936801</v>
       </c>
       <c r="D30">
-        <v>0.6672443061447282</v>
+        <v>0.7102333799737831</v>
       </c>
       <c r="E30">
-        <v>1.032538786718346</v>
+        <v>1.031703854837487</v>
       </c>
       <c r="F30">
-        <v>97367.21741307162</v>
+        <v>66091.3562768952</v>
       </c>
       <c r="G30">
-        <v>89.42439270019531</v>
+        <v>111.0831069946289</v>
       </c>
       <c r="H30">
-        <v>0.1136293336749077</v>
+        <v>0.104269728064537</v>
       </c>
       <c r="I30">
-        <v>0.0007502089138142765</v>
+        <v>0.001179161132313311</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>92.79561735400723</v>
+        <v>78.86113469240244</v>
       </c>
       <c r="B31">
-        <v>0.08730390983988964</v>
+        <v>0.0918726775598072</v>
       </c>
       <c r="C31">
-        <v>0.0009435653931809701</v>
+        <v>0.0007954877421653457</v>
       </c>
       <c r="D31">
-        <v>0.7383478575800083</v>
+        <v>0.7287884903981767</v>
       </c>
       <c r="E31">
-        <v>1.035749794825007</v>
+        <v>1.038094802825155</v>
       </c>
       <c r="F31">
-        <v>87220.02911078013</v>
+        <v>102999.9399945368</v>
       </c>
       <c r="G31">
-        <v>90.42308044433594</v>
+        <v>78.43529510498047</v>
       </c>
       <c r="H31">
-        <v>0.08835438638925552</v>
+        <v>0.09235022217035294</v>
       </c>
       <c r="I31">
-        <v>0.0009458897402510047</v>
+        <v>0.0007984889089129865</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>80.86905770421419</v>
+        <v>73.75816018358859</v>
       </c>
       <c r="B32">
-        <v>0.08448511720459445</v>
+        <v>0.1000637903700851</v>
       </c>
       <c r="C32">
-        <v>0.0007145879198260947</v>
+        <v>0.001063427174362167</v>
       </c>
       <c r="D32">
-        <v>0.7285509097511074</v>
+        <v>0.7419344320137233</v>
       </c>
       <c r="E32">
-        <v>1.039547351294224</v>
+        <v>1.037425163918059</v>
       </c>
       <c r="F32">
-        <v>115010.9560480666</v>
+        <v>78446.7561659481</v>
       </c>
       <c r="G32">
-        <v>81.34254455566406</v>
+        <v>73.11083221435547</v>
       </c>
       <c r="H32">
-        <v>0.08468663692474365</v>
+        <v>0.1009776294231415</v>
       </c>
       <c r="I32">
-        <v>0.0007141089299693704</v>
+        <v>0.001059458707459271</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>117.3127307383911</v>
+        <v>84.51410225208909</v>
       </c>
       <c r="B33">
-        <v>0.1097502742919606</v>
+        <v>0.09258334931166108</v>
       </c>
       <c r="C33">
-        <v>0.0009055665906049541</v>
+        <v>0.0007693971231430079</v>
       </c>
       <c r="D33">
-        <v>0.6626123402218426</v>
+        <v>0.7158396833095715</v>
       </c>
       <c r="E33">
-        <v>1.031327925136094</v>
+        <v>1.036550635565334</v>
       </c>
       <c r="F33">
-        <v>79478.88207987168</v>
+        <v>103940.0373470859</v>
       </c>
       <c r="G33">
-        <v>118.7299346923828</v>
+        <v>97.99827575683594</v>
       </c>
       <c r="H33">
-        <v>0.1086748763918877</v>
+        <v>0.08354198932647705</v>
       </c>
       <c r="I33">
-        <v>0.0009038362768478692</v>
+        <v>0.0007745617185719311</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>73.41088458599442</v>
+        <v>95.93688887087791</v>
       </c>
       <c r="B34">
-        <v>0.08476379109945789</v>
+        <v>0.09189471016127429</v>
       </c>
       <c r="C34">
-        <v>0.001073338635303877</v>
+        <v>0.001136732895021707</v>
       </c>
       <c r="D34">
-        <v>0.7712180172339782</v>
+        <v>0.74317886691169</v>
       </c>
       <c r="E34">
-        <v>1.041511410303073</v>
+        <v>1.034125868657118</v>
       </c>
       <c r="F34">
-        <v>81895.13603513388</v>
+        <v>72512.80722001196</v>
       </c>
       <c r="G34">
-        <v>72.76876068115234</v>
+        <v>95.67485809326172</v>
       </c>
       <c r="H34">
-        <v>0.08517204225063324</v>
+        <v>0.09278919547796249</v>
       </c>
       <c r="I34">
-        <v>0.001077014254406095</v>
+        <v>0.001142073539085686</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>111.8198345034992</v>
+        <v>101.3197764177989</v>
       </c>
       <c r="B35">
-        <v>0.1099515470535513</v>
+        <v>0.0856542699628636</v>
       </c>
       <c r="C35">
-        <v>0.000867440768937159</v>
+        <v>0.001082477366423324</v>
       </c>
       <c r="D35">
-        <v>0.6630494335573829</v>
+        <v>0.7463949669992432</v>
       </c>
       <c r="E35">
-        <v>1.031436270968225</v>
+        <v>1.034605699648733</v>
       </c>
       <c r="F35">
-        <v>83198.31333911861</v>
+        <v>76504.91466527247</v>
       </c>
       <c r="G35">
-        <v>113.1603469848633</v>
+        <v>114.9620819091797</v>
       </c>
       <c r="H35">
-        <v>0.1093378961086273</v>
+        <v>0.07929599285125732</v>
       </c>
       <c r="I35">
-        <v>0.0008685924112796783</v>
+        <v>0.001075986190699041</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>116.7217237564662</v>
+        <v>116.3850132432923</v>
       </c>
       <c r="B36">
-        <v>0.1010385110321373</v>
+        <v>0.0997582177224082</v>
       </c>
       <c r="C36">
-        <v>0.0008258499697933812</v>
+        <v>0.001187163137014612</v>
       </c>
       <c r="D36">
-        <v>0.6643434201113845</v>
+        <v>0.7147880752932645</v>
       </c>
       <c r="E36">
-        <v>1.032185072473901</v>
+        <v>1.031475902851138</v>
       </c>
       <c r="F36">
-        <v>87641.57555019447</v>
+        <v>65754.04768377355</v>
       </c>
       <c r="G36">
-        <v>119.3285751342773</v>
+        <v>107.1488876342773</v>
       </c>
       <c r="H36">
-        <v>0.09865288436412811</v>
+        <v>0.1050450280308723</v>
       </c>
       <c r="I36">
-        <v>0.0008251139661297202</v>
+        <v>0.001191423158161342</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>116.6444537109252</v>
+        <v>127.5244553833956</v>
       </c>
       <c r="B37">
-        <v>0.09544533930615096</v>
+        <v>0.1109043967041617</v>
       </c>
       <c r="C37">
-        <v>0.0007694219399962561</v>
+        <v>0.0009876307296335129</v>
       </c>
       <c r="D37">
-        <v>0.663162437633379</v>
+        <v>0.6611051748588946</v>
       </c>
       <c r="E37">
-        <v>1.032841054132209</v>
+        <v>1.031222090713138</v>
       </c>
       <c r="F37">
-        <v>94083.84263998304</v>
+        <v>72434.63899394819</v>
       </c>
       <c r="G37">
-        <v>116.97998046875</v>
+        <v>127.8175659179688</v>
       </c>
       <c r="H37">
-        <v>0.09534011781215668</v>
+        <v>0.1108576580882072</v>
       </c>
       <c r="I37">
-        <v>0.0007700502756051719</v>
+        <v>0.0009856770047917962</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>85.5653538607213</v>
+        <v>77.03922882308866</v>
       </c>
       <c r="B38">
-        <v>0.1032812685196851</v>
+        <v>0.08664041627831462</v>
       </c>
       <c r="C38">
-        <v>0.001046284146412205</v>
+        <v>0.00124891785270003</v>
       </c>
       <c r="D38">
-        <v>0.7252704275930315</v>
+        <v>0.7721530584871934</v>
       </c>
       <c r="E38">
-        <v>1.034033639092562</v>
+        <v>1.039508449645953</v>
       </c>
       <c r="F38">
-        <v>76928.77987052749</v>
+        <v>70038.58811791422</v>
       </c>
       <c r="G38">
-        <v>84.82652282714844</v>
+        <v>76.87385559082031</v>
       </c>
       <c r="H38">
-        <v>0.103992260992527</v>
+        <v>0.0869007483124733</v>
       </c>
       <c r="I38">
-        <v>0.001040842966176569</v>
+        <v>0.001251642243005335</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>92.42878827595366</v>
+        <v>76.4202484116275</v>
       </c>
       <c r="B39">
-        <v>0.08722309119517779</v>
+        <v>0.1014627886646332</v>
       </c>
       <c r="C39">
-        <v>0.001117162003542812</v>
+        <v>0.0007296093680730638</v>
       </c>
       <c r="D39">
-        <v>0.7538439331109222</v>
+        <v>0.7051391211988943</v>
       </c>
       <c r="E39">
-        <v>1.035585142224106</v>
+        <v>1.036813073289158</v>
       </c>
       <c r="F39">
-        <v>75281.13903724252</v>
+        <v>108135.7357558151</v>
       </c>
       <c r="G39">
-        <v>92.66230010986328</v>
+        <v>76.80326080322266</v>
       </c>
       <c r="H39">
-        <v>0.0877629816532135</v>
+        <v>0.1017491444945335</v>
       </c>
       <c r="I39">
-        <v>0.001114036072976887</v>
+        <v>0.0007276656688190997</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>105.2559781117833</v>
+        <v>105.381683380813</v>
       </c>
       <c r="B40">
-        <v>0.1123944823763787</v>
+        <v>0.07704281765023344</v>
       </c>
       <c r="C40">
-        <v>0.001103174284357493</v>
+        <v>0.0008757331390162088</v>
       </c>
       <c r="D40">
-        <v>0.6962324545474903</v>
+        <v>0.7366798418087989</v>
       </c>
       <c r="E40">
-        <v>1.030914796549939</v>
+        <v>1.036145897176781</v>
       </c>
       <c r="F40">
-        <v>68905.38191617109</v>
+        <v>93581.48987092268</v>
       </c>
       <c r="G40">
-        <v>103.9529876708984</v>
+        <v>106.6594848632812</v>
       </c>
       <c r="H40">
-        <v>0.1127211824059486</v>
+        <v>0.0762021392583847</v>
       </c>
       <c r="I40">
-        <v>0.001105529372580349</v>
+        <v>0.0008709004032425582</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>86.36931414546802</v>
+        <v>114.7238844368376</v>
       </c>
       <c r="B41">
-        <v>0.09489141216001384</v>
+        <v>0.07959071721125148</v>
       </c>
       <c r="C41">
-        <v>0.001269316612432304</v>
+        <v>0.0011290315584791</v>
       </c>
       <c r="D41">
-        <v>0.7518829660278734</v>
+        <v>0.7508367958983412</v>
       </c>
       <c r="E41">
-        <v>1.035139481652131</v>
+        <v>1.034256297073972</v>
       </c>
       <c r="F41">
-        <v>66060.09710720505</v>
+        <v>73501.88707845574</v>
       </c>
       <c r="G41">
-        <v>86.4951171875</v>
+        <v>116.6316070556641</v>
       </c>
       <c r="H41">
-        <v>0.09502165764570236</v>
+        <v>0.08014797419309616</v>
       </c>
       <c r="I41">
-        <v>0.00126872246619314</v>
+        <v>0.001131046796217561</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>92.25116795307332</v>
+        <v>120.8890228208191</v>
       </c>
       <c r="B42">
-        <v>0.09163273362915354</v>
+        <v>0.07280838128273133</v>
       </c>
       <c r="C42">
-        <v>0.0007016219283361016</v>
+        <v>0.0009508655270488005</v>
       </c>
       <c r="D42">
-        <v>0.6934947275432691</v>
+        <v>0.739061649744676</v>
       </c>
       <c r="E42">
-        <v>1.035400807351477</v>
+        <v>1.035322645648141</v>
       </c>
       <c r="F42">
-        <v>109687.0143272433</v>
+        <v>85958.50187762419</v>
       </c>
       <c r="G42">
-        <v>89.56159973144531</v>
+        <v>109.4487686157227</v>
       </c>
       <c r="H42">
-        <v>0.0941518172621727</v>
+        <v>0.07927943766117096</v>
       </c>
       <c r="I42">
-        <v>0.0007070438587106764</v>
+        <v>0.0009533663978800178</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>81.82325681113838</v>
+        <v>126.1499248130073</v>
       </c>
       <c r="B43">
-        <v>0.1197194148733443</v>
+        <v>0.128243886566238</v>
       </c>
       <c r="C43">
-        <v>0.001088317992336421</v>
+        <v>0.0008037708125626938</v>
       </c>
       <c r="D43">
-        <v>0.7050096455135749</v>
+        <v>0.6029673937061979</v>
       </c>
       <c r="E43">
-        <v>1.032470441238011</v>
+        <v>1.031530081986548</v>
       </c>
       <c r="F43">
-        <v>71506.19640667473</v>
+        <v>80746.29404517659</v>
       </c>
       <c r="G43">
-        <v>81.18145751953125</v>
+        <v>126.2087249755859</v>
       </c>
       <c r="H43">
-        <v>0.1197579130530357</v>
+        <v>0.1271478831768036</v>
       </c>
       <c r="I43">
-        <v>0.001085876952856779</v>
+        <v>0.0007987985736690462</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>97.59135302536043</v>
+        <v>129.0055745356385</v>
       </c>
       <c r="B44">
-        <v>0.1254980147171915</v>
+        <v>0.07023162109061568</v>
       </c>
       <c r="C44">
-        <v>0.001060235342258584</v>
+        <v>0.0007643264472571276</v>
       </c>
       <c r="D44">
-        <v>0.679845040524699</v>
+        <v>0.6998361324272053</v>
       </c>
       <c r="E44">
-        <v>1.030373915357333</v>
+        <v>1.035658125287306</v>
       </c>
       <c r="F44">
-        <v>69938.16159228876</v>
+        <v>100794.3314531837</v>
       </c>
       <c r="G44">
-        <v>98.16220092773438</v>
+        <v>80.47441864013672</v>
       </c>
       <c r="H44">
-        <v>0.1250596791505814</v>
+        <v>0.105047345161438</v>
       </c>
       <c r="I44">
-        <v>0.001061731367371976</v>
+        <v>0.0007690023048780859</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>72.67673807524685</v>
+        <v>93.98810153347155</v>
       </c>
       <c r="B45">
-        <v>0.07276043865323782</v>
+        <v>0.08071479808345938</v>
       </c>
       <c r="C45">
-        <v>0.001053243765982173</v>
+        <v>0.001190403466876973</v>
       </c>
       <c r="D45">
-        <v>0.7960775568917287</v>
+        <v>0.7704451941239479</v>
       </c>
       <c r="E45">
-        <v>1.046506692738404</v>
+        <v>1.036719414338063</v>
       </c>
       <c r="F45">
-        <v>87496.15324522577</v>
+        <v>72501.27757884889</v>
       </c>
       <c r="G45">
-        <v>67.03541564941406</v>
+        <v>93.89958190917969</v>
       </c>
       <c r="H45">
-        <v>0.07487544417381287</v>
+        <v>0.08147343248128891</v>
       </c>
       <c r="I45">
-        <v>0.00108410557731986</v>
+        <v>0.001190944807603955</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>117.9877530742371</v>
+        <v>92.82011101165439</v>
       </c>
       <c r="B46">
-        <v>0.08395761956978594</v>
+        <v>0.1067720051870195</v>
       </c>
       <c r="C46">
-        <v>0.001277662191904146</v>
+        <v>0.0009838857870793866</v>
       </c>
       <c r="D46">
-        <v>0.7509299937011242</v>
+        <v>0.7067630703690788</v>
       </c>
       <c r="E46">
-        <v>1.033119442785878</v>
+        <v>1.032597290472734</v>
       </c>
       <c r="F46">
-        <v>64684.70715238346</v>
+        <v>79147.15046677139</v>
       </c>
       <c r="G46">
-        <v>121.2904052734375</v>
+        <v>102.3271331787109</v>
       </c>
       <c r="H46">
-        <v>0.08239626884460449</v>
+        <v>0.1000404432415962</v>
       </c>
       <c r="I46">
-        <v>0.001273405854590237</v>
+        <v>0.0009781128028407693</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>74.61738681919796</v>
+        <v>78.86852060183634</v>
       </c>
       <c r="B47">
-        <v>0.09091116216955381</v>
+        <v>0.07488217593119832</v>
       </c>
       <c r="C47">
-        <v>0.0007101230040220238</v>
+        <v>0.001229370203151464</v>
       </c>
       <c r="D47">
-        <v>0.7244345893679132</v>
+        <v>0.7946483901024534</v>
       </c>
       <c r="E47">
-        <v>1.039793888232167</v>
+        <v>1.042722658883091</v>
       </c>
       <c r="F47">
-        <v>115267.9589654767</v>
+        <v>73986.15181765612</v>
       </c>
       <c r="G47">
-        <v>75.69480133056641</v>
+        <v>78.06148529052734</v>
       </c>
       <c r="H47">
-        <v>0.09072653204202652</v>
+        <v>0.07532857358455658</v>
       </c>
       <c r="I47">
-        <v>0.0007087451522238553</v>
+        <v>0.001226019929163158</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>101.1301089298916</v>
+        <v>111.0960663210136</v>
       </c>
       <c r="B48">
-        <v>0.1188979887622148</v>
+        <v>0.1229137901858099</v>
       </c>
       <c r="C48">
-        <v>0.00111788945842087</v>
+        <v>0.001139973480590036</v>
       </c>
       <c r="D48">
-        <v>0.6912308563746256</v>
+        <v>0.6777699228715108</v>
       </c>
       <c r="E48">
-        <v>1.030582143795597</v>
+        <v>1.030043546053327</v>
       </c>
       <c r="F48">
-        <v>67484.36802223547</v>
+        <v>64519.41239221603</v>
       </c>
       <c r="G48">
-        <v>101.3959884643555</v>
+        <v>109.9700164794922</v>
       </c>
       <c r="H48">
-        <v>0.1185252144932747</v>
+        <v>0.1233293190598488</v>
       </c>
       <c r="I48">
-        <v>0.001119305961765349</v>
+        <v>0.001138519961386919</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>88.40860597271177</v>
+        <v>109.4057175064502</v>
       </c>
       <c r="B49">
-        <v>0.1291294856585979</v>
+        <v>0.1131772094705373</v>
       </c>
       <c r="C49">
-        <v>0.001188207189821118</v>
+        <v>0.0009458357233784461</v>
       </c>
       <c r="D49">
-        <v>0.6919033983012089</v>
+        <v>0.6727844373847738</v>
       </c>
       <c r="E49">
-        <v>1.030646211324407</v>
+        <v>1.031008651106888</v>
       </c>
       <c r="F49">
-        <v>63764.65667907918</v>
+        <v>77450.65188049707</v>
       </c>
       <c r="G49">
-        <v>113.8244171142578</v>
+        <v>104.50537109375</v>
       </c>
       <c r="H49">
-        <v>0.1140708923339844</v>
+        <v>0.1168106123805046</v>
       </c>
       <c r="I49">
-        <v>0.001184737193398178</v>
+        <v>0.0009459425345994532</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>104.6525769298825</v>
+        <v>121.7237557510724</v>
       </c>
       <c r="B50">
-        <v>0.1281383022802211</v>
+        <v>0.1279833982862736</v>
       </c>
       <c r="C50">
-        <v>0.00100588431797295</v>
+        <v>0.0009241066084934102</v>
       </c>
       <c r="D50">
-        <v>0.6631027374126225</v>
+        <v>0.6319225437791637</v>
       </c>
       <c r="E50">
-        <v>1.030085450172494</v>
+        <v>1.03064278021354</v>
       </c>
       <c r="F50">
-        <v>71594.81767578296</v>
+        <v>73766.93952127633</v>
       </c>
       <c r="G50">
-        <v>106.1189804077148</v>
+        <v>120.1783905029297</v>
       </c>
       <c r="H50">
-        <v>0.1276006996631622</v>
+        <v>0.1280969828367233</v>
       </c>
       <c r="I50">
-        <v>0.001007228158414364</v>
+        <v>0.0009213577141053975</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>127.5660004500055</v>
+        <v>75.83547968725844</v>
       </c>
       <c r="B51">
-        <v>0.1242969007329956</v>
+        <v>0.1004581328344459</v>
       </c>
       <c r="C51">
-        <v>0.0009003789217580855</v>
+        <v>0.001009383007990751</v>
       </c>
       <c r="D51">
-        <v>0.6259005328052535</v>
+        <v>0.7363906439594139</v>
       </c>
       <c r="E51">
-        <v>1.031171667836335</v>
+        <v>1.036775740262979</v>
       </c>
       <c r="F51">
-        <v>74907.90416122538</v>
+        <v>81819.06652363189</v>
       </c>
       <c r="G51">
-        <v>127.9116287231445</v>
+        <v>74.73857116699219</v>
       </c>
       <c r="H51">
-        <v>0.1229602247476578</v>
+        <v>0.1014592573046684</v>
       </c>
       <c r="I51">
-        <v>0.0009050829103216529</v>
+        <v>0.001001103431917727</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>108.7342146673602</v>
+        <v>99.86661446952051</v>
       </c>
       <c r="B52">
-        <v>0.0877933759038418</v>
+        <v>0.08802422098950924</v>
       </c>
       <c r="C52">
-        <v>0.001174504097936443</v>
+        <v>0.001233435971913837</v>
       </c>
       <c r="D52">
-        <v>0.7430278315328751</v>
+        <v>0.7537725012292393</v>
       </c>
       <c r="E52">
-        <v>1.033336105092942</v>
+        <v>1.034186742051913</v>
       </c>
       <c r="F52">
-        <v>69789.49170130971</v>
+        <v>67783.98712820212</v>
       </c>
       <c r="G52">
-        <v>115.0713882446289</v>
+        <v>99.12236022949219</v>
       </c>
       <c r="H52">
-        <v>0.08503691107034683</v>
+        <v>0.08881272375583649</v>
       </c>
       <c r="I52">
-        <v>0.00117310241330415</v>
+        <v>0.001236436190083623</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>72.12174614532945</v>
+        <v>104.8649157803238</v>
       </c>
       <c r="B53">
-        <v>0.1295206746048684</v>
+        <v>0.1029700343677163</v>
       </c>
       <c r="C53">
-        <v>0.0007583457553794547</v>
+        <v>0.001142367147828501</v>
       </c>
       <c r="D53">
-        <v>0.6713584894813033</v>
+        <v>0.7157282999257183</v>
       </c>
       <c r="E53">
-        <v>1.033607533822902</v>
+        <v>1.031756100998037</v>
       </c>
       <c r="F53">
-        <v>98010.1284636537</v>
+        <v>68697.25871099719</v>
       </c>
       <c r="G53">
-        <v>105.7280349731445</v>
+        <v>106.0357666015625</v>
       </c>
       <c r="H53">
-        <v>0.09949114173650742</v>
+        <v>0.1026739105582237</v>
       </c>
       <c r="I53">
-        <v>0.0007516465266235173</v>
+        <v>0.001144547713920474</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>95.82414637048367</v>
+        <v>84.49342240239511</v>
       </c>
       <c r="B54">
-        <v>0.08496520246338708</v>
+        <v>0.1258491230378784</v>
       </c>
       <c r="C54">
-        <v>0.0009652213826379551</v>
+        <v>0.0007030917785614139</v>
       </c>
       <c r="D54">
-        <v>0.7420933880525407</v>
+        <v>0.6485887452622191</v>
       </c>
       <c r="E54">
-        <v>1.035682225718927</v>
+        <v>1.032079238179593</v>
       </c>
       <c r="F54">
-        <v>85650.62930443509</v>
+        <v>101240.6048194076</v>
       </c>
       <c r="G54">
-        <v>96.36549377441406</v>
+        <v>88.47726440429688</v>
       </c>
       <c r="H54">
-        <v>0.08467905968427658</v>
+        <v>0.1213109865784645</v>
       </c>
       <c r="I54">
-        <v>0.000967401429079473</v>
+        <v>0.0007105075637809932</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>100.601011139095</v>
+        <v>80.14152436774968</v>
       </c>
       <c r="B55">
-        <v>0.07635436929293393</v>
+        <v>0.1012456862345116</v>
       </c>
       <c r="C55">
-        <v>0.001011971424742503</v>
+        <v>0.001116494710821475</v>
       </c>
       <c r="D55">
-        <v>0.7603720637778855</v>
+        <v>0.737755870750154</v>
       </c>
       <c r="E55">
-        <v>1.036828579825647</v>
+        <v>1.035422239189387</v>
       </c>
       <c r="F55">
-        <v>84004.61666582579</v>
+        <v>73769.6885288677</v>
       </c>
       <c r="G55">
-        <v>100.1449813842773</v>
+        <v>79.98193359375</v>
       </c>
       <c r="H55">
-        <v>0.07679685950279236</v>
+        <v>0.1008702889084816</v>
       </c>
       <c r="I55">
-        <v>0.001012447173707187</v>
+        <v>0.001119478023611009</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>102.1706496822071</v>
+        <v>121.5748501851773</v>
       </c>
       <c r="B56">
-        <v>0.1270571566633237</v>
+        <v>0.08603242191173913</v>
       </c>
       <c r="C56">
-        <v>0.001116373846560729</v>
+        <v>0.001251704444143492</v>
       </c>
       <c r="D56">
-        <v>0.6780697042156889</v>
+        <v>0.741850301843517</v>
       </c>
       <c r="E56">
-        <v>1.030005205295823</v>
+        <v>1.032672393276567</v>
       </c>
       <c r="F56">
-        <v>66076.14349168811</v>
+        <v>65030.60797008016</v>
       </c>
       <c r="G56">
-        <v>103.7920989990234</v>
+        <v>117.3686904907227</v>
       </c>
       <c r="H56">
-        <v>0.1265228092670441</v>
+        <v>0.08810614794492722</v>
       </c>
       <c r="I56">
-        <v>0.001116330618970096</v>
+        <v>0.001248170388862491</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>110.8835506362303</v>
+        <v>73.51209533413353</v>
       </c>
       <c r="B57">
-        <v>0.08400521532808579</v>
+        <v>0.1226439273504472</v>
       </c>
       <c r="C57">
-        <v>0.0007545314392194457</v>
+        <v>0.001126273455702695</v>
       </c>
       <c r="D57">
-        <v>0.6916547124074117</v>
+        <v>0.7090537553834283</v>
       </c>
       <c r="E57">
-        <v>1.034493847375648</v>
+        <v>1.0337350308076</v>
       </c>
       <c r="F57">
-        <v>100974.4605230354</v>
+        <v>69877.24966730582</v>
       </c>
       <c r="G57">
-        <v>98.40957641601562</v>
+        <v>72.98419952392578</v>
       </c>
       <c r="H57">
-        <v>0.09314112365245819</v>
+        <v>0.1223855316638947</v>
       </c>
       <c r="I57">
-        <v>0.0007557827630080283</v>
+        <v>0.001125415554270148</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>86.65576586390597</v>
+        <v>98.23725423508438</v>
       </c>
       <c r="B58">
-        <v>0.111386095904665</v>
+        <v>0.09231512491074768</v>
       </c>
       <c r="C58">
-        <v>0.0008366557009227165</v>
+        <v>0.0008062034689404976</v>
       </c>
       <c r="D58">
-        <v>0.689383799471708</v>
+        <v>0.702897869144855</v>
       </c>
       <c r="E58">
-        <v>1.033062322258398</v>
+        <v>1.034277135924389</v>
       </c>
       <c r="F58">
-        <v>90919.80278843472</v>
+        <v>96382.64012371401</v>
       </c>
       <c r="G58">
-        <v>95.27127838134766</v>
+        <v>97.47975921630859</v>
       </c>
       <c r="H58">
-        <v>0.1049692332744598</v>
+        <v>0.09340403228998184</v>
       </c>
       <c r="I58">
-        <v>0.0008353876764886081</v>
+        <v>0.0008067961316555738</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>77.73163392797922</v>
+        <v>76.95004007805312</v>
       </c>
       <c r="B59">
-        <v>0.07350138153883533</v>
+        <v>0.07008300099993997</v>
       </c>
       <c r="C59">
-        <v>0.0009461809376140754</v>
+        <v>0.0009901108764564753</v>
       </c>
       <c r="D59">
-        <v>0.7836134480487633</v>
+        <v>0.7952391543879603</v>
       </c>
       <c r="E59">
-        <v>1.044085211243019</v>
+        <v>1.045809569639264</v>
       </c>
       <c r="F59">
-        <v>95046.12986299345</v>
+        <v>92726.65505905832</v>
       </c>
       <c r="G59">
-        <v>75.11820220947266</v>
+        <v>71.77478790283203</v>
       </c>
       <c r="H59">
-        <v>0.07472345978021622</v>
+        <v>0.07143482565879822</v>
       </c>
       <c r="I59">
-        <v>0.000950452929828316</v>
+        <v>0.001002095523290336</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>93.56054059282566</v>
+        <v>97.42352567988203</v>
       </c>
       <c r="B60">
-        <v>0.1138425459476486</v>
+        <v>0.08486110134953896</v>
       </c>
       <c r="C60">
-        <v>0.001073976803812078</v>
+        <v>0.0007841896107540516</v>
       </c>
       <c r="D60">
-        <v>0.7025635172614124</v>
+        <v>0.7153575000305042</v>
       </c>
       <c r="E60">
-        <v>1.031612313681576</v>
+        <v>1.035759001392109</v>
       </c>
       <c r="F60">
-        <v>71826.67372758154</v>
+        <v>101383.3216051622</v>
       </c>
       <c r="G60">
-        <v>108.4419631958008</v>
+        <v>102.1681137084961</v>
       </c>
       <c r="H60">
-        <v>0.1045316755771637</v>
+        <v>0.08100271224975586</v>
       </c>
       <c r="I60">
-        <v>0.001069853431545198</v>
+        <v>0.0007840448524802923</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>127.3843433677569</v>
+        <v>128.7977395805385</v>
       </c>
       <c r="B61">
-        <v>0.1229032127400304</v>
+        <v>0.08909401055062374</v>
       </c>
       <c r="C61">
-        <v>0.00123217646873045</v>
+        <v>0.0009153971670037792</v>
       </c>
       <c r="D61">
-        <v>0.6712166916028474</v>
+        <v>0.6878981894309247</v>
       </c>
       <c r="E61">
-        <v>1.030147368301491</v>
+        <v>1.032845146076316</v>
       </c>
       <c r="F61">
-        <v>58791.80820596583</v>
+        <v>81936.40473166673</v>
       </c>
       <c r="G61">
-        <v>128.6688079833984</v>
+        <v>102.4431915283203</v>
       </c>
       <c r="H61">
-        <v>0.1217095702886581</v>
+        <v>0.1083281114697456</v>
       </c>
       <c r="I61">
-        <v>0.001231450820341706</v>
+        <v>0.000920608697924763</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>81.22785350505069</v>
+        <v>95.42238120732837</v>
       </c>
       <c r="B62">
-        <v>0.08634621372795775</v>
+        <v>0.1215266480939141</v>
       </c>
       <c r="C62">
-        <v>0.001071295700944826</v>
+        <v>0.001262270225164311</v>
       </c>
       <c r="D62">
-        <v>0.7619142859920729</v>
+        <v>0.7016740500078656</v>
       </c>
       <c r="E62">
-        <v>1.038419625202974</v>
+        <v>1.03058134424215</v>
       </c>
       <c r="F62">
-        <v>80205.41899529703</v>
+        <v>60800.40810153226</v>
       </c>
       <c r="G62">
-        <v>81.76454162597656</v>
+        <v>108.2312088012695</v>
       </c>
       <c r="H62">
-        <v>0.08658402413129807</v>
+        <v>0.1145538985729218</v>
       </c>
       <c r="I62">
-        <v>0.001064549316652119</v>
+        <v>0.001255246577784419</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>124.2390372956942</v>
+        <v>121.427495050274</v>
       </c>
       <c r="B63">
-        <v>0.09274341376464572</v>
+        <v>0.0975101900239867</v>
       </c>
       <c r="C63">
-        <v>0.0007800768825609606</v>
+        <v>0.001253983184535225</v>
       </c>
       <c r="D63">
-        <v>0.6597863025784145</v>
+        <v>0.7200631229204343</v>
       </c>
       <c r="E63">
-        <v>1.032970371739583</v>
+        <v>1.031445803271471</v>
       </c>
       <c r="F63">
-        <v>92131.02580722452</v>
+        <v>62647.39736035832</v>
       </c>
       <c r="G63">
-        <v>124.0215759277344</v>
+        <v>112.301139831543</v>
       </c>
       <c r="H63">
-        <v>0.09147708863019943</v>
+        <v>0.1020333617925644</v>
       </c>
       <c r="I63">
-        <v>0.0007796850986778736</v>
+        <v>0.001256656367331743</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>102.6283570046396</v>
+        <v>77.03893385099164</v>
       </c>
       <c r="B64">
-        <v>0.09245777099925498</v>
+        <v>0.09667523726867805</v>
       </c>
       <c r="C64">
-        <v>0.001288348079672369</v>
+        <v>0.0008697021113056497</v>
       </c>
       <c r="D64">
-        <v>0.7464088696618176</v>
+        <v>0.7305748892924614</v>
       </c>
       <c r="E64">
-        <v>1.033110642448483</v>
+        <v>1.0373935757557</v>
       </c>
       <c r="F64">
-        <v>63972.07818035327</v>
+        <v>94312.37796708505</v>
       </c>
       <c r="G64">
-        <v>101.798942565918</v>
+        <v>76.17283630371094</v>
       </c>
       <c r="H64">
-        <v>0.09304580092430115</v>
+        <v>0.09731194376945496</v>
       </c>
       <c r="I64">
-        <v>0.001283018733374774</v>
+        <v>0.0008659679442644119</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>97.41468529874595</v>
+        <v>86.27512460571185</v>
       </c>
       <c r="B65">
-        <v>0.114927295452408</v>
+        <v>0.09016613598399326</v>
       </c>
       <c r="C65">
-        <v>0.001223071440853296</v>
+        <v>0.0009037786264997194</v>
       </c>
       <c r="D65">
-        <v>0.7080070840829442</v>
+        <v>0.7357543114695229</v>
       </c>
       <c r="E65">
-        <v>1.03102768386856</v>
+        <v>1.036480328452593</v>
       </c>
       <c r="F65">
-        <v>63405.30904623989</v>
+        <v>91032.41378563996</v>
       </c>
       <c r="G65">
-        <v>109.1905746459961</v>
+        <v>85.928955078125</v>
       </c>
       <c r="H65">
-        <v>0.1086888313293457</v>
+        <v>0.09059428423643112</v>
       </c>
       <c r="I65">
-        <v>0.001220465404912829</v>
+        <v>0.0008999753626994789</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>122.9224846137934</v>
+        <v>94.22756444004008</v>
       </c>
       <c r="B66">
-        <v>0.08426843455234234</v>
+        <v>0.1228406873828248</v>
       </c>
       <c r="C66">
-        <v>0.001001632456687194</v>
+        <v>0.001060127720878776</v>
       </c>
       <c r="D66">
-        <v>0.7180552447694034</v>
+        <v>0.6870354194766125</v>
       </c>
       <c r="E66">
-        <v>1.033268530745665</v>
+        <v>1.030766603696143</v>
       </c>
       <c r="F66">
-        <v>78613.79212365102</v>
+        <v>70876.83645246296</v>
       </c>
       <c r="G66">
-        <v>110.875373840332</v>
+        <v>99.63333892822266</v>
       </c>
       <c r="H66">
-        <v>0.09111536294221878</v>
+        <v>0.1193309277296066</v>
       </c>
       <c r="I66">
-        <v>0.001004948164336383</v>
+        <v>0.001058234367519617</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>97.51623770611515</v>
+        <v>93.98872840055984</v>
       </c>
       <c r="B67">
-        <v>0.08031118594285859</v>
+        <v>0.1267016066164235</v>
       </c>
       <c r="C67">
-        <v>0.00125340878907798</v>
+        <v>0.001277918377156228</v>
       </c>
       <c r="D67">
-        <v>0.7722176369821682</v>
+        <v>0.6959994828893421</v>
       </c>
       <c r="E67">
-        <v>1.036104146818188</v>
+        <v>1.030307595402386</v>
       </c>
       <c r="F67">
-        <v>68852.23097187662</v>
+        <v>59507.28083689478</v>
       </c>
       <c r="G67">
-        <v>97.78305053710938</v>
+        <v>109.5108261108398</v>
       </c>
       <c r="H67">
-        <v>0.08017534762620926</v>
+        <v>0.1183531135320663</v>
       </c>
       <c r="I67">
-        <v>0.001251144916750491</v>
+        <v>0.001268908148631454</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>113.4500581966926</v>
+        <v>110.2830087202092</v>
       </c>
       <c r="B68">
-        <v>0.0969574989212643</v>
+        <v>0.1295134197492778</v>
       </c>
       <c r="C68">
-        <v>0.001024828476254281</v>
+        <v>0.0007886808004392343</v>
       </c>
       <c r="D68">
-        <v>0.7062912258897861</v>
+        <v>0.6205977362955652</v>
       </c>
       <c r="E68">
-        <v>1.03211112486523</v>
+        <v>1.030720768159888</v>
       </c>
       <c r="F68">
-        <v>75426.07386768324</v>
+        <v>85139.37817486007</v>
       </c>
       <c r="G68">
-        <v>103.5736465454102</v>
+        <v>109.0429382324219</v>
       </c>
       <c r="H68">
-        <v>0.1035627275705338</v>
+        <v>0.1301527619361877</v>
       </c>
       <c r="I68">
-        <v>0.001024342724122107</v>
+        <v>0.0007876453455537558</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>93.94151930218612</v>
+        <v>90.68308764253047</v>
       </c>
       <c r="B69">
-        <v>0.08826810444263918</v>
+        <v>0.09260447601765921</v>
       </c>
       <c r="C69">
-        <v>0.001253983640733498</v>
+        <v>0.0008541499862120014</v>
       </c>
       <c r="D69">
-        <v>0.7586699818863659</v>
+        <v>0.7197115853229062</v>
       </c>
       <c r="E69">
-        <v>1.035012007433223</v>
+        <v>1.035234983887674</v>
       </c>
       <c r="F69">
-        <v>67379.14590141598</v>
+        <v>93686.10793409534</v>
       </c>
       <c r="G69">
-        <v>94.86302947998047</v>
+        <v>105.5469055175781</v>
       </c>
       <c r="H69">
-        <v>0.08765923231840134</v>
+        <v>0.0826667845249176</v>
       </c>
       <c r="I69">
-        <v>0.001251881360076368</v>
+        <v>0.0008467088919132948</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>124.2426635740575</v>
+        <v>112.826012104601</v>
       </c>
       <c r="B70">
-        <v>0.1203513473355191</v>
+        <v>0.1279688467376303</v>
       </c>
       <c r="C70">
-        <v>0.001197938421162006</v>
+        <v>0.001224134096374463</v>
       </c>
       <c r="D70">
-        <v>0.6746968088761803</v>
+        <v>0.6759704116954021</v>
       </c>
       <c r="E70">
-        <v>1.030193137125716</v>
+        <v>1.029642123796905</v>
       </c>
       <c r="F70">
-        <v>60883.36704473837</v>
+        <v>59807.79180488024</v>
       </c>
       <c r="G70">
-        <v>125.0317916870117</v>
+        <v>110.032112121582</v>
       </c>
       <c r="H70">
-        <v>0.1196629106998444</v>
+        <v>0.1295935362577438</v>
       </c>
       <c r="I70">
-        <v>0.001203107065521181</v>
+        <v>0.001218904624693096</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>111.4015012114736</v>
+        <v>108.3512139535235</v>
       </c>
       <c r="B71">
-        <v>0.08426450956093834</v>
+        <v>0.1175127741778541</v>
       </c>
       <c r="C71">
-        <v>0.001280971846176578</v>
+        <v>0.0009951353390250067</v>
       </c>
       <c r="D71">
-        <v>0.7555839016470159</v>
+        <v>0.6735316551968298</v>
       </c>
       <c r="E71">
-        <v>1.033555811974699</v>
+        <v>1.030639143358266</v>
       </c>
       <c r="F71">
-        <v>65132.60236384827</v>
+        <v>73632.63088688425</v>
       </c>
       <c r="G71">
-        <v>112.48974609375</v>
+        <v>105.0449905395508</v>
       </c>
       <c r="H71">
-        <v>0.08455976098775864</v>
+        <v>0.1200704202055931</v>
       </c>
       <c r="I71">
-        <v>0.001276864320971072</v>
+        <v>0.0009958785958588123</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>111.977323255031</v>
+        <v>93.94966871528638</v>
       </c>
       <c r="B72">
-        <v>0.1001433674493557</v>
+        <v>0.110541348858656</v>
       </c>
       <c r="C72">
-        <v>0.001251869686466895</v>
+        <v>0.001239376655336219</v>
       </c>
       <c r="D72">
-        <v>0.7229511346614532</v>
+        <v>0.7185133410622222</v>
       </c>
       <c r="E72">
-        <v>1.031511411718055</v>
+        <v>1.03177069477836</v>
       </c>
       <c r="F72">
-        <v>63192.32204673142</v>
+        <v>63746.79335910102</v>
       </c>
       <c r="G72">
-        <v>111.4057769775391</v>
+        <v>102.9731140136719</v>
       </c>
       <c r="H72">
-        <v>0.1007417738437653</v>
+        <v>0.1066054850816727</v>
       </c>
       <c r="I72">
-        <v>0.001254895934835076</v>
+        <v>0.00123877392616123</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>89.66322409342713</v>
+        <v>95.90560765925915</v>
       </c>
       <c r="B73">
-        <v>0.1265550159818758</v>
+        <v>0.08469336876520597</v>
       </c>
       <c r="C73">
-        <v>0.0007216202904571417</v>
+        <v>0.0008113107385139058</v>
       </c>
       <c r="D73">
-        <v>0.6428305941864779</v>
+        <v>0.7223852437768853</v>
       </c>
       <c r="E73">
-        <v>1.031502730793604</v>
+        <v>1.035978014498051</v>
       </c>
       <c r="F73">
-        <v>97420.35231875927</v>
+        <v>99110.88441039556</v>
       </c>
       <c r="G73">
-        <v>90.08791351318359</v>
+        <v>103.1757888793945</v>
       </c>
       <c r="H73">
-        <v>0.1257588565349579</v>
+        <v>0.07896748185157776</v>
       </c>
       <c r="I73">
-        <v>0.0007238259422592819</v>
+        <v>0.0008106106542982161</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>115.4067185642133</v>
+        <v>106.8716619886193</v>
       </c>
       <c r="B74">
-        <v>0.1080398618646796</v>
+        <v>0.08298743565665259</v>
       </c>
       <c r="C74">
-        <v>0.000804863202496564</v>
+        <v>0.001019601152482816</v>
       </c>
       <c r="D74">
-        <v>0.6497570369235045</v>
+        <v>0.740303439347461</v>
       </c>
       <c r="E74">
-        <v>1.031769793793699</v>
+        <v>1.034539950031452</v>
       </c>
       <c r="F74">
-        <v>87750.80997260317</v>
+        <v>80399.30772617376</v>
       </c>
       <c r="G74">
-        <v>116.6947937011719</v>
+        <v>113.6841506958008</v>
       </c>
       <c r="H74">
-        <v>0.1067973002791405</v>
+        <v>0.0802156925201416</v>
       </c>
       <c r="I74">
-        <v>0.0008084230939857662</v>
+        <v>0.00101686455309391</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>108.1636633268285</v>
+        <v>74.20253140867868</v>
       </c>
       <c r="B75">
-        <v>0.1220373643277479</v>
+        <v>0.07996286947127475</v>
       </c>
       <c r="C75">
-        <v>0.0009334808062607114</v>
+        <v>0.0008957617795896235</v>
       </c>
       <c r="D75">
-        <v>0.6587977449674783</v>
+        <v>0.7689674861784427</v>
       </c>
       <c r="E75">
-        <v>1.030527470122888</v>
+        <v>1.043049053587333</v>
       </c>
       <c r="F75">
-        <v>76653.88539524633</v>
+        <v>98209.31680748955</v>
       </c>
       <c r="G75">
-        <v>108.537353515625</v>
+        <v>71.90023803710938</v>
       </c>
       <c r="H75">
-        <v>0.1221109926700592</v>
+        <v>0.08134298026561737</v>
       </c>
       <c r="I75">
-        <v>0.0009327598381787539</v>
+        <v>0.0009030126384459436</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>84.40121640278258</v>
+        <v>119.3444043013414</v>
       </c>
       <c r="B76">
-        <v>0.1264125813612861</v>
+        <v>0.1253653966135219</v>
       </c>
       <c r="C76">
-        <v>0.001271285618377252</v>
+        <v>0.0008899255359354856</v>
       </c>
       <c r="D76">
-        <v>0.7024793765763708</v>
+        <v>0.6330084944063089</v>
       </c>
       <c r="E76">
-        <v>1.031315405841372</v>
+        <v>1.030755158325317</v>
       </c>
       <c r="F76">
-        <v>60725.36999170583</v>
+        <v>76831.71262548529</v>
       </c>
       <c r="G76">
-        <v>83.81585693359375</v>
+        <v>117.9119415283203</v>
       </c>
       <c r="H76">
-        <v>0.1277800500392914</v>
+        <v>0.1257322430610657</v>
       </c>
       <c r="I76">
-        <v>0.001270385924726725</v>
+        <v>0.0008864194387570024</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>79.63232934911538</v>
+        <v>109.2052696668182</v>
       </c>
       <c r="B77">
-        <v>0.1150458917131811</v>
+        <v>0.08764459974298996</v>
       </c>
       <c r="C77">
-        <v>0.0008800173516855577</v>
+        <v>0.0009681261783677194</v>
       </c>
       <c r="D77">
-        <v>0.6975019059942623</v>
+        <v>0.7220785565286042</v>
       </c>
       <c r="E77">
-        <v>1.033650535675252</v>
+        <v>1.033628973032096</v>
       </c>
       <c r="F77">
-        <v>87796.77035541096</v>
+        <v>82201.18354226797</v>
       </c>
       <c r="G77">
-        <v>101.3415756225586</v>
+        <v>106.1610565185547</v>
       </c>
       <c r="H77">
-        <v>0.1014638543128967</v>
+        <v>0.09034965932369232</v>
       </c>
       <c r="I77">
-        <v>0.0008716871379874647</v>
+        <v>0.0009696384076960385</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>117.7834884710399</v>
+        <v>113.5805478650701</v>
       </c>
       <c r="B78">
-        <v>0.1119745036134851</v>
+        <v>0.09718565472693272</v>
       </c>
       <c r="C78">
-        <v>0.0007962805863325608</v>
+        <v>0.000959846469460761</v>
       </c>
       <c r="D78">
-        <v>0.6380377911827911</v>
+        <v>0.6974252086273918</v>
       </c>
       <c r="E78">
-        <v>1.031612526939057</v>
+        <v>1.032195846360961</v>
       </c>
       <c r="F78">
-        <v>86886.12262938012</v>
+        <v>79486.26041960322</v>
       </c>
       <c r="G78">
-        <v>118.336067199707</v>
+        <v>102.2858505249023</v>
       </c>
       <c r="H78">
-        <v>0.1118811592459679</v>
+        <v>0.1046614423394203</v>
       </c>
       <c r="I78">
-        <v>0.0007995521882548928</v>
+        <v>0.000963313621468842</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>127.5499961821133</v>
+        <v>102.2153800649434</v>
       </c>
       <c r="B79">
-        <v>0.1280779339962536</v>
+        <v>0.09963747003923341</v>
       </c>
       <c r="C79">
-        <v>0.001231782799651936</v>
+        <v>0.0009144081278067726</v>
       </c>
       <c r="D79">
-        <v>0.6634964277345259</v>
+        <v>0.7003157765725175</v>
       </c>
       <c r="E79">
-        <v>1.029959214291003</v>
+        <v>1.032682037897726</v>
       </c>
       <c r="F79">
-        <v>58060.50686722877</v>
+        <v>84169.10097053806</v>
       </c>
       <c r="G79">
-        <v>128.0068511962891</v>
+        <v>102.0933380126953</v>
       </c>
       <c r="H79">
-        <v>0.1272306144237518</v>
+        <v>0.09948776662349701</v>
       </c>
       <c r="I79">
-        <v>0.001224495354108512</v>
+        <v>0.000916847144253552</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>97.48832963560257</v>
+        <v>76.62862665950469</v>
       </c>
       <c r="B80">
-        <v>0.1296640473788608</v>
+        <v>0.1166902957270153</v>
       </c>
       <c r="C80">
-        <v>0.0009678366492899215</v>
+        <v>0.001248982462189371</v>
       </c>
       <c r="D80">
-        <v>0.6646465653657745</v>
+        <v>0.7206819979920019</v>
       </c>
       <c r="E80">
-        <v>1.030263532339096</v>
+        <v>1.033756040737481</v>
       </c>
       <c r="F80">
-        <v>74788.82177647536</v>
+        <v>64060.52365112171</v>
       </c>
       <c r="G80">
-        <v>99.15861511230469</v>
+        <v>76.60614013671875</v>
       </c>
       <c r="H80">
-        <v>0.1287392675876617</v>
+        <v>0.1170766353607178</v>
       </c>
       <c r="I80">
-        <v>0.0009709441801533103</v>
+        <v>0.001246946398168802</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>105.4590499194211</v>
+        <v>94.302136797817</v>
       </c>
       <c r="B81">
-        <v>0.09710930096018558</v>
+        <v>0.1206540976931814</v>
       </c>
       <c r="C81">
-        <v>0.001244725356612596</v>
+        <v>0.001139046511259736</v>
       </c>
       <c r="D81">
-        <v>0.7330835464877613</v>
+        <v>0.6963221414745223</v>
       </c>
       <c r="E81">
-        <v>1.032261673029421</v>
+        <v>1.030859552072446</v>
       </c>
       <c r="F81">
-        <v>64754.33660467443</v>
+        <v>66917.33520767967</v>
       </c>
       <c r="G81">
-        <v>117.2647018432617</v>
+        <v>104.0646896362305</v>
       </c>
       <c r="H81">
-        <v>0.09138939529657364</v>
+        <v>0.1150055974721909</v>
       </c>
       <c r="I81">
-        <v>0.001240407815203071</v>
+        <v>0.001137807965278625</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>121.4633586516133</v>
+        <v>94.32241497091337</v>
       </c>
       <c r="B82">
-        <v>0.0742521866910525</v>
+        <v>0.07834436206891678</v>
       </c>
       <c r="C82">
-        <v>0.0007961382797920859</v>
+        <v>0.001136528194798918</v>
       </c>
       <c r="D82">
-        <v>0.7076041795928416</v>
+        <v>0.7718915399280692</v>
       </c>
       <c r="E82">
-        <v>1.035283742949076</v>
+        <v>1.037313167835007</v>
       </c>
       <c r="F82">
-        <v>97999.7925337427</v>
+        <v>76211.84154469764</v>
       </c>
       <c r="G82">
-        <v>105.76025390625</v>
+        <v>94.12310791015625</v>
       </c>
       <c r="H82">
-        <v>0.0846412405371666</v>
+        <v>0.07913605868816376</v>
       </c>
       <c r="I82">
-        <v>0.0007893650326877832</v>
+        <v>0.001135451719164848</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>97.43340720123143</v>
+        <v>89.26257940259302</v>
       </c>
       <c r="B83">
-        <v>0.08756764188643114</v>
+        <v>0.09561426161266443</v>
       </c>
       <c r="C83">
-        <v>0.00109667050690486</v>
+        <v>0.0008739480697551733</v>
       </c>
       <c r="D83">
-        <v>0.7472925607450387</v>
+        <v>0.7183531697623106</v>
       </c>
       <c r="E83">
-        <v>1.034756772865848</v>
+        <v>1.034896914913591</v>
       </c>
       <c r="F83">
-        <v>75711.17553040909</v>
+        <v>91325.56848006879</v>
       </c>
       <c r="G83">
-        <v>96.71404266357422</v>
+        <v>106.8002014160156</v>
       </c>
       <c r="H83">
-        <v>0.08898752182722092</v>
+        <v>0.08425910770893097</v>
       </c>
       <c r="I83">
-        <v>0.001093859784305096</v>
+        <v>0.0008641164167784154</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>127.1124686099642</v>
+        <v>71.79701949428497</v>
       </c>
       <c r="B84">
-        <v>0.07914128234126383</v>
+        <v>0.1205712932701274</v>
       </c>
       <c r="C84">
-        <v>0.0009641582516976951</v>
+        <v>0.001046625654590104</v>
       </c>
       <c r="D84">
-        <v>0.7191205251652686</v>
+        <v>0.7095654637969709</v>
       </c>
       <c r="E84">
-        <v>1.033881883859647</v>
+        <v>1.034476064584767</v>
       </c>
       <c r="F84">
-        <v>81860.39258686568</v>
+        <v>75441.34946248977</v>
       </c>
       <c r="G84">
-        <v>111.8480606079102</v>
+        <v>71.73715209960938</v>
       </c>
       <c r="H84">
-        <v>0.08825567364692688</v>
+        <v>0.1206203624606133</v>
       </c>
       <c r="I84">
-        <v>0.0009704059339128435</v>
+        <v>0.001044698292389512</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>104.5450697226923</v>
+        <v>114.2352545557886</v>
       </c>
       <c r="B85">
-        <v>0.09504918248776072</v>
+        <v>0.1190819983453503</v>
       </c>
       <c r="C85">
-        <v>0.0007458920614181712</v>
+        <v>0.001167507659981101</v>
       </c>
       <c r="D85">
-        <v>0.6769216282699558</v>
+        <v>0.6830629939637342</v>
       </c>
       <c r="E85">
-        <v>1.033430588323553</v>
+        <v>1.030179124835699</v>
       </c>
       <c r="F85">
-        <v>99708.62786581762</v>
+        <v>63490.12553397731</v>
       </c>
       <c r="G85">
-        <v>89.78704833984375</v>
+        <v>111.4974594116211</v>
       </c>
       <c r="H85">
-        <v>0.1078937128186226</v>
+        <v>0.1203430518507957</v>
       </c>
       <c r="I85">
-        <v>0.0007481934153474867</v>
+        <v>0.001168973161838949</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>119.2460272420789</v>
+        <v>76.58706748375005</v>
       </c>
       <c r="B86">
-        <v>0.07787735970839536</v>
+        <v>0.07614482550714499</v>
       </c>
       <c r="C86">
-        <v>0.0011178778867915</v>
+        <v>0.001177354221125928</v>
       </c>
       <c r="D86">
-        <v>0.7493032501972013</v>
+        <v>0.791371545217794</v>
       </c>
       <c r="E86">
-        <v>1.034231378771473</v>
+        <v>1.043176772198835</v>
       </c>
       <c r="F86">
-        <v>73985.46739173371</v>
+        <v>77041.27100917042</v>
       </c>
       <c r="G86">
-        <v>117.2825622558594</v>
+        <v>75.12838745117188</v>
       </c>
       <c r="H86">
-        <v>0.07916270196437836</v>
+        <v>0.07689573615789413</v>
       </c>
       <c r="I86">
-        <v>0.001119646476581693</v>
+        <v>0.001176573685370386</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>124.5306231047643</v>
+        <v>106.3784879827051</v>
       </c>
       <c r="B87">
-        <v>0.1062470682412529</v>
+        <v>0.07938300093207779</v>
       </c>
       <c r="C87">
-        <v>0.0008484392533234922</v>
+        <v>0.0009067182764525872</v>
       </c>
       <c r="D87">
-        <v>0.648923827436609</v>
+        <v>0.7346907753429761</v>
       </c>
       <c r="E87">
-        <v>1.031856827061071</v>
+        <v>1.035472057678785</v>
       </c>
       <c r="F87">
-        <v>82911.56533387257</v>
+        <v>89931.80489764991</v>
       </c>
       <c r="G87">
-        <v>125.4417037963867</v>
+        <v>107.0807418823242</v>
       </c>
       <c r="H87">
-        <v>0.1055661514401436</v>
+        <v>0.07957113534212112</v>
       </c>
       <c r="I87">
-        <v>0.0008483530255034566</v>
+        <v>0.0009079063311219215</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>118.9314291261141</v>
+        <v>112.1930497880329</v>
       </c>
       <c r="B88">
-        <v>0.09296848354947125</v>
+        <v>0.08825192149596446</v>
       </c>
       <c r="C88">
-        <v>0.0007237693135477107</v>
+        <v>0.001162523653941189</v>
       </c>
       <c r="D88">
-        <v>0.6537496311955058</v>
+        <v>0.7381123390199201</v>
       </c>
       <c r="E88">
-        <v>1.033183957046324</v>
+        <v>1.033015814612571</v>
       </c>
       <c r="F88">
-        <v>98551.70281246703</v>
+        <v>69886.77950814713</v>
       </c>
       <c r="G88">
-        <v>119.5552673339844</v>
+        <v>112.7958297729492</v>
       </c>
       <c r="H88">
-        <v>0.09290625900030136</v>
+        <v>0.08887942880392075</v>
       </c>
       <c r="I88">
-        <v>0.000729240826331079</v>
+        <v>0.001161974621936679</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>79.56486780693736</v>
+        <v>108.0871793760217</v>
       </c>
       <c r="B89">
-        <v>0.1237231530572926</v>
+        <v>0.07452154414500042</v>
       </c>
       <c r="C89">
-        <v>0.0007359665789497439</v>
+        <v>0.00114153633808464</v>
       </c>
       <c r="D89">
-        <v>0.6653850712084747</v>
+        <v>0.7691292899537185</v>
       </c>
       <c r="E89">
-        <v>1.032892603805527</v>
+        <v>1.036004964722029</v>
       </c>
       <c r="F89">
-        <v>99694.11763294638</v>
+        <v>75077.80795187084</v>
       </c>
       <c r="G89">
-        <v>91.36074829101562</v>
+        <v>108.3677139282227</v>
       </c>
       <c r="H89">
-        <v>0.1115636602044106</v>
+        <v>0.07455265522003174</v>
       </c>
       <c r="I89">
-        <v>0.0007314241956919432</v>
+        <v>0.001142293564043939</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>107.733906343702</v>
+        <v>127.5485351186785</v>
       </c>
       <c r="B90">
-        <v>0.1280676803079101</v>
+        <v>0.09547978017043558</v>
       </c>
       <c r="C90">
-        <v>0.0007366471222400724</v>
+        <v>0.0007849038913731401</v>
       </c>
       <c r="D90">
-        <v>0.6153932575825869</v>
+        <v>0.6508492479377164</v>
       </c>
       <c r="E90">
-        <v>1.030950496853446</v>
+        <v>1.032720088057245</v>
       </c>
       <c r="F90">
-        <v>90483.33742782936</v>
+        <v>90106.18543839187</v>
       </c>
       <c r="G90">
-        <v>106.1970291137695</v>
+        <v>124.4841842651367</v>
       </c>
       <c r="H90">
-        <v>0.1281895488500595</v>
+        <v>0.09686605632305145</v>
       </c>
       <c r="I90">
-        <v>0.0007382380426861346</v>
+        <v>0.0007861975464038551</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>93.90605551718062</v>
+        <v>76.19788930510832</v>
       </c>
       <c r="B91">
-        <v>0.1028130941001653</v>
+        <v>0.07645706230897492</v>
       </c>
       <c r="C91">
-        <v>0.001244639774491023</v>
+        <v>0.001219567281139886</v>
       </c>
       <c r="D91">
-        <v>0.7316732971255329</v>
+        <v>0.7924240861125591</v>
       </c>
       <c r="E91">
-        <v>1.032685375593823</v>
+        <v>1.043186739430791</v>
       </c>
       <c r="F91">
-        <v>64886.44043736569</v>
+        <v>74486.43958519514</v>
       </c>
       <c r="G91">
-        <v>93.94700622558594</v>
+        <v>74.87374114990234</v>
       </c>
       <c r="H91">
-        <v>0.1021612137556076</v>
+        <v>0.07722079008817673</v>
       </c>
       <c r="I91">
-        <v>0.001245668274350464</v>
+        <v>0.00121659878641367</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>73.76277712140075</v>
+        <v>122.030029546312</v>
       </c>
       <c r="B92">
-        <v>0.0864894141920558</v>
+        <v>0.1040930556201907</v>
       </c>
       <c r="C92">
-        <v>0.001143930350697461</v>
+        <v>0.0009647928821082464</v>
       </c>
       <c r="D92">
-        <v>0.7706467206901308</v>
+        <v>0.6757118671480584</v>
       </c>
       <c r="E92">
-        <v>1.040790036772196</v>
+        <v>1.0315330772985</v>
       </c>
       <c r="F92">
-        <v>76623.48701136459</v>
+        <v>76110.79029304822</v>
       </c>
       <c r="G92">
-        <v>73.71344757080078</v>
+        <v>122.3652267456055</v>
       </c>
       <c r="H92">
-        <v>0.08673055469989777</v>
+        <v>0.1035260409116745</v>
       </c>
       <c r="I92">
-        <v>0.001142336870543659</v>
+        <v>0.0009601544006727636</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>95.44193511339051</v>
+        <v>71.7514140909348</v>
       </c>
       <c r="B93">
-        <v>0.1055338251257102</v>
+        <v>0.08479341638866937</v>
       </c>
       <c r="C93">
-        <v>0.001238837414328241</v>
+        <v>0.0009918462693331992</v>
       </c>
       <c r="D93">
-        <v>0.7256462172873204</v>
+        <v>0.7681210643854236</v>
       </c>
       <c r="E93">
-        <v>1.032179325029711</v>
+        <v>1.042269179560916</v>
       </c>
       <c r="F93">
-        <v>64501.18126361145</v>
+        <v>88450.38531118227</v>
       </c>
       <c r="G93">
-        <v>96.75543975830078</v>
+        <v>70.11053466796875</v>
       </c>
       <c r="H93">
-        <v>0.1050827503204346</v>
+        <v>0.08626562356948853</v>
       </c>
       <c r="I93">
-        <v>0.001239266362972558</v>
+        <v>0.0009889309294521809</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>85.52104401336446</v>
+        <v>102.095011295625</v>
       </c>
       <c r="B94">
-        <v>0.1238056694934646</v>
+        <v>0.1057859839209774</v>
       </c>
       <c r="C94">
-        <v>0.001103549386777913</v>
+        <v>0.0009690215073387984</v>
       </c>
       <c r="D94">
-        <v>0.6968013165638276</v>
+        <v>0.6965600237800346</v>
       </c>
       <c r="E94">
-        <v>1.03150404141189</v>
+        <v>1.031910839476658</v>
       </c>
       <c r="F94">
-        <v>69399.16449259431</v>
+        <v>78793.81524920063</v>
       </c>
       <c r="G94">
-        <v>112.8111419677734</v>
+        <v>100.565185546875</v>
       </c>
       <c r="H94">
-        <v>0.1072665452957153</v>
+        <v>0.1065004914999008</v>
       </c>
       <c r="I94">
-        <v>0.001097441534511745</v>
+        <v>0.0009728235309012234</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>120.9422985057106</v>
+        <v>94.25461707635554</v>
       </c>
       <c r="B95">
-        <v>0.09440400075014491</v>
+        <v>0.07705153857421826</v>
       </c>
       <c r="C95">
-        <v>0.00101736395741853</v>
+        <v>0.001040707600886504</v>
       </c>
       <c r="D95">
-        <v>0.7019811369707896</v>
+        <v>0.7676427887122367</v>
       </c>
       <c r="E95">
-        <v>1.032161813812102</v>
+        <v>1.037787604122255</v>
       </c>
       <c r="F95">
-        <v>75342.83873796505</v>
+        <v>82853.09738367423</v>
       </c>
       <c r="G95">
-        <v>108.9831008911133</v>
+        <v>94.56720733642578</v>
       </c>
       <c r="H95">
-        <v>0.1021992117166519</v>
+        <v>0.07753278315067291</v>
       </c>
       <c r="I95">
-        <v>0.001017640926875174</v>
+        <v>0.001039185444824398</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>71.99827759280177</v>
+        <v>101.4510316236255</v>
       </c>
       <c r="B96">
-        <v>0.1031246966015183</v>
+        <v>0.128553032105112</v>
       </c>
       <c r="C96">
-        <v>0.000882667818608427</v>
+        <v>0.001072701548420233</v>
       </c>
       <c r="D96">
-        <v>0.7260549708526954</v>
+        <v>0.6727593419467991</v>
       </c>
       <c r="E96">
-        <v>1.037535575450454</v>
+        <v>1.030008326803699</v>
       </c>
       <c r="F96">
-        <v>92438.69897281061</v>
+        <v>68213.19844987047</v>
       </c>
       <c r="G96">
-        <v>71.54319000244141</v>
+        <v>102.96923828125</v>
       </c>
       <c r="H96">
-        <v>0.1027782633900642</v>
+        <v>0.127612516283989</v>
       </c>
       <c r="I96">
-        <v>0.0008803816162981093</v>
+        <v>0.001074862782843411</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>127.5389633118084</v>
+        <v>91.9059926236006</v>
       </c>
       <c r="B97">
-        <v>0.08629916605636875</v>
+        <v>0.1259536722314404</v>
       </c>
       <c r="C97">
-        <v>0.001298777350797204</v>
+        <v>0.0009989077394577661</v>
       </c>
       <c r="D97">
-        <v>0.7401592721713833</v>
+        <v>0.6792911646912159</v>
       </c>
       <c r="E97">
-        <v>1.032365287420278</v>
+        <v>1.030786920040291</v>
       </c>
       <c r="F97">
-        <v>62364.08515746631</v>
+        <v>74376.66473446178</v>
       </c>
       <c r="G97">
-        <v>117.3380737304688</v>
+        <v>96.50450897216797</v>
       </c>
       <c r="H97">
-        <v>0.09014460444450378</v>
+        <v>0.1225205808877945</v>
       </c>
       <c r="I97">
-        <v>0.001296383910812438</v>
+        <v>0.001001460012048483</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>91.32213090831578</v>
+        <v>81.43401489640408</v>
       </c>
       <c r="B98">
-        <v>0.09732664896700162</v>
+        <v>0.09350781631387996</v>
       </c>
       <c r="C98">
-        <v>0.0009173134353636336</v>
+        <v>0.001220073125955457</v>
       </c>
       <c r="D98">
-        <v>0.7178933882592314</v>
+        <v>0.7555045872490377</v>
       </c>
       <c r="E98">
-        <v>1.034217295474112</v>
+        <v>1.036564751376879</v>
       </c>
       <c r="F98">
-        <v>86739.79865804066</v>
+        <v>69426.26271102778</v>
       </c>
       <c r="G98">
-        <v>107.0799865722656</v>
+        <v>80.48849487304688</v>
       </c>
       <c r="H98">
-        <v>0.0878465548157692</v>
+        <v>0.09383510053157806</v>
       </c>
       <c r="I98">
-        <v>0.0009124862845055759</v>
+        <v>0.001219560042954981</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>91.40241342415257</v>
+        <v>71.14737384692138</v>
       </c>
       <c r="B99">
-        <v>0.09410281212277592</v>
+        <v>0.08453071564756513</v>
       </c>
       <c r="C99">
-        <v>0.0009823893695283456</v>
+        <v>0.001076640853717171</v>
       </c>
       <c r="D99">
-        <v>0.730615620917187</v>
+        <v>0.7734461820242966</v>
       </c>
       <c r="E99">
-        <v>1.034641661050811</v>
+        <v>1.042534473336286</v>
       </c>
       <c r="F99">
-        <v>82610.05204211794</v>
+        <v>82150.53498010209</v>
       </c>
       <c r="G99">
-        <v>103.5633850097656</v>
+        <v>69.58469390869141</v>
       </c>
       <c r="H99">
-        <v>0.08698534965515137</v>
+        <v>0.0858614444732666</v>
       </c>
       <c r="I99">
-        <v>0.0009781386470422149</v>
+        <v>0.001079394249245524</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>70.97971016102247</v>
+        <v>101.0889888274705</v>
       </c>
       <c r="B100">
-        <v>0.08490480790497827</v>
+        <v>0.08502389277121437</v>
       </c>
       <c r="C100">
-        <v>0.000926947104954077</v>
+        <v>0.0009408567695833119</v>
       </c>
       <c r="D100">
-        <v>0.764385354461955</v>
+        <v>0.7333281649475308</v>
       </c>
       <c r="E100">
-        <v>1.042635437376985</v>
+        <v>1.035030249338583</v>
       </c>
       <c r="F100">
-        <v>94258.70408486309</v>
+        <v>86476.24464443262</v>
       </c>
       <c r="G100">
-        <v>69.787841796875</v>
+        <v>109.2717590332031</v>
       </c>
       <c r="H100">
-        <v>0.08618083596229553</v>
+        <v>0.08072251081466675</v>
       </c>
       <c r="I100">
-        <v>0.0009312320617027581</v>
+        <v>0.0009408763726241887</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>81.11393951417104</v>
+        <v>120.5666117610905</v>
       </c>
       <c r="B101">
-        <v>0.1003519830295185</v>
+        <v>0.09900361211214354</v>
       </c>
       <c r="C101">
-        <v>0.001287716157601275</v>
+        <v>0.0009500150541452265</v>
       </c>
       <c r="D101">
-        <v>0.7459940220389185</v>
+        <v>0.6843623944747705</v>
       </c>
       <c r="E101">
-        <v>1.035268932510816</v>
+        <v>1.031939768405494</v>
       </c>
       <c r="F101">
-        <v>64665.29110012272</v>
+        <v>78483.88731377682</v>
       </c>
       <c r="G101">
-        <v>80.97049713134766</v>
+        <v>103.7344131469727</v>
       </c>
       <c r="H101">
-        <v>0.1007971838116646</v>
+        <v>0.1112709417939186</v>
       </c>
       <c r="I101">
-        <v>0.001280110096558928</v>
+        <v>0.00095280323876068</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>80.47950312370034</v>
+        <v>124.3933299532707</v>
       </c>
       <c r="B2">
-        <v>0.09239295734468765</v>
+        <v>0.09407557004821653</v>
       </c>
       <c r="C2">
-        <v>0.0007239956811404301</v>
+        <v>0.0008862284955878868</v>
       </c>
       <c r="D2">
-        <v>0.7148542594299597</v>
+        <v>0.6784197946431981</v>
       </c>
       <c r="E2">
-        <v>1.037657893482221</v>
+        <v>1.032521051561644</v>
       </c>
       <c r="F2">
-        <v>110714.6618363113</v>
+        <v>83409.2684077368</v>
       </c>
       <c r="G2">
-        <v>79.75212097167969</v>
+        <v>118.9669570922852</v>
       </c>
       <c r="H2">
-        <v>0.09297946840524673</v>
+        <v>0.09846629202365875</v>
       </c>
       <c r="I2">
-        <v>0.0007230084738694131</v>
+        <v>0.000886996858753264</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>89.67928005448476</v>
+        <v>116.4428399619183</v>
       </c>
       <c r="B3">
-        <v>0.08337182908089882</v>
+        <v>0.1257574850381628</v>
       </c>
       <c r="C3">
-        <v>0.001083823063645076</v>
+        <v>0.0009238209183284484</v>
       </c>
       <c r="D3">
-        <v>0.7616355600549359</v>
+        <v>0.6416620503710493</v>
       </c>
       <c r="E3">
-        <v>1.037050513453626</v>
+        <v>1.030509950366821</v>
       </c>
       <c r="F3">
-        <v>78814.76879823163</v>
+        <v>75107.54906879865</v>
       </c>
       <c r="G3">
-        <v>89.54709625244141</v>
+        <v>117.2525253295898</v>
       </c>
       <c r="H3">
-        <v>0.08366125822067261</v>
+        <v>0.1245705112814903</v>
       </c>
       <c r="I3">
-        <v>0.001081483671441674</v>
+        <v>0.0009223023080267012</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>110.8209199609001</v>
+        <v>89.9887091217185</v>
       </c>
       <c r="B4">
-        <v>0.07483192020831066</v>
+        <v>0.07597689581327628</v>
       </c>
       <c r="C4">
-        <v>0.0009449817450038469</v>
+        <v>0.001014982265352558</v>
       </c>
       <c r="D4">
-        <v>0.745030186083138</v>
+        <v>0.7718979960987465</v>
       </c>
       <c r="E4">
-        <v>1.035866141498359</v>
+        <v>1.039101555760223</v>
       </c>
       <c r="F4">
-        <v>87584.8689481738</v>
+        <v>85842.17804485078</v>
       </c>
       <c r="G4">
-        <v>111.4523086547852</v>
+        <v>90.45449829101562</v>
       </c>
       <c r="H4">
-        <v>0.07496283948421478</v>
+        <v>0.0756971687078476</v>
       </c>
       <c r="I4">
-        <v>0.0009426595643162727</v>
+        <v>0.001012900262139738</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>73.79245710031783</v>
+        <v>74.8660833992798</v>
       </c>
       <c r="B5">
-        <v>0.0751186553871222</v>
+        <v>0.1267180920087448</v>
       </c>
       <c r="C5">
-        <v>0.0009264439435533324</v>
+        <v>0.001150357013757392</v>
       </c>
       <c r="D5">
-        <v>0.78228369652713</v>
+        <v>0.7032906533559896</v>
       </c>
       <c r="E5">
-        <v>1.045092820041995</v>
+        <v>1.03292318239526</v>
       </c>
       <c r="F5">
-        <v>97240.64886250457</v>
+        <v>67653.33328088738</v>
       </c>
       <c r="G5">
-        <v>69.42737579345703</v>
+        <v>75.66586303710938</v>
       </c>
       <c r="H5">
-        <v>0.0768093541264534</v>
+        <v>0.1248805001378059</v>
       </c>
       <c r="I5">
-        <v>0.0009390211198478937</v>
+        <v>0.001151624135673046</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>106.4349624406925</v>
+        <v>94.43447028482844</v>
       </c>
       <c r="B6">
-        <v>0.08328378677756634</v>
+        <v>0.1221693118327979</v>
       </c>
       <c r="C6">
-        <v>0.001185618982893519</v>
+        <v>0.0009001044794747651</v>
       </c>
       <c r="D6">
-        <v>0.7549607388106844</v>
+        <v>0.6709896671507818</v>
       </c>
       <c r="E6">
-        <v>1.034312784197991</v>
+        <v>1.031087046424282</v>
       </c>
       <c r="F6">
-        <v>70553.25308145517</v>
+        <v>81501.43078807385</v>
       </c>
       <c r="G6">
-        <v>113.9127807617188</v>
+        <v>92.75955963134766</v>
       </c>
       <c r="H6">
-        <v>0.08137539774179459</v>
+        <v>0.1228116229176521</v>
       </c>
       <c r="I6">
-        <v>0.001188633963465691</v>
+        <v>0.0008978932164609432</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>98.65879017258494</v>
+        <v>83.93404853025656</v>
       </c>
       <c r="B7">
-        <v>0.07600084365529332</v>
+        <v>0.09724974381445312</v>
       </c>
       <c r="C7">
-        <v>0.001125421276109974</v>
+        <v>0.001254495259972458</v>
       </c>
       <c r="D7">
-        <v>0.7726512369998835</v>
+        <v>0.748545709022876</v>
       </c>
       <c r="E7">
-        <v>1.037115564928178</v>
+        <v>1.035210057907326</v>
       </c>
       <c r="F7">
-        <v>76929.05447955293</v>
+        <v>66574.34531374181</v>
       </c>
       <c r="G7">
-        <v>99.45830535888672</v>
+        <v>84.42269134521484</v>
       </c>
       <c r="H7">
-        <v>0.07635018974542618</v>
+        <v>0.09730326384305954</v>
       </c>
       <c r="I7">
-        <v>0.001123866415582597</v>
+        <v>0.00125624961219728</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>87.03999860572607</v>
+        <v>77.94925808547897</v>
       </c>
       <c r="B8">
-        <v>0.08590238190186891</v>
+        <v>0.0896020529060956</v>
       </c>
       <c r="C8">
-        <v>0.001272600289235615</v>
+        <v>0.001217391128101541</v>
       </c>
       <c r="D8">
-        <v>0.7686426747971807</v>
+        <v>0.7648503164060173</v>
       </c>
       <c r="E8">
-        <v>1.036880237584814</v>
+        <v>1.03844357978956</v>
       </c>
       <c r="F8">
-        <v>67775.15318781788</v>
+        <v>70911.24322022406</v>
       </c>
       <c r="G8">
-        <v>86.98581695556641</v>
+        <v>79.07155609130859</v>
       </c>
       <c r="H8">
-        <v>0.0866340696811676</v>
+        <v>0.08825353533029556</v>
       </c>
       <c r="I8">
-        <v>0.001269801403395832</v>
+        <v>0.001214876538142562</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>84.30479685544348</v>
+        <v>73.20563090720951</v>
       </c>
       <c r="B9">
-        <v>0.07396896772701729</v>
+        <v>0.08396464775674342</v>
       </c>
       <c r="C9">
-        <v>0.0009111617442974144</v>
+        <v>0.0007292141775853172</v>
       </c>
       <c r="D9">
-        <v>0.7728103531743354</v>
+        <v>0.7433984222429161</v>
       </c>
       <c r="E9">
-        <v>1.041503063754441</v>
+        <v>1.042329384738902</v>
       </c>
       <c r="F9">
-        <v>96481.13007662418</v>
+        <v>116173.4030148928</v>
       </c>
       <c r="G9">
-        <v>82.75128173828125</v>
+        <v>73.19467163085938</v>
       </c>
       <c r="H9">
-        <v>0.07491426169872284</v>
+        <v>0.08252929896116257</v>
       </c>
       <c r="I9">
-        <v>0.0009137484012171626</v>
+        <v>0.0007127003045752645</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>100.8707645979254</v>
+        <v>113.5356618526347</v>
       </c>
       <c r="B10">
-        <v>0.07393629203259555</v>
+        <v>0.1068678823886125</v>
       </c>
       <c r="C10">
-        <v>0.001238525658789643</v>
+        <v>0.0008521855145540937</v>
       </c>
       <c r="D10">
-        <v>0.7828476779742215</v>
+        <v>0.6633218866632808</v>
       </c>
       <c r="E10">
-        <v>1.037145661916517</v>
+        <v>1.031685865077828</v>
       </c>
       <c r="F10">
-        <v>70858.65038252129</v>
+        <v>84746.04781257008</v>
       </c>
       <c r="G10">
-        <v>101.3134689331055</v>
+        <v>114.9007949829102</v>
       </c>
       <c r="H10">
-        <v>0.07427240908145905</v>
+        <v>0.1058211252093315</v>
       </c>
       <c r="I10">
-        <v>0.001237468677572906</v>
+        <v>0.0008518047397956252</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>92.07565483222247</v>
+        <v>70.68564751750186</v>
       </c>
       <c r="B11">
-        <v>0.1213765707773669</v>
+        <v>0.07198447548853035</v>
       </c>
       <c r="C11">
-        <v>0.001161980311750053</v>
+        <v>0.0009676813075955211</v>
       </c>
       <c r="D11">
-        <v>0.6986465246035998</v>
+        <v>0.794812134313133</v>
       </c>
       <c r="E11">
-        <v>1.030967409724419</v>
+        <v>1.048020977844326</v>
       </c>
       <c r="F11">
-        <v>65882.93905127795</v>
+        <v>95481.35117599939</v>
       </c>
       <c r="G11">
-        <v>106.1813507080078</v>
+        <v>64.12001037597656</v>
       </c>
       <c r="H11">
-        <v>0.1133106648921967</v>
+        <v>0.07391037046909332</v>
       </c>
       <c r="I11">
-        <v>0.001160298474133015</v>
+        <v>0.0009916506242007017</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>97.39119347575932</v>
+        <v>116.2348449101666</v>
       </c>
       <c r="B12">
-        <v>0.07972721564253001</v>
+        <v>0.0709363638668097</v>
       </c>
       <c r="C12">
-        <v>0.0009144547909568278</v>
+        <v>0.0007627767332454845</v>
       </c>
       <c r="D12">
-        <v>0.7456258922776794</v>
+        <v>0.7160050307302082</v>
       </c>
       <c r="E12">
-        <v>1.036677984385607</v>
+        <v>1.036415571198188</v>
       </c>
       <c r="F12">
-        <v>91078.41849770934</v>
+        <v>104049.0177463293</v>
       </c>
       <c r="G12">
-        <v>98.46724700927734</v>
+        <v>101.2191314697266</v>
       </c>
       <c r="H12">
-        <v>0.07945484668016434</v>
+        <v>0.08048275113105774</v>
       </c>
       <c r="I12">
-        <v>0.0009120404720306396</v>
+        <v>0.0007677354151383042</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>90.2486429058544</v>
+        <v>78.8167987240225</v>
       </c>
       <c r="B13">
-        <v>0.1035809443494069</v>
+        <v>0.09572774334989427</v>
       </c>
       <c r="C13">
-        <v>0.001072999261871955</v>
+        <v>0.0009090855934200982</v>
       </c>
       <c r="D13">
-        <v>0.7224579881240755</v>
+        <v>0.7341306222439513</v>
       </c>
       <c r="E13">
-        <v>1.033217153180326</v>
+        <v>1.037064631932724</v>
       </c>
       <c r="F13">
-        <v>74453.07845140826</v>
+        <v>90574.8247297559</v>
       </c>
       <c r="G13">
-        <v>101.1958465576172</v>
+        <v>78.97686004638672</v>
       </c>
       <c r="H13">
-        <v>0.09819482266902924</v>
+        <v>0.09638064354658127</v>
       </c>
       <c r="I13">
-        <v>0.001074345083907247</v>
+        <v>0.0009047820931300521</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>128.2296216157586</v>
+        <v>74.77132495520534</v>
       </c>
       <c r="B14">
-        <v>0.1164073326669418</v>
+        <v>0.07408444443848322</v>
       </c>
       <c r="C14">
-        <v>0.0008731419745910173</v>
+        <v>0.001144058515370609</v>
       </c>
       <c r="D14">
-        <v>0.6320502746174453</v>
+        <v>0.7956725026218914</v>
       </c>
       <c r="E14">
-        <v>1.031517906237351</v>
+        <v>1.044819059822599</v>
       </c>
       <c r="F14">
-        <v>78135.11268005935</v>
+        <v>80121.79010712411</v>
       </c>
       <c r="G14">
-        <v>127.3419342041016</v>
+        <v>72.65552520751953</v>
       </c>
       <c r="H14">
-        <v>0.1170404180884361</v>
+        <v>0.0746302604675293</v>
       </c>
       <c r="I14">
-        <v>0.0008698375895619392</v>
+        <v>0.001160135725513101</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>78.00636590473624</v>
+        <v>75.37618205431632</v>
       </c>
       <c r="B15">
-        <v>0.097384573920344</v>
+        <v>0.08511645929476558</v>
       </c>
       <c r="C15">
-        <v>0.001224639950244905</v>
+        <v>0.001108308688685695</v>
       </c>
       <c r="D15">
-        <v>0.7507819662196481</v>
+        <v>0.7707258071110492</v>
       </c>
       <c r="E15">
-        <v>1.036648787614249</v>
+        <v>1.040615406203984</v>
       </c>
       <c r="F15">
-        <v>68769.88104121231</v>
+        <v>79038.84303120871</v>
       </c>
       <c r="G15">
-        <v>77.52542114257812</v>
+        <v>76.23108673095703</v>
       </c>
       <c r="H15">
-        <v>0.09769745171070099</v>
+        <v>0.08453262597322464</v>
       </c>
       <c r="I15">
-        <v>0.001223880564793944</v>
+        <v>0.001108782133087516</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>75.80823719070246</v>
+        <v>110.3228684412349</v>
       </c>
       <c r="B16">
-        <v>0.07920213267156075</v>
+        <v>0.08326965492076503</v>
       </c>
       <c r="C16">
-        <v>0.0007674563903273868</v>
+        <v>0.001073430657139603</v>
       </c>
       <c r="D16">
-        <v>0.7551169660496789</v>
+        <v>0.7418184427016393</v>
       </c>
       <c r="E16">
-        <v>1.042849564994777</v>
+        <v>1.034069663720008</v>
       </c>
       <c r="F16">
-        <v>112338.4518110541</v>
+        <v>76365.10801542967</v>
       </c>
       <c r="G16">
-        <v>75.03432464599609</v>
+        <v>118.7014846801758</v>
       </c>
       <c r="H16">
-        <v>0.07915347814559937</v>
+        <v>0.07900670170783997</v>
       </c>
       <c r="I16">
-        <v>0.0007577281212434173</v>
+        <v>0.001072810729965568</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>90.60350372745496</v>
+        <v>84.72203259117069</v>
       </c>
       <c r="B17">
-        <v>0.08197576852720687</v>
+        <v>0.08519147162337112</v>
       </c>
       <c r="C17">
-        <v>0.0008274606167764246</v>
+        <v>0.001126317041633407</v>
       </c>
       <c r="D17">
-        <v>0.737666059193431</v>
+        <v>0.764648901271565</v>
       </c>
       <c r="E17">
-        <v>1.037557826832974</v>
+        <v>1.03771950408901</v>
       </c>
       <c r="F17">
-        <v>99907.35472228569</v>
+        <v>76377.44331391205</v>
       </c>
       <c r="G17">
-        <v>90.96507263183594</v>
+        <v>85.87974548339844</v>
       </c>
       <c r="H17">
-        <v>0.08217146247625351</v>
+        <v>0.08418426662683487</v>
       </c>
       <c r="I17">
-        <v>0.0008223837940022349</v>
+        <v>0.001122905407100916</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>105.4616140522295</v>
+        <v>95.23236800080591</v>
       </c>
       <c r="B18">
-        <v>0.09597905237687085</v>
+        <v>0.07786331387291547</v>
       </c>
       <c r="C18">
-        <v>0.0008098199752479526</v>
+        <v>0.0008229542121758211</v>
       </c>
       <c r="D18">
-        <v>0.6863786183384455</v>
+        <v>0.7399345090497457</v>
       </c>
       <c r="E18">
-        <v>1.03309890771149</v>
+        <v>1.037668255044031</v>
       </c>
       <c r="F18">
-        <v>93081.67690294122</v>
+        <v>100708.8082984162</v>
       </c>
       <c r="G18">
-        <v>93.49736022949219</v>
+        <v>96.33669281005859</v>
       </c>
       <c r="H18">
-        <v>0.1059889942407608</v>
+        <v>0.07730789482593536</v>
       </c>
       <c r="I18">
-        <v>0.0008154105744324625</v>
+        <v>0.0008200373849831522</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>109.5505883110017</v>
+        <v>103.442127479435</v>
       </c>
       <c r="B19">
-        <v>0.1016940453507122</v>
+        <v>0.07072217337385926</v>
       </c>
       <c r="C19">
-        <v>0.0009418156014425732</v>
+        <v>0.0009050188689188393</v>
       </c>
       <c r="D19">
-        <v>0.6915085550610071</v>
+        <v>0.7580328990929878</v>
       </c>
       <c r="E19">
-        <v>1.031925803288023</v>
+        <v>1.038020268327935</v>
       </c>
       <c r="F19">
-        <v>80308.98160370781</v>
+        <v>93872.56742397539</v>
       </c>
       <c r="G19">
-        <v>99.27290344238281</v>
+        <v>101.7036209106445</v>
       </c>
       <c r="H19">
-        <v>0.1087920889258385</v>
+        <v>0.07165741175413132</v>
       </c>
       <c r="I19">
-        <v>0.000945953419432044</v>
+        <v>0.000905612192582339</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>93.83540483008252</v>
+        <v>121.6330704297276</v>
       </c>
       <c r="B20">
-        <v>0.0909664175229121</v>
+        <v>0.07692905782832489</v>
       </c>
       <c r="C20">
-        <v>0.001147139776019277</v>
+        <v>0.001105745489366478</v>
       </c>
       <c r="D20">
-        <v>0.74740111122718</v>
+        <v>0.7479044580181887</v>
       </c>
       <c r="E20">
-        <v>1.034610430079018</v>
+        <v>1.03425770292703</v>
       </c>
       <c r="F20">
-        <v>72418.37381022613</v>
+        <v>74609.31339163485</v>
       </c>
       <c r="G20">
-        <v>93.18444061279297</v>
+        <v>118.4432144165039</v>
       </c>
       <c r="H20">
-        <v>0.09092806279659271</v>
+        <v>0.07802055031061172</v>
       </c>
       <c r="I20">
-        <v>0.001150672673247755</v>
+        <v>0.001109752687625587</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>129.9566796353303</v>
+        <v>113.6226557626797</v>
       </c>
       <c r="B21">
-        <v>0.1168887760140797</v>
+        <v>0.1071088155707649</v>
       </c>
       <c r="C21">
-        <v>0.001016144469431308</v>
+        <v>0.001227540857818796</v>
       </c>
       <c r="D21">
-        <v>0.6528624185802553</v>
+        <v>0.7077726126953642</v>
       </c>
       <c r="E21">
-        <v>1.031010373892499</v>
+        <v>1.030868173553104</v>
       </c>
       <c r="F21">
-        <v>69354.92481327662</v>
+        <v>62856.18187144435</v>
       </c>
       <c r="G21">
-        <v>129.8472595214844</v>
+        <v>107.9959487915039</v>
       </c>
       <c r="H21">
-        <v>0.1171072944998741</v>
+        <v>0.1102267950773239</v>
       </c>
       <c r="I21">
-        <v>0.001018858747556806</v>
+        <v>0.001231402158737183</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>91.11357977158256</v>
+        <v>86.21967431432287</v>
       </c>
       <c r="B22">
-        <v>0.1150612989313839</v>
+        <v>0.128455372769083</v>
       </c>
       <c r="C22">
-        <v>0.0009926057941229245</v>
+        <v>0.001026206832296857</v>
       </c>
       <c r="D22">
-        <v>0.6959553476844512</v>
+        <v>0.6839160097762933</v>
       </c>
       <c r="E22">
-        <v>1.031848404782693</v>
+        <v>1.031080013828039</v>
       </c>
       <c r="F22">
-        <v>77046.07244606676</v>
+        <v>73078.70595254088</v>
       </c>
       <c r="G22">
-        <v>103.6271133422852</v>
+        <v>104.6735153198242</v>
       </c>
       <c r="H22">
-        <v>0.1062049195170403</v>
+        <v>0.1153660863637924</v>
       </c>
       <c r="I22">
-        <v>0.0009920671582221985</v>
+        <v>0.001021843170747161</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>113.2844000775972</v>
+        <v>77.88896795746766</v>
       </c>
       <c r="B23">
-        <v>0.1256327084423871</v>
+        <v>0.1294207000936536</v>
       </c>
       <c r="C23">
-        <v>0.0007003275789381973</v>
+        <v>0.000869619790567322</v>
       </c>
       <c r="D23">
-        <v>0.6014607693384898</v>
+        <v>0.6771432974829313</v>
       </c>
       <c r="E23">
-        <v>1.031412505497343</v>
+        <v>1.032325862517038</v>
       </c>
       <c r="F23">
-        <v>92838.36523798428</v>
+        <v>85823.20635196286</v>
       </c>
       <c r="G23">
-        <v>112.4546508789062</v>
+        <v>107.4036331176758</v>
       </c>
       <c r="H23">
-        <v>0.1266688257455826</v>
+        <v>0.1059320792555809</v>
       </c>
       <c r="I23">
-        <v>0.0006963207270018756</v>
+        <v>0.0008659764425829053</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>108.2549616718476</v>
+        <v>73.32245922527187</v>
       </c>
       <c r="B24">
-        <v>0.07173715294161764</v>
+        <v>0.09454324572238371</v>
       </c>
       <c r="C24">
-        <v>0.0009552410352130327</v>
+        <v>0.0007181411548035895</v>
       </c>
       <c r="D24">
-        <v>0.7565650575592371</v>
+        <v>0.7206966223399396</v>
       </c>
       <c r="E24">
-        <v>1.036924640141883</v>
+        <v>1.039301501758527</v>
       </c>
       <c r="F24">
-        <v>88386.57695820175</v>
+        <v>113238.0637018745</v>
       </c>
       <c r="G24">
-        <v>107.526252746582</v>
+        <v>72.77150726318359</v>
       </c>
       <c r="H24">
-        <v>0.07269988209009171</v>
+        <v>0.09486087411642075</v>
       </c>
       <c r="I24">
-        <v>0.000960936420597136</v>
+        <v>0.0007132915197871625</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>118.7832317948476</v>
+        <v>88.09591806885655</v>
       </c>
       <c r="B25">
-        <v>0.1237414774726122</v>
+        <v>0.07977726556279632</v>
       </c>
       <c r="C25">
-        <v>0.000738132264901695</v>
+        <v>0.001126202097384528</v>
       </c>
       <c r="D25">
-        <v>0.6051214927972042</v>
+        <v>0.7731445724155795</v>
       </c>
       <c r="E25">
-        <v>1.031522256378468</v>
+        <v>1.038318564867881</v>
       </c>
       <c r="F25">
-        <v>88510.38069130151</v>
+        <v>77362.88486886748</v>
       </c>
       <c r="G25">
-        <v>118.0151290893555</v>
+        <v>89.11637878417969</v>
       </c>
       <c r="H25">
-        <v>0.1246507912874222</v>
+        <v>0.07897152006626129</v>
       </c>
       <c r="I25">
-        <v>0.0007369038066826761</v>
+        <v>0.001122327172197402</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>128.5735398072292</v>
+        <v>85.72708895438069</v>
       </c>
       <c r="B26">
-        <v>0.09355412730772907</v>
+        <v>0.1083257054419918</v>
       </c>
       <c r="C26">
-        <v>0.0008249519512728903</v>
+        <v>0.0007047304621050643</v>
       </c>
       <c r="D26">
-        <v>0.6619779054087238</v>
+        <v>0.674312012594977</v>
       </c>
       <c r="E26">
-        <v>1.032779265983835</v>
+        <v>1.033763432400564</v>
       </c>
       <c r="F26">
-        <v>87259.22312703876</v>
+        <v>105728.7991686211</v>
       </c>
       <c r="G26">
-        <v>128.1912384033203</v>
+        <v>87.72163391113281</v>
       </c>
       <c r="H26">
-        <v>0.09278549253940582</v>
+        <v>0.1063713729381561</v>
       </c>
       <c r="I26">
-        <v>0.0008264060015790164</v>
+        <v>0.0006962359184399247</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>123.3876193867324</v>
+        <v>97.36843400802877</v>
       </c>
       <c r="B27">
-        <v>0.1227023497227996</v>
+        <v>0.09941832079292423</v>
       </c>
       <c r="C27">
-        <v>0.001259436363376297</v>
+        <v>0.0009236074418925973</v>
       </c>
       <c r="D27">
-        <v>0.6774113521556409</v>
+        <v>0.7077344103635644</v>
       </c>
       <c r="E27">
-        <v>1.029975939243343</v>
+        <v>1.033136866007716</v>
       </c>
       <c r="F27">
-        <v>58129.14017715984</v>
+        <v>84477.40470257214</v>
       </c>
       <c r="G27">
-        <v>122.3028869628906</v>
+        <v>102.1720504760742</v>
       </c>
       <c r="H27">
-        <v>0.1233147084712982</v>
+        <v>0.09669432044029236</v>
       </c>
       <c r="I27">
-        <v>0.001257339841686189</v>
+        <v>0.0009203733643516898</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>115.8737184614625</v>
+        <v>110.9968801328608</v>
       </c>
       <c r="B28">
-        <v>0.1114470865693918</v>
+        <v>0.1293645866370659</v>
       </c>
       <c r="C28">
-        <v>0.0008292389226059429</v>
+        <v>0.001018322328737669</v>
       </c>
       <c r="D28">
-        <v>0.6482159643812835</v>
+        <v>0.6557880806920737</v>
       </c>
       <c r="E28">
-        <v>1.031484946473459</v>
+        <v>1.029983751965406</v>
       </c>
       <c r="F28">
-        <v>84867.05205977788</v>
+        <v>69737.0007968694</v>
       </c>
       <c r="G28">
-        <v>116.1699981689453</v>
+        <v>111.9937744140625</v>
       </c>
       <c r="H28">
-        <v>0.1113805547356606</v>
+        <v>0.1280508190393448</v>
       </c>
       <c r="I28">
-        <v>0.0008288726094178855</v>
+        <v>0.001025634584948421</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>111.8949086690974</v>
+        <v>111.7375267383315</v>
       </c>
       <c r="B29">
-        <v>0.1292409254244381</v>
+        <v>0.07391825242910682</v>
       </c>
       <c r="C29">
-        <v>0.001215002583180557</v>
+        <v>0.001253266877060316</v>
       </c>
       <c r="D29">
-        <v>0.674255463494057</v>
+        <v>0.7757659767250484</v>
       </c>
       <c r="E29">
-        <v>1.029631416784115</v>
+        <v>1.035563829912116</v>
       </c>
       <c r="F29">
-        <v>60101.35602195264</v>
+        <v>68866.08159224331</v>
       </c>
       <c r="G29">
-        <v>110.3302001953125</v>
+        <v>111.5711898803711</v>
       </c>
       <c r="H29">
-        <v>0.1301198303699493</v>
+        <v>0.07335401326417923</v>
       </c>
       <c r="I29">
-        <v>0.001208516885526478</v>
+        <v>0.001251352136023343</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>90.12989018055399</v>
+        <v>87.01113079493</v>
       </c>
       <c r="B30">
-        <v>0.1155569471030001</v>
+        <v>0.1169940662988288</v>
       </c>
       <c r="C30">
-        <v>0.001181736022936801</v>
+        <v>0.0007536967270197401</v>
       </c>
       <c r="D30">
-        <v>0.7102333799737831</v>
+        <v>0.6672539329429855</v>
       </c>
       <c r="E30">
-        <v>1.031703854837487</v>
+        <v>1.032548388441922</v>
       </c>
       <c r="F30">
-        <v>66091.3562768952</v>
+        <v>97368.78087714546</v>
       </c>
       <c r="G30">
-        <v>111.0831069946289</v>
+        <v>88.40513610839844</v>
       </c>
       <c r="H30">
-        <v>0.104269728064537</v>
+        <v>0.114439956843853</v>
       </c>
       <c r="I30">
-        <v>0.001179161132313311</v>
+        <v>0.0007519418140873313</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>78.86113469240244</v>
+        <v>92.79561735400723</v>
       </c>
       <c r="B31">
-        <v>0.0918726775598072</v>
+        <v>0.08730390983988964</v>
       </c>
       <c r="C31">
-        <v>0.0007954877421653457</v>
+        <v>0.0009435653931809701</v>
       </c>
       <c r="D31">
-        <v>0.7287884903981767</v>
+        <v>0.7383504988680027</v>
       </c>
       <c r="E31">
-        <v>1.038094802825155</v>
+        <v>1.035754346555935</v>
       </c>
       <c r="F31">
-        <v>102999.9399945368</v>
+        <v>87220.0883744399</v>
       </c>
       <c r="G31">
-        <v>78.43529510498047</v>
+        <v>93.76967620849609</v>
       </c>
       <c r="H31">
-        <v>0.09235022217035294</v>
+        <v>0.08689599484205246</v>
       </c>
       <c r="I31">
-        <v>0.0007984889089129865</v>
+        <v>0.0009384458535350859</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>73.75816018358859</v>
+        <v>80.86905770421419</v>
       </c>
       <c r="B32">
-        <v>0.1000637903700851</v>
+        <v>0.08448511720459445</v>
       </c>
       <c r="C32">
-        <v>0.001063427174362167</v>
+        <v>0.0007145879198260947</v>
       </c>
       <c r="D32">
-        <v>0.7419344320137233</v>
+        <v>0.7285468765524257</v>
       </c>
       <c r="E32">
-        <v>1.037425163918059</v>
+        <v>1.039504992586646</v>
       </c>
       <c r="F32">
-        <v>78446.7561659481</v>
+        <v>115014.1679102822</v>
       </c>
       <c r="G32">
-        <v>73.11083221435547</v>
+        <v>81.06871795654297</v>
       </c>
       <c r="H32">
-        <v>0.1009776294231415</v>
+        <v>0.08405093103647232</v>
       </c>
       <c r="I32">
-        <v>0.001059458707459271</v>
+        <v>0.0007065714453347027</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>84.51410225208909</v>
+        <v>117.3127307383911</v>
       </c>
       <c r="B33">
-        <v>0.09258334931166108</v>
+        <v>0.1097502742919606</v>
       </c>
       <c r="C33">
-        <v>0.0007693971231430079</v>
+        <v>0.0009055665906049541</v>
       </c>
       <c r="D33">
-        <v>0.7158396833095715</v>
+        <v>0.6626127322955803</v>
       </c>
       <c r="E33">
-        <v>1.036550635565334</v>
+        <v>1.031327446078763</v>
       </c>
       <c r="F33">
-        <v>103940.0373470859</v>
+        <v>79478.93779205675</v>
       </c>
       <c r="G33">
-        <v>97.99827575683594</v>
+        <v>118.0692138671875</v>
       </c>
       <c r="H33">
-        <v>0.08354198932647705</v>
+        <v>0.1088730245828629</v>
       </c>
       <c r="I33">
-        <v>0.0007745617185719311</v>
+        <v>0.0008994752424769104</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>95.93688887087791</v>
+        <v>73.41088458599442</v>
       </c>
       <c r="B34">
-        <v>0.09189471016127429</v>
+        <v>0.08476379109945789</v>
       </c>
       <c r="C34">
-        <v>0.001136732895021707</v>
+        <v>0.001073338635303877</v>
       </c>
       <c r="D34">
-        <v>0.74317886691169</v>
+        <v>0.7712150790207645</v>
       </c>
       <c r="E34">
-        <v>1.034125868657118</v>
+        <v>1.04153184931658</v>
       </c>
       <c r="F34">
-        <v>72512.80722001196</v>
+        <v>81894.96184519191</v>
       </c>
       <c r="G34">
-        <v>95.67485809326172</v>
+        <v>73.48490905761719</v>
       </c>
       <c r="H34">
-        <v>0.09278919547796249</v>
+        <v>0.08452140539884567</v>
       </c>
       <c r="I34">
-        <v>0.001142073539085686</v>
+        <v>0.001078406232409179</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>101.3197764177989</v>
+        <v>111.8198345034992</v>
       </c>
       <c r="B35">
-        <v>0.0856542699628636</v>
+        <v>0.1099515470535513</v>
       </c>
       <c r="C35">
-        <v>0.001082477366423324</v>
+        <v>0.000867440768937159</v>
       </c>
       <c r="D35">
-        <v>0.7463949669992432</v>
+        <v>0.6630529015050783</v>
       </c>
       <c r="E35">
-        <v>1.034605699648733</v>
+        <v>1.031441086289076</v>
       </c>
       <c r="F35">
-        <v>76504.91466527247</v>
+        <v>83198.63610148398</v>
       </c>
       <c r="G35">
-        <v>114.9620819091797</v>
+        <v>111.854118347168</v>
       </c>
       <c r="H35">
-        <v>0.07929599285125732</v>
+        <v>0.1101681888103485</v>
       </c>
       <c r="I35">
-        <v>0.001075986190699041</v>
+        <v>0.0008640999440103769</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>116.3850132432923</v>
+        <v>116.7217237564662</v>
       </c>
       <c r="B36">
-        <v>0.0997582177224082</v>
+        <v>0.1010385110321373</v>
       </c>
       <c r="C36">
-        <v>0.001187163137014612</v>
+        <v>0.0008258499697933812</v>
       </c>
       <c r="D36">
-        <v>0.7147880752932645</v>
+        <v>0.6643437527588949</v>
       </c>
       <c r="E36">
-        <v>1.031475902851138</v>
+        <v>1.032186963588209</v>
       </c>
       <c r="F36">
-        <v>65754.04768377355</v>
+        <v>87641.68174692536</v>
       </c>
       <c r="G36">
-        <v>107.1488876342773</v>
+        <v>118.5785827636719</v>
       </c>
       <c r="H36">
-        <v>0.1050450280308723</v>
+        <v>0.09933085739612579</v>
       </c>
       <c r="I36">
-        <v>0.001191423158161342</v>
+        <v>0.0008294502040371299</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>127.5244553833956</v>
+        <v>116.6444537109252</v>
       </c>
       <c r="B37">
-        <v>0.1109043967041617</v>
+        <v>0.09544533930615096</v>
       </c>
       <c r="C37">
-        <v>0.0009876307296335129</v>
+        <v>0.0007694219399962561</v>
       </c>
       <c r="D37">
-        <v>0.6611051748588946</v>
+        <v>0.6631639025130645</v>
       </c>
       <c r="E37">
-        <v>1.031222090713138</v>
+        <v>1.032839738670361</v>
       </c>
       <c r="F37">
-        <v>72434.63899394819</v>
+        <v>94084.23138607158</v>
       </c>
       <c r="G37">
-        <v>127.8175659179688</v>
+        <v>115.7346572875977</v>
       </c>
       <c r="H37">
-        <v>0.1108576580882072</v>
+        <v>0.09672677516937256</v>
       </c>
       <c r="I37">
-        <v>0.0009856770047917962</v>
+        <v>0.0007734550163149834</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>77.03922882308866</v>
+        <v>85.5653538607213</v>
       </c>
       <c r="B38">
-        <v>0.08664041627831462</v>
+        <v>0.1032812685196851</v>
       </c>
       <c r="C38">
-        <v>0.00124891785270003</v>
+        <v>0.001046284146412205</v>
       </c>
       <c r="D38">
-        <v>0.7721530584871934</v>
+        <v>0.7252779520285181</v>
       </c>
       <c r="E38">
-        <v>1.039508449645953</v>
+        <v>1.034038488018712</v>
       </c>
       <c r="F38">
-        <v>70038.58811791422</v>
+        <v>76929.58141154546</v>
       </c>
       <c r="G38">
-        <v>76.87385559082031</v>
+        <v>85.76645660400391</v>
       </c>
       <c r="H38">
-        <v>0.0869007483124733</v>
+        <v>0.104285441339016</v>
       </c>
       <c r="I38">
-        <v>0.001251642243005335</v>
+        <v>0.001044977805577219</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>76.4202484116275</v>
+        <v>92.42878827595366</v>
       </c>
       <c r="B39">
-        <v>0.1014627886646332</v>
+        <v>0.08722309119517779</v>
       </c>
       <c r="C39">
-        <v>0.0007296093680730638</v>
+        <v>0.001117162003542812</v>
       </c>
       <c r="D39">
-        <v>0.7051391211988943</v>
+        <v>0.7538434285035041</v>
       </c>
       <c r="E39">
-        <v>1.036813073289158</v>
+        <v>1.035583928117089</v>
       </c>
       <c r="F39">
-        <v>108135.7357558151</v>
+        <v>75281.15860629341</v>
       </c>
       <c r="G39">
-        <v>76.80326080322266</v>
+        <v>93.54657745361328</v>
       </c>
       <c r="H39">
-        <v>0.1017491444945335</v>
+        <v>0.08647013455629349</v>
       </c>
       <c r="I39">
-        <v>0.0007276656688190997</v>
+        <v>0.001111424178816378</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>105.381683380813</v>
+        <v>105.2559781117833</v>
       </c>
       <c r="B40">
-        <v>0.07704281765023344</v>
+        <v>0.1123944823763787</v>
       </c>
       <c r="C40">
-        <v>0.0008757331390162088</v>
+        <v>0.001103174284357493</v>
       </c>
       <c r="D40">
-        <v>0.7366798418087989</v>
+        <v>0.6962303051159605</v>
       </c>
       <c r="E40">
-        <v>1.036145897176781</v>
+        <v>1.030911798122509</v>
       </c>
       <c r="F40">
-        <v>93581.48987092268</v>
+        <v>68905.31545782315</v>
       </c>
       <c r="G40">
-        <v>106.6594848632812</v>
+        <v>103.0033264160156</v>
       </c>
       <c r="H40">
-        <v>0.0762021392583847</v>
+        <v>0.1136720106005669</v>
       </c>
       <c r="I40">
-        <v>0.0008709004032425582</v>
+        <v>0.001099986606277525</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>114.7238844368376</v>
+        <v>86.36931414546802</v>
       </c>
       <c r="B41">
-        <v>0.07959071721125148</v>
+        <v>0.09489141216001384</v>
       </c>
       <c r="C41">
-        <v>0.0011290315584791</v>
+        <v>0.001269316612432304</v>
       </c>
       <c r="D41">
-        <v>0.7508367958983412</v>
+        <v>0.7518815301233097</v>
       </c>
       <c r="E41">
-        <v>1.034256297073972</v>
+        <v>1.035135543584959</v>
       </c>
       <c r="F41">
-        <v>73501.88707845574</v>
+        <v>66059.97446782426</v>
       </c>
       <c r="G41">
-        <v>116.6316070556641</v>
+        <v>86.70062255859375</v>
       </c>
       <c r="H41">
-        <v>0.08014797419309616</v>
+        <v>0.09520813822746277</v>
       </c>
       <c r="I41">
-        <v>0.001131046796217561</v>
+        <v>0.001268817228265107</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>120.8890228208191</v>
+        <v>92.25116795307332</v>
       </c>
       <c r="B42">
-        <v>0.07280838128273133</v>
+        <v>0.09163273362915354</v>
       </c>
       <c r="C42">
-        <v>0.0009508655270488005</v>
+        <v>0.0007016219283361016</v>
       </c>
       <c r="D42">
-        <v>0.739061649744676</v>
+        <v>0.6934937734376011</v>
       </c>
       <c r="E42">
-        <v>1.035322645648141</v>
+        <v>1.03539229156198</v>
       </c>
       <c r="F42">
-        <v>85958.50187762419</v>
+        <v>109687.8970505162</v>
       </c>
       <c r="G42">
-        <v>109.4487686157227</v>
+        <v>89.21654510498047</v>
       </c>
       <c r="H42">
-        <v>0.07927943766117096</v>
+        <v>0.09423420578241348</v>
       </c>
       <c r="I42">
-        <v>0.0009533663978800178</v>
+        <v>0.0006963542546145618</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>126.1499248130073</v>
+        <v>81.82325681113838</v>
       </c>
       <c r="B43">
-        <v>0.128243886566238</v>
+        <v>0.1197194148733443</v>
       </c>
       <c r="C43">
-        <v>0.0008037708125626938</v>
+        <v>0.001088317992336421</v>
       </c>
       <c r="D43">
-        <v>0.6029673937061979</v>
+        <v>0.7050034456610916</v>
       </c>
       <c r="E43">
-        <v>1.031530081986548</v>
+        <v>1.032468371488746</v>
       </c>
       <c r="F43">
-        <v>80746.29404517659</v>
+        <v>71505.63577606776</v>
       </c>
       <c r="G43">
-        <v>126.2087249755859</v>
+        <v>81.19797515869141</v>
       </c>
       <c r="H43">
-        <v>0.1271478831768036</v>
+        <v>0.120142862200737</v>
       </c>
       <c r="I43">
-        <v>0.0007987985736690462</v>
+        <v>0.001090904232114553</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>129.0055745356385</v>
+        <v>97.59135302536043</v>
       </c>
       <c r="B44">
-        <v>0.07023162109061568</v>
+        <v>0.1254980147171915</v>
       </c>
       <c r="C44">
-        <v>0.0007643264472571276</v>
+        <v>0.001060235342258584</v>
       </c>
       <c r="D44">
-        <v>0.6998361324272053</v>
+        <v>0.6798198124465233</v>
       </c>
       <c r="E44">
-        <v>1.035658125287306</v>
+        <v>1.030364519758268</v>
       </c>
       <c r="F44">
-        <v>100794.3314531837</v>
+        <v>69935.79201984179</v>
       </c>
       <c r="G44">
-        <v>80.47441864013672</v>
+        <v>97.42069244384766</v>
       </c>
       <c r="H44">
-        <v>0.105047345161438</v>
+        <v>0.1252039968967438</v>
       </c>
       <c r="I44">
-        <v>0.0007690023048780859</v>
+        <v>0.001063338131643832</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>93.98810153347155</v>
+        <v>72.67673807524685</v>
       </c>
       <c r="B45">
-        <v>0.08071479808345938</v>
+        <v>0.07276043865323782</v>
       </c>
       <c r="C45">
-        <v>0.001190403466876973</v>
+        <v>0.001053243765982173</v>
       </c>
       <c r="D45">
-        <v>0.7704451941239479</v>
+        <v>0.7960790197880054</v>
       </c>
       <c r="E45">
-        <v>1.036719414338063</v>
+        <v>1.046505445640872</v>
       </c>
       <c r="F45">
-        <v>72501.27757884889</v>
+        <v>87496.75459594239</v>
       </c>
       <c r="G45">
-        <v>93.89958190917969</v>
+        <v>68.28809356689453</v>
       </c>
       <c r="H45">
-        <v>0.08147343248128891</v>
+        <v>0.0740291103720665</v>
       </c>
       <c r="I45">
-        <v>0.001190944807603955</v>
+        <v>0.001079471199773252</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>92.82011101165439</v>
+        <v>117.9877530742371</v>
       </c>
       <c r="B46">
-        <v>0.1067720051870195</v>
+        <v>0.08395761956978594</v>
       </c>
       <c r="C46">
-        <v>0.0009838857870793866</v>
+        <v>0.001277662191904146</v>
       </c>
       <c r="D46">
-        <v>0.7067630703690788</v>
+        <v>0.7509289033229314</v>
       </c>
       <c r="E46">
-        <v>1.032597290472734</v>
+        <v>1.033119127488469</v>
       </c>
       <c r="F46">
-        <v>79147.15046677139</v>
+        <v>64684.61011302021</v>
       </c>
       <c r="G46">
-        <v>102.3271331787109</v>
+        <v>120.1245040893555</v>
       </c>
       <c r="H46">
-        <v>0.1000404432415962</v>
+        <v>0.08241034299135208</v>
       </c>
       <c r="I46">
-        <v>0.0009781128028407693</v>
+        <v>0.001275137299671769</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>78.86852060183634</v>
+        <v>74.61738681919796</v>
       </c>
       <c r="B47">
-        <v>0.07488217593119832</v>
+        <v>0.09091116216955381</v>
       </c>
       <c r="C47">
-        <v>0.001229370203151464</v>
+        <v>0.0007101230040220238</v>
       </c>
       <c r="D47">
-        <v>0.7946483901024534</v>
+        <v>0.7244274660794678</v>
       </c>
       <c r="E47">
-        <v>1.042722658883091</v>
+        <v>1.039774856525604</v>
       </c>
       <c r="F47">
-        <v>73986.15181765612</v>
+        <v>115268.2536515907</v>
       </c>
       <c r="G47">
-        <v>78.06148529052734</v>
+        <v>74.14821624755859</v>
       </c>
       <c r="H47">
-        <v>0.07532857358455658</v>
+        <v>0.09100337326526642</v>
       </c>
       <c r="I47">
-        <v>0.001226019929163158</v>
+        <v>0.0007023457437753677</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>111.0960663210136</v>
+        <v>101.1301089298916</v>
       </c>
       <c r="B48">
-        <v>0.1229137901858099</v>
+        <v>0.1188979887622148</v>
       </c>
       <c r="C48">
-        <v>0.001139973480590036</v>
+        <v>0.00111788945842087</v>
       </c>
       <c r="D48">
-        <v>0.6777699228715108</v>
+        <v>0.6912449994477253</v>
       </c>
       <c r="E48">
-        <v>1.030043546053327</v>
+        <v>1.030575868810828</v>
       </c>
       <c r="F48">
-        <v>64519.41239221603</v>
+        <v>67486.50834535131</v>
       </c>
       <c r="G48">
-        <v>109.9700164794922</v>
+        <v>100.8356323242188</v>
       </c>
       <c r="H48">
-        <v>0.1233293190598488</v>
+        <v>0.1190713122487068</v>
       </c>
       <c r="I48">
-        <v>0.001138519961386919</v>
+        <v>0.00111280323471874</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>109.4057175064502</v>
+        <v>88.40860597271177</v>
       </c>
       <c r="B49">
-        <v>0.1131772094705373</v>
+        <v>0.1291294856585979</v>
       </c>
       <c r="C49">
-        <v>0.0009458357233784461</v>
+        <v>0.001188207189821118</v>
       </c>
       <c r="D49">
-        <v>0.6727844373847738</v>
+        <v>0.6919086914895073</v>
       </c>
       <c r="E49">
-        <v>1.031008651106888</v>
+        <v>1.030659096815424</v>
       </c>
       <c r="F49">
-        <v>77450.65188049707</v>
+        <v>63765.16661566282</v>
       </c>
       <c r="G49">
-        <v>104.50537109375</v>
+        <v>113.6121444702148</v>
       </c>
       <c r="H49">
-        <v>0.1168106123805046</v>
+        <v>0.1137344166636467</v>
       </c>
       <c r="I49">
-        <v>0.0009459425345994532</v>
+        <v>0.001182602718472481</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>121.7237557510724</v>
+        <v>104.6525769298825</v>
       </c>
       <c r="B50">
-        <v>0.1279833982862736</v>
+        <v>0.1281383022802211</v>
       </c>
       <c r="C50">
-        <v>0.0009241066084934102</v>
+        <v>0.00100588431797295</v>
       </c>
       <c r="D50">
-        <v>0.6319225437791637</v>
+        <v>0.6630887129205342</v>
       </c>
       <c r="E50">
-        <v>1.03064278021354</v>
+        <v>1.030076447969352</v>
       </c>
       <c r="F50">
-        <v>73766.93952127633</v>
+        <v>71593.2130990243</v>
       </c>
       <c r="G50">
-        <v>120.1783905029297</v>
+        <v>105.6736526489258</v>
       </c>
       <c r="H50">
-        <v>0.1280969828367233</v>
+        <v>0.1268824636936188</v>
       </c>
       <c r="I50">
-        <v>0.0009213577141053975</v>
+        <v>0.001009179861284792</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>75.83547968725844</v>
+        <v>127.5660004500055</v>
       </c>
       <c r="B51">
-        <v>0.1004581328344459</v>
+        <v>0.1242969007329956</v>
       </c>
       <c r="C51">
-        <v>0.001009383007990751</v>
+        <v>0.0009003789217580855</v>
       </c>
       <c r="D51">
-        <v>0.7363906439594139</v>
+        <v>0.6259017067549253</v>
       </c>
       <c r="E51">
-        <v>1.036775740262979</v>
+        <v>1.031170570294291</v>
       </c>
       <c r="F51">
-        <v>81819.06652363189</v>
+        <v>74908.02692560162</v>
       </c>
       <c r="G51">
-        <v>74.73857116699219</v>
+        <v>127.101432800293</v>
       </c>
       <c r="H51">
-        <v>0.1014592573046684</v>
+        <v>0.1238811612129211</v>
       </c>
       <c r="I51">
-        <v>0.001001103431917727</v>
+        <v>0.0009009406203404069</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>99.86661446952051</v>
+        <v>108.7342146673602</v>
       </c>
       <c r="B52">
-        <v>0.08802422098950924</v>
+        <v>0.0877933759038418</v>
       </c>
       <c r="C52">
-        <v>0.001233435971913837</v>
+        <v>0.001174504097936443</v>
       </c>
       <c r="D52">
-        <v>0.7537725012292393</v>
+        <v>0.7430311663603053</v>
       </c>
       <c r="E52">
-        <v>1.034186742051913</v>
+        <v>1.033340787225527</v>
       </c>
       <c r="F52">
-        <v>67783.98712820212</v>
+        <v>69789.22161430112</v>
       </c>
       <c r="G52">
-        <v>99.12236022949219</v>
+        <v>117.627067565918</v>
       </c>
       <c r="H52">
-        <v>0.08881272375583649</v>
+        <v>0.08367262035608292</v>
       </c>
       <c r="I52">
-        <v>0.001236436190083623</v>
+        <v>0.00117189809679985</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>104.8649157803238</v>
+        <v>72.12174614532945</v>
       </c>
       <c r="B53">
-        <v>0.1029700343677163</v>
+        <v>0.1295206746048684</v>
       </c>
       <c r="C53">
-        <v>0.001142367147828501</v>
+        <v>0.0007583457553794547</v>
       </c>
       <c r="D53">
-        <v>0.7157282999257183</v>
+        <v>0.6713581517234944</v>
       </c>
       <c r="E53">
-        <v>1.031756100998037</v>
+        <v>1.033607528605515</v>
       </c>
       <c r="F53">
-        <v>68697.25871099719</v>
+        <v>98010.11850424354</v>
       </c>
       <c r="G53">
-        <v>106.0357666015625</v>
+        <v>107.6986312866211</v>
       </c>
       <c r="H53">
-        <v>0.1026739105582237</v>
+        <v>0.09707831591367722</v>
       </c>
       <c r="I53">
-        <v>0.001144547713920474</v>
+        <v>0.0007532954914495349</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>84.49342240239511</v>
+        <v>95.82414637048367</v>
       </c>
       <c r="B54">
-        <v>0.1258491230378784</v>
+        <v>0.08496520246338708</v>
       </c>
       <c r="C54">
-        <v>0.0007030917785614139</v>
+        <v>0.0009652213826379551</v>
       </c>
       <c r="D54">
-        <v>0.6485887452622191</v>
+        <v>0.7420972316457739</v>
       </c>
       <c r="E54">
-        <v>1.032079238179593</v>
+        <v>1.035695301569764</v>
       </c>
       <c r="F54">
-        <v>101240.6048194076</v>
+        <v>85650.14209179072</v>
       </c>
       <c r="G54">
-        <v>88.47726440429688</v>
+        <v>98.50467681884766</v>
       </c>
       <c r="H54">
-        <v>0.1213109865784645</v>
+        <v>0.08392449468374252</v>
       </c>
       <c r="I54">
-        <v>0.0007105075637809932</v>
+        <v>0.0009616370662115514</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>80.14152436774968</v>
+        <v>100.601011139095</v>
       </c>
       <c r="B55">
-        <v>0.1012456862345116</v>
+        <v>0.07635436929293393</v>
       </c>
       <c r="C55">
-        <v>0.001116494710821475</v>
+        <v>0.001011971424742503</v>
       </c>
       <c r="D55">
-        <v>0.737755870750154</v>
+        <v>0.7603713836825857</v>
       </c>
       <c r="E55">
-        <v>1.035422239189387</v>
+        <v>1.036827417593963</v>
       </c>
       <c r="F55">
-        <v>73769.6885288677</v>
+        <v>84004.68860621215</v>
       </c>
       <c r="G55">
-        <v>79.98193359375</v>
+        <v>100.8290557861328</v>
       </c>
       <c r="H55">
-        <v>0.1008702889084816</v>
+        <v>0.07603295892477036</v>
       </c>
       <c r="I55">
-        <v>0.001119478023611009</v>
+        <v>0.001008577062748373</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>121.5748501851773</v>
+        <v>102.1706496822071</v>
       </c>
       <c r="B56">
-        <v>0.08603242191173913</v>
+        <v>0.1270571566633237</v>
       </c>
       <c r="C56">
-        <v>0.001251704444143492</v>
+        <v>0.001116373846560729</v>
       </c>
       <c r="D56">
-        <v>0.741850301843517</v>
+        <v>0.6780824810907395</v>
       </c>
       <c r="E56">
-        <v>1.032672393276567</v>
+        <v>1.030007417816073</v>
       </c>
       <c r="F56">
-        <v>65030.60797008016</v>
+        <v>66077.63294655208</v>
       </c>
       <c r="G56">
-        <v>117.3686904907227</v>
+        <v>102.3433609008789</v>
       </c>
       <c r="H56">
-        <v>0.08810614794492722</v>
+        <v>0.1268762648105621</v>
       </c>
       <c r="I56">
-        <v>0.001248170388862491</v>
+        <v>0.001117385225370526</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>73.51209533413353</v>
+        <v>110.8835506362303</v>
       </c>
       <c r="B57">
-        <v>0.1226439273504472</v>
+        <v>0.08400521532808579</v>
       </c>
       <c r="C57">
-        <v>0.001126273455702695</v>
+        <v>0.0007545314392194457</v>
       </c>
       <c r="D57">
-        <v>0.7090537553834283</v>
+        <v>0.6916603426226564</v>
       </c>
       <c r="E57">
-        <v>1.0337350308076</v>
+        <v>1.034493140895126</v>
       </c>
       <c r="F57">
-        <v>69877.24966730582</v>
+        <v>100975.527628077</v>
       </c>
       <c r="G57">
-        <v>72.98419952392578</v>
+        <v>96.81012725830078</v>
       </c>
       <c r="H57">
-        <v>0.1223855316638947</v>
+        <v>0.09473104774951935</v>
       </c>
       <c r="I57">
-        <v>0.001125415554270148</v>
+        <v>0.000756004243157804</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>98.23725423508438</v>
+        <v>86.65576586390597</v>
       </c>
       <c r="B58">
-        <v>0.09231512491074768</v>
+        <v>0.111386095904665</v>
       </c>
       <c r="C58">
-        <v>0.0008062034689404976</v>
+        <v>0.0008366557009227165</v>
       </c>
       <c r="D58">
-        <v>0.702897869144855</v>
+        <v>0.6893741094844896</v>
       </c>
       <c r="E58">
-        <v>1.034277135924389</v>
+        <v>1.033053102593614</v>
       </c>
       <c r="F58">
-        <v>96382.64012371401</v>
+        <v>90918.44856958336</v>
       </c>
       <c r="G58">
-        <v>97.47975921630859</v>
+        <v>96.1671142578125</v>
       </c>
       <c r="H58">
-        <v>0.09340403228998184</v>
+        <v>0.1037992238998413</v>
       </c>
       <c r="I58">
-        <v>0.0008067961316555738</v>
+        <v>0.0008358861086890101</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>76.95004007805312</v>
+        <v>77.73163392797922</v>
       </c>
       <c r="B59">
-        <v>0.07008300099993997</v>
+        <v>0.07350138153883533</v>
       </c>
       <c r="C59">
-        <v>0.0009901108764564753</v>
+        <v>0.0009461809376140754</v>
       </c>
       <c r="D59">
-        <v>0.7952391543879603</v>
+        <v>0.7836174803134465</v>
       </c>
       <c r="E59">
-        <v>1.045809569639264</v>
+        <v>1.044026492201375</v>
       </c>
       <c r="F59">
-        <v>92726.65505905832</v>
+        <v>95051.63922418877</v>
       </c>
       <c r="G59">
-        <v>71.77478790283203</v>
+        <v>77.61281585693359</v>
       </c>
       <c r="H59">
-        <v>0.07143482565879822</v>
+        <v>0.07260549068450928</v>
       </c>
       <c r="I59">
-        <v>0.001002095523290336</v>
+        <v>0.0009546757792122662</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>97.42352567988203</v>
+        <v>93.56054059282566</v>
       </c>
       <c r="B60">
-        <v>0.08486110134953896</v>
+        <v>0.1138425459476486</v>
       </c>
       <c r="C60">
-        <v>0.0007841896107540516</v>
+        <v>0.001073976803812078</v>
       </c>
       <c r="D60">
-        <v>0.7153575000305042</v>
+        <v>0.7025655854041015</v>
       </c>
       <c r="E60">
-        <v>1.035759001392109</v>
+        <v>1.031611943632618</v>
       </c>
       <c r="F60">
-        <v>101383.3216051622</v>
+        <v>71826.831781958</v>
       </c>
       <c r="G60">
-        <v>102.1681137084961</v>
+        <v>107.0227203369141</v>
       </c>
       <c r="H60">
-        <v>0.08100271224975586</v>
+        <v>0.1050769686698914</v>
       </c>
       <c r="I60">
-        <v>0.0007840448524802923</v>
+        <v>0.00106576515827328</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>128.7977395805385</v>
+        <v>127.3843433677569</v>
       </c>
       <c r="B61">
-        <v>0.08909401055062374</v>
+        <v>0.1229032127400304</v>
       </c>
       <c r="C61">
-        <v>0.0009153971670037792</v>
+        <v>0.00123217646873045</v>
       </c>
       <c r="D61">
-        <v>0.6878981894309247</v>
+        <v>0.6712267614482742</v>
       </c>
       <c r="E61">
-        <v>1.032845146076316</v>
+        <v>1.030162139747776</v>
       </c>
       <c r="F61">
-        <v>81936.40473166673</v>
+        <v>58792.79863789047</v>
       </c>
       <c r="G61">
-        <v>102.4431915283203</v>
+        <v>126.699951171875</v>
       </c>
       <c r="H61">
-        <v>0.1083281114697456</v>
+        <v>0.1225026473402977</v>
       </c>
       <c r="I61">
-        <v>0.000920608697924763</v>
+        <v>0.001232064561918378</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>95.42238120732837</v>
+        <v>81.22785350505069</v>
       </c>
       <c r="B62">
-        <v>0.1215266480939141</v>
+        <v>0.08634621372795775</v>
       </c>
       <c r="C62">
-        <v>0.001262270225164311</v>
+        <v>0.001071295700944826</v>
       </c>
       <c r="D62">
-        <v>0.7016740500078656</v>
+        <v>0.7619058217169913</v>
       </c>
       <c r="E62">
-        <v>1.03058134424215</v>
+        <v>1.03841754716077</v>
       </c>
       <c r="F62">
-        <v>60800.40810153226</v>
+        <v>80204.54288786212</v>
       </c>
       <c r="G62">
-        <v>108.2312088012695</v>
+        <v>81.16973114013672</v>
       </c>
       <c r="H62">
-        <v>0.1145538985729218</v>
+        <v>0.08642566204071045</v>
       </c>
       <c r="I62">
-        <v>0.001255246577784419</v>
+        <v>0.001064303447492421</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>121.427495050274</v>
+        <v>124.2390372956942</v>
       </c>
       <c r="B63">
-        <v>0.0975101900239867</v>
+        <v>0.09274341376464572</v>
       </c>
       <c r="C63">
-        <v>0.001253983184535225</v>
+        <v>0.0007800768825609606</v>
       </c>
       <c r="D63">
-        <v>0.7200631229204343</v>
+        <v>0.659786208627306</v>
       </c>
       <c r="E63">
-        <v>1.031445803271471</v>
+        <v>1.032969699070241</v>
       </c>
       <c r="F63">
-        <v>62647.39736035832</v>
+        <v>92131.06854128822</v>
       </c>
       <c r="G63">
-        <v>112.301139831543</v>
+        <v>123.0698471069336</v>
       </c>
       <c r="H63">
-        <v>0.1020333617925644</v>
+        <v>0.09268553555011749</v>
       </c>
       <c r="I63">
-        <v>0.001256656367331743</v>
+        <v>0.0007814713171683252</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>77.03893385099164</v>
+        <v>102.6283570046396</v>
       </c>
       <c r="B64">
-        <v>0.09667523726867805</v>
+        <v>0.09245777099925498</v>
       </c>
       <c r="C64">
-        <v>0.0008697021113056497</v>
+        <v>0.001288348079672369</v>
       </c>
       <c r="D64">
-        <v>0.7305748892924614</v>
+        <v>0.7464108438955319</v>
       </c>
       <c r="E64">
-        <v>1.0373935757557</v>
+        <v>1.033112754894964</v>
       </c>
       <c r="F64">
-        <v>94312.37796708505</v>
+        <v>63972.11208752811</v>
       </c>
       <c r="G64">
-        <v>76.17283630371094</v>
+        <v>101.3477554321289</v>
       </c>
       <c r="H64">
-        <v>0.09731194376945496</v>
+        <v>0.09273909777402878</v>
       </c>
       <c r="I64">
-        <v>0.0008659679442644119</v>
+        <v>0.001278837444260716</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>86.27512460571185</v>
+        <v>97.41468529874595</v>
       </c>
       <c r="B65">
-        <v>0.09016613598399326</v>
+        <v>0.114927295452408</v>
       </c>
       <c r="C65">
-        <v>0.0009037786264997194</v>
+        <v>0.001223071440853296</v>
       </c>
       <c r="D65">
-        <v>0.7357543114695229</v>
+        <v>0.7080071533641324</v>
       </c>
       <c r="E65">
-        <v>1.036480328452593</v>
+        <v>1.031032946151278</v>
       </c>
       <c r="F65">
-        <v>91032.41378563996</v>
+        <v>63405.36262171731</v>
       </c>
       <c r="G65">
-        <v>85.928955078125</v>
+        <v>109.5109176635742</v>
       </c>
       <c r="H65">
-        <v>0.09059428423643112</v>
+        <v>0.1085422188043594</v>
       </c>
       <c r="I65">
-        <v>0.0008999753626994789</v>
+        <v>0.001223067403770983</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>94.22756444004008</v>
+        <v>122.9224846137934</v>
       </c>
       <c r="B66">
-        <v>0.1228406873828248</v>
+        <v>0.08426843455234234</v>
       </c>
       <c r="C66">
-        <v>0.001060127720878776</v>
+        <v>0.001001632456687194</v>
       </c>
       <c r="D66">
-        <v>0.6870354194766125</v>
+        <v>0.7180551658842926</v>
       </c>
       <c r="E66">
-        <v>1.030766603696143</v>
+        <v>1.033268379973316</v>
       </c>
       <c r="F66">
-        <v>70876.83645246296</v>
+        <v>78613.77367316131</v>
       </c>
       <c r="G66">
-        <v>99.63333892822266</v>
+        <v>110.1783828735352</v>
       </c>
       <c r="H66">
-        <v>0.1193309277296066</v>
+        <v>0.09101053327322006</v>
       </c>
       <c r="I66">
-        <v>0.001058234367519617</v>
+        <v>0.000999326934106648</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>93.98872840055984</v>
+        <v>97.51623770611515</v>
       </c>
       <c r="B67">
-        <v>0.1267016066164235</v>
+        <v>0.08031118594285859</v>
       </c>
       <c r="C67">
-        <v>0.001277918377156228</v>
+        <v>0.00125340878907798</v>
       </c>
       <c r="D67">
-        <v>0.6959994828893421</v>
+        <v>0.7722417368705079</v>
       </c>
       <c r="E67">
-        <v>1.030307595402386</v>
+        <v>1.036113607922656</v>
       </c>
       <c r="F67">
-        <v>59507.28083689478</v>
+        <v>68854.52178132093</v>
       </c>
       <c r="G67">
-        <v>109.5108261108398</v>
+        <v>97.73268127441406</v>
       </c>
       <c r="H67">
-        <v>0.1183531135320663</v>
+        <v>0.08070660382509232</v>
       </c>
       <c r="I67">
-        <v>0.001268908148631454</v>
+        <v>0.001249604043550789</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>110.2830087202092</v>
+        <v>113.4500581966926</v>
       </c>
       <c r="B68">
-        <v>0.1295134197492778</v>
+        <v>0.0969574989212643</v>
       </c>
       <c r="C68">
-        <v>0.0007886808004392343</v>
+        <v>0.001024828476254281</v>
       </c>
       <c r="D68">
-        <v>0.6205977362955652</v>
+        <v>0.7062920070955223</v>
       </c>
       <c r="E68">
-        <v>1.030720768159888</v>
+        <v>1.03210422635024</v>
       </c>
       <c r="F68">
-        <v>85139.37817486007</v>
+        <v>75426.70490275986</v>
       </c>
       <c r="G68">
-        <v>109.0429382324219</v>
+        <v>103.5700454711914</v>
       </c>
       <c r="H68">
-        <v>0.1301527619361877</v>
+        <v>0.102689690887928</v>
       </c>
       <c r="I68">
-        <v>0.0007876453455537558</v>
+        <v>0.001021251315250993</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>90.68308764253047</v>
+        <v>93.94151930218612</v>
       </c>
       <c r="B69">
-        <v>0.09260447601765921</v>
+        <v>0.08826810444263918</v>
       </c>
       <c r="C69">
-        <v>0.0008541499862120014</v>
+        <v>0.001253983640733498</v>
       </c>
       <c r="D69">
-        <v>0.7197115853229062</v>
+        <v>0.7586722341541576</v>
       </c>
       <c r="E69">
-        <v>1.035234983887674</v>
+        <v>1.035012386868168</v>
       </c>
       <c r="F69">
-        <v>93686.10793409534</v>
+        <v>67379.26100820751</v>
       </c>
       <c r="G69">
-        <v>105.5469055175781</v>
+        <v>94.77121734619141</v>
       </c>
       <c r="H69">
-        <v>0.0826667845249176</v>
+        <v>0.08809309452772141</v>
       </c>
       <c r="I69">
-        <v>0.0008467088919132948</v>
+        <v>0.001251145149581134</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>112.826012104601</v>
+        <v>124.2426635740575</v>
       </c>
       <c r="B70">
-        <v>0.1279688467376303</v>
+        <v>0.1203513473355191</v>
       </c>
       <c r="C70">
-        <v>0.001224134096374463</v>
+        <v>0.001197938421162006</v>
       </c>
       <c r="D70">
-        <v>0.6759704116954021</v>
+        <v>0.6747090725877974</v>
       </c>
       <c r="E70">
-        <v>1.029642123796905</v>
+        <v>1.030195660305991</v>
       </c>
       <c r="F70">
-        <v>59807.79180488024</v>
+        <v>60884.78636189843</v>
       </c>
       <c r="G70">
-        <v>110.032112121582</v>
+        <v>123.880744934082</v>
       </c>
       <c r="H70">
-        <v>0.1295935362577438</v>
+        <v>0.1202794015407562</v>
       </c>
       <c r="I70">
-        <v>0.001218904624693096</v>
+        <v>0.001199990045279264</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>108.3512139535235</v>
+        <v>111.4015012114736</v>
       </c>
       <c r="B71">
-        <v>0.1175127741778541</v>
+        <v>0.08426450956093834</v>
       </c>
       <c r="C71">
-        <v>0.0009951353390250067</v>
+        <v>0.001280971846176578</v>
       </c>
       <c r="D71">
-        <v>0.6735316551968298</v>
+        <v>0.7555827568877244</v>
       </c>
       <c r="E71">
-        <v>1.030639143358266</v>
+        <v>1.033554997771391</v>
       </c>
       <c r="F71">
-        <v>73632.63088688425</v>
+        <v>65132.53743818783</v>
       </c>
       <c r="G71">
-        <v>105.0449905395508</v>
+        <v>114.4340515136719</v>
       </c>
       <c r="H71">
-        <v>0.1200704202055931</v>
+        <v>0.08334340900182724</v>
       </c>
       <c r="I71">
-        <v>0.0009958785958588123</v>
+        <v>0.001278484123758972</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>93.94966871528638</v>
+        <v>111.977323255031</v>
       </c>
       <c r="B72">
-        <v>0.110541348858656</v>
+        <v>0.1001433674493557</v>
       </c>
       <c r="C72">
-        <v>0.001239376655336219</v>
+        <v>0.001251869686466895</v>
       </c>
       <c r="D72">
-        <v>0.7185133410622222</v>
+        <v>0.7229529440166833</v>
       </c>
       <c r="E72">
-        <v>1.03177069477836</v>
+        <v>1.031516000110318</v>
       </c>
       <c r="F72">
-        <v>63746.79335910102</v>
+        <v>63192.24238684704</v>
       </c>
       <c r="G72">
-        <v>102.9731140136719</v>
+        <v>110.8038330078125</v>
       </c>
       <c r="H72">
-        <v>0.1066054850816727</v>
+        <v>0.1010221615433693</v>
       </c>
       <c r="I72">
-        <v>0.00123877392616123</v>
+        <v>0.001251667155884206</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>95.90560765925915</v>
+        <v>89.66322409342713</v>
       </c>
       <c r="B73">
-        <v>0.08469336876520597</v>
+        <v>0.1265550159818758</v>
       </c>
       <c r="C73">
-        <v>0.0008113107385139058</v>
+        <v>0.0007216202904571417</v>
       </c>
       <c r="D73">
-        <v>0.7223852437768853</v>
+        <v>0.6428400718666736</v>
       </c>
       <c r="E73">
-        <v>1.035978014498051</v>
+        <v>1.031500650984298</v>
       </c>
       <c r="F73">
-        <v>99110.88441039556</v>
+        <v>97423.08144292615</v>
       </c>
       <c r="G73">
-        <v>103.1757888793945</v>
+        <v>91.79714965820312</v>
       </c>
       <c r="H73">
-        <v>0.07896748185157776</v>
+        <v>0.1234357953071594</v>
       </c>
       <c r="I73">
-        <v>0.0008106106542982161</v>
+        <v>0.0007213327335193753</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>106.8716619886193</v>
+        <v>115.4067185642133</v>
       </c>
       <c r="B74">
-        <v>0.08298743565665259</v>
+        <v>0.1080398618646796</v>
       </c>
       <c r="C74">
-        <v>0.001019601152482816</v>
+        <v>0.000804863202496564</v>
       </c>
       <c r="D74">
-        <v>0.740303439347461</v>
+        <v>0.6497607976419914</v>
       </c>
       <c r="E74">
-        <v>1.034539950031452</v>
+        <v>1.031774069769799</v>
       </c>
       <c r="F74">
-        <v>80399.30772617376</v>
+        <v>87751.4399838269</v>
       </c>
       <c r="G74">
-        <v>113.6841506958008</v>
+        <v>117.1833419799805</v>
       </c>
       <c r="H74">
-        <v>0.0802156925201416</v>
+        <v>0.1062835603952408</v>
       </c>
       <c r="I74">
-        <v>0.00101686455309391</v>
+        <v>0.0008075246005319059</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>74.20253140867868</v>
+        <v>108.1636633268285</v>
       </c>
       <c r="B75">
-        <v>0.07996286947127475</v>
+        <v>0.1220373643277479</v>
       </c>
       <c r="C75">
-        <v>0.0008957617795896235</v>
+        <v>0.0009334808062607114</v>
       </c>
       <c r="D75">
-        <v>0.7689674861784427</v>
+        <v>0.6587869851820719</v>
       </c>
       <c r="E75">
-        <v>1.043049053587333</v>
+        <v>1.030538061481173</v>
       </c>
       <c r="F75">
-        <v>98209.31680748955</v>
+        <v>76651.40706171868</v>
       </c>
       <c r="G75">
-        <v>71.90023803710938</v>
+        <v>108.4021606445312</v>
       </c>
       <c r="H75">
-        <v>0.08134298026561737</v>
+        <v>0.1220237836241722</v>
       </c>
       <c r="I75">
-        <v>0.0009030126384459436</v>
+        <v>0.0009304698905907571</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>119.3444043013414</v>
+        <v>84.40121640278258</v>
       </c>
       <c r="B76">
-        <v>0.1253653966135219</v>
+        <v>0.1264125813612861</v>
       </c>
       <c r="C76">
-        <v>0.0008899255359354856</v>
+        <v>0.001271285618377252</v>
       </c>
       <c r="D76">
-        <v>0.6330084944063089</v>
+        <v>0.7024846697710218</v>
       </c>
       <c r="E76">
-        <v>1.030755158325317</v>
+        <v>1.031312108703894</v>
       </c>
       <c r="F76">
-        <v>76831.71262548529</v>
+        <v>60725.82533805999</v>
       </c>
       <c r="G76">
-        <v>117.9119415283203</v>
+        <v>83.57718658447266</v>
       </c>
       <c r="H76">
-        <v>0.1257322430610657</v>
+        <v>0.1276964992284775</v>
       </c>
       <c r="I76">
-        <v>0.0008864194387570024</v>
+        <v>0.001262687030248344</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>109.2052696668182</v>
+        <v>79.63232934911538</v>
       </c>
       <c r="B77">
-        <v>0.08764459974298996</v>
+        <v>0.1150458917131811</v>
       </c>
       <c r="C77">
-        <v>0.0009681261783677194</v>
+        <v>0.0008800173516855577</v>
       </c>
       <c r="D77">
-        <v>0.7220785565286042</v>
+        <v>0.6975137278319087</v>
       </c>
       <c r="E77">
-        <v>1.033628973032096</v>
+        <v>1.033656499373038</v>
       </c>
       <c r="F77">
-        <v>82201.18354226797</v>
+        <v>87798.27856285183</v>
       </c>
       <c r="G77">
-        <v>106.1610565185547</v>
+        <v>103.4982452392578</v>
       </c>
       <c r="H77">
-        <v>0.09034965932369232</v>
+        <v>0.09825064986944199</v>
       </c>
       <c r="I77">
-        <v>0.0009696384076960385</v>
+        <v>0.0008709487738087773</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>113.5805478650701</v>
+        <v>117.7834884710399</v>
       </c>
       <c r="B78">
-        <v>0.09718565472693272</v>
+        <v>0.1119745036134851</v>
       </c>
       <c r="C78">
-        <v>0.000959846469460761</v>
+        <v>0.0007962805863325608</v>
       </c>
       <c r="D78">
-        <v>0.6974252086273918</v>
+        <v>0.6380494264821477</v>
       </c>
       <c r="E78">
-        <v>1.032195846360961</v>
+        <v>1.031623369312156</v>
       </c>
       <c r="F78">
-        <v>79486.26041960322</v>
+        <v>86887.89637657868</v>
       </c>
       <c r="G78">
-        <v>102.2858505249023</v>
+        <v>118.4355697631836</v>
       </c>
       <c r="H78">
-        <v>0.1046614423394203</v>
+        <v>0.1113461852073669</v>
       </c>
       <c r="I78">
-        <v>0.000963313621468842</v>
+        <v>0.0007965444237925112</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>102.2153800649434</v>
+        <v>127.5499961821133</v>
       </c>
       <c r="B79">
-        <v>0.09963747003923341</v>
+        <v>0.1280779339962536</v>
       </c>
       <c r="C79">
-        <v>0.0009144081278067726</v>
+        <v>0.001231782799651936</v>
       </c>
       <c r="D79">
-        <v>0.7003157765725175</v>
+        <v>0.663494792470514</v>
       </c>
       <c r="E79">
-        <v>1.032682037897726</v>
+        <v>1.030021348317159</v>
       </c>
       <c r="F79">
-        <v>84169.10097053806</v>
+        <v>58055.59213535698</v>
       </c>
       <c r="G79">
-        <v>102.0933380126953</v>
+        <v>126.9689178466797</v>
       </c>
       <c r="H79">
-        <v>0.09948776662349701</v>
+        <v>0.1270870566368103</v>
       </c>
       <c r="I79">
-        <v>0.000916847144253552</v>
+        <v>0.001225610030815005</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>76.62862665950469</v>
+        <v>97.48832963560257</v>
       </c>
       <c r="B80">
-        <v>0.1166902957270153</v>
+        <v>0.1296640473788608</v>
       </c>
       <c r="C80">
-        <v>0.001248982462189371</v>
+        <v>0.0009678366492899215</v>
       </c>
       <c r="D80">
-        <v>0.7206819979920019</v>
+        <v>0.6646525516619286</v>
       </c>
       <c r="E80">
-        <v>1.033756040737481</v>
+        <v>1.030267758151803</v>
       </c>
       <c r="F80">
-        <v>64060.52365112171</v>
+        <v>74789.47468334551</v>
       </c>
       <c r="G80">
-        <v>76.60614013671875</v>
+        <v>100.4697952270508</v>
       </c>
       <c r="H80">
-        <v>0.1170766353607178</v>
+        <v>0.1266215592622757</v>
       </c>
       <c r="I80">
-        <v>0.001246946398168802</v>
+        <v>0.000970394117757678</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>94.302136797817</v>
+        <v>105.4590499194211</v>
       </c>
       <c r="B81">
-        <v>0.1206540976931814</v>
+        <v>0.09710930096018558</v>
       </c>
       <c r="C81">
-        <v>0.001139046511259736</v>
+        <v>0.001244725356612596</v>
       </c>
       <c r="D81">
-        <v>0.6963221414745223</v>
+        <v>0.7330830737762567</v>
       </c>
       <c r="E81">
-        <v>1.030859552072446</v>
+        <v>1.032261482981537</v>
       </c>
       <c r="F81">
-        <v>66917.33520767967</v>
+        <v>64754.30163603505</v>
       </c>
       <c r="G81">
-        <v>104.0646896362305</v>
+        <v>115.8182373046875</v>
       </c>
       <c r="H81">
-        <v>0.1150055974721909</v>
+        <v>0.09213313460350037</v>
       </c>
       <c r="I81">
-        <v>0.001137807965278625</v>
+        <v>0.001237516873516142</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>94.32241497091337</v>
+        <v>121.4633586516133</v>
       </c>
       <c r="B82">
-        <v>0.07834436206891678</v>
+        <v>0.0742521866910525</v>
       </c>
       <c r="C82">
-        <v>0.001136528194798918</v>
+        <v>0.0007961382797920859</v>
       </c>
       <c r="D82">
-        <v>0.7718915399280692</v>
+        <v>0.7076015334308489</v>
       </c>
       <c r="E82">
-        <v>1.037313167835007</v>
+        <v>1.035264297895054</v>
       </c>
       <c r="F82">
-        <v>76211.84154469764</v>
+        <v>98000.1974113451</v>
       </c>
       <c r="G82">
-        <v>94.12310791015625</v>
+        <v>103.5165023803711</v>
       </c>
       <c r="H82">
-        <v>0.07913605868816376</v>
+        <v>0.08528075367212296</v>
       </c>
       <c r="I82">
-        <v>0.001135451719164848</v>
+        <v>0.0007972652674652636</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>89.26257940259302</v>
+        <v>97.43340720123143</v>
       </c>
       <c r="B83">
-        <v>0.09561426161266443</v>
+        <v>0.08756764188643114</v>
       </c>
       <c r="C83">
-        <v>0.0008739480697551733</v>
+        <v>0.00109667050690486</v>
       </c>
       <c r="D83">
-        <v>0.7183531697623106</v>
+        <v>0.7472935097252533</v>
       </c>
       <c r="E83">
-        <v>1.034896914913591</v>
+        <v>1.034755206113849</v>
       </c>
       <c r="F83">
-        <v>91325.56848006879</v>
+        <v>75711.33298290735</v>
       </c>
       <c r="G83">
-        <v>106.8002014160156</v>
+        <v>98.69664764404297</v>
       </c>
       <c r="H83">
-        <v>0.08425910770893097</v>
+        <v>0.08763977140188217</v>
       </c>
       <c r="I83">
-        <v>0.0008641164167784154</v>
+        <v>0.001090719480998814</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>71.79701949428497</v>
+        <v>127.1124686099642</v>
       </c>
       <c r="B84">
-        <v>0.1205712932701274</v>
+        <v>0.07914128234126383</v>
       </c>
       <c r="C84">
-        <v>0.001046625654590104</v>
+        <v>0.0009641582516976951</v>
       </c>
       <c r="D84">
-        <v>0.7095654637969709</v>
+        <v>0.7191205321142327</v>
       </c>
       <c r="E84">
-        <v>1.034476064584767</v>
+        <v>1.033882001754481</v>
       </c>
       <c r="F84">
-        <v>75441.34946248977</v>
+        <v>81860.38508093773</v>
       </c>
       <c r="G84">
-        <v>71.73715209960938</v>
+        <v>109.9008483886719</v>
       </c>
       <c r="H84">
-        <v>0.1206203624606133</v>
+        <v>0.08845176547765732</v>
       </c>
       <c r="I84">
-        <v>0.001044698292389512</v>
+        <v>0.0009644533856771886</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>114.2352545557886</v>
+        <v>104.5450697226923</v>
       </c>
       <c r="B85">
-        <v>0.1190819983453503</v>
+        <v>0.09504918248776072</v>
       </c>
       <c r="C85">
-        <v>0.001167507659981101</v>
+        <v>0.0007458920614181712</v>
       </c>
       <c r="D85">
-        <v>0.6830629939637342</v>
+        <v>0.6769168115460589</v>
       </c>
       <c r="E85">
-        <v>1.030179124835699</v>
+        <v>1.033442156556343</v>
       </c>
       <c r="F85">
-        <v>63490.12553397731</v>
+        <v>99705.66345280567</v>
       </c>
       <c r="G85">
-        <v>111.4974594116211</v>
+        <v>89.96017456054688</v>
       </c>
       <c r="H85">
-        <v>0.1203430518507957</v>
+        <v>0.1071885600686073</v>
       </c>
       <c r="I85">
-        <v>0.001168973161838949</v>
+        <v>0.0007444145740009844</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>76.58706748375005</v>
+        <v>119.2460272420789</v>
       </c>
       <c r="B86">
-        <v>0.07614482550714499</v>
+        <v>0.07787735970839536</v>
       </c>
       <c r="C86">
-        <v>0.001177354221125928</v>
+        <v>0.0011178778867915</v>
       </c>
       <c r="D86">
-        <v>0.791371545217794</v>
+        <v>0.7493031809041089</v>
       </c>
       <c r="E86">
-        <v>1.043176772198835</v>
+        <v>1.034231366054525</v>
       </c>
       <c r="F86">
-        <v>77041.27100917042</v>
+        <v>73985.46036064232</v>
       </c>
       <c r="G86">
-        <v>75.12838745117188</v>
+        <v>118.6949615478516</v>
       </c>
       <c r="H86">
-        <v>0.07689573615789413</v>
+        <v>0.07814127951860428</v>
       </c>
       <c r="I86">
-        <v>0.001176573685370386</v>
+        <v>0.001122008659876883</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>106.3784879827051</v>
+        <v>124.5306231047643</v>
       </c>
       <c r="B87">
-        <v>0.07938300093207779</v>
+        <v>0.1062470682412529</v>
       </c>
       <c r="C87">
-        <v>0.0009067182764525872</v>
+        <v>0.0008484392533234922</v>
       </c>
       <c r="D87">
-        <v>0.7346907753429761</v>
+        <v>0.6489240793419687</v>
       </c>
       <c r="E87">
-        <v>1.035472057678785</v>
+        <v>1.031857857747401</v>
       </c>
       <c r="F87">
-        <v>89931.80489764991</v>
+        <v>82911.49300625132</v>
       </c>
       <c r="G87">
-        <v>107.0807418823242</v>
+        <v>126.2307891845703</v>
       </c>
       <c r="H87">
-        <v>0.07957113534212112</v>
+        <v>0.1043998897075653</v>
       </c>
       <c r="I87">
-        <v>0.0009079063311219215</v>
+        <v>0.0008459447999484837</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>112.1930497880329</v>
+        <v>118.9314291261141</v>
       </c>
       <c r="B88">
-        <v>0.08825192149596446</v>
+        <v>0.09296848354947125</v>
       </c>
       <c r="C88">
-        <v>0.001162523653941189</v>
+        <v>0.0007237693135477107</v>
       </c>
       <c r="D88">
-        <v>0.7381123390199201</v>
+        <v>0.6537500980346327</v>
       </c>
       <c r="E88">
-        <v>1.033015814612571</v>
+        <v>1.033183935486881</v>
       </c>
       <c r="F88">
-        <v>69886.77950814713</v>
+        <v>98551.80779565249</v>
       </c>
       <c r="G88">
-        <v>112.7958297729492</v>
+        <v>120.7478713989258</v>
       </c>
       <c r="H88">
-        <v>0.08887942880392075</v>
+        <v>0.09214907139539719</v>
       </c>
       <c r="I88">
-        <v>0.001161974621936679</v>
+        <v>0.0007288310443982482</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>108.0871793760217</v>
+        <v>79.56486780693736</v>
       </c>
       <c r="B89">
-        <v>0.07452154414500042</v>
+        <v>0.1237231530572926</v>
       </c>
       <c r="C89">
-        <v>0.00114153633808464</v>
+        <v>0.0007359665789497439</v>
       </c>
       <c r="D89">
-        <v>0.7691292899537185</v>
+        <v>0.6653825927819952</v>
       </c>
       <c r="E89">
-        <v>1.036004964722029</v>
+        <v>1.032897020133581</v>
       </c>
       <c r="F89">
-        <v>75077.80795187084</v>
+        <v>99692.37878978255</v>
       </c>
       <c r="G89">
-        <v>108.3677139282227</v>
+        <v>90.73977661132812</v>
       </c>
       <c r="H89">
-        <v>0.07455265522003174</v>
+        <v>0.1117541939020157</v>
       </c>
       <c r="I89">
-        <v>0.001142293564043939</v>
+        <v>0.0007337864954024553</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>127.5485351186785</v>
+        <v>107.733906343702</v>
       </c>
       <c r="B90">
-        <v>0.09547978017043558</v>
+        <v>0.1280676803079101</v>
       </c>
       <c r="C90">
-        <v>0.0007849038913731401</v>
+        <v>0.0007366471222400724</v>
       </c>
       <c r="D90">
-        <v>0.6508492479377164</v>
+        <v>0.615397816468679</v>
       </c>
       <c r="E90">
-        <v>1.032720088057245</v>
+        <v>1.030946857742948</v>
       </c>
       <c r="F90">
-        <v>90106.18543839187</v>
+        <v>90484.49204210629</v>
       </c>
       <c r="G90">
-        <v>124.4841842651367</v>
+        <v>106.9417724609375</v>
       </c>
       <c r="H90">
-        <v>0.09686605632305145</v>
+        <v>0.127449631690979</v>
       </c>
       <c r="I90">
-        <v>0.0007861975464038551</v>
+        <v>0.0007353218970820308</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>76.19788930510832</v>
+        <v>93.90605551718062</v>
       </c>
       <c r="B91">
-        <v>0.07645706230897492</v>
+        <v>0.1028130941001653</v>
       </c>
       <c r="C91">
-        <v>0.001219567281139886</v>
+        <v>0.001244639774491023</v>
       </c>
       <c r="D91">
-        <v>0.7924240861125591</v>
+        <v>0.7316708220100967</v>
       </c>
       <c r="E91">
-        <v>1.043186739430791</v>
+        <v>1.032690574326936</v>
       </c>
       <c r="F91">
-        <v>74486.43958519514</v>
+        <v>64886.20240510526</v>
       </c>
       <c r="G91">
-        <v>74.87374114990234</v>
+        <v>93.87107086181641</v>
       </c>
       <c r="H91">
-        <v>0.07722079008817673</v>
+        <v>0.1033591330051422</v>
       </c>
       <c r="I91">
-        <v>0.00121659878641367</v>
+        <v>0.00124220282305032</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>122.030029546312</v>
+        <v>73.76277712140075</v>
       </c>
       <c r="B92">
-        <v>0.1040930556201907</v>
+        <v>0.0864894141920558</v>
       </c>
       <c r="C92">
-        <v>0.0009647928821082464</v>
+        <v>0.001143930350697461</v>
       </c>
       <c r="D92">
-        <v>0.6757118671480584</v>
+        <v>0.7706444681855789</v>
       </c>
       <c r="E92">
-        <v>1.0315330772985</v>
+        <v>1.040790254014559</v>
       </c>
       <c r="F92">
-        <v>76110.79029304822</v>
+        <v>76623.29227965612</v>
       </c>
       <c r="G92">
-        <v>122.3652267456055</v>
+        <v>74.44188690185547</v>
       </c>
       <c r="H92">
-        <v>0.1035260409116745</v>
+        <v>0.08592323213815689</v>
       </c>
       <c r="I92">
-        <v>0.0009601544006727636</v>
+        <v>0.001142060966230929</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>71.7514140909348</v>
+        <v>95.44193511339051</v>
       </c>
       <c r="B93">
-        <v>0.08479341638866937</v>
+        <v>0.1055338251257102</v>
       </c>
       <c r="C93">
-        <v>0.0009918462693331992</v>
+        <v>0.001238837414328241</v>
       </c>
       <c r="D93">
-        <v>0.7681210643854236</v>
+        <v>0.7256118966709827</v>
       </c>
       <c r="E93">
-        <v>1.042269179560916</v>
+        <v>1.032179201632103</v>
       </c>
       <c r="F93">
-        <v>88450.38531118227</v>
+        <v>64497.72399666951</v>
       </c>
       <c r="G93">
-        <v>70.11053466796875</v>
+        <v>100.1855850219727</v>
       </c>
       <c r="H93">
-        <v>0.08626562356948853</v>
+        <v>0.1041076704859734</v>
       </c>
       <c r="I93">
-        <v>0.0009889309294521809</v>
+        <v>0.001240190234966576</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>102.095011295625</v>
+        <v>85.52104401336446</v>
       </c>
       <c r="B94">
-        <v>0.1057859839209774</v>
+        <v>0.1238056694934646</v>
       </c>
       <c r="C94">
-        <v>0.0009690215073387984</v>
+        <v>0.001103549386777913</v>
       </c>
       <c r="D94">
-        <v>0.6965600237800346</v>
+        <v>0.6968131174346016</v>
       </c>
       <c r="E94">
-        <v>1.031910839476658</v>
+        <v>1.031507631998229</v>
       </c>
       <c r="F94">
-        <v>78793.81524920063</v>
+        <v>69399.99343271909</v>
       </c>
       <c r="G94">
-        <v>100.565185546875</v>
+        <v>111.2007141113281</v>
       </c>
       <c r="H94">
-        <v>0.1065004914999008</v>
+        <v>0.108015388250351</v>
       </c>
       <c r="I94">
-        <v>0.0009728235309012234</v>
+        <v>0.001097650150768459</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>94.25461707635554</v>
+        <v>120.9422985057106</v>
       </c>
       <c r="B95">
-        <v>0.07705153857421826</v>
+        <v>0.09440400075014491</v>
       </c>
       <c r="C95">
-        <v>0.001040707600886504</v>
+        <v>0.00101736395741853</v>
       </c>
       <c r="D95">
-        <v>0.7676427887122367</v>
+        <v>0.70198168743117</v>
       </c>
       <c r="E95">
-        <v>1.037787604122255</v>
+        <v>1.032165905553469</v>
       </c>
       <c r="F95">
-        <v>82853.09738367423</v>
+        <v>75343.26803619425</v>
       </c>
       <c r="G95">
-        <v>94.56720733642578</v>
+        <v>108.1004333496094</v>
       </c>
       <c r="H95">
-        <v>0.07753278315067291</v>
+        <v>0.1018955931067467</v>
       </c>
       <c r="I95">
-        <v>0.001039185444824398</v>
+        <v>0.00101809948682785</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>101.4510316236255</v>
+        <v>71.99827759280177</v>
       </c>
       <c r="B96">
-        <v>0.128553032105112</v>
+        <v>0.1031246966015183</v>
       </c>
       <c r="C96">
-        <v>0.001072701548420233</v>
+        <v>0.000882667818608427</v>
       </c>
       <c r="D96">
-        <v>0.6727593419467991</v>
+        <v>0.7260606670824068</v>
       </c>
       <c r="E96">
-        <v>1.030008326803699</v>
+        <v>1.037537472917495</v>
       </c>
       <c r="F96">
-        <v>68213.19844987047</v>
+        <v>92439.43583313809</v>
       </c>
       <c r="G96">
-        <v>102.96923828125</v>
+        <v>72.28475189208984</v>
       </c>
       <c r="H96">
-        <v>0.127612516283989</v>
+        <v>0.1032285466790199</v>
       </c>
       <c r="I96">
-        <v>0.001074862782843411</v>
+        <v>0.0008806199766695499</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>91.9059926236006</v>
+        <v>127.5389633118084</v>
       </c>
       <c r="B97">
-        <v>0.1259536722314404</v>
+        <v>0.08629916605636875</v>
       </c>
       <c r="C97">
-        <v>0.0009989077394577661</v>
+        <v>0.001298777350797204</v>
       </c>
       <c r="D97">
-        <v>0.6792911646912159</v>
+        <v>0.7401669375814242</v>
       </c>
       <c r="E97">
-        <v>1.030786920040291</v>
+        <v>1.032374589261583</v>
       </c>
       <c r="F97">
-        <v>74376.66473446178</v>
+        <v>62364.36633244278</v>
       </c>
       <c r="G97">
-        <v>96.50450897216797</v>
+        <v>116.0914840698242</v>
       </c>
       <c r="H97">
-        <v>0.1225205808877945</v>
+        <v>0.09048361331224442</v>
       </c>
       <c r="I97">
-        <v>0.001001460012048483</v>
+        <v>0.001291756285354495</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>81.43401489640408</v>
+        <v>91.32213090831578</v>
       </c>
       <c r="B98">
-        <v>0.09350781631387996</v>
+        <v>0.09732664896700162</v>
       </c>
       <c r="C98">
-        <v>0.001220073125955457</v>
+        <v>0.0009173134353636336</v>
       </c>
       <c r="D98">
-        <v>0.7555045872490377</v>
+        <v>0.7178954825409268</v>
       </c>
       <c r="E98">
-        <v>1.036564751376879</v>
+        <v>1.034212867037765</v>
       </c>
       <c r="F98">
-        <v>69426.26271102778</v>
+        <v>86740.4896913246</v>
       </c>
       <c r="G98">
-        <v>80.48849487304688</v>
+        <v>108.1237564086914</v>
       </c>
       <c r="H98">
-        <v>0.09383510053157806</v>
+        <v>0.08750529587268829</v>
       </c>
       <c r="I98">
-        <v>0.001219560042954981</v>
+        <v>0.0009092445834539831</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>71.14737384692138</v>
+        <v>91.40241342415257</v>
       </c>
       <c r="B99">
-        <v>0.08453071564756513</v>
+        <v>0.09410281212277592</v>
       </c>
       <c r="C99">
-        <v>0.001076640853717171</v>
+        <v>0.0009823893695283456</v>
       </c>
       <c r="D99">
-        <v>0.7734461820242966</v>
+        <v>0.7306129590771383</v>
       </c>
       <c r="E99">
-        <v>1.042534473336286</v>
+        <v>1.034640524529086</v>
       </c>
       <c r="F99">
-        <v>82150.53498010209</v>
+        <v>82609.74492645131</v>
       </c>
       <c r="G99">
-        <v>69.58469390869141</v>
+        <v>105.1460952758789</v>
       </c>
       <c r="H99">
-        <v>0.0858614444732666</v>
+        <v>0.0864746943116188</v>
       </c>
       <c r="I99">
-        <v>0.001079394249245524</v>
+        <v>0.000977218383923173</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>101.0889888274705</v>
+        <v>70.97971016102247</v>
       </c>
       <c r="B100">
-        <v>0.08502389277121437</v>
+        <v>0.08490480790497827</v>
       </c>
       <c r="C100">
-        <v>0.0009408567695833119</v>
+        <v>0.000926947104954077</v>
       </c>
       <c r="D100">
-        <v>0.7333281649475308</v>
+        <v>0.7644000309556259</v>
       </c>
       <c r="E100">
-        <v>1.035030249338583</v>
+        <v>1.042640582278119</v>
       </c>
       <c r="F100">
-        <v>86476.24464443262</v>
+        <v>94261.78920881344</v>
       </c>
       <c r="G100">
-        <v>109.2717590332031</v>
+        <v>70.90176391601562</v>
       </c>
       <c r="H100">
-        <v>0.08072251081466675</v>
+        <v>0.08462376892566681</v>
       </c>
       <c r="I100">
-        <v>0.0009408763726241887</v>
+        <v>0.00093222432769835</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>120.5666117610905</v>
+        <v>81.11393951417104</v>
       </c>
       <c r="B101">
-        <v>0.09900361211214354</v>
+        <v>0.1003519830295185</v>
       </c>
       <c r="C101">
-        <v>0.0009500150541452265</v>
+        <v>0.001287716157601275</v>
       </c>
       <c r="D101">
-        <v>0.6843623944747705</v>
+        <v>0.7459933583562693</v>
       </c>
       <c r="E101">
-        <v>1.031939768405494</v>
+        <v>1.035269085127249</v>
       </c>
       <c r="F101">
-        <v>78483.88731377682</v>
+        <v>64665.23599851636</v>
       </c>
       <c r="G101">
-        <v>103.7344131469727</v>
+        <v>81.36767578125</v>
       </c>
       <c r="H101">
-        <v>0.1112709417939186</v>
+        <v>0.1005188301205635</v>
       </c>
       <c r="I101">
-        <v>0.00095280323876068</v>
+        <v>0.00128034153021872</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>124.3933299532707</v>
+        <v>88.51167757326402</v>
       </c>
       <c r="B2">
-        <v>0.09407557004821653</v>
+        <v>0.1220268724956198</v>
       </c>
       <c r="C2">
-        <v>0.0008862284955878868</v>
+        <v>0.0008881543670456207</v>
       </c>
       <c r="D2">
-        <v>0.6784197946431981</v>
+        <v>0.6770212946708715</v>
       </c>
       <c r="E2">
-        <v>1.032521051561644</v>
+        <v>1.031614531897292</v>
       </c>
       <c r="F2">
-        <v>83409.2684077368</v>
+        <v>83638.08506954341</v>
       </c>
       <c r="G2">
-        <v>118.9669570922852</v>
+        <v>96.14943695068359</v>
       </c>
       <c r="H2">
-        <v>0.09846629202365875</v>
+        <v>0.1161399930715561</v>
       </c>
       <c r="I2">
-        <v>0.000886996858753264</v>
+        <v>0.000886439171154052</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>116.4428399619183</v>
+        <v>126.5310831410829</v>
       </c>
       <c r="B3">
-        <v>0.1257574850381628</v>
+        <v>0.08765596984778135</v>
       </c>
       <c r="C3">
-        <v>0.0009238209183284484</v>
+        <v>0.0009193234168708458</v>
       </c>
       <c r="D3">
-        <v>0.6416620503710493</v>
+        <v>0.6943052679344474</v>
       </c>
       <c r="E3">
-        <v>1.030509950366821</v>
+        <v>1.032983657124756</v>
       </c>
       <c r="F3">
-        <v>75107.54906879865</v>
+        <v>82487.27358984557</v>
       </c>
       <c r="G3">
-        <v>117.2525253295898</v>
+        <v>108.6264419555664</v>
       </c>
       <c r="H3">
-        <v>0.1245705112814903</v>
+        <v>0.1004072204232216</v>
       </c>
       <c r="I3">
-        <v>0.0009223023080267012</v>
+        <v>0.0009234781609848142</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>89.9887091217185</v>
+        <v>123.2959024326426</v>
       </c>
       <c r="B4">
-        <v>0.07597689581327628</v>
+        <v>0.09612120797950943</v>
       </c>
       <c r="C4">
-        <v>0.001014982265352558</v>
+        <v>0.0008207600594565193</v>
       </c>
       <c r="D4">
-        <v>0.7718979960987465</v>
+        <v>0.6633807296348834</v>
       </c>
       <c r="E4">
-        <v>1.039101555760223</v>
+        <v>1.032566006413728</v>
       </c>
       <c r="F4">
-        <v>85842.17804485078</v>
+        <v>87981.61046337902</v>
       </c>
       <c r="G4">
-        <v>90.45449829101562</v>
+        <v>121.7882461547852</v>
       </c>
       <c r="H4">
-        <v>0.0756971687078476</v>
+        <v>0.09729821234941483</v>
       </c>
       <c r="I4">
-        <v>0.001012900262139738</v>
+        <v>0.0008201750461012125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>74.8660833992798</v>
+        <v>121.6186407006052</v>
       </c>
       <c r="B5">
-        <v>0.1267180920087448</v>
+        <v>0.1177273916065789</v>
       </c>
       <c r="C5">
-        <v>0.001150357013757392</v>
+        <v>0.0009922888761504248</v>
       </c>
       <c r="D5">
-        <v>0.7032906533559896</v>
+        <v>0.657666350260603</v>
       </c>
       <c r="E5">
-        <v>1.03292318239526</v>
+        <v>1.030735636217966</v>
       </c>
       <c r="F5">
-        <v>67653.33328088738</v>
+        <v>71719.38513131913</v>
       </c>
       <c r="G5">
-        <v>75.66586303710938</v>
+        <v>122.1214141845703</v>
       </c>
       <c r="H5">
-        <v>0.1248805001378059</v>
+        <v>0.1174391433596611</v>
       </c>
       <c r="I5">
-        <v>0.001151624135673046</v>
+        <v>0.0009907281491905451</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>94.43447028482844</v>
+        <v>109.1799856567146</v>
       </c>
       <c r="B6">
-        <v>0.1221693118327979</v>
+        <v>0.1106505013596406</v>
       </c>
       <c r="C6">
-        <v>0.0009001044794747651</v>
+        <v>0.001294221113283748</v>
       </c>
       <c r="D6">
-        <v>0.6709896671507818</v>
+        <v>0.7101865584638075</v>
       </c>
       <c r="E6">
-        <v>1.031087046424282</v>
+        <v>1.030662254804428</v>
       </c>
       <c r="F6">
-        <v>81501.43078807385</v>
+        <v>59861.5811711793</v>
       </c>
       <c r="G6">
-        <v>92.75955963134766</v>
+        <v>110.0068664550781</v>
       </c>
       <c r="H6">
-        <v>0.1228116229176521</v>
+        <v>0.1103629544377327</v>
       </c>
       <c r="I6">
-        <v>0.0008978932164609432</v>
+        <v>0.001292276894673705</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>83.93404853025656</v>
+        <v>90.65734988193634</v>
       </c>
       <c r="B7">
-        <v>0.09724974381445312</v>
+        <v>0.1262718624666423</v>
       </c>
       <c r="C7">
-        <v>0.001254495259972458</v>
+        <v>0.001247290571806953</v>
       </c>
       <c r="D7">
-        <v>0.748545709022876</v>
+        <v>0.6974155870392358</v>
       </c>
       <c r="E7">
-        <v>1.035210057907326</v>
+        <v>1.030636562242261</v>
       </c>
       <c r="F7">
-        <v>66574.34531374181</v>
+        <v>61213.02704584121</v>
       </c>
       <c r="G7">
-        <v>84.42269134521484</v>
+        <v>107.1488418579102</v>
       </c>
       <c r="H7">
-        <v>0.09730326384305954</v>
+        <v>0.1172515377402306</v>
       </c>
       <c r="I7">
-        <v>0.00125624961219728</v>
+        <v>0.001241423189640045</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>77.94925808547897</v>
+        <v>102.9309560439583</v>
       </c>
       <c r="B8">
-        <v>0.0896020529060956</v>
+        <v>0.107268419527623</v>
       </c>
       <c r="C8">
-        <v>0.001217391128101541</v>
+        <v>0.0007710096604116815</v>
       </c>
       <c r="D8">
-        <v>0.7648503164060173</v>
+        <v>0.6624167690206851</v>
       </c>
       <c r="E8">
-        <v>1.03844357978956</v>
+        <v>1.032164325191001</v>
       </c>
       <c r="F8">
-        <v>70911.24322022406</v>
+        <v>93963.93641630546</v>
       </c>
       <c r="G8">
-        <v>79.07155609130859</v>
+        <v>93.58763885498047</v>
       </c>
       <c r="H8">
-        <v>0.08825353533029556</v>
+        <v>0.11654232442379</v>
       </c>
       <c r="I8">
-        <v>0.001214876538142562</v>
+        <v>0.0007738089771009982</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>73.20563090720951</v>
+        <v>118.9135024429824</v>
       </c>
       <c r="B9">
-        <v>0.08396464775674342</v>
+        <v>0.07586860968874318</v>
       </c>
       <c r="C9">
-        <v>0.0007292141775853172</v>
+        <v>0.0007151141735743037</v>
       </c>
       <c r="D9">
-        <v>0.7433984222429161</v>
+        <v>0.6886453872624446</v>
       </c>
       <c r="E9">
-        <v>1.042329384738902</v>
+        <v>1.035348444148668</v>
       </c>
       <c r="F9">
-        <v>116173.4030148928</v>
+        <v>106082.8977690867</v>
       </c>
       <c r="G9">
-        <v>73.19467163085938</v>
+        <v>93.6348876953125</v>
       </c>
       <c r="H9">
-        <v>0.08252929896116257</v>
+        <v>0.09725892543792725</v>
       </c>
       <c r="I9">
-        <v>0.0007127003045752645</v>
+        <v>0.0007149982848204672</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>113.5356618526347</v>
+        <v>75.91662212336867</v>
       </c>
       <c r="B10">
-        <v>0.1068678823886125</v>
+        <v>0.123061621794517</v>
       </c>
       <c r="C10">
-        <v>0.0008521855145540937</v>
+        <v>0.00123918260104496</v>
       </c>
       <c r="D10">
-        <v>0.6633218866632808</v>
+        <v>0.7112715207719114</v>
       </c>
       <c r="E10">
-        <v>1.031685865077828</v>
+        <v>1.033114464658185</v>
       </c>
       <c r="F10">
-        <v>84746.04781257008</v>
+        <v>63567.66516628845</v>
       </c>
       <c r="G10">
-        <v>114.9007949829102</v>
+        <v>76.66681671142578</v>
       </c>
       <c r="H10">
-        <v>0.1058211252093315</v>
+        <v>0.1231334358453751</v>
       </c>
       <c r="I10">
-        <v>0.0008518047397956252</v>
+        <v>0.001237846678122878</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>70.68564751750186</v>
+        <v>118.0644928153183</v>
       </c>
       <c r="B11">
-        <v>0.07198447548853035</v>
+        <v>0.1161493314993155</v>
       </c>
       <c r="C11">
-        <v>0.0009676813075955211</v>
+        <v>0.001022302076769224</v>
       </c>
       <c r="D11">
-        <v>0.794812134313133</v>
+        <v>0.668179685045809</v>
       </c>
       <c r="E11">
-        <v>1.048020977844326</v>
+        <v>1.030635530898295</v>
       </c>
       <c r="F11">
-        <v>95481.35117599939</v>
+        <v>70862.86783747737</v>
       </c>
       <c r="G11">
-        <v>64.12001037597656</v>
+        <v>117.4822387695312</v>
       </c>
       <c r="H11">
-        <v>0.07391037046909332</v>
+        <v>0.1166461184620857</v>
       </c>
       <c r="I11">
-        <v>0.0009916506242007017</v>
+        <v>0.001023072865791619</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>116.2348449101666</v>
+        <v>72.4707874796873</v>
       </c>
       <c r="B12">
-        <v>0.0709363638668097</v>
+        <v>0.1127122270535993</v>
       </c>
       <c r="C12">
-        <v>0.0007627767332454845</v>
+        <v>0.0008201139329250737</v>
       </c>
       <c r="D12">
-        <v>0.7160050307302082</v>
+        <v>0.7035304321077446</v>
       </c>
       <c r="E12">
-        <v>1.036415571198188</v>
+        <v>1.035720665426116</v>
       </c>
       <c r="F12">
-        <v>104049.0177463293</v>
+        <v>95755.55662827226</v>
       </c>
       <c r="G12">
-        <v>101.2191314697266</v>
+        <v>72.77452087402344</v>
       </c>
       <c r="H12">
-        <v>0.08048275113105774</v>
+        <v>0.1124841570854187</v>
       </c>
       <c r="I12">
-        <v>0.0007677354151383042</v>
+        <v>0.0008184911566786468</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>78.8167987240225</v>
+        <v>118.9852618728613</v>
       </c>
       <c r="B13">
-        <v>0.09572774334989427</v>
+        <v>0.07322401284122412</v>
       </c>
       <c r="C13">
-        <v>0.0009090855934200982</v>
+        <v>0.001104191961750781</v>
       </c>
       <c r="D13">
-        <v>0.7341306222439513</v>
+        <v>0.7587878940306034</v>
       </c>
       <c r="E13">
-        <v>1.037064631932724</v>
+        <v>1.035169655149863</v>
       </c>
       <c r="F13">
-        <v>90574.8247297559</v>
+        <v>76125.05062014364</v>
       </c>
       <c r="G13">
-        <v>78.97686004638672</v>
+        <v>117.4937057495117</v>
       </c>
       <c r="H13">
-        <v>0.09638064354658127</v>
+        <v>0.07386670261621475</v>
       </c>
       <c r="I13">
-        <v>0.0009047820931300521</v>
+        <v>0.001104426220990717</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>74.77132495520534</v>
+        <v>118.4538282495924</v>
       </c>
       <c r="B14">
-        <v>0.07408444443848322</v>
+        <v>0.09377336467970465</v>
       </c>
       <c r="C14">
-        <v>0.001144058515370609</v>
+        <v>0.001086533906757892</v>
       </c>
       <c r="D14">
-        <v>0.7956725026218914</v>
+        <v>0.714062086037232</v>
       </c>
       <c r="E14">
-        <v>1.044819059822599</v>
+        <v>1.032135111690494</v>
       </c>
       <c r="F14">
-        <v>80121.79010712411</v>
+        <v>71884.44498749498</v>
       </c>
       <c r="G14">
-        <v>72.65552520751953</v>
+        <v>108.8199691772461</v>
       </c>
       <c r="H14">
-        <v>0.0746302604675293</v>
+        <v>0.09904830157756805</v>
       </c>
       <c r="I14">
-        <v>0.001160135725513101</v>
+        <v>0.001089090364985168</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>75.37618205431632</v>
+        <v>73.06043852972535</v>
       </c>
       <c r="B15">
-        <v>0.08511645929476558</v>
+        <v>0.08004614916757236</v>
       </c>
       <c r="C15">
-        <v>0.001108308688685695</v>
+        <v>0.0007732513641018803</v>
       </c>
       <c r="D15">
-        <v>0.7707258071110492</v>
+        <v>0.7576872609672808</v>
       </c>
       <c r="E15">
-        <v>1.040615406203984</v>
+        <v>1.043687561961453</v>
       </c>
       <c r="F15">
-        <v>79038.84303120871</v>
+        <v>112199.4353947776</v>
       </c>
       <c r="G15">
-        <v>76.23108673095703</v>
+        <v>70.10346984863281</v>
       </c>
       <c r="H15">
-        <v>0.08453262597322464</v>
+        <v>0.08053038269281387</v>
       </c>
       <c r="I15">
-        <v>0.001108782133087516</v>
+        <v>0.0007530390867032111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>110.3228684412349</v>
+        <v>107.6296426877115</v>
       </c>
       <c r="B16">
-        <v>0.08326965492076503</v>
+        <v>0.1193142345044721</v>
       </c>
       <c r="C16">
-        <v>0.001073430657139603</v>
+        <v>0.0008557601400985717</v>
       </c>
       <c r="D16">
-        <v>0.7418184427016393</v>
+        <v>0.6516963603979667</v>
       </c>
       <c r="E16">
-        <v>1.034069663720008</v>
+        <v>1.030919684302962</v>
       </c>
       <c r="F16">
-        <v>76365.10801542967</v>
+        <v>82772.35082378407</v>
       </c>
       <c r="G16">
-        <v>118.7014846801758</v>
+        <v>107.7394561767578</v>
       </c>
       <c r="H16">
-        <v>0.07900670170783997</v>
+        <v>0.1200811341404915</v>
       </c>
       <c r="I16">
-        <v>0.001072810729965568</v>
+        <v>0.0008542148279957473</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>84.72203259117069</v>
+        <v>100.1471844587738</v>
       </c>
       <c r="B17">
-        <v>0.08519147162337112</v>
+        <v>0.1120317173690718</v>
       </c>
       <c r="C17">
-        <v>0.001126317041633407</v>
+        <v>0.0007360467785879547</v>
       </c>
       <c r="D17">
-        <v>0.764648901271565</v>
+        <v>0.6515808412183407</v>
       </c>
       <c r="E17">
-        <v>1.03771950408901</v>
+        <v>1.031973390355865</v>
       </c>
       <c r="F17">
-        <v>76377.44331391205</v>
+        <v>96750.83675067725</v>
       </c>
       <c r="G17">
-        <v>85.87974548339844</v>
+        <v>98.19094085693359</v>
       </c>
       <c r="H17">
-        <v>0.08418426662683487</v>
+        <v>0.1151489168405533</v>
       </c>
       <c r="I17">
-        <v>0.001122905407100916</v>
+        <v>0.0007350740488618612</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>95.23236800080591</v>
+        <v>80.18917019030289</v>
       </c>
       <c r="B18">
-        <v>0.07786331387291547</v>
+        <v>0.1229846558391481</v>
       </c>
       <c r="C18">
-        <v>0.0008229542121758211</v>
+        <v>0.0008259162843220852</v>
       </c>
       <c r="D18">
-        <v>0.7399345090497457</v>
+        <v>0.6785032421655418</v>
       </c>
       <c r="E18">
-        <v>1.037668255044031</v>
+        <v>1.032703394387969</v>
       </c>
       <c r="F18">
-        <v>100708.8082984162</v>
+        <v>90611.12909845088</v>
       </c>
       <c r="G18">
-        <v>96.33669281005859</v>
+        <v>97.84149932861328</v>
       </c>
       <c r="H18">
-        <v>0.07730789482593536</v>
+        <v>0.1081205159425735</v>
       </c>
       <c r="I18">
-        <v>0.0008200373849831522</v>
+        <v>0.0008197598508559167</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>103.442127479435</v>
+        <v>78.90273626064254</v>
       </c>
       <c r="B19">
-        <v>0.07072217337385926</v>
+        <v>0.1279945064154498</v>
       </c>
       <c r="C19">
-        <v>0.0009050188689188393</v>
+        <v>0.0007793834049118377</v>
       </c>
       <c r="D19">
-        <v>0.7580328990929878</v>
+        <v>0.6667634399978472</v>
       </c>
       <c r="E19">
-        <v>1.038020268327935</v>
+        <v>1.032468518616967</v>
       </c>
       <c r="F19">
-        <v>93872.56742397539</v>
+        <v>94240.07090861004</v>
       </c>
       <c r="G19">
-        <v>101.7036209106445</v>
+        <v>93.25701904296875</v>
       </c>
       <c r="H19">
-        <v>0.07165741175413132</v>
+        <v>0.1147200763225555</v>
       </c>
       <c r="I19">
-        <v>0.000905612192582339</v>
+        <v>0.000777068838942796</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>121.6330704297276</v>
+        <v>116.3955475640214</v>
       </c>
       <c r="B20">
-        <v>0.07692905782832489</v>
+        <v>0.1164848568515499</v>
       </c>
       <c r="C20">
-        <v>0.001105745489366478</v>
+        <v>0.0008159417754847337</v>
       </c>
       <c r="D20">
-        <v>0.7479044580181887</v>
+        <v>0.6367867920722919</v>
       </c>
       <c r="E20">
-        <v>1.03425770292703</v>
+        <v>1.031294877749422</v>
       </c>
       <c r="F20">
-        <v>74609.31339163485</v>
+        <v>84564.91808664342</v>
       </c>
       <c r="G20">
-        <v>118.4432144165039</v>
+        <v>116.5659637451172</v>
       </c>
       <c r="H20">
-        <v>0.07802055031061172</v>
+        <v>0.1168705299496651</v>
       </c>
       <c r="I20">
-        <v>0.001109752687625587</v>
+        <v>0.0008151788497343659</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>113.6226557626797</v>
+        <v>104.0615649302106</v>
       </c>
       <c r="B21">
-        <v>0.1071088155707649</v>
+        <v>0.1296539849932457</v>
       </c>
       <c r="C21">
-        <v>0.001227540857818796</v>
+        <v>0.00111128028754787</v>
       </c>
       <c r="D21">
-        <v>0.7077726126953642</v>
+        <v>0.6721387297864476</v>
       </c>
       <c r="E21">
-        <v>1.030868173553104</v>
+        <v>1.029803336599652</v>
       </c>
       <c r="F21">
-        <v>62856.18187144435</v>
+        <v>65691.44059621447</v>
       </c>
       <c r="G21">
-        <v>107.9959487915039</v>
+        <v>104.9972991943359</v>
       </c>
       <c r="H21">
-        <v>0.1102267950773239</v>
+        <v>0.1287578344345093</v>
       </c>
       <c r="I21">
-        <v>0.001231402158737183</v>
+        <v>0.001108085154555738</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>86.21967431432287</v>
+        <v>128.979948094992</v>
       </c>
       <c r="B22">
-        <v>0.128455372769083</v>
+        <v>0.1068861931686579</v>
       </c>
       <c r="C22">
-        <v>0.001026206832296857</v>
+        <v>0.0007296998465566406</v>
       </c>
       <c r="D22">
-        <v>0.6839160097762933</v>
+        <v>0.6144482149542597</v>
       </c>
       <c r="E22">
-        <v>1.031080013828039</v>
+        <v>1.0326685188546</v>
       </c>
       <c r="F22">
-        <v>73078.70595254088</v>
+        <v>91009.49463386944</v>
       </c>
       <c r="G22">
-        <v>104.6735153198242</v>
+        <v>127.5947723388672</v>
       </c>
       <c r="H22">
-        <v>0.1153660863637924</v>
+        <v>0.1083781644701958</v>
       </c>
       <c r="I22">
-        <v>0.001021843170747161</v>
+        <v>0.0007242757128551602</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>77.88896795746766</v>
+        <v>128.9348666373006</v>
       </c>
       <c r="B23">
-        <v>0.1294207000936536</v>
+        <v>0.07222777623348688</v>
       </c>
       <c r="C23">
-        <v>0.000869619790567322</v>
+        <v>0.0007611127691489299</v>
       </c>
       <c r="D23">
-        <v>0.6771432974829313</v>
+        <v>0.6941039745766939</v>
       </c>
       <c r="E23">
-        <v>1.032325862517038</v>
+        <v>1.035335597106218</v>
       </c>
       <c r="F23">
-        <v>85823.20635196286</v>
+        <v>100243.1146830855</v>
       </c>
       <c r="G23">
-        <v>107.4036331176758</v>
+        <v>101.4020385742188</v>
       </c>
       <c r="H23">
-        <v>0.1059320792555809</v>
+        <v>0.09355398267507553</v>
       </c>
       <c r="I23">
-        <v>0.0008659764425829053</v>
+        <v>0.0007626631413586438</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>73.32245922527187</v>
+        <v>129.560019607856</v>
       </c>
       <c r="B24">
-        <v>0.09454324572238371</v>
+        <v>0.07085509090901776</v>
       </c>
       <c r="C24">
-        <v>0.0007181411548035895</v>
+        <v>0.0007805041828469726</v>
       </c>
       <c r="D24">
-        <v>0.7206966223399396</v>
+        <v>0.7012692102960254</v>
       </c>
       <c r="E24">
-        <v>1.039301501758527</v>
+        <v>1.035480396424232</v>
       </c>
       <c r="F24">
-        <v>113238.0637018745</v>
+        <v>98857.90720219642</v>
       </c>
       <c r="G24">
-        <v>72.77150726318359</v>
+        <v>95.11808013916016</v>
       </c>
       <c r="H24">
-        <v>0.09486087411642075</v>
+        <v>0.09542723000049591</v>
       </c>
       <c r="I24">
-        <v>0.0007132915197871625</v>
+        <v>0.0007839069003239274</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>88.09591806885655</v>
+        <v>77.11693110194595</v>
       </c>
       <c r="B25">
-        <v>0.07977726556279632</v>
+        <v>0.09052623251222733</v>
       </c>
       <c r="C25">
-        <v>0.001126202097384528</v>
+        <v>0.0008899246725748804</v>
       </c>
       <c r="D25">
-        <v>0.7731445724155795</v>
+        <v>0.7439918743179781</v>
       </c>
       <c r="E25">
-        <v>1.038318564867881</v>
+        <v>1.038790183130416</v>
       </c>
       <c r="F25">
-        <v>77362.88486886748</v>
+        <v>94315.27095204772</v>
       </c>
       <c r="G25">
-        <v>89.11637878417969</v>
+        <v>77.3074951171875</v>
       </c>
       <c r="H25">
-        <v>0.07897152006626129</v>
+        <v>0.0906827300786972</v>
       </c>
       <c r="I25">
-        <v>0.001122327172197402</v>
+        <v>0.0008818187634460628</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>85.72708895438069</v>
+        <v>126.2953682178377</v>
       </c>
       <c r="B26">
-        <v>0.1083257054419918</v>
+        <v>0.1194083031440522</v>
       </c>
       <c r="C26">
-        <v>0.0007047304621050643</v>
+        <v>0.0008792501865111646</v>
       </c>
       <c r="D26">
-        <v>0.674312012594977</v>
+        <v>0.6310459290098478</v>
       </c>
       <c r="E26">
-        <v>1.033763432400564</v>
+        <v>1.031310060648205</v>
       </c>
       <c r="F26">
-        <v>105728.7991686211</v>
+        <v>77457.80604275753</v>
       </c>
       <c r="G26">
-        <v>87.72163391113281</v>
+        <v>125.7520751953125</v>
       </c>
       <c r="H26">
-        <v>0.1063713729381561</v>
+        <v>0.1199447065591812</v>
       </c>
       <c r="I26">
-        <v>0.0006962359184399247</v>
+        <v>0.0008762286743149161</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>97.36843400802877</v>
+        <v>84.67417654123376</v>
       </c>
       <c r="B27">
-        <v>0.09941832079292423</v>
+        <v>0.1219680823794839</v>
       </c>
       <c r="C27">
-        <v>0.0009236074418925973</v>
+        <v>0.0008530382711899836</v>
       </c>
       <c r="D27">
-        <v>0.7077344103635644</v>
+        <v>0.6775846320864788</v>
       </c>
       <c r="E27">
-        <v>1.033136866007716</v>
+        <v>1.032106622079927</v>
       </c>
       <c r="F27">
-        <v>84477.40470257214</v>
+        <v>87368.13697631222</v>
       </c>
       <c r="G27">
-        <v>102.1720504760742</v>
+        <v>96.50323486328125</v>
       </c>
       <c r="H27">
-        <v>0.09669432044029236</v>
+        <v>0.1125745177268982</v>
       </c>
       <c r="I27">
-        <v>0.0009203733643516898</v>
+        <v>0.0008488957537338138</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>110.9968801328608</v>
+        <v>97.49273558551673</v>
       </c>
       <c r="B28">
-        <v>0.1293645866370659</v>
+        <v>0.1276487517293607</v>
       </c>
       <c r="C28">
-        <v>0.001018322328737669</v>
+        <v>0.00115032199205945</v>
       </c>
       <c r="D28">
-        <v>0.6557880806920737</v>
+        <v>0.6841470742535306</v>
       </c>
       <c r="E28">
-        <v>1.029983751965406</v>
+        <v>1.030121488779739</v>
       </c>
       <c r="F28">
-        <v>69737.0007968694</v>
+        <v>64836.27360678541</v>
       </c>
       <c r="G28">
-        <v>111.9937744140625</v>
+        <v>102.6995468139648</v>
       </c>
       <c r="H28">
-        <v>0.1280508190393448</v>
+        <v>0.1240000054240227</v>
       </c>
       <c r="I28">
-        <v>0.001025634584948421</v>
+        <v>0.001148195937275887</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>111.7375267383315</v>
+        <v>115.4443933493036</v>
       </c>
       <c r="B29">
-        <v>0.07391825242910682</v>
+        <v>0.07390728811292911</v>
       </c>
       <c r="C29">
-        <v>0.001253266877060316</v>
+        <v>0.00129881367265486</v>
       </c>
       <c r="D29">
-        <v>0.7757659767250484</v>
+        <v>0.776010284187156</v>
       </c>
       <c r="E29">
-        <v>1.035563829912116</v>
+        <v>1.035124391037328</v>
       </c>
       <c r="F29">
-        <v>68866.08159224331</v>
+        <v>66327.80144149029</v>
       </c>
       <c r="G29">
-        <v>111.5711898803711</v>
+        <v>115.7800598144531</v>
       </c>
       <c r="H29">
-        <v>0.07335401326417923</v>
+        <v>0.07388271391391754</v>
       </c>
       <c r="I29">
-        <v>0.001251352136023343</v>
+        <v>0.00129469227977097</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>87.01113079493</v>
+        <v>82.21725592463392</v>
       </c>
       <c r="B30">
-        <v>0.1169940662988288</v>
+        <v>0.07267426665925986</v>
       </c>
       <c r="C30">
-        <v>0.0007536967270197401</v>
+        <v>0.001020386754177277</v>
       </c>
       <c r="D30">
-        <v>0.6672539329429855</v>
+        <v>0.7867628913303096</v>
       </c>
       <c r="E30">
-        <v>1.032548388441922</v>
+        <v>1.042546574213634</v>
       </c>
       <c r="F30">
-        <v>97368.78087714546</v>
+        <v>88098.06043422858</v>
       </c>
       <c r="G30">
-        <v>88.40513610839844</v>
+        <v>80.61382293701172</v>
       </c>
       <c r="H30">
-        <v>0.114439956843853</v>
+        <v>0.07356917858123779</v>
       </c>
       <c r="I30">
-        <v>0.0007519418140873313</v>
+        <v>0.001007751445285976</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>92.79561735400723</v>
+        <v>103.9786963332598</v>
       </c>
       <c r="B31">
-        <v>0.08730390983988964</v>
+        <v>0.124797015782022</v>
       </c>
       <c r="C31">
-        <v>0.0009435653931809701</v>
+        <v>0.001266521630748365</v>
       </c>
       <c r="D31">
-        <v>0.7383504988680027</v>
+        <v>0.6907392118736561</v>
       </c>
       <c r="E31">
-        <v>1.035754346555935</v>
+        <v>1.029914284660464</v>
       </c>
       <c r="F31">
-        <v>87220.0883744399</v>
+        <v>59337.65474592037</v>
       </c>
       <c r="G31">
-        <v>93.76967620849609</v>
+        <v>103.0957183837891</v>
       </c>
       <c r="H31">
-        <v>0.08689599484205246</v>
+        <v>0.1255025863647461</v>
       </c>
       <c r="I31">
-        <v>0.0009384458535350859</v>
+        <v>0.001262294128537178</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>80.86905770421419</v>
+        <v>81.14900489355975</v>
       </c>
       <c r="B32">
-        <v>0.08448511720459445</v>
+        <v>0.0883028019017717</v>
       </c>
       <c r="C32">
-        <v>0.0007145879198260947</v>
+        <v>0.0009379660672756388</v>
       </c>
       <c r="D32">
-        <v>0.7285468765524257</v>
+        <v>0.7483657221908548</v>
       </c>
       <c r="E32">
-        <v>1.039504992586646</v>
+        <v>1.038103155485576</v>
       </c>
       <c r="F32">
-        <v>115014.1679102822</v>
+        <v>89804.21790434496</v>
       </c>
       <c r="G32">
-        <v>81.06871795654297</v>
+        <v>81.10713195800781</v>
       </c>
       <c r="H32">
-        <v>0.08405093103647232</v>
+        <v>0.08843090385198593</v>
       </c>
       <c r="I32">
-        <v>0.0007065714453347027</v>
+        <v>0.0009322275291197002</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>117.3127307383911</v>
+        <v>76.2841664008776</v>
       </c>
       <c r="B33">
-        <v>0.1097502742919606</v>
+        <v>0.103479244036578</v>
       </c>
       <c r="C33">
-        <v>0.0009055665906049541</v>
+        <v>0.0007640094680816281</v>
       </c>
       <c r="D33">
-        <v>0.6626127322955803</v>
+        <v>0.7068823353085584</v>
       </c>
       <c r="E33">
-        <v>1.031327446078763</v>
+        <v>1.036414802496127</v>
       </c>
       <c r="F33">
-        <v>79478.93779205675</v>
+        <v>103423.8100546977</v>
       </c>
       <c r="G33">
-        <v>118.0692138671875</v>
+        <v>76.31258392333984</v>
       </c>
       <c r="H33">
-        <v>0.1088730245828629</v>
+        <v>0.103616751730442</v>
       </c>
       <c r="I33">
-        <v>0.0008994752424769104</v>
+        <v>0.0007639032555744052</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>73.41088458599442</v>
+        <v>76.99351674577591</v>
       </c>
       <c r="B34">
-        <v>0.08476379109945789</v>
+        <v>0.1289466929800426</v>
       </c>
       <c r="C34">
-        <v>0.001073338635303877</v>
+        <v>0.0009452642976819024</v>
       </c>
       <c r="D34">
-        <v>0.7712150790207645</v>
+        <v>0.6859070800850433</v>
       </c>
       <c r="E34">
-        <v>1.04153184931658</v>
+        <v>1.032430716799783</v>
       </c>
       <c r="F34">
-        <v>81894.96184519191</v>
+        <v>80062.69079807121</v>
       </c>
       <c r="G34">
-        <v>73.48490905761719</v>
+        <v>110.5665512084961</v>
       </c>
       <c r="H34">
-        <v>0.08452140539884567</v>
+        <v>0.1039221286773682</v>
       </c>
       <c r="I34">
-        <v>0.001078406232409179</v>
+        <v>0.0009401498246006668</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>111.8198345034992</v>
+        <v>91.45834209089313</v>
       </c>
       <c r="B35">
-        <v>0.1099515470535513</v>
+        <v>0.09402691208415541</v>
       </c>
       <c r="C35">
-        <v>0.000867440768937159</v>
+        <v>0.0008776766640488159</v>
       </c>
       <c r="D35">
-        <v>0.6630529015050783</v>
+        <v>0.7190912877923576</v>
       </c>
       <c r="E35">
-        <v>1.031441086289076</v>
+        <v>1.034808927774224</v>
       </c>
       <c r="F35">
-        <v>83198.63610148398</v>
+        <v>90968.01411038934</v>
       </c>
       <c r="G35">
-        <v>111.854118347168</v>
+        <v>107.2977752685547</v>
       </c>
       <c r="H35">
-        <v>0.1101681888103485</v>
+        <v>0.0844656378030777</v>
       </c>
       <c r="I35">
-        <v>0.0008640999440103769</v>
+        <v>0.0008737368043512106</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>116.7217237564662</v>
+        <v>70.27929021023101</v>
       </c>
       <c r="B36">
-        <v>0.1010385110321373</v>
+        <v>0.1099522838985904</v>
       </c>
       <c r="C36">
-        <v>0.0008258499697933812</v>
+        <v>0.0009960441773735069</v>
       </c>
       <c r="D36">
-        <v>0.6643437527588949</v>
+        <v>0.7244559196384395</v>
       </c>
       <c r="E36">
-        <v>1.032186963588209</v>
+        <v>1.036618069345841</v>
       </c>
       <c r="F36">
-        <v>87641.68174692536</v>
+        <v>81543.84843820559</v>
       </c>
       <c r="G36">
-        <v>118.5785827636719</v>
+        <v>70.51398468017578</v>
       </c>
       <c r="H36">
-        <v>0.09933085739612579</v>
+        <v>0.1100940406322479</v>
       </c>
       <c r="I36">
-        <v>0.0008294502040371299</v>
+        <v>0.0009911013767123222</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>116.6444537109252</v>
+        <v>95.49123527210136</v>
       </c>
       <c r="B37">
-        <v>0.09544533930615096</v>
+        <v>0.09405277381791913</v>
       </c>
       <c r="C37">
-        <v>0.0007694219399962561</v>
+        <v>0.001094226206149854</v>
       </c>
       <c r="D37">
-        <v>0.6631639025130645</v>
+        <v>0.736378320389713</v>
       </c>
       <c r="E37">
-        <v>1.032839738670361</v>
+        <v>1.033900608990066</v>
       </c>
       <c r="F37">
-        <v>94084.23138607158</v>
+        <v>74555.19411334854</v>
       </c>
       <c r="G37">
-        <v>115.7346572875977</v>
+        <v>96.35322570800781</v>
       </c>
       <c r="H37">
-        <v>0.09672677516937256</v>
+        <v>0.09361913055181503</v>
       </c>
       <c r="I37">
-        <v>0.0007734550163149834</v>
+        <v>0.001091247308067977</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>85.5653538607213</v>
+        <v>109.851826304869</v>
       </c>
       <c r="B38">
-        <v>0.1032812685196851</v>
+        <v>0.1160916798677668</v>
       </c>
       <c r="C38">
-        <v>0.001046284146412205</v>
+        <v>0.0009766301314914449</v>
       </c>
       <c r="D38">
-        <v>0.7252779520285181</v>
+        <v>0.671700521232288</v>
       </c>
       <c r="E38">
-        <v>1.034038488018712</v>
+        <v>1.030754759621757</v>
       </c>
       <c r="F38">
-        <v>76929.58141154546</v>
+        <v>74803.70485439367</v>
       </c>
       <c r="G38">
-        <v>85.76645660400391</v>
+        <v>109.8849868774414</v>
       </c>
       <c r="H38">
-        <v>0.104285441339016</v>
+        <v>0.1165769249200821</v>
       </c>
       <c r="I38">
-        <v>0.001044977805577219</v>
+        <v>0.0009766462026163936</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>92.42878827595366</v>
+        <v>94.10129110023932</v>
       </c>
       <c r="B39">
-        <v>0.08722309119517779</v>
+        <v>0.1016628835343719</v>
       </c>
       <c r="C39">
-        <v>0.001117162003542812</v>
+        <v>0.001261096307246695</v>
       </c>
       <c r="D39">
-        <v>0.7538434285035041</v>
+        <v>0.7343684323075624</v>
       </c>
       <c r="E39">
-        <v>1.035583928117089</v>
+        <v>1.032808339954826</v>
       </c>
       <c r="F39">
-        <v>75281.15860629341</v>
+        <v>64307.8575238709</v>
       </c>
       <c r="G39">
-        <v>93.54657745361328</v>
+        <v>94.18519592285156</v>
       </c>
       <c r="H39">
-        <v>0.08647013455629349</v>
+        <v>0.1009770631790161</v>
       </c>
       <c r="I39">
-        <v>0.001111424178816378</v>
+        <v>0.001260906807146966</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>105.2559781117833</v>
+        <v>75.1476760311901</v>
       </c>
       <c r="B40">
-        <v>0.1123944823763787</v>
+        <v>0.08425138827918099</v>
       </c>
       <c r="C40">
-        <v>0.001103174284357493</v>
+        <v>0.001230858893379628</v>
       </c>
       <c r="D40">
-        <v>0.6962303051159605</v>
+        <v>0.7773151578472495</v>
       </c>
       <c r="E40">
-        <v>1.030911798122509</v>
+        <v>1.040899242728146</v>
       </c>
       <c r="F40">
-        <v>68905.31545782315</v>
+        <v>71868.74161800413</v>
       </c>
       <c r="G40">
-        <v>103.0033264160156</v>
+        <v>75.19164276123047</v>
       </c>
       <c r="H40">
-        <v>0.1136720106005669</v>
+        <v>0.08417197316884995</v>
       </c>
       <c r="I40">
-        <v>0.001099986606277525</v>
+        <v>0.001217954675666988</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>86.36931414546802</v>
+        <v>73.76133172141843</v>
       </c>
       <c r="B41">
-        <v>0.09489141216001384</v>
+        <v>0.08627836607550798</v>
       </c>
       <c r="C41">
-        <v>0.001269316612432304</v>
+        <v>0.001121186557099718</v>
       </c>
       <c r="D41">
-        <v>0.7518815301233097</v>
+        <v>0.770129898007862</v>
       </c>
       <c r="E41">
-        <v>1.035135543584959</v>
+        <v>1.040870192211479</v>
       </c>
       <c r="F41">
-        <v>66059.97446782426</v>
+        <v>78139.96162903837</v>
       </c>
       <c r="G41">
-        <v>86.70062255859375</v>
+        <v>73.65217590332031</v>
       </c>
       <c r="H41">
-        <v>0.09520813822746277</v>
+        <v>0.0862119048833847</v>
       </c>
       <c r="I41">
-        <v>0.001268817228265107</v>
+        <v>0.001110404380597174</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>92.25116795307332</v>
+        <v>86.68699076589171</v>
       </c>
       <c r="B42">
-        <v>0.09163273362915354</v>
+        <v>0.08548355275230445</v>
       </c>
       <c r="C42">
-        <v>0.0007016219283361016</v>
+        <v>0.0009938109474187293</v>
       </c>
       <c r="D42">
-        <v>0.6934937734376011</v>
+        <v>0.753194979845234</v>
       </c>
       <c r="E42">
-        <v>1.03539229156198</v>
+        <v>1.037322134572764</v>
       </c>
       <c r="F42">
-        <v>109687.8970505162</v>
+        <v>85058.93601747029</v>
       </c>
       <c r="G42">
-        <v>89.21654510498047</v>
+        <v>86.51351165771484</v>
       </c>
       <c r="H42">
-        <v>0.09423420578241348</v>
+        <v>0.08535808324813843</v>
       </c>
       <c r="I42">
-        <v>0.0006963542546145618</v>
+        <v>0.0009873940143734217</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>81.82325681113838</v>
+        <v>80.15876143261605</v>
       </c>
       <c r="B43">
-        <v>0.1197194148733443</v>
+        <v>0.1019392196955136</v>
       </c>
       <c r="C43">
-        <v>0.001088317992336421</v>
+        <v>0.0007790123690886741</v>
       </c>
       <c r="D43">
-        <v>0.7050034456610916</v>
+        <v>0.7062274698905375</v>
       </c>
       <c r="E43">
-        <v>1.032468371488746</v>
+        <v>1.035727847602939</v>
       </c>
       <c r="F43">
-        <v>71505.63577606776</v>
+        <v>101063.2573910461</v>
       </c>
       <c r="G43">
-        <v>81.19797515869141</v>
+        <v>100.6252288818359</v>
       </c>
       <c r="H43">
-        <v>0.120142862200737</v>
+        <v>0.0877038761973381</v>
       </c>
       <c r="I43">
-        <v>0.001090904232114553</v>
+        <v>0.0007733491947874427</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>97.59135302536043</v>
+        <v>127.9056983930782</v>
       </c>
       <c r="B44">
-        <v>0.1254980147171915</v>
+        <v>0.1121913409609399</v>
       </c>
       <c r="C44">
-        <v>0.001060235342258584</v>
+        <v>0.00093820820006658</v>
       </c>
       <c r="D44">
-        <v>0.6798198124465233</v>
+        <v>0.6507858218278886</v>
       </c>
       <c r="E44">
-        <v>1.030364519758268</v>
+        <v>1.031365370857096</v>
       </c>
       <c r="F44">
-        <v>69935.79201984179</v>
+        <v>75001.31701371903</v>
       </c>
       <c r="G44">
-        <v>97.42069244384766</v>
+        <v>127.3334503173828</v>
       </c>
       <c r="H44">
-        <v>0.1252039968967438</v>
+        <v>0.1128090173006058</v>
       </c>
       <c r="I44">
-        <v>0.001063338131643832</v>
+        <v>0.0009378434624522924</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>72.67673807524685</v>
+        <v>79.07381349844511</v>
       </c>
       <c r="B45">
-        <v>0.07276043865323782</v>
+        <v>0.1269567940025885</v>
       </c>
       <c r="C45">
-        <v>0.001053243765982173</v>
+        <v>0.001122640923640704</v>
       </c>
       <c r="D45">
-        <v>0.7960790197880054</v>
+        <v>0.6985812517149876</v>
       </c>
       <c r="E45">
-        <v>1.046505445640872</v>
+        <v>1.032129538061098</v>
       </c>
       <c r="F45">
-        <v>87496.75459594239</v>
+        <v>68619.84760872777</v>
       </c>
       <c r="G45">
-        <v>68.28809356689453</v>
+        <v>79.51314544677734</v>
       </c>
       <c r="H45">
-        <v>0.0740291103720665</v>
+        <v>0.1266095489263535</v>
       </c>
       <c r="I45">
-        <v>0.001079471199773252</v>
+        <v>0.001121908775530756</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>117.9877530742371</v>
+        <v>118.3277462442998</v>
       </c>
       <c r="B46">
-        <v>0.08395761956978594</v>
+        <v>0.1116452425049788</v>
       </c>
       <c r="C46">
-        <v>0.001277662191904146</v>
+        <v>0.0008709313123322386</v>
       </c>
       <c r="D46">
-        <v>0.7509289033229314</v>
+        <v>0.652278602052781</v>
       </c>
       <c r="E46">
-        <v>1.033119127488469</v>
+        <v>1.031355303057502</v>
       </c>
       <c r="F46">
-        <v>64684.61011302021</v>
+        <v>81247.32594895428</v>
       </c>
       <c r="G46">
-        <v>120.1245040893555</v>
+        <v>118.3599624633789</v>
       </c>
       <c r="H46">
-        <v>0.08241034299135208</v>
+        <v>0.1121187284588814</v>
       </c>
       <c r="I46">
-        <v>0.001275137299671769</v>
+        <v>0.0008683715714141726</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>74.61738681919796</v>
+        <v>105.1664765044687</v>
       </c>
       <c r="B47">
-        <v>0.09091116216955381</v>
+        <v>0.1168715706377434</v>
       </c>
       <c r="C47">
-        <v>0.0007101230040220238</v>
+        <v>0.0007623928465260522</v>
       </c>
       <c r="D47">
-        <v>0.7244274660794678</v>
+        <v>0.6416349732574713</v>
       </c>
       <c r="E47">
-        <v>1.039774856525604</v>
+        <v>1.03141082929297</v>
       </c>
       <c r="F47">
-        <v>115268.2536515907</v>
+        <v>91595.92805019853</v>
       </c>
       <c r="G47">
-        <v>74.14821624755859</v>
+        <v>105.7139053344727</v>
       </c>
       <c r="H47">
-        <v>0.09100337326526642</v>
+        <v>0.1173816546797752</v>
       </c>
       <c r="I47">
-        <v>0.0007023457437753677</v>
+        <v>0.0007626758306287229</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>101.1301089298916</v>
+        <v>104.1572151990577</v>
       </c>
       <c r="B48">
-        <v>0.1188979887622148</v>
+        <v>0.08013556695187395</v>
       </c>
       <c r="C48">
-        <v>0.00111788945842087</v>
+        <v>0.001244739074506377</v>
       </c>
       <c r="D48">
-        <v>0.6912449994477253</v>
+        <v>0.7673108573008175</v>
       </c>
       <c r="E48">
-        <v>1.030575868810828</v>
+        <v>1.035136392186073</v>
       </c>
       <c r="F48">
-        <v>67486.50834535131</v>
+        <v>68572.4735172962</v>
       </c>
       <c r="G48">
-        <v>100.8356323242188</v>
+        <v>104.3744354248047</v>
       </c>
       <c r="H48">
-        <v>0.1190713122487068</v>
+        <v>0.07958208024501801</v>
       </c>
       <c r="I48">
-        <v>0.00111280323471874</v>
+        <v>0.001242059399373829</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>88.40860597271177</v>
+        <v>100.7248429554271</v>
       </c>
       <c r="B49">
-        <v>0.1291294856585979</v>
+        <v>0.09244375750043954</v>
       </c>
       <c r="C49">
-        <v>0.001188207189821118</v>
+        <v>0.001125430485889327</v>
       </c>
       <c r="D49">
-        <v>0.6919086914895073</v>
+        <v>0.7371513626019832</v>
       </c>
       <c r="E49">
-        <v>1.030659096815424</v>
+        <v>1.033472885678268</v>
       </c>
       <c r="F49">
-        <v>63765.16661566282</v>
+        <v>72389.57729672205</v>
       </c>
       <c r="G49">
-        <v>113.6121444702148</v>
+        <v>115.4528961181641</v>
       </c>
       <c r="H49">
-        <v>0.1137344166636467</v>
+        <v>0.08524788171052933</v>
       </c>
       <c r="I49">
-        <v>0.001182602718472481</v>
+        <v>0.001121615176089108</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>104.6525769298825</v>
+        <v>128.3057845668371</v>
       </c>
       <c r="B50">
-        <v>0.1281383022802211</v>
+        <v>0.09482681319149597</v>
       </c>
       <c r="C50">
-        <v>0.00100588431797295</v>
+        <v>0.001069165855981058</v>
       </c>
       <c r="D50">
-        <v>0.6630887129205342</v>
+        <v>0.6998658411452112</v>
       </c>
       <c r="E50">
-        <v>1.030076447969352</v>
+        <v>1.031953285229078</v>
       </c>
       <c r="F50">
-        <v>71593.2130990243</v>
+        <v>71262.45872726377</v>
       </c>
       <c r="G50">
-        <v>105.6736526489258</v>
+        <v>109.9890213012695</v>
       </c>
       <c r="H50">
-        <v>0.1268824636936188</v>
+        <v>0.1065645143389702</v>
       </c>
       <c r="I50">
-        <v>0.001009179861284792</v>
+        <v>0.001075925771147013</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>127.5660004500055</v>
+        <v>91.83068650549828</v>
       </c>
       <c r="B51">
-        <v>0.1242969007329956</v>
+        <v>0.1111828138000284</v>
       </c>
       <c r="C51">
-        <v>0.0009003789217580855</v>
+        <v>0.00117549934336535</v>
       </c>
       <c r="D51">
-        <v>0.6259017067549253</v>
+        <v>0.7154356861691606</v>
       </c>
       <c r="E51">
-        <v>1.031170570294291</v>
+        <v>1.031980644630778</v>
       </c>
       <c r="F51">
-        <v>74908.02692560162</v>
+        <v>66986.4284475208</v>
       </c>
       <c r="G51">
-        <v>127.101432800293</v>
+        <v>110.5743789672852</v>
       </c>
       <c r="H51">
-        <v>0.1238811612129211</v>
+        <v>0.1014631316065788</v>
       </c>
       <c r="I51">
-        <v>0.0009009406203404069</v>
+        <v>0.001168763381429017</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>108.7342146673602</v>
+        <v>117.2749450572326</v>
       </c>
       <c r="B52">
-        <v>0.0877933759038418</v>
+        <v>0.08775351858261242</v>
       </c>
       <c r="C52">
-        <v>0.001174504097936443</v>
+        <v>0.001201387622550085</v>
       </c>
       <c r="D52">
-        <v>0.7430311663603053</v>
+        <v>0.7379204057137225</v>
       </c>
       <c r="E52">
-        <v>1.033340787225527</v>
+        <v>1.032721662477835</v>
       </c>
       <c r="F52">
-        <v>69789.22161430112</v>
+        <v>67459.05634045281</v>
       </c>
       <c r="G52">
-        <v>117.627067565918</v>
+        <v>114.8572235107422</v>
       </c>
       <c r="H52">
-        <v>0.08367262035608292</v>
+        <v>0.08873207122087479</v>
       </c>
       <c r="I52">
-        <v>0.00117189809679985</v>
+        <v>0.001203316845931113</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>72.12174614532945</v>
+        <v>103.3176464480176</v>
       </c>
       <c r="B53">
-        <v>0.1295206746048684</v>
+        <v>0.08819751528517997</v>
       </c>
       <c r="C53">
-        <v>0.0007583457553794547</v>
+        <v>0.000990075398902614</v>
       </c>
       <c r="D53">
-        <v>0.6713581517234944</v>
+        <v>0.730127444918788</v>
       </c>
       <c r="E53">
-        <v>1.033607528605515</v>
+        <v>1.034046943603293</v>
       </c>
       <c r="F53">
-        <v>98010.11850424354</v>
+        <v>81547.30783861106</v>
       </c>
       <c r="G53">
-        <v>107.6986312866211</v>
+        <v>108.992317199707</v>
       </c>
       <c r="H53">
-        <v>0.09707831591367722</v>
+        <v>0.08508356660604477</v>
       </c>
       <c r="I53">
-        <v>0.0007532954914495349</v>
+        <v>0.0009873855160549283</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>95.82414637048367</v>
+        <v>93.73802005754357</v>
       </c>
       <c r="B54">
-        <v>0.08496520246338708</v>
+        <v>0.0913533492784521</v>
       </c>
       <c r="C54">
-        <v>0.0009652213826379551</v>
+        <v>0.001228712950845664</v>
       </c>
       <c r="D54">
-        <v>0.7420972316457739</v>
+        <v>0.7515819058767728</v>
       </c>
       <c r="E54">
-        <v>1.035695301569764</v>
+        <v>1.034487237229679</v>
       </c>
       <c r="F54">
-        <v>85650.14209179072</v>
+        <v>67984.43618423257</v>
       </c>
       <c r="G54">
-        <v>98.50467681884766</v>
+        <v>94.20654296875</v>
       </c>
       <c r="H54">
-        <v>0.08392449468374252</v>
+        <v>0.09075769782066345</v>
       </c>
       <c r="I54">
-        <v>0.0009616370662115514</v>
+        <v>0.001223165658302605</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>100.601011139095</v>
+        <v>127.3279559983469</v>
       </c>
       <c r="B55">
-        <v>0.07635436929293393</v>
+        <v>0.1186181248925939</v>
       </c>
       <c r="C55">
-        <v>0.001011971424742503</v>
+        <v>0.001249851406420663</v>
       </c>
       <c r="D55">
-        <v>0.7603713836825857</v>
+        <v>0.6793305732205881</v>
       </c>
       <c r="E55">
-        <v>1.036827417593963</v>
+        <v>1.030246617183114</v>
       </c>
       <c r="F55">
-        <v>84004.68860621215</v>
+        <v>58732.60145294563</v>
       </c>
       <c r="G55">
-        <v>100.8290557861328</v>
+        <v>126.642707824707</v>
       </c>
       <c r="H55">
-        <v>0.07603295892477036</v>
+        <v>0.1186508536338806</v>
       </c>
       <c r="I55">
-        <v>0.001008577062748373</v>
+        <v>0.001248887274414301</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>102.1706496822071</v>
+        <v>105.8989581618812</v>
       </c>
       <c r="B56">
-        <v>0.1270571566633237</v>
+        <v>0.1046554054026009</v>
       </c>
       <c r="C56">
-        <v>0.001116373846560729</v>
+        <v>0.0008629306572548688</v>
       </c>
       <c r="D56">
-        <v>0.6780824810907395</v>
+        <v>0.6791326898199512</v>
       </c>
       <c r="E56">
-        <v>1.030007417816073</v>
+        <v>1.032016266763169</v>
       </c>
       <c r="F56">
-        <v>66077.63294655208</v>
+        <v>86090.07473330088</v>
       </c>
       <c r="G56">
-        <v>102.3433609008789</v>
+        <v>96.88947296142578</v>
       </c>
       <c r="H56">
-        <v>0.1268762648105621</v>
+        <v>0.1125468835234642</v>
       </c>
       <c r="I56">
-        <v>0.001117385225370526</v>
+        <v>0.0008630073280073702</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>110.8835506362303</v>
+        <v>77.13501652876081</v>
       </c>
       <c r="B57">
-        <v>0.08400521532808579</v>
+        <v>0.07451663678996408</v>
       </c>
       <c r="C57">
-        <v>0.0007545314392194457</v>
+        <v>0.001064527215874477</v>
       </c>
       <c r="D57">
-        <v>0.6916603426226564</v>
+        <v>0.789451639696944</v>
       </c>
       <c r="E57">
-        <v>1.034493140895126</v>
+        <v>1.043698377110969</v>
       </c>
       <c r="F57">
-        <v>100975.527628077</v>
+        <v>85097.22580815147</v>
       </c>
       <c r="G57">
-        <v>96.81012725830078</v>
+        <v>75.62664794921875</v>
       </c>
       <c r="H57">
-        <v>0.09473104774951935</v>
+        <v>0.07497327029705048</v>
       </c>
       <c r="I57">
-        <v>0.000756004243157804</v>
+        <v>0.001063504605554044</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>86.65576586390597</v>
+        <v>95.0523520598114</v>
       </c>
       <c r="B58">
-        <v>0.111386095904665</v>
+        <v>0.07469476598142813</v>
       </c>
       <c r="C58">
-        <v>0.0008366557009227165</v>
+        <v>0.001015950417292282</v>
       </c>
       <c r="D58">
-        <v>0.6893741094844896</v>
+        <v>0.7699908813783033</v>
       </c>
       <c r="E58">
-        <v>1.033053102593614</v>
+        <v>1.038320835599558</v>
       </c>
       <c r="F58">
-        <v>90918.44856958336</v>
+        <v>85259.085965943</v>
       </c>
       <c r="G58">
-        <v>96.1671142578125</v>
+        <v>95.40471649169922</v>
       </c>
       <c r="H58">
-        <v>0.1037992238998413</v>
+        <v>0.07438525557518005</v>
       </c>
       <c r="I58">
-        <v>0.0008358861086890101</v>
+        <v>0.001009134924970567</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>77.73163392797922</v>
+        <v>116.8949036608965</v>
       </c>
       <c r="B59">
-        <v>0.07350138153883533</v>
+        <v>0.09227721665694998</v>
       </c>
       <c r="C59">
-        <v>0.0009461809376140754</v>
+        <v>0.001022767467491141</v>
       </c>
       <c r="D59">
-        <v>0.7836174803134465</v>
+        <v>0.7111865708036553</v>
       </c>
       <c r="E59">
-        <v>1.044026492201375</v>
+        <v>1.032481142595191</v>
       </c>
       <c r="F59">
-        <v>95051.63922418877</v>
+        <v>76150.48640377924</v>
       </c>
       <c r="G59">
-        <v>77.61281585693359</v>
+        <v>106.3356781005859</v>
       </c>
       <c r="H59">
-        <v>0.07260549068450928</v>
+        <v>0.09824045747518539</v>
       </c>
       <c r="I59">
-        <v>0.0009546757792122662</v>
+        <v>0.001026399433612823</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>93.56054059282566</v>
+        <v>111.6248213943528</v>
       </c>
       <c r="B60">
-        <v>0.1138425459476486</v>
+        <v>0.1159954630363695</v>
       </c>
       <c r="C60">
-        <v>0.001073976803812078</v>
+        <v>0.001262597856378737</v>
       </c>
       <c r="D60">
-        <v>0.7025655854041015</v>
+        <v>0.697661067075274</v>
       </c>
       <c r="E60">
-        <v>1.031611943632618</v>
+        <v>1.030252427916233</v>
       </c>
       <c r="F60">
-        <v>71826.831781958</v>
+        <v>60096.22742319141</v>
       </c>
       <c r="G60">
-        <v>107.0227203369141</v>
+        <v>105.6819686889648</v>
       </c>
       <c r="H60">
-        <v>0.1050769686698914</v>
+        <v>0.1192361563444138</v>
       </c>
       <c r="I60">
-        <v>0.00106576515827328</v>
+        <v>0.001262401230633259</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>127.3843433677569</v>
+        <v>124.9804197901945</v>
       </c>
       <c r="B61">
-        <v>0.1229032127400304</v>
+        <v>0.1113210055887208</v>
       </c>
       <c r="C61">
-        <v>0.00123217646873045</v>
+        <v>0.0008831132216158173</v>
       </c>
       <c r="D61">
-        <v>0.6712267614482742</v>
+        <v>0.6463295955374015</v>
       </c>
       <c r="E61">
-        <v>1.030162139747776</v>
+        <v>1.031510407656646</v>
       </c>
       <c r="F61">
-        <v>58792.79863789047</v>
+        <v>79210.71232959915</v>
       </c>
       <c r="G61">
-        <v>126.699951171875</v>
+        <v>124.6268157958984</v>
       </c>
       <c r="H61">
-        <v>0.1225026473402977</v>
+        <v>0.1117569878697395</v>
       </c>
       <c r="I61">
-        <v>0.001232064561918378</v>
+        <v>0.0008805968682281673</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>81.22785350505069</v>
+        <v>85.56264304849121</v>
       </c>
       <c r="B62">
-        <v>0.08634621372795775</v>
+        <v>0.1124789412790712</v>
       </c>
       <c r="C62">
-        <v>0.001071295700944826</v>
+        <v>0.001290060386940746</v>
       </c>
       <c r="D62">
-        <v>0.7619058217169913</v>
+        <v>0.7233980588459209</v>
       </c>
       <c r="E62">
-        <v>1.03841754716077</v>
+        <v>1.032616465598021</v>
       </c>
       <c r="F62">
-        <v>80204.54288786212</v>
+        <v>61947.18219032428</v>
       </c>
       <c r="G62">
-        <v>81.16973114013672</v>
+        <v>85.74933624267578</v>
       </c>
       <c r="H62">
-        <v>0.08642566204071045</v>
+        <v>0.1120822951197624</v>
       </c>
       <c r="I62">
-        <v>0.001064303447492421</v>
+        <v>0.001287499908357859</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>124.2390372956942</v>
+        <v>115.4916229812294</v>
       </c>
       <c r="B63">
-        <v>0.09274341376464572</v>
+        <v>0.1160326039632458</v>
       </c>
       <c r="C63">
-        <v>0.0007800768825609606</v>
+        <v>0.001241278728882539</v>
       </c>
       <c r="D63">
-        <v>0.659786208627306</v>
+        <v>0.6928303893200637</v>
       </c>
       <c r="E63">
-        <v>1.032969699070241</v>
+        <v>1.030231442446158</v>
       </c>
       <c r="F63">
-        <v>92131.06854128822</v>
+        <v>60608.78102076915</v>
       </c>
       <c r="G63">
-        <v>123.0698471069336</v>
+        <v>104.8866119384766</v>
       </c>
       <c r="H63">
-        <v>0.09268553555011749</v>
+        <v>0.1222150847315788</v>
       </c>
       <c r="I63">
-        <v>0.0007814713171683252</v>
+        <v>0.001244278508238494</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>102.6283570046396</v>
+        <v>97.59251244367125</v>
       </c>
       <c r="B64">
-        <v>0.09245777099925498</v>
+        <v>0.08722916277317977</v>
       </c>
       <c r="C64">
-        <v>0.001288348079672369</v>
+        <v>0.0009752337331681016</v>
       </c>
       <c r="D64">
-        <v>0.7464108438955319</v>
+        <v>0.7366463308415901</v>
       </c>
       <c r="E64">
-        <v>1.033112754894964</v>
+        <v>1.03496101536423</v>
       </c>
       <c r="F64">
-        <v>63972.11208752811</v>
+        <v>83902.74278489826</v>
       </c>
       <c r="G64">
-        <v>101.3477554321289</v>
+        <v>111.3890762329102</v>
       </c>
       <c r="H64">
-        <v>0.09273909777402878</v>
+        <v>0.08006717264652252</v>
       </c>
       <c r="I64">
-        <v>0.001278837444260716</v>
+        <v>0.0009705685079097748</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>97.41468529874595</v>
+        <v>104.4165848180089</v>
       </c>
       <c r="B65">
-        <v>0.114927295452408</v>
+        <v>0.1028953769165253</v>
       </c>
       <c r="C65">
-        <v>0.001223071440853296</v>
+        <v>0.0011904719581709</v>
       </c>
       <c r="D65">
-        <v>0.7080071533641324</v>
+        <v>0.7199426661974285</v>
       </c>
       <c r="E65">
-        <v>1.031032946151278</v>
+        <v>1.031726535960857</v>
       </c>
       <c r="F65">
-        <v>63405.36262171731</v>
+        <v>66333.51646679232</v>
       </c>
       <c r="G65">
-        <v>109.5109176635742</v>
+        <v>110.753044128418</v>
       </c>
       <c r="H65">
-        <v>0.1085422188043594</v>
+        <v>0.09970006346702576</v>
       </c>
       <c r="I65">
-        <v>0.001223067403770983</v>
+        <v>0.001190597773529589</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>122.9224846137934</v>
+        <v>127.302800860377</v>
       </c>
       <c r="B66">
-        <v>0.08426843455234234</v>
+        <v>0.1026011584190062</v>
       </c>
       <c r="C66">
-        <v>0.001001632456687194</v>
+        <v>0.001161428196592084</v>
       </c>
       <c r="D66">
-        <v>0.7180551658842926</v>
+        <v>0.6971809899091966</v>
       </c>
       <c r="E66">
-        <v>1.033268379973316</v>
+        <v>1.031180272956723</v>
       </c>
       <c r="F66">
-        <v>78613.77367316131</v>
+        <v>65191.40947676003</v>
       </c>
       <c r="G66">
-        <v>110.1783828735352</v>
+        <v>109.8661270141602</v>
       </c>
       <c r="H66">
-        <v>0.09101053327322006</v>
+        <v>0.1127150282263756</v>
       </c>
       <c r="I66">
-        <v>0.000999326934106648</v>
+        <v>0.001167622744105756</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>97.51623770611515</v>
+        <v>128.7571791993506</v>
       </c>
       <c r="B67">
-        <v>0.08031118594285859</v>
+        <v>0.114377950070797</v>
       </c>
       <c r="C67">
-        <v>0.00125340878907798</v>
+        <v>0.001106736981771113</v>
       </c>
       <c r="D67">
-        <v>0.7722417368705079</v>
+        <v>0.6699343854537249</v>
       </c>
       <c r="E67">
-        <v>1.036113607922656</v>
+        <v>1.030761873845444</v>
       </c>
       <c r="F67">
-        <v>68854.52178132093</v>
+        <v>65437.05339180769</v>
       </c>
       <c r="G67">
-        <v>97.73268127441406</v>
+        <v>128.5327453613281</v>
       </c>
       <c r="H67">
-        <v>0.08070660382509232</v>
+        <v>0.1146930381655693</v>
       </c>
       <c r="I67">
-        <v>0.001249604043550789</v>
+        <v>0.001104661263525486</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>113.4500581966926</v>
+        <v>121.6954578355338</v>
       </c>
       <c r="B68">
-        <v>0.0969574989212643</v>
+        <v>0.1274122341463388</v>
       </c>
       <c r="C68">
-        <v>0.001024828476254281</v>
+        <v>0.0008919003336298925</v>
       </c>
       <c r="D68">
-        <v>0.7062920070955223</v>
+        <v>0.6273599964654849</v>
       </c>
       <c r="E68">
-        <v>1.03210422635024</v>
+        <v>1.030800150821342</v>
       </c>
       <c r="F68">
-        <v>75426.70490275986</v>
+        <v>75877.72758268045</v>
       </c>
       <c r="G68">
-        <v>103.5700454711914</v>
+        <v>121.1798934936523</v>
       </c>
       <c r="H68">
-        <v>0.102689690887928</v>
+        <v>0.1277384012937546</v>
       </c>
       <c r="I68">
-        <v>0.001021251315250993</v>
+        <v>0.0008908133604563773</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>93.94151930218612</v>
+        <v>91.54582526381778</v>
       </c>
       <c r="B69">
-        <v>0.08826810444263918</v>
+        <v>0.08667939668772796</v>
       </c>
       <c r="C69">
-        <v>0.001253983640733498</v>
+        <v>0.0008178705950925724</v>
       </c>
       <c r="D69">
-        <v>0.7586722341541576</v>
+        <v>0.7251960191655927</v>
       </c>
       <c r="E69">
-        <v>1.035012386868168</v>
+        <v>1.036302943201662</v>
       </c>
       <c r="F69">
-        <v>67379.26100820751</v>
+        <v>98907.49180608308</v>
       </c>
       <c r="G69">
-        <v>94.77121734619141</v>
+        <v>97.80361938476562</v>
       </c>
       <c r="H69">
-        <v>0.08809309452772141</v>
+        <v>0.08304223418235779</v>
       </c>
       <c r="I69">
-        <v>0.001251145149581134</v>
+        <v>0.0008156717522069812</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>124.2426635740575</v>
+        <v>123.2620501436392</v>
       </c>
       <c r="B70">
-        <v>0.1203513473355191</v>
+        <v>0.1175969003654229</v>
       </c>
       <c r="C70">
-        <v>0.001197938421162006</v>
+        <v>0.001102916618059455</v>
       </c>
       <c r="D70">
-        <v>0.6747090725877974</v>
+        <v>0.6700518056191868</v>
       </c>
       <c r="E70">
-        <v>1.030195660305991</v>
+        <v>1.030494270072366</v>
       </c>
       <c r="F70">
-        <v>60884.78636189843</v>
+        <v>65731.2601771786</v>
       </c>
       <c r="G70">
-        <v>123.880744934082</v>
+        <v>123.5035858154297</v>
       </c>
       <c r="H70">
-        <v>0.1202794015407562</v>
+        <v>0.1174974963068962</v>
       </c>
       <c r="I70">
-        <v>0.001199990045279264</v>
+        <v>0.001100692432373762</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>111.4015012114736</v>
+        <v>108.3165506584848</v>
       </c>
       <c r="B71">
-        <v>0.08426450956093834</v>
+        <v>0.1095982329113957</v>
       </c>
       <c r="C71">
-        <v>0.001280971846176578</v>
+        <v>0.00120578397784065</v>
       </c>
       <c r="D71">
-        <v>0.7555827568877244</v>
+        <v>0.7064898552923802</v>
       </c>
       <c r="E71">
-        <v>1.033554997771391</v>
+        <v>1.030874203930094</v>
       </c>
       <c r="F71">
-        <v>65132.53743818783</v>
+        <v>63960.71769592589</v>
       </c>
       <c r="G71">
-        <v>114.4340515136719</v>
+        <v>106.7463150024414</v>
       </c>
       <c r="H71">
-        <v>0.08334340900182724</v>
+        <v>0.1103071868419647</v>
       </c>
       <c r="I71">
-        <v>0.001278484123758972</v>
+        <v>0.001205780194140971</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>111.977323255031</v>
+        <v>95.79980682824279</v>
       </c>
       <c r="B72">
-        <v>0.1001433674493557</v>
+        <v>0.1048142722518076</v>
       </c>
       <c r="C72">
-        <v>0.001251869686466895</v>
+        <v>0.0007097516732064218</v>
       </c>
       <c r="D72">
-        <v>0.7229529440166833</v>
+        <v>0.6650412754282377</v>
       </c>
       <c r="E72">
-        <v>1.031516000110318</v>
+        <v>1.033068723140002</v>
       </c>
       <c r="F72">
-        <v>63192.24238684704</v>
+        <v>102968.153882284</v>
       </c>
       <c r="G72">
-        <v>110.8038330078125</v>
+        <v>90.08688354492188</v>
       </c>
       <c r="H72">
-        <v>0.1010221615433693</v>
+        <v>0.1104926764965057</v>
       </c>
       <c r="I72">
-        <v>0.001251667155884206</v>
+        <v>0.0007100170478224754</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>89.66322409342713</v>
+        <v>72.14456095002902</v>
       </c>
       <c r="B73">
-        <v>0.1265550159818758</v>
+        <v>0.1164927867608441</v>
       </c>
       <c r="C73">
-        <v>0.0007216202904571417</v>
+        <v>0.001085682025185107</v>
       </c>
       <c r="D73">
-        <v>0.6428400718666736</v>
+        <v>0.7173997947406099</v>
       </c>
       <c r="E73">
-        <v>1.031500650984298</v>
+        <v>1.034949762345703</v>
       </c>
       <c r="F73">
-        <v>97423.08144292615</v>
+        <v>73665.00138452149</v>
       </c>
       <c r="G73">
-        <v>91.79714965820312</v>
+        <v>72.34363555908203</v>
       </c>
       <c r="H73">
-        <v>0.1234357953071594</v>
+        <v>0.1164888441562653</v>
       </c>
       <c r="I73">
-        <v>0.0007213327335193753</v>
+        <v>0.001085156574845314</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>115.4067185642133</v>
+        <v>116.2076874514949</v>
       </c>
       <c r="B74">
-        <v>0.1080398618646796</v>
+        <v>0.126641947985686</v>
       </c>
       <c r="C74">
-        <v>0.000804863202496564</v>
+        <v>0.0009657238147733275</v>
       </c>
       <c r="D74">
-        <v>0.6497607976419914</v>
+        <v>0.6468824309839422</v>
       </c>
       <c r="E74">
-        <v>1.031774069769799</v>
+        <v>1.030328568668917</v>
       </c>
       <c r="F74">
-        <v>87751.4399838269</v>
+        <v>72436.01786773754</v>
       </c>
       <c r="G74">
-        <v>117.1833419799805</v>
+        <v>116.4160995483398</v>
       </c>
       <c r="H74">
-        <v>0.1062835603952408</v>
+        <v>0.1263726949691772</v>
       </c>
       <c r="I74">
-        <v>0.0008075246005319059</v>
+        <v>0.0009634902235120535</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>108.1636633268285</v>
+        <v>100.1263348434468</v>
       </c>
       <c r="B75">
-        <v>0.1220373643277479</v>
+        <v>0.07220148507216478</v>
       </c>
       <c r="C75">
-        <v>0.0009334808062607114</v>
+        <v>0.00123885265307619</v>
       </c>
       <c r="D75">
-        <v>0.6587869851820719</v>
+        <v>0.7873253441594941</v>
       </c>
       <c r="E75">
-        <v>1.030538061481173</v>
+        <v>1.037780792741614</v>
       </c>
       <c r="F75">
-        <v>76651.40706171868</v>
+        <v>71409.74602854702</v>
       </c>
       <c r="G75">
-        <v>108.4021606445312</v>
+        <v>99.92752075195312</v>
       </c>
       <c r="H75">
-        <v>0.1220237836241722</v>
+        <v>0.07223241776227951</v>
       </c>
       <c r="I75">
-        <v>0.0009304698905907571</v>
+        <v>0.001231442205607891</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>84.40121640278258</v>
+        <v>117.1713099679037</v>
       </c>
       <c r="B76">
-        <v>0.1264125813612861</v>
+        <v>0.07884400615079325</v>
       </c>
       <c r="C76">
-        <v>0.001271285618377252</v>
+        <v>0.0008928837585125231</v>
       </c>
       <c r="D76">
-        <v>0.7024846697710218</v>
+        <v>0.7205348405098186</v>
       </c>
       <c r="E76">
-        <v>1.031312108703894</v>
+        <v>1.034533855289955</v>
       </c>
       <c r="F76">
-        <v>60725.82533805999</v>
+        <v>88999.46362339793</v>
       </c>
       <c r="G76">
-        <v>83.57718658447266</v>
+        <v>106.8535385131836</v>
       </c>
       <c r="H76">
-        <v>0.1276964992284775</v>
+        <v>0.08514953404664993</v>
       </c>
       <c r="I76">
-        <v>0.001262687030248344</v>
+        <v>0.0008935235091485083</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>79.63232934911538</v>
+        <v>114.8813679605962</v>
       </c>
       <c r="B77">
-        <v>0.1150458917131811</v>
+        <v>0.115377233890067</v>
       </c>
       <c r="C77">
-        <v>0.0008800173516855577</v>
+        <v>0.0009845108873581731</v>
       </c>
       <c r="D77">
-        <v>0.6975137278319087</v>
+        <v>0.6680694501679801</v>
       </c>
       <c r="E77">
-        <v>1.033656499373038</v>
+        <v>1.030769869170989</v>
       </c>
       <c r="F77">
-        <v>87798.27856285183</v>
+        <v>73667.9523889007</v>
       </c>
       <c r="G77">
-        <v>103.4982452392578</v>
+        <v>115.2259674072266</v>
       </c>
       <c r="H77">
-        <v>0.09825064986944199</v>
+        <v>0.1151988953351974</v>
       </c>
       <c r="I77">
-        <v>0.0008709487738087773</v>
+        <v>0.000984085607342422</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>117.7834884710399</v>
+        <v>117.6140420829011</v>
       </c>
       <c r="B78">
-        <v>0.1119745036134851</v>
+        <v>0.07502748117460507</v>
       </c>
       <c r="C78">
-        <v>0.0007962805863325608</v>
+        <v>0.001008860262421112</v>
       </c>
       <c r="D78">
-        <v>0.6380494264821477</v>
+        <v>0.7452650926796417</v>
       </c>
       <c r="E78">
-        <v>1.031623369312156</v>
+        <v>1.035061562608602</v>
       </c>
       <c r="F78">
-        <v>86887.89637657868</v>
+        <v>81741.33244711249</v>
       </c>
       <c r="G78">
-        <v>118.4355697631836</v>
+        <v>112.8366012573242</v>
       </c>
       <c r="H78">
-        <v>0.1113461852073669</v>
+        <v>0.07763779163360596</v>
       </c>
       <c r="I78">
-        <v>0.0007965444237925112</v>
+        <v>0.001011291053146124</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>127.5499961821133</v>
+        <v>88.03906952180601</v>
       </c>
       <c r="B79">
-        <v>0.1280779339962536</v>
+        <v>0.1009674220444656</v>
       </c>
       <c r="C79">
-        <v>0.001231782799651936</v>
+        <v>0.0007842637128226318</v>
       </c>
       <c r="D79">
-        <v>0.663494792470514</v>
+        <v>0.6975826937859861</v>
       </c>
       <c r="E79">
-        <v>1.030021348317159</v>
+        <v>1.034368975429558</v>
       </c>
       <c r="F79">
-        <v>58055.59213535698</v>
+        <v>98551.94647673424</v>
       </c>
       <c r="G79">
-        <v>126.9689178466797</v>
+        <v>98.81520080566406</v>
       </c>
       <c r="H79">
-        <v>0.1270870566368103</v>
+        <v>0.09282129257917404</v>
       </c>
       <c r="I79">
-        <v>0.001225610030815005</v>
+        <v>0.000784632284194231</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>97.48832963560257</v>
+        <v>118.0479159440578</v>
       </c>
       <c r="B80">
-        <v>0.1296640473788608</v>
+        <v>0.08319164659849643</v>
       </c>
       <c r="C80">
-        <v>0.0009678366492899215</v>
+        <v>0.001127735381619344</v>
       </c>
       <c r="D80">
-        <v>0.6646525516619286</v>
+        <v>0.7399182867844797</v>
       </c>
       <c r="E80">
-        <v>1.030267758151803</v>
+        <v>1.033427670589766</v>
       </c>
       <c r="F80">
-        <v>74789.47468334551</v>
+        <v>72212.0199647635</v>
       </c>
       <c r="G80">
-        <v>100.4697952270508</v>
+        <v>114.6533279418945</v>
       </c>
       <c r="H80">
-        <v>0.1266215592622757</v>
+        <v>0.08454453945159912</v>
       </c>
       <c r="I80">
-        <v>0.000970394117757678</v>
+        <v>0.001129381009377539</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>105.4590499194211</v>
+        <v>102.93077970797</v>
       </c>
       <c r="B81">
-        <v>0.09710930096018558</v>
+        <v>0.0864577422305651</v>
       </c>
       <c r="C81">
-        <v>0.001244725356612596</v>
+        <v>0.001198285807072576</v>
       </c>
       <c r="D81">
-        <v>0.7330830737762567</v>
+        <v>0.7522619668479518</v>
       </c>
       <c r="E81">
-        <v>1.032261482981537</v>
+        <v>1.034126983708036</v>
       </c>
       <c r="F81">
-        <v>64754.30163603505</v>
+        <v>69561.48528748535</v>
       </c>
       <c r="G81">
-        <v>115.8182373046875</v>
+        <v>102.8551559448242</v>
       </c>
       <c r="H81">
-        <v>0.09213313460350037</v>
+        <v>0.08633871376514435</v>
       </c>
       <c r="I81">
-        <v>0.001237516873516142</v>
+        <v>0.00119699421338737</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>121.4633586516133</v>
+        <v>98.39957202694859</v>
       </c>
       <c r="B82">
-        <v>0.0742521866910525</v>
+        <v>0.112110428976665</v>
       </c>
       <c r="C82">
-        <v>0.0007961382797920859</v>
+        <v>0.0007347455661377561</v>
       </c>
       <c r="D82">
-        <v>0.7076015334308489</v>
+        <v>0.653906416702407</v>
       </c>
       <c r="E82">
-        <v>1.035264297895054</v>
+        <v>1.03208710790629</v>
       </c>
       <c r="F82">
-        <v>98000.1974113451</v>
+        <v>97358.00050590132</v>
       </c>
       <c r="G82">
-        <v>103.5165023803711</v>
+        <v>96.17662811279297</v>
       </c>
       <c r="H82">
-        <v>0.08528075367212296</v>
+        <v>0.1159611940383911</v>
       </c>
       <c r="I82">
-        <v>0.0007972652674652636</v>
+        <v>0.0007345983176492155</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>97.43340720123143</v>
+        <v>110.5075548292454</v>
       </c>
       <c r="B83">
-        <v>0.08756764188643114</v>
+        <v>0.0718115663961227</v>
       </c>
       <c r="C83">
-        <v>0.00109667050690486</v>
+        <v>0.0008748332923221416</v>
       </c>
       <c r="D83">
-        <v>0.7472935097252533</v>
+        <v>0.7424357660079903</v>
       </c>
       <c r="E83">
-        <v>1.034755206113849</v>
+        <v>1.036713309209214</v>
       </c>
       <c r="F83">
-        <v>75711.33298290735</v>
+        <v>94489.7285315269</v>
       </c>
       <c r="G83">
-        <v>98.69664764404297</v>
+        <v>107.3165435791016</v>
       </c>
       <c r="H83">
-        <v>0.08763977140188217</v>
+        <v>0.07343336194753647</v>
       </c>
       <c r="I83">
-        <v>0.001090719480998814</v>
+        <v>0.0008729550754651427</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>127.1124686099642</v>
+        <v>71.2815209763009</v>
       </c>
       <c r="B84">
-        <v>0.07914128234126383</v>
+        <v>0.1223991656741142</v>
       </c>
       <c r="C84">
-        <v>0.0009641582516976951</v>
+        <v>0.0007228268089210347</v>
       </c>
       <c r="D84">
-        <v>0.7191205321142327</v>
+        <v>0.6779355338661813</v>
       </c>
       <c r="E84">
-        <v>1.033882001754481</v>
+        <v>1.034766218867886</v>
       </c>
       <c r="F84">
-        <v>81860.38508093773</v>
+        <v>104238.3444801901</v>
       </c>
       <c r="G84">
-        <v>109.9008483886719</v>
+        <v>91.71510314941406</v>
       </c>
       <c r="H84">
-        <v>0.08845176547765732</v>
+        <v>0.104048028588295</v>
       </c>
       <c r="I84">
-        <v>0.0009644533856771886</v>
+        <v>0.0007186259608715773</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>104.5450697226923</v>
+        <v>76.13900895325565</v>
       </c>
       <c r="B85">
-        <v>0.09504918248776072</v>
+        <v>0.09666873732113621</v>
       </c>
       <c r="C85">
-        <v>0.0007458920614181712</v>
+        <v>0.001273926462812945</v>
       </c>
       <c r="D85">
-        <v>0.6769168115460589</v>
+        <v>0.7547349614267453</v>
       </c>
       <c r="E85">
-        <v>1.033442156556343</v>
+        <v>1.037312761658273</v>
       </c>
       <c r="F85">
-        <v>99705.66345280567</v>
+        <v>66621.98381326189</v>
       </c>
       <c r="G85">
-        <v>89.96017456054688</v>
+        <v>76.19230651855469</v>
       </c>
       <c r="H85">
-        <v>0.1071885600686073</v>
+        <v>0.09648542106151581</v>
       </c>
       <c r="I85">
-        <v>0.0007444145740009844</v>
+        <v>0.001267710817046463</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>119.2460272420789</v>
+        <v>87.53064191005132</v>
       </c>
       <c r="B86">
-        <v>0.07787735970839536</v>
+        <v>0.1001435976344261</v>
       </c>
       <c r="C86">
-        <v>0.0011178778867915</v>
+        <v>0.001100301292422294</v>
       </c>
       <c r="D86">
-        <v>0.7493031809041089</v>
+        <v>0.7327570183971516</v>
       </c>
       <c r="E86">
-        <v>1.034231366054525</v>
+        <v>1.034129418311438</v>
       </c>
       <c r="F86">
-        <v>73985.46036064232</v>
+        <v>73936.69995098643</v>
       </c>
       <c r="G86">
-        <v>118.6949615478516</v>
+        <v>88.04603576660156</v>
       </c>
       <c r="H86">
-        <v>0.07814127951860428</v>
+        <v>0.1000307276844978</v>
       </c>
       <c r="I86">
-        <v>0.001122008659876883</v>
+        <v>0.001100754598155618</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>124.5306231047643</v>
+        <v>128.9794065974704</v>
       </c>
       <c r="B87">
-        <v>0.1062470682412529</v>
+        <v>0.1024028778216215</v>
       </c>
       <c r="C87">
-        <v>0.0008484392533234922</v>
+        <v>0.001278520251672869</v>
       </c>
       <c r="D87">
-        <v>0.6489240793419687</v>
+        <v>0.7069786197844716</v>
       </c>
       <c r="E87">
-        <v>1.031857857747401</v>
+        <v>1.031005519553349</v>
       </c>
       <c r="F87">
-        <v>82911.49300625132</v>
+        <v>60038.5726285708</v>
       </c>
       <c r="G87">
-        <v>126.2307891845703</v>
+        <v>115.3226318359375</v>
       </c>
       <c r="H87">
-        <v>0.1043998897075653</v>
+        <v>0.1082918867468834</v>
       </c>
       <c r="I87">
-        <v>0.0008459447999484837</v>
+        <v>0.001287721679545939</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>118.9314291261141</v>
+        <v>78.38474673189729</v>
       </c>
       <c r="B88">
-        <v>0.09296848354947125</v>
+        <v>0.1087326576747696</v>
       </c>
       <c r="C88">
-        <v>0.0007237693135477107</v>
+        <v>0.001018896566998785</v>
       </c>
       <c r="D88">
-        <v>0.6537500980346327</v>
+        <v>0.7207490210420007</v>
       </c>
       <c r="E88">
-        <v>1.033183935486881</v>
+        <v>1.034657397565547</v>
       </c>
       <c r="F88">
-        <v>98551.80779565249</v>
+        <v>78729.73547205617</v>
       </c>
       <c r="G88">
-        <v>120.7478713989258</v>
+        <v>78.14875030517578</v>
       </c>
       <c r="H88">
-        <v>0.09214907139539719</v>
+        <v>0.1086665019392967</v>
       </c>
       <c r="I88">
-        <v>0.0007288310443982482</v>
+        <v>0.0010173877235502</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>79.56486780693736</v>
+        <v>89.83577804555262</v>
       </c>
       <c r="B89">
-        <v>0.1237231530572926</v>
+        <v>0.0906913951973649</v>
       </c>
       <c r="C89">
-        <v>0.0007359665789497439</v>
+        <v>0.001181241114337368</v>
       </c>
       <c r="D89">
-        <v>0.6653825927819952</v>
+        <v>0.7531202215379461</v>
       </c>
       <c r="E89">
-        <v>1.032897020133581</v>
+        <v>1.035305913840601</v>
       </c>
       <c r="F89">
-        <v>99692.37878978255</v>
+        <v>71103.26375509819</v>
       </c>
       <c r="G89">
-        <v>90.73977661132812</v>
+        <v>90.07106018066406</v>
       </c>
       <c r="H89">
-        <v>0.1117541939020157</v>
+        <v>0.09038256853818893</v>
       </c>
       <c r="I89">
-        <v>0.0007337864954024553</v>
+        <v>0.001178662525489926</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>107.733906343702</v>
+        <v>73.06318388151541</v>
       </c>
       <c r="B90">
-        <v>0.1280676803079101</v>
+        <v>0.07606644943380948</v>
       </c>
       <c r="C90">
-        <v>0.0007366471222400724</v>
+        <v>0.0009246483903278439</v>
       </c>
       <c r="D90">
-        <v>0.615397816468679</v>
+        <v>0.7807566322414765</v>
       </c>
       <c r="E90">
-        <v>1.030946857742948</v>
+        <v>1.045018540924327</v>
       </c>
       <c r="F90">
-        <v>90484.49204210629</v>
+        <v>97223.68795821624</v>
       </c>
       <c r="G90">
-        <v>106.9417724609375</v>
+        <v>69.71029663085938</v>
       </c>
       <c r="H90">
-        <v>0.127449631690979</v>
+        <v>0.07669059932231903</v>
       </c>
       <c r="I90">
-        <v>0.0007353218970820308</v>
+        <v>0.0009196422179229558</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>93.90605551718062</v>
+        <v>89.87613281756357</v>
       </c>
       <c r="B91">
-        <v>0.1028130941001653</v>
+        <v>0.0891027361999706</v>
       </c>
       <c r="C91">
-        <v>0.001244639774491023</v>
+        <v>0.0009122914195435845</v>
       </c>
       <c r="D91">
-        <v>0.7316708220100967</v>
+        <v>0.7346330707180031</v>
       </c>
       <c r="E91">
-        <v>1.032690574326936</v>
+        <v>1.035956715769871</v>
       </c>
       <c r="F91">
-        <v>64886.20240510526</v>
+        <v>89839.25484065771</v>
       </c>
       <c r="G91">
-        <v>93.87107086181641</v>
+        <v>89.64749145507812</v>
       </c>
       <c r="H91">
-        <v>0.1033591330051422</v>
+        <v>0.08967974781990051</v>
       </c>
       <c r="I91">
-        <v>0.00124220282305032</v>
+        <v>0.0009107404621317983</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>73.76277712140075</v>
+        <v>89.2195771906499</v>
       </c>
       <c r="B92">
-        <v>0.0864894141920558</v>
+        <v>0.08008852708136922</v>
       </c>
       <c r="C92">
-        <v>0.001143930350697461</v>
+        <v>0.0009269606902630796</v>
       </c>
       <c r="D92">
-        <v>0.7706444681855789</v>
+        <v>0.7555246115059061</v>
       </c>
       <c r="E92">
-        <v>1.040790254014559</v>
+        <v>1.038217775270993</v>
       </c>
       <c r="F92">
-        <v>76623.29227965612</v>
+        <v>91667.58022290136</v>
       </c>
       <c r="G92">
-        <v>74.44188690185547</v>
+        <v>89.17505645751953</v>
       </c>
       <c r="H92">
-        <v>0.08592323213815689</v>
+        <v>0.08018047362565994</v>
       </c>
       <c r="I92">
-        <v>0.001142060966230929</v>
+        <v>0.0009174566948786378</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>95.44193511339051</v>
+        <v>126.8084302566713</v>
       </c>
       <c r="B93">
-        <v>0.1055338251257102</v>
+        <v>0.1033679907670284</v>
       </c>
       <c r="C93">
-        <v>0.001238837414328241</v>
+        <v>0.001094717280235857</v>
       </c>
       <c r="D93">
-        <v>0.7256118966709827</v>
+        <v>0.6889326937704773</v>
       </c>
       <c r="E93">
-        <v>1.032179201632103</v>
+        <v>1.031284530323859</v>
       </c>
       <c r="F93">
-        <v>64497.72399666951</v>
+        <v>68323.03127632261</v>
       </c>
       <c r="G93">
-        <v>100.1855850219727</v>
+        <v>126.6409072875977</v>
       </c>
       <c r="H93">
-        <v>0.1041076704859734</v>
+        <v>0.1032701730728149</v>
       </c>
       <c r="I93">
-        <v>0.001240190234966576</v>
+        <v>0.001093861879780889</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>85.52104401336446</v>
+        <v>120.7092452197432</v>
       </c>
       <c r="B94">
-        <v>0.1238056694934646</v>
+        <v>0.0890817178576232</v>
       </c>
       <c r="C94">
-        <v>0.001103549386777913</v>
+        <v>0.0009156718906129913</v>
       </c>
       <c r="D94">
-        <v>0.6968131174346016</v>
+        <v>0.6979493226389573</v>
       </c>
       <c r="E94">
-        <v>1.031507631998229</v>
+        <v>1.032962079138354</v>
       </c>
       <c r="F94">
-        <v>69399.99343271909</v>
+        <v>83407.03637879633</v>
       </c>
       <c r="G94">
-        <v>111.2007141113281</v>
+        <v>104.4117431640625</v>
       </c>
       <c r="H94">
-        <v>0.108015388250351</v>
+        <v>0.1002253592014313</v>
       </c>
       <c r="I94">
-        <v>0.001097650150768459</v>
+        <v>0.0009187785326503217</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>120.9422985057106</v>
+        <v>92.96585315456628</v>
       </c>
       <c r="B95">
-        <v>0.09440400075014491</v>
+        <v>0.1274840306796061</v>
       </c>
       <c r="C95">
-        <v>0.00101736395741853</v>
+        <v>0.001240220470962535</v>
       </c>
       <c r="D95">
-        <v>0.70198168743117</v>
+        <v>0.6936562778482137</v>
       </c>
       <c r="E95">
-        <v>1.032165905553469</v>
+        <v>1.030351624127306</v>
       </c>
       <c r="F95">
-        <v>75343.26803619425</v>
+        <v>61124.96712765859</v>
       </c>
       <c r="G95">
-        <v>108.1004333496094</v>
+        <v>105.211555480957</v>
       </c>
       <c r="H95">
-        <v>0.1018955931067467</v>
+        <v>0.1211904361844063</v>
       </c>
       <c r="I95">
-        <v>0.00101809948682785</v>
+        <v>0.001237545162439346</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>71.99827759280177</v>
+        <v>71.48614348235492</v>
       </c>
       <c r="B96">
-        <v>0.1031246966015183</v>
+        <v>0.1279440566788168</v>
       </c>
       <c r="C96">
-        <v>0.000882667818608427</v>
+        <v>0.001289964919030093</v>
       </c>
       <c r="D96">
-        <v>0.7260606670824068</v>
+        <v>0.7081688772311036</v>
       </c>
       <c r="E96">
-        <v>1.037537472917495</v>
+        <v>1.033557818304534</v>
       </c>
       <c r="F96">
-        <v>92439.43583313809</v>
+        <v>60902.22194167466</v>
       </c>
       <c r="G96">
-        <v>72.28475189208984</v>
+        <v>72.10128784179688</v>
       </c>
       <c r="H96">
-        <v>0.1032285466790199</v>
+        <v>0.1283051371574402</v>
       </c>
       <c r="I96">
-        <v>0.0008806199766695499</v>
+        <v>0.001287754974327981</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>127.5389633118084</v>
+        <v>119.8618668397227</v>
       </c>
       <c r="B97">
-        <v>0.08629916605636875</v>
+        <v>0.1072075528340945</v>
       </c>
       <c r="C97">
-        <v>0.001298777350797204</v>
+        <v>0.0007182559092022035</v>
       </c>
       <c r="D97">
-        <v>0.7401669375814242</v>
+        <v>0.6247828934057823</v>
       </c>
       <c r="E97">
-        <v>1.032374589261583</v>
+        <v>1.032287293350334</v>
       </c>
       <c r="F97">
-        <v>62364.36633244278</v>
+        <v>94322.65401426016</v>
       </c>
       <c r="G97">
-        <v>116.0914840698242</v>
+        <v>119.6565628051758</v>
       </c>
       <c r="H97">
-        <v>0.09048361331224442</v>
+        <v>0.1071674674749374</v>
       </c>
       <c r="I97">
-        <v>0.001291756285354495</v>
+        <v>0.000713577086571604</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>91.32213090831578</v>
+        <v>109.6321706286724</v>
       </c>
       <c r="B98">
-        <v>0.09732664896700162</v>
+        <v>0.1070498360600372</v>
       </c>
       <c r="C98">
-        <v>0.0009173134353636336</v>
+        <v>0.0008161739742414978</v>
       </c>
       <c r="D98">
-        <v>0.7178954825409268</v>
+        <v>0.661790460231261</v>
       </c>
       <c r="E98">
-        <v>1.034212867037765</v>
+        <v>1.031832141173303</v>
       </c>
       <c r="F98">
-        <v>86740.4896913246</v>
+        <v>88412.48401310485</v>
       </c>
       <c r="G98">
-        <v>108.1237564086914</v>
+        <v>109.6234893798828</v>
       </c>
       <c r="H98">
-        <v>0.08750529587268829</v>
+        <v>0.1076798364520073</v>
       </c>
       <c r="I98">
-        <v>0.0009092445834539831</v>
+        <v>0.0008155677351169288</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>91.40241342415257</v>
+        <v>79.14186901907858</v>
       </c>
       <c r="B99">
-        <v>0.09410281212277592</v>
+        <v>0.1291227138740264</v>
       </c>
       <c r="C99">
-        <v>0.0009823893695283456</v>
+        <v>0.0007673499955524316</v>
       </c>
       <c r="D99">
-        <v>0.7306129590771383</v>
+        <v>0.6630894858916745</v>
       </c>
       <c r="E99">
-        <v>1.034640524529086</v>
+        <v>1.032347858549144</v>
       </c>
       <c r="F99">
-        <v>82609.74492645131</v>
+        <v>95125.33980780448</v>
       </c>
       <c r="G99">
-        <v>105.1460952758789</v>
+        <v>92.76264190673828</v>
       </c>
       <c r="H99">
-        <v>0.0864746943116188</v>
+        <v>0.1159805953502655</v>
       </c>
       <c r="I99">
-        <v>0.000977218383923173</v>
+        <v>0.0007650144398212433</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>70.97971016102247</v>
+        <v>129.7642762606112</v>
       </c>
       <c r="B100">
-        <v>0.08490480790497827</v>
+        <v>0.1232369890741111</v>
       </c>
       <c r="C100">
-        <v>0.000926947104954077</v>
+        <v>0.0007254184282548659</v>
       </c>
       <c r="D100">
-        <v>0.7644000309556259</v>
+        <v>0.5861427165154036</v>
       </c>
       <c r="E100">
-        <v>1.042640582278119</v>
+        <v>1.03245711765436</v>
       </c>
       <c r="F100">
-        <v>94261.78920881344</v>
+        <v>86914.65529267423</v>
       </c>
       <c r="G100">
-        <v>70.90176391601562</v>
+        <v>131.3407592773438</v>
       </c>
       <c r="H100">
-        <v>0.08462376892566681</v>
+        <v>0.1233881711959839</v>
       </c>
       <c r="I100">
-        <v>0.00093222432769835</v>
+        <v>0.0007260189158841968</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>81.11393951417104</v>
+        <v>76.01400624544736</v>
       </c>
       <c r="B101">
-        <v>0.1003519830295185</v>
+        <v>0.1159041969494884</v>
       </c>
       <c r="C101">
-        <v>0.001287716157601275</v>
+        <v>0.0008366445960083719</v>
       </c>
       <c r="D101">
-        <v>0.7459933583562693</v>
+        <v>0.6958885794427496</v>
       </c>
       <c r="E101">
-        <v>1.035269085127249</v>
+        <v>1.034352471388256</v>
       </c>
       <c r="F101">
-        <v>64665.23599851636</v>
+        <v>92372.41631633101</v>
       </c>
       <c r="G101">
-        <v>81.36767578125</v>
+        <v>106.8873672485352</v>
       </c>
       <c r="H101">
-        <v>0.1005188301205635</v>
+        <v>0.0945684015750885</v>
       </c>
       <c r="I101">
-        <v>0.00128034153021872</v>
+        <v>0.0008284549112431705</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -34,13 +34,13 @@
     <t>Mn</t>
   </si>
   <si>
-    <t>MLP_POX/C</t>
+    <t>MLP_X</t>
   </si>
   <si>
-    <t>MLP_C/A</t>
+    <t>MLP_PDI</t>
   </si>
   <si>
-    <t>MLP_POX/M</t>
+    <t>MLP_Mn</t>
   </si>
 </sst>
 </file>
@@ -435,2902 +435,2902 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>88.51167757326402</v>
+        <v>102.9288102356395</v>
       </c>
       <c r="B2">
-        <v>0.1220268724956198</v>
+        <v>0.1106689922077738</v>
       </c>
       <c r="C2">
-        <v>0.0008881543670456207</v>
+        <v>0.0008870775291964614</v>
       </c>
       <c r="D2">
-        <v>0.6770212946708715</v>
+        <v>0.6765301011239964</v>
       </c>
       <c r="E2">
-        <v>1.031614531897292</v>
+        <v>1.031541653942198</v>
       </c>
       <c r="F2">
-        <v>83638.08506954341</v>
+        <v>83359.60324788898</v>
       </c>
       <c r="G2">
-        <v>96.14943695068359</v>
+        <v>0.6774837970733643</v>
       </c>
       <c r="H2">
-        <v>0.1161399930715561</v>
+        <v>1.031551122665405</v>
       </c>
       <c r="I2">
-        <v>0.000886439171154052</v>
+        <v>83242.15625</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>126.5310831410829</v>
+        <v>112.9113619823452</v>
       </c>
       <c r="B3">
-        <v>0.08765596984778135</v>
+        <v>0.08620047839152989</v>
       </c>
       <c r="C3">
-        <v>0.0009193234168708458</v>
+        <v>0.001117806093289276</v>
       </c>
       <c r="D3">
-        <v>0.6943052679344474</v>
+        <v>0.7375798821586715</v>
       </c>
       <c r="E3">
-        <v>1.032983657124756</v>
+        <v>1.033328500261522</v>
       </c>
       <c r="F3">
-        <v>82487.27358984557</v>
+        <v>72682.04724471837</v>
       </c>
       <c r="G3">
-        <v>108.6264419555664</v>
+        <v>0.738593578338623</v>
       </c>
       <c r="H3">
-        <v>0.1004072204232216</v>
+        <v>1.033289074897766</v>
       </c>
       <c r="I3">
-        <v>0.0009234781609848142</v>
+        <v>73114.1328125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>123.2959024326426</v>
+        <v>106.1658025642986</v>
       </c>
       <c r="B4">
-        <v>0.09612120797950943</v>
+        <v>0.1141116413273557</v>
       </c>
       <c r="C4">
-        <v>0.0008207600594565193</v>
+        <v>0.0009266511035754885</v>
       </c>
       <c r="D4">
-        <v>0.6633807296348834</v>
+        <v>0.6725422275446007</v>
       </c>
       <c r="E4">
-        <v>1.032566006413728</v>
+        <v>1.031084374629653</v>
       </c>
       <c r="F4">
-        <v>87981.61046337902</v>
+        <v>79108.85986212012</v>
       </c>
       <c r="G4">
-        <v>121.7882461547852</v>
+        <v>0.6733792424201965</v>
       </c>
       <c r="H4">
-        <v>0.09729821234941483</v>
+        <v>1.031113028526306</v>
       </c>
       <c r="I4">
-        <v>0.0008201750461012125</v>
+        <v>78807.109375</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>121.6186407006052</v>
+        <v>102.6929909798138</v>
       </c>
       <c r="B5">
-        <v>0.1177273916065789</v>
+        <v>0.1277313127070463</v>
       </c>
       <c r="C5">
-        <v>0.0009922888761504248</v>
+        <v>0.0008077622065357808</v>
       </c>
       <c r="D5">
-        <v>0.657666350260603</v>
+        <v>0.6376968226066907</v>
       </c>
       <c r="E5">
-        <v>1.030735636217966</v>
+        <v>1.030652385635203</v>
       </c>
       <c r="F5">
-        <v>71719.38513131913</v>
+        <v>85752.72965709561</v>
       </c>
       <c r="G5">
-        <v>122.1214141845703</v>
+        <v>0.6371378898620605</v>
       </c>
       <c r="H5">
-        <v>0.1174391433596611</v>
+        <v>1.030600547790527</v>
       </c>
       <c r="I5">
-        <v>0.0009907281491905451</v>
+        <v>86015.0390625</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>109.1799856567146</v>
+        <v>95.41928796033429</v>
       </c>
       <c r="B6">
-        <v>0.1106505013596406</v>
+        <v>0.08492518861119749</v>
       </c>
       <c r="C6">
-        <v>0.001294221113283748</v>
+        <v>0.0007148072370347988</v>
       </c>
       <c r="D6">
-        <v>0.7101865584638075</v>
+        <v>0.704913330600222</v>
       </c>
       <c r="E6">
-        <v>1.030662254804428</v>
+        <v>1.036139491435101</v>
       </c>
       <c r="F6">
-        <v>59861.5811711793</v>
+        <v>109684.7455614534</v>
       </c>
       <c r="G6">
-        <v>110.0068664550781</v>
+        <v>0.7067958116531372</v>
       </c>
       <c r="H6">
-        <v>0.1103629544377327</v>
+        <v>1.036185026168823</v>
       </c>
       <c r="I6">
-        <v>0.001292276894673705</v>
+        <v>109372.4609375</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>90.65734988193634</v>
+        <v>108.7536467839994</v>
       </c>
       <c r="B7">
-        <v>0.1262718624666423</v>
+        <v>0.1045694400650702</v>
       </c>
       <c r="C7">
-        <v>0.001247290571806953</v>
+        <v>0.0007403497788779492</v>
       </c>
       <c r="D7">
-        <v>0.6974155870392358</v>
+        <v>0.6518371646395433</v>
       </c>
       <c r="E7">
-        <v>1.030636562242261</v>
+        <v>1.032322965411979</v>
       </c>
       <c r="F7">
-        <v>61213.02704584121</v>
+        <v>96074.57675937669</v>
       </c>
       <c r="G7">
-        <v>107.1488418579102</v>
+        <v>0.652129054069519</v>
       </c>
       <c r="H7">
-        <v>0.1172515377402306</v>
+        <v>1.032432556152344</v>
       </c>
       <c r="I7">
-        <v>0.001241423189640045</v>
+        <v>96288.4609375</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>102.9309560439583</v>
+        <v>96.25523267576153</v>
       </c>
       <c r="B8">
-        <v>0.107268419527623</v>
+        <v>0.1055225158763103</v>
       </c>
       <c r="C8">
-        <v>0.0007710096604116815</v>
+        <v>0.00110763566409914</v>
       </c>
       <c r="D8">
-        <v>0.6624167690206851</v>
+        <v>0.7163651786120372</v>
       </c>
       <c r="E8">
-        <v>1.032164325191001</v>
+        <v>1.0322412208754</v>
       </c>
       <c r="F8">
-        <v>93963.93641630546</v>
+        <v>71168.51648685322</v>
       </c>
       <c r="G8">
-        <v>93.58763885498047</v>
+        <v>0.7140440940856934</v>
       </c>
       <c r="H8">
-        <v>0.11654232442379</v>
+        <v>1.032156229019165</v>
       </c>
       <c r="I8">
-        <v>0.0007738089771009982</v>
+        <v>71335.0234375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>118.9135024429824</v>
+        <v>123.5063800469248</v>
       </c>
       <c r="B9">
-        <v>0.07586860968874318</v>
+        <v>0.1043351143474524</v>
       </c>
       <c r="C9">
-        <v>0.0007151141735743037</v>
+        <v>0.0009722181067336271</v>
       </c>
       <c r="D9">
-        <v>0.6886453872624446</v>
+        <v>0.6746546779479182</v>
       </c>
       <c r="E9">
-        <v>1.035348444148668</v>
+        <v>1.031511498512996</v>
       </c>
       <c r="F9">
-        <v>106082.8977690867</v>
+        <v>75364.00747281619</v>
       </c>
       <c r="G9">
-        <v>93.6348876953125</v>
+        <v>0.6753561496734619</v>
       </c>
       <c r="H9">
-        <v>0.09725892543792725</v>
+        <v>1.0316082239151</v>
       </c>
       <c r="I9">
-        <v>0.0007149982848204672</v>
+        <v>75142.5625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>75.91662212336867</v>
+        <v>127.8197656300618</v>
       </c>
       <c r="B10">
-        <v>0.123061621794517</v>
+        <v>0.08338489795843711</v>
       </c>
       <c r="C10">
-        <v>0.00123918260104496</v>
+        <v>0.001021947526665233</v>
       </c>
       <c r="D10">
-        <v>0.7112715207719114</v>
+        <v>0.7172963741503258</v>
       </c>
       <c r="E10">
-        <v>1.033114464658185</v>
+        <v>1.033195066815585</v>
       </c>
       <c r="F10">
-        <v>63567.66516628845</v>
+        <v>76843.3387495038</v>
       </c>
       <c r="G10">
-        <v>76.66681671142578</v>
+        <v>0.7180657982826233</v>
       </c>
       <c r="H10">
-        <v>0.1231334358453751</v>
+        <v>1.033108472824097</v>
       </c>
       <c r="I10">
-        <v>0.001237846678122878</v>
+        <v>76874.7265625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>118.0644928153183</v>
+        <v>93.00649112954666</v>
       </c>
       <c r="B11">
-        <v>0.1161493314993155</v>
+        <v>0.1271649406910191</v>
       </c>
       <c r="C11">
-        <v>0.001022302076769224</v>
+        <v>0.001238002775824205</v>
       </c>
       <c r="D11">
-        <v>0.668179685045809</v>
+        <v>0.6939588604413067</v>
       </c>
       <c r="E11">
-        <v>1.030635530898295</v>
+        <v>1.030371770025057</v>
       </c>
       <c r="F11">
-        <v>70862.86783747737</v>
+        <v>61266.41905307214</v>
       </c>
       <c r="G11">
-        <v>117.4822387695312</v>
+        <v>0.6945071220397949</v>
       </c>
       <c r="H11">
-        <v>0.1166461184620857</v>
+        <v>1.030417799949646</v>
       </c>
       <c r="I11">
-        <v>0.001023072865791619</v>
+        <v>61142.88671875</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>72.4707874796873</v>
+        <v>117.5035022849599</v>
       </c>
       <c r="B12">
-        <v>0.1127122270535993</v>
+        <v>0.09682752271705765</v>
       </c>
       <c r="C12">
-        <v>0.0008201139329250737</v>
+        <v>0.001294203368438023</v>
       </c>
       <c r="D12">
-        <v>0.7035304321077446</v>
+        <v>0.7275209620335886</v>
       </c>
       <c r="E12">
-        <v>1.035720665426116</v>
+        <v>1.031571856515702</v>
       </c>
       <c r="F12">
-        <v>95755.55662827226</v>
+        <v>61455.77192721204</v>
       </c>
       <c r="G12">
-        <v>72.77452087402344</v>
+        <v>0.7289760708808899</v>
       </c>
       <c r="H12">
-        <v>0.1124841570854187</v>
+        <v>1.03162670135498</v>
       </c>
       <c r="I12">
-        <v>0.0008184911566786468</v>
+        <v>61146.67578125</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>118.9852618728613</v>
+        <v>101.7336951851743</v>
       </c>
       <c r="B13">
-        <v>0.07322401284122412</v>
+        <v>0.1207845203482677</v>
       </c>
       <c r="C13">
-        <v>0.001104191961750781</v>
+        <v>0.0008301381906390843</v>
       </c>
       <c r="D13">
-        <v>0.7587878940306034</v>
+        <v>0.6531798667788801</v>
       </c>
       <c r="E13">
-        <v>1.035169655149863</v>
+        <v>1.031005654365718</v>
       </c>
       <c r="F13">
-        <v>76125.05062014364</v>
+        <v>85706.25246378352</v>
       </c>
       <c r="G13">
-        <v>117.4937057495117</v>
+        <v>0.653911292552948</v>
       </c>
       <c r="H13">
-        <v>0.07386670261621475</v>
+        <v>1.030972480773926</v>
       </c>
       <c r="I13">
-        <v>0.001104426220990717</v>
+        <v>86005.9453125</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>118.4538282495924</v>
+        <v>104.0826736656359</v>
       </c>
       <c r="B14">
-        <v>0.09377336467970465</v>
+        <v>0.1119687565190503</v>
       </c>
       <c r="C14">
-        <v>0.001086533906757892</v>
+        <v>0.00109784692186006</v>
       </c>
       <c r="D14">
-        <v>0.714062086037232</v>
+        <v>0.6975533333394081</v>
       </c>
       <c r="E14">
-        <v>1.032135111690494</v>
+        <v>1.031009962264024</v>
       </c>
       <c r="F14">
-        <v>71884.44498749498</v>
+        <v>69421.04594304698</v>
       </c>
       <c r="G14">
-        <v>108.8199691772461</v>
+        <v>0.6973139047622681</v>
       </c>
       <c r="H14">
-        <v>0.09904830157756805</v>
+        <v>1.03096616268158</v>
       </c>
       <c r="I14">
-        <v>0.001089090364985168</v>
+        <v>69896.2578125</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>73.06043852972535</v>
+        <v>125.5357982975597</v>
       </c>
       <c r="B15">
-        <v>0.08004614916757236</v>
+        <v>0.08784621705130802</v>
       </c>
       <c r="C15">
-        <v>0.0007732513641018803</v>
+        <v>0.0008579934260422905</v>
       </c>
       <c r="D15">
-        <v>0.7576872609672808</v>
+        <v>0.6841731222055687</v>
       </c>
       <c r="E15">
-        <v>1.043687561961453</v>
+        <v>1.033175114936769</v>
       </c>
       <c r="F15">
-        <v>112199.4353947776</v>
+        <v>87077.79006272611</v>
       </c>
       <c r="G15">
-        <v>70.10346984863281</v>
+        <v>0.6833380460739136</v>
       </c>
       <c r="H15">
-        <v>0.08053038269281387</v>
+        <v>1.033092617988586</v>
       </c>
       <c r="I15">
-        <v>0.0007530390867032111</v>
+        <v>86844.015625</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>107.6296426877115</v>
+        <v>74.26216349187322</v>
       </c>
       <c r="B16">
-        <v>0.1193142345044721</v>
+        <v>0.1188278691821486</v>
       </c>
       <c r="C16">
-        <v>0.0008557601400985717</v>
+        <v>0.0007123905996794371</v>
       </c>
       <c r="D16">
-        <v>0.6516963603979667</v>
+        <v>0.6771393545427827</v>
       </c>
       <c r="E16">
-        <v>1.030919684302962</v>
+        <v>1.034562180017237</v>
       </c>
       <c r="F16">
-        <v>82772.35082378407</v>
+        <v>105514.4251512981</v>
       </c>
       <c r="G16">
-        <v>107.7394561767578</v>
+        <v>0.6755130887031555</v>
       </c>
       <c r="H16">
-        <v>0.1200811341404915</v>
+        <v>1.034595370292664</v>
       </c>
       <c r="I16">
-        <v>0.0008542148279957473</v>
+        <v>104550.296875</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>100.1471844587738</v>
+        <v>75.22775798209244</v>
       </c>
       <c r="B17">
-        <v>0.1120317173690718</v>
+        <v>0.09379034445081909</v>
       </c>
       <c r="C17">
-        <v>0.0007360467785879547</v>
+        <v>0.001155027192301685</v>
       </c>
       <c r="D17">
-        <v>0.6515808412183407</v>
+        <v>0.7563221133280174</v>
       </c>
       <c r="E17">
-        <v>1.031973390355865</v>
+        <v>1.038305579808601</v>
       </c>
       <c r="F17">
-        <v>96750.83675067725</v>
+        <v>73866.71347700851</v>
       </c>
       <c r="G17">
-        <v>98.19094085693359</v>
+        <v>0.7560962438583374</v>
       </c>
       <c r="H17">
-        <v>0.1151489168405533</v>
+        <v>1.038443684577942</v>
       </c>
       <c r="I17">
-        <v>0.0007350740488618612</v>
+        <v>73624.7890625</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>80.18917019030289</v>
+        <v>71.21310384641954</v>
       </c>
       <c r="B18">
-        <v>0.1229846558391481</v>
+        <v>0.1228661918266697</v>
       </c>
       <c r="C18">
-        <v>0.0008259162843220852</v>
+        <v>0.0008920102904934807</v>
       </c>
       <c r="D18">
-        <v>0.6785032421655418</v>
+        <v>0.6963128611749199</v>
       </c>
       <c r="E18">
-        <v>1.032703394387969</v>
+        <v>1.034450528384964</v>
       </c>
       <c r="F18">
-        <v>90611.12909845088</v>
+        <v>86794.65294040316</v>
       </c>
       <c r="G18">
-        <v>97.84149932861328</v>
+        <v>0.6964543461799622</v>
       </c>
       <c r="H18">
-        <v>0.1081205159425735</v>
+        <v>1.034348368644714</v>
       </c>
       <c r="I18">
-        <v>0.0008197598508559167</v>
+        <v>86993.484375</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>78.90273626064254</v>
+        <v>119.9571907328763</v>
       </c>
       <c r="B19">
-        <v>0.1279945064154498</v>
+        <v>0.1048763723581515</v>
       </c>
       <c r="C19">
-        <v>0.0007793834049118377</v>
+        <v>0.0009300783365031388</v>
       </c>
       <c r="D19">
-        <v>0.6667634399978472</v>
+        <v>0.6715402119241732</v>
       </c>
       <c r="E19">
-        <v>1.032468518616967</v>
+        <v>1.031569153727712</v>
       </c>
       <c r="F19">
-        <v>94240.07090861004</v>
+        <v>78492.01711668252</v>
       </c>
       <c r="G19">
-        <v>93.25701904296875</v>
+        <v>0.6717262864112854</v>
       </c>
       <c r="H19">
-        <v>0.1147200763225555</v>
+        <v>1.031636595726013</v>
       </c>
       <c r="I19">
-        <v>0.000777068838942796</v>
+        <v>77981.421875</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>116.3955475640214</v>
+        <v>116.689405056991</v>
       </c>
       <c r="B20">
-        <v>0.1164848568515499</v>
+        <v>0.1229041217112912</v>
       </c>
       <c r="C20">
-        <v>0.0008159417754847337</v>
+        <v>0.001052990268132163</v>
       </c>
       <c r="D20">
-        <v>0.6367867920722919</v>
+        <v>0.6630826259204285</v>
       </c>
       <c r="E20">
-        <v>1.031294877749422</v>
+        <v>1.030246552019987</v>
       </c>
       <c r="F20">
-        <v>84564.91808664342</v>
+        <v>68175.27767763517</v>
       </c>
       <c r="G20">
-        <v>116.5659637451172</v>
+        <v>0.6640064716339111</v>
       </c>
       <c r="H20">
-        <v>0.1168705299496651</v>
+        <v>1.030321598052979</v>
       </c>
       <c r="I20">
-        <v>0.0008151788497343659</v>
+        <v>68509.0078125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>104.0615649302106</v>
+        <v>122.2007288948091</v>
       </c>
       <c r="B21">
-        <v>0.1296539849932457</v>
+        <v>0.111551895404666</v>
       </c>
       <c r="C21">
-        <v>0.00111128028754787</v>
+        <v>0.001198629073141714</v>
       </c>
       <c r="D21">
-        <v>0.6721387297864476</v>
+        <v>0.6904462379772028</v>
       </c>
       <c r="E21">
-        <v>1.029803336599652</v>
+        <v>1.030551263373257</v>
       </c>
       <c r="F21">
-        <v>65691.44059621447</v>
+        <v>62480.64448872031</v>
       </c>
       <c r="G21">
-        <v>104.9972991943359</v>
+        <v>0.6902992725372314</v>
       </c>
       <c r="H21">
-        <v>0.1287578344345093</v>
+        <v>1.03056788444519</v>
       </c>
       <c r="I21">
-        <v>0.001108085154555738</v>
+        <v>62676.390625</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>128.979948094992</v>
+        <v>128.7171005339658</v>
       </c>
       <c r="B22">
-        <v>0.1068861931686579</v>
+        <v>0.1135152567891784</v>
       </c>
       <c r="C22">
-        <v>0.0007296998465566406</v>
+        <v>0.001077389106154689</v>
       </c>
       <c r="D22">
-        <v>0.6144482149542597</v>
+        <v>0.6677913145456337</v>
       </c>
       <c r="E22">
-        <v>1.0326685188546</v>
+        <v>1.030879196314708</v>
       </c>
       <c r="F22">
-        <v>91009.49463386944</v>
+        <v>67016.16806442736</v>
       </c>
       <c r="G22">
-        <v>127.5947723388672</v>
+        <v>0.6666747331619263</v>
       </c>
       <c r="H22">
-        <v>0.1083781644701958</v>
+        <v>1.030833959579468</v>
       </c>
       <c r="I22">
-        <v>0.0007242757128551602</v>
+        <v>66960.9609375</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>128.9348666373006</v>
+        <v>117.9495138530034</v>
       </c>
       <c r="B23">
-        <v>0.07222777623348688</v>
+        <v>0.1000794629156021</v>
       </c>
       <c r="C23">
-        <v>0.0007611127691489299</v>
+        <v>0.001223590393268437</v>
       </c>
       <c r="D23">
-        <v>0.6941039745766939</v>
+        <v>0.7159140626928737</v>
       </c>
       <c r="E23">
-        <v>1.035335597106218</v>
+        <v>1.031354922365857</v>
       </c>
       <c r="F23">
-        <v>100243.1146830855</v>
+        <v>63849.76662198611</v>
       </c>
       <c r="G23">
-        <v>101.4020385742188</v>
+        <v>0.7156785130500793</v>
       </c>
       <c r="H23">
-        <v>0.09355398267507553</v>
+        <v>1.03137743473053</v>
       </c>
       <c r="I23">
-        <v>0.0007626631413586438</v>
+        <v>64130.828125</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>129.560019607856</v>
+        <v>97.68876173517592</v>
       </c>
       <c r="B24">
-        <v>0.07085509090901776</v>
+        <v>0.1273650180833934</v>
       </c>
       <c r="C24">
-        <v>0.0007805041828469726</v>
+        <v>0.0008641252208893814</v>
       </c>
       <c r="D24">
-        <v>0.7012692102960254</v>
+        <v>0.6542696691064065</v>
       </c>
       <c r="E24">
-        <v>1.035480396424232</v>
+        <v>1.030605388481992</v>
       </c>
       <c r="F24">
-        <v>98857.90720219642</v>
+        <v>82479.16413740772</v>
       </c>
       <c r="G24">
-        <v>95.11808013916016</v>
+        <v>0.6550511717796326</v>
       </c>
       <c r="H24">
-        <v>0.09542723000049591</v>
+        <v>1.030614376068115</v>
       </c>
       <c r="I24">
-        <v>0.0007839069003239274</v>
+        <v>82848.6796875</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>77.11693110194595</v>
+        <v>116.8317505771873</v>
       </c>
       <c r="B25">
-        <v>0.09052623251222733</v>
+        <v>0.1086394119537782</v>
       </c>
       <c r="C25">
-        <v>0.0008899246725748804</v>
+        <v>0.001178828100347538</v>
       </c>
       <c r="D25">
-        <v>0.7439918743179781</v>
+        <v>0.698339383775213</v>
       </c>
       <c r="E25">
-        <v>1.038790183130416</v>
+        <v>1.030764239860071</v>
       </c>
       <c r="F25">
-        <v>94315.27095204772</v>
+        <v>64451.2655421142</v>
       </c>
       <c r="G25">
-        <v>77.3074951171875</v>
+        <v>0.6981143951416016</v>
       </c>
       <c r="H25">
-        <v>0.0906827300786972</v>
+        <v>1.030793905258179</v>
       </c>
       <c r="I25">
-        <v>0.0008818187634460628</v>
+        <v>64862.10546875</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>126.2953682178377</v>
+        <v>77.096465552136</v>
       </c>
       <c r="B26">
-        <v>0.1194083031440522</v>
+        <v>0.09543130291349078</v>
       </c>
       <c r="C26">
-        <v>0.0008792501865111646</v>
+        <v>0.0008113815665835714</v>
       </c>
       <c r="D26">
-        <v>0.6310459290098478</v>
+        <v>0.7263795967426019</v>
       </c>
       <c r="E26">
-        <v>1.031310060648205</v>
+        <v>1.037752039679924</v>
       </c>
       <c r="F26">
-        <v>77457.80604275753</v>
+        <v>100572.1534073121</v>
       </c>
       <c r="G26">
-        <v>125.7520751953125</v>
+        <v>0.7262213826179504</v>
       </c>
       <c r="H26">
-        <v>0.1199447065591812</v>
+        <v>1.037857890129089</v>
       </c>
       <c r="I26">
-        <v>0.0008762286743149161</v>
+        <v>101159.265625</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>84.67417654123376</v>
+        <v>108.3952612796514</v>
       </c>
       <c r="B27">
-        <v>0.1219680823794839</v>
+        <v>0.1063835928476755</v>
       </c>
       <c r="C27">
-        <v>0.0008530382711899836</v>
+        <v>0.001271674994183167</v>
       </c>
       <c r="D27">
-        <v>0.6775846320864788</v>
+        <v>0.7163701856835445</v>
       </c>
       <c r="E27">
-        <v>1.032106622079927</v>
+        <v>1.031066069521116</v>
       </c>
       <c r="F27">
-        <v>87368.13697631222</v>
+        <v>61579.23002448782</v>
       </c>
       <c r="G27">
-        <v>96.50323486328125</v>
+        <v>0.7163655757904053</v>
       </c>
       <c r="H27">
-        <v>0.1125745177268982</v>
+        <v>1.031147599220276</v>
       </c>
       <c r="I27">
-        <v>0.0008488957537338138</v>
+        <v>61341.64453125</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>97.49273558551673</v>
+        <v>78.60119724454279</v>
       </c>
       <c r="B28">
-        <v>0.1276487517293607</v>
+        <v>0.07115159189856002</v>
       </c>
       <c r="C28">
-        <v>0.00115032199205945</v>
+        <v>0.001112492965832689</v>
       </c>
       <c r="D28">
-        <v>0.6841470742535306</v>
+        <v>0.7983241335383823</v>
       </c>
       <c r="E28">
-        <v>1.030121488779739</v>
+        <v>1.044463311503706</v>
       </c>
       <c r="F28">
-        <v>64836.27360678541</v>
+        <v>82552.7168198963</v>
       </c>
       <c r="G28">
-        <v>102.6995468139648</v>
+        <v>0.7967936396598816</v>
       </c>
       <c r="H28">
-        <v>0.1240000054240227</v>
+        <v>1.043385148048401</v>
       </c>
       <c r="I28">
-        <v>0.001148195937275887</v>
+        <v>82920.9765625</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>115.4443933493036</v>
+        <v>126.680135022975</v>
       </c>
       <c r="B29">
-        <v>0.07390728811292911</v>
+        <v>0.08809448900047297</v>
       </c>
       <c r="C29">
-        <v>0.00129881367265486</v>
+        <v>0.0008293046062681352</v>
       </c>
       <c r="D29">
-        <v>0.776010284187156</v>
+        <v>0.6764348971446089</v>
       </c>
       <c r="E29">
-        <v>1.035124391037328</v>
+        <v>1.033235912501571</v>
       </c>
       <c r="F29">
-        <v>66327.80144149029</v>
+        <v>88990.75975152601</v>
       </c>
       <c r="G29">
-        <v>115.7800598144531</v>
+        <v>0.6749332547187805</v>
       </c>
       <c r="H29">
-        <v>0.07388271391391754</v>
+        <v>1.033112287521362</v>
       </c>
       <c r="I29">
-        <v>0.00129469227977097</v>
+        <v>88770.3359375</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>82.21725592463392</v>
+        <v>101.3108993050043</v>
       </c>
       <c r="B30">
-        <v>0.07267426665925986</v>
+        <v>0.1096104122495611</v>
       </c>
       <c r="C30">
-        <v>0.001020386754177277</v>
+        <v>0.001268422354293355</v>
       </c>
       <c r="D30">
-        <v>0.7867628913303096</v>
+        <v>0.7162244198974395</v>
       </c>
       <c r="E30">
-        <v>1.042546574213634</v>
+        <v>1.031194319938741</v>
       </c>
       <c r="F30">
-        <v>88098.06043422858</v>
+        <v>61858.46626527204</v>
       </c>
       <c r="G30">
-        <v>80.61382293701172</v>
+        <v>0.7159555554389954</v>
       </c>
       <c r="H30">
-        <v>0.07356917858123779</v>
+        <v>1.0311678647995</v>
       </c>
       <c r="I30">
-        <v>0.001007751445285976</v>
+        <v>61632.66015625</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>103.9786963332598</v>
+        <v>94.87971639943142</v>
       </c>
       <c r="B31">
-        <v>0.124797015782022</v>
+        <v>0.08740465643262665</v>
       </c>
       <c r="C31">
-        <v>0.001266521630748365</v>
+        <v>0.001138513484062095</v>
       </c>
       <c r="D31">
-        <v>0.6907392118736561</v>
+        <v>0.7528903315549275</v>
       </c>
       <c r="E31">
-        <v>1.029914284660464</v>
+        <v>1.035116449238076</v>
       </c>
       <c r="F31">
-        <v>59337.65474592037</v>
+        <v>73629.06179883565</v>
       </c>
       <c r="G31">
-        <v>103.0957183837891</v>
+        <v>0.7522889375686646</v>
       </c>
       <c r="H31">
-        <v>0.1255025863647461</v>
+        <v>1.035099864006042</v>
       </c>
       <c r="I31">
-        <v>0.001262294128537178</v>
+        <v>73748.9921875</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>81.14900489355975</v>
+        <v>85.87333672627761</v>
       </c>
       <c r="B32">
-        <v>0.0883028019017717</v>
+        <v>0.1070809257399305</v>
       </c>
       <c r="C32">
-        <v>0.0009379660672756388</v>
+        <v>0.0008523649855570155</v>
       </c>
       <c r="D32">
-        <v>0.7483657221908548</v>
+        <v>0.6995729345393952</v>
       </c>
       <c r="E32">
-        <v>1.038103155485576</v>
+        <v>1.033709559332192</v>
       </c>
       <c r="F32">
-        <v>89804.21790434496</v>
+        <v>90819.00460753951</v>
       </c>
       <c r="G32">
-        <v>81.10713195800781</v>
+        <v>0.7001820802688599</v>
       </c>
       <c r="H32">
-        <v>0.08843090385198593</v>
+        <v>1.033694624900818</v>
       </c>
       <c r="I32">
-        <v>0.0009322275291197002</v>
+        <v>91506.015625</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>76.2841664008776</v>
+        <v>116.454021366053</v>
       </c>
       <c r="B33">
-        <v>0.103479244036578</v>
+        <v>0.09572612205674597</v>
       </c>
       <c r="C33">
-        <v>0.0007640094680816281</v>
+        <v>0.0008279871864204892</v>
       </c>
       <c r="D33">
-        <v>0.7068823353085584</v>
+        <v>0.6749841074124009</v>
       </c>
       <c r="E33">
-        <v>1.036414802496127</v>
+        <v>1.032633492092476</v>
       </c>
       <c r="F33">
-        <v>103423.8100546977</v>
+        <v>89034.026488929</v>
       </c>
       <c r="G33">
-        <v>76.31258392333984</v>
+        <v>0.6722148656845093</v>
       </c>
       <c r="H33">
-        <v>0.103616751730442</v>
+        <v>1.032703399658203</v>
       </c>
       <c r="I33">
-        <v>0.0007639032555744052</v>
+        <v>89161.5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>76.99351674577591</v>
+        <v>97.36901993299291</v>
       </c>
       <c r="B34">
-        <v>0.1289466929800426</v>
+        <v>0.07812844385334702</v>
       </c>
       <c r="C34">
-        <v>0.0009452642976819024</v>
+        <v>0.001010920428358398</v>
       </c>
       <c r="D34">
-        <v>0.6859070800850433</v>
+        <v>0.7595950988542329</v>
       </c>
       <c r="E34">
-        <v>1.032430716799783</v>
+        <v>1.036937511301901</v>
       </c>
       <c r="F34">
-        <v>80062.69079807121</v>
+        <v>84088.43850831773</v>
       </c>
       <c r="G34">
-        <v>110.5665512084961</v>
+        <v>0.7603915333747864</v>
       </c>
       <c r="H34">
-        <v>0.1039221286773682</v>
+        <v>1.036970138549805</v>
       </c>
       <c r="I34">
-        <v>0.0009401498246006668</v>
+        <v>84045.1328125</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>91.45834209089313</v>
+        <v>104.1060369321189</v>
       </c>
       <c r="B35">
-        <v>0.09402691208415541</v>
+        <v>0.08789693955736186</v>
       </c>
       <c r="C35">
-        <v>0.0008776766640488159</v>
+        <v>0.0007153976308327188</v>
       </c>
       <c r="D35">
-        <v>0.7190912877923576</v>
+        <v>0.6851065758822632</v>
       </c>
       <c r="E35">
-        <v>1.034808927774224</v>
+        <v>1.034533844463031</v>
       </c>
       <c r="F35">
-        <v>90968.01411038934</v>
+        <v>105632.634379328</v>
       </c>
       <c r="G35">
-        <v>107.2977752685547</v>
+        <v>0.6879188418388367</v>
       </c>
       <c r="H35">
-        <v>0.0844656378030777</v>
+        <v>1.034622311592102</v>
       </c>
       <c r="I35">
-        <v>0.0008737368043512106</v>
+        <v>105356.9140625</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>70.27929021023101</v>
+        <v>71.12738802618131</v>
       </c>
       <c r="B36">
-        <v>0.1099522838985904</v>
+        <v>0.1041978946420759</v>
       </c>
       <c r="C36">
-        <v>0.0009960441773735069</v>
+        <v>0.0008244820452646655</v>
       </c>
       <c r="D36">
-        <v>0.7244559196384395</v>
+        <v>0.7197187866462126</v>
       </c>
       <c r="E36">
-        <v>1.036618069345841</v>
+        <v>1.037680828980477</v>
       </c>
       <c r="F36">
-        <v>81543.84843820559</v>
+        <v>98105.37649513432</v>
       </c>
       <c r="G36">
-        <v>70.51398468017578</v>
+        <v>0.7195862531661987</v>
       </c>
       <c r="H36">
-        <v>0.1100940406322479</v>
+        <v>1.03767454624176</v>
       </c>
       <c r="I36">
-        <v>0.0009911013767123222</v>
+        <v>98120.40625</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>95.49123527210136</v>
+        <v>107.0581298245526</v>
       </c>
       <c r="B37">
-        <v>0.09405277381791913</v>
+        <v>0.1054523656748904</v>
       </c>
       <c r="C37">
-        <v>0.001094226206149854</v>
+        <v>0.0009548112812509037</v>
       </c>
       <c r="D37">
-        <v>0.736378320389713</v>
+        <v>0.6896185602151901</v>
       </c>
       <c r="E37">
-        <v>1.033900608990066</v>
+        <v>1.031694824396685</v>
       </c>
       <c r="F37">
-        <v>74555.19411334854</v>
+        <v>78969.68666411036</v>
       </c>
       <c r="G37">
-        <v>96.35322570800781</v>
+        <v>0.6901096105575562</v>
       </c>
       <c r="H37">
-        <v>0.09361913055181503</v>
+        <v>1.031691074371338</v>
       </c>
       <c r="I37">
-        <v>0.001091247308067977</v>
+        <v>78634.875</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>109.851826304869</v>
+        <v>106.7257433633453</v>
       </c>
       <c r="B38">
-        <v>0.1160916798677668</v>
+        <v>0.1044595149309747</v>
       </c>
       <c r="C38">
-        <v>0.0009766301314914449</v>
+        <v>0.0009245019882005353</v>
       </c>
       <c r="D38">
-        <v>0.671700521232288</v>
+        <v>0.687638684326049</v>
       </c>
       <c r="E38">
-        <v>1.030754759621757</v>
+        <v>1.031863768021259</v>
       </c>
       <c r="F38">
-        <v>74803.70485439367</v>
+        <v>81361.17108338863</v>
       </c>
       <c r="G38">
-        <v>109.8849868774414</v>
+        <v>0.688560426235199</v>
       </c>
       <c r="H38">
-        <v>0.1165769249200821</v>
+        <v>1.031849384307861</v>
       </c>
       <c r="I38">
-        <v>0.0009766462026163936</v>
+        <v>80817.28125</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>94.10129110023932</v>
+        <v>107.0160398124854</v>
       </c>
       <c r="B39">
-        <v>0.1016628835343719</v>
+        <v>0.109192049191428</v>
       </c>
       <c r="C39">
-        <v>0.001261096307246695</v>
+        <v>0.0009781452546188864</v>
       </c>
       <c r="D39">
-        <v>0.7343684323075624</v>
+        <v>0.6863113764558365</v>
       </c>
       <c r="E39">
-        <v>1.032808339954826</v>
+        <v>1.031327217100593</v>
       </c>
       <c r="F39">
-        <v>64307.8575238709</v>
+        <v>76607.21744414316</v>
       </c>
       <c r="G39">
-        <v>94.18519592285156</v>
+        <v>0.6871128082275391</v>
       </c>
       <c r="H39">
-        <v>0.1009770631790161</v>
+        <v>1.031365275382996</v>
       </c>
       <c r="I39">
-        <v>0.001260906807146966</v>
+        <v>76355.8671875</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>75.1476760311901</v>
+        <v>126.6248847108775</v>
       </c>
       <c r="B40">
-        <v>0.08425138827918099</v>
+        <v>0.1091261962001013</v>
       </c>
       <c r="C40">
-        <v>0.001230858893379628</v>
+        <v>0.0008665772237768393</v>
       </c>
       <c r="D40">
-        <v>0.7773151578472495</v>
+        <v>0.644750022001041</v>
       </c>
       <c r="E40">
-        <v>1.040899242728146</v>
+        <v>1.031720729526258</v>
       </c>
       <c r="F40">
-        <v>71868.74161800413</v>
+        <v>80525.29334033569</v>
       </c>
       <c r="G40">
-        <v>75.19164276123047</v>
+        <v>0.6438180804252625</v>
       </c>
       <c r="H40">
-        <v>0.08417197316884995</v>
+        <v>1.031800150871277</v>
       </c>
       <c r="I40">
-        <v>0.001217954675666988</v>
+        <v>80930.078125</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>73.76133172141843</v>
+        <v>110.909217946209</v>
       </c>
       <c r="B41">
-        <v>0.08627836607550798</v>
+        <v>0.09588510612603844</v>
       </c>
       <c r="C41">
-        <v>0.001121186557099718</v>
+        <v>0.001052070607874901</v>
       </c>
       <c r="D41">
-        <v>0.770129898007862</v>
+        <v>0.7140636428494036</v>
       </c>
       <c r="E41">
-        <v>1.040870192211479</v>
+        <v>1.032278916631582</v>
       </c>
       <c r="F41">
-        <v>78139.96162903837</v>
+        <v>74423.43725162481</v>
       </c>
       <c r="G41">
-        <v>73.65217590332031</v>
+        <v>0.714590311050415</v>
       </c>
       <c r="H41">
-        <v>0.0862119048833847</v>
+        <v>1.032203197479248</v>
       </c>
       <c r="I41">
-        <v>0.001110404380597174</v>
+        <v>74469.6484375</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>86.68699076589171</v>
+        <v>91.57047403442716</v>
       </c>
       <c r="B42">
-        <v>0.08548355275230445</v>
+        <v>0.1237927957510638</v>
       </c>
       <c r="C42">
-        <v>0.0009938109474187293</v>
+        <v>0.001218313363553939</v>
       </c>
       <c r="D42">
-        <v>0.753194979845234</v>
+        <v>0.6988103116143169</v>
       </c>
       <c r="E42">
-        <v>1.037322134572764</v>
+        <v>1.030769339431415</v>
       </c>
       <c r="F42">
-        <v>85058.93601747029</v>
+        <v>62816.42599039683</v>
       </c>
       <c r="G42">
-        <v>86.51351165771484</v>
+        <v>0.6989010572433472</v>
       </c>
       <c r="H42">
-        <v>0.08535808324813843</v>
+        <v>1.030853033065796</v>
       </c>
       <c r="I42">
-        <v>0.0009873940143734217</v>
+        <v>62908.390625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>80.15876143261605</v>
+        <v>96.22191722796049</v>
       </c>
       <c r="B43">
-        <v>0.1019392196955136</v>
+        <v>0.0920537122028738</v>
       </c>
       <c r="C43">
-        <v>0.0007790123690886741</v>
+        <v>0.0007705191135772198</v>
       </c>
       <c r="D43">
-        <v>0.7062274698905375</v>
+        <v>0.7000506289826357</v>
       </c>
       <c r="E43">
-        <v>1.035727847602939</v>
+        <v>1.034629896218552</v>
       </c>
       <c r="F43">
-        <v>101063.2573910461</v>
+        <v>100566.4007990621</v>
       </c>
       <c r="G43">
-        <v>100.6252288818359</v>
+        <v>0.6989955306053162</v>
       </c>
       <c r="H43">
-        <v>0.0877038761973381</v>
+        <v>1.034548282623291</v>
       </c>
       <c r="I43">
-        <v>0.0007733491947874427</v>
+        <v>100947.6953125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>127.9056983930782</v>
+        <v>111.8578717556359</v>
       </c>
       <c r="B44">
-        <v>0.1121913409609399</v>
+        <v>0.09615189551593761</v>
       </c>
       <c r="C44">
-        <v>0.00093820820006658</v>
+        <v>0.001010427464292469</v>
       </c>
       <c r="D44">
-        <v>0.6507858218278886</v>
+        <v>0.7077988253780502</v>
       </c>
       <c r="E44">
-        <v>1.031365370857096</v>
+        <v>1.032282415551615</v>
       </c>
       <c r="F44">
-        <v>75001.31701371903</v>
+        <v>76750.67919306277</v>
       </c>
       <c r="G44">
-        <v>127.3334503173828</v>
+        <v>0.7088680267333984</v>
       </c>
       <c r="H44">
-        <v>0.1128090173006058</v>
+        <v>1.032263517379761</v>
       </c>
       <c r="I44">
-        <v>0.0009378434624522924</v>
+        <v>76611.7421875</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>79.07381349844511</v>
+        <v>73.61352829775619</v>
       </c>
       <c r="B45">
-        <v>0.1269567940025885</v>
+        <v>0.1235154013009403</v>
       </c>
       <c r="C45">
-        <v>0.001122640923640704</v>
+        <v>0.000779240863807092</v>
       </c>
       <c r="D45">
-        <v>0.6985812517149876</v>
+        <v>0.6806420957080416</v>
       </c>
       <c r="E45">
-        <v>1.032129538061098</v>
+        <v>1.03396454995517</v>
       </c>
       <c r="F45">
-        <v>68619.84760872777</v>
+        <v>96836.15902462474</v>
       </c>
       <c r="G45">
-        <v>79.51314544677734</v>
+        <v>0.6794641613960266</v>
       </c>
       <c r="H45">
-        <v>0.1266095489263535</v>
+        <v>1.033912062644958</v>
       </c>
       <c r="I45">
-        <v>0.001121908775530756</v>
+        <v>96847.6640625</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>118.3277462442998</v>
+        <v>110.0060029267401</v>
       </c>
       <c r="B46">
-        <v>0.1116452425049788</v>
+        <v>0.1183716393427652</v>
       </c>
       <c r="C46">
-        <v>0.0008709313123322386</v>
+        <v>0.001130115808715556</v>
       </c>
       <c r="D46">
-        <v>0.652278602052781</v>
+        <v>0.6847262606794521</v>
       </c>
       <c r="E46">
-        <v>1.031355303057502</v>
+        <v>1.030300064933665</v>
       </c>
       <c r="F46">
-        <v>81247.32594895428</v>
+        <v>65872.66316468862</v>
       </c>
       <c r="G46">
-        <v>118.3599624633789</v>
+        <v>0.6856023073196411</v>
       </c>
       <c r="H46">
-        <v>0.1121187284588814</v>
+        <v>1.03039276599884</v>
       </c>
       <c r="I46">
-        <v>0.0008683715714141726</v>
+        <v>66107.3828125</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>105.1664765044687</v>
+        <v>110.2382721770896</v>
       </c>
       <c r="B47">
-        <v>0.1168715706377434</v>
+        <v>0.112233315012422</v>
       </c>
       <c r="C47">
-        <v>0.0007623928465260522</v>
+        <v>0.0009376358216843762</v>
       </c>
       <c r="D47">
-        <v>0.6416349732574713</v>
+        <v>0.6721648012090284</v>
       </c>
       <c r="E47">
-        <v>1.03141082929297</v>
+        <v>1.031081978685625</v>
       </c>
       <c r="F47">
-        <v>91595.92805019853</v>
+        <v>78050.07119475568</v>
       </c>
       <c r="G47">
-        <v>105.7139053344727</v>
+        <v>0.6730608940124512</v>
       </c>
       <c r="H47">
-        <v>0.1173816546797752</v>
+        <v>1.031164169311523</v>
       </c>
       <c r="I47">
-        <v>0.0007626758306287229</v>
+        <v>77641.0703125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>104.1572151990577</v>
+        <v>82.62295366443045</v>
       </c>
       <c r="B48">
-        <v>0.08013556695187395</v>
+        <v>0.07601361323873808</v>
       </c>
       <c r="C48">
-        <v>0.001244739074506377</v>
+        <v>0.001039252787115105</v>
       </c>
       <c r="D48">
-        <v>0.7673108573008175</v>
+        <v>0.7802399770981229</v>
       </c>
       <c r="E48">
-        <v>1.035136392186073</v>
+        <v>1.041152984804272</v>
       </c>
       <c r="F48">
-        <v>68572.4735172962</v>
+        <v>85407.12964106962</v>
       </c>
       <c r="G48">
-        <v>104.3744354248047</v>
+        <v>0.780102014541626</v>
       </c>
       <c r="H48">
-        <v>0.07958208024501801</v>
+        <v>1.041032910346985</v>
       </c>
       <c r="I48">
-        <v>0.001242059399373829</v>
+        <v>85436.96875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>100.7248429554271</v>
+        <v>77.7355778592912</v>
       </c>
       <c r="B49">
-        <v>0.09244375750043954</v>
+        <v>0.1251689568246804</v>
       </c>
       <c r="C49">
-        <v>0.001125430485889327</v>
+        <v>0.0008099679017284471</v>
       </c>
       <c r="D49">
-        <v>0.7371513626019832</v>
+        <v>0.6765295839419702</v>
       </c>
       <c r="E49">
-        <v>1.033472885678268</v>
+        <v>1.032902604182816</v>
       </c>
       <c r="F49">
-        <v>72389.57729672205</v>
+        <v>92214.28074712925</v>
       </c>
       <c r="G49">
-        <v>115.4528961181641</v>
+        <v>0.6764932870864868</v>
       </c>
       <c r="H49">
-        <v>0.08524788171052933</v>
+        <v>1.03281033039093</v>
       </c>
       <c r="I49">
-        <v>0.001121615176089108</v>
+        <v>92272.28125</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>128.3057845668371</v>
+        <v>88.92570105545103</v>
       </c>
       <c r="B50">
-        <v>0.09482681319149597</v>
+        <v>0.1128544779729467</v>
       </c>
       <c r="C50">
-        <v>0.001069165855981058</v>
+        <v>0.0007869086556060263</v>
       </c>
       <c r="D50">
-        <v>0.6998658411452112</v>
+        <v>0.6765395084031868</v>
       </c>
       <c r="E50">
-        <v>1.031953285229078</v>
+        <v>1.032696507576611</v>
       </c>
       <c r="F50">
-        <v>71262.45872726377</v>
+        <v>94623.31582389923</v>
       </c>
       <c r="G50">
-        <v>109.9890213012695</v>
+        <v>0.6761681437492371</v>
       </c>
       <c r="H50">
-        <v>0.1065645143389702</v>
+        <v>1.032678008079529</v>
       </c>
       <c r="I50">
-        <v>0.001075925771147013</v>
+        <v>95375.671875</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>91.83068650549828</v>
+        <v>91.82264625655738</v>
       </c>
       <c r="B51">
-        <v>0.1111828138000284</v>
+        <v>0.129930820394072</v>
       </c>
       <c r="C51">
-        <v>0.00117549934336535</v>
+        <v>0.0009928337683893728</v>
       </c>
       <c r="D51">
-        <v>0.7154356861691606</v>
+        <v>0.6731369196233362</v>
       </c>
       <c r="E51">
-        <v>1.031980644630778</v>
+        <v>1.030510066041236</v>
       </c>
       <c r="F51">
-        <v>66986.4284475208</v>
+        <v>74055.29284603031</v>
       </c>
       <c r="G51">
-        <v>110.5743789672852</v>
+        <v>0.6719123125076294</v>
       </c>
       <c r="H51">
-        <v>0.1014631316065788</v>
+        <v>1.030486345291138</v>
       </c>
       <c r="I51">
-        <v>0.001168763381429017</v>
+        <v>74330.5078125</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>117.2749450572326</v>
+        <v>104.2118062250728</v>
       </c>
       <c r="B52">
-        <v>0.08775351858261242</v>
+        <v>0.07896689827947963</v>
       </c>
       <c r="C52">
-        <v>0.001201387622550085</v>
+        <v>0.0009133676427099733</v>
       </c>
       <c r="D52">
-        <v>0.7379204057137225</v>
+        <v>0.7391214278405036</v>
       </c>
       <c r="E52">
-        <v>1.032721662477835</v>
+        <v>1.035856765980723</v>
       </c>
       <c r="F52">
-        <v>67459.05634045281</v>
+        <v>89980.10393315926</v>
       </c>
       <c r="G52">
-        <v>114.8572235107422</v>
+        <v>0.7404208779335022</v>
       </c>
       <c r="H52">
-        <v>0.08873207122087479</v>
+        <v>1.035892844200134</v>
       </c>
       <c r="I52">
-        <v>0.001203316845931113</v>
+        <v>89871.6796875</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>103.3176464480176</v>
+        <v>96.31609080773922</v>
       </c>
       <c r="B53">
-        <v>0.08819751528517997</v>
+        <v>0.1220875634420929</v>
       </c>
       <c r="C53">
-        <v>0.000990075398902614</v>
+        <v>0.001264259167151688</v>
       </c>
       <c r="D53">
-        <v>0.730127444918788</v>
+        <v>0.7003211421085891</v>
       </c>
       <c r="E53">
-        <v>1.034046943603293</v>
+        <v>1.030492614782331</v>
       </c>
       <c r="F53">
-        <v>81547.30783861106</v>
+        <v>60546.75971573892</v>
       </c>
       <c r="G53">
-        <v>108.992317199707</v>
+        <v>0.7008451819419861</v>
       </c>
       <c r="H53">
-        <v>0.08508356660604477</v>
+        <v>1.030459880828857</v>
       </c>
       <c r="I53">
-        <v>0.0009873855160549283</v>
+        <v>60437.64453125</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>93.73802005754357</v>
+        <v>129.3024302835536</v>
       </c>
       <c r="B54">
-        <v>0.0913533492784521</v>
+        <v>0.0797495760805825</v>
       </c>
       <c r="C54">
-        <v>0.001228712950845664</v>
+        <v>0.001159195152284179</v>
       </c>
       <c r="D54">
-        <v>0.7515819058767728</v>
+        <v>0.7399225688810344</v>
       </c>
       <c r="E54">
-        <v>1.034487237229679</v>
+        <v>1.033358427684612</v>
       </c>
       <c r="F54">
-        <v>67984.43618423257</v>
+        <v>70032.03449877551</v>
       </c>
       <c r="G54">
-        <v>94.20654296875</v>
+        <v>0.7394919991493225</v>
       </c>
       <c r="H54">
-        <v>0.09075769782066345</v>
+        <v>1.033399701118469</v>
       </c>
       <c r="I54">
-        <v>0.001223165658302605</v>
+        <v>70068.578125</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>127.3279559983469</v>
+        <v>76.12268864488169</v>
       </c>
       <c r="B55">
-        <v>0.1186181248925939</v>
+        <v>0.1069335738570307</v>
       </c>
       <c r="C55">
-        <v>0.001249851406420663</v>
+        <v>0.001149198171910328</v>
       </c>
       <c r="D55">
-        <v>0.6793305732205881</v>
+        <v>0.7326295497811144</v>
       </c>
       <c r="E55">
-        <v>1.030246617183114</v>
+        <v>1.035389029953394</v>
       </c>
       <c r="F55">
-        <v>58732.60145294563</v>
+        <v>71189.09608238393</v>
       </c>
       <c r="G55">
-        <v>126.642707824707</v>
+        <v>0.7327381372451782</v>
       </c>
       <c r="H55">
-        <v>0.1186508536338806</v>
+        <v>1.035577774047852</v>
       </c>
       <c r="I55">
-        <v>0.001248887274414301</v>
+        <v>71421.359375</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>105.8989581618812</v>
+        <v>82.53260536569007</v>
       </c>
       <c r="B56">
-        <v>0.1046554054026009</v>
+        <v>0.07742919897096649</v>
       </c>
       <c r="C56">
-        <v>0.0008629306572548688</v>
+        <v>0.00124223184384756</v>
       </c>
       <c r="D56">
-        <v>0.6791326898199512</v>
+        <v>0.7875072742445542</v>
       </c>
       <c r="E56">
-        <v>1.032016266763169</v>
+        <v>1.040516528400548</v>
       </c>
       <c r="F56">
-        <v>86090.07473330088</v>
+        <v>72034.58124787934</v>
       </c>
       <c r="G56">
-        <v>96.88947296142578</v>
+        <v>0.7877920866012573</v>
       </c>
       <c r="H56">
-        <v>0.1125468835234642</v>
+        <v>1.040646553039551</v>
       </c>
       <c r="I56">
-        <v>0.0008630073280073702</v>
+        <v>72396.1171875</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>77.13501652876081</v>
+        <v>79.67857107309977</v>
       </c>
       <c r="B57">
-        <v>0.07451663678996408</v>
+        <v>0.1208804937593341</v>
       </c>
       <c r="C57">
-        <v>0.001064527215874477</v>
+        <v>0.0007500534612652111</v>
       </c>
       <c r="D57">
-        <v>0.789451639696944</v>
+        <v>0.6717173626447802</v>
       </c>
       <c r="E57">
-        <v>1.043698377110969</v>
+        <v>1.033170871528594</v>
       </c>
       <c r="F57">
-        <v>85097.22580815147</v>
+        <v>98871.93208778149</v>
       </c>
       <c r="G57">
-        <v>75.62664794921875</v>
+        <v>0.6719360947608948</v>
       </c>
       <c r="H57">
-        <v>0.07497327029705048</v>
+        <v>1.033175110816956</v>
       </c>
       <c r="I57">
-        <v>0.001063504605554044</v>
+        <v>98892.2734375</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>95.0523520598114</v>
+        <v>109.1864995279239</v>
       </c>
       <c r="B58">
-        <v>0.07469476598142813</v>
+        <v>0.1184391375235006</v>
       </c>
       <c r="C58">
-        <v>0.001015950417292282</v>
+        <v>0.001031315481953444</v>
       </c>
       <c r="D58">
-        <v>0.7699908813783033</v>
+        <v>0.6753937300384045</v>
       </c>
       <c r="E58">
-        <v>1.038320835599558</v>
+        <v>1.030497612482929</v>
       </c>
       <c r="F58">
-        <v>85259.085965943</v>
+        <v>71204.61146259481</v>
       </c>
       <c r="G58">
-        <v>95.40471649169922</v>
+        <v>0.6765453219413757</v>
       </c>
       <c r="H58">
-        <v>0.07438525557518005</v>
+        <v>1.030515789985657</v>
       </c>
       <c r="I58">
-        <v>0.001009134924970567</v>
+        <v>71434.125</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>116.8949036608965</v>
+        <v>85.19749615238692</v>
       </c>
       <c r="B59">
-        <v>0.09227721665694998</v>
+        <v>0.1041460443168756</v>
       </c>
       <c r="C59">
-        <v>0.001022767467491141</v>
+        <v>0.001050685641373461</v>
       </c>
       <c r="D59">
-        <v>0.7111865708036553</v>
+        <v>0.724457779583666</v>
       </c>
       <c r="E59">
-        <v>1.032481142595191</v>
+        <v>1.033970508766929</v>
       </c>
       <c r="F59">
-        <v>76150.48640377924</v>
+        <v>76505.82609391741</v>
       </c>
       <c r="G59">
-        <v>106.3356781005859</v>
+        <v>0.7233624458312988</v>
       </c>
       <c r="H59">
-        <v>0.09824045747518539</v>
+        <v>1.033953785896301</v>
       </c>
       <c r="I59">
-        <v>0.001026399433612823</v>
+        <v>76162.859375</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>111.6248213943528</v>
+        <v>97.97864637137836</v>
       </c>
       <c r="B60">
-        <v>0.1159954630363695</v>
+        <v>0.09443099783355999</v>
       </c>
       <c r="C60">
-        <v>0.001262597856378737</v>
+        <v>0.001277161827128337</v>
       </c>
       <c r="D60">
-        <v>0.697661067075274</v>
+        <v>0.7454055660282404</v>
       </c>
       <c r="E60">
-        <v>1.030252427916233</v>
+        <v>1.033350984548371</v>
       </c>
       <c r="F60">
-        <v>60096.22742319141</v>
+        <v>64556.18231881641</v>
       </c>
       <c r="G60">
-        <v>105.6819686889648</v>
+        <v>0.74622642993927</v>
       </c>
       <c r="H60">
-        <v>0.1192361563444138</v>
+        <v>1.033308267593384</v>
       </c>
       <c r="I60">
-        <v>0.001262401230633259</v>
+        <v>64566.4765625</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>124.9804197901945</v>
+        <v>84.66553552009617</v>
       </c>
       <c r="B61">
-        <v>0.1113210055887208</v>
+        <v>0.07415001972730829</v>
       </c>
       <c r="C61">
-        <v>0.0008831132216158173</v>
+        <v>0.0008752885160755293</v>
       </c>
       <c r="D61">
-        <v>0.6463295955374015</v>
+        <v>0.768271126129484</v>
       </c>
       <c r="E61">
-        <v>1.031510407656646</v>
+        <v>1.041383158503362</v>
       </c>
       <c r="F61">
-        <v>79210.71232959915</v>
+        <v>99763.0765831101</v>
       </c>
       <c r="G61">
-        <v>124.6268157958984</v>
+        <v>0.7679935693740845</v>
       </c>
       <c r="H61">
-        <v>0.1117569878697395</v>
+        <v>1.041339993476868</v>
       </c>
       <c r="I61">
-        <v>0.0008805968682281673</v>
+        <v>99442.109375</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>85.56264304849121</v>
+        <v>79.53817501873118</v>
       </c>
       <c r="B62">
-        <v>0.1124789412790712</v>
+        <v>0.1118457263886738</v>
       </c>
       <c r="C62">
-        <v>0.001290060386940746</v>
+        <v>0.0008444972679492681</v>
       </c>
       <c r="D62">
-        <v>0.7233980588459209</v>
+        <v>0.6987895297819821</v>
       </c>
       <c r="E62">
-        <v>1.032616465598021</v>
+        <v>1.034168262765174</v>
       </c>
       <c r="F62">
-        <v>61947.18219032428</v>
+        <v>91804.78570558308</v>
       </c>
       <c r="G62">
-        <v>85.74933624267578</v>
+        <v>0.6997683644294739</v>
       </c>
       <c r="H62">
-        <v>0.1120822951197624</v>
+        <v>1.034223318099976</v>
       </c>
       <c r="I62">
-        <v>0.001287499908357859</v>
+        <v>92268.1171875</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>115.4916229812294</v>
+        <v>76.6225084698583</v>
       </c>
       <c r="B63">
-        <v>0.1160326039632458</v>
+        <v>0.09721256096068413</v>
       </c>
       <c r="C63">
-        <v>0.001241278728882539</v>
+        <v>0.0007601763653592987</v>
       </c>
       <c r="D63">
-        <v>0.6928303893200637</v>
+        <v>0.7170482402240543</v>
       </c>
       <c r="E63">
-        <v>1.030231442446158</v>
+        <v>1.037581802836786</v>
       </c>
       <c r="F63">
-        <v>60608.78102076915</v>
+        <v>105850.8630745064</v>
       </c>
       <c r="G63">
-        <v>104.8866119384766</v>
+        <v>0.7169077396392822</v>
       </c>
       <c r="H63">
-        <v>0.1222150847315788</v>
+        <v>1.037602663040161</v>
       </c>
       <c r="I63">
-        <v>0.001244278508238494</v>
+        <v>105941.8671875</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>97.59251244367125</v>
+        <v>109.3797753679164</v>
       </c>
       <c r="B64">
-        <v>0.08722916277317977</v>
+        <v>0.1133233359682209</v>
       </c>
       <c r="C64">
-        <v>0.0009752337331681016</v>
+        <v>0.0007098577777548846</v>
       </c>
       <c r="D64">
-        <v>0.7366463308415901</v>
+        <v>0.6289568488514991</v>
       </c>
       <c r="E64">
-        <v>1.03496101536423</v>
+        <v>1.03176958199799</v>
       </c>
       <c r="F64">
-        <v>83902.74278489826</v>
+        <v>96311.71550590295</v>
       </c>
       <c r="G64">
-        <v>111.3890762329102</v>
+        <v>0.6298999190330505</v>
       </c>
       <c r="H64">
-        <v>0.08006717264652252</v>
+        <v>1.031786799430847</v>
       </c>
       <c r="I64">
-        <v>0.0009705685079097748</v>
+        <v>95989.078125</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>104.4165848180089</v>
+        <v>78.29097708091683</v>
       </c>
       <c r="B65">
-        <v>0.1028953769165253</v>
+        <v>0.1219829395557178</v>
       </c>
       <c r="C65">
-        <v>0.0011904719581709</v>
+        <v>0.001257717590075314</v>
       </c>
       <c r="D65">
-        <v>0.7199426661974285</v>
+        <v>0.7120916315286587</v>
       </c>
       <c r="E65">
-        <v>1.031726535960857</v>
+        <v>1.032758764714814</v>
       </c>
       <c r="F65">
-        <v>66333.51646679232</v>
+        <v>62612.41313080006</v>
       </c>
       <c r="G65">
-        <v>110.753044128418</v>
+        <v>0.7124643921852112</v>
       </c>
       <c r="H65">
-        <v>0.09970006346702576</v>
+        <v>1.032808423042297</v>
       </c>
       <c r="I65">
-        <v>0.001190597773529589</v>
+        <v>62593.08203125</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>127.302800860377</v>
+        <v>81.79494170080321</v>
       </c>
       <c r="B66">
-        <v>0.1026011584190062</v>
+        <v>0.1285312903001732</v>
       </c>
       <c r="C66">
-        <v>0.001161428196592084</v>
+        <v>0.001101949927954546</v>
       </c>
       <c r="D66">
-        <v>0.6971809899091966</v>
+        <v>0.6930477326726098</v>
       </c>
       <c r="E66">
-        <v>1.031180272956723</v>
+        <v>1.031559319895551</v>
       </c>
       <c r="F66">
-        <v>65191.40947676003</v>
+        <v>69172.78762649941</v>
       </c>
       <c r="G66">
-        <v>109.8661270141602</v>
+        <v>0.6934822797775269</v>
       </c>
       <c r="H66">
-        <v>0.1127150282263756</v>
+        <v>1.031556606292725</v>
       </c>
       <c r="I66">
-        <v>0.001167622744105756</v>
+        <v>69194.4609375</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>128.7571791993506</v>
+        <v>92.12351023965785</v>
       </c>
       <c r="B67">
-        <v>0.114377950070797</v>
+        <v>0.1213482005435566</v>
       </c>
       <c r="C67">
-        <v>0.001106736981771113</v>
+        <v>0.001171091747213883</v>
       </c>
       <c r="D67">
-        <v>0.6699343854537249</v>
+        <v>0.6992406360071824</v>
       </c>
       <c r="E67">
-        <v>1.030761873845444</v>
+        <v>1.030955068544932</v>
       </c>
       <c r="F67">
-        <v>65437.05339180769</v>
+        <v>65425.61055625497</v>
       </c>
       <c r="G67">
-        <v>128.5327453613281</v>
+        <v>0.6992903351783752</v>
       </c>
       <c r="H67">
-        <v>0.1146930381655693</v>
+        <v>1.031040787696838</v>
       </c>
       <c r="I67">
-        <v>0.001104661263525486</v>
+        <v>65578.921875</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>121.6954578355338</v>
+        <v>119.2595937908761</v>
       </c>
       <c r="B68">
-        <v>0.1274122341463388</v>
+        <v>0.07070284505110012</v>
       </c>
       <c r="C68">
-        <v>0.0008919003336298925</v>
+        <v>0.0008690380634523694</v>
       </c>
       <c r="D68">
-        <v>0.6273599964654849</v>
+        <v>0.7331949954551711</v>
       </c>
       <c r="E68">
-        <v>1.030800150821342</v>
+        <v>1.036030593759509</v>
       </c>
       <c r="F68">
-        <v>75877.72758268045</v>
+        <v>93485.7423627899</v>
       </c>
       <c r="G68">
-        <v>121.1798934936523</v>
+        <v>0.7318474650382996</v>
       </c>
       <c r="H68">
-        <v>0.1277384012937546</v>
+        <v>1.035988450050354</v>
       </c>
       <c r="I68">
-        <v>0.0008908133604563773</v>
+        <v>93978.5</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>91.54582526381778</v>
+        <v>75.82607654758368</v>
       </c>
       <c r="B69">
-        <v>0.08667939668772796</v>
+        <v>0.09159868386870185</v>
       </c>
       <c r="C69">
-        <v>0.0008178705950925724</v>
+        <v>0.001051846099711796</v>
       </c>
       <c r="D69">
-        <v>0.7251960191655927</v>
+        <v>0.755024693319684</v>
       </c>
       <c r="E69">
-        <v>1.036302943201662</v>
+        <v>1.038725147646601</v>
       </c>
       <c r="F69">
-        <v>98907.49180608308</v>
+        <v>81055.77157642011</v>
       </c>
       <c r="G69">
-        <v>97.80361938476562</v>
+        <v>0.7547043561935425</v>
       </c>
       <c r="H69">
-        <v>0.08304223418235779</v>
+        <v>1.038960576057434</v>
       </c>
       <c r="I69">
-        <v>0.0008156717522069812</v>
+        <v>81405.84375</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>123.2620501436392</v>
+        <v>120.2766944499282</v>
       </c>
       <c r="B70">
-        <v>0.1175969003654229</v>
+        <v>0.1137994337454435</v>
       </c>
       <c r="C70">
-        <v>0.001102916618059455</v>
+        <v>0.0007383731596725887</v>
       </c>
       <c r="D70">
-        <v>0.6700518056191868</v>
+        <v>0.6182579984823848</v>
       </c>
       <c r="E70">
-        <v>1.030494270072366</v>
+        <v>1.031909340989437</v>
       </c>
       <c r="F70">
-        <v>65731.2601771786</v>
+        <v>90605.75085856799</v>
       </c>
       <c r="G70">
-        <v>123.5035858154297</v>
+        <v>0.620215117931366</v>
       </c>
       <c r="H70">
-        <v>0.1174974963068962</v>
+        <v>1.031971096992493</v>
       </c>
       <c r="I70">
-        <v>0.001100692432373762</v>
+        <v>90848.0703125</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>108.3165506584848</v>
+        <v>75.76590447363779</v>
       </c>
       <c r="B71">
-        <v>0.1095982329113957</v>
+        <v>0.08029778063568643</v>
       </c>
       <c r="C71">
-        <v>0.00120578397784065</v>
+        <v>0.0009913765575607738</v>
       </c>
       <c r="D71">
-        <v>0.7064898552923802</v>
+        <v>0.7738371111487575</v>
       </c>
       <c r="E71">
-        <v>1.030874203930094</v>
+        <v>1.042163255552284</v>
       </c>
       <c r="F71">
-        <v>63960.71769592589</v>
+        <v>89104.68664654874</v>
       </c>
       <c r="G71">
-        <v>106.7463150024414</v>
+        <v>0.7730646133422852</v>
       </c>
       <c r="H71">
-        <v>0.1103071868419647</v>
+        <v>1.041983246803284</v>
       </c>
       <c r="I71">
-        <v>0.001205780194140971</v>
+        <v>89743.6015625</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>95.79980682824279</v>
+        <v>128.5875679008037</v>
       </c>
       <c r="B72">
-        <v>0.1048142722518076</v>
+        <v>0.1012621963722477</v>
       </c>
       <c r="C72">
-        <v>0.0007097516732064218</v>
+        <v>0.001286497083846668</v>
       </c>
       <c r="D72">
-        <v>0.6650412754282377</v>
+        <v>0.7099794280920924</v>
       </c>
       <c r="E72">
-        <v>1.033068723140002</v>
+        <v>1.031061695661802</v>
       </c>
       <c r="F72">
-        <v>102968.153882284</v>
+        <v>59954.77056631729</v>
       </c>
       <c r="G72">
-        <v>90.08688354492188</v>
+        <v>0.7094535827636719</v>
       </c>
       <c r="H72">
-        <v>0.1104926764965057</v>
+        <v>1.031084179878235</v>
       </c>
       <c r="I72">
-        <v>0.0007100170478224754</v>
+        <v>59659.41796875</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>72.14456095002902</v>
+        <v>98.11907209886209</v>
       </c>
       <c r="B73">
-        <v>0.1164927867608441</v>
+        <v>0.07326027930035522</v>
       </c>
       <c r="C73">
-        <v>0.001085682025185107</v>
+        <v>0.001225903147189954</v>
       </c>
       <c r="D73">
-        <v>0.7173997947406099</v>
+        <v>0.7856355886077142</v>
       </c>
       <c r="E73">
-        <v>1.034949762345703</v>
+        <v>1.037878465047716</v>
       </c>
       <c r="F73">
-        <v>73665.00138452149</v>
+        <v>72048.96640014385</v>
       </c>
       <c r="G73">
-        <v>72.34363555908203</v>
+        <v>0.784754753112793</v>
       </c>
       <c r="H73">
-        <v>0.1164888441562653</v>
+        <v>1.037790536880493</v>
       </c>
       <c r="I73">
-        <v>0.001085156574845314</v>
+        <v>71884.203125</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>116.2076874514949</v>
+        <v>128.6056652914202</v>
       </c>
       <c r="B74">
-        <v>0.126641947985686</v>
+        <v>0.08199979149378403</v>
       </c>
       <c r="C74">
-        <v>0.0009657238147733275</v>
+        <v>0.0009028953711021072</v>
       </c>
       <c r="D74">
-        <v>0.6468824309839422</v>
+        <v>0.7009570311865226</v>
       </c>
       <c r="E74">
-        <v>1.030328568668917</v>
+        <v>1.033612909957626</v>
       </c>
       <c r="F74">
-        <v>72436.01786773754</v>
+        <v>84961.83616213106</v>
       </c>
       <c r="G74">
-        <v>116.4160995483398</v>
+        <v>0.7003321051597595</v>
       </c>
       <c r="H74">
-        <v>0.1263726949691772</v>
+        <v>1.033610343933105</v>
       </c>
       <c r="I74">
-        <v>0.0009634902235120535</v>
+        <v>85544.109375</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>100.1263348434468</v>
+        <v>106.2907311847028</v>
       </c>
       <c r="B75">
-        <v>0.07220148507216478</v>
+        <v>0.07111130766763685</v>
       </c>
       <c r="C75">
-        <v>0.00123885265307619</v>
+        <v>0.001276942092724899</v>
       </c>
       <c r="D75">
-        <v>0.7873253441594941</v>
+        <v>0.7876482395233043</v>
       </c>
       <c r="E75">
-        <v>1.037780792741614</v>
+        <v>1.036997376217162</v>
       </c>
       <c r="F75">
-        <v>71409.74602854702</v>
+        <v>69061.01705775448</v>
       </c>
       <c r="G75">
-        <v>99.92752075195312</v>
+        <v>0.7873924970626831</v>
       </c>
       <c r="H75">
-        <v>0.07223241776227951</v>
+        <v>1.03697669506073</v>
       </c>
       <c r="I75">
-        <v>0.001231442205607891</v>
+        <v>69044.9765625</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>117.1713099679037</v>
+        <v>114.3558147638981</v>
       </c>
       <c r="B76">
-        <v>0.07884400615079325</v>
+        <v>0.1176218622014452</v>
       </c>
       <c r="C76">
-        <v>0.0008928837585125231</v>
+        <v>0.0008390209758827227</v>
       </c>
       <c r="D76">
-        <v>0.7205348405098186</v>
+        <v>0.6422441731400865</v>
       </c>
       <c r="E76">
-        <v>1.034533855289955</v>
+        <v>1.031097920618534</v>
       </c>
       <c r="F76">
-        <v>88999.46362339793</v>
+        <v>82996.07868581099</v>
       </c>
       <c r="G76">
-        <v>106.8535385131836</v>
+        <v>0.6412606835365295</v>
       </c>
       <c r="H76">
-        <v>0.08514953404664993</v>
+        <v>1.031253337860107</v>
       </c>
       <c r="I76">
-        <v>0.0008935235091485083</v>
+        <v>82665.953125</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>114.8813679605962</v>
+        <v>72.35126753525924</v>
       </c>
       <c r="B77">
-        <v>0.115377233890067</v>
+        <v>0.08343548128362281</v>
       </c>
       <c r="C77">
-        <v>0.0009845108873581731</v>
+        <v>0.001269591293449409</v>
       </c>
       <c r="D77">
-        <v>0.6680694501679801</v>
+        <v>0.7814841286769245</v>
       </c>
       <c r="E77">
-        <v>1.030769869170989</v>
+        <v>1.042273492415784</v>
       </c>
       <c r="F77">
-        <v>73667.9523889007</v>
+        <v>70366.67781133614</v>
       </c>
       <c r="G77">
-        <v>115.2259674072266</v>
+        <v>0.7828459739685059</v>
       </c>
       <c r="H77">
-        <v>0.1151988953351974</v>
+        <v>1.041767001152039</v>
       </c>
       <c r="I77">
-        <v>0.000984085607342422</v>
+        <v>70626.078125</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>117.6140420829011</v>
+        <v>86.96841775458458</v>
       </c>
       <c r="B78">
-        <v>0.07502748117460507</v>
+        <v>0.09072110084181417</v>
       </c>
       <c r="C78">
-        <v>0.001008860262421112</v>
+        <v>0.001264826622823899</v>
       </c>
       <c r="D78">
-        <v>0.7452650926796417</v>
+        <v>0.759061613696506</v>
       </c>
       <c r="E78">
-        <v>1.035061562608602</v>
+        <v>1.035840474400352</v>
       </c>
       <c r="F78">
-        <v>81741.33244711249</v>
+        <v>67091.53033085392</v>
       </c>
       <c r="G78">
-        <v>112.8366012573242</v>
+        <v>0.7592251300811768</v>
       </c>
       <c r="H78">
-        <v>0.07763779163360596</v>
+        <v>1.035761833190918</v>
       </c>
       <c r="I78">
-        <v>0.001011291053146124</v>
+        <v>66938.515625</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>88.03906952180601</v>
+        <v>77.21179367279014</v>
       </c>
       <c r="B79">
-        <v>0.1009674220444656</v>
+        <v>0.1256848776079355</v>
       </c>
       <c r="C79">
-        <v>0.0007842637128226318</v>
+        <v>0.001179521552411435</v>
       </c>
       <c r="D79">
-        <v>0.6975826937859861</v>
+        <v>0.7043886557937747</v>
       </c>
       <c r="E79">
-        <v>1.034368975429558</v>
+        <v>1.032566038579827</v>
       </c>
       <c r="F79">
-        <v>98551.94647673424</v>
+        <v>65986.69719301163</v>
       </c>
       <c r="G79">
-        <v>98.81520080566406</v>
+        <v>0.7042469382286072</v>
       </c>
       <c r="H79">
-        <v>0.09282129257917404</v>
+        <v>1.032524824142456</v>
       </c>
       <c r="I79">
-        <v>0.000784632284194231</v>
+        <v>65982.9140625</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>118.0479159440578</v>
+        <v>87.76841185132869</v>
       </c>
       <c r="B80">
-        <v>0.08319164659849643</v>
+        <v>0.112264864115412</v>
       </c>
       <c r="C80">
-        <v>0.001127735381619344</v>
+        <v>0.001078268762120075</v>
       </c>
       <c r="D80">
-        <v>0.7399182867844797</v>
+        <v>0.7107288120541263</v>
       </c>
       <c r="E80">
-        <v>1.033427670589766</v>
+        <v>1.032446191849429</v>
       </c>
       <c r="F80">
-        <v>72212.0199647635</v>
+        <v>72694.87266910753</v>
       </c>
       <c r="G80">
-        <v>114.6533279418945</v>
+        <v>0.7089918851852417</v>
       </c>
       <c r="H80">
-        <v>0.08454453945159912</v>
+        <v>1.032459616661072</v>
       </c>
       <c r="I80">
-        <v>0.001129381009377539</v>
+        <v>72528.046875</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>102.93077970797</v>
+        <v>77.12366313725464</v>
       </c>
       <c r="B81">
-        <v>0.0864577422305651</v>
+        <v>0.07191033577187848</v>
       </c>
       <c r="C81">
-        <v>0.001198285807072576</v>
+        <v>0.001224572779974968</v>
       </c>
       <c r="D81">
-        <v>0.7522619668479518</v>
+        <v>0.8020077970220575</v>
       </c>
       <c r="E81">
-        <v>1.034126983708036</v>
+        <v>1.044659187932528</v>
       </c>
       <c r="F81">
-        <v>69561.48528748535</v>
+        <v>75427.57994024466</v>
       </c>
       <c r="G81">
-        <v>102.8551559448242</v>
+        <v>0.8015691637992859</v>
       </c>
       <c r="H81">
-        <v>0.08633871376514435</v>
+        <v>1.043672442436218</v>
       </c>
       <c r="I81">
-        <v>0.00119699421338737</v>
+        <v>75485.7265625</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>98.39957202694859</v>
+        <v>89.07899076363856</v>
       </c>
       <c r="B82">
-        <v>0.112110428976665</v>
+        <v>0.07988164938987477</v>
       </c>
       <c r="C82">
-        <v>0.0007347455661377561</v>
+        <v>0.0008758121707046781</v>
       </c>
       <c r="D82">
-        <v>0.653906416702407</v>
+        <v>0.7504031267977932</v>
       </c>
       <c r="E82">
-        <v>1.03208710790629</v>
+        <v>1.038381302598586</v>
       </c>
       <c r="F82">
-        <v>97358.00050590132</v>
+        <v>96368.27273492068</v>
       </c>
       <c r="G82">
-        <v>96.17662811279297</v>
+        <v>0.7523353695869446</v>
       </c>
       <c r="H82">
-        <v>0.1159611940383911</v>
+        <v>1.038546442985535</v>
       </c>
       <c r="I82">
-        <v>0.0007345983176492155</v>
+        <v>96715.65625</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>110.5075548292454</v>
+        <v>94.85577967088018</v>
       </c>
       <c r="B83">
-        <v>0.0718115663961227</v>
+        <v>0.1072887040899858</v>
       </c>
       <c r="C83">
-        <v>0.0008748332923221416</v>
+        <v>0.001209366133187751</v>
       </c>
       <c r="D83">
-        <v>0.7424357660079903</v>
+        <v>0.7214567040346596</v>
       </c>
       <c r="E83">
-        <v>1.036713309209214</v>
+        <v>1.03205861216604</v>
       </c>
       <c r="F83">
-        <v>94489.7285315269</v>
+        <v>65656.78141426021</v>
       </c>
       <c r="G83">
-        <v>107.3165435791016</v>
+        <v>0.7204650044441223</v>
       </c>
       <c r="H83">
-        <v>0.07343336194753647</v>
+        <v>1.03202748298645</v>
       </c>
       <c r="I83">
-        <v>0.0008729550754651427</v>
+        <v>65822.5703125</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>71.2815209763009</v>
+        <v>73.84884978092707</v>
       </c>
       <c r="B84">
-        <v>0.1223991656741142</v>
+        <v>0.1046337153162501</v>
       </c>
       <c r="C84">
-        <v>0.0007228268089210347</v>
+        <v>0.001070726015150514</v>
       </c>
       <c r="D84">
-        <v>0.6779355338661813</v>
+        <v>0.734408744353004</v>
       </c>
       <c r="E84">
-        <v>1.034766218867886</v>
+        <v>1.036478637248554</v>
       </c>
       <c r="F84">
-        <v>104238.3444801901</v>
+        <v>76872.53910502505</v>
       </c>
       <c r="G84">
-        <v>91.71510314941406</v>
+        <v>0.7341497540473938</v>
       </c>
       <c r="H84">
-        <v>0.104048028588295</v>
+        <v>1.036497354507446</v>
       </c>
       <c r="I84">
-        <v>0.0007186259608715773</v>
+        <v>77004.7421875</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>76.13900895325565</v>
+        <v>111.5483271622012</v>
       </c>
       <c r="B85">
-        <v>0.09666873732113621</v>
+        <v>0.08427356928247053</v>
       </c>
       <c r="C85">
-        <v>0.001273926462812945</v>
+        <v>0.0007079421146553397</v>
       </c>
       <c r="D85">
-        <v>0.7547349614267453</v>
+        <v>0.6792295451663193</v>
       </c>
       <c r="E85">
-        <v>1.037312761658273</v>
+        <v>1.034515023918117</v>
       </c>
       <c r="F85">
-        <v>66621.98381326189</v>
+        <v>105558.9692892101</v>
       </c>
       <c r="G85">
-        <v>76.19230651855469</v>
+        <v>0.6810608506202698</v>
       </c>
       <c r="H85">
-        <v>0.09648542106151581</v>
+        <v>1.034563899040222</v>
       </c>
       <c r="I85">
-        <v>0.001267710817046463</v>
+        <v>105447.234375</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>87.53064191005132</v>
+        <v>103.9960872523945</v>
       </c>
       <c r="B86">
-        <v>0.1001435976344261</v>
+        <v>0.1260528398754876</v>
       </c>
       <c r="C86">
-        <v>0.001100301292422294</v>
+        <v>0.0009083401107593317</v>
       </c>
       <c r="D86">
-        <v>0.7327570183971516</v>
+        <v>0.6544717567915803</v>
       </c>
       <c r="E86">
-        <v>1.034129418311438</v>
+        <v>1.030413845472351</v>
       </c>
       <c r="F86">
-        <v>73936.69995098643</v>
+        <v>78298.04735505041</v>
       </c>
       <c r="G86">
-        <v>88.04603576660156</v>
+        <v>0.65480637550354</v>
       </c>
       <c r="H86">
-        <v>0.1000307276844978</v>
+        <v>1.030363798141479</v>
       </c>
       <c r="I86">
-        <v>0.001100754598155618</v>
+        <v>78106.34375</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>128.9794065974704</v>
+        <v>85.92336945636673</v>
       </c>
       <c r="B87">
-        <v>0.1024028778216215</v>
+        <v>0.1068379573579538</v>
       </c>
       <c r="C87">
-        <v>0.001278520251672869</v>
+        <v>0.000788884516568899</v>
       </c>
       <c r="D87">
-        <v>0.7069786197844716</v>
+        <v>0.6910768924359209</v>
       </c>
       <c r="E87">
-        <v>1.031005519553349</v>
+        <v>1.033848219568731</v>
       </c>
       <c r="F87">
-        <v>60038.5726285708</v>
+        <v>96911.07963978052</v>
       </c>
       <c r="G87">
-        <v>115.3226318359375</v>
+        <v>0.6908280849456787</v>
       </c>
       <c r="H87">
-        <v>0.1082918867468834</v>
+        <v>1.033852100372314</v>
       </c>
       <c r="I87">
-        <v>0.001287721679545939</v>
+        <v>97694.9609375</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>78.38474673189729</v>
+        <v>101.394883208002</v>
       </c>
       <c r="B88">
-        <v>0.1087326576747696</v>
+        <v>0.1021379681814975</v>
       </c>
       <c r="C88">
-        <v>0.001018896566998785</v>
+        <v>0.001289097633890952</v>
       </c>
       <c r="D88">
-        <v>0.7207490210420007</v>
+        <v>0.7298808191032543</v>
       </c>
       <c r="E88">
-        <v>1.034657397565547</v>
+        <v>1.03195829232296</v>
       </c>
       <c r="F88">
-        <v>78729.73547205617</v>
+        <v>62237.49477528209</v>
       </c>
       <c r="G88">
-        <v>78.14875030517578</v>
+        <v>0.7312434911727905</v>
       </c>
       <c r="H88">
-        <v>0.1086665019392967</v>
+        <v>1.031946897506714</v>
       </c>
       <c r="I88">
-        <v>0.0010173877235502</v>
+        <v>62078.77734375</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>89.83577804555262</v>
+        <v>75.63643064550649</v>
       </c>
       <c r="B89">
-        <v>0.0906913951973649</v>
+        <v>0.1053945985812743</v>
       </c>
       <c r="C89">
-        <v>0.001181241114337368</v>
+        <v>0.0009870221842239928</v>
       </c>
       <c r="D89">
-        <v>0.7531202215379461</v>
+        <v>0.7266183105803764</v>
       </c>
       <c r="E89">
-        <v>1.035305913840601</v>
+        <v>1.035907383430218</v>
       </c>
       <c r="F89">
-        <v>71103.26375509819</v>
+        <v>82306.83511602714</v>
       </c>
       <c r="G89">
-        <v>90.07106018066406</v>
+        <v>0.7257640361785889</v>
       </c>
       <c r="H89">
-        <v>0.09038256853818893</v>
+        <v>1.035859823226929</v>
       </c>
       <c r="I89">
-        <v>0.001178662525489926</v>
+        <v>82288.34375</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>73.06318388151541</v>
+        <v>104.5567897333707</v>
       </c>
       <c r="B90">
-        <v>0.07606644943380948</v>
+        <v>0.1138073217710062</v>
       </c>
       <c r="C90">
-        <v>0.0009246483903278439</v>
+        <v>0.0009984348192991976</v>
       </c>
       <c r="D90">
-        <v>0.7807566322414765</v>
+        <v>0.6839684243945929</v>
       </c>
       <c r="E90">
-        <v>1.045018540924327</v>
+        <v>1.030993286348381</v>
       </c>
       <c r="F90">
-        <v>97223.68795821624</v>
+        <v>74755.87687070333</v>
       </c>
       <c r="G90">
-        <v>69.71029663085938</v>
+        <v>0.684800922870636</v>
       </c>
       <c r="H90">
-        <v>0.07669059932231903</v>
+        <v>1.031060338020325</v>
       </c>
       <c r="I90">
-        <v>0.0009196422179229558</v>
+        <v>74927.9765625</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>89.87613281756357</v>
+        <v>125.7577718545728</v>
       </c>
       <c r="B91">
-        <v>0.0891027361999706</v>
+        <v>0.08871669972877612</v>
       </c>
       <c r="C91">
-        <v>0.0009122914195435845</v>
+        <v>0.001083683509839234</v>
       </c>
       <c r="D91">
-        <v>0.7346330707180031</v>
+        <v>0.7162241830894212</v>
       </c>
       <c r="E91">
-        <v>1.035956715769871</v>
+        <v>1.032498287692078</v>
       </c>
       <c r="F91">
-        <v>89839.25484065771</v>
+        <v>72238.64029739723</v>
       </c>
       <c r="G91">
-        <v>89.64749145507812</v>
+        <v>0.71700519323349</v>
       </c>
       <c r="H91">
-        <v>0.08967974781990051</v>
+        <v>1.032446026802063</v>
       </c>
       <c r="I91">
-        <v>0.0009107404621317983</v>
+        <v>72395.21875</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>89.2195771906499</v>
+        <v>89.11413714707942</v>
       </c>
       <c r="B92">
-        <v>0.08008852708136922</v>
+        <v>0.09389326373296553</v>
       </c>
       <c r="C92">
-        <v>0.0009269606902630796</v>
+        <v>0.0009211507636777705</v>
       </c>
       <c r="D92">
-        <v>0.7555246115059061</v>
+        <v>0.7272518360651115</v>
       </c>
       <c r="E92">
-        <v>1.038217775270993</v>
+        <v>1.03515441137802</v>
       </c>
       <c r="F92">
-        <v>91667.58022290136</v>
+        <v>87846.4820717473</v>
       </c>
       <c r="G92">
-        <v>89.17505645751953</v>
+        <v>0.7271409034729004</v>
       </c>
       <c r="H92">
-        <v>0.08018047362565994</v>
+        <v>1.035156726837158</v>
       </c>
       <c r="I92">
-        <v>0.0009174566948786378</v>
+        <v>88215.1875</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>126.8084302566713</v>
+        <v>110.0446227978209</v>
       </c>
       <c r="B93">
-        <v>0.1033679907670284</v>
+        <v>0.08259062493850731</v>
       </c>
       <c r="C93">
-        <v>0.001094717280235857</v>
+        <v>0.0007821401630113594</v>
       </c>
       <c r="D93">
-        <v>0.6889326937704773</v>
+        <v>0.7017297235633835</v>
       </c>
       <c r="E93">
-        <v>1.031284530323859</v>
+        <v>1.034720768117859</v>
       </c>
       <c r="F93">
-        <v>68323.03127632261</v>
+        <v>99003.28614393431</v>
       </c>
       <c r="G93">
-        <v>126.6409072875977</v>
+        <v>0.7016271352767944</v>
       </c>
       <c r="H93">
-        <v>0.1032701730728149</v>
+        <v>1.034662008285522</v>
       </c>
       <c r="I93">
-        <v>0.001093861879780889</v>
+        <v>99432.4765625</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>120.7092452197432</v>
+        <v>77.90787174426353</v>
       </c>
       <c r="B94">
-        <v>0.0890817178576232</v>
+        <v>0.08117158035282018</v>
       </c>
       <c r="C94">
-        <v>0.0009156718906129913</v>
+        <v>0.001193270639916547</v>
       </c>
       <c r="D94">
-        <v>0.6979493226389573</v>
+        <v>0.7806139678864035</v>
       </c>
       <c r="E94">
-        <v>1.032962079138354</v>
+        <v>1.040876161596413</v>
       </c>
       <c r="F94">
-        <v>83407.03637879633</v>
+        <v>74431.14979593981</v>
       </c>
       <c r="G94">
-        <v>104.4117431640625</v>
+        <v>0.7809097170829773</v>
       </c>
       <c r="H94">
-        <v>0.1002253592014313</v>
+        <v>1.040886640548706</v>
       </c>
       <c r="I94">
-        <v>0.0009187785326503217</v>
+        <v>74417.265625</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>92.96585315456628</v>
+        <v>112.9796322471139</v>
       </c>
       <c r="B95">
-        <v>0.1274840306796061</v>
+        <v>0.126662343399036</v>
       </c>
       <c r="C95">
-        <v>0.001240220470962535</v>
+        <v>0.0008139087471416548</v>
       </c>
       <c r="D95">
-        <v>0.6936562778482137</v>
+        <v>0.6258183830380419</v>
       </c>
       <c r="E95">
-        <v>1.030351624127306</v>
+        <v>1.030794463815791</v>
       </c>
       <c r="F95">
-        <v>61124.96712765859</v>
+        <v>83182.96283065937</v>
       </c>
       <c r="G95">
-        <v>105.211555480957</v>
+        <v>0.6240348219871521</v>
       </c>
       <c r="H95">
-        <v>0.1211904361844063</v>
+        <v>1.030749440193176</v>
       </c>
       <c r="I95">
-        <v>0.001237545162439346</v>
+        <v>83272.7265625</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>71.48614348235492</v>
+        <v>87.36436557683206</v>
       </c>
       <c r="B96">
-        <v>0.1279440566788168</v>
+        <v>0.1143730477029573</v>
       </c>
       <c r="C96">
-        <v>0.001289964919030093</v>
+        <v>0.001006791389527874</v>
       </c>
       <c r="D96">
-        <v>0.7081688772311036</v>
+        <v>0.7021769573693478</v>
       </c>
       <c r="E96">
-        <v>1.033557818304534</v>
+        <v>1.032347260446005</v>
       </c>
       <c r="F96">
-        <v>60902.22194167466</v>
+        <v>76854.57909483679</v>
       </c>
       <c r="G96">
-        <v>72.10128784179688</v>
+        <v>0.7023631930351257</v>
       </c>
       <c r="H96">
-        <v>0.1283051371574402</v>
+        <v>1.032395839691162</v>
       </c>
       <c r="I96">
-        <v>0.001287754974327981</v>
+        <v>76802.515625</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>119.8618668397227</v>
+        <v>80.991481720427</v>
       </c>
       <c r="B97">
-        <v>0.1072075528340945</v>
+        <v>0.09942752851705401</v>
       </c>
       <c r="C97">
-        <v>0.0007182559092022035</v>
+        <v>0.0008345902173848435</v>
       </c>
       <c r="D97">
-        <v>0.6247828934057823</v>
+        <v>0.716897399889097</v>
       </c>
       <c r="E97">
-        <v>1.032287293350334</v>
+        <v>1.035900241359446</v>
       </c>
       <c r="F97">
-        <v>94322.65401426016</v>
+        <v>95866.17794179553</v>
       </c>
       <c r="G97">
-        <v>119.6565628051758</v>
+        <v>0.7163271903991699</v>
       </c>
       <c r="H97">
-        <v>0.1071674674749374</v>
+        <v>1.035913586616516</v>
       </c>
       <c r="I97">
-        <v>0.000713577086571604</v>
+        <v>96429.1875</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>109.6321706286724</v>
+        <v>105.190776088605</v>
       </c>
       <c r="B98">
-        <v>0.1070498360600372</v>
+        <v>0.0836448776783994</v>
       </c>
       <c r="C98">
-        <v>0.0008161739742414978</v>
+        <v>0.0007587066906964205</v>
       </c>
       <c r="D98">
-        <v>0.661790460231261</v>
+        <v>0.7017798787133617</v>
       </c>
       <c r="E98">
-        <v>1.031832141173303</v>
+        <v>1.035038743529357</v>
       </c>
       <c r="F98">
-        <v>88412.48401310485</v>
+        <v>102288.7690021213</v>
       </c>
       <c r="G98">
-        <v>109.6234893798828</v>
+        <v>0.7022514939308167</v>
       </c>
       <c r="H98">
-        <v>0.1076798364520073</v>
+        <v>1.035056114196777</v>
       </c>
       <c r="I98">
-        <v>0.0008155677351169288</v>
+        <v>102527.7421875</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>79.14186901907858</v>
+        <v>71.20645277124962</v>
       </c>
       <c r="B99">
-        <v>0.1291227138740264</v>
+        <v>0.08526138890622359</v>
       </c>
       <c r="C99">
-        <v>0.0007673499955524316</v>
+        <v>0.00121731491045301</v>
       </c>
       <c r="D99">
-        <v>0.6630894858916745</v>
+        <v>0.7770165767878129</v>
       </c>
       <c r="E99">
-        <v>1.032347858549144</v>
+        <v>1.042165373462183</v>
       </c>
       <c r="F99">
-        <v>95125.33980780448</v>
+        <v>72939.03639902246</v>
       </c>
       <c r="G99">
-        <v>92.76264190673828</v>
+        <v>0.7787150740623474</v>
       </c>
       <c r="H99">
-        <v>0.1159805953502655</v>
+        <v>1.041693329811096</v>
       </c>
       <c r="I99">
-        <v>0.0007650144398212433</v>
+        <v>72893.59375</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>129.7642762606112</v>
+        <v>119.7364017530418</v>
       </c>
       <c r="B100">
-        <v>0.1232369890741111</v>
+        <v>0.07348174961943255</v>
       </c>
       <c r="C100">
-        <v>0.0007254184282548659</v>
+        <v>0.001283751693413878</v>
       </c>
       <c r="D100">
-        <v>0.5861427165154036</v>
+        <v>0.7727682952943334</v>
       </c>
       <c r="E100">
-        <v>1.03245711765436</v>
+        <v>1.034832456714931</v>
       </c>
       <c r="F100">
-        <v>86914.65529267423</v>
+        <v>66681.54223632473</v>
       </c>
       <c r="G100">
-        <v>131.3407592773438</v>
+        <v>0.7728893160820007</v>
       </c>
       <c r="H100">
-        <v>0.1233881711959839</v>
+        <v>1.034859776496887</v>
       </c>
       <c r="I100">
-        <v>0.0007260189158841968</v>
+        <v>66315.9453125</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>76.01400624544736</v>
+        <v>70.28172857155282</v>
       </c>
       <c r="B101">
-        <v>0.1159041969494884</v>
+        <v>0.09606499753348724</v>
       </c>
       <c r="C101">
-        <v>0.0008366445960083719</v>
+        <v>0.0012765007948378</v>
       </c>
       <c r="D101">
-        <v>0.6958885794427496</v>
+        <v>0.7588132822105008</v>
       </c>
       <c r="E101">
-        <v>1.034352471388256</v>
+        <v>1.039455898700092</v>
       </c>
       <c r="F101">
-        <v>92372.41631633101</v>
+        <v>67330.65302814043</v>
       </c>
       <c r="G101">
-        <v>106.8873672485352</v>
+        <v>0.7608711123466492</v>
       </c>
       <c r="H101">
-        <v>0.0945684015750885</v>
+        <v>1.039114594459534</v>
       </c>
       <c r="I101">
-        <v>0.0008284549112431705</v>
+        <v>67704.4765625</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Evaporator Temperature</t>
   </si>
@@ -25,13 +25,28 @@
     <t>Adiabatic Efficiency</t>
   </si>
   <si>
-    <t>MLP_Evaporator_Temperature</t>
+    <t>Compressor Energy</t>
   </si>
   <si>
-    <t>MLP_Condenser_Temperature</t>
+    <t>Electric Current</t>
   </si>
   <si>
-    <t>MLP_Adiabatic_Efficiency</t>
+    <t>Discharge Temperature</t>
+  </si>
+  <si>
+    <t>Refrigerant Mass Flow</t>
+  </si>
+  <si>
+    <t>MLP_Compressor_Energy</t>
+  </si>
+  <si>
+    <t>MLP_Electric_Current</t>
+  </si>
+  <si>
+    <t>MLP_Discharge_Temperature</t>
+  </si>
+  <si>
+    <t>MLP_Refrigerant_Mass_Flow</t>
   </si>
 </sst>
 </file>
@@ -389,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +429,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>13.23220255890987</v>
       </c>
@@ -426,16 +456,31 @@
         <v>74.38031602295143</v>
       </c>
       <c r="D2">
-        <v>13.35861968994141</v>
+        <v>1236.147689963684</v>
       </c>
       <c r="E2">
-        <v>59.624755859375</v>
+        <v>5.618853136198564</v>
       </c>
       <c r="F2">
-        <v>74.30598449707031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>85.55218798488687</v>
+      </c>
+      <c r="G2">
+        <v>1.798179532885997</v>
+      </c>
+      <c r="H2">
+        <v>1226.518920898438</v>
+      </c>
+      <c r="I2">
+        <v>5.59229040145874</v>
+      </c>
+      <c r="J2">
+        <v>85.414794921875</v>
+      </c>
+      <c r="K2">
+        <v>1.791944026947021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>15.72784049558629</v>
       </c>
@@ -446,16 +491,31 @@
         <v>77.48127815197365</v>
       </c>
       <c r="D3">
-        <v>16.05924797058105</v>
+        <v>949.1590881620284</v>
       </c>
       <c r="E3">
-        <v>55.97192001342773</v>
+        <v>4.314359491645583</v>
       </c>
       <c r="F3">
-        <v>76.47713470458984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>77.60250366636302</v>
+      </c>
+      <c r="G3">
+        <v>1.669897204244678</v>
+      </c>
+      <c r="H3">
+        <v>946.27783203125</v>
+      </c>
+      <c r="I3">
+        <v>4.328643321990967</v>
+      </c>
+      <c r="J3">
+        <v>77.4644775390625</v>
+      </c>
+      <c r="K3">
+        <v>1.68179726600647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>14.04145064107466</v>
       </c>
@@ -466,16 +526,31 @@
         <v>87.9052478370906</v>
       </c>
       <c r="D4">
-        <v>14.10171413421631</v>
+        <v>675.5591405757115</v>
       </c>
       <c r="E4">
-        <v>49.19556427001953</v>
+        <v>3.070723366253234</v>
       </c>
       <c r="F4">
-        <v>87.95191192626953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66.07334589368702</v>
+      </c>
+      <c r="G4">
+        <v>1.500636586178777</v>
+      </c>
+      <c r="H4">
+        <v>673.573486328125</v>
+      </c>
+      <c r="I4">
+        <v>3.066728830337524</v>
+      </c>
+      <c r="J4">
+        <v>66.10336303710938</v>
+      </c>
+      <c r="K4">
+        <v>1.495421051979065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>13.17324774495345</v>
       </c>
@@ -486,16 +561,31 @@
         <v>62.40901886517079</v>
       </c>
       <c r="D5">
-        <v>13.27785778045654</v>
+        <v>1261.216137579417</v>
       </c>
       <c r="E5">
-        <v>55.64497756958008</v>
+        <v>5.732800625360987</v>
       </c>
       <c r="F5">
-        <v>62.17733383178711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>84.83264343183959</v>
+      </c>
+      <c r="G5">
+        <v>1.664913505990873</v>
+      </c>
+      <c r="H5">
+        <v>1266.1298828125</v>
+      </c>
+      <c r="I5">
+        <v>5.748610019683838</v>
+      </c>
+      <c r="J5">
+        <v>84.89519500732422</v>
+      </c>
+      <c r="K5">
+        <v>1.667551159858704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>11.35482199008357</v>
       </c>
@@ -506,16 +596,31 @@
         <v>86.67066861782671</v>
       </c>
       <c r="D6">
-        <v>11.32006359100342</v>
+        <v>572.2792494748034</v>
       </c>
       <c r="E6">
-        <v>42.37258911132812</v>
+        <v>2.601269315794561</v>
       </c>
       <c r="F6">
-        <v>86.55152893066406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>57.77442934413847</v>
+      </c>
+      <c r="G6">
+        <v>1.373805881146692</v>
+      </c>
+      <c r="H6">
+        <v>577.9501953125</v>
+      </c>
+      <c r="I6">
+        <v>2.625413417816162</v>
+      </c>
+      <c r="J6">
+        <v>57.56805038452148</v>
+      </c>
+      <c r="K6">
+        <v>1.374245285987854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>14.68841169599984</v>
       </c>
@@ -526,16 +631,31 @@
         <v>86.82551478472638</v>
       </c>
       <c r="D7">
-        <v>14.45245552062988</v>
+        <v>771.6680454887146</v>
       </c>
       <c r="E7">
-        <v>52.91435623168945</v>
+        <v>3.507582024948703</v>
       </c>
       <c r="F7">
-        <v>87.50264739990234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>71.12822505960241</v>
+      </c>
+      <c r="G7">
+        <v>1.583684852116902</v>
+      </c>
+      <c r="H7">
+        <v>750.176513671875</v>
+      </c>
+      <c r="I7">
+        <v>3.437591314315796</v>
+      </c>
+      <c r="J7">
+        <v>70.82122039794922</v>
+      </c>
+      <c r="K7">
+        <v>1.577032923698425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>11.56380816894039</v>
       </c>
@@ -546,16 +666,31 @@
         <v>68.41530244295363</v>
       </c>
       <c r="D8">
-        <v>11.37846660614014</v>
+        <v>734.2747072797196</v>
       </c>
       <c r="E8">
-        <v>42.73710250854492</v>
+        <v>3.337612305816907</v>
       </c>
       <c r="F8">
-        <v>67.962890625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>63.30405172337748</v>
+      </c>
+      <c r="G8">
+        <v>1.382008033641204</v>
+      </c>
+      <c r="H8">
+        <v>725.6380004882812</v>
+      </c>
+      <c r="I8">
+        <v>3.324152946472168</v>
+      </c>
+      <c r="J8">
+        <v>63.36371612548828</v>
+      </c>
+      <c r="K8">
+        <v>1.380721569061279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>18.3765950117312</v>
       </c>
@@ -566,16 +701,31 @@
         <v>65.15705190619413</v>
       </c>
       <c r="D9">
-        <v>17.94867324829102</v>
+        <v>1167.586554867473</v>
       </c>
       <c r="E9">
-        <v>58.94001770019531</v>
+        <v>5.307211613033966</v>
       </c>
       <c r="F9">
-        <v>65.43820190429688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>84.52360786461645</v>
+      </c>
+      <c r="G9">
+        <v>1.759860475601445</v>
+      </c>
+      <c r="H9">
+        <v>1159.532836914062</v>
+      </c>
+      <c r="I9">
+        <v>5.301797866821289</v>
+      </c>
+      <c r="J9">
+        <v>84.26711273193359</v>
+      </c>
+      <c r="K9">
+        <v>1.75398063659668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>19.45494140751544</v>
       </c>
@@ -586,16 +736,31 @@
         <v>72.61713403696736</v>
       </c>
       <c r="D10">
-        <v>19.4173412322998</v>
+        <v>699.9901949813142</v>
       </c>
       <c r="E10">
-        <v>50.49509811401367</v>
+        <v>3.181773613551428</v>
       </c>
       <c r="F10">
-        <v>74.34944152832031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>68.27335346319461</v>
+      </c>
+      <c r="G10">
+        <v>1.518175888241615</v>
+      </c>
+      <c r="H10">
+        <v>704.9616088867188</v>
+      </c>
+      <c r="I10">
+        <v>3.229513883590698</v>
+      </c>
+      <c r="J10">
+        <v>68.88298034667969</v>
+      </c>
+      <c r="K10">
+        <v>1.528013467788696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10.75162278238667</v>
       </c>
@@ -606,16 +771,31 @@
         <v>74.5484308377049</v>
       </c>
       <c r="D11">
-        <v>10.65338516235352</v>
+        <v>862.9590692102645</v>
       </c>
       <c r="E11">
-        <v>48.28175354003906</v>
+        <v>3.92254122368302</v>
       </c>
       <c r="F11">
-        <v>73.69049072265625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>70.1846118282196</v>
+      </c>
+      <c r="G11">
+        <v>1.487553689553005</v>
+      </c>
+      <c r="H11">
+        <v>854.3070678710938</v>
+      </c>
+      <c r="I11">
+        <v>3.908363580703735</v>
+      </c>
+      <c r="J11">
+        <v>70.36180114746094</v>
+      </c>
+      <c r="K11">
+        <v>1.483078002929688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>16.87587557123997</v>
       </c>
@@ -626,16 +806,31 @@
         <v>82.80787081671519</v>
       </c>
       <c r="D12">
-        <v>20.26413536071777</v>
+        <v>536.0603423418281</v>
       </c>
       <c r="E12">
-        <v>44.97405242919922</v>
+        <v>2.436637919735583</v>
       </c>
       <c r="F12">
-        <v>72.43563079833984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>59.82805635610276</v>
+      </c>
+      <c r="G12">
+        <v>1.402097006438867</v>
+      </c>
+      <c r="H12">
+        <v>546.8164672851562</v>
+      </c>
+      <c r="I12">
+        <v>2.493006229400635</v>
+      </c>
+      <c r="J12">
+        <v>59.63228225708008</v>
+      </c>
+      <c r="K12">
+        <v>1.416534662246704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12.93342379629357</v>
       </c>
@@ -646,16 +841,31 @@
         <v>77.54406053849281</v>
       </c>
       <c r="D13">
-        <v>12.93188858032227</v>
+        <v>1017.790594159529</v>
       </c>
       <c r="E13">
-        <v>55.51837539672852</v>
+        <v>4.626320882543312</v>
       </c>
       <c r="F13">
-        <v>77.26673889160156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>78.56045513020365</v>
+      </c>
+      <c r="G13">
+        <v>1.661794846696122</v>
+      </c>
+      <c r="H13">
+        <v>1027.9833984375</v>
+      </c>
+      <c r="I13">
+        <v>4.691800594329834</v>
+      </c>
+      <c r="J13">
+        <v>78.81452178955078</v>
+      </c>
+      <c r="K13">
+        <v>1.678321838378906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13.52066841640898</v>
       </c>
@@ -666,16 +876,31 @@
         <v>99.53495352236905</v>
       </c>
       <c r="D14">
-        <v>13.53343963623047</v>
+        <v>605.3956918090914</v>
       </c>
       <c r="E14">
-        <v>49.01694107055664</v>
+        <v>2.751798599132234</v>
       </c>
       <c r="F14">
-        <v>98.34424591064453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>64.04171192247691</v>
+      </c>
+      <c r="G14">
+        <v>1.499368893442079</v>
+      </c>
+      <c r="H14">
+        <v>606.5286254882812</v>
+      </c>
+      <c r="I14">
+        <v>2.75685453414917</v>
+      </c>
+      <c r="J14">
+        <v>64.23689270019531</v>
+      </c>
+      <c r="K14">
+        <v>1.499258995056152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>18.88394957438992</v>
       </c>
@@ -686,16 +911,31 @@
         <v>64.08179242992112</v>
       </c>
       <c r="D15">
-        <v>18.90505218505859</v>
+        <v>845.4317145048925</v>
       </c>
       <c r="E15">
-        <v>51.42323684692383</v>
+        <v>3.842871429567693</v>
       </c>
       <c r="F15">
-        <v>64.88913726806641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>72.7252457860406</v>
+      </c>
+      <c r="G15">
+        <v>1.540665429052289</v>
+      </c>
+      <c r="H15">
+        <v>851.9649047851562</v>
+      </c>
+      <c r="I15">
+        <v>3.859891176223755</v>
+      </c>
+      <c r="J15">
+        <v>72.9228515625</v>
+      </c>
+      <c r="K15">
+        <v>1.538653254508972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>6.065540872968304</v>
       </c>
@@ -706,16 +946,31 @@
         <v>68.35507024379339</v>
       </c>
       <c r="D16">
-        <v>6.520157814025879</v>
+        <v>821.2757941112812</v>
       </c>
       <c r="E16">
-        <v>40.623291015625</v>
+        <v>3.733071791414915</v>
       </c>
       <c r="F16">
-        <v>68.57572937011719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>63.68432101738085</v>
+      </c>
+      <c r="G16">
+        <v>1.351795611939785</v>
+      </c>
+      <c r="H16">
+        <v>829.2858276367188</v>
+      </c>
+      <c r="I16">
+        <v>3.770537614822388</v>
+      </c>
+      <c r="J16">
+        <v>63.72352981567383</v>
+      </c>
+      <c r="K16">
+        <v>1.350127100944519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>6.30693949552311</v>
       </c>
@@ -726,16 +981,31 @@
         <v>66.45238071539985</v>
       </c>
       <c r="D17">
-        <v>6.297819137573242</v>
+        <v>1297.293853673898</v>
       </c>
       <c r="E17">
-        <v>52.45627975463867</v>
+        <v>5.896790243972263</v>
       </c>
       <c r="F17">
-        <v>67.21930694580078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>83.32339187395064</v>
+      </c>
+      <c r="G17">
+        <v>1.594316126854875</v>
+      </c>
+      <c r="H17">
+        <v>1298.965087890625</v>
+      </c>
+      <c r="I17">
+        <v>5.856714725494385</v>
+      </c>
+      <c r="J17">
+        <v>83.25910186767578</v>
+      </c>
+      <c r="K17">
+        <v>1.59597647190094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>5.303275961604886</v>
       </c>
@@ -746,16 +1016,31 @@
         <v>86.12433301861594</v>
       </c>
       <c r="D18">
-        <v>5.326093673706055</v>
+        <v>1027.447968291439</v>
       </c>
       <c r="E18">
-        <v>52.19449234008789</v>
+        <v>4.67021803768836</v>
       </c>
       <c r="F18">
-        <v>86.92889404296875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>75.61495431054715</v>
+      </c>
+      <c r="G18">
+        <v>1.594604946411092</v>
+      </c>
+      <c r="H18">
+        <v>1022.419799804688</v>
+      </c>
+      <c r="I18">
+        <v>4.659600734710693</v>
+      </c>
+      <c r="J18">
+        <v>75.80855560302734</v>
+      </c>
+      <c r="K18">
+        <v>1.59025514125824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17.48929768321907</v>
       </c>
@@ -766,16 +1051,31 @@
         <v>70.13166410159128</v>
       </c>
       <c r="D19">
-        <v>17.7570686340332</v>
+        <v>848.7983770637868</v>
       </c>
       <c r="E19">
-        <v>52.5209846496582</v>
+        <v>3.858174441199031</v>
       </c>
       <c r="F19">
-        <v>69.86666107177734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>73.21319690230882</v>
+      </c>
+      <c r="G19">
+        <v>1.566556435647153</v>
+      </c>
+      <c r="H19">
+        <v>849.1509399414062</v>
+      </c>
+      <c r="I19">
+        <v>3.851142406463623</v>
+      </c>
+      <c r="J19">
+        <v>73.32521057128906</v>
+      </c>
+      <c r="K19">
+        <v>1.560823321342468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>16.67235126424776</v>
       </c>
@@ -786,16 +1086,31 @@
         <v>78.65243091425225</v>
       </c>
       <c r="D20">
-        <v>16.87120246887207</v>
+        <v>1021.31610887718</v>
       </c>
       <c r="E20">
-        <v>58.90822601318359</v>
+        <v>4.642345949441727</v>
       </c>
       <c r="F20">
-        <v>78.7767333984375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>80.97036257946883</v>
+      </c>
+      <c r="G20">
+        <v>1.763018174640508</v>
+      </c>
+      <c r="H20">
+        <v>1019.383666992188</v>
+      </c>
+      <c r="I20">
+        <v>4.64496374130249</v>
+      </c>
+      <c r="J20">
+        <v>80.55011749267578</v>
+      </c>
+      <c r="K20">
+        <v>1.757610082626343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>18.05018222370229</v>
       </c>
@@ -806,13 +1121,28 @@
         <v>69.7770236800641</v>
       </c>
       <c r="D21">
-        <v>18.23192596435547</v>
+        <v>882.9171684062327</v>
       </c>
       <c r="E21">
-        <v>53.76011657714844</v>
+        <v>4.013259856391967</v>
       </c>
       <c r="F21">
-        <v>68.99057006835938</v>
+        <v>74.93501491514706</v>
+      </c>
+      <c r="G21">
+        <v>1.598879051570128</v>
+      </c>
+      <c r="H21">
+        <v>885.8912963867188</v>
+      </c>
+      <c r="I21">
+        <v>4.030361175537109</v>
+      </c>
+      <c r="J21">
+        <v>75.13983154296875</v>
+      </c>
+      <c r="K21">
+        <v>1.596817135810852</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -453,31 +453,31 @@
         <v>59.57236684465528</v>
       </c>
       <c r="C2">
-        <v>74.38031602295143</v>
+        <v>73.59507900573786</v>
       </c>
       <c r="D2">
-        <v>1236.147689963684</v>
+        <v>1249.337008298771</v>
       </c>
       <c r="E2">
-        <v>5.618853136198564</v>
+        <v>5.678804583176232</v>
       </c>
       <c r="F2">
-        <v>85.55218798488687</v>
+        <v>85.85065616927892</v>
       </c>
       <c r="G2">
-        <v>1.798179532885997</v>
+        <v>1.798179532885998</v>
       </c>
       <c r="H2">
-        <v>1226.518920898438</v>
+        <v>1234.097412109375</v>
       </c>
       <c r="I2">
-        <v>5.59229040145874</v>
+        <v>5.635596752166748</v>
       </c>
       <c r="J2">
-        <v>85.414794921875</v>
+        <v>85.19917297363281</v>
       </c>
       <c r="K2">
-        <v>1.791944026947021</v>
+        <v>1.788942456245422</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -488,31 +488,31 @@
         <v>55.98317128433447</v>
       </c>
       <c r="C3">
-        <v>77.48127815197365</v>
+        <v>74.37031953799341</v>
       </c>
       <c r="D3">
-        <v>949.1590881620284</v>
+        <v>988.8630273100484</v>
       </c>
       <c r="E3">
-        <v>4.314359491645583</v>
+        <v>4.494831942318402</v>
       </c>
       <c r="F3">
-        <v>77.60250366636302</v>
+        <v>78.56137803587114</v>
       </c>
       <c r="G3">
         <v>1.669897204244678</v>
       </c>
       <c r="H3">
-        <v>946.27783203125</v>
+        <v>992.1119384765625</v>
       </c>
       <c r="I3">
-        <v>4.328643321990967</v>
+        <v>4.505746841430664</v>
       </c>
       <c r="J3">
-        <v>77.4644775390625</v>
+        <v>78.71701812744141</v>
       </c>
       <c r="K3">
-        <v>1.68179726600647</v>
+        <v>1.68319034576416</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -523,31 +523,31 @@
         <v>49.22958724505864</v>
       </c>
       <c r="C4">
-        <v>87.9052478370906</v>
+        <v>76.97631195927265</v>
       </c>
       <c r="D4">
-        <v>675.5591405757115</v>
+        <v>771.4736153160977</v>
       </c>
       <c r="E4">
-        <v>3.070723366253234</v>
+        <v>3.506698251436808</v>
       </c>
       <c r="F4">
-        <v>66.07334589368702</v>
+        <v>68.71086292569032</v>
       </c>
       <c r="G4">
         <v>1.500636586178777</v>
       </c>
       <c r="H4">
-        <v>673.573486328125</v>
+        <v>764.4022827148438</v>
       </c>
       <c r="I4">
-        <v>3.066728830337524</v>
+        <v>3.47745943069458</v>
       </c>
       <c r="J4">
-        <v>66.10336303710938</v>
+        <v>68.67011260986328</v>
       </c>
       <c r="K4">
-        <v>1.495421051979065</v>
+        <v>1.499380230903625</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -558,31 +558,31 @@
         <v>55.61058352572911</v>
       </c>
       <c r="C5">
-        <v>62.40901886517079</v>
+        <v>70.60225471629269</v>
       </c>
       <c r="D5">
-        <v>1261.216137579417</v>
+        <v>1114.854788130268</v>
       </c>
       <c r="E5">
-        <v>5.732800625360987</v>
+        <v>5.06752176422849</v>
       </c>
       <c r="F5">
-        <v>84.83264343183959</v>
+        <v>81.08178726100766</v>
       </c>
       <c r="G5">
         <v>1.664913505990873</v>
       </c>
       <c r="H5">
-        <v>1266.1298828125</v>
+        <v>1125.43896484375</v>
       </c>
       <c r="I5">
-        <v>5.748610019683838</v>
+        <v>5.109954833984375</v>
       </c>
       <c r="J5">
-        <v>84.89519500732422</v>
+        <v>81.57695770263672</v>
       </c>
       <c r="K5">
-        <v>1.667551159858704</v>
+        <v>1.665845632553101</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -593,31 +593,31 @@
         <v>42.36548851737867</v>
       </c>
       <c r="C6">
-        <v>86.67066861782671</v>
+        <v>76.66766715445668</v>
       </c>
       <c r="D6">
-        <v>572.2792494748034</v>
+        <v>646.9457990441285</v>
       </c>
       <c r="E6">
-        <v>2.601269315794561</v>
+        <v>2.940662722927857</v>
       </c>
       <c r="F6">
-        <v>57.77442934413847</v>
+        <v>60.13672140728255</v>
       </c>
       <c r="G6">
         <v>1.373805881146692</v>
       </c>
       <c r="H6">
-        <v>577.9501953125</v>
+        <v>651.80517578125</v>
       </c>
       <c r="I6">
-        <v>2.625413417816162</v>
+        <v>2.934240102767944</v>
       </c>
       <c r="J6">
-        <v>57.56805038452148</v>
+        <v>60.01237869262695</v>
       </c>
       <c r="K6">
-        <v>1.374245285987854</v>
+        <v>1.374593377113342</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -628,31 +628,31 @@
         <v>52.79842042655048</v>
       </c>
       <c r="C7">
-        <v>86.82551478472638</v>
+        <v>76.70637869618159</v>
       </c>
       <c r="D7">
-        <v>771.6680454887146</v>
+        <v>873.4668019964361</v>
       </c>
       <c r="E7">
-        <v>3.507582024948703</v>
+        <v>3.970303645438346</v>
       </c>
       <c r="F7">
-        <v>71.12822505960241</v>
+        <v>73.72910902681343</v>
       </c>
       <c r="G7">
         <v>1.583684852116902</v>
       </c>
       <c r="H7">
-        <v>750.176513671875</v>
+        <v>866.3646850585938</v>
       </c>
       <c r="I7">
-        <v>3.437591314315796</v>
+        <v>3.944497108459473</v>
       </c>
       <c r="J7">
-        <v>70.82122039794922</v>
+        <v>73.86900329589844</v>
       </c>
       <c r="K7">
-        <v>1.577032923698425</v>
+        <v>1.587759256362915</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -663,31 +663,31 @@
         <v>42.86706574818093</v>
       </c>
       <c r="C8">
-        <v>68.41530244295363</v>
+        <v>72.10382561073841</v>
       </c>
       <c r="D8">
-        <v>734.2747072797196</v>
+        <v>696.7123554020089</v>
       </c>
       <c r="E8">
-        <v>3.337612305816907</v>
+        <v>3.166874342736404</v>
       </c>
       <c r="F8">
-        <v>63.30405172337748</v>
+        <v>62.08913102686216</v>
       </c>
       <c r="G8">
         <v>1.382008033641204</v>
       </c>
       <c r="H8">
-        <v>725.6380004882812</v>
+        <v>688.378173828125</v>
       </c>
       <c r="I8">
-        <v>3.324152946472168</v>
+        <v>3.167228937149048</v>
       </c>
       <c r="J8">
-        <v>63.36371612548828</v>
+        <v>61.79904556274414</v>
       </c>
       <c r="K8">
-        <v>1.380721569061279</v>
+        <v>1.382059335708618</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -698,31 +698,31 @@
         <v>58.89337834099167</v>
       </c>
       <c r="C9">
-        <v>65.15705190619413</v>
+        <v>71.28926297654853</v>
       </c>
       <c r="D9">
-        <v>1167.586554867473</v>
+        <v>1067.152255249161</v>
       </c>
       <c r="E9">
-        <v>5.307211613033966</v>
+        <v>4.85069206931437</v>
       </c>
       <c r="F9">
-        <v>84.52360786461645</v>
+        <v>82.22717515299939</v>
       </c>
       <c r="G9">
         <v>1.759860475601445</v>
       </c>
       <c r="H9">
-        <v>1159.532836914062</v>
+        <v>1058.179565429688</v>
       </c>
       <c r="I9">
-        <v>5.301797866821289</v>
+        <v>4.817302703857422</v>
       </c>
       <c r="J9">
-        <v>84.26711273193359</v>
+        <v>82.14366149902344</v>
       </c>
       <c r="K9">
-        <v>1.75398063659668</v>
+        <v>1.754339933395386</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -733,31 +733,31 @@
         <v>50.43696643500144</v>
       </c>
       <c r="C10">
-        <v>72.61713403696736</v>
+        <v>73.15428350924184</v>
       </c>
       <c r="D10">
-        <v>699.9901949813142</v>
+        <v>694.8503816198174</v>
       </c>
       <c r="E10">
-        <v>3.181773613551428</v>
+        <v>3.158410825544625</v>
       </c>
       <c r="F10">
-        <v>68.27335346319461</v>
+        <v>68.13607828849729</v>
       </c>
       <c r="G10">
         <v>1.518175888241615</v>
       </c>
       <c r="H10">
-        <v>704.9616088867188</v>
+        <v>693.889404296875</v>
       </c>
       <c r="I10">
-        <v>3.229513883590698</v>
+        <v>3.18535590171814</v>
       </c>
       <c r="J10">
-        <v>68.88298034667969</v>
+        <v>68.23262023925781</v>
       </c>
       <c r="K10">
-        <v>1.528013467788696</v>
+        <v>1.519511699676514</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -768,31 +768,31 @@
         <v>48.29323879981047</v>
       </c>
       <c r="C11">
-        <v>74.5484308377049</v>
+        <v>73.63710770942623</v>
       </c>
       <c r="D11">
-        <v>862.9590692102645</v>
+        <v>873.6389367796488</v>
       </c>
       <c r="E11">
-        <v>3.92254122368302</v>
+        <v>3.971086076271131</v>
       </c>
       <c r="F11">
-        <v>70.1846118282196</v>
+        <v>70.49642622494423</v>
       </c>
       <c r="G11">
         <v>1.487553689553005</v>
       </c>
       <c r="H11">
-        <v>854.3070678710938</v>
+        <v>869.1063232421875</v>
       </c>
       <c r="I11">
-        <v>3.908363580703735</v>
+        <v>3.973286867141724</v>
       </c>
       <c r="J11">
-        <v>70.36180114746094</v>
+        <v>70.48052215576172</v>
       </c>
       <c r="K11">
-        <v>1.483078002929688</v>
+        <v>1.480084538459778</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,31 +803,31 @@
         <v>45.29111224209254</v>
       </c>
       <c r="C12">
-        <v>82.80787081671519</v>
+        <v>75.7019677041788</v>
       </c>
       <c r="D12">
-        <v>536.0603423418281</v>
+        <v>586.378622971459</v>
       </c>
       <c r="E12">
-        <v>2.436637919735583</v>
+        <v>2.665357377142995</v>
       </c>
       <c r="F12">
-        <v>59.82805635610276</v>
+        <v>61.31824057272701</v>
       </c>
       <c r="G12">
         <v>1.402097006438867</v>
       </c>
       <c r="H12">
-        <v>546.8164672851562</v>
+        <v>595.6650390625</v>
       </c>
       <c r="I12">
-        <v>2.493006229400635</v>
+        <v>2.713990688323975</v>
       </c>
       <c r="J12">
-        <v>59.63228225708008</v>
+        <v>60.98848724365234</v>
       </c>
       <c r="K12">
-        <v>1.416534662246704</v>
+        <v>1.417394518852234</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,31 +838,31 @@
         <v>55.48467378868433</v>
       </c>
       <c r="C13">
-        <v>77.54406053849281</v>
+        <v>74.38601513462321</v>
       </c>
       <c r="D13">
-        <v>1017.790594159529</v>
+        <v>1061.000717758301</v>
       </c>
       <c r="E13">
-        <v>4.626320882543312</v>
+        <v>4.822730535265004</v>
       </c>
       <c r="F13">
-        <v>78.56045513020365</v>
+        <v>79.63216536771534</v>
       </c>
       <c r="G13">
         <v>1.661794846696122</v>
       </c>
       <c r="H13">
-        <v>1027.9833984375</v>
+        <v>1073.171997070312</v>
       </c>
       <c r="I13">
-        <v>4.691800594329834</v>
+        <v>4.889372825622559</v>
       </c>
       <c r="J13">
-        <v>78.81452178955078</v>
+        <v>79.67371368408203</v>
       </c>
       <c r="K13">
-        <v>1.678321838378906</v>
+        <v>1.679620742797852</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,31 +873,31 @@
         <v>49.12300664433097</v>
       </c>
       <c r="C14">
-        <v>99.53495352236905</v>
+        <v>79.88373838059226</v>
       </c>
       <c r="D14">
-        <v>605.3956918090914</v>
+        <v>754.3216337694588</v>
       </c>
       <c r="E14">
-        <v>2.751798599132234</v>
+        <v>3.428734698952085</v>
       </c>
       <c r="F14">
-        <v>64.04171192247691</v>
+        <v>68.08098153604777</v>
       </c>
       <c r="G14">
         <v>1.499368893442079</v>
       </c>
       <c r="H14">
-        <v>606.5286254882812</v>
+        <v>761.4441528320312</v>
       </c>
       <c r="I14">
-        <v>2.75685453414917</v>
+        <v>3.459273338317871</v>
       </c>
       <c r="J14">
-        <v>64.23689270019531</v>
+        <v>68.35984802246094</v>
       </c>
       <c r="K14">
-        <v>1.499258995056152</v>
+        <v>1.49817955493927</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -908,31 +908,31 @@
         <v>51.36867897737297</v>
       </c>
       <c r="C15">
-        <v>64.08179242992112</v>
+        <v>71.02044810748028</v>
       </c>
       <c r="D15">
-        <v>845.4317145048925</v>
+        <v>762.83353718897</v>
       </c>
       <c r="E15">
-        <v>3.842871429567693</v>
+        <v>3.467425169040773</v>
       </c>
       <c r="F15">
-        <v>72.7252457860406</v>
+        <v>70.50733587998843</v>
       </c>
       <c r="G15">
         <v>1.540665429052289</v>
       </c>
       <c r="H15">
-        <v>851.9649047851562</v>
+        <v>761.993408203125</v>
       </c>
       <c r="I15">
-        <v>3.859891176223755</v>
+        <v>3.493764162063599</v>
       </c>
       <c r="J15">
-        <v>72.9228515625</v>
+        <v>70.30823516845703</v>
       </c>
       <c r="K15">
-        <v>1.538653254508972</v>
+        <v>1.538625955581665</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -943,31 +943,31 @@
         <v>40.3757960087271</v>
       </c>
       <c r="C16">
-        <v>68.35507024379339</v>
+        <v>72.08876756094834</v>
       </c>
       <c r="D16">
-        <v>821.2757941112812</v>
+        <v>778.7394138558542</v>
       </c>
       <c r="E16">
-        <v>3.733071791414915</v>
+        <v>3.539724608435701</v>
       </c>
       <c r="F16">
-        <v>63.68432101738085</v>
+        <v>62.21389784608476</v>
       </c>
       <c r="G16">
         <v>1.351795611939785</v>
       </c>
       <c r="H16">
-        <v>829.2858276367188</v>
+        <v>780.98876953125</v>
       </c>
       <c r="I16">
-        <v>3.770537614822388</v>
+        <v>3.568229913711548</v>
       </c>
       <c r="J16">
-        <v>63.72352981567383</v>
+        <v>62.52786636352539</v>
       </c>
       <c r="K16">
-        <v>1.350127100944519</v>
+        <v>1.350973844528198</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -978,31 +978,31 @@
         <v>52.35270994151755</v>
       </c>
       <c r="C17">
-        <v>66.45238071539985</v>
+        <v>71.61309517884996</v>
       </c>
       <c r="D17">
-        <v>1297.293853673898</v>
+        <v>1203.805880038916</v>
       </c>
       <c r="E17">
-        <v>5.896790243972263</v>
+        <v>5.471844909267798</v>
       </c>
       <c r="F17">
-        <v>83.32339187395064</v>
+        <v>80.70368729673908</v>
       </c>
       <c r="G17">
         <v>1.594316126854875</v>
       </c>
       <c r="H17">
-        <v>1298.965087890625</v>
+        <v>1206.07568359375</v>
       </c>
       <c r="I17">
-        <v>5.856714725494385</v>
+        <v>5.424913883209229</v>
       </c>
       <c r="J17">
-        <v>83.25910186767578</v>
+        <v>80.37042236328125</v>
       </c>
       <c r="K17">
-        <v>1.59597647190094</v>
+        <v>1.599689602851868</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1013,31 +1013,31 @@
         <v>52.24191445444843</v>
       </c>
       <c r="C18">
-        <v>86.12433301861594</v>
+        <v>76.53108325465398</v>
       </c>
       <c r="D18">
-        <v>1027.447968291439</v>
+        <v>1156.239624702439</v>
       </c>
       <c r="E18">
-        <v>4.67021803768836</v>
+        <v>5.255634657738361</v>
       </c>
       <c r="F18">
-        <v>75.61495431054715</v>
+        <v>79.09574193596575</v>
       </c>
       <c r="G18">
         <v>1.594604946411092</v>
       </c>
       <c r="H18">
-        <v>1022.419799804688</v>
+        <v>1153.549438476562</v>
       </c>
       <c r="I18">
-        <v>4.659600734710693</v>
+        <v>5.216254234313965</v>
       </c>
       <c r="J18">
-        <v>75.80855560302734</v>
+        <v>79.07367706298828</v>
       </c>
       <c r="K18">
-        <v>1.59025514125824</v>
+        <v>1.590606927871704</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1048,31 +1048,31 @@
         <v>52.33867993749514</v>
       </c>
       <c r="C19">
-        <v>70.13166410159128</v>
+        <v>72.53291602539782</v>
       </c>
       <c r="D19">
-        <v>848.7983770637868</v>
+        <v>820.6983247353432</v>
       </c>
       <c r="E19">
-        <v>3.858174441199031</v>
+        <v>3.730446930615197</v>
       </c>
       <c r="F19">
-        <v>73.21319690230882</v>
+        <v>72.47612966210261</v>
       </c>
       <c r="G19">
         <v>1.566556435647153</v>
       </c>
       <c r="H19">
-        <v>849.1509399414062</v>
+        <v>812.7859497070312</v>
       </c>
       <c r="I19">
-        <v>3.851142406463623</v>
+        <v>3.738849401473999</v>
       </c>
       <c r="J19">
-        <v>73.32521057128906</v>
+        <v>72.17695617675781</v>
       </c>
       <c r="K19">
-        <v>1.560823321342468</v>
+        <v>1.563672423362732</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1083,31 +1083,31 @@
         <v>58.87496157029248</v>
       </c>
       <c r="C20">
-        <v>78.65243091425225</v>
+        <v>74.66310772856306</v>
       </c>
       <c r="D20">
-        <v>1021.31610887718</v>
+        <v>1075.886031788424</v>
       </c>
       <c r="E20">
-        <v>4.642345949441727</v>
+        <v>4.890391053583744</v>
       </c>
       <c r="F20">
-        <v>80.97036257946883</v>
+        <v>82.1908247904172</v>
       </c>
       <c r="G20">
-        <v>1.763018174640508</v>
+        <v>1.763018174640507</v>
       </c>
       <c r="H20">
-        <v>1019.383666992188</v>
+        <v>1067.152587890625</v>
       </c>
       <c r="I20">
-        <v>4.64496374130249</v>
+        <v>4.852007865905762</v>
       </c>
       <c r="J20">
-        <v>80.55011749267578</v>
+        <v>81.87551116943359</v>
       </c>
       <c r="K20">
-        <v>1.757610082626343</v>
+        <v>1.754760146141052</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1118,31 +1118,31 @@
         <v>53.63640598206967</v>
       </c>
       <c r="C21">
-        <v>69.7770236800641</v>
+        <v>72.44425592001603</v>
       </c>
       <c r="D21">
-        <v>882.9171684062327</v>
+        <v>850.4101724149949</v>
       </c>
       <c r="E21">
-        <v>4.013259856391967</v>
+        <v>3.865500783704523</v>
       </c>
       <c r="F21">
-        <v>74.93501491514706</v>
+        <v>74.10697704193217</v>
       </c>
       <c r="G21">
         <v>1.598879051570128</v>
       </c>
       <c r="H21">
-        <v>885.8912963867188</v>
+        <v>849.7111206054688</v>
       </c>
       <c r="I21">
-        <v>4.030361175537109</v>
+        <v>3.885058641433716</v>
       </c>
       <c r="J21">
-        <v>75.13983154296875</v>
+        <v>74.06430053710938</v>
       </c>
       <c r="K21">
-        <v>1.596817135810852</v>
+        <v>1.597595453262329</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Evaporator Temperature</t>
   </si>
@@ -25,28 +25,19 @@
     <t>Adiabatic Efficiency</t>
   </si>
   <si>
-    <t>Compressor Energy</t>
+    <t>Capacity</t>
   </si>
   <si>
-    <t>Electric Current</t>
+    <t>MLP_Evaporator_Temperature</t>
   </si>
   <si>
-    <t>Discharge Temperature</t>
+    <t>MLP_Condenser_Temperature</t>
   </si>
   <si>
-    <t>Refrigerant Mass Flow</t>
+    <t>MLP_Adiabatic_Efficiency</t>
   </si>
   <si>
-    <t>MLP_Compressor_Energy</t>
-  </si>
-  <si>
-    <t>MLP_Electric_Current</t>
-  </si>
-  <si>
-    <t>MLP_Discharge_Temperature</t>
-  </si>
-  <si>
-    <t>MLP_Refrigerant_Mass_Flow</t>
+    <t>MLP_Capacity</t>
   </si>
 </sst>
 </file>
@@ -404,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,714 +426,525 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>13.23220255890987</v>
+        <v>9.769747690909639</v>
       </c>
       <c r="B2">
-        <v>59.57236684465528</v>
+        <v>53.5563307359246</v>
       </c>
       <c r="C2">
-        <v>73.59507900573786</v>
+        <v>77.2525427981964</v>
       </c>
       <c r="D2">
-        <v>1249.337008298771</v>
+        <v>17068.91936265957</v>
       </c>
       <c r="E2">
-        <v>5.678804583176232</v>
+        <v>11.36803340911865</v>
       </c>
       <c r="F2">
-        <v>85.85065616927892</v>
+        <v>53.52345275878906</v>
       </c>
       <c r="G2">
-        <v>1.798179532885998</v>
+        <v>73.82923889160156</v>
       </c>
       <c r="H2">
-        <v>1234.097412109375</v>
-      </c>
-      <c r="I2">
-        <v>5.635596752166748</v>
-      </c>
-      <c r="J2">
-        <v>85.19917297363281</v>
-      </c>
-      <c r="K2">
-        <v>1.788942456245422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>17059.4765625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>15.72784049558629</v>
+        <v>11.21394491772005</v>
       </c>
       <c r="B3">
-        <v>55.98317128433447</v>
+        <v>45.40015946384329</v>
       </c>
       <c r="C3">
-        <v>74.37031953799341</v>
+        <v>75.01324381926702</v>
       </c>
       <c r="D3">
-        <v>988.8630273100484</v>
+        <v>12308.05683043107</v>
       </c>
       <c r="E3">
-        <v>4.494831942318402</v>
+        <v>10.82674503326416</v>
       </c>
       <c r="F3">
-        <v>78.56137803587114</v>
+        <v>45.55250549316406</v>
       </c>
       <c r="G3">
-        <v>1.669897204244678</v>
+        <v>75.72404479980469</v>
       </c>
       <c r="H3">
-        <v>992.1119384765625</v>
-      </c>
-      <c r="I3">
-        <v>4.505746841430664</v>
-      </c>
-      <c r="J3">
-        <v>78.71701812744141</v>
-      </c>
-      <c r="K3">
-        <v>1.68319034576416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>12286.9599609375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>14.04145064107466</v>
+        <v>5.962212445231765</v>
       </c>
       <c r="B4">
-        <v>49.22958724505864</v>
+        <v>54.7038804424519</v>
       </c>
       <c r="C4">
-        <v>76.97631195927265</v>
+        <v>79.56083634723224</v>
       </c>
       <c r="D4">
-        <v>771.4736153160977</v>
+        <v>12922.78432739064</v>
       </c>
       <c r="E4">
-        <v>3.506698251436808</v>
+        <v>8.110817909240723</v>
       </c>
       <c r="F4">
-        <v>68.71086292569032</v>
+        <v>54.33774566650391</v>
       </c>
       <c r="G4">
-        <v>1.500636586178777</v>
+        <v>74.43051910400391</v>
       </c>
       <c r="H4">
-        <v>764.4022827148438</v>
-      </c>
-      <c r="I4">
-        <v>3.47745943069458</v>
-      </c>
-      <c r="J4">
-        <v>68.67011260986328</v>
-      </c>
-      <c r="K4">
-        <v>1.499380230903625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>13065.5234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>13.17324774495345</v>
+        <v>15.3870817905503</v>
       </c>
       <c r="B5">
-        <v>55.61058352572911</v>
+        <v>59.24377090234876</v>
       </c>
       <c r="C5">
-        <v>70.60225471629269</v>
+        <v>76.43990199229637</v>
       </c>
       <c r="D5">
-        <v>1114.854788130268</v>
+        <v>17027.31019514105</v>
       </c>
       <c r="E5">
-        <v>5.06752176422849</v>
+        <v>16.2442569732666</v>
       </c>
       <c r="F5">
-        <v>81.08178726100766</v>
+        <v>59.2720947265625</v>
       </c>
       <c r="G5">
-        <v>1.664913505990873</v>
+        <v>74.39182281494141</v>
       </c>
       <c r="H5">
-        <v>1125.43896484375</v>
-      </c>
-      <c r="I5">
-        <v>5.109954833984375</v>
-      </c>
-      <c r="J5">
-        <v>81.57695770263672</v>
-      </c>
-      <c r="K5">
-        <v>1.665845632553101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>17156.111328125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>11.35482199008357</v>
+        <v>13.49902181309863</v>
       </c>
       <c r="B6">
-        <v>42.36548851737867</v>
+        <v>44.97506287039916</v>
       </c>
       <c r="C6">
-        <v>76.66766715445668</v>
+        <v>74.2385504855818</v>
       </c>
       <c r="D6">
-        <v>646.9457990441285</v>
+        <v>16255.74590141477</v>
       </c>
       <c r="E6">
-        <v>2.940662722927857</v>
+        <v>14.11790370941162</v>
       </c>
       <c r="F6">
-        <v>60.13672140728255</v>
+        <v>44.639404296875</v>
       </c>
       <c r="G6">
-        <v>1.373805881146692</v>
+        <v>73.88201904296875</v>
       </c>
       <c r="H6">
-        <v>651.80517578125</v>
-      </c>
-      <c r="I6">
-        <v>2.934240102767944</v>
-      </c>
-      <c r="J6">
-        <v>60.01237869262695</v>
-      </c>
-      <c r="K6">
-        <v>1.374593377113342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>16380.794921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>14.68841169599984</v>
+        <v>8.980842364091682</v>
       </c>
       <c r="B7">
-        <v>52.79842042655048</v>
+        <v>51.52314668835674</v>
       </c>
       <c r="C7">
-        <v>76.70637869618159</v>
+        <v>76.06393214127924</v>
       </c>
       <c r="D7">
-        <v>873.4668019964361</v>
+        <v>15334.9972518633</v>
       </c>
       <c r="E7">
-        <v>3.970303645438346</v>
+        <v>10.04203701019287</v>
       </c>
       <c r="F7">
-        <v>73.72910902681343</v>
+        <v>51.44164657592773</v>
       </c>
       <c r="G7">
-        <v>1.583684852116902</v>
+        <v>73.31845855712891</v>
       </c>
       <c r="H7">
-        <v>866.3646850585938</v>
-      </c>
-      <c r="I7">
-        <v>3.944497108459473</v>
-      </c>
-      <c r="J7">
-        <v>73.86900329589844</v>
-      </c>
-      <c r="K7">
-        <v>1.587759256362915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>15498.83984375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>11.56380816894039</v>
+        <v>12.84872080200049</v>
       </c>
       <c r="B8">
-        <v>42.86706574818093</v>
+        <v>51.84083862543678</v>
       </c>
       <c r="C8">
-        <v>72.10382561073841</v>
+        <v>70.19193198309334</v>
       </c>
       <c r="D8">
-        <v>696.7123554020089</v>
+        <v>9902.041985810711</v>
       </c>
       <c r="E8">
-        <v>3.166874342736404</v>
+        <v>11.67260074615479</v>
       </c>
       <c r="F8">
-        <v>62.08913102686216</v>
+        <v>52.06013107299805</v>
       </c>
       <c r="G8">
-        <v>1.382008033641204</v>
+        <v>73.05606842041016</v>
       </c>
       <c r="H8">
-        <v>688.378173828125</v>
-      </c>
-      <c r="I8">
-        <v>3.167228937149048</v>
-      </c>
-      <c r="J8">
-        <v>61.79904556274414</v>
-      </c>
-      <c r="K8">
-        <v>1.382059335708618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>9873.669921875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>18.3765950117312</v>
+        <v>6.409107661376625</v>
       </c>
       <c r="B9">
-        <v>58.89337834099167</v>
+        <v>51.44503811581747</v>
       </c>
       <c r="C9">
-        <v>71.28926297654853</v>
+        <v>73.0157481667455</v>
       </c>
       <c r="D9">
-        <v>1067.152255249161</v>
+        <v>17275.34352370206</v>
       </c>
       <c r="E9">
-        <v>4.85069206931437</v>
+        <v>6.381882190704346</v>
       </c>
       <c r="F9">
-        <v>82.22717515299939</v>
+        <v>51.71659469604492</v>
       </c>
       <c r="G9">
-        <v>1.759860475601445</v>
+        <v>73.95810699462891</v>
       </c>
       <c r="H9">
-        <v>1058.179565429688</v>
-      </c>
-      <c r="I9">
-        <v>4.817302703857422</v>
-      </c>
-      <c r="J9">
-        <v>82.14366149902344</v>
-      </c>
-      <c r="K9">
-        <v>1.754339933395386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>17209.10546875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>19.45494140751544</v>
+        <v>13.63919743334269</v>
       </c>
       <c r="B10">
-        <v>50.43696643500144</v>
+        <v>44.46163265281237</v>
       </c>
       <c r="C10">
-        <v>73.15428350924184</v>
+        <v>76.60173537492685</v>
       </c>
       <c r="D10">
-        <v>694.8503816198174</v>
+        <v>15428.171695942</v>
       </c>
       <c r="E10">
-        <v>3.158410825544625</v>
+        <v>14.03224277496338</v>
       </c>
       <c r="F10">
-        <v>68.13607828849729</v>
+        <v>44.50760650634766</v>
       </c>
       <c r="G10">
-        <v>1.518175888241615</v>
+        <v>75.40721893310547</v>
       </c>
       <c r="H10">
-        <v>693.889404296875</v>
-      </c>
-      <c r="I10">
-        <v>3.18535590171814</v>
-      </c>
-      <c r="J10">
-        <v>68.23262023925781</v>
-      </c>
-      <c r="K10">
-        <v>1.519511699676514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>15559.2353515625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>10.75162278238667</v>
+        <v>18.93944296364321</v>
       </c>
       <c r="B11">
-        <v>48.29323879981047</v>
+        <v>59.0549802303397</v>
       </c>
       <c r="C11">
-        <v>73.63710770942623</v>
+        <v>72.90077607210443</v>
       </c>
       <c r="D11">
-        <v>873.6389367796488</v>
+        <v>17989.6230591108</v>
       </c>
       <c r="E11">
-        <v>3.971086076271131</v>
+        <v>18.44441795349121</v>
       </c>
       <c r="F11">
-        <v>70.49642622494423</v>
+        <v>59.232666015625</v>
       </c>
       <c r="G11">
-        <v>1.487553689553005</v>
+        <v>74.50955200195312</v>
       </c>
       <c r="H11">
-        <v>869.1063232421875</v>
-      </c>
-      <c r="I11">
-        <v>3.973286867141724</v>
-      </c>
-      <c r="J11">
-        <v>70.48052215576172</v>
-      </c>
-      <c r="K11">
-        <v>1.480084538459778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>18231.326171875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>16.87587557123997</v>
+        <v>9.778534286769855</v>
       </c>
       <c r="B12">
-        <v>45.29111224209254</v>
+        <v>48.94250757235255</v>
       </c>
       <c r="C12">
-        <v>75.7019677041788</v>
+        <v>76.18015428998842</v>
       </c>
       <c r="D12">
-        <v>586.378622971459</v>
+        <v>10345.03474192194</v>
       </c>
       <c r="E12">
-        <v>2.665357377142995</v>
+        <v>9.245664596557617</v>
       </c>
       <c r="F12">
-        <v>61.31824057272701</v>
+        <v>49.00716400146484</v>
       </c>
       <c r="G12">
-        <v>1.402097006438867</v>
+        <v>76.93527221679688</v>
       </c>
       <c r="H12">
-        <v>595.6650390625</v>
-      </c>
-      <c r="I12">
-        <v>2.713990688323975</v>
-      </c>
-      <c r="J12">
-        <v>60.98848724365234</v>
-      </c>
-      <c r="K12">
-        <v>1.417394518852234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>10374.6982421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>12.93342379629357</v>
+        <v>15.01115569945522</v>
       </c>
       <c r="B13">
-        <v>55.48467378868433</v>
+        <v>56.92817344942256</v>
       </c>
       <c r="C13">
-        <v>74.38601513462321</v>
+        <v>74.28768700945766</v>
       </c>
       <c r="D13">
-        <v>1061.000717758301</v>
+        <v>16813.13451631393</v>
       </c>
       <c r="E13">
-        <v>4.822730535265004</v>
+        <v>15.26583290100098</v>
       </c>
       <c r="F13">
-        <v>79.63216536771534</v>
+        <v>56.989013671875</v>
       </c>
       <c r="G13">
-        <v>1.661794846696122</v>
+        <v>73.47863006591797</v>
       </c>
       <c r="H13">
-        <v>1073.171997070312</v>
-      </c>
-      <c r="I13">
-        <v>4.889372825622559</v>
-      </c>
-      <c r="J13">
-        <v>79.67371368408203</v>
-      </c>
-      <c r="K13">
-        <v>1.679620742797852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>16815.8515625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>13.52066841640898</v>
+        <v>6.976967936065883</v>
       </c>
       <c r="B14">
-        <v>49.12300664433097</v>
+        <v>53.98958550635008</v>
       </c>
       <c r="C14">
-        <v>79.88373838059226</v>
+        <v>71.3547406422245</v>
       </c>
       <c r="D14">
-        <v>754.3216337694588</v>
+        <v>10462.43641208737</v>
       </c>
       <c r="E14">
-        <v>3.428734698952085</v>
+        <v>6.130191802978516</v>
       </c>
       <c r="F14">
-        <v>68.08098153604777</v>
+        <v>54.13391494750977</v>
       </c>
       <c r="G14">
-        <v>1.499368893442079</v>
+        <v>72.70954132080078</v>
       </c>
       <c r="H14">
-        <v>761.4441528320312</v>
-      </c>
-      <c r="I14">
-        <v>3.459273338317871</v>
-      </c>
-      <c r="J14">
-        <v>68.35984802246094</v>
-      </c>
-      <c r="K14">
-        <v>1.49817955493927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>10460.9677734375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>18.88394957438992</v>
+        <v>15.74490806177848</v>
       </c>
       <c r="B15">
-        <v>51.36867897737297</v>
+        <v>45.94873901710267</v>
       </c>
       <c r="C15">
-        <v>71.02044810748028</v>
+        <v>72.98282325956031</v>
       </c>
       <c r="D15">
-        <v>762.83353718897</v>
+        <v>14540.0360785546</v>
       </c>
       <c r="E15">
-        <v>3.467425169040773</v>
+        <v>15.00098705291748</v>
       </c>
       <c r="F15">
-        <v>70.50733587998843</v>
+        <v>46.37162780761719</v>
       </c>
       <c r="G15">
-        <v>1.540665429052289</v>
+        <v>75.80641937255859</v>
       </c>
       <c r="H15">
-        <v>761.993408203125</v>
-      </c>
-      <c r="I15">
-        <v>3.493764162063599</v>
-      </c>
-      <c r="J15">
-        <v>70.30823516845703</v>
-      </c>
-      <c r="K15">
-        <v>1.538625955581665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>14546.1171875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>6.065540872968304</v>
+        <v>9.341091394208016</v>
       </c>
       <c r="B16">
-        <v>40.3757960087271</v>
+        <v>56.27595639404954</v>
       </c>
       <c r="C16">
-        <v>72.08876756094834</v>
+        <v>75.69964910701265</v>
       </c>
       <c r="D16">
-        <v>778.7394138558542</v>
+        <v>10114.37984564497</v>
       </c>
       <c r="E16">
-        <v>3.539724608435701</v>
+        <v>9.405610084533691</v>
       </c>
       <c r="F16">
-        <v>62.21389784608476</v>
+        <v>56.33484268188477</v>
       </c>
       <c r="G16">
-        <v>1.351795611939785</v>
+        <v>75.05043029785156</v>
       </c>
       <c r="H16">
-        <v>780.98876953125</v>
-      </c>
-      <c r="I16">
-        <v>3.568229913711548</v>
-      </c>
-      <c r="J16">
-        <v>62.52786636352539</v>
-      </c>
-      <c r="K16">
-        <v>1.350973844528198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>10112.4921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>6.30693949552311</v>
+        <v>7.747870430106753</v>
       </c>
       <c r="B17">
-        <v>52.35270994151755</v>
+        <v>47.93011481693969</v>
       </c>
       <c r="C17">
-        <v>71.61309517884996</v>
+        <v>75.90872761248173</v>
       </c>
       <c r="D17">
-        <v>1203.805880038916</v>
+        <v>16632.07406390011</v>
       </c>
       <c r="E17">
-        <v>5.471844909267798</v>
+        <v>8.35527229309082</v>
       </c>
       <c r="F17">
-        <v>80.70368729673908</v>
+        <v>47.74765777587891</v>
       </c>
       <c r="G17">
-        <v>1.594316126854875</v>
+        <v>73.94261932373047</v>
       </c>
       <c r="H17">
-        <v>1206.07568359375</v>
-      </c>
-      <c r="I17">
-        <v>5.424913883209229</v>
-      </c>
-      <c r="J17">
-        <v>80.37042236328125</v>
-      </c>
-      <c r="K17">
-        <v>1.599689602851868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>16714.18359375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>5.303275961604886</v>
+        <v>13.79769402215125</v>
       </c>
       <c r="B18">
-        <v>52.24191445444843</v>
+        <v>57.62206394222324</v>
       </c>
       <c r="C18">
-        <v>76.53108325465398</v>
+        <v>75.74325248849578</v>
       </c>
       <c r="D18">
-        <v>1156.239624702439</v>
+        <v>16265.8706285251</v>
       </c>
       <c r="E18">
-        <v>5.255634657738361</v>
+        <v>14.94988059997559</v>
       </c>
       <c r="F18">
-        <v>79.09574193596575</v>
+        <v>57.55755233764648</v>
       </c>
       <c r="G18">
-        <v>1.594604946411092</v>
+        <v>72.88558959960938</v>
       </c>
       <c r="H18">
-        <v>1153.549438476562</v>
-      </c>
-      <c r="I18">
-        <v>5.216254234313965</v>
-      </c>
-      <c r="J18">
-        <v>79.07367706298828</v>
-      </c>
-      <c r="K18">
-        <v>1.590606927871704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>16327.9208984375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>17.48929768321907</v>
+        <v>5.301613192812403</v>
       </c>
       <c r="B19">
-        <v>52.33867993749514</v>
+        <v>51.62545745271717</v>
       </c>
       <c r="C19">
-        <v>72.53291602539782</v>
+        <v>76.53200819857133</v>
       </c>
       <c r="D19">
-        <v>820.6983247353432</v>
+        <v>14121.90664753134</v>
       </c>
       <c r="E19">
-        <v>3.730446930615197</v>
+        <v>6.827439308166504</v>
       </c>
       <c r="F19">
-        <v>72.47612966210261</v>
+        <v>51.532958984375</v>
       </c>
       <c r="G19">
-        <v>1.566556435647153</v>
+        <v>73.43199157714844</v>
       </c>
       <c r="H19">
-        <v>812.7859497070312</v>
-      </c>
-      <c r="I19">
-        <v>3.738849401473999</v>
-      </c>
-      <c r="J19">
-        <v>72.17695617675781</v>
-      </c>
-      <c r="K19">
-        <v>1.563672423362732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>14207.0517578125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>16.67235126424776</v>
+        <v>17.43410043826044</v>
       </c>
       <c r="B20">
-        <v>58.87496157029248</v>
+        <v>57.63470723709706</v>
       </c>
       <c r="C20">
-        <v>74.66310772856306</v>
+        <v>76.52103270001689</v>
       </c>
       <c r="D20">
-        <v>1075.886031788424</v>
+        <v>12664.649675034</v>
       </c>
       <c r="E20">
-        <v>4.890391053583744</v>
+        <v>17.81032943725586</v>
       </c>
       <c r="F20">
-        <v>82.1908247904172</v>
+        <v>57.88356399536133</v>
       </c>
       <c r="G20">
-        <v>1.763018174640507</v>
+        <v>75.78622436523438</v>
       </c>
       <c r="H20">
-        <v>1067.152587890625</v>
-      </c>
-      <c r="I20">
-        <v>4.852007865905762</v>
-      </c>
-      <c r="J20">
-        <v>81.87551116943359</v>
-      </c>
-      <c r="K20">
-        <v>1.754760146141052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>12649.283203125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>18.05018222370229</v>
+        <v>5.070432142888206</v>
       </c>
       <c r="B21">
-        <v>53.63640598206967</v>
+        <v>53.85063180155532</v>
       </c>
       <c r="C21">
-        <v>72.44425592001603</v>
+        <v>74.31418435433974</v>
       </c>
       <c r="D21">
-        <v>850.4101724149949</v>
+        <v>9622.502959096242</v>
       </c>
       <c r="E21">
-        <v>3.865500783704523</v>
+        <v>6.313008308410645</v>
       </c>
       <c r="F21">
-        <v>74.10697704193217</v>
+        <v>53.48606109619141</v>
       </c>
       <c r="G21">
-        <v>1.598879051570128</v>
+        <v>70.92327880859375</v>
       </c>
       <c r="H21">
-        <v>849.7111206054688</v>
-      </c>
-      <c r="I21">
-        <v>3.885058641433716</v>
-      </c>
-      <c r="J21">
-        <v>74.06430053710938</v>
-      </c>
-      <c r="K21">
-        <v>1.597595453262329</v>
+        <v>9731.3896484375</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Evaporator Temperature</t>
+    <t>Compressor Energy</t>
   </si>
   <si>
-    <t>Condenser Temperature</t>
+    <t>Electric Current</t>
   </si>
   <si>
-    <t>Adiabatic Efficiency</t>
+    <t>Discharge Temperature</t>
   </si>
   <si>
-    <t>Capacity</t>
+    <t>Refrigerant Mass Flow</t>
   </si>
   <si>
-    <t>MLP_Evaporator_Temperature</t>
+    <t>MLP_Compressor_Energy</t>
   </si>
   <si>
-    <t>MLP_Condenser_Temperature</t>
+    <t>MLP_Electric_Current</t>
   </si>
   <si>
-    <t>MLP_Adiabatic_Efficiency</t>
+    <t>MLP_Discharge_Temperature</t>
   </si>
   <si>
-    <t>MLP_Capacity</t>
+    <t>MLP_Refrigerant_Mass_Flow</t>
   </si>
 </sst>
 </file>
@@ -429,522 +429,522 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>9.769747690909639</v>
+        <v>1085.957173853721</v>
       </c>
       <c r="B2">
-        <v>53.5563307359246</v>
+        <v>4.936168972062367</v>
       </c>
       <c r="C2">
-        <v>77.2525427981964</v>
+        <v>85.85065616927892</v>
       </c>
       <c r="D2">
-        <v>17068.91936265957</v>
+        <v>1.563025789393325</v>
       </c>
       <c r="E2">
-        <v>11.36803340911865</v>
+        <v>1077.266235351562</v>
       </c>
       <c r="F2">
-        <v>53.52345275878906</v>
+        <v>4.895987987518311</v>
       </c>
       <c r="G2">
-        <v>73.82923889160156</v>
+        <v>85.94892120361328</v>
       </c>
       <c r="H2">
-        <v>17059.4765625</v>
+        <v>1.559031963348389</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>11.21394491772005</v>
+        <v>823.506298023361</v>
       </c>
       <c r="B3">
-        <v>45.40015946384329</v>
+        <v>3.743210445560732</v>
       </c>
       <c r="C3">
-        <v>75.01324381926702</v>
+        <v>78.56137803587114</v>
       </c>
       <c r="D3">
-        <v>12308.05683043107</v>
+        <v>1.390658591501696</v>
       </c>
       <c r="E3">
-        <v>10.82674503326416</v>
+        <v>820.2244262695312</v>
       </c>
       <c r="F3">
-        <v>45.55250549316406</v>
+        <v>3.736740112304688</v>
       </c>
       <c r="G3">
-        <v>75.72404479980469</v>
+        <v>78.76739501953125</v>
       </c>
       <c r="H3">
-        <v>12286.9599609375</v>
+        <v>1.389791965484619</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>5.962212445231765</v>
+        <v>958.3604731485176</v>
       </c>
       <c r="B4">
-        <v>54.7038804424519</v>
+        <v>4.356183968856898</v>
       </c>
       <c r="C4">
-        <v>79.56083634723224</v>
+        <v>68.71086292569032</v>
       </c>
       <c r="D4">
-        <v>12922.78432739064</v>
+        <v>1.864160692216301</v>
       </c>
       <c r="E4">
-        <v>8.110817909240723</v>
+        <v>946.0777587890625</v>
       </c>
       <c r="F4">
-        <v>54.33774566650391</v>
+        <v>4.294015884399414</v>
       </c>
       <c r="G4">
-        <v>74.43051910400391</v>
+        <v>68.55522918701172</v>
       </c>
       <c r="H4">
-        <v>13065.5234375</v>
+        <v>1.864650249481201</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>15.3870817905503</v>
+        <v>951.6810787539326</v>
       </c>
       <c r="B5">
-        <v>59.24377090234876</v>
+        <v>4.325823085245148</v>
       </c>
       <c r="C5">
-        <v>76.43990199229637</v>
+        <v>81.08178726100766</v>
       </c>
       <c r="D5">
-        <v>17027.31019514105</v>
+        <v>1.421231444922713</v>
       </c>
       <c r="E5">
-        <v>16.2442569732666</v>
+        <v>949.45703125</v>
       </c>
       <c r="F5">
-        <v>59.2720947265625</v>
+        <v>4.311104297637939</v>
       </c>
       <c r="G5">
-        <v>74.39182281494141</v>
+        <v>81.09991455078125</v>
       </c>
       <c r="H5">
-        <v>17156.111328125</v>
+        <v>1.414665460586548</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>13.49902181309863</v>
+        <v>580.5926708483463</v>
       </c>
       <c r="B6">
-        <v>44.97506287039916</v>
+        <v>2.639057594765211</v>
       </c>
       <c r="C6">
-        <v>74.2385504855818</v>
+        <v>60.13672140728255</v>
       </c>
       <c r="D6">
-        <v>16255.74590141477</v>
+        <v>1.23290332349421</v>
       </c>
       <c r="E6">
-        <v>14.11790370941162</v>
+        <v>583.618408203125</v>
       </c>
       <c r="F6">
-        <v>44.639404296875</v>
+        <v>2.653793573379517</v>
       </c>
       <c r="G6">
-        <v>73.88201904296875</v>
+        <v>59.98965454101562</v>
       </c>
       <c r="H6">
-        <v>16380.794921875</v>
+        <v>1.234770178794861</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>8.980842364091682</v>
+        <v>896.6515685371606</v>
       </c>
       <c r="B7">
-        <v>51.52314668835674</v>
+        <v>4.075688947896185</v>
       </c>
       <c r="C7">
-        <v>76.06393214127924</v>
+        <v>73.72910902681343</v>
       </c>
       <c r="D7">
-        <v>15334.9972518633</v>
+        <v>1.625721210552608</v>
       </c>
       <c r="E7">
-        <v>10.04203701019287</v>
+        <v>891.5700073242188</v>
       </c>
       <c r="F7">
-        <v>51.44164657592773</v>
+        <v>4.045180797576904</v>
       </c>
       <c r="G7">
-        <v>73.31845855712891</v>
+        <v>73.79087066650391</v>
       </c>
       <c r="H7">
-        <v>15498.83984375</v>
+        <v>1.620140433311462</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>12.84872080200049</v>
+        <v>951.5309057703157</v>
       </c>
       <c r="B8">
-        <v>51.84083862543678</v>
+        <v>4.325140480774162</v>
       </c>
       <c r="C8">
-        <v>70.19193198309334</v>
+        <v>62.08913102686216</v>
       </c>
       <c r="D8">
-        <v>9902.041985810711</v>
+        <v>1.887469550146972</v>
       </c>
       <c r="E8">
-        <v>11.67260074615479</v>
+        <v>938.2448120117188</v>
       </c>
       <c r="F8">
-        <v>52.06013107299805</v>
+        <v>4.268236637115479</v>
       </c>
       <c r="G8">
-        <v>73.05606842041016</v>
+        <v>61.77587509155273</v>
       </c>
       <c r="H8">
-        <v>9873.669921875</v>
+        <v>1.878389954566956</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>6.409107661376625</v>
+        <v>878.080154739305</v>
       </c>
       <c r="B9">
-        <v>51.44503811581747</v>
+        <v>3.991273430633205</v>
       </c>
       <c r="C9">
-        <v>73.0157481667455</v>
+        <v>82.22717515299939</v>
       </c>
       <c r="D9">
-        <v>17275.34352370206</v>
+        <v>1.448058185825511</v>
       </c>
       <c r="E9">
-        <v>6.381882190704346</v>
+        <v>879.4284057617188</v>
       </c>
       <c r="F9">
-        <v>51.71659469604492</v>
+        <v>4.009664535522461</v>
       </c>
       <c r="G9">
-        <v>73.95810699462891</v>
+        <v>82.20899200439453</v>
       </c>
       <c r="H9">
-        <v>17209.10546875</v>
+        <v>1.451000094413757</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>13.63919743334269</v>
+        <v>957.8220812804771</v>
       </c>
       <c r="B10">
-        <v>44.46163265281237</v>
+        <v>4.353736733093077</v>
       </c>
       <c r="C10">
-        <v>76.60173537492685</v>
+        <v>68.13607828849729</v>
       </c>
       <c r="D10">
-        <v>15428.171695942</v>
+        <v>2.0927417289972</v>
       </c>
       <c r="E10">
-        <v>14.03224277496338</v>
+        <v>946.6256713867188</v>
       </c>
       <c r="F10">
-        <v>44.50760650634766</v>
+        <v>4.298069477081299</v>
       </c>
       <c r="G10">
-        <v>75.40721893310547</v>
+        <v>67.86871337890625</v>
       </c>
       <c r="H10">
-        <v>15559.2353515625</v>
+        <v>2.095720767974854</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>18.93944296364321</v>
+        <v>718.1953415920625</v>
       </c>
       <c r="B11">
-        <v>59.0549802303397</v>
+        <v>3.264524279963921</v>
       </c>
       <c r="C11">
-        <v>72.90077607210443</v>
+        <v>70.49642622494423</v>
       </c>
       <c r="D11">
-        <v>17989.6230591108</v>
+        <v>1.222878337065826</v>
       </c>
       <c r="E11">
-        <v>18.44441795349121</v>
+        <v>713.3759155273438</v>
       </c>
       <c r="F11">
-        <v>59.232666015625</v>
+        <v>3.236940145492554</v>
       </c>
       <c r="G11">
-        <v>74.50955200195312</v>
+        <v>70.43959045410156</v>
       </c>
       <c r="H11">
-        <v>18231.326171875</v>
+        <v>1.211286902427673</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>9.778534286769855</v>
+        <v>878.0247503105653</v>
       </c>
       <c r="B12">
-        <v>48.94250757235255</v>
+        <v>3.991021592320751</v>
       </c>
       <c r="C12">
-        <v>76.18015428998842</v>
+        <v>61.31824057272701</v>
       </c>
       <c r="D12">
-        <v>10345.03474192194</v>
+        <v>2.099455583409967</v>
       </c>
       <c r="E12">
-        <v>9.245664596557617</v>
+        <v>864.8340454101562</v>
       </c>
       <c r="F12">
-        <v>49.00716400146484</v>
+        <v>3.936774253845215</v>
       </c>
       <c r="G12">
-        <v>76.93527221679688</v>
+        <v>61.14065170288086</v>
       </c>
       <c r="H12">
-        <v>10374.6982421875</v>
+        <v>2.100042581558228</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>15.01115569945522</v>
+        <v>1168.679424270233</v>
       </c>
       <c r="B13">
-        <v>56.92817344942256</v>
+        <v>5.312179201228331</v>
       </c>
       <c r="C13">
-        <v>74.28768700945766</v>
+        <v>79.63216536771534</v>
       </c>
       <c r="D13">
-        <v>16813.13451631393</v>
+        <v>1.830446871699931</v>
       </c>
       <c r="E13">
-        <v>15.26583290100098</v>
+        <v>1170.267822265625</v>
       </c>
       <c r="F13">
-        <v>56.989013671875</v>
+        <v>5.326916217803955</v>
       </c>
       <c r="G13">
-        <v>73.47863006591797</v>
+        <v>79.78745269775391</v>
       </c>
       <c r="H13">
-        <v>16815.8515625</v>
+        <v>1.835763812065125</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>6.976967936065883</v>
+        <v>1118.334704294067</v>
       </c>
       <c r="B14">
-        <v>53.98958550635008</v>
+        <v>5.083339564973033</v>
       </c>
       <c r="C14">
-        <v>71.3547406422245</v>
+        <v>68.08098153604777</v>
       </c>
       <c r="D14">
-        <v>10462.43641208737</v>
+        <v>2.22291949880327</v>
       </c>
       <c r="E14">
-        <v>6.130191802978516</v>
+        <v>1111.81591796875</v>
       </c>
       <c r="F14">
-        <v>54.13391494750977</v>
+        <v>5.045291423797607</v>
       </c>
       <c r="G14">
-        <v>72.70954132080078</v>
+        <v>67.93511199951172</v>
       </c>
       <c r="H14">
-        <v>10460.9677734375</v>
+        <v>2.23066520690918</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>15.74490806177848</v>
+        <v>918.1720483541166</v>
       </c>
       <c r="B15">
-        <v>45.94873901710267</v>
+        <v>4.173509310700529</v>
       </c>
       <c r="C15">
-        <v>72.98282325956031</v>
+        <v>70.50733587998843</v>
       </c>
       <c r="D15">
-        <v>14540.0360785546</v>
+        <v>1.854396619784282</v>
       </c>
       <c r="E15">
-        <v>15.00098705291748</v>
+        <v>906.9697875976562</v>
       </c>
       <c r="F15">
-        <v>46.37162780761719</v>
+        <v>4.122745037078857</v>
       </c>
       <c r="G15">
-        <v>75.80641937255859</v>
+        <v>70.27124786376953</v>
       </c>
       <c r="H15">
-        <v>14546.1171875</v>
+        <v>1.850423216819763</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>9.341091394208016</v>
+        <v>1015.824338477484</v>
       </c>
       <c r="B16">
-        <v>56.27595639404954</v>
+        <v>4.617383356715835</v>
       </c>
       <c r="C16">
-        <v>75.69964910701265</v>
+        <v>62.21389784608476</v>
       </c>
       <c r="D16">
-        <v>10114.37984564497</v>
+        <v>1.763345810964277</v>
       </c>
       <c r="E16">
-        <v>9.405610084533691</v>
+        <v>1012.820556640625</v>
       </c>
       <c r="F16">
-        <v>56.33484268188477</v>
+        <v>4.616142272949219</v>
       </c>
       <c r="G16">
-        <v>75.05043029785156</v>
+        <v>62.11945724487305</v>
       </c>
       <c r="H16">
-        <v>10112.4921875</v>
+        <v>1.752304434776306</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>7.747870430106753</v>
+        <v>938.2348314733908</v>
       </c>
       <c r="B17">
-        <v>47.93011481693969</v>
+        <v>4.264703779424504</v>
       </c>
       <c r="C17">
-        <v>75.90872761248173</v>
+        <v>80.70368729673908</v>
       </c>
       <c r="D17">
-        <v>16632.07406390011</v>
+        <v>1.242594796551946</v>
       </c>
       <c r="E17">
-        <v>8.35527229309082</v>
+        <v>948.1427001953125</v>
       </c>
       <c r="F17">
-        <v>47.74765777587891</v>
+        <v>4.282802581787109</v>
       </c>
       <c r="G17">
-        <v>73.94261932373047</v>
+        <v>80.71579742431641</v>
       </c>
       <c r="H17">
-        <v>16714.18359375</v>
+        <v>1.238553881645203</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>13.79769402215125</v>
+        <v>1112.423647646254</v>
       </c>
       <c r="B18">
-        <v>57.62206394222324</v>
+        <v>5.05647112566479</v>
       </c>
       <c r="C18">
-        <v>75.74325248849578</v>
+        <v>79.09574193596575</v>
       </c>
       <c r="D18">
-        <v>16265.8706285251</v>
+        <v>1.534177010667574</v>
       </c>
       <c r="E18">
-        <v>14.94988059997559</v>
+        <v>1109.644897460938</v>
       </c>
       <c r="F18">
-        <v>57.55755233764648</v>
+        <v>5.059954643249512</v>
       </c>
       <c r="G18">
-        <v>72.88558959960938</v>
+        <v>79.15351104736328</v>
       </c>
       <c r="H18">
-        <v>16327.9208984375</v>
+        <v>1.528379678726196</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>5.301613192812403</v>
+        <v>689.5072504523894</v>
       </c>
       <c r="B19">
-        <v>51.62545745271717</v>
+        <v>3.134123865692679</v>
       </c>
       <c r="C19">
-        <v>76.53200819857133</v>
+        <v>72.47612966210261</v>
       </c>
       <c r="D19">
-        <v>14121.90664753134</v>
+        <v>1.316137718411803</v>
       </c>
       <c r="E19">
-        <v>6.827439308166504</v>
+        <v>688.18408203125</v>
       </c>
       <c r="F19">
-        <v>51.532958984375</v>
+        <v>3.151518821716309</v>
       </c>
       <c r="G19">
-        <v>73.43199157714844</v>
+        <v>72.4588623046875</v>
       </c>
       <c r="H19">
-        <v>14207.0517578125</v>
+        <v>1.31398606300354</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>17.43410043826044</v>
+        <v>1045.873849121517</v>
       </c>
       <c r="B20">
-        <v>57.63470723709706</v>
+        <v>4.753972041461439</v>
       </c>
       <c r="C20">
-        <v>76.52103270001689</v>
+        <v>82.1908247904172</v>
       </c>
       <c r="D20">
-        <v>12664.649675034</v>
+        <v>1.713838222546108</v>
       </c>
       <c r="E20">
-        <v>17.81032943725586</v>
+        <v>1041.950073242188</v>
       </c>
       <c r="F20">
-        <v>57.88356399536133</v>
+        <v>4.743383884429932</v>
       </c>
       <c r="G20">
-        <v>75.78622436523438</v>
+        <v>82.38271331787109</v>
       </c>
       <c r="H20">
-        <v>12649.283203125</v>
+        <v>1.711983323097229</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>5.070432142888206</v>
+        <v>713.5327323386573</v>
       </c>
       <c r="B21">
-        <v>53.85063180155532</v>
+        <v>3.243330601539351</v>
       </c>
       <c r="C21">
-        <v>74.31418435433974</v>
+        <v>74.10697704193217</v>
       </c>
       <c r="D21">
-        <v>9622.502959096242</v>
+        <v>1.34153209280891</v>
       </c>
       <c r="E21">
-        <v>6.313008308410645</v>
+        <v>713.4712524414062</v>
       </c>
       <c r="F21">
-        <v>53.48606109619141</v>
+        <v>3.268731832504272</v>
       </c>
       <c r="G21">
-        <v>70.92327880859375</v>
+        <v>74.11357116699219</v>
       </c>
       <c r="H21">
-        <v>9731.3896484375</v>
+        <v>1.341182947158813</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -429,522 +429,522 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1085.957173853721</v>
+        <v>865.8076211556964</v>
       </c>
       <c r="B2">
-        <v>4.936168972062367</v>
+        <v>3.935489187071347</v>
       </c>
       <c r="C2">
-        <v>85.85065616927892</v>
+        <v>81.22553376900157</v>
       </c>
       <c r="D2">
-        <v>1.563025789393325</v>
+        <v>1.547982161899338</v>
       </c>
       <c r="E2">
-        <v>1077.266235351562</v>
+        <v>870.9627685546875</v>
       </c>
       <c r="F2">
-        <v>4.895987987518311</v>
+        <v>3.973341464996338</v>
       </c>
       <c r="G2">
-        <v>85.94892120361328</v>
+        <v>81.16103363037109</v>
       </c>
       <c r="H2">
-        <v>1.559031963348389</v>
+        <v>1.547192215919495</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>823.506298023361</v>
+        <v>668.6751214703528</v>
       </c>
       <c r="B3">
-        <v>3.743210445560732</v>
+        <v>3.039432370319786</v>
       </c>
       <c r="C3">
-        <v>78.56137803587114</v>
+        <v>74.82121774012859</v>
       </c>
       <c r="D3">
-        <v>1.390658591501696</v>
+        <v>1.381594046610092</v>
       </c>
       <c r="E3">
-        <v>820.2244262695312</v>
+        <v>671.8682250976562</v>
       </c>
       <c r="F3">
-        <v>3.736740112304688</v>
+        <v>3.044100999832153</v>
       </c>
       <c r="G3">
-        <v>78.76739501953125</v>
+        <v>75.18991851806641</v>
       </c>
       <c r="H3">
-        <v>1.389791965484619</v>
+        <v>1.377697110176086</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>958.3604731485176</v>
+        <v>733.7113804798977</v>
       </c>
       <c r="B4">
-        <v>4.356183968856898</v>
+        <v>3.33505172945408</v>
       </c>
       <c r="C4">
-        <v>68.71086292569032</v>
+        <v>64.60832586860181</v>
       </c>
       <c r="D4">
-        <v>1.864160692216301</v>
+        <v>1.850540085054864</v>
       </c>
       <c r="E4">
-        <v>946.0777587890625</v>
+        <v>725.961669921875</v>
       </c>
       <c r="F4">
-        <v>4.294015884399414</v>
+        <v>3.302112817764282</v>
       </c>
       <c r="G4">
-        <v>68.55522918701172</v>
+        <v>64.74369049072266</v>
       </c>
       <c r="H4">
-        <v>1.864650249481201</v>
+        <v>1.840295076370239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>951.6810787539326</v>
+        <v>745.9156777051711</v>
       </c>
       <c r="B5">
-        <v>4.325823085245148</v>
+        <v>3.390525807750778</v>
       </c>
       <c r="C5">
-        <v>81.08178726100766</v>
+        <v>76.14150837841709</v>
       </c>
       <c r="D5">
-        <v>1.421231444922713</v>
+        <v>1.40847087339762</v>
       </c>
       <c r="E5">
-        <v>949.45703125</v>
+        <v>755.6278686523438</v>
       </c>
       <c r="F5">
-        <v>4.311104297637939</v>
+        <v>3.416039705276489</v>
       </c>
       <c r="G5">
-        <v>81.09991455078125</v>
+        <v>76.54212951660156</v>
       </c>
       <c r="H5">
-        <v>1.414665460586548</v>
+        <v>1.418240070343018</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>580.5926708483463</v>
+        <v>403.7478290684457</v>
       </c>
       <c r="B6">
-        <v>2.639057594765211</v>
+        <v>1.835217404856571</v>
       </c>
       <c r="C6">
-        <v>60.13672140728255</v>
+        <v>55.12651421961891</v>
       </c>
       <c r="D6">
-        <v>1.23290332349421</v>
+        <v>1.22176114859273</v>
       </c>
       <c r="E6">
-        <v>583.618408203125</v>
+        <v>408.8901062011719</v>
       </c>
       <c r="F6">
-        <v>2.653793573379517</v>
+        <v>1.86414647102356</v>
       </c>
       <c r="G6">
-        <v>59.98965454101562</v>
+        <v>54.97362518310547</v>
       </c>
       <c r="H6">
-        <v>1.234770178794861</v>
+        <v>1.226698160171509</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>896.6515685371606</v>
+        <v>707.2714450794919</v>
       </c>
       <c r="B7">
-        <v>4.075688947896185</v>
+        <v>3.214870204906781</v>
       </c>
       <c r="C7">
-        <v>73.72910902681343</v>
+        <v>69.81842864329923</v>
       </c>
       <c r="D7">
-        <v>1.625721210552608</v>
+        <v>1.614167055920128</v>
       </c>
       <c r="E7">
-        <v>891.5700073242188</v>
+        <v>699.8240356445312</v>
       </c>
       <c r="F7">
-        <v>4.045180797576904</v>
+        <v>3.169941186904907</v>
       </c>
       <c r="G7">
-        <v>73.79087066650391</v>
+        <v>69.64033508300781</v>
       </c>
       <c r="H7">
-        <v>1.620140433311462</v>
+        <v>1.603927612304688</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>951.5309057703157</v>
+        <v>667.1905554385579</v>
       </c>
       <c r="B8">
-        <v>4.325140480774162</v>
+        <v>3.032684342902536</v>
       </c>
       <c r="C8">
-        <v>62.08913102686216</v>
+        <v>56.70679239225603</v>
       </c>
       <c r="D8">
-        <v>1.887469550146972</v>
+        <v>1.87067564979227</v>
       </c>
       <c r="E8">
-        <v>938.2448120117188</v>
+        <v>661.5151977539062</v>
       </c>
       <c r="F8">
-        <v>4.268236637115479</v>
+        <v>3.029650688171387</v>
       </c>
       <c r="G8">
-        <v>61.77587509155273</v>
+        <v>56.74850463867188</v>
       </c>
       <c r="H8">
-        <v>1.878389954566956</v>
+        <v>1.872677326202393</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>878.080154739305</v>
+        <v>747.4686885219467</v>
       </c>
       <c r="B9">
-        <v>3.991273430633205</v>
+        <v>3.39758494782703</v>
       </c>
       <c r="C9">
-        <v>82.22717515299939</v>
+        <v>79.15825930703772</v>
       </c>
       <c r="D9">
-        <v>1.448058185825511</v>
+        <v>1.441499830676714</v>
       </c>
       <c r="E9">
-        <v>879.4284057617188</v>
+        <v>768.3980712890625</v>
       </c>
       <c r="F9">
-        <v>4.009664535522461</v>
+        <v>3.455219507217407</v>
       </c>
       <c r="G9">
-        <v>82.20899200439453</v>
+        <v>79.20829772949219</v>
       </c>
       <c r="H9">
-        <v>1.451000094413757</v>
+        <v>1.461762070655823</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>957.8220812804771</v>
+        <v>801.8315002874823</v>
       </c>
       <c r="B10">
-        <v>4.353736733093077</v>
+        <v>3.644688637670374</v>
       </c>
       <c r="C10">
-        <v>68.13607828849729</v>
+        <v>65.51380157826003</v>
       </c>
       <c r="D10">
-        <v>2.0927417289972</v>
+        <v>2.086063669371808</v>
       </c>
       <c r="E10">
-        <v>946.6256713867188</v>
+        <v>819.1380004882812</v>
       </c>
       <c r="F10">
-        <v>4.298069477081299</v>
+        <v>3.778500556945801</v>
       </c>
       <c r="G10">
-        <v>67.86871337890625</v>
+        <v>65.61617279052734</v>
       </c>
       <c r="H10">
-        <v>2.095720767974854</v>
+        <v>2.133080244064331</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>718.1953415920625</v>
+        <v>522.8316059136538</v>
       </c>
       <c r="B11">
-        <v>3.264524279963921</v>
+        <v>2.376507299607517</v>
       </c>
       <c r="C11">
-        <v>70.49642622494423</v>
+        <v>64.98423315479118</v>
       </c>
       <c r="D11">
-        <v>1.222878337065826</v>
+        <v>1.210175877709597</v>
       </c>
       <c r="E11">
-        <v>713.3759155273438</v>
+        <v>521.57763671875</v>
       </c>
       <c r="F11">
-        <v>3.236940145492554</v>
+        <v>2.399527311325073</v>
       </c>
       <c r="G11">
-        <v>70.43959045410156</v>
+        <v>65.25044250488281</v>
       </c>
       <c r="H11">
-        <v>1.211286902427673</v>
+        <v>1.20848536491394</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>878.0247503105653</v>
+        <v>681.4826117151366</v>
       </c>
       <c r="B12">
-        <v>3.991021592320751</v>
+        <v>3.097648235068803</v>
       </c>
       <c r="C12">
-        <v>61.31824057272701</v>
+        <v>58.01969777608116</v>
       </c>
       <c r="D12">
-        <v>2.099455583409967</v>
+        <v>2.089637911197305</v>
       </c>
       <c r="E12">
-        <v>864.8340454101562</v>
+        <v>683.82861328125</v>
       </c>
       <c r="F12">
-        <v>3.936774253845215</v>
+        <v>3.141413450241089</v>
       </c>
       <c r="G12">
-        <v>61.14065170288086</v>
+        <v>58.33683395385742</v>
       </c>
       <c r="H12">
-        <v>2.100042581558228</v>
+        <v>2.087328672409058</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1168.679424270233</v>
+        <v>912.6747679843742</v>
       </c>
       <c r="B13">
-        <v>5.312179201228331</v>
+        <v>4.148521672656246</v>
       </c>
       <c r="C13">
-        <v>79.63216536771534</v>
+        <v>74.96702938973311</v>
       </c>
       <c r="D13">
-        <v>1.830446871699931</v>
+        <v>1.813587795881309</v>
       </c>
       <c r="E13">
-        <v>1170.267822265625</v>
+        <v>915.4268188476562</v>
       </c>
       <c r="F13">
-        <v>5.326916217803955</v>
+        <v>4.16252613067627</v>
       </c>
       <c r="G13">
-        <v>79.78745269775391</v>
+        <v>74.97228240966797</v>
       </c>
       <c r="H13">
-        <v>1.835763812065125</v>
+        <v>1.812084317207336</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1118.334704294067</v>
+        <v>849.4332832699217</v>
       </c>
       <c r="B14">
-        <v>5.083339564973033</v>
+        <v>3.861060378499644</v>
       </c>
       <c r="C14">
-        <v>68.08098153604777</v>
+        <v>64.03077297024208</v>
       </c>
       <c r="D14">
-        <v>2.22291949880327</v>
+        <v>2.205643060268716</v>
       </c>
       <c r="E14">
-        <v>1111.81591796875</v>
+        <v>859.3466186523438</v>
       </c>
       <c r="F14">
-        <v>5.045291423797607</v>
+        <v>3.909688711166382</v>
       </c>
       <c r="G14">
-        <v>67.93511199951172</v>
+        <v>64.09207153320312</v>
       </c>
       <c r="H14">
-        <v>2.23066520690918</v>
+        <v>2.212320327758789</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>918.1720483541166</v>
+        <v>764.9882203941365</v>
       </c>
       <c r="B15">
-        <v>4.173509310700529</v>
+        <v>3.477219183609712</v>
       </c>
       <c r="C15">
-        <v>70.50733587998843</v>
+        <v>67.58879894320933</v>
       </c>
       <c r="D15">
-        <v>1.854396619784282</v>
+        <v>1.847690605435842</v>
       </c>
       <c r="E15">
-        <v>906.9697875976562</v>
+        <v>773.1941528320312</v>
       </c>
       <c r="F15">
-        <v>4.122745037078857</v>
+        <v>3.512359380722046</v>
       </c>
       <c r="G15">
-        <v>70.27124786376953</v>
+        <v>67.32568359375</v>
       </c>
       <c r="H15">
-        <v>1.850423216819763</v>
+        <v>1.879199504852295</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1015.824338477484</v>
+        <v>646.8230595060777</v>
       </c>
       <c r="B16">
-        <v>4.617383356715835</v>
+        <v>2.940104815936717</v>
       </c>
       <c r="C16">
-        <v>62.21389784608476</v>
+        <v>54.72920047364931</v>
       </c>
       <c r="D16">
-        <v>1.763345810964277</v>
+        <v>1.738365167247628</v>
       </c>
       <c r="E16">
-        <v>1012.820556640625</v>
+        <v>661.9425659179688</v>
       </c>
       <c r="F16">
-        <v>4.616142272949219</v>
+        <v>2.991424083709717</v>
       </c>
       <c r="G16">
-        <v>62.11945724487305</v>
+        <v>54.3863639831543</v>
       </c>
       <c r="H16">
-        <v>1.752304434776306</v>
+        <v>1.742787003517151</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>938.2348314733908</v>
+        <v>665.6079907264383</v>
       </c>
       <c r="B17">
-        <v>4.264703779424504</v>
+        <v>3.025490866938356</v>
       </c>
       <c r="C17">
-        <v>80.70368729673908</v>
+        <v>73.26153166599943</v>
       </c>
       <c r="D17">
-        <v>1.242594796551946</v>
+        <v>1.222264593286663</v>
       </c>
       <c r="E17">
-        <v>948.1427001953125</v>
+        <v>695.0214233398438</v>
       </c>
       <c r="F17">
-        <v>4.282802581787109</v>
+        <v>3.153612375259399</v>
       </c>
       <c r="G17">
-        <v>80.71579742431641</v>
+        <v>73.56150054931641</v>
       </c>
       <c r="H17">
-        <v>1.238553881645203</v>
+        <v>1.238518238067627</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>1112.423647646254</v>
+        <v>779.9062136581094</v>
       </c>
       <c r="B18">
-        <v>5.05647112566479</v>
+        <v>3.545028243900497</v>
       </c>
       <c r="C18">
-        <v>79.09574193596575</v>
+        <v>71.98595204117288</v>
       </c>
       <c r="D18">
-        <v>1.534177010667574</v>
+        <v>1.507107925782621</v>
       </c>
       <c r="E18">
-        <v>1109.644897460938</v>
+        <v>820.4475708007812</v>
       </c>
       <c r="F18">
-        <v>5.059954643249512</v>
+        <v>3.666774272918701</v>
       </c>
       <c r="G18">
-        <v>79.15351104736328</v>
+        <v>72.11370849609375</v>
       </c>
       <c r="H18">
-        <v>1.528379678726196</v>
+        <v>1.561562776565552</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>689.5072504523894</v>
+        <v>564.8398388976129</v>
       </c>
       <c r="B19">
-        <v>3.134123865692679</v>
+        <v>2.567453813170968</v>
       </c>
       <c r="C19">
-        <v>72.47612966210261</v>
+        <v>69.18527132628077</v>
       </c>
       <c r="D19">
-        <v>1.316137718411803</v>
+        <v>1.309963659524748</v>
       </c>
       <c r="E19">
-        <v>688.18408203125</v>
+        <v>575.35400390625</v>
       </c>
       <c r="F19">
-        <v>3.151518821716309</v>
+        <v>2.664212703704834</v>
       </c>
       <c r="G19">
-        <v>72.4588623046875</v>
+        <v>69.37921905517578</v>
       </c>
       <c r="H19">
-        <v>1.31398606300354</v>
+        <v>1.343511462211609</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>1045.873849121517</v>
+        <v>869.5931556945404</v>
       </c>
       <c r="B20">
-        <v>4.753972041461439</v>
+        <v>3.952696162247911</v>
       </c>
       <c r="C20">
-        <v>82.1908247904172</v>
+        <v>78.77910442401628</v>
       </c>
       <c r="D20">
-        <v>1.713838222546108</v>
+        <v>1.703559075869232</v>
       </c>
       <c r="E20">
-        <v>1041.950073242188</v>
+        <v>873.0420532226562</v>
       </c>
       <c r="F20">
-        <v>4.743383884429932</v>
+        <v>3.946182489395142</v>
       </c>
       <c r="G20">
-        <v>82.38271331787109</v>
+        <v>78.64844512939453</v>
       </c>
       <c r="H20">
-        <v>1.711983323097229</v>
+        <v>1.694158673286438</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>713.5327323386573</v>
+        <v>592.9610695625362</v>
       </c>
       <c r="B21">
-        <v>3.243330601539351</v>
+        <v>2.695277588920619</v>
       </c>
       <c r="C21">
-        <v>74.10697704193217</v>
+        <v>70.99553502428301</v>
       </c>
       <c r="D21">
-        <v>1.34153209280891</v>
+        <v>1.335685312556614</v>
       </c>
       <c r="E21">
-        <v>713.4712524414062</v>
+        <v>607.6273193359375</v>
       </c>
       <c r="F21">
-        <v>3.268731832504272</v>
+        <v>2.806180953979492</v>
       </c>
       <c r="G21">
-        <v>74.11357116699219</v>
+        <v>71.07904052734375</v>
       </c>
       <c r="H21">
-        <v>1.341182947158813</v>
+        <v>1.367692947387695</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MLP_Validation_Dataset.xlsx
+++ b/datasets/MLP_Validation_Dataset.xlsx
@@ -429,522 +429,522 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>865.8076211556964</v>
+        <v>860.6843515803669</v>
       </c>
       <c r="B2">
-        <v>3.935489187071347</v>
+        <v>3.912201598092577</v>
       </c>
       <c r="C2">
-        <v>81.22553376900157</v>
+        <v>90.86668033906227</v>
       </c>
       <c r="D2">
-        <v>1.547982161899338</v>
+        <v>1.238472899808378</v>
       </c>
       <c r="E2">
-        <v>870.9627685546875</v>
+        <v>863.1398315429688</v>
       </c>
       <c r="F2">
-        <v>3.973341464996338</v>
+        <v>3.862115621566772</v>
       </c>
       <c r="G2">
-        <v>81.16103363037109</v>
+        <v>90.77709197998047</v>
       </c>
       <c r="H2">
-        <v>1.547192215919495</v>
+        <v>1.235077261924744</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>668.6751214703528</v>
+        <v>513.1940128816041</v>
       </c>
       <c r="B3">
-        <v>3.039432370319786</v>
+        <v>2.332700058552746</v>
       </c>
       <c r="C3">
-        <v>74.82121774012859</v>
+        <v>79.44745434032257</v>
       </c>
       <c r="D3">
-        <v>1.381594046610092</v>
+        <v>0.9745546493291284</v>
       </c>
       <c r="E3">
-        <v>671.8682250976562</v>
+        <v>521.2578735351562</v>
       </c>
       <c r="F3">
-        <v>3.044100999832153</v>
+        <v>2.324284553527832</v>
       </c>
       <c r="G3">
-        <v>75.18991851806641</v>
+        <v>79.54720306396484</v>
       </c>
       <c r="H3">
-        <v>1.377697110176086</v>
+        <v>0.9769288897514343</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>733.7113804798977</v>
+        <v>804.1806264807286</v>
       </c>
       <c r="B4">
-        <v>3.33505172945408</v>
+        <v>3.655366484003312</v>
       </c>
       <c r="C4">
-        <v>64.60832586860181</v>
+        <v>65.6520626667446</v>
       </c>
       <c r="D4">
-        <v>1.850540085054864</v>
+        <v>1.837266748320942</v>
       </c>
       <c r="E4">
-        <v>725.961669921875</v>
+        <v>802.1593017578125</v>
       </c>
       <c r="F4">
-        <v>3.302112817764282</v>
+        <v>3.630875825881958</v>
       </c>
       <c r="G4">
-        <v>64.74369049072266</v>
+        <v>65.55773162841797</v>
       </c>
       <c r="H4">
-        <v>1.840295076370239</v>
+        <v>1.849378705024719</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>745.9156777051711</v>
+        <v>664.7789928912285</v>
       </c>
       <c r="B5">
-        <v>3.390525807750778</v>
+        <v>3.02172269496013</v>
       </c>
       <c r="C5">
-        <v>76.14150837841709</v>
+        <v>83.12408038379573</v>
       </c>
       <c r="D5">
-        <v>1.40847087339762</v>
+        <v>1.02995787400382</v>
       </c>
       <c r="E5">
-        <v>755.6278686523438</v>
+        <v>666.68408203125</v>
       </c>
       <c r="F5">
-        <v>3.416039705276489</v>
+        <v>2.972813367843628</v>
       </c>
       <c r="G5">
-        <v>76.54212951660156</v>
+        <v>83.07846832275391</v>
       </c>
       <c r="H5">
-        <v>1.418240070343018</v>
+        <v>1.023933291435242</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>403.7478290684457</v>
+        <v>340.8504879206644</v>
       </c>
       <c r="B6">
-        <v>1.835217404856571</v>
+        <v>1.549320399639383</v>
       </c>
       <c r="C6">
-        <v>55.12651421961891</v>
+        <v>53.43999995745475</v>
       </c>
       <c r="D6">
-        <v>1.22176114859273</v>
+        <v>0.8680711450312685</v>
       </c>
       <c r="E6">
-        <v>408.8901062011719</v>
+        <v>340.1817932128906</v>
       </c>
       <c r="F6">
-        <v>1.86414647102356</v>
+        <v>1.550617694854736</v>
       </c>
       <c r="G6">
-        <v>54.97362518310547</v>
+        <v>53.47706604003906</v>
       </c>
       <c r="H6">
-        <v>1.226698160171509</v>
+        <v>0.8605641722679138</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>707.2714450794919</v>
+        <v>687.8861331246297</v>
       </c>
       <c r="B7">
-        <v>3.214870204906781</v>
+        <v>3.126755150566499</v>
       </c>
       <c r="C7">
-        <v>69.81842864329923</v>
+        <v>72.95857147479302</v>
       </c>
       <c r="D7">
-        <v>1.614167055920128</v>
+        <v>1.414364753068805</v>
       </c>
       <c r="E7">
-        <v>699.8240356445312</v>
+        <v>694.6416625976562</v>
       </c>
       <c r="F7">
-        <v>3.169941186904907</v>
+        <v>3.135890483856201</v>
       </c>
       <c r="G7">
-        <v>69.64033508300781</v>
+        <v>73.25852203369141</v>
       </c>
       <c r="H7">
-        <v>1.603927612304688</v>
+        <v>1.41679584980011</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>667.1905554385579</v>
+        <v>802.509261041841</v>
       </c>
       <c r="B8">
-        <v>3.032684342902536</v>
+        <v>3.647769368372005</v>
       </c>
       <c r="C8">
-        <v>56.70679239225603</v>
+        <v>55.43555057365677</v>
       </c>
       <c r="D8">
-        <v>1.87067564979227</v>
+        <v>1.906398113915365</v>
       </c>
       <c r="E8">
-        <v>661.5151977539062</v>
+        <v>795.4888305664062</v>
       </c>
       <c r="F8">
-        <v>3.029650688171387</v>
+        <v>3.613675117492676</v>
       </c>
       <c r="G8">
-        <v>56.74850463867188</v>
+        <v>55.22809600830078</v>
       </c>
       <c r="H8">
-        <v>1.872677326202393</v>
+        <v>1.907754063606262</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>747.4686885219467</v>
+        <v>531.5882751087696</v>
       </c>
       <c r="B9">
-        <v>3.39758494782703</v>
+        <v>2.416310341403498</v>
       </c>
       <c r="C9">
-        <v>79.15825930703772</v>
+        <v>83.54535462530259</v>
       </c>
       <c r="D9">
-        <v>1.441499830676714</v>
+        <v>1.042156317201361</v>
       </c>
       <c r="E9">
-        <v>768.3980712890625</v>
+        <v>545.5994873046875</v>
       </c>
       <c r="F9">
-        <v>3.455219507217407</v>
+        <v>2.397069692611694</v>
       </c>
       <c r="G9">
-        <v>79.20829772949219</v>
+        <v>82.85211181640625</v>
       </c>
       <c r="H9">
-        <v>1.461762070655823</v>
+        <v>1.055340886116028</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>801.8315002874823</v>
+        <v>665.0718122683322</v>
       </c>
       <c r="B10">
-        <v>3.644688637670374</v>
+        <v>3.023053692128783</v>
       </c>
       <c r="C10">
-        <v>65.51380157826003</v>
+        <v>62.66461948322814</v>
       </c>
       <c r="D10">
-        <v>2.086063669371808</v>
+        <v>2.219185106925259</v>
       </c>
       <c r="E10">
-        <v>819.1380004882812</v>
+        <v>661.8773193359375</v>
       </c>
       <c r="F10">
-        <v>3.778500556945801</v>
+        <v>2.931782484054565</v>
       </c>
       <c r="G10">
-        <v>65.61617279052734</v>
+        <v>62.35832977294922</v>
       </c>
       <c r="H10">
-        <v>2.133080244064331</v>
+        <v>2.216866016387939</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>522.8316059136538</v>
+        <v>441.7737518169947</v>
       </c>
       <c r="B11">
-        <v>2.376507299607517</v>
+        <v>2.008062508259067</v>
       </c>
       <c r="C11">
-        <v>64.98423315479118</v>
+        <v>68.67861429948152</v>
       </c>
       <c r="D11">
-        <v>1.210175877709597</v>
+        <v>0.788055812582565</v>
       </c>
       <c r="E11">
-        <v>521.57763671875</v>
+        <v>443.8110961914062</v>
       </c>
       <c r="F11">
-        <v>2.399527311325073</v>
+        <v>1.987303018569946</v>
       </c>
       <c r="G11">
-        <v>65.25044250488281</v>
+        <v>68.86837768554688</v>
       </c>
       <c r="H11">
-        <v>1.20848536491394</v>
+        <v>0.7809013724327087</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>681.4826117151366</v>
+        <v>606.0441660017802</v>
       </c>
       <c r="B12">
-        <v>3.097648235068803</v>
+        <v>2.754746209099001</v>
       </c>
       <c r="C12">
-        <v>58.01969777608116</v>
+        <v>53.56798490560772</v>
       </c>
       <c r="D12">
-        <v>2.089637911197305</v>
+        <v>2.237985935930394</v>
       </c>
       <c r="E12">
-        <v>683.82861328125</v>
+        <v>601.9494018554688</v>
       </c>
       <c r="F12">
-        <v>3.141413450241089</v>
+        <v>2.734387159347534</v>
       </c>
       <c r="G12">
-        <v>58.33683395385742</v>
+        <v>53.1558952331543</v>
       </c>
       <c r="H12">
-        <v>2.087328672409058</v>
+        <v>2.23185133934021</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>912.6747679843742</v>
+        <v>1081.269059136127</v>
       </c>
       <c r="B13">
-        <v>4.148521672656246</v>
+        <v>4.914859359709668</v>
       </c>
       <c r="C13">
-        <v>74.96702938973311</v>
+        <v>81.82801710489395</v>
       </c>
       <c r="D13">
-        <v>1.813587795881309</v>
+        <v>1.746387887999544</v>
       </c>
       <c r="E13">
-        <v>915.4268188476562</v>
+        <v>1086.56396484375</v>
       </c>
       <c r="F13">
-        <v>4.16252613067627</v>
+        <v>4.909054756164551</v>
       </c>
       <c r="G13">
-        <v>74.97228240966797</v>
+        <v>82.27091979980469</v>
       </c>
       <c r="H13">
-        <v>1.812084317207336</v>
+        <v>1.757545471191406</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>849.4332832699217</v>
+        <v>1061.932245949086</v>
       </c>
       <c r="B14">
-        <v>3.861060378499644</v>
+        <v>4.826964754314026</v>
       </c>
       <c r="C14">
-        <v>64.03077297024208</v>
+        <v>65.36674348599399</v>
       </c>
       <c r="D14">
-        <v>2.205643060268716</v>
+        <v>2.42927699554501</v>
       </c>
       <c r="E14">
-        <v>859.3466186523438</v>
+        <v>1049.491455078125</v>
       </c>
       <c r="F14">
-        <v>3.909688711166382</v>
+        <v>4.788876533508301</v>
       </c>
       <c r="G14">
-        <v>64.09207153320312</v>
+        <v>65.35366821289062</v>
       </c>
       <c r="H14">
-        <v>2.212320327758789</v>
+        <v>2.441235303878784</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>764.9882203941365</v>
+        <v>629.3744366956354</v>
       </c>
       <c r="B15">
-        <v>3.477219183609712</v>
+        <v>2.86079289407107</v>
       </c>
       <c r="C15">
-        <v>67.58879894320933</v>
+        <v>65.84493794374413</v>
       </c>
       <c r="D15">
-        <v>1.847690605435842</v>
+        <v>1.816211615007142</v>
       </c>
       <c r="E15">
-        <v>773.1941528320312</v>
+        <v>632.682861328125</v>
       </c>
       <c r="F15">
-        <v>3.512359380722046</v>
+        <v>2.806559085845947</v>
       </c>
       <c r="G15">
-        <v>67.32568359375</v>
+        <v>65.55947113037109</v>
       </c>
       <c r="H15">
-        <v>1.879199504852295</v>
+        <v>1.820563316345215</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>646.8230595060777</v>
+        <v>1005.239664868703</v>
       </c>
       <c r="B16">
-        <v>2.940104815936717</v>
+        <v>4.569271203948652</v>
       </c>
       <c r="C16">
-        <v>54.72920047364931</v>
+        <v>57.67492178198188</v>
       </c>
       <c r="D16">
-        <v>1.738365167247628</v>
+        <v>1.726740020102551</v>
       </c>
       <c r="E16">
-        <v>661.9425659179688</v>
+        <v>1006.644104003906</v>
       </c>
       <c r="F16">
-        <v>2.991424083709717</v>
+        <v>4.59144115447998</v>
       </c>
       <c r="G16">
-        <v>54.3863639831543</v>
+        <v>58.16543579101562</v>
       </c>
       <c r="H16">
-        <v>1.742787003517151</v>
+        <v>1.722370147705078</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>665.6079907264383</v>
+        <v>650.3490175894341</v>
       </c>
       <c r="B17">
-        <v>3.025490866938356</v>
+        <v>2.956131898133791</v>
       </c>
       <c r="C17">
-        <v>73.26153166599943</v>
+        <v>85.32906898357351</v>
       </c>
       <c r="D17">
-        <v>1.222264593286663</v>
+        <v>0.7628025077028043</v>
       </c>
       <c r="E17">
-        <v>695.0214233398438</v>
+        <v>668.15576171875</v>
       </c>
       <c r="F17">
-        <v>3.153612375259399</v>
+        <v>3.014429807662964</v>
       </c>
       <c r="G17">
-        <v>73.56150054931641</v>
+        <v>85.2786865234375</v>
       </c>
       <c r="H17">
-        <v>1.238518238067627</v>
+        <v>0.7689965963363647</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>779.9062136581094</v>
+        <v>1058.553330603898</v>
       </c>
       <c r="B18">
-        <v>3.545028243900497</v>
+        <v>4.811606048199535</v>
       </c>
       <c r="C18">
-        <v>71.98595204117288</v>
+        <v>84.07738978894008</v>
       </c>
       <c r="D18">
-        <v>1.507107925782621</v>
+        <v>1.26383921309223</v>
       </c>
       <c r="E18">
-        <v>820.4475708007812</v>
+        <v>1055.292236328125</v>
       </c>
       <c r="F18">
-        <v>3.666774272918701</v>
+        <v>4.83100414276123</v>
       </c>
       <c r="G18">
-        <v>72.11370849609375</v>
+        <v>84.56607055664062</v>
       </c>
       <c r="H18">
-        <v>1.561562776565552</v>
+        <v>1.256818175315857</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>564.8398388976129</v>
+        <v>364.7597453313526</v>
       </c>
       <c r="B19">
-        <v>2.567453813170968</v>
+        <v>1.657998842415239</v>
       </c>
       <c r="C19">
-        <v>69.18527132628077</v>
+        <v>69.4877607209408</v>
       </c>
       <c r="D19">
-        <v>1.309963659524748</v>
+        <v>0.89949135755155</v>
       </c>
       <c r="E19">
-        <v>575.35400390625</v>
+        <v>375.8826599121094</v>
       </c>
       <c r="F19">
-        <v>2.664212703704834</v>
+        <v>1.641098022460938</v>
       </c>
       <c r="G19">
-        <v>69.37921905517578</v>
+        <v>69.33924102783203</v>
       </c>
       <c r="H19">
-        <v>1.343511462211609</v>
+        <v>0.8990448117256165</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>869.5931556945404</v>
+        <v>832.7068392230001</v>
       </c>
       <c r="B20">
-        <v>3.952696162247911</v>
+        <v>3.785031087377273</v>
       </c>
       <c r="C20">
-        <v>78.77910442401628</v>
+        <v>84.69199126132031</v>
       </c>
       <c r="D20">
-        <v>1.703559075869232</v>
+        <v>1.525891463878627</v>
       </c>
       <c r="E20">
-        <v>873.0420532226562</v>
+        <v>839.0126342773438</v>
       </c>
       <c r="F20">
-        <v>3.946182489395142</v>
+        <v>3.756873846054077</v>
       </c>
       <c r="G20">
-        <v>78.64844512939453</v>
+        <v>84.62397003173828</v>
       </c>
       <c r="H20">
-        <v>1.694158673286438</v>
+        <v>1.522988557815552</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>592.9610695625362</v>
+        <v>381.9063300471682</v>
       </c>
       <c r="B21">
-        <v>2.695277588920619</v>
+        <v>1.735937863850765</v>
       </c>
       <c r="C21">
-        <v>70.99553502428301</v>
+        <v>71.77123256861205</v>
       </c>
       <c r="D21">
-        <v>1.335685312556614</v>
+        <v>0.9262474468428752</v>
       </c>
       <c r="E21">
-        <v>607.6273193359375</v>
+        <v>392.1371765136719</v>
       </c>
       <c r="F21">
-        <v>2.806180953979492</v>
+        <v>1.715217351913452</v>
       </c>
       <c r="G21">
-        <v>71.07904052734375</v>
+        <v>71.59212493896484</v>
       </c>
       <c r="H21">
-        <v>1.367692947387695</v>
+        <v>0.9299800395965576</v>
       </c>
     </row>
   </sheetData>
